--- a/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="338">
   <si>
     <t>TABELA</t>
   </si>
@@ -1021,6 +1021,15 @@
   </si>
   <si>
     <t>in_update</t>
+  </si>
+  <si>
+    <t>SQ_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>NR_PROGRAMACAO</t>
+  </si>
+  <si>
+    <t>NR_DOCUMENTO</t>
   </si>
 </sst>
 </file>
@@ -1036,12 +1045,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1056,8 +1071,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,8 +1084,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D589" totalsRowShown="0">
-  <autoFilter ref="A1:D589"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D590" totalsRowShown="0">
+  <autoFilter ref="A1:D590"/>
   <tableColumns count="4">
     <tableColumn id="1" name="TABELA"/>
     <tableColumn id="2" name="COLUNA"/>
@@ -1365,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D589"/>
+  <dimension ref="A1:D590"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1782,7 +1798,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>335</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1826,7 +1842,7 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>337</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1837,18 +1853,16 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1859,7 +1873,7 @@
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1870,7 +1884,7 @@
         <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1881,7 +1895,7 @@
         <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1892,7 +1906,7 @@
         <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1903,7 +1917,7 @@
         <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1914,7 +1928,7 @@
         <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1925,7 +1939,7 @@
         <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1936,10 +1950,10 @@
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1947,21 +1961,21 @@
         <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1969,10 +1983,10 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1980,7 +1994,7 @@
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1991,7 +2005,7 @@
         <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2002,7 +2016,7 @@
         <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2013,7 +2027,7 @@
         <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2024,10 +2038,10 @@
         <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2035,10 +2049,10 @@
         <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2046,7 +2060,7 @@
         <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2057,7 +2071,7 @@
         <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2068,7 +2082,7 @@
         <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2079,7 +2093,7 @@
         <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2090,7 +2104,7 @@
         <v>49</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2101,7 +2115,7 @@
         <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2112,7 +2126,7 @@
         <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2123,7 +2137,7 @@
         <v>49</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2134,10 +2148,10 @@
         <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2145,10 +2159,10 @@
         <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2156,7 +2170,7 @@
         <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2167,7 +2181,7 @@
         <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2178,7 +2192,7 @@
         <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2189,7 +2203,7 @@
         <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2197,10 +2211,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2211,7 +2225,7 @@
         <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2222,7 +2236,7 @@
         <v>60</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2233,10 +2247,10 @@
         <v>60</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2244,7 +2258,7 @@
         <v>60</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2255,10 +2269,10 @@
         <v>60</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2266,7 +2280,7 @@
         <v>60</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2277,7 +2291,7 @@
         <v>60</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2288,7 +2302,7 @@
         <v>60</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2299,7 +2313,7 @@
         <v>60</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2310,7 +2324,7 @@
         <v>60</v>
       </c>
       <c r="B85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2321,7 +2335,7 @@
         <v>60</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2332,7 +2346,7 @@
         <v>60</v>
       </c>
       <c r="B87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2343,10 +2357,10 @@
         <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2354,10 +2368,10 @@
         <v>60</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2365,7 +2379,7 @@
         <v>60</v>
       </c>
       <c r="B90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2376,7 +2390,7 @@
         <v>60</v>
       </c>
       <c r="B91" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2387,7 +2401,7 @@
         <v>60</v>
       </c>
       <c r="B92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2398,7 +2412,7 @@
         <v>60</v>
       </c>
       <c r="B93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2409,7 +2423,7 @@
         <v>60</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2420,7 +2434,7 @@
         <v>60</v>
       </c>
       <c r="B95" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2431,7 +2445,7 @@
         <v>60</v>
       </c>
       <c r="B96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2442,7 +2456,7 @@
         <v>60</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2453,10 +2467,10 @@
         <v>60</v>
       </c>
       <c r="B98" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2464,10 +2478,10 @@
         <v>60</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2475,7 +2489,7 @@
         <v>60</v>
       </c>
       <c r="B100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2486,7 +2500,7 @@
         <v>60</v>
       </c>
       <c r="B101" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2497,7 +2511,7 @@
         <v>60</v>
       </c>
       <c r="B102" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2508,7 +2522,7 @@
         <v>60</v>
       </c>
       <c r="B103" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2519,7 +2533,7 @@
         <v>60</v>
       </c>
       <c r="B104" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2530,7 +2544,7 @@
         <v>60</v>
       </c>
       <c r="B105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2541,7 +2555,7 @@
         <v>60</v>
       </c>
       <c r="B106" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2552,7 +2566,7 @@
         <v>60</v>
       </c>
       <c r="B107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2563,7 +2577,7 @@
         <v>60</v>
       </c>
       <c r="B108" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2574,7 +2588,7 @@
         <v>60</v>
       </c>
       <c r="B109" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2585,7 +2599,7 @@
         <v>60</v>
       </c>
       <c r="B110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2596,7 +2610,7 @@
         <v>60</v>
       </c>
       <c r="B111" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2607,7 +2621,7 @@
         <v>60</v>
       </c>
       <c r="B112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2618,7 +2632,7 @@
         <v>60</v>
       </c>
       <c r="B113" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2629,7 +2643,7 @@
         <v>60</v>
       </c>
       <c r="B114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2640,7 +2654,7 @@
         <v>60</v>
       </c>
       <c r="B115" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2651,7 +2665,7 @@
         <v>60</v>
       </c>
       <c r="B116" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2662,7 +2676,7 @@
         <v>60</v>
       </c>
       <c r="B117" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2673,7 +2687,7 @@
         <v>60</v>
       </c>
       <c r="B118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2684,7 +2698,7 @@
         <v>60</v>
       </c>
       <c r="B119" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2695,7 +2709,7 @@
         <v>60</v>
       </c>
       <c r="B120" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2706,7 +2720,7 @@
         <v>60</v>
       </c>
       <c r="B121" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2717,7 +2731,7 @@
         <v>60</v>
       </c>
       <c r="B122" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2728,7 +2742,7 @@
         <v>60</v>
       </c>
       <c r="B123" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2739,7 +2753,7 @@
         <v>60</v>
       </c>
       <c r="B124" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2750,7 +2764,7 @@
         <v>60</v>
       </c>
       <c r="B125" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2761,7 +2775,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2772,7 +2786,7 @@
         <v>60</v>
       </c>
       <c r="B127" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2783,7 +2797,7 @@
         <v>60</v>
       </c>
       <c r="B128" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2794,7 +2808,7 @@
         <v>60</v>
       </c>
       <c r="B129" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2805,7 +2819,7 @@
         <v>60</v>
       </c>
       <c r="B130" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2816,7 +2830,7 @@
         <v>60</v>
       </c>
       <c r="B131" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2827,7 +2841,7 @@
         <v>60</v>
       </c>
       <c r="B132" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2838,7 +2852,7 @@
         <v>60</v>
       </c>
       <c r="B133" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2849,7 +2863,7 @@
         <v>60</v>
       </c>
       <c r="B134" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2860,7 +2874,7 @@
         <v>60</v>
       </c>
       <c r="B135" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2871,7 +2885,7 @@
         <v>60</v>
       </c>
       <c r="B136" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2882,7 +2896,7 @@
         <v>60</v>
       </c>
       <c r="B137" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2893,7 +2907,7 @@
         <v>60</v>
       </c>
       <c r="B138" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2904,7 +2918,7 @@
         <v>60</v>
       </c>
       <c r="B139" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2915,7 +2929,7 @@
         <v>60</v>
       </c>
       <c r="B140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2926,7 +2940,7 @@
         <v>60</v>
       </c>
       <c r="B141" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2937,7 +2951,7 @@
         <v>60</v>
       </c>
       <c r="B142" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -2948,7 +2962,7 @@
         <v>60</v>
       </c>
       <c r="B143" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2959,7 +2973,7 @@
         <v>60</v>
       </c>
       <c r="B144" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -2970,7 +2984,7 @@
         <v>60</v>
       </c>
       <c r="B145" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2981,7 +2995,7 @@
         <v>60</v>
       </c>
       <c r="B146" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -2992,7 +3006,7 @@
         <v>60</v>
       </c>
       <c r="B147" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3003,7 +3017,7 @@
         <v>60</v>
       </c>
       <c r="B148" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3014,7 +3028,7 @@
         <v>60</v>
       </c>
       <c r="B149" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3025,10 +3039,10 @@
         <v>60</v>
       </c>
       <c r="B150" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3036,21 +3050,21 @@
         <v>60</v>
       </c>
       <c r="B151" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3058,10 +3072,10 @@
         <v>132</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3069,7 +3083,7 @@
         <v>132</v>
       </c>
       <c r="B154" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3080,7 +3094,7 @@
         <v>132</v>
       </c>
       <c r="B155" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3091,7 +3105,7 @@
         <v>132</v>
       </c>
       <c r="B156" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3102,7 +3116,7 @@
         <v>132</v>
       </c>
       <c r="B157" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3113,7 +3127,7 @@
         <v>132</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3124,7 +3138,7 @@
         <v>132</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3135,7 +3149,7 @@
         <v>132</v>
       </c>
       <c r="B160" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3146,7 +3160,7 @@
         <v>132</v>
       </c>
       <c r="B161" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3157,7 +3171,7 @@
         <v>132</v>
       </c>
       <c r="B162" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3168,7 +3182,7 @@
         <v>132</v>
       </c>
       <c r="B163" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3179,7 +3193,7 @@
         <v>132</v>
       </c>
       <c r="B164" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3190,7 +3204,7 @@
         <v>132</v>
       </c>
       <c r="B165" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3201,7 +3215,7 @@
         <v>132</v>
       </c>
       <c r="B166" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3212,7 +3226,7 @@
         <v>132</v>
       </c>
       <c r="B167" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3223,7 +3237,7 @@
         <v>132</v>
       </c>
       <c r="B168" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3234,7 +3248,7 @@
         <v>132</v>
       </c>
       <c r="B169" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3245,7 +3259,7 @@
         <v>132</v>
       </c>
       <c r="B170" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3256,7 +3270,7 @@
         <v>132</v>
       </c>
       <c r="B171" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3267,7 +3281,7 @@
         <v>132</v>
       </c>
       <c r="B172" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3278,7 +3292,7 @@
         <v>132</v>
       </c>
       <c r="B173" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3289,7 +3303,7 @@
         <v>132</v>
       </c>
       <c r="B174" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3300,7 +3314,7 @@
         <v>132</v>
       </c>
       <c r="B175" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3311,7 +3325,7 @@
         <v>132</v>
       </c>
       <c r="B176" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3322,7 +3336,7 @@
         <v>132</v>
       </c>
       <c r="B177" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3333,7 +3347,7 @@
         <v>132</v>
       </c>
       <c r="B178" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3344,7 +3358,7 @@
         <v>132</v>
       </c>
       <c r="B179" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3355,7 +3369,7 @@
         <v>132</v>
       </c>
       <c r="B180" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3366,7 +3380,7 @@
         <v>132</v>
       </c>
       <c r="B181" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -3377,7 +3391,7 @@
         <v>132</v>
       </c>
       <c r="B182" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3388,7 +3402,7 @@
         <v>132</v>
       </c>
       <c r="B183" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3399,7 +3413,7 @@
         <v>132</v>
       </c>
       <c r="B184" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3410,7 +3424,7 @@
         <v>132</v>
       </c>
       <c r="B185" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3421,7 +3435,7 @@
         <v>132</v>
       </c>
       <c r="B186" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -3432,7 +3446,7 @@
         <v>132</v>
       </c>
       <c r="B187" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3443,7 +3457,7 @@
         <v>132</v>
       </c>
       <c r="B188" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3454,7 +3468,7 @@
         <v>132</v>
       </c>
       <c r="B189" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3465,7 +3479,7 @@
         <v>132</v>
       </c>
       <c r="B190" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3476,7 +3490,7 @@
         <v>132</v>
       </c>
       <c r="B191" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3487,7 +3501,7 @@
         <v>132</v>
       </c>
       <c r="B192" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3498,7 +3512,7 @@
         <v>132</v>
       </c>
       <c r="B193" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3509,7 +3523,7 @@
         <v>132</v>
       </c>
       <c r="B194" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3520,7 +3534,7 @@
         <v>132</v>
       </c>
       <c r="B195" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3531,7 +3545,7 @@
         <v>132</v>
       </c>
       <c r="B196" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3542,7 +3556,7 @@
         <v>132</v>
       </c>
       <c r="B197" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3553,7 +3567,7 @@
         <v>132</v>
       </c>
       <c r="B198" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -3564,7 +3578,7 @@
         <v>132</v>
       </c>
       <c r="B199" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3575,7 +3589,7 @@
         <v>132</v>
       </c>
       <c r="B200" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3586,7 +3600,7 @@
         <v>132</v>
       </c>
       <c r="B201" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3597,7 +3611,7 @@
         <v>132</v>
       </c>
       <c r="B202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -3608,7 +3622,7 @@
         <v>132</v>
       </c>
       <c r="B203" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -3619,7 +3633,7 @@
         <v>132</v>
       </c>
       <c r="B204" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -3630,7 +3644,7 @@
         <v>132</v>
       </c>
       <c r="B205" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -3641,7 +3655,7 @@
         <v>132</v>
       </c>
       <c r="B206" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3652,18 +3666,18 @@
         <v>132</v>
       </c>
       <c r="B207" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -3674,10 +3688,10 @@
         <v>166</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3685,7 +3699,7 @@
         <v>166</v>
       </c>
       <c r="B210" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -3696,7 +3710,7 @@
         <v>166</v>
       </c>
       <c r="B211" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -3707,10 +3721,10 @@
         <v>166</v>
       </c>
       <c r="B212" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3718,10 +3732,10 @@
         <v>166</v>
       </c>
       <c r="B213" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3729,7 +3743,7 @@
         <v>166</v>
       </c>
       <c r="B214" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -3740,7 +3754,7 @@
         <v>166</v>
       </c>
       <c r="B215" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -3751,7 +3765,7 @@
         <v>166</v>
       </c>
       <c r="B216" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -3762,7 +3776,7 @@
         <v>166</v>
       </c>
       <c r="B217" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -3773,7 +3787,7 @@
         <v>166</v>
       </c>
       <c r="B218" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -3784,7 +3798,7 @@
         <v>166</v>
       </c>
       <c r="B219" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -3795,7 +3809,7 @@
         <v>166</v>
       </c>
       <c r="B220" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -3806,7 +3820,7 @@
         <v>166</v>
       </c>
       <c r="B221" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -3817,7 +3831,7 @@
         <v>166</v>
       </c>
       <c r="B222" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -3828,7 +3842,7 @@
         <v>166</v>
       </c>
       <c r="B223" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -3839,7 +3853,7 @@
         <v>166</v>
       </c>
       <c r="B224" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -3850,7 +3864,7 @@
         <v>166</v>
       </c>
       <c r="B225" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -3861,7 +3875,7 @@
         <v>166</v>
       </c>
       <c r="B226" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -3872,7 +3886,7 @@
         <v>166</v>
       </c>
       <c r="B227" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -3883,7 +3897,7 @@
         <v>166</v>
       </c>
       <c r="B228" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -3894,7 +3908,7 @@
         <v>166</v>
       </c>
       <c r="B229" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -3905,7 +3919,7 @@
         <v>166</v>
       </c>
       <c r="B230" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -3916,7 +3930,7 @@
         <v>166</v>
       </c>
       <c r="B231" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -3927,7 +3941,7 @@
         <v>166</v>
       </c>
       <c r="B232" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -3938,7 +3952,7 @@
         <v>166</v>
       </c>
       <c r="B233" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -3949,7 +3963,7 @@
         <v>166</v>
       </c>
       <c r="B234" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -3960,7 +3974,7 @@
         <v>166</v>
       </c>
       <c r="B235" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -3971,7 +3985,7 @@
         <v>166</v>
       </c>
       <c r="B236" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -3982,7 +3996,7 @@
         <v>166</v>
       </c>
       <c r="B237" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -3993,7 +4007,7 @@
         <v>166</v>
       </c>
       <c r="B238" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -4004,7 +4018,7 @@
         <v>166</v>
       </c>
       <c r="B239" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -4015,7 +4029,7 @@
         <v>166</v>
       </c>
       <c r="B240" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -4026,7 +4040,7 @@
         <v>166</v>
       </c>
       <c r="B241" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -4037,7 +4051,7 @@
         <v>166</v>
       </c>
       <c r="B242" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -4048,7 +4062,7 @@
         <v>166</v>
       </c>
       <c r="B243" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4059,7 +4073,7 @@
         <v>166</v>
       </c>
       <c r="B244" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -4070,7 +4084,7 @@
         <v>166</v>
       </c>
       <c r="B245" t="s">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -4081,7 +4095,7 @@
         <v>166</v>
       </c>
       <c r="B246" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -4092,7 +4106,7 @@
         <v>166</v>
       </c>
       <c r="B247" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -4103,7 +4117,7 @@
         <v>166</v>
       </c>
       <c r="B248" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -4114,7 +4128,7 @@
         <v>166</v>
       </c>
       <c r="B249" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -4125,7 +4139,7 @@
         <v>166</v>
       </c>
       <c r="B250" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -4136,7 +4150,7 @@
         <v>166</v>
       </c>
       <c r="B251" t="s">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -4147,7 +4161,7 @@
         <v>166</v>
       </c>
       <c r="B252" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -4158,7 +4172,7 @@
         <v>166</v>
       </c>
       <c r="B253" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -4169,7 +4183,7 @@
         <v>166</v>
       </c>
       <c r="B254" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -4180,7 +4194,7 @@
         <v>166</v>
       </c>
       <c r="B255" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -4191,7 +4205,7 @@
         <v>166</v>
       </c>
       <c r="B256" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -4202,7 +4216,7 @@
         <v>166</v>
       </c>
       <c r="B257" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -4213,7 +4227,7 @@
         <v>166</v>
       </c>
       <c r="B258" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -4224,7 +4238,7 @@
         <v>166</v>
       </c>
       <c r="B259" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -4235,7 +4249,7 @@
         <v>166</v>
       </c>
       <c r="B260" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -4246,7 +4260,7 @@
         <v>166</v>
       </c>
       <c r="B261" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -4257,7 +4271,7 @@
         <v>166</v>
       </c>
       <c r="B262" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -4268,7 +4282,7 @@
         <v>166</v>
       </c>
       <c r="B263" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -4279,7 +4293,7 @@
         <v>166</v>
       </c>
       <c r="B264" t="s">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -4290,7 +4304,7 @@
         <v>166</v>
       </c>
       <c r="B265" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -4301,7 +4315,7 @@
         <v>166</v>
       </c>
       <c r="B266" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -4312,7 +4326,7 @@
         <v>166</v>
       </c>
       <c r="B267" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -4323,7 +4337,7 @@
         <v>166</v>
       </c>
       <c r="B268" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -4334,7 +4348,7 @@
         <v>166</v>
       </c>
       <c r="B269" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -4345,7 +4359,7 @@
         <v>166</v>
       </c>
       <c r="B270" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -4356,7 +4370,7 @@
         <v>166</v>
       </c>
       <c r="B271" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -4367,7 +4381,7 @@
         <v>166</v>
       </c>
       <c r="B272" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -4378,7 +4392,7 @@
         <v>166</v>
       </c>
       <c r="B273" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -4389,7 +4403,7 @@
         <v>166</v>
       </c>
       <c r="B274" t="s">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -4400,7 +4414,7 @@
         <v>166</v>
       </c>
       <c r="B275" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -4411,7 +4425,7 @@
         <v>166</v>
       </c>
       <c r="B276" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -4422,7 +4436,7 @@
         <v>166</v>
       </c>
       <c r="B277" t="s">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -4433,7 +4447,7 @@
         <v>166</v>
       </c>
       <c r="B278" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -4444,10 +4458,10 @@
         <v>166</v>
       </c>
       <c r="B279" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4455,10 +4469,10 @@
         <v>166</v>
       </c>
       <c r="B280" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="C280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4466,7 +4480,7 @@
         <v>166</v>
       </c>
       <c r="B281" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -4477,7 +4491,7 @@
         <v>166</v>
       </c>
       <c r="B282" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -4485,13 +4499,13 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B283" t="s">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4499,10 +4513,10 @@
         <v>199</v>
       </c>
       <c r="B284" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4510,7 +4524,7 @@
         <v>199</v>
       </c>
       <c r="B285" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -4521,7 +4535,7 @@
         <v>199</v>
       </c>
       <c r="B286" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -4532,7 +4546,7 @@
         <v>199</v>
       </c>
       <c r="B287" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -4543,7 +4557,7 @@
         <v>199</v>
       </c>
       <c r="B288" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -4554,7 +4568,7 @@
         <v>199</v>
       </c>
       <c r="B289" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -4565,7 +4579,7 @@
         <v>199</v>
       </c>
       <c r="B290" t="s">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -4576,7 +4590,7 @@
         <v>199</v>
       </c>
       <c r="B291" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -4587,7 +4601,7 @@
         <v>199</v>
       </c>
       <c r="B292" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -4598,7 +4612,7 @@
         <v>199</v>
       </c>
       <c r="B293" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -4609,7 +4623,7 @@
         <v>199</v>
       </c>
       <c r="B294" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -4620,7 +4634,7 @@
         <v>199</v>
       </c>
       <c r="B295" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -4631,7 +4645,7 @@
         <v>199</v>
       </c>
       <c r="B296" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -4642,7 +4656,7 @@
         <v>199</v>
       </c>
       <c r="B297" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -4653,7 +4667,7 @@
         <v>199</v>
       </c>
       <c r="B298" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -4664,7 +4678,7 @@
         <v>199</v>
       </c>
       <c r="B299" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -4675,7 +4689,7 @@
         <v>199</v>
       </c>
       <c r="B300" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -4686,7 +4700,7 @@
         <v>199</v>
       </c>
       <c r="B301" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -4697,7 +4711,7 @@
         <v>199</v>
       </c>
       <c r="B302" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -4708,7 +4722,7 @@
         <v>199</v>
       </c>
       <c r="B303" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -4719,7 +4733,7 @@
         <v>199</v>
       </c>
       <c r="B304" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -4730,7 +4744,7 @@
         <v>199</v>
       </c>
       <c r="B305" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -4741,7 +4755,7 @@
         <v>199</v>
       </c>
       <c r="B306" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -4752,7 +4766,7 @@
         <v>199</v>
       </c>
       <c r="B307" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -4763,7 +4777,7 @@
         <v>199</v>
       </c>
       <c r="B308" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -4774,7 +4788,7 @@
         <v>199</v>
       </c>
       <c r="B309" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -4785,7 +4799,7 @@
         <v>199</v>
       </c>
       <c r="B310" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -4796,7 +4810,7 @@
         <v>199</v>
       </c>
       <c r="B311" t="s">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -4807,7 +4821,7 @@
         <v>199</v>
       </c>
       <c r="B312" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -4818,7 +4832,7 @@
         <v>199</v>
       </c>
       <c r="B313" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -4829,7 +4843,7 @@
         <v>199</v>
       </c>
       <c r="B314" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -4840,7 +4854,7 @@
         <v>199</v>
       </c>
       <c r="B315" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -4851,7 +4865,7 @@
         <v>199</v>
       </c>
       <c r="B316" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -4862,7 +4876,7 @@
         <v>199</v>
       </c>
       <c r="B317" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -4873,7 +4887,7 @@
         <v>199</v>
       </c>
       <c r="B318" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -4884,7 +4898,7 @@
         <v>199</v>
       </c>
       <c r="B319" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -4895,7 +4909,7 @@
         <v>199</v>
       </c>
       <c r="B320" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -4906,7 +4920,7 @@
         <v>199</v>
       </c>
       <c r="B321" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -4917,7 +4931,7 @@
         <v>199</v>
       </c>
       <c r="B322" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -4928,7 +4942,7 @@
         <v>199</v>
       </c>
       <c r="B323" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -4939,7 +4953,7 @@
         <v>199</v>
       </c>
       <c r="B324" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -4950,7 +4964,7 @@
         <v>199</v>
       </c>
       <c r="B325" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -4961,18 +4975,18 @@
         <v>199</v>
       </c>
       <c r="B326" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="C326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B327" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C327">
         <v>1</v>
@@ -4983,10 +4997,10 @@
         <v>205</v>
       </c>
       <c r="B328" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4994,7 +5008,7 @@
         <v>205</v>
       </c>
       <c r="B329" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -5005,7 +5019,7 @@
         <v>205</v>
       </c>
       <c r="B330" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -5016,10 +5030,10 @@
         <v>205</v>
       </c>
       <c r="B331" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5027,10 +5041,10 @@
         <v>205</v>
       </c>
       <c r="B332" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5038,7 +5052,7 @@
         <v>205</v>
       </c>
       <c r="B333" t="s">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -5049,7 +5063,7 @@
         <v>205</v>
       </c>
       <c r="B334" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -5060,7 +5074,7 @@
         <v>205</v>
       </c>
       <c r="B335" t="s">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -5071,7 +5085,7 @@
         <v>205</v>
       </c>
       <c r="B336" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -5082,7 +5096,7 @@
         <v>205</v>
       </c>
       <c r="B337" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -5093,7 +5107,7 @@
         <v>205</v>
       </c>
       <c r="B338" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C338">
         <v>0</v>
@@ -5104,7 +5118,7 @@
         <v>205</v>
       </c>
       <c r="B339" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -5115,7 +5129,7 @@
         <v>205</v>
       </c>
       <c r="B340" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -5126,7 +5140,7 @@
         <v>205</v>
       </c>
       <c r="B341" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -5137,7 +5151,7 @@
         <v>205</v>
       </c>
       <c r="B342" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -5148,7 +5162,7 @@
         <v>205</v>
       </c>
       <c r="B343" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -5159,7 +5173,7 @@
         <v>205</v>
       </c>
       <c r="B344" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -5170,7 +5184,7 @@
         <v>205</v>
       </c>
       <c r="B345" t="s">
-        <v>208</v>
+        <v>89</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -5181,7 +5195,7 @@
         <v>205</v>
       </c>
       <c r="B346" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -5192,7 +5206,7 @@
         <v>205</v>
       </c>
       <c r="B347" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -5203,7 +5217,7 @@
         <v>205</v>
       </c>
       <c r="B348" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -5214,7 +5228,7 @@
         <v>205</v>
       </c>
       <c r="B349" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -5225,7 +5239,7 @@
         <v>205</v>
       </c>
       <c r="B350" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -5236,7 +5250,7 @@
         <v>205</v>
       </c>
       <c r="B351" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -5247,7 +5261,7 @@
         <v>205</v>
       </c>
       <c r="B352" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -5258,7 +5272,7 @@
         <v>205</v>
       </c>
       <c r="B353" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -5269,7 +5283,7 @@
         <v>205</v>
       </c>
       <c r="B354" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -5280,7 +5294,7 @@
         <v>205</v>
       </c>
       <c r="B355" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -5291,7 +5305,7 @@
         <v>205</v>
       </c>
       <c r="B356" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -5302,7 +5316,7 @@
         <v>205</v>
       </c>
       <c r="B357" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -5313,7 +5327,7 @@
         <v>205</v>
       </c>
       <c r="B358" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -5324,7 +5338,7 @@
         <v>205</v>
       </c>
       <c r="B359" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -5335,7 +5349,7 @@
         <v>205</v>
       </c>
       <c r="B360" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -5346,7 +5360,7 @@
         <v>205</v>
       </c>
       <c r="B361" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C361">
         <v>0</v>
@@ -5357,7 +5371,7 @@
         <v>205</v>
       </c>
       <c r="B362" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -5368,10 +5382,10 @@
         <v>205</v>
       </c>
       <c r="B363" t="s">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="C363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -5379,10 +5393,10 @@
         <v>205</v>
       </c>
       <c r="B364" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="C364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -5390,7 +5404,7 @@
         <v>205</v>
       </c>
       <c r="B365" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -5401,7 +5415,7 @@
         <v>205</v>
       </c>
       <c r="B366" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -5412,7 +5426,7 @@
         <v>205</v>
       </c>
       <c r="B367" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -5423,7 +5437,7 @@
         <v>205</v>
       </c>
       <c r="B368" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -5434,7 +5448,7 @@
         <v>205</v>
       </c>
       <c r="B369" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -5445,7 +5459,7 @@
         <v>205</v>
       </c>
       <c r="B370" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -5456,7 +5470,7 @@
         <v>205</v>
       </c>
       <c r="B371" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -5467,7 +5481,7 @@
         <v>205</v>
       </c>
       <c r="B372" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="C372">
         <v>0</v>
@@ -5478,18 +5492,18 @@
         <v>205</v>
       </c>
       <c r="B373" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B374" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C374">
         <v>1</v>
@@ -5500,10 +5514,10 @@
         <v>210</v>
       </c>
       <c r="B375" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -5511,7 +5525,7 @@
         <v>210</v>
       </c>
       <c r="B376" t="s">
-        <v>211</v>
+        <v>6</v>
       </c>
       <c r="C376">
         <v>0</v>
@@ -5522,7 +5536,7 @@
         <v>210</v>
       </c>
       <c r="B377" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -5533,7 +5547,7 @@
         <v>210</v>
       </c>
       <c r="B378" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -5544,7 +5558,7 @@
         <v>210</v>
       </c>
       <c r="B379" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="C379">
         <v>0</v>
@@ -5555,7 +5569,7 @@
         <v>210</v>
       </c>
       <c r="B380" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -5566,7 +5580,7 @@
         <v>210</v>
       </c>
       <c r="B381" t="s">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="C381">
         <v>0</v>
@@ -5577,7 +5591,7 @@
         <v>210</v>
       </c>
       <c r="B382" t="s">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -5588,7 +5602,7 @@
         <v>210</v>
       </c>
       <c r="B383" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -5599,7 +5613,7 @@
         <v>210</v>
       </c>
       <c r="B384" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -5610,18 +5624,18 @@
         <v>210</v>
       </c>
       <c r="B385" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B386" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C386">
         <v>1</v>
@@ -5632,10 +5646,10 @@
         <v>217</v>
       </c>
       <c r="B387" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -5643,10 +5657,10 @@
         <v>217</v>
       </c>
       <c r="B388" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -5654,10 +5668,10 @@
         <v>217</v>
       </c>
       <c r="B389" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="C389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -5665,7 +5679,7 @@
         <v>217</v>
       </c>
       <c r="B390" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="C390">
         <v>0</v>
@@ -5676,7 +5690,7 @@
         <v>217</v>
       </c>
       <c r="B391" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C391">
         <v>0</v>
@@ -5687,7 +5701,7 @@
         <v>217</v>
       </c>
       <c r="B392" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="C392">
         <v>0</v>
@@ -5698,7 +5712,7 @@
         <v>217</v>
       </c>
       <c r="B393" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="C393">
         <v>0</v>
@@ -5709,7 +5723,7 @@
         <v>217</v>
       </c>
       <c r="B394" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="C394">
         <v>0</v>
@@ -5720,7 +5734,7 @@
         <v>217</v>
       </c>
       <c r="B395" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="C395">
         <v>0</v>
@@ -5731,7 +5745,7 @@
         <v>217</v>
       </c>
       <c r="B396" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -5742,7 +5756,7 @@
         <v>217</v>
       </c>
       <c r="B397" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -5753,7 +5767,7 @@
         <v>217</v>
       </c>
       <c r="B398" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -5764,7 +5778,7 @@
         <v>217</v>
       </c>
       <c r="B399" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -5775,7 +5789,7 @@
         <v>217</v>
       </c>
       <c r="B400" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -5786,7 +5800,7 @@
         <v>217</v>
       </c>
       <c r="B401" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -5797,7 +5811,7 @@
         <v>217</v>
       </c>
       <c r="B402" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -5808,7 +5822,7 @@
         <v>217</v>
       </c>
       <c r="B403" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C403">
         <v>0</v>
@@ -5819,7 +5833,7 @@
         <v>217</v>
       </c>
       <c r="B404" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="C404">
         <v>0</v>
@@ -5830,7 +5844,7 @@
         <v>217</v>
       </c>
       <c r="B405" t="s">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -5841,7 +5855,7 @@
         <v>217</v>
       </c>
       <c r="B406" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -5852,7 +5866,7 @@
         <v>217</v>
       </c>
       <c r="B407" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -5863,7 +5877,7 @@
         <v>217</v>
       </c>
       <c r="B408" t="s">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="C408">
         <v>0</v>
@@ -5874,7 +5888,7 @@
         <v>217</v>
       </c>
       <c r="B409" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -5885,7 +5899,7 @@
         <v>217</v>
       </c>
       <c r="B410" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -5896,7 +5910,7 @@
         <v>217</v>
       </c>
       <c r="B411" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -5907,7 +5921,7 @@
         <v>217</v>
       </c>
       <c r="B412" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -5918,7 +5932,7 @@
         <v>217</v>
       </c>
       <c r="B413" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -5929,7 +5943,7 @@
         <v>217</v>
       </c>
       <c r="B414" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C414">
         <v>0</v>
@@ -5940,7 +5954,7 @@
         <v>217</v>
       </c>
       <c r="B415" t="s">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="C415">
         <v>0</v>
@@ -5951,7 +5965,7 @@
         <v>217</v>
       </c>
       <c r="B416" t="s">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="C416">
         <v>0</v>
@@ -5962,7 +5976,7 @@
         <v>217</v>
       </c>
       <c r="B417" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C417">
         <v>0</v>
@@ -5970,13 +5984,13 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B418" t="s">
-        <v>5</v>
+        <v>236</v>
       </c>
       <c r="C418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -5984,7 +5998,7 @@
         <v>237</v>
       </c>
       <c r="B419" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C419">
         <v>1</v>
@@ -5995,10 +6009,10 @@
         <v>237</v>
       </c>
       <c r="B420" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="C420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -6006,10 +6020,10 @@
         <v>237</v>
       </c>
       <c r="B421" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="C421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -6017,10 +6031,10 @@
         <v>237</v>
       </c>
       <c r="B422" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="C422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -6028,7 +6042,7 @@
         <v>237</v>
       </c>
       <c r="B423" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -6039,7 +6053,7 @@
         <v>237</v>
       </c>
       <c r="B424" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C424">
         <v>0</v>
@@ -6050,7 +6064,7 @@
         <v>237</v>
       </c>
       <c r="B425" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C425">
         <v>0</v>
@@ -6061,7 +6075,7 @@
         <v>237</v>
       </c>
       <c r="B426" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C426">
         <v>0</v>
@@ -6072,7 +6086,7 @@
         <v>237</v>
       </c>
       <c r="B427" t="s">
-        <v>120</v>
+        <v>242</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -6083,7 +6097,7 @@
         <v>237</v>
       </c>
       <c r="B428" t="s">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="C428">
         <v>0</v>
@@ -6094,7 +6108,7 @@
         <v>237</v>
       </c>
       <c r="B429" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C429">
         <v>0</v>
@@ -6105,7 +6119,7 @@
         <v>237</v>
       </c>
       <c r="B430" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -6116,7 +6130,7 @@
         <v>237</v>
       </c>
       <c r="B431" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -6127,7 +6141,7 @@
         <v>237</v>
       </c>
       <c r="B432" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C432">
         <v>0</v>
@@ -6138,7 +6152,7 @@
         <v>237</v>
       </c>
       <c r="B433" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -6149,7 +6163,7 @@
         <v>237</v>
       </c>
       <c r="B434" t="s">
-        <v>248</v>
+        <v>33</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -6160,7 +6174,7 @@
         <v>237</v>
       </c>
       <c r="B435" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -6171,7 +6185,7 @@
         <v>237</v>
       </c>
       <c r="B436" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="C436">
         <v>0</v>
@@ -6182,7 +6196,7 @@
         <v>237</v>
       </c>
       <c r="B437" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -6193,7 +6207,7 @@
         <v>237</v>
       </c>
       <c r="B438" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C438">
         <v>0</v>
@@ -6204,7 +6218,7 @@
         <v>237</v>
       </c>
       <c r="B439" t="s">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="C439">
         <v>0</v>
@@ -6215,7 +6229,7 @@
         <v>237</v>
       </c>
       <c r="B440" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C440">
         <v>0</v>
@@ -6223,10 +6237,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B441" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C441">
         <v>0</v>
@@ -6237,10 +6251,10 @@
         <v>249</v>
       </c>
       <c r="B442" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -6248,7 +6262,7 @@
         <v>249</v>
       </c>
       <c r="B443" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C443">
         <v>1</v>
@@ -6259,10 +6273,10 @@
         <v>249</v>
       </c>
       <c r="B444" t="s">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="C444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -6270,7 +6284,7 @@
         <v>249</v>
       </c>
       <c r="B445" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C445">
         <v>0</v>
@@ -6281,7 +6295,7 @@
         <v>249</v>
       </c>
       <c r="B446" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C446">
         <v>0</v>
@@ -6292,7 +6306,7 @@
         <v>249</v>
       </c>
       <c r="B447" t="s">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -6303,7 +6317,7 @@
         <v>249</v>
       </c>
       <c r="B448" t="s">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="C448">
         <v>0</v>
@@ -6314,10 +6328,10 @@
         <v>249</v>
       </c>
       <c r="B449" t="s">
-        <v>70</v>
+        <v>253</v>
       </c>
       <c r="C449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -6325,10 +6339,10 @@
         <v>249</v>
       </c>
       <c r="B450" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="C450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -6336,7 +6350,7 @@
         <v>249</v>
       </c>
       <c r="B451" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="C451">
         <v>0</v>
@@ -6347,7 +6361,7 @@
         <v>249</v>
       </c>
       <c r="B452" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -6358,7 +6372,7 @@
         <v>249</v>
       </c>
       <c r="B453" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C453">
         <v>0</v>
@@ -6369,7 +6383,7 @@
         <v>249</v>
       </c>
       <c r="B454" t="s">
-        <v>254</v>
+        <v>64</v>
       </c>
       <c r="C454">
         <v>0</v>
@@ -6380,7 +6394,7 @@
         <v>249</v>
       </c>
       <c r="B455" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="C455">
         <v>0</v>
@@ -6391,7 +6405,7 @@
         <v>249</v>
       </c>
       <c r="B456" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -6402,7 +6416,7 @@
         <v>249</v>
       </c>
       <c r="B457" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -6413,7 +6427,7 @@
         <v>249</v>
       </c>
       <c r="B458" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -6424,7 +6438,7 @@
         <v>249</v>
       </c>
       <c r="B459" t="s">
-        <v>256</v>
+        <v>86</v>
       </c>
       <c r="C459">
         <v>0</v>
@@ -6435,7 +6449,7 @@
         <v>249</v>
       </c>
       <c r="B460" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C460">
         <v>0</v>
@@ -6446,7 +6460,7 @@
         <v>249</v>
       </c>
       <c r="B461" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C461">
         <v>0</v>
@@ -6457,7 +6471,7 @@
         <v>249</v>
       </c>
       <c r="B462" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C462">
         <v>0</v>
@@ -6468,7 +6482,7 @@
         <v>249</v>
       </c>
       <c r="B463" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C463">
         <v>0</v>
@@ -6479,7 +6493,7 @@
         <v>249</v>
       </c>
       <c r="B464" t="s">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="C464">
         <v>0</v>
@@ -6490,7 +6504,7 @@
         <v>249</v>
       </c>
       <c r="B465" t="s">
-        <v>261</v>
+        <v>109</v>
       </c>
       <c r="C465">
         <v>0</v>
@@ -6501,7 +6515,7 @@
         <v>249</v>
       </c>
       <c r="B466" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C466">
         <v>0</v>
@@ -6512,7 +6526,7 @@
         <v>249</v>
       </c>
       <c r="B467" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -6523,7 +6537,7 @@
         <v>249</v>
       </c>
       <c r="B468" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C468">
         <v>0</v>
@@ -6534,7 +6548,7 @@
         <v>249</v>
       </c>
       <c r="B469" t="s">
-        <v>110</v>
+        <v>264</v>
       </c>
       <c r="C469">
         <v>0</v>
@@ -6545,7 +6559,7 @@
         <v>249</v>
       </c>
       <c r="B470" t="s">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="C470">
         <v>0</v>
@@ -6556,7 +6570,7 @@
         <v>249</v>
       </c>
       <c r="B471" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -6567,7 +6581,7 @@
         <v>249</v>
       </c>
       <c r="B472" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C472">
         <v>0</v>
@@ -6578,7 +6592,7 @@
         <v>249</v>
       </c>
       <c r="B473" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="C473">
         <v>0</v>
@@ -6589,7 +6603,7 @@
         <v>249</v>
       </c>
       <c r="B474" t="s">
-        <v>268</v>
+        <v>126</v>
       </c>
       <c r="C474">
         <v>0</v>
@@ -6600,7 +6614,7 @@
         <v>249</v>
       </c>
       <c r="B475" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C475">
         <v>0</v>
@@ -6611,7 +6625,7 @@
         <v>249</v>
       </c>
       <c r="B476" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C476">
         <v>0</v>
@@ -6622,7 +6636,7 @@
         <v>249</v>
       </c>
       <c r="B477" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -6633,7 +6647,7 @@
         <v>249</v>
       </c>
       <c r="B478" t="s">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="C478">
         <v>0</v>
@@ -6644,7 +6658,7 @@
         <v>249</v>
       </c>
       <c r="B479" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C479">
         <v>0</v>
@@ -6655,7 +6669,7 @@
         <v>249</v>
       </c>
       <c r="B480" t="s">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="C480">
         <v>0</v>
@@ -6666,7 +6680,7 @@
         <v>249</v>
       </c>
       <c r="B481" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C481">
         <v>0</v>
@@ -6677,7 +6691,7 @@
         <v>249</v>
       </c>
       <c r="B482" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C482">
         <v>0</v>
@@ -6688,7 +6702,7 @@
         <v>249</v>
       </c>
       <c r="B483" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C483">
         <v>0</v>
@@ -6699,7 +6713,7 @@
         <v>249</v>
       </c>
       <c r="B484" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C484">
         <v>0</v>
@@ -6710,7 +6724,7 @@
         <v>249</v>
       </c>
       <c r="B485" t="s">
-        <v>124</v>
+        <v>276</v>
       </c>
       <c r="C485">
         <v>0</v>
@@ -6721,7 +6735,7 @@
         <v>249</v>
       </c>
       <c r="B486" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C486">
         <v>0</v>
@@ -6732,7 +6746,7 @@
         <v>249</v>
       </c>
       <c r="B487" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C487">
         <v>0</v>
@@ -6743,7 +6757,7 @@
         <v>249</v>
       </c>
       <c r="B488" t="s">
-        <v>277</v>
+        <v>119</v>
       </c>
       <c r="C488">
         <v>0</v>
@@ -6754,7 +6768,7 @@
         <v>249</v>
       </c>
       <c r="B489" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -6765,7 +6779,7 @@
         <v>249</v>
       </c>
       <c r="B490" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C490">
         <v>0</v>
@@ -6776,7 +6790,7 @@
         <v>249</v>
       </c>
       <c r="B491" t="s">
-        <v>34</v>
+        <v>279</v>
       </c>
       <c r="C491">
         <v>0</v>
@@ -6784,13 +6798,13 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="B492" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -6798,7 +6812,7 @@
         <v>280</v>
       </c>
       <c r="B493" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="C493">
         <v>1</v>
@@ -6809,10 +6823,10 @@
         <v>280</v>
       </c>
       <c r="B494" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -6820,7 +6834,7 @@
         <v>280</v>
       </c>
       <c r="B495" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C495">
         <v>0</v>
@@ -6831,7 +6845,7 @@
         <v>280</v>
       </c>
       <c r="B496" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C496">
         <v>0</v>
@@ -6842,7 +6856,7 @@
         <v>280</v>
       </c>
       <c r="B497" t="s">
-        <v>281</v>
+        <v>66</v>
       </c>
       <c r="C497">
         <v>0</v>
@@ -6853,7 +6867,7 @@
         <v>280</v>
       </c>
       <c r="B498" t="s">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="C498">
         <v>0</v>
@@ -6864,7 +6878,7 @@
         <v>280</v>
       </c>
       <c r="B499" t="s">
-        <v>261</v>
+        <v>109</v>
       </c>
       <c r="C499">
         <v>0</v>
@@ -6875,7 +6889,7 @@
         <v>280</v>
       </c>
       <c r="B500" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="C500">
         <v>0</v>
@@ -6886,7 +6900,7 @@
         <v>280</v>
       </c>
       <c r="B501" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -6897,7 +6911,7 @@
         <v>280</v>
       </c>
       <c r="B502" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -6908,7 +6922,7 @@
         <v>280</v>
       </c>
       <c r="B503" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C503">
         <v>0</v>
@@ -6919,7 +6933,7 @@
         <v>280</v>
       </c>
       <c r="B504" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C504">
         <v>0</v>
@@ -6930,7 +6944,7 @@
         <v>280</v>
       </c>
       <c r="B505" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C505">
         <v>0</v>
@@ -6941,7 +6955,7 @@
         <v>280</v>
       </c>
       <c r="B506" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -6952,7 +6966,7 @@
         <v>280</v>
       </c>
       <c r="B507" t="s">
-        <v>67</v>
+        <v>287</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -6963,7 +6977,7 @@
         <v>280</v>
       </c>
       <c r="B508" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="C508">
         <v>0</v>
@@ -6974,7 +6988,7 @@
         <v>280</v>
       </c>
       <c r="B509" t="s">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="C509">
         <v>0</v>
@@ -6985,7 +6999,7 @@
         <v>280</v>
       </c>
       <c r="B510" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C510">
         <v>0</v>
@@ -6996,7 +7010,7 @@
         <v>280</v>
       </c>
       <c r="B511" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C511">
         <v>0</v>
@@ -7007,7 +7021,7 @@
         <v>280</v>
       </c>
       <c r="B512" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="C512">
         <v>0</v>
@@ -7018,7 +7032,7 @@
         <v>280</v>
       </c>
       <c r="B513" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -7029,7 +7043,7 @@
         <v>280</v>
       </c>
       <c r="B514" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C514">
         <v>0</v>
@@ -7040,7 +7054,7 @@
         <v>280</v>
       </c>
       <c r="B515" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -7051,7 +7065,7 @@
         <v>280</v>
       </c>
       <c r="B516" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -7062,7 +7076,7 @@
         <v>280</v>
       </c>
       <c r="B517" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -7073,7 +7087,7 @@
         <v>280</v>
       </c>
       <c r="B518" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C518">
         <v>0</v>
@@ -7084,7 +7098,7 @@
         <v>280</v>
       </c>
       <c r="B519" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C519">
         <v>0</v>
@@ -7095,7 +7109,7 @@
         <v>280</v>
       </c>
       <c r="B520" t="s">
-        <v>126</v>
+        <v>295</v>
       </c>
       <c r="C520">
         <v>0</v>
@@ -7103,10 +7117,10 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B521" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="C521">
         <v>0</v>
@@ -7117,10 +7131,10 @@
         <v>296</v>
       </c>
       <c r="B522" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -7128,10 +7142,10 @@
         <v>296</v>
       </c>
       <c r="B523" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="C523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -7139,10 +7153,10 @@
         <v>296</v>
       </c>
       <c r="B524" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -7150,10 +7164,10 @@
         <v>296</v>
       </c>
       <c r="B525" t="s">
-        <v>251</v>
+        <v>71</v>
       </c>
       <c r="C525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -7161,7 +7175,7 @@
         <v>296</v>
       </c>
       <c r="B526" t="s">
-        <v>120</v>
+        <v>251</v>
       </c>
       <c r="C526">
         <v>0</v>
@@ -7172,7 +7186,7 @@
         <v>296</v>
       </c>
       <c r="B527" t="s">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="C527">
         <v>0</v>
@@ -7183,7 +7197,7 @@
         <v>296</v>
       </c>
       <c r="B528" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="C528">
         <v>0</v>
@@ -7194,10 +7208,10 @@
         <v>296</v>
       </c>
       <c r="B529" t="s">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="C529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -7205,10 +7219,10 @@
         <v>296</v>
       </c>
       <c r="B530" t="s">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="C530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -7216,7 +7230,7 @@
         <v>296</v>
       </c>
       <c r="B531" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C531">
         <v>0</v>
@@ -7227,7 +7241,7 @@
         <v>296</v>
       </c>
       <c r="B532" t="s">
-        <v>106</v>
+        <v>298</v>
       </c>
       <c r="C532">
         <v>0</v>
@@ -7238,7 +7252,7 @@
         <v>296</v>
       </c>
       <c r="B533" t="s">
-        <v>255</v>
+        <v>106</v>
       </c>
       <c r="C533">
         <v>0</v>
@@ -7249,7 +7263,7 @@
         <v>296</v>
       </c>
       <c r="B534" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
       <c r="C534">
         <v>0</v>
@@ -7260,7 +7274,7 @@
         <v>296</v>
       </c>
       <c r="B535" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C535">
         <v>0</v>
@@ -7271,7 +7285,7 @@
         <v>296</v>
       </c>
       <c r="B536" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C536">
         <v>0</v>
@@ -7282,7 +7296,7 @@
         <v>296</v>
       </c>
       <c r="B537" t="s">
-        <v>299</v>
+        <v>126</v>
       </c>
       <c r="C537">
         <v>0</v>
@@ -7293,7 +7307,7 @@
         <v>296</v>
       </c>
       <c r="B538" t="s">
-        <v>54</v>
+        <v>299</v>
       </c>
       <c r="C538">
         <v>0</v>
@@ -7304,7 +7318,7 @@
         <v>296</v>
       </c>
       <c r="B539" t="s">
-        <v>300</v>
+        <v>54</v>
       </c>
       <c r="C539">
         <v>0</v>
@@ -7315,7 +7329,7 @@
         <v>296</v>
       </c>
       <c r="B540" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C540">
         <v>0</v>
@@ -7326,7 +7340,7 @@
         <v>296</v>
       </c>
       <c r="B541" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C541">
         <v>0</v>
@@ -7337,7 +7351,7 @@
         <v>296</v>
       </c>
       <c r="B542" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C542">
         <v>0</v>
@@ -7348,7 +7362,7 @@
         <v>296</v>
       </c>
       <c r="B543" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C543">
         <v>0</v>
@@ -7359,7 +7373,7 @@
         <v>296</v>
       </c>
       <c r="B544" t="s">
-        <v>89</v>
+        <v>304</v>
       </c>
       <c r="C544">
         <v>0</v>
@@ -7370,7 +7384,7 @@
         <v>296</v>
       </c>
       <c r="B545" t="s">
-        <v>305</v>
+        <v>89</v>
       </c>
       <c r="C545">
         <v>0</v>
@@ -7381,7 +7395,7 @@
         <v>296</v>
       </c>
       <c r="B546" t="s">
-        <v>6</v>
+        <v>305</v>
       </c>
       <c r="C546">
         <v>0</v>
@@ -7392,7 +7406,7 @@
         <v>296</v>
       </c>
       <c r="B547" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C547">
         <v>0</v>
@@ -7403,7 +7417,7 @@
         <v>296</v>
       </c>
       <c r="B548" t="s">
-        <v>306</v>
+        <v>34</v>
       </c>
       <c r="C548">
         <v>0</v>
@@ -7414,7 +7428,7 @@
         <v>296</v>
       </c>
       <c r="B549" t="s">
-        <v>69</v>
+        <v>306</v>
       </c>
       <c r="C549">
         <v>0</v>
@@ -7425,10 +7439,10 @@
         <v>296</v>
       </c>
       <c r="B550" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -7436,10 +7450,10 @@
         <v>296</v>
       </c>
       <c r="B551" t="s">
-        <v>307</v>
+        <v>70</v>
       </c>
       <c r="C551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -7447,7 +7461,7 @@
         <v>296</v>
       </c>
       <c r="B552" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C552">
         <v>0</v>
@@ -7458,7 +7472,7 @@
         <v>296</v>
       </c>
       <c r="B553" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="C553">
         <v>0</v>
@@ -7469,7 +7483,7 @@
         <v>296</v>
       </c>
       <c r="B554" t="s">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="C554">
         <v>0</v>
@@ -7477,13 +7491,13 @@
     </row>
     <row r="555" spans="1:3">
       <c r="A555" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B555" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -7491,7 +7505,7 @@
         <v>309</v>
       </c>
       <c r="B556" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C556">
         <v>1</v>
@@ -7502,10 +7516,10 @@
         <v>309</v>
       </c>
       <c r="B557" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -7513,10 +7527,10 @@
         <v>309</v>
       </c>
       <c r="B558" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -7524,7 +7538,7 @@
         <v>309</v>
       </c>
       <c r="B559" t="s">
-        <v>310</v>
+        <v>70</v>
       </c>
       <c r="C559">
         <v>1</v>
@@ -7535,7 +7549,7 @@
         <v>309</v>
       </c>
       <c r="B560" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C560">
         <v>1</v>
@@ -7546,10 +7560,10 @@
         <v>309</v>
       </c>
       <c r="B561" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -7557,7 +7571,7 @@
         <v>309</v>
       </c>
       <c r="B562" t="s">
-        <v>50</v>
+        <v>312</v>
       </c>
       <c r="C562">
         <v>0</v>
@@ -7568,7 +7582,7 @@
         <v>309</v>
       </c>
       <c r="B563" t="s">
-        <v>313</v>
+        <v>50</v>
       </c>
       <c r="C563">
         <v>0</v>
@@ -7579,7 +7593,7 @@
         <v>309</v>
       </c>
       <c r="B564" t="s">
-        <v>55</v>
+        <v>313</v>
       </c>
       <c r="C564">
         <v>0</v>
@@ -7590,7 +7604,7 @@
         <v>309</v>
       </c>
       <c r="B565" t="s">
-        <v>314</v>
+        <v>55</v>
       </c>
       <c r="C565">
         <v>0</v>
@@ -7601,7 +7615,7 @@
         <v>309</v>
       </c>
       <c r="B566" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C566">
         <v>0</v>
@@ -7612,7 +7626,7 @@
         <v>309</v>
       </c>
       <c r="B567" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="C567">
         <v>0</v>
@@ -7623,7 +7637,7 @@
         <v>309</v>
       </c>
       <c r="B568" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="C568">
         <v>0</v>
@@ -7634,7 +7648,7 @@
         <v>309</v>
       </c>
       <c r="B569" t="s">
-        <v>316</v>
+        <v>112</v>
       </c>
       <c r="C569">
         <v>0</v>
@@ -7645,7 +7659,7 @@
         <v>309</v>
       </c>
       <c r="B570" t="s">
-        <v>18</v>
+        <v>316</v>
       </c>
       <c r="C570">
         <v>0</v>
@@ -7656,7 +7670,7 @@
         <v>309</v>
       </c>
       <c r="B571" t="s">
-        <v>317</v>
+        <v>18</v>
       </c>
       <c r="C571">
         <v>0</v>
@@ -7667,7 +7681,7 @@
         <v>309</v>
       </c>
       <c r="B572" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C572">
         <v>0</v>
@@ -7678,7 +7692,7 @@
         <v>309</v>
       </c>
       <c r="B573" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C573">
         <v>0</v>
@@ -7689,7 +7703,7 @@
         <v>309</v>
       </c>
       <c r="B574" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="C574">
         <v>0</v>
@@ -7700,7 +7714,7 @@
         <v>309</v>
       </c>
       <c r="B575" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C575">
         <v>0</v>
@@ -7711,7 +7725,7 @@
         <v>309</v>
       </c>
       <c r="B576" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C576">
         <v>0</v>
@@ -7722,7 +7736,7 @@
         <v>309</v>
       </c>
       <c r="B577" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C577">
         <v>0</v>
@@ -7733,7 +7747,7 @@
         <v>309</v>
       </c>
       <c r="B578" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C578">
         <v>0</v>
@@ -7744,7 +7758,7 @@
         <v>309</v>
       </c>
       <c r="B579" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C579">
         <v>0</v>
@@ -7755,7 +7769,7 @@
         <v>309</v>
       </c>
       <c r="B580" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C580">
         <v>0</v>
@@ -7766,7 +7780,7 @@
         <v>309</v>
       </c>
       <c r="B581" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C581">
         <v>0</v>
@@ -7777,7 +7791,7 @@
         <v>309</v>
       </c>
       <c r="B582" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C582">
         <v>0</v>
@@ -7788,7 +7802,7 @@
         <v>309</v>
       </c>
       <c r="B583" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C583">
         <v>0</v>
@@ -7799,7 +7813,7 @@
         <v>309</v>
       </c>
       <c r="B584" t="s">
-        <v>51</v>
+        <v>328</v>
       </c>
       <c r="C584">
         <v>0</v>
@@ -7810,7 +7824,7 @@
         <v>309</v>
       </c>
       <c r="B585" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C585">
         <v>0</v>
@@ -7821,7 +7835,7 @@
         <v>309</v>
       </c>
       <c r="B586" t="s">
-        <v>329</v>
+        <v>52</v>
       </c>
       <c r="C586">
         <v>0</v>
@@ -7832,7 +7846,7 @@
         <v>309</v>
       </c>
       <c r="B587" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C587">
         <v>0</v>
@@ -7843,7 +7857,7 @@
         <v>309</v>
       </c>
       <c r="B588" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C588">
         <v>0</v>
@@ -7854,9 +7868,20 @@
         <v>309</v>
       </c>
       <c r="B589" t="s">
+        <v>331</v>
+      </c>
+      <c r="C589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" t="s">
+        <v>309</v>
+      </c>
+      <c r="B590" t="s">
         <v>332</v>
       </c>
-      <c r="C589">
+      <c r="C590">
         <v>0</v>
       </c>
     </row>

--- a/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="336">
   <si>
     <t>TABELA</t>
   </si>
@@ -1023,13 +1023,7 @@
     <t>in_update</t>
   </si>
   <si>
-    <t>SQ_MOVIMENTO</t>
-  </si>
-  <si>
-    <t>NR_PROGRAMACAO</t>
-  </si>
-  <si>
-    <t>NR_DOCUMENTO</t>
+    <t>CD_PRODUTO</t>
   </si>
 </sst>
 </file>
@@ -1045,18 +1039,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1071,21 +1059,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D590" totalsRowShown="0">
-  <autoFilter ref="A1:D590"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D592" totalsRowShown="0">
+  <autoFilter ref="A1:D592"/>
   <tableColumns count="4">
     <tableColumn id="1" name="TABELA"/>
     <tableColumn id="2" name="COLUNA"/>
@@ -1381,11 +1373,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D590"/>
+  <dimension ref="A1:D592"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1539,6 +1529,9 @@
       <c r="C13">
         <v>0</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
@@ -1550,6 +1543,9 @@
       <c r="C14">
         <v>0</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
@@ -1561,6 +1557,9 @@
       <c r="C15">
         <v>0</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
@@ -1572,8 +1571,11 @@
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1583,8 +1585,11 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1594,8 +1599,11 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1605,8 +1613,11 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1616,8 +1627,11 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1627,8 +1641,11 @@
       <c r="C21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1639,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1649,8 +1666,11 @@
       <c r="C23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1661,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1671,8 +1691,11 @@
       <c r="C25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1682,8 +1705,11 @@
       <c r="C26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1693,8 +1719,11 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1704,8 +1733,11 @@
       <c r="C28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1715,8 +1747,11 @@
       <c r="C29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1726,8 +1761,11 @@
       <c r="C30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1737,8 +1775,11 @@
       <c r="C31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1748,8 +1789,11 @@
       <c r="C32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1760,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1771,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -1782,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1793,18 +1837,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>335</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1815,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1826,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1837,618 +1881,668 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>337</v>
+        <v>39</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>336</v>
-      </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>49</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>49</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>60</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>60</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>60</v>
       </c>
       <c r="B79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>60</v>
       </c>
       <c r="B80" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>60</v>
       </c>
       <c r="B81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>60</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>60</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>60</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>60</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>60</v>
       </c>
       <c r="B86" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>60</v>
       </c>
       <c r="B87" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>60</v>
       </c>
       <c r="B89" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>60</v>
       </c>
       <c r="B90" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>60</v>
       </c>
       <c r="B91" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>60</v>
       </c>
       <c r="B92" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>60</v>
       </c>
       <c r="B93" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>60</v>
       </c>
       <c r="B94" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>60</v>
       </c>
       <c r="B95" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>60</v>
       </c>
       <c r="B96" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C96">
         <v>0</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2456,7 +2550,7 @@
         <v>60</v>
       </c>
       <c r="B97" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2467,10 +2561,10 @@
         <v>60</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2478,10 +2572,10 @@
         <v>60</v>
       </c>
       <c r="B99" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2489,7 +2583,7 @@
         <v>60</v>
       </c>
       <c r="B100" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2500,7 +2594,7 @@
         <v>60</v>
       </c>
       <c r="B101" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2511,7 +2605,7 @@
         <v>60</v>
       </c>
       <c r="B102" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2522,7 +2616,7 @@
         <v>60</v>
       </c>
       <c r="B103" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2533,7 +2627,7 @@
         <v>60</v>
       </c>
       <c r="B104" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2544,7 +2638,7 @@
         <v>60</v>
       </c>
       <c r="B105" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2555,7 +2649,7 @@
         <v>60</v>
       </c>
       <c r="B106" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2566,7 +2660,7 @@
         <v>60</v>
       </c>
       <c r="B107" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2577,7 +2671,7 @@
         <v>60</v>
       </c>
       <c r="B108" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2588,7 +2682,7 @@
         <v>60</v>
       </c>
       <c r="B109" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2599,7 +2693,7 @@
         <v>60</v>
       </c>
       <c r="B110" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2610,7 +2704,7 @@
         <v>60</v>
       </c>
       <c r="B111" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2621,7 +2715,7 @@
         <v>60</v>
       </c>
       <c r="B112" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2632,7 +2726,7 @@
         <v>60</v>
       </c>
       <c r="B113" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2643,7 +2737,7 @@
         <v>60</v>
       </c>
       <c r="B114" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2654,7 +2748,7 @@
         <v>60</v>
       </c>
       <c r="B115" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2665,7 +2759,7 @@
         <v>60</v>
       </c>
       <c r="B116" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2676,7 +2770,7 @@
         <v>60</v>
       </c>
       <c r="B117" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2687,7 +2781,7 @@
         <v>60</v>
       </c>
       <c r="B118" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2698,7 +2792,7 @@
         <v>60</v>
       </c>
       <c r="B119" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2709,7 +2803,7 @@
         <v>60</v>
       </c>
       <c r="B120" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2720,7 +2814,7 @@
         <v>60</v>
       </c>
       <c r="B121" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2731,7 +2825,7 @@
         <v>60</v>
       </c>
       <c r="B122" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2742,7 +2836,7 @@
         <v>60</v>
       </c>
       <c r="B123" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2753,7 +2847,7 @@
         <v>60</v>
       </c>
       <c r="B124" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2764,7 +2858,7 @@
         <v>60</v>
       </c>
       <c r="B125" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2775,7 +2869,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2786,7 +2880,7 @@
         <v>60</v>
       </c>
       <c r="B127" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2797,2471 +2891,2801 @@
         <v>60</v>
       </c>
       <c r="B128" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>60</v>
       </c>
       <c r="B129" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>60</v>
       </c>
       <c r="B130" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>60</v>
       </c>
       <c r="B131" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>60</v>
       </c>
       <c r="B132" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>60</v>
       </c>
       <c r="B133" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>60</v>
       </c>
       <c r="B134" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>60</v>
       </c>
       <c r="B135" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>60</v>
       </c>
       <c r="B136" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>60</v>
       </c>
       <c r="B137" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>60</v>
       </c>
       <c r="B138" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>60</v>
       </c>
       <c r="B139" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>60</v>
       </c>
       <c r="B140" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>60</v>
       </c>
       <c r="B141" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>60</v>
       </c>
       <c r="B142" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>60</v>
       </c>
       <c r="B143" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>60</v>
       </c>
       <c r="B144" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>60</v>
       </c>
       <c r="B145" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="C145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>60</v>
       </c>
       <c r="B146" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="C146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>60</v>
       </c>
       <c r="B147" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C147">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>60</v>
       </c>
       <c r="B148" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C148">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>60</v>
       </c>
       <c r="B149" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C149">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>60</v>
       </c>
       <c r="B150" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="C150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>60</v>
       </c>
       <c r="B151" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="C151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>60</v>
       </c>
       <c r="B152" t="s">
-        <v>131</v>
+        <v>304</v>
       </c>
       <c r="C152">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>317</v>
       </c>
       <c r="C153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>335</v>
       </c>
       <c r="C154">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>132</v>
       </c>
       <c r="B155" t="s">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="C155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>132</v>
       </c>
       <c r="B156" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="C156">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>132</v>
       </c>
       <c r="B157" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C157">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>132</v>
       </c>
       <c r="B158" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>132</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>132</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>132</v>
       </c>
       <c r="B161" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>132</v>
       </c>
       <c r="B162" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>132</v>
       </c>
       <c r="B163" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="C163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>132</v>
       </c>
       <c r="B164" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>132</v>
       </c>
       <c r="B165" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="C165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>132</v>
       </c>
       <c r="B166" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="C166">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>132</v>
       </c>
       <c r="B167" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="C167">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>132</v>
       </c>
       <c r="B168" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C168">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>132</v>
       </c>
       <c r="B169" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C169">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>132</v>
       </c>
       <c r="B170" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C170">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>132</v>
       </c>
       <c r="B171" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="C171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>132</v>
       </c>
       <c r="B172" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>132</v>
       </c>
       <c r="B173" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="C173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>132</v>
       </c>
       <c r="B174" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>132</v>
       </c>
       <c r="B175" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="D175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>132</v>
       </c>
       <c r="B176" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="C176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="D176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>132</v>
       </c>
       <c r="B177" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>132</v>
       </c>
       <c r="B178" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="C178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="D178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>132</v>
       </c>
       <c r="B179" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="C179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="D179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>132</v>
       </c>
       <c r="B180" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="C180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>132</v>
       </c>
       <c r="B181" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>132</v>
       </c>
       <c r="B182" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="D182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>132</v>
       </c>
       <c r="B183" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="C183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>132</v>
       </c>
       <c r="B184" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="D184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>132</v>
       </c>
       <c r="B185" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
+      <c r="D185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>132</v>
       </c>
       <c r="B186" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>132</v>
       </c>
       <c r="B187" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="C187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="D187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>132</v>
       </c>
       <c r="B188" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="D188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>132</v>
       </c>
       <c r="B189" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="C189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="D189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>132</v>
       </c>
       <c r="B190" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="C190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="D190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>132</v>
       </c>
       <c r="B191" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C191">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>132</v>
       </c>
       <c r="B192" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="C192">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>132</v>
       </c>
       <c r="B193" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="C193">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>132</v>
       </c>
       <c r="B194" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="D194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>132</v>
       </c>
       <c r="B195" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="C195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="D195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>132</v>
       </c>
       <c r="B196" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="D196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>132</v>
       </c>
       <c r="B197" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
+      <c r="D197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>132</v>
       </c>
       <c r="B198" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="C198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="D198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>132</v>
       </c>
       <c r="B199" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
+      <c r="D199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>132</v>
       </c>
       <c r="B200" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>132</v>
       </c>
       <c r="B201" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="D201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>132</v>
       </c>
       <c r="B202" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>132</v>
       </c>
       <c r="B203" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:3">
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>132</v>
       </c>
       <c r="B204" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
+      <c r="D204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>132</v>
       </c>
       <c r="B205" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:3">
+      <c r="D205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>132</v>
       </c>
       <c r="B206" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:3">
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>132</v>
       </c>
       <c r="B207" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="C207">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>132</v>
       </c>
       <c r="B208" t="s">
+        <v>165</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>132</v>
+      </c>
+      <c r="B209" t="s">
+        <v>34</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>132</v>
+      </c>
+      <c r="B210" t="s">
         <v>35</v>
       </c>
-      <c r="C208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" t="s">
-        <v>166</v>
-      </c>
-      <c r="B209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" t="s">
-        <v>166</v>
-      </c>
-      <c r="B210" t="s">
-        <v>6</v>
-      </c>
       <c r="C210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>166</v>
       </c>
       <c r="B211" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>166</v>
       </c>
       <c r="B212" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="C212">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>166</v>
       </c>
       <c r="B213" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>166</v>
       </c>
       <c r="B214" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:3">
+      <c r="D214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>166</v>
       </c>
       <c r="B215" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="C215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>166</v>
       </c>
       <c r="B216" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C216">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>166</v>
       </c>
       <c r="B217" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C217">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>166</v>
       </c>
       <c r="B218" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:3">
+      <c r="D218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>166</v>
       </c>
       <c r="B219" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:3">
+      <c r="D219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>166</v>
       </c>
       <c r="B220" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:3">
+      <c r="D220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>166</v>
       </c>
       <c r="B221" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="C221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:3">
+      <c r="D221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>166</v>
       </c>
       <c r="B222" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="C222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:3">
+      <c r="D222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>166</v>
       </c>
       <c r="B223" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="C223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:3">
+      <c r="D223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>166</v>
       </c>
       <c r="B224" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="C224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:3">
+      <c r="D224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>166</v>
       </c>
       <c r="B225" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="C225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:3">
+      <c r="D225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>166</v>
       </c>
       <c r="B226" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="C226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:3">
+      <c r="D226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>166</v>
       </c>
       <c r="B227" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="C227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:3">
+      <c r="D227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>166</v>
       </c>
       <c r="B228" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="C228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:3">
+      <c r="D228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>166</v>
       </c>
       <c r="B229" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:3">
+      <c r="D229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>166</v>
       </c>
       <c r="B230" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="C230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:3">
+      <c r="D230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>166</v>
       </c>
       <c r="B231" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="C231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:3">
+      <c r="D231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>166</v>
       </c>
       <c r="B232" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:3">
+      <c r="D232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>166</v>
       </c>
       <c r="B233" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="C233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:3">
+      <c r="D233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>166</v>
       </c>
       <c r="B234" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="C234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:3">
+      <c r="D234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>166</v>
       </c>
       <c r="B235" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:3">
+      <c r="D235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>166</v>
       </c>
       <c r="B236" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:3">
+      <c r="D236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>166</v>
       </c>
       <c r="B237" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="C237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:3">
+      <c r="D237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>166</v>
       </c>
       <c r="B238" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:3">
+      <c r="D238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>166</v>
       </c>
       <c r="B239" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:3">
+      <c r="D239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>166</v>
       </c>
       <c r="B240" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="C240">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>166</v>
       </c>
       <c r="B241" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C241">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>166</v>
       </c>
       <c r="B242" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="C242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:3">
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>166</v>
       </c>
       <c r="B243" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="C243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:3">
+      <c r="D243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>166</v>
       </c>
       <c r="B244" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:3">
+      <c r="D244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>166</v>
       </c>
       <c r="B245" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:3">
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>166</v>
       </c>
       <c r="B246" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:3">
+      <c r="D246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>166</v>
       </c>
       <c r="B247" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:3">
+      <c r="D247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>166</v>
       </c>
       <c r="B248" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="C248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:3">
+      <c r="D248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>166</v>
       </c>
       <c r="B249" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="C249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:3">
+      <c r="D249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>166</v>
       </c>
       <c r="B250" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:3">
+      <c r="D250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>166</v>
       </c>
       <c r="B251" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="C251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:3">
+      <c r="D251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>166</v>
       </c>
       <c r="B252" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="C252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:3">
+      <c r="D252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>166</v>
       </c>
       <c r="B253" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="C253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:3">
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>166</v>
       </c>
       <c r="B254" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:3">
+      <c r="D254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>166</v>
       </c>
       <c r="B255" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="C255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:3">
+      <c r="D255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>166</v>
       </c>
       <c r="B256" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:3">
+      <c r="D256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>166</v>
       </c>
       <c r="B257" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:3">
+      <c r="D257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>166</v>
       </c>
       <c r="B258" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="C258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:3">
+      <c r="D258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>166</v>
       </c>
       <c r="B259" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:3">
+      <c r="D259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>166</v>
       </c>
       <c r="B260" t="s">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="C260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:3">
+      <c r="D260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>166</v>
       </c>
       <c r="B261" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:3">
+      <c r="D261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>166</v>
       </c>
       <c r="B262" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:3">
+      <c r="D262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>166</v>
       </c>
       <c r="B263" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="C263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:3">
+      <c r="D263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>166</v>
       </c>
       <c r="B264" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:3">
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>166</v>
       </c>
       <c r="B265" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="C265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:3">
+      <c r="D265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>166</v>
       </c>
       <c r="B266" t="s">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="C266">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>166</v>
       </c>
       <c r="B267" t="s">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="C267">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>166</v>
       </c>
       <c r="B268" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="C268">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>166</v>
       </c>
       <c r="B269" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:3">
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>166</v>
       </c>
       <c r="B270" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:3">
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>166</v>
       </c>
       <c r="B271" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:3">
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>166</v>
       </c>
       <c r="B272" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:3">
+      <c r="D272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>166</v>
       </c>
       <c r="B273" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:3">
+      <c r="D273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>166</v>
       </c>
       <c r="B274" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="C274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:3">
+      <c r="D274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>166</v>
       </c>
       <c r="B275" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:3">
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>166</v>
       </c>
       <c r="B276" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="C276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:3">
+      <c r="D276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>166</v>
       </c>
       <c r="B277" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:3">
+      <c r="D277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>166</v>
       </c>
       <c r="B278" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="C278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:3">
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>166</v>
       </c>
       <c r="B279" t="s">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="C279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:3">
+      <c r="D279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>166</v>
       </c>
       <c r="B280" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>166</v>
       </c>
       <c r="B281" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C281">
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>166</v>
       </c>
       <c r="B282" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="C282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>166</v>
       </c>
       <c r="B283" t="s">
+        <v>133</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>166</v>
+      </c>
+      <c r="B284" t="s">
+        <v>127</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>166</v>
+      </c>
+      <c r="B285" t="s">
         <v>198</v>
       </c>
-      <c r="C283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="A284" t="s">
-        <v>199</v>
-      </c>
-      <c r="B284" t="s">
-        <v>5</v>
-      </c>
-      <c r="C284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285" t="s">
-        <v>199</v>
-      </c>
-      <c r="B285" t="s">
-        <v>6</v>
-      </c>
       <c r="C285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:3">
+      <c r="D285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>199</v>
       </c>
       <c r="B286" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>199</v>
       </c>
       <c r="B287" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="C287">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>199</v>
       </c>
       <c r="B288" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:3">
+      <c r="D288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>199</v>
       </c>
       <c r="B289" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:3">
+      <c r="D289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>199</v>
       </c>
       <c r="B290" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C290">
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>199</v>
       </c>
       <c r="B291" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="C291">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>199</v>
       </c>
       <c r="B292" t="s">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="C292">
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>199</v>
       </c>
       <c r="B293" t="s">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="C293">
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>199</v>
       </c>
       <c r="B294" t="s">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="C294">
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>199</v>
       </c>
       <c r="B295" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C295">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>199</v>
       </c>
       <c r="B296" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C296">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>199</v>
       </c>
       <c r="B297" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:3">
+      <c r="D297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>199</v>
       </c>
       <c r="B298" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:3">
+      <c r="D298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>199</v>
       </c>
       <c r="B299" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:3">
+      <c r="D299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>199</v>
       </c>
       <c r="B300" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="C300">
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>199</v>
       </c>
       <c r="B301" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C301">
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>199</v>
       </c>
       <c r="B302" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="C302">
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>199</v>
       </c>
       <c r="B303" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="C303">
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>199</v>
       </c>
       <c r="B304" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C304">
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>199</v>
       </c>
       <c r="B305" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="C305">
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>199</v>
       </c>
       <c r="B306" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C306">
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>199</v>
       </c>
       <c r="B307" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C307">
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>199</v>
       </c>
       <c r="B308" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C308">
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>199</v>
       </c>
       <c r="B309" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="C309">
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>199</v>
       </c>
       <c r="B310" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C310">
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>199</v>
       </c>
       <c r="B311" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C311">
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>199</v>
       </c>
       <c r="B312" t="s">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="C312">
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>199</v>
       </c>
       <c r="B313" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C313">
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>199</v>
       </c>
       <c r="B314" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="C314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:3">
+      <c r="D314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>199</v>
       </c>
       <c r="B315" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:3">
+      <c r="D315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>199</v>
       </c>
       <c r="B316" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C316">
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>199</v>
       </c>
       <c r="B317" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C317">
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>199</v>
       </c>
       <c r="B318" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C318">
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>199</v>
       </c>
       <c r="B319" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="C319">
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>199</v>
       </c>
       <c r="B320" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="C320">
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>199</v>
       </c>
       <c r="B321" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C321">
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>199</v>
       </c>
       <c r="B322" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C322">
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>199</v>
       </c>
       <c r="B323" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C323">
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
         <v>199</v>
       </c>
       <c r="B324" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="C324">
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>199</v>
       </c>
       <c r="B325" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="C325">
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>199</v>
       </c>
       <c r="B326" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="C326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:3">
+      <c r="D326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
         <v>199</v>
       </c>
       <c r="B327" t="s">
+        <v>34</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" t="s">
+        <v>199</v>
+      </c>
+      <c r="B328" t="s">
+        <v>112</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" t="s">
+        <v>199</v>
+      </c>
+      <c r="B329" t="s">
         <v>35</v>
       </c>
-      <c r="C327">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
-      <c r="A328" t="s">
-        <v>205</v>
-      </c>
-      <c r="B328" t="s">
-        <v>5</v>
-      </c>
-      <c r="C328">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
-      <c r="A329" t="s">
-        <v>205</v>
-      </c>
-      <c r="B329" t="s">
-        <v>6</v>
-      </c>
       <c r="C329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>205</v>
       </c>
       <c r="B330" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>205</v>
       </c>
       <c r="B331" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="C331">
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>205</v>
       </c>
       <c r="B332" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C332">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>205</v>
       </c>
       <c r="B333" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:3">
+      <c r="D333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>205</v>
       </c>
       <c r="B334" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="C334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>205</v>
       </c>
       <c r="B335" t="s">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="C335">
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>205</v>
       </c>
       <c r="B336" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="C336">
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
         <v>205</v>
       </c>
       <c r="B337" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="C337">
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
         <v>205</v>
       </c>
       <c r="B338" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="C338">
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>205</v>
       </c>
       <c r="B339" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C339">
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
         <v>205</v>
       </c>
       <c r="B340" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="C340">
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>205</v>
       </c>
       <c r="B341" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="C341">
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>205</v>
       </c>
       <c r="B342" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C342">
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:4">
       <c r="A343" t="s">
         <v>205</v>
       </c>
       <c r="B343" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="C343">
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>205</v>
       </c>
       <c r="B344" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C344">
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:4">
       <c r="A345" t="s">
         <v>205</v>
       </c>
       <c r="B345" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="C345">
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:4">
       <c r="A346" t="s">
         <v>205</v>
       </c>
       <c r="B346" t="s">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="C346">
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:4">
       <c r="A347" t="s">
         <v>205</v>
       </c>
       <c r="B347" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C347">
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:4">
       <c r="A348" t="s">
         <v>205</v>
       </c>
       <c r="B348" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="C348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:3">
+      <c r="D348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
       <c r="A349" t="s">
         <v>205</v>
       </c>
       <c r="B349" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C349">
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
         <v>205</v>
       </c>
       <c r="B350" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C350">
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:4">
       <c r="A351" t="s">
         <v>205</v>
       </c>
       <c r="B351" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C351">
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
         <v>205</v>
       </c>
       <c r="B352" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -5272,7 +5696,7 @@
         <v>205</v>
       </c>
       <c r="B353" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -5283,7 +5707,7 @@
         <v>205</v>
       </c>
       <c r="B354" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -5294,7 +5718,7 @@
         <v>205</v>
       </c>
       <c r="B355" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -5305,7 +5729,7 @@
         <v>205</v>
       </c>
       <c r="B356" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -5316,7 +5740,7 @@
         <v>205</v>
       </c>
       <c r="B357" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -5327,7 +5751,7 @@
         <v>205</v>
       </c>
       <c r="B358" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -5338,7 +5762,7 @@
         <v>205</v>
       </c>
       <c r="B359" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -5349,7 +5773,7 @@
         <v>205</v>
       </c>
       <c r="B360" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -5360,7 +5784,7 @@
         <v>205</v>
       </c>
       <c r="B361" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C361">
         <v>0</v>
@@ -5371,7 +5795,7 @@
         <v>205</v>
       </c>
       <c r="B362" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -5382,7 +5806,7 @@
         <v>205</v>
       </c>
       <c r="B363" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -5393,10 +5817,10 @@
         <v>205</v>
       </c>
       <c r="B364" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="C364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -5404,7 +5828,7 @@
         <v>205</v>
       </c>
       <c r="B365" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -5415,10 +5839,10 @@
         <v>205</v>
       </c>
       <c r="B366" t="s">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="C366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5426,7 +5850,7 @@
         <v>205</v>
       </c>
       <c r="B367" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -5437,1418 +5861,1586 @@
         <v>205</v>
       </c>
       <c r="B368" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="C368">
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:4">
       <c r="A369" t="s">
         <v>205</v>
       </c>
       <c r="B369" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C369">
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:4">
       <c r="A370" t="s">
         <v>205</v>
       </c>
       <c r="B370" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C370">
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:4">
       <c r="A371" t="s">
         <v>205</v>
       </c>
       <c r="B371" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C371">
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:4">
       <c r="A372" t="s">
         <v>205</v>
       </c>
       <c r="B372" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="C372">
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:4">
       <c r="A373" t="s">
         <v>205</v>
       </c>
       <c r="B373" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="C373">
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:4">
       <c r="A374" t="s">
         <v>205</v>
       </c>
       <c r="B374" t="s">
+        <v>204</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" t="s">
+        <v>205</v>
+      </c>
+      <c r="B375" t="s">
+        <v>34</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" t="s">
+        <v>205</v>
+      </c>
+      <c r="B376" t="s">
         <v>35</v>
       </c>
-      <c r="C374">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3">
-      <c r="A375" t="s">
-        <v>210</v>
-      </c>
-      <c r="B375" t="s">
-        <v>5</v>
-      </c>
-      <c r="C375">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3">
-      <c r="A376" t="s">
-        <v>210</v>
-      </c>
-      <c r="B376" t="s">
-        <v>6</v>
-      </c>
       <c r="C376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
       <c r="A377" t="s">
         <v>210</v>
       </c>
       <c r="B377" t="s">
-        <v>211</v>
+        <v>5</v>
       </c>
       <c r="C377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
       <c r="A378" t="s">
         <v>210</v>
       </c>
       <c r="B378" t="s">
-        <v>212</v>
+        <v>6</v>
       </c>
       <c r="C378">
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:4">
       <c r="A379" t="s">
         <v>210</v>
       </c>
       <c r="B379" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="C379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:3">
+      <c r="D379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
       <c r="A380" t="s">
         <v>210</v>
       </c>
       <c r="B380" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:3">
+      <c r="D380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
       <c r="A381" t="s">
         <v>210</v>
       </c>
       <c r="B381" t="s">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="C381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:3">
+      <c r="D381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
       <c r="A382" t="s">
         <v>210</v>
       </c>
       <c r="B382" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="C382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:3">
+      <c r="D382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
       <c r="A383" t="s">
         <v>210</v>
       </c>
       <c r="B383" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:3">
+      <c r="D383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
       <c r="A384" t="s">
         <v>210</v>
       </c>
       <c r="B384" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="C384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:3">
+      <c r="D384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
       <c r="A385" t="s">
         <v>210</v>
       </c>
       <c r="B385" t="s">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="C385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:3">
+      <c r="D385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
       <c r="A386" t="s">
         <v>210</v>
       </c>
       <c r="B386" t="s">
+        <v>216</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" t="s">
+        <v>210</v>
+      </c>
+      <c r="B387" t="s">
+        <v>34</v>
+      </c>
+      <c r="C387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" t="s">
+        <v>210</v>
+      </c>
+      <c r="B388" t="s">
         <v>35</v>
       </c>
-      <c r="C386">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3">
-      <c r="A387" t="s">
-        <v>217</v>
-      </c>
-      <c r="B387" t="s">
-        <v>5</v>
-      </c>
-      <c r="C387">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3">
-      <c r="A388" t="s">
-        <v>217</v>
-      </c>
-      <c r="B388" t="s">
-        <v>6</v>
-      </c>
       <c r="C388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
       <c r="A389" t="s">
         <v>217</v>
       </c>
       <c r="B389" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C389">
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:4">
       <c r="A390" t="s">
         <v>217</v>
       </c>
       <c r="B390" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C390">
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:4">
       <c r="A391" t="s">
         <v>217</v>
       </c>
       <c r="B391" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C391">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
         <v>217</v>
       </c>
       <c r="B392" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="C392">
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:4">
       <c r="A393" t="s">
         <v>217</v>
       </c>
       <c r="B393" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="C393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:3">
+      <c r="D393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
       <c r="A394" t="s">
         <v>217</v>
       </c>
       <c r="B394" t="s">
-        <v>218</v>
+        <v>64</v>
       </c>
       <c r="C394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:3">
+      <c r="D394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
         <v>217</v>
       </c>
       <c r="B395" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:3">
+      <c r="D395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
         <v>217</v>
       </c>
       <c r="B396" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:3">
+      <c r="D396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
       <c r="A397" t="s">
         <v>217</v>
       </c>
       <c r="B397" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="C397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:3">
+      <c r="D397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
       <c r="A398" t="s">
         <v>217</v>
       </c>
       <c r="B398" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C398">
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:4">
       <c r="A399" t="s">
         <v>217</v>
       </c>
       <c r="B399" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:3">
+      <c r="D399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
       <c r="A400" t="s">
         <v>217</v>
       </c>
       <c r="B400" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C400">
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:4">
       <c r="A401" t="s">
         <v>217</v>
       </c>
       <c r="B401" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:3">
+      <c r="D401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
       <c r="A402" t="s">
         <v>217</v>
       </c>
       <c r="B402" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:3">
+      <c r="D402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
       <c r="A403" t="s">
         <v>217</v>
       </c>
       <c r="B403" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C403">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:3">
+      <c r="D403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
       <c r="A404" t="s">
         <v>217</v>
       </c>
       <c r="B404" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:3">
+      <c r="D404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
       <c r="A405" t="s">
         <v>217</v>
       </c>
       <c r="B405" t="s">
-        <v>33</v>
+        <v>226</v>
       </c>
       <c r="C405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:3">
+      <c r="D405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
       <c r="A406" t="s">
         <v>217</v>
       </c>
       <c r="B406" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:3">
+      <c r="D406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
       <c r="A407" t="s">
         <v>217</v>
       </c>
       <c r="B407" t="s">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="C407">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:3">
+      <c r="D407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
       <c r="A408" t="s">
         <v>217</v>
       </c>
       <c r="B408" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:3">
+      <c r="D408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
       <c r="A409" t="s">
         <v>217</v>
       </c>
       <c r="B409" t="s">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="C409">
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:4">
       <c r="A410" t="s">
         <v>217</v>
       </c>
       <c r="B410" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C410">
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:4">
       <c r="A411" t="s">
         <v>217</v>
       </c>
       <c r="B411" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="C411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:3">
+      <c r="D411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
       <c r="A412" t="s">
         <v>217</v>
       </c>
       <c r="B412" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:3">
+      <c r="D412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
       <c r="A413" t="s">
         <v>217</v>
       </c>
       <c r="B413" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="C413">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:3">
+      <c r="D413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
       <c r="A414" t="s">
         <v>217</v>
       </c>
       <c r="B414" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C414">
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:4">
       <c r="A415" t="s">
         <v>217</v>
       </c>
       <c r="B415" t="s">
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="C415">
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:4">
       <c r="A416" t="s">
         <v>217</v>
       </c>
       <c r="B416" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="C416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:3">
+      <c r="D416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
       <c r="A417" t="s">
         <v>217</v>
       </c>
       <c r="B417" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:3">
+      <c r="D417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
       <c r="A418" t="s">
         <v>217</v>
       </c>
       <c r="B418" t="s">
+        <v>23</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" t="s">
+        <v>217</v>
+      </c>
+      <c r="B419" t="s">
+        <v>235</v>
+      </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" t="s">
+        <v>217</v>
+      </c>
+      <c r="B420" t="s">
         <v>236</v>
       </c>
-      <c r="C418">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3">
-      <c r="A419" t="s">
-        <v>237</v>
-      </c>
-      <c r="B419" t="s">
-        <v>5</v>
-      </c>
-      <c r="C419">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3">
-      <c r="A420" t="s">
-        <v>237</v>
-      </c>
-      <c r="B420" t="s">
-        <v>25</v>
-      </c>
       <c r="C420">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
       <c r="A421" t="s">
         <v>237</v>
       </c>
       <c r="B421" t="s">
-        <v>181</v>
+        <v>5</v>
       </c>
       <c r="C421">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
       <c r="A422" t="s">
         <v>237</v>
       </c>
       <c r="B422" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C422">
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:4">
       <c r="A423" t="s">
         <v>237</v>
       </c>
       <c r="B423" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="C423">
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:4">
       <c r="A424" t="s">
         <v>237</v>
       </c>
       <c r="B424" t="s">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="C424">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
       <c r="A425" t="s">
         <v>237</v>
       </c>
       <c r="B425" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C425">
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:4">
       <c r="A426" t="s">
         <v>237</v>
       </c>
       <c r="B426" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C426">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:3">
+      <c r="D426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
       <c r="A427" t="s">
         <v>237</v>
       </c>
       <c r="B427" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C427">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:3">
+      <c r="D427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
       <c r="A428" t="s">
         <v>237</v>
       </c>
       <c r="B428" t="s">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="C428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:3">
+      <c r="D428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
       <c r="A429" t="s">
         <v>237</v>
       </c>
       <c r="B429" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C429">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:3">
+      <c r="D429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
       <c r="A430" t="s">
         <v>237</v>
       </c>
       <c r="B430" t="s">
-        <v>244</v>
+        <v>120</v>
       </c>
       <c r="C430">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:3">
+      <c r="D430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
       <c r="A431" t="s">
         <v>237</v>
       </c>
       <c r="B431" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:3">
+      <c r="D431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
       <c r="A432" t="s">
         <v>237</v>
       </c>
       <c r="B432" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:3">
+      <c r="D432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
       <c r="A433" t="s">
         <v>237</v>
       </c>
       <c r="B433" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C433">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:3">
+      <c r="D433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
       <c r="A434" t="s">
         <v>237</v>
       </c>
       <c r="B434" t="s">
-        <v>33</v>
+        <v>246</v>
       </c>
       <c r="C434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:3">
+      <c r="D434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
       <c r="A435" t="s">
         <v>237</v>
       </c>
       <c r="B435" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C435">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:3">
+      <c r="D435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
       <c r="A436" t="s">
         <v>237</v>
       </c>
       <c r="B436" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="C436">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:3">
+      <c r="D436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
       <c r="A437" t="s">
         <v>237</v>
       </c>
       <c r="B437" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C437">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:3">
+      <c r="D437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
       <c r="A438" t="s">
         <v>237</v>
       </c>
       <c r="B438" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="C438">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:3">
+      <c r="D438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
       <c r="A439" t="s">
         <v>237</v>
       </c>
       <c r="B439" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="C439">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:3">
+      <c r="D439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
       <c r="A440" t="s">
         <v>237</v>
       </c>
       <c r="B440" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="C440">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:3">
+      <c r="D440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
       <c r="A441" t="s">
         <v>237</v>
       </c>
       <c r="B441" t="s">
+        <v>194</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" t="s">
+        <v>237</v>
+      </c>
+      <c r="B442" t="s">
+        <v>63</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" t="s">
+        <v>237</v>
+      </c>
+      <c r="B443" t="s">
         <v>64</v>
       </c>
-      <c r="C441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3">
-      <c r="A442" t="s">
-        <v>249</v>
-      </c>
-      <c r="B442" t="s">
-        <v>33</v>
-      </c>
-      <c r="C442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3">
-      <c r="A443" t="s">
-        <v>249</v>
-      </c>
-      <c r="B443" t="s">
-        <v>5</v>
-      </c>
       <c r="C443">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
       <c r="A444" t="s">
         <v>249</v>
       </c>
       <c r="B444" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="C444">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
       <c r="A445" t="s">
         <v>249</v>
       </c>
       <c r="B445" t="s">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="C445">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
       <c r="A446" t="s">
         <v>249</v>
       </c>
       <c r="B446" t="s">
-        <v>251</v>
+        <v>71</v>
       </c>
       <c r="C446">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
       <c r="A447" t="s">
         <v>249</v>
       </c>
       <c r="B447" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C447">
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:4">
       <c r="A448" t="s">
         <v>249</v>
       </c>
       <c r="B448" t="s">
-        <v>112</v>
+        <v>251</v>
       </c>
       <c r="C448">
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:4">
       <c r="A449" t="s">
         <v>249</v>
       </c>
       <c r="B449" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C449">
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:4">
       <c r="A450" t="s">
         <v>249</v>
       </c>
       <c r="B450" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="C450">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
       <c r="A451" t="s">
         <v>249</v>
       </c>
       <c r="B451" t="s">
-        <v>116</v>
+        <v>253</v>
       </c>
       <c r="C451">
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:4">
       <c r="A452" t="s">
         <v>249</v>
       </c>
       <c r="B452" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C452">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
       <c r="A453" t="s">
         <v>249</v>
       </c>
       <c r="B453" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="C453">
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:4">
       <c r="A454" t="s">
         <v>249</v>
       </c>
       <c r="B454" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="C454">
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:4">
       <c r="A455" t="s">
         <v>249</v>
       </c>
       <c r="B455" t="s">
-        <v>254</v>
+        <v>63</v>
       </c>
       <c r="C455">
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:4">
       <c r="A456" t="s">
         <v>249</v>
       </c>
       <c r="B456" t="s">
-        <v>225</v>
+        <v>64</v>
       </c>
       <c r="C456">
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:4">
       <c r="A457" t="s">
         <v>249</v>
       </c>
       <c r="B457" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="C457">
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:4">
       <c r="A458" t="s">
         <v>249</v>
       </c>
       <c r="B458" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="C458">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:3">
+      <c r="D458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
       <c r="A459" t="s">
         <v>249</v>
       </c>
       <c r="B459" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="C459">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:3">
+      <c r="D459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
       <c r="A460" t="s">
         <v>249</v>
       </c>
       <c r="B460" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C460">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:3">
+      <c r="D460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
       <c r="A461" t="s">
         <v>249</v>
       </c>
       <c r="B461" t="s">
-        <v>257</v>
+        <v>86</v>
       </c>
       <c r="C461">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:3">
+      <c r="D461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
       <c r="A462" t="s">
         <v>249</v>
       </c>
       <c r="B462" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C462">
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:4">
       <c r="A463" t="s">
         <v>249</v>
       </c>
       <c r="B463" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C463">
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:4">
       <c r="A464" t="s">
         <v>249</v>
       </c>
       <c r="B464" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C464">
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:4">
       <c r="A465" t="s">
         <v>249</v>
       </c>
       <c r="B465" t="s">
-        <v>109</v>
+        <v>259</v>
       </c>
       <c r="C465">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:3">
+      <c r="D465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
       <c r="A466" t="s">
         <v>249</v>
       </c>
       <c r="B466" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C466">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:3">
+      <c r="D466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
       <c r="A467" t="s">
         <v>249</v>
       </c>
       <c r="B467" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="C467">
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:4">
       <c r="A468" t="s">
         <v>249</v>
       </c>
       <c r="B468" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C468">
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:4">
       <c r="A469" t="s">
         <v>249</v>
       </c>
       <c r="B469" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C469">
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:4">
       <c r="A470" t="s">
         <v>249</v>
       </c>
       <c r="B470" t="s">
-        <v>110</v>
+        <v>263</v>
       </c>
       <c r="C470">
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:4">
       <c r="A471" t="s">
         <v>249</v>
       </c>
       <c r="B471" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C471">
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:4">
       <c r="A472" t="s">
         <v>249</v>
       </c>
       <c r="B472" t="s">
-        <v>266</v>
+        <v>110</v>
       </c>
       <c r="C472">
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:4">
       <c r="A473" t="s">
         <v>249</v>
       </c>
       <c r="B473" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C473">
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:4">
       <c r="A474" t="s">
         <v>249</v>
       </c>
       <c r="B474" t="s">
-        <v>126</v>
+        <v>266</v>
       </c>
       <c r="C474">
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:4">
       <c r="A475" t="s">
         <v>249</v>
       </c>
       <c r="B475" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C475">
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:4">
       <c r="A476" t="s">
         <v>249</v>
       </c>
       <c r="B476" t="s">
-        <v>269</v>
+        <v>126</v>
       </c>
       <c r="C476">
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:4">
       <c r="A477" t="s">
         <v>249</v>
       </c>
       <c r="B477" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C477">
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:4">
       <c r="A478" t="s">
         <v>249</v>
       </c>
       <c r="B478" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C478">
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:4">
       <c r="A479" t="s">
         <v>249</v>
       </c>
       <c r="B479" t="s">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="C479">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:3">
+      <c r="D479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
       <c r="A480" t="s">
         <v>249</v>
       </c>
       <c r="B480" t="s">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="C480">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:3">
+      <c r="D480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
       <c r="A481" t="s">
         <v>249</v>
       </c>
       <c r="B481" t="s">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="C481">
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:4">
       <c r="A482" t="s">
         <v>249</v>
       </c>
       <c r="B482" t="s">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="C482">
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:4">
       <c r="A483" t="s">
         <v>249</v>
       </c>
       <c r="B483" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C483">
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:4">
       <c r="A484" t="s">
         <v>249</v>
       </c>
       <c r="B484" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C484">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:3">
+      <c r="D484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
       <c r="A485" t="s">
         <v>249</v>
       </c>
       <c r="B485" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C485">
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:4">
       <c r="A486" t="s">
         <v>249</v>
       </c>
       <c r="B486" t="s">
-        <v>124</v>
+        <v>275</v>
       </c>
       <c r="C486">
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:4">
       <c r="A487" t="s">
         <v>249</v>
       </c>
       <c r="B487" t="s">
-        <v>125</v>
+        <v>276</v>
       </c>
       <c r="C487">
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:4">
       <c r="A488" t="s">
         <v>249</v>
       </c>
       <c r="B488" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C488">
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:4">
       <c r="A489" t="s">
         <v>249</v>
       </c>
       <c r="B489" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="C489">
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:4">
       <c r="A490" t="s">
         <v>249</v>
       </c>
       <c r="B490" t="s">
-        <v>278</v>
+        <v>119</v>
       </c>
       <c r="C490">
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:4">
       <c r="A491" t="s">
         <v>249</v>
       </c>
       <c r="B491" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C491">
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:4">
       <c r="A492" t="s">
         <v>249</v>
       </c>
       <c r="B492" t="s">
+        <v>278</v>
+      </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+      <c r="D492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" t="s">
+        <v>249</v>
+      </c>
+      <c r="B493" t="s">
+        <v>279</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+      <c r="D493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" t="s">
+        <v>249</v>
+      </c>
+      <c r="B494" t="s">
         <v>34</v>
       </c>
-      <c r="C492">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3">
-      <c r="A493" t="s">
-        <v>280</v>
-      </c>
-      <c r="B493" t="s">
-        <v>5</v>
-      </c>
-      <c r="C493">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3">
-      <c r="A494" t="s">
-        <v>280</v>
-      </c>
-      <c r="B494" t="s">
-        <v>69</v>
-      </c>
       <c r="C494">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
       <c r="A495" t="s">
         <v>280</v>
       </c>
       <c r="B495" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C495">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
       <c r="A496" t="s">
         <v>280</v>
       </c>
       <c r="B496" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -6856,7 +7448,7 @@
         <v>280</v>
       </c>
       <c r="B497" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C497">
         <v>0</v>
@@ -6867,7 +7459,7 @@
         <v>280</v>
       </c>
       <c r="B498" t="s">
-        <v>281</v>
+        <v>71</v>
       </c>
       <c r="C498">
         <v>0</v>
@@ -6878,7 +7470,7 @@
         <v>280</v>
       </c>
       <c r="B499" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="C499">
         <v>0</v>
@@ -6889,7 +7481,7 @@
         <v>280</v>
       </c>
       <c r="B500" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="C500">
         <v>0</v>
@@ -6900,7 +7492,7 @@
         <v>280</v>
       </c>
       <c r="B501" t="s">
-        <v>282</v>
+        <v>109</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -6911,7 +7503,7 @@
         <v>280</v>
       </c>
       <c r="B502" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -6922,7 +7514,7 @@
         <v>280</v>
       </c>
       <c r="B503" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C503">
         <v>0</v>
@@ -6933,7 +7525,7 @@
         <v>280</v>
       </c>
       <c r="B504" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="C504">
         <v>0</v>
@@ -6944,7 +7536,7 @@
         <v>280</v>
       </c>
       <c r="B505" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C505">
         <v>0</v>
@@ -6955,7 +7547,7 @@
         <v>280</v>
       </c>
       <c r="B506" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -6966,7 +7558,7 @@
         <v>280</v>
       </c>
       <c r="B507" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -6977,7 +7569,7 @@
         <v>280</v>
       </c>
       <c r="B508" t="s">
-        <v>67</v>
+        <v>286</v>
       </c>
       <c r="C508">
         <v>0</v>
@@ -6988,7 +7580,7 @@
         <v>280</v>
       </c>
       <c r="B509" t="s">
-        <v>110</v>
+        <v>287</v>
       </c>
       <c r="C509">
         <v>0</v>
@@ -6999,7 +7591,7 @@
         <v>280</v>
       </c>
       <c r="B510" t="s">
-        <v>265</v>
+        <v>67</v>
       </c>
       <c r="C510">
         <v>0</v>
@@ -7010,7 +7602,7 @@
         <v>280</v>
       </c>
       <c r="B511" t="s">
-        <v>266</v>
+        <v>110</v>
       </c>
       <c r="C511">
         <v>0</v>
@@ -7021,868 +7613,965 @@
         <v>280</v>
       </c>
       <c r="B512" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C512">
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:4">
       <c r="A513" t="s">
         <v>280</v>
       </c>
       <c r="B513" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C513">
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:4">
       <c r="A514" t="s">
         <v>280</v>
       </c>
       <c r="B514" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="C514">
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:4">
       <c r="A515" t="s">
         <v>280</v>
       </c>
       <c r="B515" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C515">
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:4">
       <c r="A516" t="s">
         <v>280</v>
       </c>
       <c r="B516" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C516">
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:4">
       <c r="A517" t="s">
         <v>280</v>
       </c>
       <c r="B517" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C517">
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:4">
       <c r="A518" t="s">
         <v>280</v>
       </c>
       <c r="B518" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C518">
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:4">
       <c r="A519" t="s">
         <v>280</v>
       </c>
       <c r="B519" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C519">
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:4">
       <c r="A520" t="s">
         <v>280</v>
       </c>
       <c r="B520" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C520">
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:4">
       <c r="A521" t="s">
         <v>280</v>
       </c>
       <c r="B521" t="s">
+        <v>294</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
+      <c r="D521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" t="s">
+        <v>280</v>
+      </c>
+      <c r="B522" t="s">
+        <v>295</v>
+      </c>
+      <c r="C522">
+        <v>0</v>
+      </c>
+      <c r="D522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" t="s">
+        <v>280</v>
+      </c>
+      <c r="B523" t="s">
         <v>126</v>
       </c>
-      <c r="C521">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3">
-      <c r="A522" t="s">
-        <v>296</v>
-      </c>
-      <c r="B522" t="s">
-        <v>33</v>
-      </c>
-      <c r="C522">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3">
-      <c r="A523" t="s">
-        <v>296</v>
-      </c>
-      <c r="B523" t="s">
-        <v>5</v>
-      </c>
       <c r="C523">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
       <c r="A524" t="s">
         <v>296</v>
       </c>
       <c r="B524" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="C524">
         <v>0</v>
       </c>
-    </row>
-    <row r="525" spans="1:3">
+      <c r="D524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
       <c r="A525" t="s">
         <v>296</v>
       </c>
       <c r="B525" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C525">
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:4">
       <c r="A526" t="s">
         <v>296</v>
       </c>
       <c r="B526" t="s">
-        <v>251</v>
+        <v>112</v>
       </c>
       <c r="C526">
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:4">
       <c r="A527" t="s">
         <v>296</v>
       </c>
       <c r="B527" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="C527">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
       <c r="A528" t="s">
         <v>296</v>
       </c>
       <c r="B528" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="C528">
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:4">
       <c r="A529" t="s">
         <v>296</v>
       </c>
       <c r="B529" t="s">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="C529">
         <v>0</v>
       </c>
-    </row>
-    <row r="530" spans="1:3">
+      <c r="D529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
       <c r="A530" t="s">
         <v>296</v>
       </c>
       <c r="B530" t="s">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="C530">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
       <c r="A531" t="s">
         <v>296</v>
       </c>
       <c r="B531" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="C531">
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:4">
       <c r="A532" t="s">
         <v>296</v>
       </c>
       <c r="B532" t="s">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="C532">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="D532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
       <c r="A533" t="s">
         <v>296</v>
       </c>
       <c r="B533" t="s">
-        <v>106</v>
+        <v>297</v>
       </c>
       <c r="C533">
         <v>0</v>
       </c>
-    </row>
-    <row r="534" spans="1:3">
+      <c r="D533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
       <c r="A534" t="s">
         <v>296</v>
       </c>
       <c r="B534" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="C534">
         <v>0</v>
       </c>
-    </row>
-    <row r="535" spans="1:3">
+      <c r="D534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
       <c r="A535" t="s">
         <v>296</v>
       </c>
       <c r="B535" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C535">
         <v>0</v>
       </c>
-    </row>
-    <row r="536" spans="1:3">
+      <c r="D535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
       <c r="A536" t="s">
         <v>296</v>
       </c>
       <c r="B536" t="s">
-        <v>116</v>
+        <v>255</v>
       </c>
       <c r="C536">
         <v>0</v>
       </c>
-    </row>
-    <row r="537" spans="1:3">
+      <c r="D536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
       <c r="A537" t="s">
         <v>296</v>
       </c>
       <c r="B537" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="C537">
         <v>0</v>
       </c>
-    </row>
-    <row r="538" spans="1:3">
+      <c r="D537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
       <c r="A538" t="s">
         <v>296</v>
       </c>
       <c r="B538" t="s">
-        <v>299</v>
+        <v>116</v>
       </c>
       <c r="C538">
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:4">
       <c r="A539" t="s">
         <v>296</v>
       </c>
       <c r="B539" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="C539">
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:4">
       <c r="A540" t="s">
         <v>296</v>
       </c>
       <c r="B540" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C540">
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:4">
       <c r="A541" t="s">
         <v>296</v>
       </c>
       <c r="B541" t="s">
-        <v>301</v>
+        <v>54</v>
       </c>
       <c r="C541">
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:4">
       <c r="A542" t="s">
         <v>296</v>
       </c>
       <c r="B542" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C542">
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:4">
       <c r="A543" t="s">
         <v>296</v>
       </c>
       <c r="B543" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C543">
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:4">
       <c r="A544" t="s">
         <v>296</v>
       </c>
       <c r="B544" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C544">
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:4">
       <c r="A545" t="s">
         <v>296</v>
       </c>
       <c r="B545" t="s">
-        <v>89</v>
+        <v>303</v>
       </c>
       <c r="C545">
         <v>0</v>
       </c>
-    </row>
-    <row r="546" spans="1:3">
+      <c r="D545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
       <c r="A546" t="s">
         <v>296</v>
       </c>
       <c r="B546" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C546">
         <v>0</v>
       </c>
-    </row>
-    <row r="547" spans="1:3">
+      <c r="D546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
       <c r="A547" t="s">
         <v>296</v>
       </c>
       <c r="B547" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="C547">
         <v>0</v>
       </c>
-    </row>
-    <row r="548" spans="1:3">
+      <c r="D547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
       <c r="A548" t="s">
         <v>296</v>
       </c>
       <c r="B548" t="s">
-        <v>34</v>
+        <v>305</v>
       </c>
       <c r="C548">
         <v>0</v>
       </c>
-    </row>
-    <row r="549" spans="1:3">
+      <c r="D548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
       <c r="A549" t="s">
         <v>296</v>
       </c>
       <c r="B549" t="s">
-        <v>306</v>
+        <v>6</v>
       </c>
       <c r="C549">
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:4">
       <c r="A550" t="s">
         <v>296</v>
       </c>
       <c r="B550" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C550">
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:4">
       <c r="A551" t="s">
         <v>296</v>
       </c>
       <c r="B551" t="s">
-        <v>70</v>
+        <v>306</v>
       </c>
       <c r="C551">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4">
       <c r="A552" t="s">
         <v>296</v>
       </c>
       <c r="B552" t="s">
-        <v>307</v>
+        <v>69</v>
       </c>
       <c r="C552">
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:4">
       <c r="A553" t="s">
         <v>296</v>
       </c>
       <c r="B553" t="s">
-        <v>308</v>
+        <v>70</v>
       </c>
       <c r="C553">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4">
       <c r="A554" t="s">
         <v>296</v>
       </c>
       <c r="B554" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="C554">
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:4">
       <c r="A555" t="s">
         <v>296</v>
       </c>
       <c r="B555" t="s">
+        <v>308</v>
+      </c>
+      <c r="C555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" t="s">
+        <v>296</v>
+      </c>
+      <c r="B556" t="s">
+        <v>257</v>
+      </c>
+      <c r="C556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" t="s">
+        <v>296</v>
+      </c>
+      <c r="B557" t="s">
         <v>78</v>
       </c>
-      <c r="C555">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3">
-      <c r="A556" t="s">
-        <v>309</v>
-      </c>
-      <c r="B556" t="s">
-        <v>5</v>
-      </c>
-      <c r="C556">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3">
-      <c r="A557" t="s">
-        <v>309</v>
-      </c>
-      <c r="B557" t="s">
-        <v>71</v>
-      </c>
       <c r="C557">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4">
       <c r="A558" t="s">
         <v>309</v>
       </c>
       <c r="B558" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="C558">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4">
       <c r="A559" t="s">
         <v>309</v>
       </c>
       <c r="B559" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C559">
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:3">
+    <row r="560" spans="1:4">
       <c r="A560" t="s">
         <v>309</v>
       </c>
       <c r="B560" t="s">
-        <v>310</v>
+        <v>69</v>
       </c>
       <c r="C560">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4">
       <c r="A561" t="s">
         <v>309</v>
       </c>
       <c r="B561" t="s">
-        <v>311</v>
+        <v>70</v>
       </c>
       <c r="C561">
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:4">
       <c r="A562" t="s">
         <v>309</v>
       </c>
       <c r="B562" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C562">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="563" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4">
       <c r="A563" t="s">
         <v>309</v>
       </c>
       <c r="B563" t="s">
-        <v>50</v>
+        <v>311</v>
       </c>
       <c r="C563">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4">
       <c r="A564" t="s">
         <v>309</v>
       </c>
       <c r="B564" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C564">
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:4">
       <c r="A565" t="s">
         <v>309</v>
       </c>
       <c r="B565" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C565">
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:4">
       <c r="A566" t="s">
         <v>309</v>
       </c>
       <c r="B566" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C566">
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:4">
       <c r="A567" t="s">
         <v>309</v>
       </c>
       <c r="B567" t="s">
-        <v>315</v>
+        <v>55</v>
       </c>
       <c r="C567">
         <v>0</v>
       </c>
-    </row>
-    <row r="568" spans="1:3">
+      <c r="D567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4">
       <c r="A568" t="s">
         <v>309</v>
       </c>
       <c r="B568" t="s">
-        <v>221</v>
+        <v>314</v>
       </c>
       <c r="C568">
         <v>0</v>
       </c>
-    </row>
-    <row r="569" spans="1:3">
+      <c r="D568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4">
       <c r="A569" t="s">
         <v>309</v>
       </c>
       <c r="B569" t="s">
-        <v>112</v>
+        <v>315</v>
       </c>
       <c r="C569">
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:4">
       <c r="A570" t="s">
         <v>309</v>
       </c>
       <c r="B570" t="s">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="C570">
         <v>0</v>
       </c>
-    </row>
-    <row r="571" spans="1:3">
+      <c r="D570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
       <c r="A571" t="s">
         <v>309</v>
       </c>
       <c r="B571" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C571">
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:4">
       <c r="A572" t="s">
         <v>309</v>
       </c>
       <c r="B572" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C572">
         <v>0</v>
       </c>
-    </row>
-    <row r="573" spans="1:3">
+      <c r="D572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
       <c r="A573" t="s">
         <v>309</v>
       </c>
       <c r="B573" t="s">
-        <v>318</v>
+        <v>18</v>
       </c>
       <c r="C573">
         <v>0</v>
       </c>
-    </row>
-    <row r="574" spans="1:3">
+      <c r="D573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
       <c r="A574" t="s">
         <v>309</v>
       </c>
       <c r="B574" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C574">
         <v>0</v>
       </c>
-    </row>
-    <row r="575" spans="1:3">
+      <c r="D574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
       <c r="A575" t="s">
         <v>309</v>
       </c>
       <c r="B575" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C575">
         <v>0</v>
       </c>
-    </row>
-    <row r="576" spans="1:3">
+      <c r="D575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
       <c r="A576" t="s">
         <v>309</v>
       </c>
       <c r="B576" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C576">
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:4">
       <c r="A577" t="s">
         <v>309</v>
       </c>
       <c r="B577" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C577">
         <v>0</v>
       </c>
-    </row>
-    <row r="578" spans="1:3">
+      <c r="D577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
       <c r="A578" t="s">
         <v>309</v>
       </c>
       <c r="B578" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C578">
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:4">
       <c r="A579" t="s">
         <v>309</v>
       </c>
       <c r="B579" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C579">
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:4">
       <c r="A580" t="s">
         <v>309</v>
       </c>
       <c r="B580" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C580">
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:4">
       <c r="A581" t="s">
         <v>309</v>
       </c>
       <c r="B581" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C581">
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:4">
       <c r="A582" t="s">
         <v>309</v>
       </c>
       <c r="B582" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C582">
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:4">
       <c r="A583" t="s">
         <v>309</v>
       </c>
       <c r="B583" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C583">
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:4">
       <c r="A584" t="s">
         <v>309</v>
       </c>
       <c r="B584" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C584">
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:4">
       <c r="A585" t="s">
         <v>309</v>
       </c>
       <c r="B585" t="s">
-        <v>51</v>
+        <v>327</v>
       </c>
       <c r="C585">
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:4">
       <c r="A586" t="s">
         <v>309</v>
       </c>
       <c r="B586" t="s">
-        <v>52</v>
+        <v>328</v>
       </c>
       <c r="C586">
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:4">
       <c r="A587" t="s">
         <v>309</v>
       </c>
       <c r="B587" t="s">
-        <v>329</v>
+        <v>51</v>
       </c>
       <c r="C587">
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:4">
       <c r="A588" t="s">
         <v>309</v>
       </c>
       <c r="B588" t="s">
-        <v>330</v>
+        <v>52</v>
       </c>
       <c r="C588">
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:4">
       <c r="A589" t="s">
         <v>309</v>
       </c>
       <c r="B589" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C589">
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:4">
       <c r="A590" t="s">
         <v>309</v>
       </c>
       <c r="B590" t="s">
+        <v>330</v>
+      </c>
+      <c r="C590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4">
+      <c r="A591" t="s">
+        <v>309</v>
+      </c>
+      <c r="B591" t="s">
+        <v>331</v>
+      </c>
+      <c r="C591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4">
+      <c r="A592" t="s">
+        <v>309</v>
+      </c>
+      <c r="B592" t="s">
         <v>332</v>
       </c>
-      <c r="C590">
-        <v>0</v>
+      <c r="C592">
+        <v>0</v>
+      </c>
+      <c r="D592">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="337">
   <si>
     <t>TABELA</t>
   </si>
@@ -1024,6 +1024,9 @@
   </si>
   <si>
     <t>CD_PRODUTO</t>
+  </si>
+  <si>
+    <t>NR_RECEB_DOCTO_WMS</t>
   </si>
 </sst>
 </file>
@@ -1076,8 +1079,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D592" totalsRowShown="0">
-  <autoFilter ref="A1:D592"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D593" totalsRowShown="0">
+  <autoFilter ref="A1:D593">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="ln.ods_nfr_cab"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" name="TABELA"/>
     <tableColumn id="2" name="COLUNA"/>
@@ -1373,9 +1382,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D592"/>
+  <dimension ref="A1:D593"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="C594" sqref="C594"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1398,7 +1409,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" hidden="1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1409,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" hidden="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1420,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" hidden="1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1431,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" hidden="1">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1442,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" hidden="1">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1453,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" hidden="1">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1464,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" hidden="1">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1475,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" hidden="1">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1486,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" hidden="1">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1497,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" hidden="1">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1508,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" hidden="1">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1519,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" hidden="1">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1533,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" hidden="1">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1547,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" hidden="1">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1561,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" hidden="1">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1575,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" hidden="1">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1589,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" hidden="1">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1603,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" hidden="1">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1617,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" hidden="1">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1631,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" hidden="1">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1645,7 +1656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" hidden="1">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1656,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" hidden="1">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1670,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" hidden="1">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1681,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" hidden="1">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1695,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" hidden="1">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1709,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" hidden="1">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1723,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" hidden="1">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1737,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" hidden="1">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1751,7 +1762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" hidden="1">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1765,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" hidden="1">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1779,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" hidden="1">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1793,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" hidden="1">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1804,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" hidden="1">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1815,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" hidden="1">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -1826,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" hidden="1">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1837,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" hidden="1">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1848,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" hidden="1">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1859,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" hidden="1">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1870,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" hidden="1">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1881,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" hidden="1">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -1892,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" hidden="1">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -1903,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" hidden="1">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1914,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" hidden="1">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -1925,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" hidden="1">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -1936,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" hidden="1">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -1947,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" hidden="1">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -1958,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" hidden="1">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -1972,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" hidden="1">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -1986,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" hidden="1">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -2000,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" hidden="1">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -2011,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" hidden="1">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -2022,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" hidden="1">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -2033,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" hidden="1">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -2044,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" hidden="1">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -2058,7 +2069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" hidden="1">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -2072,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" hidden="1">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -2086,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" hidden="1">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -2100,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" hidden="1">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -2111,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" hidden="1">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -2122,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" hidden="1">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -2133,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" hidden="1">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -2144,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" hidden="1">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -2155,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" hidden="1">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -2166,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" hidden="1">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -2177,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" hidden="1">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -2191,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" hidden="1">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -2205,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" hidden="1">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -2219,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" hidden="1">
       <c r="A69" t="s">
         <v>49</v>
       </c>
@@ -2230,7 +2241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" hidden="1">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -2244,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" hidden="1">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -2258,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" hidden="1">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -2272,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" hidden="1">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -2283,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" hidden="1">
       <c r="A74" t="s">
         <v>49</v>
       </c>
@@ -2294,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" hidden="1">
       <c r="A75" t="s">
         <v>60</v>
       </c>
@@ -2308,7 +2319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" hidden="1">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -2319,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" hidden="1">
       <c r="A77" t="s">
         <v>60</v>
       </c>
@@ -2330,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" hidden="1">
       <c r="A78" t="s">
         <v>60</v>
       </c>
@@ -2341,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" hidden="1">
       <c r="A79" t="s">
         <v>60</v>
       </c>
@@ -2352,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" hidden="1">
       <c r="A80" t="s">
         <v>60</v>
       </c>
@@ -2363,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" hidden="1">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -2374,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" hidden="1">
       <c r="A82" t="s">
         <v>60</v>
       </c>
@@ -2385,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" hidden="1">
       <c r="A83" t="s">
         <v>60</v>
       </c>
@@ -2396,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" hidden="1">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -2407,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" hidden="1">
       <c r="A85" t="s">
         <v>60</v>
       </c>
@@ -2418,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" hidden="1">
       <c r="A86" t="s">
         <v>60</v>
       </c>
@@ -2429,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" hidden="1">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -2440,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" hidden="1">
       <c r="A88" t="s">
         <v>60</v>
       </c>
@@ -2451,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" hidden="1">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -2462,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" hidden="1">
       <c r="A90" t="s">
         <v>60</v>
       </c>
@@ -2473,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" hidden="1">
       <c r="A91" t="s">
         <v>60</v>
       </c>
@@ -2484,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" hidden="1">
       <c r="A92" t="s">
         <v>60</v>
       </c>
@@ -2495,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" hidden="1">
       <c r="A93" t="s">
         <v>60</v>
       </c>
@@ -2506,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" hidden="1">
       <c r="A94" t="s">
         <v>60</v>
       </c>
@@ -2517,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" hidden="1">
       <c r="A95" t="s">
         <v>60</v>
       </c>
@@ -2531,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" hidden="1">
       <c r="A96" t="s">
         <v>60</v>
       </c>
@@ -2545,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" hidden="1">
       <c r="A97" t="s">
         <v>60</v>
       </c>
@@ -2556,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" hidden="1">
       <c r="A98" t="s">
         <v>60</v>
       </c>
@@ -2567,7 +2578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" hidden="1">
       <c r="A99" t="s">
         <v>60</v>
       </c>
@@ -2578,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" hidden="1">
       <c r="A100" t="s">
         <v>60</v>
       </c>
@@ -2589,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" hidden="1">
       <c r="A101" t="s">
         <v>60</v>
       </c>
@@ -2600,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" hidden="1">
       <c r="A102" t="s">
         <v>60</v>
       </c>
@@ -2611,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" hidden="1">
       <c r="A103" t="s">
         <v>60</v>
       </c>
@@ -2622,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" hidden="1">
       <c r="A104" t="s">
         <v>60</v>
       </c>
@@ -2633,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" hidden="1">
       <c r="A105" t="s">
         <v>60</v>
       </c>
@@ -2644,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" hidden="1">
       <c r="A106" t="s">
         <v>60</v>
       </c>
@@ -2655,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" hidden="1">
       <c r="A107" t="s">
         <v>60</v>
       </c>
@@ -2666,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" hidden="1">
       <c r="A108" t="s">
         <v>60</v>
       </c>
@@ -2677,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" hidden="1">
       <c r="A109" t="s">
         <v>60</v>
       </c>
@@ -2688,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" hidden="1">
       <c r="A110" t="s">
         <v>60</v>
       </c>
@@ -2699,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" hidden="1">
       <c r="A111" t="s">
         <v>60</v>
       </c>
@@ -2710,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" hidden="1">
       <c r="A112" t="s">
         <v>60</v>
       </c>
@@ -2721,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" hidden="1">
       <c r="A113" t="s">
         <v>60</v>
       </c>
@@ -2732,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" hidden="1">
       <c r="A114" t="s">
         <v>60</v>
       </c>
@@ -2743,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" hidden="1">
       <c r="A115" t="s">
         <v>60</v>
       </c>
@@ -2754,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" hidden="1">
       <c r="A116" t="s">
         <v>60</v>
       </c>
@@ -2765,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" hidden="1">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -2776,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" hidden="1">
       <c r="A118" t="s">
         <v>60</v>
       </c>
@@ -2787,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" hidden="1">
       <c r="A119" t="s">
         <v>60</v>
       </c>
@@ -2798,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" hidden="1">
       <c r="A120" t="s">
         <v>60</v>
       </c>
@@ -2809,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" hidden="1">
       <c r="A121" t="s">
         <v>60</v>
       </c>
@@ -2820,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" hidden="1">
       <c r="A122" t="s">
         <v>60</v>
       </c>
@@ -2831,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" hidden="1">
       <c r="A123" t="s">
         <v>60</v>
       </c>
@@ -2842,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" hidden="1">
       <c r="A124" t="s">
         <v>60</v>
       </c>
@@ -2853,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" hidden="1">
       <c r="A125" t="s">
         <v>60</v>
       </c>
@@ -2864,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" hidden="1">
       <c r="A126" t="s">
         <v>60</v>
       </c>
@@ -2875,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" hidden="1">
       <c r="A127" t="s">
         <v>60</v>
       </c>
@@ -2886,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" hidden="1">
       <c r="A128" t="s">
         <v>60</v>
       </c>
@@ -2897,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" hidden="1">
       <c r="A129" t="s">
         <v>60</v>
       </c>
@@ -2908,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" hidden="1">
       <c r="A130" t="s">
         <v>60</v>
       </c>
@@ -2919,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" hidden="1">
       <c r="A131" t="s">
         <v>60</v>
       </c>
@@ -2930,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" hidden="1">
       <c r="A132" t="s">
         <v>60</v>
       </c>
@@ -2941,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" hidden="1">
       <c r="A133" t="s">
         <v>60</v>
       </c>
@@ -2952,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" hidden="1">
       <c r="A134" t="s">
         <v>60</v>
       </c>
@@ -2963,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" hidden="1">
       <c r="A135" t="s">
         <v>60</v>
       </c>
@@ -2974,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" hidden="1">
       <c r="A136" t="s">
         <v>60</v>
       </c>
@@ -2985,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" hidden="1">
       <c r="A137" t="s">
         <v>60</v>
       </c>
@@ -2996,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" hidden="1">
       <c r="A138" t="s">
         <v>60</v>
       </c>
@@ -3010,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" hidden="1">
       <c r="A139" t="s">
         <v>60</v>
       </c>
@@ -3021,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" hidden="1">
       <c r="A140" t="s">
         <v>60</v>
       </c>
@@ -3032,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" hidden="1">
       <c r="A141" t="s">
         <v>60</v>
       </c>
@@ -3043,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" hidden="1">
       <c r="A142" t="s">
         <v>60</v>
       </c>
@@ -3054,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" hidden="1">
       <c r="A143" t="s">
         <v>60</v>
       </c>
@@ -3065,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" hidden="1">
       <c r="A144" t="s">
         <v>60</v>
       </c>
@@ -3076,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" hidden="1">
       <c r="A145" t="s">
         <v>60</v>
       </c>
@@ -3087,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" hidden="1">
       <c r="A146" t="s">
         <v>60</v>
       </c>
@@ -3098,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" hidden="1">
       <c r="A147" t="s">
         <v>60</v>
       </c>
@@ -3109,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" hidden="1">
       <c r="A148" t="s">
         <v>60</v>
       </c>
@@ -3120,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" hidden="1">
       <c r="A149" t="s">
         <v>60</v>
       </c>
@@ -3131,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" hidden="1">
       <c r="A150" t="s">
         <v>60</v>
       </c>
@@ -3142,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" hidden="1">
       <c r="A151" t="s">
         <v>60</v>
       </c>
@@ -3156,7 +3167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" hidden="1">
       <c r="A152" t="s">
         <v>60</v>
       </c>
@@ -3167,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" hidden="1">
       <c r="A153" t="s">
         <v>60</v>
       </c>
@@ -3178,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" hidden="1">
       <c r="A154" t="s">
         <v>60</v>
       </c>
@@ -3918,46 +3929,43 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>336</v>
       </c>
       <c r="C211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" hidden="1">
       <c r="A212" t="s">
         <v>166</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" hidden="1">
       <c r="A213" t="s">
         <v>166</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C213">
         <v>0</v>
       </c>
-      <c r="D213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+    </row>
+    <row r="214" spans="1:4" hidden="1">
       <c r="A214" t="s">
         <v>166</v>
       </c>
       <c r="B214" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -3966,59 +3974,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" hidden="1">
       <c r="A215" t="s">
         <v>166</v>
       </c>
       <c r="B215" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="C215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" hidden="1">
       <c r="A216" t="s">
         <v>166</v>
       </c>
       <c r="B216" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="C216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" hidden="1">
       <c r="A217" t="s">
         <v>166</v>
       </c>
       <c r="B217" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C217">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" hidden="1">
       <c r="A218" t="s">
         <v>166</v>
       </c>
       <c r="B218" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C218">
         <v>0</v>
       </c>
-      <c r="D218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+    </row>
+    <row r="219" spans="1:4" hidden="1">
       <c r="A219" t="s">
         <v>166</v>
       </c>
       <c r="B219" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -4027,12 +4035,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" hidden="1">
       <c r="A220" t="s">
         <v>166</v>
       </c>
       <c r="B220" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -4041,12 +4049,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" hidden="1">
       <c r="A221" t="s">
         <v>166</v>
       </c>
       <c r="B221" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -4055,12 +4063,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" hidden="1">
       <c r="A222" t="s">
         <v>166</v>
       </c>
       <c r="B222" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -4069,12 +4077,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" hidden="1">
       <c r="A223" t="s">
         <v>166</v>
       </c>
       <c r="B223" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -4083,12 +4091,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" hidden="1">
       <c r="A224" t="s">
         <v>166</v>
       </c>
       <c r="B224" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -4097,12 +4105,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" hidden="1">
       <c r="A225" t="s">
         <v>166</v>
       </c>
       <c r="B225" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -4111,12 +4119,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" hidden="1">
       <c r="A226" t="s">
         <v>166</v>
       </c>
       <c r="B226" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -4125,12 +4133,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" hidden="1">
       <c r="A227" t="s">
         <v>166</v>
       </c>
       <c r="B227" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -4139,12 +4147,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" hidden="1">
       <c r="A228" t="s">
         <v>166</v>
       </c>
       <c r="B228" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -4153,12 +4161,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" hidden="1">
       <c r="A229" t="s">
         <v>166</v>
       </c>
       <c r="B229" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -4167,12 +4175,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" hidden="1">
       <c r="A230" t="s">
         <v>166</v>
       </c>
       <c r="B230" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -4181,12 +4189,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" hidden="1">
       <c r="A231" t="s">
         <v>166</v>
       </c>
       <c r="B231" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -4195,12 +4203,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" hidden="1">
       <c r="A232" t="s">
         <v>166</v>
       </c>
       <c r="B232" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -4209,12 +4217,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" hidden="1">
       <c r="A233" t="s">
         <v>166</v>
       </c>
       <c r="B233" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -4223,12 +4231,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" hidden="1">
       <c r="A234" t="s">
         <v>166</v>
       </c>
       <c r="B234" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -4237,12 +4245,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" hidden="1">
       <c r="A235" t="s">
         <v>166</v>
       </c>
       <c r="B235" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -4251,12 +4259,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" hidden="1">
       <c r="A236" t="s">
         <v>166</v>
       </c>
       <c r="B236" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -4265,12 +4273,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" hidden="1">
       <c r="A237" t="s">
         <v>166</v>
       </c>
       <c r="B237" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -4279,12 +4287,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" hidden="1">
       <c r="A238" t="s">
         <v>166</v>
       </c>
       <c r="B238" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -4293,12 +4301,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" hidden="1">
       <c r="A239" t="s">
         <v>166</v>
       </c>
       <c r="B239" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -4307,48 +4315,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" hidden="1">
       <c r="A240" t="s">
         <v>166</v>
       </c>
       <c r="B240" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" hidden="1">
       <c r="A241" t="s">
         <v>166</v>
       </c>
       <c r="B241" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C241">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" hidden="1">
       <c r="A242" t="s">
         <v>166</v>
       </c>
       <c r="B242" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="C242">
         <v>0</v>
       </c>
-      <c r="D242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+    </row>
+    <row r="243" spans="1:4" hidden="1">
       <c r="A243" t="s">
         <v>166</v>
       </c>
       <c r="B243" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4357,12 +4365,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" hidden="1">
       <c r="A244" t="s">
         <v>166</v>
       </c>
       <c r="B244" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -4371,12 +4379,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" hidden="1">
       <c r="A245" t="s">
         <v>166</v>
       </c>
       <c r="B245" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -4385,12 +4393,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" hidden="1">
       <c r="A246" t="s">
         <v>166</v>
       </c>
       <c r="B246" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -4399,12 +4407,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" hidden="1">
       <c r="A247" t="s">
         <v>166</v>
       </c>
       <c r="B247" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -4413,12 +4421,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" hidden="1">
       <c r="A248" t="s">
         <v>166</v>
       </c>
       <c r="B248" t="s">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -4427,12 +4435,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" hidden="1">
       <c r="A249" t="s">
         <v>166</v>
       </c>
       <c r="B249" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -4441,12 +4449,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" hidden="1">
       <c r="A250" t="s">
         <v>166</v>
       </c>
       <c r="B250" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -4455,12 +4463,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" hidden="1">
       <c r="A251" t="s">
         <v>166</v>
       </c>
       <c r="B251" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -4469,12 +4477,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" hidden="1">
       <c r="A252" t="s">
         <v>166</v>
       </c>
       <c r="B252" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -4483,12 +4491,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" hidden="1">
       <c r="A253" t="s">
         <v>166</v>
       </c>
       <c r="B253" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -4497,12 +4505,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" hidden="1">
       <c r="A254" t="s">
         <v>166</v>
       </c>
       <c r="B254" t="s">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -4511,12 +4519,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" hidden="1">
       <c r="A255" t="s">
         <v>166</v>
       </c>
       <c r="B255" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -4525,12 +4533,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" hidden="1">
       <c r="A256" t="s">
         <v>166</v>
       </c>
       <c r="B256" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -4539,12 +4547,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" hidden="1">
       <c r="A257" t="s">
         <v>166</v>
       </c>
       <c r="B257" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -4553,12 +4561,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" hidden="1">
       <c r="A258" t="s">
         <v>166</v>
       </c>
       <c r="B258" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -4567,12 +4575,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" hidden="1">
       <c r="A259" t="s">
         <v>166</v>
       </c>
       <c r="B259" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -4581,12 +4589,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" hidden="1">
       <c r="A260" t="s">
         <v>166</v>
       </c>
       <c r="B260" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -4595,12 +4603,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" hidden="1">
       <c r="A261" t="s">
         <v>166</v>
       </c>
       <c r="B261" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -4609,12 +4617,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" hidden="1">
       <c r="A262" t="s">
         <v>166</v>
       </c>
       <c r="B262" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -4623,12 +4631,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" hidden="1">
       <c r="A263" t="s">
         <v>166</v>
       </c>
       <c r="B263" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -4637,12 +4645,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" hidden="1">
       <c r="A264" t="s">
         <v>166</v>
       </c>
       <c r="B264" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -4651,12 +4659,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" hidden="1">
       <c r="A265" t="s">
         <v>166</v>
       </c>
       <c r="B265" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -4665,59 +4673,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" hidden="1">
       <c r="A266" t="s">
         <v>166</v>
       </c>
       <c r="B266" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:4">
+      <c r="D266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" hidden="1">
       <c r="A267" t="s">
         <v>166</v>
       </c>
       <c r="B267" t="s">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="C267">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" hidden="1">
       <c r="A268" t="s">
         <v>166</v>
       </c>
       <c r="B268" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C268">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" hidden="1">
       <c r="A269" t="s">
         <v>166</v>
       </c>
       <c r="B269" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="C269">
         <v>0</v>
       </c>
-      <c r="D269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
+    </row>
+    <row r="270" spans="1:4" hidden="1">
       <c r="A270" t="s">
         <v>166</v>
       </c>
       <c r="B270" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -4726,12 +4734,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" hidden="1">
       <c r="A271" t="s">
         <v>166</v>
       </c>
       <c r="B271" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -4740,12 +4748,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" hidden="1">
       <c r="A272" t="s">
         <v>166</v>
       </c>
       <c r="B272" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -4754,12 +4762,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" hidden="1">
       <c r="A273" t="s">
         <v>166</v>
       </c>
       <c r="B273" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -4768,12 +4776,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" hidden="1">
       <c r="A274" t="s">
         <v>166</v>
       </c>
       <c r="B274" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -4782,12 +4790,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" hidden="1">
       <c r="A275" t="s">
         <v>166</v>
       </c>
       <c r="B275" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -4796,12 +4804,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" hidden="1">
       <c r="A276" t="s">
         <v>166</v>
       </c>
       <c r="B276" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -4810,12 +4818,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" hidden="1">
       <c r="A277" t="s">
         <v>166</v>
       </c>
       <c r="B277" t="s">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -4824,12 +4832,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" hidden="1">
       <c r="A278" t="s">
         <v>166</v>
       </c>
       <c r="B278" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -4838,12 +4846,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" hidden="1">
       <c r="A279" t="s">
         <v>166</v>
       </c>
       <c r="B279" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -4852,117 +4860,117 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" hidden="1">
       <c r="A280" t="s">
         <v>166</v>
       </c>
       <c r="B280" t="s">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="C280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:4">
+      <c r="D280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" hidden="1">
       <c r="A281" t="s">
         <v>166</v>
       </c>
       <c r="B281" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C281">
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" hidden="1">
       <c r="A282" t="s">
         <v>166</v>
       </c>
       <c r="B282" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" hidden="1">
       <c r="A283" t="s">
         <v>166</v>
       </c>
       <c r="B283" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="C283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" hidden="1">
       <c r="A284" t="s">
         <v>166</v>
       </c>
       <c r="B284" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C284">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" hidden="1">
       <c r="A285" t="s">
         <v>166</v>
       </c>
       <c r="B285" t="s">
+        <v>127</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" hidden="1">
+      <c r="A286" t="s">
+        <v>166</v>
+      </c>
+      <c r="B286" t="s">
         <v>198</v>
       </c>
-      <c r="C285">
-        <v>0</v>
-      </c>
-      <c r="D285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="A286" t="s">
-        <v>199</v>
-      </c>
-      <c r="B286" t="s">
-        <v>5</v>
-      </c>
       <c r="C286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" hidden="1">
       <c r="A287" t="s">
         <v>199</v>
       </c>
       <c r="B287" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" hidden="1">
       <c r="A288" t="s">
         <v>199</v>
       </c>
       <c r="B288" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C288">
         <v>0</v>
       </c>
-      <c r="D288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
+    </row>
+    <row r="289" spans="1:4" hidden="1">
       <c r="A289" t="s">
         <v>199</v>
       </c>
       <c r="B289" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -4971,103 +4979,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" hidden="1">
       <c r="A290" t="s">
         <v>199</v>
       </c>
       <c r="B290" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:4">
+      <c r="D290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" hidden="1">
       <c r="A291" t="s">
         <v>199</v>
       </c>
       <c r="B291" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C291">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" hidden="1">
       <c r="A292" t="s">
         <v>199</v>
       </c>
       <c r="B292" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C292">
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" hidden="1">
       <c r="A293" t="s">
         <v>199</v>
       </c>
       <c r="B293" t="s">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="C293">
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" hidden="1">
       <c r="A294" t="s">
         <v>199</v>
       </c>
       <c r="B294" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C294">
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" hidden="1">
       <c r="A295" t="s">
         <v>199</v>
       </c>
       <c r="B295" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="C295">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" hidden="1">
       <c r="A296" t="s">
         <v>199</v>
       </c>
       <c r="B296" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C296">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" hidden="1">
       <c r="A297" t="s">
         <v>199</v>
       </c>
       <c r="B297" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C297">
         <v>0</v>
       </c>
-      <c r="D297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
+    </row>
+    <row r="298" spans="1:4" hidden="1">
       <c r="A298" t="s">
         <v>199</v>
       </c>
       <c r="B298" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -5076,12 +5084,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" hidden="1">
       <c r="A299" t="s">
         <v>199</v>
       </c>
       <c r="B299" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -5090,180 +5098,180 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" hidden="1">
       <c r="A300" t="s">
         <v>199</v>
       </c>
       <c r="B300" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:4">
+      <c r="D300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" hidden="1">
       <c r="A301" t="s">
         <v>199</v>
       </c>
       <c r="B301" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C301">
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" hidden="1">
       <c r="A302" t="s">
         <v>199</v>
       </c>
       <c r="B302" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="C302">
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" hidden="1">
       <c r="A303" t="s">
         <v>199</v>
       </c>
       <c r="B303" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C303">
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" hidden="1">
       <c r="A304" t="s">
         <v>199</v>
       </c>
       <c r="B304" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C304">
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" hidden="1">
       <c r="A305" t="s">
         <v>199</v>
       </c>
       <c r="B305" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="C305">
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" hidden="1">
       <c r="A306" t="s">
         <v>199</v>
       </c>
       <c r="B306" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="C306">
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" hidden="1">
       <c r="A307" t="s">
         <v>199</v>
       </c>
       <c r="B307" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="C307">
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" hidden="1">
       <c r="A308" t="s">
         <v>199</v>
       </c>
       <c r="B308" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C308">
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" hidden="1">
       <c r="A309" t="s">
         <v>199</v>
       </c>
       <c r="B309" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="C309">
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" hidden="1">
       <c r="A310" t="s">
         <v>199</v>
       </c>
       <c r="B310" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="C310">
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" hidden="1">
       <c r="A311" t="s">
         <v>199</v>
       </c>
       <c r="B311" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C311">
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" hidden="1">
       <c r="A312" t="s">
         <v>199</v>
       </c>
       <c r="B312" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C312">
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" hidden="1">
       <c r="A313" t="s">
         <v>199</v>
       </c>
       <c r="B313" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C313">
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" hidden="1">
       <c r="A314" t="s">
         <v>199</v>
       </c>
       <c r="B314" t="s">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="C314">
         <v>0</v>
       </c>
-      <c r="D314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4">
+    </row>
+    <row r="315" spans="1:4" hidden="1">
       <c r="A315" t="s">
         <v>199</v>
       </c>
       <c r="B315" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -5272,205 +5280,205 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" hidden="1">
       <c r="A316" t="s">
         <v>199</v>
       </c>
       <c r="B316" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:4">
+      <c r="D316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" hidden="1">
       <c r="A317" t="s">
         <v>199</v>
       </c>
       <c r="B317" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C317">
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" hidden="1">
       <c r="A318" t="s">
         <v>199</v>
       </c>
       <c r="B318" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C318">
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" hidden="1">
       <c r="A319" t="s">
         <v>199</v>
       </c>
       <c r="B319" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C319">
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" hidden="1">
       <c r="A320" t="s">
         <v>199</v>
       </c>
       <c r="B320" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C320">
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" hidden="1">
       <c r="A321" t="s">
         <v>199</v>
       </c>
       <c r="B321" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="C321">
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" hidden="1">
       <c r="A322" t="s">
         <v>199</v>
       </c>
       <c r="B322" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C322">
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" hidden="1">
       <c r="A323" t="s">
         <v>199</v>
       </c>
       <c r="B323" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C323">
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" hidden="1">
       <c r="A324" t="s">
         <v>199</v>
       </c>
       <c r="B324" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C324">
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" hidden="1">
       <c r="A325" t="s">
         <v>199</v>
       </c>
       <c r="B325" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="C325">
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" hidden="1">
       <c r="A326" t="s">
         <v>199</v>
       </c>
       <c r="B326" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C326">
         <v>0</v>
       </c>
-      <c r="D326">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4">
+    </row>
+    <row r="327" spans="1:4" hidden="1">
       <c r="A327" t="s">
         <v>199</v>
       </c>
       <c r="B327" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="C327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:4">
+      <c r="D327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" hidden="1">
       <c r="A328" t="s">
         <v>199</v>
       </c>
       <c r="B328" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="C328">
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" hidden="1">
       <c r="A329" t="s">
         <v>199</v>
       </c>
       <c r="B329" t="s">
+        <v>112</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" hidden="1">
+      <c r="A330" t="s">
+        <v>199</v>
+      </c>
+      <c r="B330" t="s">
         <v>35</v>
       </c>
-      <c r="C329">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4">
-      <c r="A330" t="s">
-        <v>205</v>
-      </c>
-      <c r="B330" t="s">
-        <v>5</v>
-      </c>
       <c r="C330">
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" hidden="1">
       <c r="A331" t="s">
         <v>205</v>
       </c>
       <c r="B331" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" hidden="1">
       <c r="A332" t="s">
         <v>205</v>
       </c>
       <c r="B332" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C332">
         <v>0</v>
       </c>
-      <c r="D332">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4">
+    </row>
+    <row r="333" spans="1:4" hidden="1">
       <c r="A333" t="s">
         <v>205</v>
       </c>
       <c r="B333" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -5479,527 +5487,527 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" hidden="1">
       <c r="A334" t="s">
         <v>205</v>
       </c>
       <c r="B334" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C334">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" hidden="1">
       <c r="A335" t="s">
         <v>205</v>
       </c>
       <c r="B335" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" hidden="1">
       <c r="A336" t="s">
         <v>205</v>
       </c>
       <c r="B336" t="s">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="C336">
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" hidden="1">
       <c r="A337" t="s">
         <v>205</v>
       </c>
       <c r="B337" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C337">
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" hidden="1">
       <c r="A338" t="s">
         <v>205</v>
       </c>
       <c r="B338" t="s">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="C338">
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" hidden="1">
       <c r="A339" t="s">
         <v>205</v>
       </c>
       <c r="B339" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C339">
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" hidden="1">
       <c r="A340" t="s">
         <v>205</v>
       </c>
       <c r="B340" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="C340">
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" hidden="1">
       <c r="A341" t="s">
         <v>205</v>
       </c>
       <c r="B341" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C341">
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" hidden="1">
       <c r="A342" t="s">
         <v>205</v>
       </c>
       <c r="B342" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C342">
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" hidden="1">
       <c r="A343" t="s">
         <v>205</v>
       </c>
       <c r="B343" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="C343">
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" hidden="1">
       <c r="A344" t="s">
         <v>205</v>
       </c>
       <c r="B344" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="C344">
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" hidden="1">
       <c r="A345" t="s">
         <v>205</v>
       </c>
       <c r="B345" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="C345">
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" hidden="1">
       <c r="A346" t="s">
         <v>205</v>
       </c>
       <c r="B346" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C346">
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" hidden="1">
       <c r="A347" t="s">
         <v>205</v>
       </c>
       <c r="B347" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C347">
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" hidden="1">
       <c r="A348" t="s">
         <v>205</v>
       </c>
       <c r="B348" t="s">
-        <v>208</v>
+        <v>89</v>
       </c>
       <c r="C348">
         <v>0</v>
       </c>
-      <c r="D348">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4">
+    </row>
+    <row r="349" spans="1:4" hidden="1">
       <c r="A349" t="s">
         <v>205</v>
       </c>
       <c r="B349" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="C349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:4">
+      <c r="D349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" hidden="1">
       <c r="A350" t="s">
         <v>205</v>
       </c>
       <c r="B350" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C350">
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" hidden="1">
       <c r="A351" t="s">
         <v>205</v>
       </c>
       <c r="B351" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C351">
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" hidden="1">
       <c r="A352" t="s">
         <v>205</v>
       </c>
       <c r="B352" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C352">
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" hidden="1">
       <c r="A353" t="s">
         <v>205</v>
       </c>
       <c r="B353" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C353">
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" hidden="1">
       <c r="A354" t="s">
         <v>205</v>
       </c>
       <c r="B354" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C354">
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" hidden="1">
       <c r="A355" t="s">
         <v>205</v>
       </c>
       <c r="B355" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C355">
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" hidden="1">
       <c r="A356" t="s">
         <v>205</v>
       </c>
       <c r="B356" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C356">
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" hidden="1">
       <c r="A357" t="s">
         <v>205</v>
       </c>
       <c r="B357" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C357">
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" hidden="1">
       <c r="A358" t="s">
         <v>205</v>
       </c>
       <c r="B358" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C358">
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" hidden="1">
       <c r="A359" t="s">
         <v>205</v>
       </c>
       <c r="B359" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C359">
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" hidden="1">
       <c r="A360" t="s">
         <v>205</v>
       </c>
       <c r="B360" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C360">
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" hidden="1">
       <c r="A361" t="s">
         <v>205</v>
       </c>
       <c r="B361" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C361">
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" hidden="1">
       <c r="A362" t="s">
         <v>205</v>
       </c>
       <c r="B362" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C362">
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" hidden="1">
       <c r="A363" t="s">
         <v>205</v>
       </c>
       <c r="B363" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C363">
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" hidden="1">
       <c r="A364" t="s">
         <v>205</v>
       </c>
       <c r="B364" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C364">
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" hidden="1">
       <c r="A365" t="s">
         <v>205</v>
       </c>
       <c r="B365" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C365">
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" hidden="1">
       <c r="A366" t="s">
         <v>205</v>
       </c>
       <c r="B366" t="s">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="C366">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" hidden="1">
       <c r="A367" t="s">
         <v>205</v>
       </c>
       <c r="B367" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="C367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" hidden="1">
       <c r="A368" t="s">
         <v>205</v>
       </c>
       <c r="B368" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C368">
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" hidden="1">
       <c r="A369" t="s">
         <v>205</v>
       </c>
       <c r="B369" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="C369">
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" hidden="1">
       <c r="A370" t="s">
         <v>205</v>
       </c>
       <c r="B370" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C370">
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" hidden="1">
       <c r="A371" t="s">
         <v>205</v>
       </c>
       <c r="B371" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C371">
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" hidden="1">
       <c r="A372" t="s">
         <v>205</v>
       </c>
       <c r="B372" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C372">
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" hidden="1">
       <c r="A373" t="s">
         <v>205</v>
       </c>
       <c r="B373" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="C373">
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" hidden="1">
       <c r="A374" t="s">
         <v>205</v>
       </c>
       <c r="B374" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C374">
         <v>0</v>
       </c>
-      <c r="D374">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
+    </row>
+    <row r="375" spans="1:4" hidden="1">
       <c r="A375" t="s">
         <v>205</v>
       </c>
       <c r="B375" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="C375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:4">
+      <c r="D375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" hidden="1">
       <c r="A376" t="s">
         <v>205</v>
       </c>
       <c r="B376" t="s">
+        <v>34</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" hidden="1">
+      <c r="A377" t="s">
+        <v>205</v>
+      </c>
+      <c r="B377" t="s">
         <v>35</v>
       </c>
-      <c r="C376">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" t="s">
-        <v>210</v>
-      </c>
-      <c r="B377" t="s">
-        <v>5</v>
-      </c>
       <c r="C377">
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" hidden="1">
       <c r="A378" t="s">
         <v>210</v>
       </c>
       <c r="B378" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" hidden="1">
       <c r="A379" t="s">
         <v>210</v>
       </c>
       <c r="B379" t="s">
-        <v>211</v>
+        <v>6</v>
       </c>
       <c r="C379">
         <v>0</v>
       </c>
-      <c r="D379">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
+    </row>
+    <row r="380" spans="1:4" hidden="1">
       <c r="A380" t="s">
         <v>210</v>
       </c>
       <c r="B380" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -6008,12 +6016,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" hidden="1">
       <c r="A381" t="s">
         <v>210</v>
       </c>
       <c r="B381" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="C381">
         <v>0</v>
@@ -6022,12 +6030,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" hidden="1">
       <c r="A382" t="s">
         <v>210</v>
       </c>
       <c r="B382" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -6036,12 +6044,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" hidden="1">
       <c r="A383" t="s">
         <v>210</v>
       </c>
       <c r="B383" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -6050,12 +6058,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" hidden="1">
       <c r="A384" t="s">
         <v>210</v>
       </c>
       <c r="B384" t="s">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -6064,12 +6072,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" hidden="1">
       <c r="A385" t="s">
         <v>210</v>
       </c>
       <c r="B385" t="s">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -6078,12 +6086,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" hidden="1">
       <c r="A386" t="s">
         <v>210</v>
       </c>
       <c r="B386" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -6092,92 +6100,92 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" hidden="1">
       <c r="A387" t="s">
         <v>210</v>
       </c>
       <c r="B387" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="C387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:4">
+      <c r="D387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" hidden="1">
       <c r="A388" t="s">
         <v>210</v>
       </c>
       <c r="B388" t="s">
+        <v>34</v>
+      </c>
+      <c r="C388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" hidden="1">
+      <c r="A389" t="s">
+        <v>210</v>
+      </c>
+      <c r="B389" t="s">
         <v>35</v>
       </c>
-      <c r="C388">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" t="s">
-        <v>217</v>
-      </c>
-      <c r="B389" t="s">
-        <v>5</v>
-      </c>
       <c r="C389">
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" hidden="1">
       <c r="A390" t="s">
         <v>217</v>
       </c>
       <c r="B390" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C390">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" hidden="1">
       <c r="A391" t="s">
         <v>217</v>
       </c>
       <c r="B391" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C391">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" hidden="1">
       <c r="A392" t="s">
         <v>217</v>
       </c>
       <c r="B392" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="C392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" hidden="1">
       <c r="A393" t="s">
         <v>217</v>
       </c>
       <c r="B393" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="C393">
         <v>0</v>
       </c>
-      <c r="D393">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4">
+    </row>
+    <row r="394" spans="1:4" hidden="1">
       <c r="A394" t="s">
         <v>217</v>
       </c>
       <c r="B394" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C394">
         <v>0</v>
@@ -6186,12 +6194,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" hidden="1">
       <c r="A395" t="s">
         <v>217</v>
       </c>
       <c r="B395" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="C395">
         <v>0</v>
@@ -6200,12 +6208,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" hidden="1">
       <c r="A396" t="s">
         <v>217</v>
       </c>
       <c r="B396" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -6214,12 +6222,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" hidden="1">
       <c r="A397" t="s">
         <v>217</v>
       </c>
       <c r="B397" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -6228,62 +6236,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" hidden="1">
       <c r="A398" t="s">
         <v>217</v>
       </c>
       <c r="B398" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="C398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:4">
+      <c r="D398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" hidden="1">
       <c r="A399" t="s">
         <v>217</v>
       </c>
       <c r="B399" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C399">
         <v>0</v>
       </c>
-      <c r="D399">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4">
+    </row>
+    <row r="400" spans="1:4" hidden="1">
       <c r="A400" t="s">
         <v>217</v>
       </c>
       <c r="B400" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:4">
+      <c r="D400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" hidden="1">
       <c r="A401" t="s">
         <v>217</v>
       </c>
       <c r="B401" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C401">
         <v>0</v>
       </c>
-      <c r="D401">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4">
+    </row>
+    <row r="402" spans="1:4" hidden="1">
       <c r="A402" t="s">
         <v>217</v>
       </c>
       <c r="B402" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -6292,12 +6300,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" hidden="1">
       <c r="A403" t="s">
         <v>217</v>
       </c>
       <c r="B403" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C403">
         <v>0</v>
@@ -6306,12 +6314,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" hidden="1">
       <c r="A404" t="s">
         <v>217</v>
       </c>
       <c r="B404" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C404">
         <v>0</v>
@@ -6320,12 +6328,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" hidden="1">
       <c r="A405" t="s">
         <v>217</v>
       </c>
       <c r="B405" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -6334,12 +6342,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" hidden="1">
       <c r="A406" t="s">
         <v>217</v>
       </c>
       <c r="B406" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -6348,12 +6356,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" hidden="1">
       <c r="A407" t="s">
         <v>217</v>
       </c>
       <c r="B407" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -6362,12 +6370,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" hidden="1">
       <c r="A408" t="s">
         <v>217</v>
       </c>
       <c r="B408" t="s">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c r="C408">
         <v>0</v>
@@ -6376,48 +6384,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" hidden="1">
       <c r="A409" t="s">
         <v>217</v>
       </c>
       <c r="B409" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:4">
+      <c r="D409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" hidden="1">
       <c r="A410" t="s">
         <v>217</v>
       </c>
       <c r="B410" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C410">
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" hidden="1">
       <c r="A411" t="s">
         <v>217</v>
       </c>
       <c r="B411" t="s">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="C411">
         <v>0</v>
       </c>
-      <c r="D411">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4">
+    </row>
+    <row r="412" spans="1:4" hidden="1">
       <c r="A412" t="s">
         <v>217</v>
       </c>
       <c r="B412" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -6426,12 +6434,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" hidden="1">
       <c r="A413" t="s">
         <v>217</v>
       </c>
       <c r="B413" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -6440,48 +6448,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" hidden="1">
       <c r="A414" t="s">
         <v>217</v>
       </c>
       <c r="B414" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:4">
+      <c r="D414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" hidden="1">
       <c r="A415" t="s">
         <v>217</v>
       </c>
       <c r="B415" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="C415">
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" hidden="1">
       <c r="A416" t="s">
         <v>217</v>
       </c>
       <c r="B416" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="C416">
         <v>0</v>
       </c>
-      <c r="D416">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4">
+    </row>
+    <row r="417" spans="1:4" hidden="1">
       <c r="A417" t="s">
         <v>217</v>
       </c>
       <c r="B417" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C417">
         <v>0</v>
@@ -6490,117 +6498,117 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" hidden="1">
       <c r="A418" t="s">
         <v>217</v>
       </c>
       <c r="B418" t="s">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="C418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:4">
+      <c r="D418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" hidden="1">
       <c r="A419" t="s">
         <v>217</v>
       </c>
       <c r="B419" t="s">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="C419">
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" hidden="1">
       <c r="A420" t="s">
         <v>217</v>
       </c>
       <c r="B420" t="s">
+        <v>235</v>
+      </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" hidden="1">
+      <c r="A421" t="s">
+        <v>217</v>
+      </c>
+      <c r="B421" t="s">
         <v>236</v>
       </c>
-      <c r="C420">
-        <v>0</v>
-      </c>
-      <c r="D420">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4">
-      <c r="A421" t="s">
-        <v>237</v>
-      </c>
-      <c r="B421" t="s">
-        <v>5</v>
-      </c>
       <c r="C421">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" hidden="1">
       <c r="A422" t="s">
         <v>237</v>
       </c>
       <c r="B422" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C422">
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" hidden="1">
       <c r="A423" t="s">
         <v>237</v>
       </c>
       <c r="B423" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="C423">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" hidden="1">
       <c r="A424" t="s">
         <v>237</v>
       </c>
       <c r="B424" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="C424">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" hidden="1">
       <c r="A425" t="s">
         <v>237</v>
       </c>
       <c r="B425" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="C425">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" hidden="1">
       <c r="A426" t="s">
         <v>237</v>
       </c>
       <c r="B426" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C426">
         <v>0</v>
       </c>
-      <c r="D426">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4">
+    </row>
+    <row r="427" spans="1:4" hidden="1">
       <c r="A427" t="s">
         <v>237</v>
       </c>
       <c r="B427" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -6609,12 +6617,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" hidden="1">
       <c r="A428" t="s">
         <v>237</v>
       </c>
       <c r="B428" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C428">
         <v>0</v>
@@ -6623,12 +6631,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" hidden="1">
       <c r="A429" t="s">
         <v>237</v>
       </c>
       <c r="B429" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C429">
         <v>0</v>
@@ -6637,12 +6645,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" hidden="1">
       <c r="A430" t="s">
         <v>237</v>
       </c>
       <c r="B430" t="s">
-        <v>120</v>
+        <v>242</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -6651,12 +6659,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" hidden="1">
       <c r="A431" t="s">
         <v>237</v>
       </c>
       <c r="B431" t="s">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -6665,12 +6673,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" hidden="1">
       <c r="A432" t="s">
         <v>237</v>
       </c>
       <c r="B432" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C432">
         <v>0</v>
@@ -6679,12 +6687,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" hidden="1">
       <c r="A433" t="s">
         <v>237</v>
       </c>
       <c r="B433" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -6693,12 +6701,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" hidden="1">
       <c r="A434" t="s">
         <v>237</v>
       </c>
       <c r="B434" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -6707,12 +6715,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" hidden="1">
       <c r="A435" t="s">
         <v>237</v>
       </c>
       <c r="B435" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -6721,12 +6729,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" hidden="1">
       <c r="A436" t="s">
         <v>237</v>
       </c>
       <c r="B436" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="C436">
         <v>0</v>
@@ -6735,12 +6743,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" hidden="1">
       <c r="A437" t="s">
         <v>237</v>
       </c>
       <c r="B437" t="s">
-        <v>248</v>
+        <v>33</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -6749,12 +6757,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" hidden="1">
       <c r="A438" t="s">
         <v>237</v>
       </c>
       <c r="B438" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="C438">
         <v>0</v>
@@ -6763,12 +6771,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" hidden="1">
       <c r="A439" t="s">
         <v>237</v>
       </c>
       <c r="B439" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="C439">
         <v>0</v>
@@ -6777,12 +6785,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" hidden="1">
       <c r="A440" t="s">
         <v>237</v>
       </c>
       <c r="B440" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="C440">
         <v>0</v>
@@ -6791,216 +6799,216 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" hidden="1">
       <c r="A441" t="s">
         <v>237</v>
       </c>
       <c r="B441" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C441">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:4">
+      <c r="D441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" hidden="1">
       <c r="A442" t="s">
         <v>237</v>
       </c>
       <c r="B442" t="s">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="C442">
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" hidden="1">
       <c r="A443" t="s">
         <v>237</v>
       </c>
       <c r="B443" t="s">
+        <v>63</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" hidden="1">
+      <c r="A444" t="s">
+        <v>237</v>
+      </c>
+      <c r="B444" t="s">
         <v>64</v>
       </c>
-      <c r="C443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4">
-      <c r="A444" t="s">
-        <v>249</v>
-      </c>
-      <c r="B444" t="s">
-        <v>33</v>
-      </c>
       <c r="C444">
         <v>0</v>
       </c>
-      <c r="D444">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4">
+    </row>
+    <row r="445" spans="1:4" hidden="1">
       <c r="A445" t="s">
         <v>249</v>
       </c>
       <c r="B445" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C445">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" hidden="1">
       <c r="A446" t="s">
         <v>249</v>
       </c>
       <c r="B446" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C446">
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" hidden="1">
       <c r="A447" t="s">
         <v>249</v>
       </c>
       <c r="B447" t="s">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="C447">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" hidden="1">
       <c r="A448" t="s">
         <v>249</v>
       </c>
       <c r="B448" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C448">
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" hidden="1">
       <c r="A449" t="s">
         <v>249</v>
       </c>
       <c r="B449" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C449">
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" hidden="1">
       <c r="A450" t="s">
         <v>249</v>
       </c>
       <c r="B450" t="s">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="C450">
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" hidden="1">
       <c r="A451" t="s">
         <v>249</v>
       </c>
       <c r="B451" t="s">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="C451">
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" hidden="1">
       <c r="A452" t="s">
         <v>249</v>
       </c>
       <c r="B452" t="s">
-        <v>70</v>
+        <v>253</v>
       </c>
       <c r="C452">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" hidden="1">
       <c r="A453" t="s">
         <v>249</v>
       </c>
       <c r="B453" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="C453">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" hidden="1">
       <c r="A454" t="s">
         <v>249</v>
       </c>
       <c r="B454" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="C454">
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" hidden="1">
       <c r="A455" t="s">
         <v>249</v>
       </c>
       <c r="B455" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C455">
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" hidden="1">
       <c r="A456" t="s">
         <v>249</v>
       </c>
       <c r="B456" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C456">
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" hidden="1">
       <c r="A457" t="s">
         <v>249</v>
       </c>
       <c r="B457" t="s">
-        <v>254</v>
+        <v>64</v>
       </c>
       <c r="C457">
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" hidden="1">
       <c r="A458" t="s">
         <v>249</v>
       </c>
       <c r="B458" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="C458">
         <v>0</v>
       </c>
-      <c r="D458">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4">
+    </row>
+    <row r="459" spans="1:4" hidden="1">
       <c r="A459" t="s">
         <v>249</v>
       </c>
       <c r="B459" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C459">
         <v>0</v>
@@ -7009,12 +7017,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" hidden="1">
       <c r="A460" t="s">
         <v>249</v>
       </c>
       <c r="B460" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C460">
         <v>0</v>
@@ -7023,12 +7031,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" hidden="1">
       <c r="A461" t="s">
         <v>249</v>
       </c>
       <c r="B461" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
       <c r="C461">
         <v>0</v>
@@ -7037,59 +7045,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" hidden="1">
       <c r="A462" t="s">
         <v>249</v>
       </c>
       <c r="B462" t="s">
-        <v>256</v>
+        <v>86</v>
       </c>
       <c r="C462">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:4">
+      <c r="D462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" hidden="1">
       <c r="A463" t="s">
         <v>249</v>
       </c>
       <c r="B463" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C463">
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" hidden="1">
       <c r="A464" t="s">
         <v>249</v>
       </c>
       <c r="B464" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C464">
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" hidden="1">
       <c r="A465" t="s">
         <v>249</v>
       </c>
       <c r="B465" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C465">
         <v>0</v>
       </c>
-      <c r="D465">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4">
+    </row>
+    <row r="466" spans="1:4" hidden="1">
       <c r="A466" t="s">
         <v>249</v>
       </c>
       <c r="B466" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C466">
         <v>0</v>
@@ -7098,158 +7106,158 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" hidden="1">
       <c r="A467" t="s">
         <v>249</v>
       </c>
       <c r="B467" t="s">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="C467">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:4">
+      <c r="D467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" hidden="1">
       <c r="A468" t="s">
         <v>249</v>
       </c>
       <c r="B468" t="s">
-        <v>261</v>
+        <v>109</v>
       </c>
       <c r="C468">
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" hidden="1">
       <c r="A469" t="s">
         <v>249</v>
       </c>
       <c r="B469" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C469">
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" hidden="1">
       <c r="A470" t="s">
         <v>249</v>
       </c>
       <c r="B470" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C470">
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" hidden="1">
       <c r="A471" t="s">
         <v>249</v>
       </c>
       <c r="B471" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C471">
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" hidden="1">
       <c r="A472" t="s">
         <v>249</v>
       </c>
       <c r="B472" t="s">
-        <v>110</v>
+        <v>264</v>
       </c>
       <c r="C472">
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" hidden="1">
       <c r="A473" t="s">
         <v>249</v>
       </c>
       <c r="B473" t="s">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="C473">
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" hidden="1">
       <c r="A474" t="s">
         <v>249</v>
       </c>
       <c r="B474" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C474">
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" hidden="1">
       <c r="A475" t="s">
         <v>249</v>
       </c>
       <c r="B475" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C475">
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" hidden="1">
       <c r="A476" t="s">
         <v>249</v>
       </c>
       <c r="B476" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="C476">
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" hidden="1">
       <c r="A477" t="s">
         <v>249</v>
       </c>
       <c r="B477" t="s">
-        <v>268</v>
+        <v>126</v>
       </c>
       <c r="C477">
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" hidden="1">
       <c r="A478" t="s">
         <v>249</v>
       </c>
       <c r="B478" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C478">
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" hidden="1">
       <c r="A479" t="s">
         <v>249</v>
       </c>
       <c r="B479" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C479">
         <v>0</v>
       </c>
-      <c r="D479">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4">
+    </row>
+    <row r="480" spans="1:4" hidden="1">
       <c r="A480" t="s">
         <v>249</v>
       </c>
       <c r="B480" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C480">
         <v>0</v>
@@ -7258,150 +7266,150 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" hidden="1">
       <c r="A481" t="s">
         <v>249</v>
       </c>
       <c r="B481" t="s">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="C481">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:4">
+      <c r="D481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" hidden="1">
       <c r="A482" t="s">
         <v>249</v>
       </c>
       <c r="B482" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C482">
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" hidden="1">
       <c r="A483" t="s">
         <v>249</v>
       </c>
       <c r="B483" t="s">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="C483">
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" hidden="1">
       <c r="A484" t="s">
         <v>249</v>
       </c>
       <c r="B484" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C484">
         <v>0</v>
       </c>
-      <c r="D484">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4">
+    </row>
+    <row r="485" spans="1:4" hidden="1">
       <c r="A485" t="s">
         <v>249</v>
       </c>
       <c r="B485" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C485">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:4">
+      <c r="D485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" hidden="1">
       <c r="A486" t="s">
         <v>249</v>
       </c>
       <c r="B486" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C486">
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" hidden="1">
       <c r="A487" t="s">
         <v>249</v>
       </c>
       <c r="B487" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C487">
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" hidden="1">
       <c r="A488" t="s">
         <v>249</v>
       </c>
       <c r="B488" t="s">
-        <v>124</v>
+        <v>276</v>
       </c>
       <c r="C488">
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" hidden="1">
       <c r="A489" t="s">
         <v>249</v>
       </c>
       <c r="B489" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C489">
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" hidden="1">
       <c r="A490" t="s">
         <v>249</v>
       </c>
       <c r="B490" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C490">
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" hidden="1">
       <c r="A491" t="s">
         <v>249</v>
       </c>
       <c r="B491" t="s">
-        <v>277</v>
+        <v>119</v>
       </c>
       <c r="C491">
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" hidden="1">
       <c r="A492" t="s">
         <v>249</v>
       </c>
       <c r="B492" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C492">
         <v>0</v>
       </c>
-      <c r="D492">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4">
+    </row>
+    <row r="493" spans="1:4" hidden="1">
       <c r="A493" t="s">
         <v>249</v>
       </c>
       <c r="B493" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C493">
         <v>0</v>
@@ -7410,323 +7418,323 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" hidden="1">
       <c r="A494" t="s">
         <v>249</v>
       </c>
       <c r="B494" t="s">
+        <v>279</v>
+      </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+      <c r="D494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" hidden="1">
+      <c r="A495" t="s">
+        <v>249</v>
+      </c>
+      <c r="B495" t="s">
         <v>34</v>
       </c>
-      <c r="C494">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4">
-      <c r="A495" t="s">
-        <v>280</v>
-      </c>
-      <c r="B495" t="s">
-        <v>5</v>
-      </c>
       <c r="C495">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" hidden="1">
       <c r="A496" t="s">
         <v>280</v>
       </c>
       <c r="B496" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="C496">
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" hidden="1">
       <c r="A497" t="s">
         <v>280</v>
       </c>
       <c r="B497" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C497">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" hidden="1">
       <c r="A498" t="s">
         <v>280</v>
       </c>
       <c r="B498" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C498">
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" hidden="1">
       <c r="A499" t="s">
         <v>280</v>
       </c>
       <c r="B499" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C499">
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" hidden="1">
       <c r="A500" t="s">
         <v>280</v>
       </c>
       <c r="B500" t="s">
-        <v>281</v>
+        <v>66</v>
       </c>
       <c r="C500">
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" hidden="1">
       <c r="A501" t="s">
         <v>280</v>
       </c>
       <c r="B501" t="s">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="C501">
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" hidden="1">
       <c r="A502" t="s">
         <v>280</v>
       </c>
       <c r="B502" t="s">
-        <v>261</v>
+        <v>109</v>
       </c>
       <c r="C502">
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" hidden="1">
       <c r="A503" t="s">
         <v>280</v>
       </c>
       <c r="B503" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="C503">
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" hidden="1">
       <c r="A504" t="s">
         <v>280</v>
       </c>
       <c r="B504" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="C504">
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" hidden="1">
       <c r="A505" t="s">
         <v>280</v>
       </c>
       <c r="B505" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="C505">
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" hidden="1">
       <c r="A506" t="s">
         <v>280</v>
       </c>
       <c r="B506" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C506">
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" hidden="1">
       <c r="A507" t="s">
         <v>280</v>
       </c>
       <c r="B507" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C507">
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" hidden="1">
       <c r="A508" t="s">
         <v>280</v>
       </c>
       <c r="B508" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C508">
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" hidden="1">
       <c r="A509" t="s">
         <v>280</v>
       </c>
       <c r="B509" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C509">
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" hidden="1">
       <c r="A510" t="s">
         <v>280</v>
       </c>
       <c r="B510" t="s">
-        <v>67</v>
+        <v>287</v>
       </c>
       <c r="C510">
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" hidden="1">
       <c r="A511" t="s">
         <v>280</v>
       </c>
       <c r="B511" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="C511">
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" hidden="1">
       <c r="A512" t="s">
         <v>280</v>
       </c>
       <c r="B512" t="s">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="C512">
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" hidden="1">
       <c r="A513" t="s">
         <v>280</v>
       </c>
       <c r="B513" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C513">
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" hidden="1">
       <c r="A514" t="s">
         <v>280</v>
       </c>
       <c r="B514" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C514">
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" hidden="1">
       <c r="A515" t="s">
         <v>280</v>
       </c>
       <c r="B515" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="C515">
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" hidden="1">
       <c r="A516" t="s">
         <v>280</v>
       </c>
       <c r="B516" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C516">
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" hidden="1">
       <c r="A517" t="s">
         <v>280</v>
       </c>
       <c r="B517" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C517">
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" hidden="1">
       <c r="A518" t="s">
         <v>280</v>
       </c>
       <c r="B518" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C518">
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" hidden="1">
       <c r="A519" t="s">
         <v>280</v>
       </c>
       <c r="B519" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C519">
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" hidden="1">
       <c r="A520" t="s">
         <v>280</v>
       </c>
       <c r="B520" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C520">
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" hidden="1">
       <c r="A521" t="s">
         <v>280</v>
       </c>
       <c r="B521" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C521">
         <v>0</v>
       </c>
-      <c r="D521">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4">
+    </row>
+    <row r="522" spans="1:4" hidden="1">
       <c r="A522" t="s">
         <v>280</v>
       </c>
       <c r="B522" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C522">
         <v>0</v>
@@ -7735,95 +7743,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" hidden="1">
       <c r="A523" t="s">
         <v>280</v>
       </c>
       <c r="B523" t="s">
+        <v>295</v>
+      </c>
+      <c r="C523">
+        <v>0</v>
+      </c>
+      <c r="D523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" hidden="1">
+      <c r="A524" t="s">
+        <v>280</v>
+      </c>
+      <c r="B524" t="s">
         <v>126</v>
       </c>
-      <c r="C523">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4">
-      <c r="A524" t="s">
-        <v>296</v>
-      </c>
-      <c r="B524" t="s">
-        <v>33</v>
-      </c>
       <c r="C524">
         <v>0</v>
       </c>
-      <c r="D524">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4">
+    </row>
+    <row r="525" spans="1:4" hidden="1">
       <c r="A525" t="s">
         <v>296</v>
       </c>
       <c r="B525" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C525">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" hidden="1">
       <c r="A526" t="s">
         <v>296</v>
       </c>
       <c r="B526" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="C526">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" hidden="1">
       <c r="A527" t="s">
         <v>296</v>
       </c>
       <c r="B527" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C527">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" hidden="1">
       <c r="A528" t="s">
         <v>296</v>
       </c>
       <c r="B528" t="s">
-        <v>251</v>
+        <v>71</v>
       </c>
       <c r="C528">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="529" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" hidden="1">
       <c r="A529" t="s">
         <v>296</v>
       </c>
       <c r="B529" t="s">
-        <v>120</v>
+        <v>251</v>
       </c>
       <c r="C529">
         <v>0</v>
       </c>
-      <c r="D529">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:4">
+    </row>
+    <row r="530" spans="1:4" hidden="1">
       <c r="A530" t="s">
         <v>296</v>
       </c>
       <c r="B530" t="s">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="C530">
         <v>0</v>
@@ -7832,51 +7840,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" hidden="1">
       <c r="A531" t="s">
         <v>296</v>
       </c>
       <c r="B531" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="C531">
         <v>0</v>
       </c>
-    </row>
-    <row r="532" spans="1:4">
+      <c r="D531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" hidden="1">
       <c r="A532" t="s">
         <v>296</v>
       </c>
       <c r="B532" t="s">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="C532">
-        <v>1</v>
-      </c>
-      <c r="D532">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="533" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" hidden="1">
       <c r="A533" t="s">
         <v>296</v>
       </c>
       <c r="B533" t="s">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="C533">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D533">
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" hidden="1">
       <c r="A534" t="s">
         <v>296</v>
       </c>
       <c r="B534" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C534">
         <v>0</v>
@@ -7885,12 +7893,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" hidden="1">
       <c r="A535" t="s">
         <v>296</v>
       </c>
       <c r="B535" t="s">
-        <v>106</v>
+        <v>298</v>
       </c>
       <c r="C535">
         <v>0</v>
@@ -7899,12 +7907,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" hidden="1">
       <c r="A536" t="s">
         <v>296</v>
       </c>
       <c r="B536" t="s">
-        <v>255</v>
+        <v>106</v>
       </c>
       <c r="C536">
         <v>0</v>
@@ -7913,12 +7921,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" hidden="1">
       <c r="A537" t="s">
         <v>296</v>
       </c>
       <c r="B537" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
       <c r="C537">
         <v>0</v>
@@ -7927,103 +7935,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" hidden="1">
       <c r="A538" t="s">
         <v>296</v>
       </c>
       <c r="B538" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C538">
         <v>0</v>
       </c>
-    </row>
-    <row r="539" spans="1:4">
+      <c r="D538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" hidden="1">
       <c r="A539" t="s">
         <v>296</v>
       </c>
       <c r="B539" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C539">
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" hidden="1">
       <c r="A540" t="s">
         <v>296</v>
       </c>
       <c r="B540" t="s">
-        <v>299</v>
+        <v>126</v>
       </c>
       <c r="C540">
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" hidden="1">
       <c r="A541" t="s">
         <v>296</v>
       </c>
       <c r="B541" t="s">
-        <v>54</v>
+        <v>299</v>
       </c>
       <c r="C541">
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" hidden="1">
       <c r="A542" t="s">
         <v>296</v>
       </c>
       <c r="B542" t="s">
-        <v>300</v>
+        <v>54</v>
       </c>
       <c r="C542">
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" hidden="1">
       <c r="A543" t="s">
         <v>296</v>
       </c>
       <c r="B543" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C543">
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" hidden="1">
       <c r="A544" t="s">
         <v>296</v>
       </c>
       <c r="B544" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C544">
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" hidden="1">
       <c r="A545" t="s">
         <v>296</v>
       </c>
       <c r="B545" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C545">
         <v>0</v>
       </c>
-      <c r="D545">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:4">
+    </row>
+    <row r="546" spans="1:4" hidden="1">
       <c r="A546" t="s">
         <v>296</v>
       </c>
       <c r="B546" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C546">
         <v>0</v>
@@ -8032,12 +8040,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" hidden="1">
       <c r="A547" t="s">
         <v>296</v>
       </c>
       <c r="B547" t="s">
-        <v>89</v>
+        <v>304</v>
       </c>
       <c r="C547">
         <v>0</v>
@@ -8046,12 +8054,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" hidden="1">
       <c r="A548" t="s">
         <v>296</v>
       </c>
       <c r="B548" t="s">
-        <v>305</v>
+        <v>89</v>
       </c>
       <c r="C548">
         <v>0</v>
@@ -8060,227 +8068,227 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" hidden="1">
       <c r="A549" t="s">
         <v>296</v>
       </c>
       <c r="B549" t="s">
-        <v>6</v>
+        <v>305</v>
       </c>
       <c r="C549">
         <v>0</v>
       </c>
-    </row>
-    <row r="550" spans="1:4">
+      <c r="D549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" hidden="1">
       <c r="A550" t="s">
         <v>296</v>
       </c>
       <c r="B550" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C550">
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" hidden="1">
       <c r="A551" t="s">
         <v>296</v>
       </c>
       <c r="B551" t="s">
-        <v>306</v>
+        <v>34</v>
       </c>
       <c r="C551">
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" hidden="1">
       <c r="A552" t="s">
         <v>296</v>
       </c>
       <c r="B552" t="s">
-        <v>69</v>
+        <v>306</v>
       </c>
       <c r="C552">
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" hidden="1">
       <c r="A553" t="s">
         <v>296</v>
       </c>
       <c r="B553" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C553">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="554" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" hidden="1">
       <c r="A554" t="s">
         <v>296</v>
       </c>
       <c r="B554" t="s">
-        <v>307</v>
+        <v>70</v>
       </c>
       <c r="C554">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="555" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" hidden="1">
       <c r="A555" t="s">
         <v>296</v>
       </c>
       <c r="B555" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C555">
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" hidden="1">
       <c r="A556" t="s">
         <v>296</v>
       </c>
       <c r="B556" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="C556">
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" hidden="1">
       <c r="A557" t="s">
         <v>296</v>
       </c>
       <c r="B557" t="s">
+        <v>257</v>
+      </c>
+      <c r="C557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" hidden="1">
+      <c r="A558" t="s">
+        <v>296</v>
+      </c>
+      <c r="B558" t="s">
         <v>78</v>
       </c>
-      <c r="C557">
-        <v>0</v>
-      </c>
-      <c r="D557">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="558" spans="1:4">
-      <c r="A558" t="s">
-        <v>309</v>
-      </c>
-      <c r="B558" t="s">
-        <v>5</v>
-      </c>
       <c r="C558">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="559" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" hidden="1">
       <c r="A559" t="s">
         <v>309</v>
       </c>
       <c r="B559" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C559">
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" hidden="1">
       <c r="A560" t="s">
         <v>309</v>
       </c>
       <c r="B560" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C560">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="561" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" hidden="1">
       <c r="A561" t="s">
         <v>309</v>
       </c>
       <c r="B561" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C561">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="562" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" hidden="1">
       <c r="A562" t="s">
         <v>309</v>
       </c>
       <c r="B562" t="s">
-        <v>310</v>
+        <v>70</v>
       </c>
       <c r="C562">
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" hidden="1">
       <c r="A563" t="s">
         <v>309</v>
       </c>
       <c r="B563" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C563">
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" hidden="1">
       <c r="A564" t="s">
         <v>309</v>
       </c>
       <c r="B564" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C564">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="565" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" hidden="1">
       <c r="A565" t="s">
         <v>309</v>
       </c>
       <c r="B565" t="s">
-        <v>50</v>
+        <v>312</v>
       </c>
       <c r="C565">
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" hidden="1">
       <c r="A566" t="s">
         <v>309</v>
       </c>
       <c r="B566" t="s">
-        <v>313</v>
+        <v>50</v>
       </c>
       <c r="C566">
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" hidden="1">
       <c r="A567" t="s">
         <v>309</v>
       </c>
       <c r="B567" t="s">
-        <v>55</v>
+        <v>313</v>
       </c>
       <c r="C567">
         <v>0</v>
       </c>
-      <c r="D567">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4">
+    </row>
+    <row r="568" spans="1:4" hidden="1">
       <c r="A568" t="s">
         <v>309</v>
       </c>
       <c r="B568" t="s">
-        <v>314</v>
+        <v>55</v>
       </c>
       <c r="C568">
         <v>0</v>
@@ -8289,62 +8297,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" hidden="1">
       <c r="A569" t="s">
         <v>309</v>
       </c>
       <c r="B569" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C569">
         <v>0</v>
       </c>
-    </row>
-    <row r="570" spans="1:4">
+      <c r="D569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" hidden="1">
       <c r="A570" t="s">
         <v>309</v>
       </c>
       <c r="B570" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="C570">
         <v>0</v>
       </c>
-      <c r="D570">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4">
+    </row>
+    <row r="571" spans="1:4" hidden="1">
       <c r="A571" t="s">
         <v>309</v>
       </c>
       <c r="B571" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="C571">
         <v>0</v>
       </c>
-    </row>
-    <row r="572" spans="1:4">
+      <c r="D571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" hidden="1">
       <c r="A572" t="s">
         <v>309</v>
       </c>
       <c r="B572" t="s">
-        <v>316</v>
+        <v>112</v>
       </c>
       <c r="C572">
         <v>0</v>
       </c>
-      <c r="D572">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="573" spans="1:4">
+    </row>
+    <row r="573" spans="1:4" hidden="1">
       <c r="A573" t="s">
         <v>309</v>
       </c>
       <c r="B573" t="s">
-        <v>18</v>
+        <v>316</v>
       </c>
       <c r="C573">
         <v>0</v>
@@ -8353,12 +8361,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" hidden="1">
       <c r="A574" t="s">
         <v>309</v>
       </c>
       <c r="B574" t="s">
-        <v>317</v>
+        <v>18</v>
       </c>
       <c r="C574">
         <v>0</v>
@@ -8367,12 +8375,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" hidden="1">
       <c r="A575" t="s">
         <v>309</v>
       </c>
       <c r="B575" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C575">
         <v>0</v>
@@ -8381,196 +8389,210 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" hidden="1">
       <c r="A576" t="s">
         <v>309</v>
       </c>
       <c r="B576" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C576">
         <v>0</v>
       </c>
-    </row>
-    <row r="577" spans="1:4">
+      <c r="D576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" hidden="1">
       <c r="A577" t="s">
         <v>309</v>
       </c>
       <c r="B577" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="C577">
         <v>0</v>
       </c>
-      <c r="D577">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="578" spans="1:4">
+    </row>
+    <row r="578" spans="1:4" hidden="1">
       <c r="A578" t="s">
         <v>309</v>
       </c>
       <c r="B578" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C578">
         <v>0</v>
       </c>
-    </row>
-    <row r="579" spans="1:4">
+      <c r="D578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" hidden="1">
       <c r="A579" t="s">
         <v>309</v>
       </c>
       <c r="B579" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C579">
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" hidden="1">
       <c r="A580" t="s">
         <v>309</v>
       </c>
       <c r="B580" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C580">
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" hidden="1">
       <c r="A581" t="s">
         <v>309</v>
       </c>
       <c r="B581" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C581">
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" hidden="1">
       <c r="A582" t="s">
         <v>309</v>
       </c>
       <c r="B582" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C582">
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" hidden="1">
       <c r="A583" t="s">
         <v>309</v>
       </c>
       <c r="B583" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C583">
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" hidden="1">
       <c r="A584" t="s">
         <v>309</v>
       </c>
       <c r="B584" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C584">
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" hidden="1">
       <c r="A585" t="s">
         <v>309</v>
       </c>
       <c r="B585" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C585">
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" hidden="1">
       <c r="A586" t="s">
         <v>309</v>
       </c>
       <c r="B586" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C586">
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" hidden="1">
       <c r="A587" t="s">
         <v>309</v>
       </c>
       <c r="B587" t="s">
-        <v>51</v>
+        <v>328</v>
       </c>
       <c r="C587">
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" hidden="1">
       <c r="A588" t="s">
         <v>309</v>
       </c>
       <c r="B588" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C588">
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" hidden="1">
       <c r="A589" t="s">
         <v>309</v>
       </c>
       <c r="B589" t="s">
-        <v>329</v>
+        <v>52</v>
       </c>
       <c r="C589">
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" hidden="1">
       <c r="A590" t="s">
         <v>309</v>
       </c>
       <c r="B590" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C590">
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" hidden="1">
       <c r="A591" t="s">
         <v>309</v>
       </c>
       <c r="B591" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C591">
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" hidden="1">
       <c r="A592" t="s">
         <v>309</v>
       </c>
       <c r="B592" t="s">
+        <v>331</v>
+      </c>
+      <c r="C592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" hidden="1">
+      <c r="A593" t="s">
+        <v>309</v>
+      </c>
+      <c r="B593" t="s">
         <v>332</v>
       </c>
-      <c r="C592">
-        <v>0</v>
-      </c>
-      <c r="D592">
+      <c r="C593">
+        <v>0</v>
+      </c>
+      <c r="D593">
         <v>1</v>
       </c>
     </row>

--- a/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="338">
   <si>
     <t>TABELA</t>
   </si>
@@ -1027,6 +1027,9 @@
   </si>
   <si>
     <t>NR_RECEB_DOCTO_WMS</t>
+  </si>
+  <si>
+    <t>SQ_ORDEM</t>
   </si>
 </sst>
 </file>
@@ -1079,11 +1082,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D593" totalsRowShown="0">
-  <autoFilter ref="A1:D593">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D595" totalsRowShown="0">
+  <autoFilter ref="A1:D595">
     <filterColumn colId="0">
       <filters>
-        <filter val="ln.ods_nfr_cab"/>
+        <filter val="ln.ods_pev_det"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1382,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D593"/>
+  <dimension ref="A1:D595"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="C594" sqref="C594"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A540" workbookViewId="0">
+      <selection activeCell="C560" sqref="C560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3200,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" hidden="1">
       <c r="A155" t="s">
         <v>132</v>
       </c>
@@ -3211,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" hidden="1">
       <c r="A156" t="s">
         <v>132</v>
       </c>
@@ -3222,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" hidden="1">
       <c r="A157" t="s">
         <v>132</v>
       </c>
@@ -3233,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" hidden="1">
       <c r="A158" t="s">
         <v>132</v>
       </c>
@@ -3244,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" hidden="1">
       <c r="A159" t="s">
         <v>132</v>
       </c>
@@ -3255,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" hidden="1">
       <c r="A160" t="s">
         <v>132</v>
       </c>
@@ -3266,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" hidden="1">
       <c r="A161" t="s">
         <v>132</v>
       </c>
@@ -3280,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" hidden="1">
       <c r="A162" t="s">
         <v>132</v>
       </c>
@@ -3294,7 +3297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" hidden="1">
       <c r="A163" t="s">
         <v>132</v>
       </c>
@@ -3308,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" hidden="1">
       <c r="A164" t="s">
         <v>132</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" hidden="1">
       <c r="A165" t="s">
         <v>132</v>
       </c>
@@ -3336,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" hidden="1">
       <c r="A166" t="s">
         <v>132</v>
       </c>
@@ -3347,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" hidden="1">
       <c r="A167" t="s">
         <v>132</v>
       </c>
@@ -3358,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" hidden="1">
       <c r="A168" t="s">
         <v>132</v>
       </c>
@@ -3369,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" hidden="1">
       <c r="A169" t="s">
         <v>132</v>
       </c>
@@ -3380,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" hidden="1">
       <c r="A170" t="s">
         <v>132</v>
       </c>
@@ -3391,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" hidden="1">
       <c r="A171" t="s">
         <v>132</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" hidden="1">
       <c r="A172" t="s">
         <v>132</v>
       </c>
@@ -3419,7 +3422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" hidden="1">
       <c r="A173" t="s">
         <v>132</v>
       </c>
@@ -3433,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" hidden="1">
       <c r="A174" t="s">
         <v>132</v>
       </c>
@@ -3447,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" hidden="1">
       <c r="A175" t="s">
         <v>132</v>
       </c>
@@ -3461,7 +3464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" hidden="1">
       <c r="A176" t="s">
         <v>132</v>
       </c>
@@ -3475,7 +3478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" hidden="1">
       <c r="A177" t="s">
         <v>132</v>
       </c>
@@ -3489,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" hidden="1">
       <c r="A178" t="s">
         <v>132</v>
       </c>
@@ -3503,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" hidden="1">
       <c r="A179" t="s">
         <v>132</v>
       </c>
@@ -3517,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" hidden="1">
       <c r="A180" t="s">
         <v>132</v>
       </c>
@@ -3531,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" hidden="1">
       <c r="A181" t="s">
         <v>132</v>
       </c>
@@ -3545,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" hidden="1">
       <c r="A182" t="s">
         <v>132</v>
       </c>
@@ -3559,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" hidden="1">
       <c r="A183" t="s">
         <v>132</v>
       </c>
@@ -3573,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" hidden="1">
       <c r="A184" t="s">
         <v>132</v>
       </c>
@@ -3587,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" hidden="1">
       <c r="A185" t="s">
         <v>132</v>
       </c>
@@ -3601,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" hidden="1">
       <c r="A186" t="s">
         <v>132</v>
       </c>
@@ -3612,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" hidden="1">
       <c r="A187" t="s">
         <v>132</v>
       </c>
@@ -3626,7 +3629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" hidden="1">
       <c r="A188" t="s">
         <v>132</v>
       </c>
@@ -3640,7 +3643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" hidden="1">
       <c r="A189" t="s">
         <v>132</v>
       </c>
@@ -3654,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" hidden="1">
       <c r="A190" t="s">
         <v>132</v>
       </c>
@@ -3668,7 +3671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" hidden="1">
       <c r="A191" t="s">
         <v>132</v>
       </c>
@@ -3679,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" hidden="1">
       <c r="A192" t="s">
         <v>132</v>
       </c>
@@ -3690,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" hidden="1">
       <c r="A193" t="s">
         <v>132</v>
       </c>
@@ -3701,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" hidden="1">
       <c r="A194" t="s">
         <v>132</v>
       </c>
@@ -3715,7 +3718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" hidden="1">
       <c r="A195" t="s">
         <v>132</v>
       </c>
@@ -3729,7 +3732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" hidden="1">
       <c r="A196" t="s">
         <v>132</v>
       </c>
@@ -3743,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" hidden="1">
       <c r="A197" t="s">
         <v>132</v>
       </c>
@@ -3757,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" hidden="1">
       <c r="A198" t="s">
         <v>132</v>
       </c>
@@ -3771,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" hidden="1">
       <c r="A199" t="s">
         <v>132</v>
       </c>
@@ -3785,7 +3788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" hidden="1">
       <c r="A200" t="s">
         <v>132</v>
       </c>
@@ -3799,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" hidden="1">
       <c r="A201" t="s">
         <v>132</v>
       </c>
@@ -3813,7 +3816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" hidden="1">
       <c r="A202" t="s">
         <v>132</v>
       </c>
@@ -3827,7 +3830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" hidden="1">
       <c r="A203" t="s">
         <v>132</v>
       </c>
@@ -3841,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" hidden="1">
       <c r="A204" t="s">
         <v>132</v>
       </c>
@@ -3855,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" hidden="1">
       <c r="A205" t="s">
         <v>132</v>
       </c>
@@ -3869,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" hidden="1">
       <c r="A206" t="s">
         <v>132</v>
       </c>
@@ -3883,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" hidden="1">
       <c r="A207" t="s">
         <v>132</v>
       </c>
@@ -3894,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" hidden="1">
       <c r="A208" t="s">
         <v>132</v>
       </c>
@@ -3905,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" hidden="1">
       <c r="A209" t="s">
         <v>132</v>
       </c>
@@ -3916,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" hidden="1">
       <c r="A210" t="s">
         <v>132</v>
       </c>
@@ -3927,7 +3930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" hidden="1">
       <c r="A211" t="s">
         <v>132</v>
       </c>
@@ -7768,7 +7771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1">
+    <row r="525" spans="1:4">
       <c r="A525" t="s">
         <v>296</v>
       </c>
@@ -7782,7 +7785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1">
+    <row r="526" spans="1:4">
       <c r="A526" t="s">
         <v>296</v>
       </c>
@@ -7793,7 +7796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1">
+    <row r="527" spans="1:4">
       <c r="A527" t="s">
         <v>296</v>
       </c>
@@ -7804,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1">
+    <row r="528" spans="1:4">
       <c r="A528" t="s">
         <v>296</v>
       </c>
@@ -7815,7 +7818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1">
+    <row r="529" spans="1:4">
       <c r="A529" t="s">
         <v>296</v>
       </c>
@@ -7826,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" hidden="1">
+    <row r="530" spans="1:4">
       <c r="A530" t="s">
         <v>296</v>
       </c>
@@ -7840,7 +7843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:4" hidden="1">
+    <row r="531" spans="1:4">
       <c r="A531" t="s">
         <v>296</v>
       </c>
@@ -7854,7 +7857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:4" hidden="1">
+    <row r="532" spans="1:4">
       <c r="A532" t="s">
         <v>296</v>
       </c>
@@ -7865,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:4" hidden="1">
+    <row r="533" spans="1:4">
       <c r="A533" t="s">
         <v>296</v>
       </c>
@@ -7879,7 +7882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:4" hidden="1">
+    <row r="534" spans="1:4">
       <c r="A534" t="s">
         <v>296</v>
       </c>
@@ -7893,7 +7896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:4" hidden="1">
+    <row r="535" spans="1:4">
       <c r="A535" t="s">
         <v>296</v>
       </c>
@@ -7907,7 +7910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1">
+    <row r="536" spans="1:4">
       <c r="A536" t="s">
         <v>296</v>
       </c>
@@ -7921,7 +7924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1">
+    <row r="537" spans="1:4">
       <c r="A537" t="s">
         <v>296</v>
       </c>
@@ -7935,7 +7938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1">
+    <row r="538" spans="1:4">
       <c r="A538" t="s">
         <v>296</v>
       </c>
@@ -7949,7 +7952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1">
+    <row r="539" spans="1:4">
       <c r="A539" t="s">
         <v>296</v>
       </c>
@@ -7960,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:4" hidden="1">
+    <row r="540" spans="1:4">
       <c r="A540" t="s">
         <v>296</v>
       </c>
@@ -7971,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4" hidden="1">
+    <row r="541" spans="1:4">
       <c r="A541" t="s">
         <v>296</v>
       </c>
@@ -7982,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:4" hidden="1">
+    <row r="542" spans="1:4">
       <c r="A542" t="s">
         <v>296</v>
       </c>
@@ -7993,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:4" hidden="1">
+    <row r="543" spans="1:4">
       <c r="A543" t="s">
         <v>296</v>
       </c>
@@ -8004,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:4" hidden="1">
+    <row r="544" spans="1:4">
       <c r="A544" t="s">
         <v>296</v>
       </c>
@@ -8015,7 +8018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1">
+    <row r="545" spans="1:4">
       <c r="A545" t="s">
         <v>296</v>
       </c>
@@ -8026,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1">
+    <row r="546" spans="1:4">
       <c r="A546" t="s">
         <v>296</v>
       </c>
@@ -8040,7 +8043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:4" hidden="1">
+    <row r="547" spans="1:4">
       <c r="A547" t="s">
         <v>296</v>
       </c>
@@ -8054,7 +8057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:4" hidden="1">
+    <row r="548" spans="1:4">
       <c r="A548" t="s">
         <v>296</v>
       </c>
@@ -8068,7 +8071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1">
+    <row r="549" spans="1:4">
       <c r="A549" t="s">
         <v>296</v>
       </c>
@@ -8082,7 +8085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:4" hidden="1">
+    <row r="550" spans="1:4">
       <c r="A550" t="s">
         <v>296</v>
       </c>
@@ -8093,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1">
+    <row r="551" spans="1:4">
       <c r="A551" t="s">
         <v>296</v>
       </c>
@@ -8104,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1">
+    <row r="552" spans="1:4">
       <c r="A552" t="s">
         <v>296</v>
       </c>
@@ -8115,7 +8118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1">
+    <row r="553" spans="1:4">
       <c r="A553" t="s">
         <v>296</v>
       </c>
@@ -8126,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1">
+    <row r="554" spans="1:4">
       <c r="A554" t="s">
         <v>296</v>
       </c>
@@ -8137,7 +8140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:4" hidden="1">
+    <row r="555" spans="1:4">
       <c r="A555" t="s">
         <v>296</v>
       </c>
@@ -8148,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1">
+    <row r="556" spans="1:4">
       <c r="A556" t="s">
         <v>296</v>
       </c>
@@ -8159,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1">
+    <row r="557" spans="1:4">
       <c r="A557" t="s">
         <v>296</v>
       </c>
@@ -8170,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1">
+    <row r="558" spans="1:4">
       <c r="A558" t="s">
         <v>296</v>
       </c>
@@ -8184,26 +8187,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:4" hidden="1">
+    <row r="559" spans="1:4">
       <c r="A559" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B559" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="C559">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="560" spans="1:4" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
       <c r="A560" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B560" t="s">
-        <v>71</v>
+        <v>337</v>
       </c>
       <c r="C560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:4" hidden="1">
@@ -8211,10 +8214,10 @@
         <v>309</v>
       </c>
       <c r="B561" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="C561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:4" hidden="1">
@@ -8222,7 +8225,7 @@
         <v>309</v>
       </c>
       <c r="B562" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C562">
         <v>1</v>
@@ -8233,10 +8236,10 @@
         <v>309</v>
       </c>
       <c r="B563" t="s">
-        <v>310</v>
+        <v>69</v>
       </c>
       <c r="C563">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:4" hidden="1">
@@ -8244,7 +8247,7 @@
         <v>309</v>
       </c>
       <c r="B564" t="s">
-        <v>311</v>
+        <v>70</v>
       </c>
       <c r="C564">
         <v>1</v>
@@ -8255,10 +8258,10 @@
         <v>309</v>
       </c>
       <c r="B565" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:4" hidden="1">
@@ -8266,10 +8269,10 @@
         <v>309</v>
       </c>
       <c r="B566" t="s">
-        <v>50</v>
+        <v>311</v>
       </c>
       <c r="C566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:4" hidden="1">
@@ -8277,7 +8280,7 @@
         <v>309</v>
       </c>
       <c r="B567" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C567">
         <v>0</v>
@@ -8288,13 +8291,10 @@
         <v>309</v>
       </c>
       <c r="B568" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C568">
         <v>0</v>
-      </c>
-      <c r="D568">
-        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:4" hidden="1">
@@ -8302,13 +8302,10 @@
         <v>309</v>
       </c>
       <c r="B569" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C569">
         <v>0</v>
-      </c>
-      <c r="D569">
-        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:4" hidden="1">
@@ -8316,10 +8313,13 @@
         <v>309</v>
       </c>
       <c r="B570" t="s">
-        <v>315</v>
+        <v>55</v>
       </c>
       <c r="C570">
         <v>0</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:4" hidden="1">
@@ -8327,7 +8327,7 @@
         <v>309</v>
       </c>
       <c r="B571" t="s">
-        <v>221</v>
+        <v>314</v>
       </c>
       <c r="C571">
         <v>0</v>
@@ -8341,7 +8341,7 @@
         <v>309</v>
       </c>
       <c r="B572" t="s">
-        <v>112</v>
+        <v>315</v>
       </c>
       <c r="C572">
         <v>0</v>
@@ -8352,7 +8352,7 @@
         <v>309</v>
       </c>
       <c r="B573" t="s">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="C573">
         <v>0</v>
@@ -8366,13 +8366,10 @@
         <v>309</v>
       </c>
       <c r="B574" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C574">
         <v>0</v>
-      </c>
-      <c r="D574">
-        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:4" hidden="1">
@@ -8380,7 +8377,7 @@
         <v>309</v>
       </c>
       <c r="B575" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C575">
         <v>0</v>
@@ -8394,7 +8391,7 @@
         <v>309</v>
       </c>
       <c r="B576" t="s">
-        <v>318</v>
+        <v>18</v>
       </c>
       <c r="C576">
         <v>0</v>
@@ -8408,10 +8405,13 @@
         <v>309</v>
       </c>
       <c r="B577" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C577">
         <v>0</v>
+      </c>
+      <c r="D577">
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:4" hidden="1">
@@ -8419,7 +8419,7 @@
         <v>309</v>
       </c>
       <c r="B578" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C578">
         <v>0</v>
@@ -8433,7 +8433,7 @@
         <v>309</v>
       </c>
       <c r="B579" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C579">
         <v>0</v>
@@ -8444,10 +8444,13 @@
         <v>309</v>
       </c>
       <c r="B580" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C580">
         <v>0</v>
+      </c>
+      <c r="D580">
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:4" hidden="1">
@@ -8455,7 +8458,7 @@
         <v>309</v>
       </c>
       <c r="B581" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C581">
         <v>0</v>
@@ -8466,7 +8469,7 @@
         <v>309</v>
       </c>
       <c r="B582" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C582">
         <v>0</v>
@@ -8477,7 +8480,7 @@
         <v>309</v>
       </c>
       <c r="B583" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C583">
         <v>0</v>
@@ -8488,7 +8491,7 @@
         <v>309</v>
       </c>
       <c r="B584" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C584">
         <v>0</v>
@@ -8499,7 +8502,7 @@
         <v>309</v>
       </c>
       <c r="B585" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C585">
         <v>0</v>
@@ -8510,7 +8513,7 @@
         <v>309</v>
       </c>
       <c r="B586" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C586">
         <v>0</v>
@@ -8521,7 +8524,7 @@
         <v>309</v>
       </c>
       <c r="B587" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C587">
         <v>0</v>
@@ -8532,7 +8535,7 @@
         <v>309</v>
       </c>
       <c r="B588" t="s">
-        <v>51</v>
+        <v>327</v>
       </c>
       <c r="C588">
         <v>0</v>
@@ -8543,7 +8546,7 @@
         <v>309</v>
       </c>
       <c r="B589" t="s">
-        <v>52</v>
+        <v>328</v>
       </c>
       <c r="C589">
         <v>0</v>
@@ -8554,7 +8557,7 @@
         <v>309</v>
       </c>
       <c r="B590" t="s">
-        <v>329</v>
+        <v>51</v>
       </c>
       <c r="C590">
         <v>0</v>
@@ -8565,7 +8568,7 @@
         <v>309</v>
       </c>
       <c r="B591" t="s">
-        <v>330</v>
+        <v>52</v>
       </c>
       <c r="C591">
         <v>0</v>
@@ -8576,7 +8579,7 @@
         <v>309</v>
       </c>
       <c r="B592" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C592">
         <v>0</v>
@@ -8587,12 +8590,34 @@
         <v>309</v>
       </c>
       <c r="B593" t="s">
+        <v>330</v>
+      </c>
+      <c r="C593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" hidden="1">
+      <c r="A594" t="s">
+        <v>309</v>
+      </c>
+      <c r="B594" t="s">
+        <v>331</v>
+      </c>
+      <c r="C594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" hidden="1">
+      <c r="A595" t="s">
+        <v>309</v>
+      </c>
+      <c r="B595" t="s">
         <v>332</v>
       </c>
-      <c r="C593">
-        <v>0</v>
-      </c>
-      <c r="D593">
+      <c r="C595">
+        <v>0</v>
+      </c>
+      <c r="D595">
         <v>1</v>
       </c>
     </row>

--- a/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="340">
   <si>
     <t>TABELA</t>
   </si>
@@ -804,9 +804,6 @@
     <t>CD_PAIS_FATURA</t>
   </si>
   <si>
-    <t>CD_ESTADO_FAURA</t>
-  </si>
-  <si>
     <t>CD_CEP_FATURA</t>
   </si>
   <si>
@@ -1030,6 +1027,15 @@
   </si>
   <si>
     <t>SQ_ORDEM</t>
+  </si>
+  <si>
+    <t>SQ_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>NR_PROGRAMACAO</t>
+  </si>
+  <si>
+    <t>CD_TIPO_SITE</t>
   </si>
 </sst>
 </file>
@@ -1045,12 +1051,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1065,8 +1077,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1082,13 +1095,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D595" totalsRowShown="0">
-  <autoFilter ref="A1:D595">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="ln.ods_pev_det"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D598" totalsRowShown="0">
+  <autoFilter ref="A1:D598">
+    <filterColumn colId="0"/>
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" name="TABELA"/>
@@ -1385,11 +1394,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D595"/>
+  <dimension ref="A1:D598"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A540" workbookViewId="0">
-      <selection activeCell="C560" sqref="C560"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A586" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1406,13 +1413,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" t="s">
         <v>333</v>
       </c>
-      <c r="D1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" hidden="1">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1423,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1434,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1445,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1456,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1467,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1478,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1489,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1500,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1511,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1522,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1533,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1547,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1561,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1575,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1589,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1603,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1617,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1631,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1645,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1659,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1670,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1684,23 +1691,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1709,12 +1719,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1723,12 +1733,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1737,12 +1747,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1751,12 +1761,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1765,12 +1775,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1779,12 +1789,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1793,120 +1803,117 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1">
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>337</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>338</v>
       </c>
       <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -1917,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1928,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -1939,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -1950,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -1961,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -1972,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -1986,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -2000,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -2014,7 +2021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -2025,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -2036,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -2047,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -2058,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -2072,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -2086,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -2100,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -2114,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -2125,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -2136,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -2147,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -2158,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -2169,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -2180,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -2191,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -2205,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -2219,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -2233,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>49</v>
       </c>
@@ -2244,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -2258,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -2272,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -2286,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -2297,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>49</v>
       </c>
@@ -2308,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>60</v>
       </c>
@@ -2322,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -2333,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>60</v>
       </c>
@@ -2344,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>60</v>
       </c>
@@ -2355,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>60</v>
       </c>
@@ -2366,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>60</v>
       </c>
@@ -2377,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>60</v>
       </c>
@@ -2399,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>60</v>
       </c>
@@ -2410,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -2421,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>60</v>
       </c>
@@ -2432,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>60</v>
       </c>
@@ -2443,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -2454,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>60</v>
       </c>
@@ -2465,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -2476,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>60</v>
       </c>
@@ -2487,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>60</v>
       </c>
@@ -2498,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>60</v>
       </c>
@@ -2509,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>60</v>
       </c>
@@ -2520,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>60</v>
       </c>
@@ -2531,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>60</v>
       </c>
@@ -2545,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>60</v>
       </c>
@@ -2559,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>60</v>
       </c>
@@ -2570,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>60</v>
       </c>
@@ -2581,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>60</v>
       </c>
@@ -2592,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>60</v>
       </c>
@@ -2603,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>60</v>
       </c>
@@ -2614,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>60</v>
       </c>
@@ -2625,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>60</v>
       </c>
@@ -2636,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>60</v>
       </c>
@@ -2647,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>60</v>
       </c>
@@ -2658,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>60</v>
       </c>
@@ -2669,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>60</v>
       </c>
@@ -2680,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>60</v>
       </c>
@@ -2691,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>60</v>
       </c>
@@ -2702,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>60</v>
       </c>
@@ -2713,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>60</v>
       </c>
@@ -2724,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>60</v>
       </c>
@@ -2735,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>60</v>
       </c>
@@ -2746,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>60</v>
       </c>
@@ -2757,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>60</v>
       </c>
@@ -2768,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>60</v>
       </c>
@@ -2779,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -2790,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>60</v>
       </c>
@@ -2801,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>60</v>
       </c>
@@ -2812,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>60</v>
       </c>
@@ -2823,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>60</v>
       </c>
@@ -2834,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>60</v>
       </c>
@@ -2845,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>60</v>
       </c>
@@ -2856,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>60</v>
       </c>
@@ -2867,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>60</v>
       </c>
@@ -2878,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>60</v>
       </c>
@@ -2889,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>60</v>
       </c>
@@ -2900,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>60</v>
       </c>
@@ -2911,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>60</v>
       </c>
@@ -2922,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>60</v>
       </c>
@@ -2933,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>60</v>
       </c>
@@ -2944,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>60</v>
       </c>
@@ -2955,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>60</v>
       </c>
@@ -2966,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>60</v>
       </c>
@@ -2977,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>60</v>
       </c>
@@ -2988,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>60</v>
       </c>
@@ -2999,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>60</v>
       </c>
@@ -3010,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>60</v>
       </c>
@@ -3024,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>60</v>
       </c>
@@ -3035,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>60</v>
       </c>
@@ -3046,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>60</v>
       </c>
@@ -3057,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>60</v>
       </c>
@@ -3068,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>60</v>
       </c>
@@ -3079,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>60</v>
       </c>
@@ -3090,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>60</v>
       </c>
@@ -3101,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>60</v>
       </c>
@@ -3112,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>60</v>
       </c>
@@ -3123,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>60</v>
       </c>
@@ -3134,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>60</v>
       </c>
@@ -3145,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>60</v>
       </c>
@@ -3156,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>60</v>
       </c>
@@ -3170,40 +3177,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>60</v>
       </c>
       <c r="B152" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C152">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>60</v>
       </c>
       <c r="B153" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C153">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>60</v>
       </c>
       <c r="B154" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C154">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>132</v>
       </c>
@@ -3214,7 +3221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>132</v>
       </c>
@@ -3225,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>132</v>
       </c>
@@ -3236,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>132</v>
       </c>
@@ -3247,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>132</v>
       </c>
@@ -3258,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>132</v>
       </c>
@@ -3269,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>132</v>
       </c>
@@ -3283,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>132</v>
       </c>
@@ -3297,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>132</v>
       </c>
@@ -3311,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>132</v>
       </c>
@@ -3325,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>132</v>
       </c>
@@ -3339,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>132</v>
       </c>
@@ -3350,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>132</v>
       </c>
@@ -3361,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>132</v>
       </c>
@@ -3372,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>132</v>
       </c>
@@ -3383,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>132</v>
       </c>
@@ -3394,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>132</v>
       </c>
@@ -3408,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>132</v>
       </c>
@@ -3422,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>132</v>
       </c>
@@ -3436,7 +3443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>132</v>
       </c>
@@ -3450,7 +3457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>132</v>
       </c>
@@ -3464,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>132</v>
       </c>
@@ -3478,7 +3485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>132</v>
       </c>
@@ -3492,7 +3499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>132</v>
       </c>
@@ -3506,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>132</v>
       </c>
@@ -3520,7 +3527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>132</v>
       </c>
@@ -3534,7 +3541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>132</v>
       </c>
@@ -3548,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>132</v>
       </c>
@@ -3562,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>132</v>
       </c>
@@ -3576,7 +3583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>132</v>
       </c>
@@ -3590,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>132</v>
       </c>
@@ -3604,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>132</v>
       </c>
@@ -3615,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>132</v>
       </c>
@@ -3629,7 +3636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>132</v>
       </c>
@@ -3643,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>132</v>
       </c>
@@ -3657,7 +3664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>132</v>
       </c>
@@ -3671,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>132</v>
       </c>
@@ -3682,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>132</v>
       </c>
@@ -3693,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>132</v>
       </c>
@@ -3704,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>132</v>
       </c>
@@ -3718,7 +3725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>132</v>
       </c>
@@ -3732,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>132</v>
       </c>
@@ -3746,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>132</v>
       </c>
@@ -3760,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>132</v>
       </c>
@@ -3774,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>132</v>
       </c>
@@ -3788,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>132</v>
       </c>
@@ -3802,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>132</v>
       </c>
@@ -3816,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>132</v>
       </c>
@@ -3830,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>132</v>
       </c>
@@ -3844,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>132</v>
       </c>
@@ -3858,7 +3865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>132</v>
       </c>
@@ -3872,7 +3879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>132</v>
       </c>
@@ -3886,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>132</v>
       </c>
@@ -3897,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>132</v>
       </c>
@@ -3908,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>132</v>
       </c>
@@ -3919,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>132</v>
       </c>
@@ -3930,18 +3937,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>132</v>
       </c>
       <c r="B211" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C211">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>166</v>
       </c>
@@ -3952,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>166</v>
       </c>
@@ -3963,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>166</v>
       </c>
@@ -3977,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>166</v>
       </c>
@@ -3991,7 +3998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>166</v>
       </c>
@@ -4002,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>166</v>
       </c>
@@ -4013,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>166</v>
       </c>
@@ -4024,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>166</v>
       </c>
@@ -4038,7 +4045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>166</v>
       </c>
@@ -4052,7 +4059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>166</v>
       </c>
@@ -4066,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>166</v>
       </c>
@@ -4080,7 +4087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>166</v>
       </c>
@@ -4094,7 +4101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>166</v>
       </c>
@@ -4108,7 +4115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>166</v>
       </c>
@@ -4122,7 +4129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>166</v>
       </c>
@@ -4136,7 +4143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>166</v>
       </c>
@@ -4150,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>166</v>
       </c>
@@ -4164,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>166</v>
       </c>
@@ -4178,7 +4185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>166</v>
       </c>
@@ -4192,7 +4199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>166</v>
       </c>
@@ -4206,7 +4213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>166</v>
       </c>
@@ -4220,7 +4227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>166</v>
       </c>
@@ -4234,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>166</v>
       </c>
@@ -4248,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>166</v>
       </c>
@@ -4262,7 +4269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>166</v>
       </c>
@@ -4276,7 +4283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>166</v>
       </c>
@@ -4290,7 +4297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>166</v>
       </c>
@@ -4304,7 +4311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>166</v>
       </c>
@@ -4318,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>166</v>
       </c>
@@ -4332,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>166</v>
       </c>
@@ -4343,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>166</v>
       </c>
@@ -4354,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>166</v>
       </c>
@@ -4368,7 +4375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>166</v>
       </c>
@@ -4382,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>166</v>
       </c>
@@ -4396,7 +4403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>166</v>
       </c>
@@ -4410,7 +4417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>166</v>
       </c>
@@ -4424,7 +4431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>166</v>
       </c>
@@ -4438,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>166</v>
       </c>
@@ -4452,7 +4459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>166</v>
       </c>
@@ -4466,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>166</v>
       </c>
@@ -4480,7 +4487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>166</v>
       </c>
@@ -4494,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>166</v>
       </c>
@@ -4508,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>166</v>
       </c>
@@ -4522,7 +4529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>166</v>
       </c>
@@ -4536,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>166</v>
       </c>
@@ -4550,7 +4557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>166</v>
       </c>
@@ -4564,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>166</v>
       </c>
@@ -4578,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>166</v>
       </c>
@@ -4592,7 +4599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>166</v>
       </c>
@@ -4606,7 +4613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>166</v>
       </c>
@@ -4620,7 +4627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>166</v>
       </c>
@@ -4634,7 +4641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>166</v>
       </c>
@@ -4648,7 +4655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>166</v>
       </c>
@@ -4662,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>166</v>
       </c>
@@ -4676,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>166</v>
       </c>
@@ -4690,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>166</v>
       </c>
@@ -4701,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>166</v>
       </c>
@@ -4712,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>166</v>
       </c>
@@ -4723,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>166</v>
       </c>
@@ -4737,7 +4744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>166</v>
       </c>
@@ -4751,7 +4758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>166</v>
       </c>
@@ -4765,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>166</v>
       </c>
@@ -4779,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>166</v>
       </c>
@@ -4793,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>166</v>
       </c>
@@ -4807,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>166</v>
       </c>
@@ -4821,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>166</v>
       </c>
@@ -4835,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>166</v>
       </c>
@@ -4849,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>166</v>
       </c>
@@ -4863,7 +4870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>166</v>
       </c>
@@ -4877,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>166</v>
       </c>
@@ -4888,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>166</v>
       </c>
@@ -4899,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>166</v>
       </c>
@@ -4910,7 +4917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>166</v>
       </c>
@@ -4921,7 +4928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>166</v>
       </c>
@@ -4932,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>166</v>
       </c>
@@ -4946,7 +4953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>199</v>
       </c>
@@ -4957,7 +4964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>199</v>
       </c>
@@ -4968,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>199</v>
       </c>
@@ -4982,7 +4989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>199</v>
       </c>
@@ -4996,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>199</v>
       </c>
@@ -5007,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>199</v>
       </c>
@@ -5018,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>199</v>
       </c>
@@ -5029,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>199</v>
       </c>
@@ -5040,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>199</v>
       </c>
@@ -5051,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>199</v>
       </c>
@@ -5062,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>199</v>
       </c>
@@ -5073,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1">
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>199</v>
       </c>
@@ -5087,7 +5094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1">
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>199</v>
       </c>
@@ -5101,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1">
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>199</v>
       </c>
@@ -5115,7 +5122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>199</v>
       </c>
@@ -5126,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>199</v>
       </c>
@@ -5137,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1">
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>199</v>
       </c>
@@ -5148,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1">
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>199</v>
       </c>
@@ -5159,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>199</v>
       </c>
@@ -5170,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>199</v>
       </c>
@@ -5181,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>199</v>
       </c>
@@ -5192,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>199</v>
       </c>
@@ -5203,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>199</v>
       </c>
@@ -5214,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>199</v>
       </c>
@@ -5225,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>199</v>
       </c>
@@ -5236,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>199</v>
       </c>
@@ -5247,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>199</v>
       </c>
@@ -5258,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>199</v>
       </c>
@@ -5269,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>199</v>
       </c>
@@ -5283,7 +5290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1">
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>199</v>
       </c>
@@ -5297,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1">
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>199</v>
       </c>
@@ -5308,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1">
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>199</v>
       </c>
@@ -5319,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1">
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>199</v>
       </c>
@@ -5330,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1">
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>199</v>
       </c>
@@ -5341,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1">
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>199</v>
       </c>
@@ -5352,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1">
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>199</v>
       </c>
@@ -5363,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1">
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>199</v>
       </c>
@@ -5374,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1">
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
         <v>199</v>
       </c>
@@ -5385,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1">
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>199</v>
       </c>
@@ -5396,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1">
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>199</v>
       </c>
@@ -5407,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1">
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
         <v>199</v>
       </c>
@@ -5421,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1">
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
         <v>199</v>
       </c>
@@ -5432,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1">
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
         <v>199</v>
       </c>
@@ -5443,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1">
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>199</v>
       </c>
@@ -5454,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1">
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>205</v>
       </c>
@@ -5465,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1">
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>205</v>
       </c>
@@ -5476,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1">
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>205</v>
       </c>
@@ -5490,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1">
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>205</v>
       </c>
@@ -5504,7 +5511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1">
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>205</v>
       </c>
@@ -5515,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1">
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>205</v>
       </c>
@@ -5526,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1">
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
         <v>205</v>
       </c>
@@ -5537,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1">
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
         <v>205</v>
       </c>
@@ -5548,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1">
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>205</v>
       </c>
@@ -5559,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1">
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
         <v>205</v>
       </c>
@@ -5570,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1">
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>205</v>
       </c>
@@ -5581,7 +5588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1">
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>205</v>
       </c>
@@ -5592,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1">
+    <row r="343" spans="1:4">
       <c r="A343" t="s">
         <v>205</v>
       </c>
@@ -5603,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1">
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>205</v>
       </c>
@@ -5614,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1">
+    <row r="345" spans="1:4">
       <c r="A345" t="s">
         <v>205</v>
       </c>
@@ -5625,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1">
+    <row r="346" spans="1:4">
       <c r="A346" t="s">
         <v>205</v>
       </c>
@@ -5636,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1">
+    <row r="347" spans="1:4">
       <c r="A347" t="s">
         <v>205</v>
       </c>
@@ -5647,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1">
+    <row r="348" spans="1:4">
       <c r="A348" t="s">
         <v>205</v>
       </c>
@@ -5658,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1">
+    <row r="349" spans="1:4">
       <c r="A349" t="s">
         <v>205</v>
       </c>
@@ -5672,7 +5679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1">
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
         <v>205</v>
       </c>
@@ -5683,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1">
+    <row r="351" spans="1:4">
       <c r="A351" t="s">
         <v>205</v>
       </c>
@@ -5694,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1">
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
         <v>205</v>
       </c>
@@ -5705,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:3" hidden="1">
+    <row r="353" spans="1:3">
       <c r="A353" t="s">
         <v>205</v>
       </c>
@@ -5716,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:3" hidden="1">
+    <row r="354" spans="1:3">
       <c r="A354" t="s">
         <v>205</v>
       </c>
@@ -5727,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:3" hidden="1">
+    <row r="355" spans="1:3">
       <c r="A355" t="s">
         <v>205</v>
       </c>
@@ -5738,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:3" hidden="1">
+    <row r="356" spans="1:3">
       <c r="A356" t="s">
         <v>205</v>
       </c>
@@ -5749,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:3" hidden="1">
+    <row r="357" spans="1:3">
       <c r="A357" t="s">
         <v>205</v>
       </c>
@@ -5760,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:3" hidden="1">
+    <row r="358" spans="1:3">
       <c r="A358" t="s">
         <v>205</v>
       </c>
@@ -5771,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:3" hidden="1">
+    <row r="359" spans="1:3">
       <c r="A359" t="s">
         <v>205</v>
       </c>
@@ -5782,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:3" hidden="1">
+    <row r="360" spans="1:3">
       <c r="A360" t="s">
         <v>205</v>
       </c>
@@ -5793,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:3" hidden="1">
+    <row r="361" spans="1:3">
       <c r="A361" t="s">
         <v>205</v>
       </c>
@@ -5804,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:3" hidden="1">
+    <row r="362" spans="1:3">
       <c r="A362" t="s">
         <v>205</v>
       </c>
@@ -5815,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:3" hidden="1">
+    <row r="363" spans="1:3">
       <c r="A363" t="s">
         <v>205</v>
       </c>
@@ -5826,7 +5833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:3" hidden="1">
+    <row r="364" spans="1:3">
       <c r="A364" t="s">
         <v>205</v>
       </c>
@@ -5837,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:3" hidden="1">
+    <row r="365" spans="1:3">
       <c r="A365" t="s">
         <v>205</v>
       </c>
@@ -5848,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:3" hidden="1">
+    <row r="366" spans="1:3">
       <c r="A366" t="s">
         <v>205</v>
       </c>
@@ -5859,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:3" hidden="1">
+    <row r="367" spans="1:3">
       <c r="A367" t="s">
         <v>205</v>
       </c>
@@ -5870,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:3" hidden="1">
+    <row r="368" spans="1:3">
       <c r="A368" t="s">
         <v>205</v>
       </c>
@@ -5881,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1">
+    <row r="369" spans="1:4">
       <c r="A369" t="s">
         <v>205</v>
       </c>
@@ -5892,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1">
+    <row r="370" spans="1:4">
       <c r="A370" t="s">
         <v>205</v>
       </c>
@@ -5903,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1">
+    <row r="371" spans="1:4">
       <c r="A371" t="s">
         <v>205</v>
       </c>
@@ -5914,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1">
+    <row r="372" spans="1:4">
       <c r="A372" t="s">
         <v>205</v>
       </c>
@@ -5925,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1">
+    <row r="373" spans="1:4">
       <c r="A373" t="s">
         <v>205</v>
       </c>
@@ -5936,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1">
+    <row r="374" spans="1:4">
       <c r="A374" t="s">
         <v>205</v>
       </c>
@@ -5947,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1">
+    <row r="375" spans="1:4">
       <c r="A375" t="s">
         <v>205</v>
       </c>
@@ -5961,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1">
+    <row r="376" spans="1:4">
       <c r="A376" t="s">
         <v>205</v>
       </c>
@@ -5972,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1">
+    <row r="377" spans="1:4">
       <c r="A377" t="s">
         <v>205</v>
       </c>
@@ -5983,62 +5990,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1">
+    <row r="378" spans="1:4">
       <c r="A378" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B378" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="C378">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
       <c r="A379" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B379" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="C379">
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1">
+    <row r="380" spans="1:4">
       <c r="A380" t="s">
         <v>210</v>
       </c>
       <c r="B380" t="s">
-        <v>211</v>
+        <v>5</v>
       </c>
       <c r="C380">
-        <v>0</v>
-      </c>
-      <c r="D380">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
       <c r="A381" t="s">
         <v>210</v>
       </c>
       <c r="B381" t="s">
-        <v>212</v>
+        <v>6</v>
       </c>
       <c r="C381">
         <v>0</v>
       </c>
-      <c r="D381">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" hidden="1">
+    </row>
+    <row r="382" spans="1:4">
       <c r="A382" t="s">
         <v>210</v>
       </c>
       <c r="B382" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -6047,12 +6048,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1">
+    <row r="383" spans="1:4">
       <c r="A383" t="s">
         <v>210</v>
       </c>
       <c r="B383" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -6061,12 +6062,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1">
+    <row r="384" spans="1:4">
       <c r="A384" t="s">
         <v>210</v>
       </c>
       <c r="B384" t="s">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -6075,12 +6076,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1">
+    <row r="385" spans="1:4">
       <c r="A385" t="s">
         <v>210</v>
       </c>
       <c r="B385" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -6089,12 +6090,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1">
+    <row r="386" spans="1:4">
       <c r="A386" t="s">
         <v>210</v>
       </c>
       <c r="B386" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -6103,12 +6104,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1">
+    <row r="387" spans="1:4">
       <c r="A387" t="s">
         <v>210</v>
       </c>
       <c r="B387" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="C387">
         <v>0</v>
@@ -6117,106 +6118,106 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1">
+    <row r="388" spans="1:4">
       <c r="A388" t="s">
         <v>210</v>
       </c>
       <c r="B388" t="s">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="C388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" hidden="1">
+      <c r="D388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
       <c r="A389" t="s">
         <v>210</v>
       </c>
       <c r="B389" t="s">
+        <v>216</v>
+      </c>
+      <c r="C389">
+        <v>0</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" t="s">
+        <v>210</v>
+      </c>
+      <c r="B390" t="s">
+        <v>34</v>
+      </c>
+      <c r="C390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" t="s">
+        <v>210</v>
+      </c>
+      <c r="B391" t="s">
         <v>35</v>
       </c>
-      <c r="C389">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" hidden="1">
-      <c r="A390" t="s">
-        <v>217</v>
-      </c>
-      <c r="B390" t="s">
-        <v>5</v>
-      </c>
-      <c r="C390">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" hidden="1">
-      <c r="A391" t="s">
-        <v>217</v>
-      </c>
-      <c r="B391" t="s">
-        <v>6</v>
-      </c>
       <c r="C391">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
         <v>217</v>
       </c>
       <c r="B392" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C392">
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1">
+    <row r="393" spans="1:4">
       <c r="A393" t="s">
         <v>217</v>
       </c>
       <c r="B393" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C393">
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1">
+    <row r="394" spans="1:4">
       <c r="A394" t="s">
         <v>217</v>
       </c>
       <c r="B394" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C394">
-        <v>0</v>
-      </c>
-      <c r="D394">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
         <v>217</v>
       </c>
       <c r="B395" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="C395">
         <v>0</v>
       </c>
-      <c r="D395">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" hidden="1">
+    </row>
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
         <v>217</v>
       </c>
       <c r="B396" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -6225,12 +6226,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1">
+    <row r="397" spans="1:4">
       <c r="A397" t="s">
         <v>217</v>
       </c>
       <c r="B397" t="s">
-        <v>218</v>
+        <v>64</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -6239,12 +6240,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1">
+    <row r="398" spans="1:4">
       <c r="A398" t="s">
         <v>217</v>
       </c>
       <c r="B398" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -6253,23 +6254,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1">
+    <row r="399" spans="1:4">
       <c r="A399" t="s">
         <v>217</v>
       </c>
       <c r="B399" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" hidden="1">
+      <c r="D399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
       <c r="A400" t="s">
         <v>217</v>
       </c>
       <c r="B400" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -6278,23 +6282,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1">
+    <row r="401" spans="1:4">
       <c r="A401" t="s">
         <v>217</v>
       </c>
       <c r="B401" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C401">
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1">
+    <row r="402" spans="1:4">
       <c r="A402" t="s">
         <v>217</v>
       </c>
       <c r="B402" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -6303,26 +6307,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1">
+    <row r="403" spans="1:4">
       <c r="A403" t="s">
         <v>217</v>
       </c>
       <c r="B403" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C403">
         <v>0</v>
       </c>
-      <c r="D403">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" hidden="1">
+    </row>
+    <row r="404" spans="1:4">
       <c r="A404" t="s">
         <v>217</v>
       </c>
       <c r="B404" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C404">
         <v>0</v>
@@ -6331,12 +6332,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1">
+    <row r="405" spans="1:4">
       <c r="A405" t="s">
         <v>217</v>
       </c>
       <c r="B405" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -6345,12 +6346,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:4" hidden="1">
+    <row r="406" spans="1:4">
       <c r="A406" t="s">
         <v>217</v>
       </c>
       <c r="B406" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -6359,12 +6360,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1">
+    <row r="407" spans="1:4">
       <c r="A407" t="s">
         <v>217</v>
       </c>
       <c r="B407" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -6373,12 +6374,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:4" hidden="1">
+    <row r="408" spans="1:4">
       <c r="A408" t="s">
         <v>217</v>
       </c>
       <c r="B408" t="s">
-        <v>33</v>
+        <v>226</v>
       </c>
       <c r="C408">
         <v>0</v>
@@ -6387,12 +6388,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1">
+    <row r="409" spans="1:4">
       <c r="A409" t="s">
         <v>217</v>
       </c>
       <c r="B409" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -6401,62 +6402,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1">
+    <row r="410" spans="1:4">
       <c r="A410" t="s">
         <v>217</v>
       </c>
       <c r="B410" t="s">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="C410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" hidden="1">
+      <c r="D410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
       <c r="A411" t="s">
         <v>217</v>
       </c>
       <c r="B411" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" hidden="1">
+      <c r="D411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
       <c r="A412" t="s">
         <v>217</v>
       </c>
       <c r="B412" t="s">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="C412">
         <v>0</v>
       </c>
-      <c r="D412">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" hidden="1">
+    </row>
+    <row r="413" spans="1:4">
       <c r="A413" t="s">
         <v>217</v>
       </c>
       <c r="B413" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C413">
         <v>0</v>
       </c>
-      <c r="D413">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" hidden="1">
+    </row>
+    <row r="414" spans="1:4">
       <c r="A414" t="s">
         <v>217</v>
       </c>
       <c r="B414" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="C414">
         <v>0</v>
@@ -6465,181 +6466,181 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1">
+    <row r="415" spans="1:4">
       <c r="A415" t="s">
         <v>217</v>
       </c>
       <c r="B415" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" hidden="1">
+      <c r="D415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
       <c r="A416" t="s">
         <v>217</v>
       </c>
       <c r="B416" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="C416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" hidden="1">
+      <c r="D416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
       <c r="A417" t="s">
         <v>217</v>
       </c>
       <c r="B417" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C417">
         <v>0</v>
       </c>
-      <c r="D417">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" hidden="1">
+    </row>
+    <row r="418" spans="1:4">
       <c r="A418" t="s">
         <v>217</v>
       </c>
       <c r="B418" t="s">
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="C418">
         <v>0</v>
       </c>
-      <c r="D418">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" hidden="1">
+    </row>
+    <row r="419" spans="1:4">
       <c r="A419" t="s">
         <v>217</v>
       </c>
       <c r="B419" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="C419">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" hidden="1">
+      <c r="D419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
       <c r="A420" t="s">
         <v>217</v>
       </c>
       <c r="B420" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" hidden="1">
+      <c r="D420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
       <c r="A421" t="s">
         <v>217</v>
       </c>
       <c r="B421" t="s">
+        <v>23</v>
+      </c>
+      <c r="C421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" t="s">
+        <v>217</v>
+      </c>
+      <c r="B422" t="s">
+        <v>235</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" t="s">
+        <v>217</v>
+      </c>
+      <c r="B423" t="s">
         <v>236</v>
       </c>
-      <c r="C421">
-        <v>0</v>
-      </c>
-      <c r="D421">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" hidden="1">
-      <c r="A422" t="s">
-        <v>237</v>
-      </c>
-      <c r="B422" t="s">
-        <v>5</v>
-      </c>
-      <c r="C422">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" hidden="1">
-      <c r="A423" t="s">
-        <v>237</v>
-      </c>
-      <c r="B423" t="s">
-        <v>25</v>
-      </c>
       <c r="C423">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" hidden="1">
+        <v>0</v>
+      </c>
+      <c r="D423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
       <c r="A424" t="s">
         <v>237</v>
       </c>
       <c r="B424" t="s">
-        <v>181</v>
+        <v>5</v>
       </c>
       <c r="C424">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
       <c r="A425" t="s">
         <v>237</v>
       </c>
       <c r="B425" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C425">
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1">
+    <row r="426" spans="1:4">
       <c r="A426" t="s">
         <v>237</v>
       </c>
       <c r="B426" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="C426">
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:4" hidden="1">
+    <row r="427" spans="1:4">
       <c r="A427" t="s">
         <v>237</v>
       </c>
       <c r="B427" t="s">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="C427">
-        <v>0</v>
-      </c>
-      <c r="D427">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
       <c r="A428" t="s">
         <v>237</v>
       </c>
       <c r="B428" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C428">
         <v>0</v>
       </c>
-      <c r="D428">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" hidden="1">
+    </row>
+    <row r="429" spans="1:4">
       <c r="A429" t="s">
         <v>237</v>
       </c>
       <c r="B429" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C429">
         <v>0</v>
@@ -6648,12 +6649,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1">
+    <row r="430" spans="1:4">
       <c r="A430" t="s">
         <v>237</v>
       </c>
       <c r="B430" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -6662,12 +6663,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1">
+    <row r="431" spans="1:4">
       <c r="A431" t="s">
         <v>237</v>
       </c>
       <c r="B431" t="s">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -6676,12 +6677,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1">
+    <row r="432" spans="1:4">
       <c r="A432" t="s">
         <v>237</v>
       </c>
       <c r="B432" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C432">
         <v>0</v>
@@ -6690,12 +6691,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1">
+    <row r="433" spans="1:4">
       <c r="A433" t="s">
         <v>237</v>
       </c>
       <c r="B433" t="s">
-        <v>244</v>
+        <v>120</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -6704,12 +6705,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1">
+    <row r="434" spans="1:4">
       <c r="A434" t="s">
         <v>237</v>
       </c>
       <c r="B434" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -6718,12 +6719,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1">
+    <row r="435" spans="1:4">
       <c r="A435" t="s">
         <v>237</v>
       </c>
       <c r="B435" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -6732,12 +6733,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1">
+    <row r="436" spans="1:4">
       <c r="A436" t="s">
         <v>237</v>
       </c>
       <c r="B436" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C436">
         <v>0</v>
@@ -6746,12 +6747,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1">
+    <row r="437" spans="1:4">
       <c r="A437" t="s">
         <v>237</v>
       </c>
       <c r="B437" t="s">
-        <v>33</v>
+        <v>246</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -6760,12 +6761,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1">
+    <row r="438" spans="1:4">
       <c r="A438" t="s">
         <v>237</v>
       </c>
       <c r="B438" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C438">
         <v>0</v>
@@ -6774,12 +6775,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1">
+    <row r="439" spans="1:4">
       <c r="A439" t="s">
         <v>237</v>
       </c>
       <c r="B439" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="C439">
         <v>0</v>
@@ -6788,12 +6789,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1">
+    <row r="440" spans="1:4">
       <c r="A440" t="s">
         <v>237</v>
       </c>
       <c r="B440" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C440">
         <v>0</v>
@@ -6802,12 +6803,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1">
+    <row r="441" spans="1:4">
       <c r="A441" t="s">
         <v>237</v>
       </c>
       <c r="B441" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="C441">
         <v>0</v>
@@ -6816,230 +6817,230 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1">
+    <row r="442" spans="1:4">
       <c r="A442" t="s">
         <v>237</v>
       </c>
       <c r="B442" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="C442">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" hidden="1">
+      <c r="D442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
       <c r="A443" t="s">
         <v>237</v>
       </c>
       <c r="B443" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="C443">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" hidden="1">
+      <c r="D443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
       <c r="A444" t="s">
         <v>237</v>
       </c>
       <c r="B444" t="s">
+        <v>194</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" t="s">
+        <v>237</v>
+      </c>
+      <c r="B445" t="s">
+        <v>63</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" t="s">
+        <v>237</v>
+      </c>
+      <c r="B446" t="s">
         <v>64</v>
       </c>
-      <c r="C444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" hidden="1">
-      <c r="A445" t="s">
-        <v>249</v>
-      </c>
-      <c r="B445" t="s">
-        <v>33</v>
-      </c>
-      <c r="C445">
-        <v>0</v>
-      </c>
-      <c r="D445">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" hidden="1">
-      <c r="A446" t="s">
-        <v>249</v>
-      </c>
-      <c r="B446" t="s">
-        <v>5</v>
-      </c>
       <c r="C446">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
       <c r="A447" t="s">
         <v>249</v>
       </c>
       <c r="B447" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="C447">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" hidden="1">
+        <v>0</v>
+      </c>
+      <c r="D447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
       <c r="A448" t="s">
         <v>249</v>
       </c>
       <c r="B448" t="s">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="C448">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
       <c r="A449" t="s">
         <v>249</v>
       </c>
       <c r="B449" t="s">
-        <v>251</v>
+        <v>71</v>
       </c>
       <c r="C449">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
       <c r="A450" t="s">
         <v>249</v>
       </c>
       <c r="B450" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C450">
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1">
+    <row r="451" spans="1:4">
       <c r="A451" t="s">
         <v>249</v>
       </c>
       <c r="B451" t="s">
-        <v>112</v>
+        <v>251</v>
       </c>
       <c r="C451">
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1">
+    <row r="452" spans="1:4">
       <c r="A452" t="s">
         <v>249</v>
       </c>
       <c r="B452" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C452">
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1">
+    <row r="453" spans="1:4">
       <c r="A453" t="s">
         <v>249</v>
       </c>
       <c r="B453" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="C453">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
       <c r="A454" t="s">
         <v>249</v>
       </c>
       <c r="B454" t="s">
-        <v>116</v>
+        <v>253</v>
       </c>
       <c r="C454">
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1">
+    <row r="455" spans="1:4">
       <c r="A455" t="s">
         <v>249</v>
       </c>
       <c r="B455" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C455">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
       <c r="A456" t="s">
         <v>249</v>
       </c>
       <c r="B456" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="C456">
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1">
+    <row r="457" spans="1:4">
       <c r="A457" t="s">
         <v>249</v>
       </c>
       <c r="B457" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="C457">
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1">
+    <row r="458" spans="1:4">
       <c r="A458" t="s">
         <v>249</v>
       </c>
       <c r="B458" t="s">
-        <v>254</v>
+        <v>63</v>
       </c>
       <c r="C458">
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1">
+    <row r="459" spans="1:4">
       <c r="A459" t="s">
         <v>249</v>
       </c>
       <c r="B459" t="s">
-        <v>225</v>
+        <v>64</v>
       </c>
       <c r="C459">
         <v>0</v>
       </c>
-      <c r="D459">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" hidden="1">
+    </row>
+    <row r="460" spans="1:4">
       <c r="A460" t="s">
         <v>249</v>
       </c>
       <c r="B460" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="C460">
         <v>0</v>
       </c>
-      <c r="D460">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" hidden="1">
+    </row>
+    <row r="461" spans="1:4">
       <c r="A461" t="s">
         <v>249</v>
       </c>
       <c r="B461" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="C461">
         <v>0</v>
@@ -7048,12 +7049,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1">
+    <row r="462" spans="1:4">
       <c r="A462" t="s">
         <v>249</v>
       </c>
       <c r="B462" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="C462">
         <v>0</v>
@@ -7062,710 +7063,710 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1">
+    <row r="463" spans="1:4">
       <c r="A463" t="s">
         <v>249</v>
       </c>
       <c r="B463" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C463">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" hidden="1">
+      <c r="D463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
       <c r="A464" t="s">
         <v>249</v>
       </c>
       <c r="B464" t="s">
-        <v>257</v>
+        <v>86</v>
       </c>
       <c r="C464">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" hidden="1">
+      <c r="D464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
       <c r="A465" t="s">
         <v>249</v>
       </c>
       <c r="B465" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C465">
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1">
+    <row r="466" spans="1:4">
       <c r="A466" t="s">
         <v>249</v>
       </c>
       <c r="B466" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C466">
         <v>0</v>
       </c>
-      <c r="D466">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" hidden="1">
+    </row>
+    <row r="467" spans="1:4">
       <c r="A467" t="s">
         <v>249</v>
       </c>
       <c r="B467" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C467">
         <v>0</v>
       </c>
-      <c r="D467">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" hidden="1">
+    </row>
+    <row r="468" spans="1:4">
       <c r="A468" t="s">
         <v>249</v>
       </c>
       <c r="B468" t="s">
-        <v>109</v>
+        <v>259</v>
       </c>
       <c r="C468">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" hidden="1">
+      <c r="D468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
       <c r="A469" t="s">
         <v>249</v>
       </c>
       <c r="B469" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" hidden="1">
+      <c r="D469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
       <c r="A470" t="s">
         <v>249</v>
       </c>
       <c r="B470" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="C470">
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1">
+    <row r="471" spans="1:4">
       <c r="A471" t="s">
         <v>249</v>
       </c>
       <c r="B471" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C471">
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1">
+    <row r="472" spans="1:4">
       <c r="A472" t="s">
         <v>249</v>
       </c>
       <c r="B472" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="C472">
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1">
+    <row r="473" spans="1:4">
       <c r="A473" t="s">
         <v>249</v>
       </c>
       <c r="B473" t="s">
-        <v>110</v>
+        <v>262</v>
       </c>
       <c r="C473">
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1">
+    <row r="474" spans="1:4">
       <c r="A474" t="s">
         <v>249</v>
       </c>
       <c r="B474" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C474">
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1">
+    <row r="475" spans="1:4">
       <c r="A475" t="s">
         <v>249</v>
       </c>
       <c r="B475" t="s">
-        <v>266</v>
+        <v>110</v>
       </c>
       <c r="C475">
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1">
+    <row r="476" spans="1:4">
       <c r="A476" t="s">
         <v>249</v>
       </c>
       <c r="B476" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C476">
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1">
+    <row r="477" spans="1:4">
       <c r="A477" t="s">
         <v>249</v>
       </c>
       <c r="B477" t="s">
-        <v>126</v>
+        <v>265</v>
       </c>
       <c r="C477">
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1">
+    <row r="478" spans="1:4">
       <c r="A478" t="s">
         <v>249</v>
       </c>
       <c r="B478" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C478">
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1">
+    <row r="479" spans="1:4">
       <c r="A479" t="s">
         <v>249</v>
       </c>
       <c r="B479" t="s">
-        <v>269</v>
+        <v>126</v>
       </c>
       <c r="C479">
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1">
+    <row r="480" spans="1:4">
       <c r="A480" t="s">
         <v>249</v>
       </c>
       <c r="B480" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C480">
         <v>0</v>
       </c>
-      <c r="D480">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" hidden="1">
+    </row>
+    <row r="481" spans="1:4">
       <c r="A481" t="s">
         <v>249</v>
       </c>
       <c r="B481" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C481">
         <v>0</v>
       </c>
-      <c r="D481">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" hidden="1">
+    </row>
+    <row r="482" spans="1:4">
       <c r="A482" t="s">
         <v>249</v>
       </c>
       <c r="B482" t="s">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="C482">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:4" hidden="1">
+      <c r="D482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
       <c r="A483" t="s">
         <v>249</v>
       </c>
       <c r="B483" t="s">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="C483">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" hidden="1">
+      <c r="D483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
       <c r="A484" t="s">
         <v>249</v>
       </c>
       <c r="B484" t="s">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="C484">
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1">
+    <row r="485" spans="1:4">
       <c r="A485" t="s">
         <v>249</v>
       </c>
       <c r="B485" t="s">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="C485">
         <v>0</v>
       </c>
-      <c r="D485">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4" hidden="1">
+    </row>
+    <row r="486" spans="1:4">
       <c r="A486" t="s">
         <v>249</v>
       </c>
       <c r="B486" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C486">
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1">
+    <row r="487" spans="1:4">
       <c r="A487" t="s">
         <v>249</v>
       </c>
       <c r="B487" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C487">
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" hidden="1">
+      <c r="D487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
       <c r="A488" t="s">
         <v>249</v>
       </c>
       <c r="B488" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C488">
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1">
+    <row r="489" spans="1:4">
       <c r="A489" t="s">
         <v>249</v>
       </c>
       <c r="B489" t="s">
-        <v>124</v>
+        <v>274</v>
       </c>
       <c r="C489">
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1">
+    <row r="490" spans="1:4">
       <c r="A490" t="s">
         <v>249</v>
       </c>
       <c r="B490" t="s">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="C490">
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1">
+    <row r="491" spans="1:4">
       <c r="A491" t="s">
         <v>249</v>
       </c>
       <c r="B491" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C491">
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1">
+    <row r="492" spans="1:4">
       <c r="A492" t="s">
         <v>249</v>
       </c>
       <c r="B492" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="C492">
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1">
+    <row r="493" spans="1:4">
       <c r="A493" t="s">
         <v>249</v>
       </c>
       <c r="B493" t="s">
-        <v>278</v>
+        <v>119</v>
       </c>
       <c r="C493">
         <v>0</v>
       </c>
-      <c r="D493">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4" hidden="1">
+    </row>
+    <row r="494" spans="1:4">
       <c r="A494" t="s">
         <v>249</v>
       </c>
       <c r="B494" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C494">
         <v>0</v>
       </c>
-      <c r="D494">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4" hidden="1">
+    </row>
+    <row r="495" spans="1:4">
       <c r="A495" t="s">
         <v>249</v>
       </c>
       <c r="B495" t="s">
+        <v>277</v>
+      </c>
+      <c r="C495">
+        <v>0</v>
+      </c>
+      <c r="D495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" t="s">
+        <v>249</v>
+      </c>
+      <c r="B496" t="s">
+        <v>278</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
+      <c r="D496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" t="s">
+        <v>249</v>
+      </c>
+      <c r="B497" t="s">
         <v>34</v>
       </c>
-      <c r="C495">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4" hidden="1">
-      <c r="A496" t="s">
+      <c r="C497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" t="s">
+        <v>249</v>
+      </c>
+      <c r="B498" t="s">
+        <v>339</v>
+      </c>
+      <c r="C498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" t="s">
+        <v>279</v>
+      </c>
+      <c r="B499" t="s">
+        <v>5</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" t="s">
+        <v>279</v>
+      </c>
+      <c r="B500" t="s">
+        <v>69</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" t="s">
+        <v>279</v>
+      </c>
+      <c r="B501" t="s">
+        <v>70</v>
+      </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" t="s">
+        <v>279</v>
+      </c>
+      <c r="B502" t="s">
+        <v>71</v>
+      </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" t="s">
+        <v>279</v>
+      </c>
+      <c r="B503" t="s">
+        <v>66</v>
+      </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" t="s">
+        <v>279</v>
+      </c>
+      <c r="B504" t="s">
         <v>280</v>
       </c>
-      <c r="B496" t="s">
-        <v>5</v>
-      </c>
-      <c r="C496">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" hidden="1">
-      <c r="A497" t="s">
-        <v>280</v>
-      </c>
-      <c r="B497" t="s">
-        <v>69</v>
-      </c>
-      <c r="C497">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" hidden="1">
-      <c r="A498" t="s">
-        <v>280</v>
-      </c>
-      <c r="B498" t="s">
-        <v>70</v>
-      </c>
-      <c r="C498">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" hidden="1">
-      <c r="A499" t="s">
-        <v>280</v>
-      </c>
-      <c r="B499" t="s">
-        <v>71</v>
-      </c>
-      <c r="C499">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" hidden="1">
-      <c r="A500" t="s">
-        <v>280</v>
-      </c>
-      <c r="B500" t="s">
-        <v>66</v>
-      </c>
-      <c r="C500">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" hidden="1">
-      <c r="A501" t="s">
-        <v>280</v>
-      </c>
-      <c r="B501" t="s">
+      <c r="C504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" t="s">
+        <v>279</v>
+      </c>
+      <c r="B505" t="s">
+        <v>109</v>
+      </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" t="s">
+        <v>279</v>
+      </c>
+      <c r="B506" t="s">
+        <v>261</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" t="s">
+        <v>279</v>
+      </c>
+      <c r="B507" t="s">
         <v>281</v>
       </c>
-      <c r="C501">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" hidden="1">
-      <c r="A502" t="s">
-        <v>280</v>
-      </c>
-      <c r="B502" t="s">
-        <v>109</v>
-      </c>
-      <c r="C502">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" hidden="1">
-      <c r="A503" t="s">
-        <v>280</v>
-      </c>
-      <c r="B503" t="s">
-        <v>261</v>
-      </c>
-      <c r="C503">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" hidden="1">
-      <c r="A504" t="s">
-        <v>280</v>
-      </c>
-      <c r="B504" t="s">
+      <c r="C507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" t="s">
+        <v>279</v>
+      </c>
+      <c r="B508" t="s">
+        <v>262</v>
+      </c>
+      <c r="C508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" t="s">
+        <v>279</v>
+      </c>
+      <c r="B509" t="s">
         <v>282</v>
       </c>
-      <c r="C504">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" hidden="1">
-      <c r="A505" t="s">
-        <v>280</v>
-      </c>
-      <c r="B505" t="s">
-        <v>263</v>
-      </c>
-      <c r="C505">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" hidden="1">
-      <c r="A506" t="s">
-        <v>280</v>
-      </c>
-      <c r="B506" t="s">
+      <c r="C509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" t="s">
+        <v>279</v>
+      </c>
+      <c r="B510" t="s">
         <v>283</v>
       </c>
-      <c r="C506">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" hidden="1">
-      <c r="A507" t="s">
-        <v>280</v>
-      </c>
-      <c r="B507" t="s">
+      <c r="C510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" t="s">
+        <v>279</v>
+      </c>
+      <c r="B511" t="s">
         <v>284</v>
       </c>
-      <c r="C507">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" hidden="1">
-      <c r="A508" t="s">
-        <v>280</v>
-      </c>
-      <c r="B508" t="s">
+      <c r="C511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" t="s">
+        <v>279</v>
+      </c>
+      <c r="B512" t="s">
         <v>285</v>
       </c>
-      <c r="C508">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" hidden="1">
-      <c r="A509" t="s">
-        <v>280</v>
-      </c>
-      <c r="B509" t="s">
+      <c r="C512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" t="s">
+        <v>279</v>
+      </c>
+      <c r="B513" t="s">
         <v>286</v>
       </c>
-      <c r="C509">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" hidden="1">
-      <c r="A510" t="s">
-        <v>280</v>
-      </c>
-      <c r="B510" t="s">
+      <c r="C513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" t="s">
+        <v>279</v>
+      </c>
+      <c r="B514" t="s">
+        <v>67</v>
+      </c>
+      <c r="C514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" t="s">
+        <v>279</v>
+      </c>
+      <c r="B515" t="s">
+        <v>110</v>
+      </c>
+      <c r="C515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" t="s">
+        <v>279</v>
+      </c>
+      <c r="B516" t="s">
+        <v>264</v>
+      </c>
+      <c r="C516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" t="s">
+        <v>279</v>
+      </c>
+      <c r="B517" t="s">
+        <v>265</v>
+      </c>
+      <c r="C517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" t="s">
+        <v>279</v>
+      </c>
+      <c r="B518" t="s">
+        <v>266</v>
+      </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" t="s">
+        <v>279</v>
+      </c>
+      <c r="B519" t="s">
         <v>287</v>
       </c>
-      <c r="C510">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" hidden="1">
-      <c r="A511" t="s">
-        <v>280</v>
-      </c>
-      <c r="B511" t="s">
-        <v>67</v>
-      </c>
-      <c r="C511">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" hidden="1">
-      <c r="A512" t="s">
-        <v>280</v>
-      </c>
-      <c r="B512" t="s">
-        <v>110</v>
-      </c>
-      <c r="C512">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4" hidden="1">
-      <c r="A513" t="s">
-        <v>280</v>
-      </c>
-      <c r="B513" t="s">
-        <v>265</v>
-      </c>
-      <c r="C513">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4" hidden="1">
-      <c r="A514" t="s">
-        <v>280</v>
-      </c>
-      <c r="B514" t="s">
-        <v>266</v>
-      </c>
-      <c r="C514">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4" hidden="1">
-      <c r="A515" t="s">
-        <v>280</v>
-      </c>
-      <c r="B515" t="s">
-        <v>267</v>
-      </c>
-      <c r="C515">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4" hidden="1">
-      <c r="A516" t="s">
-        <v>280</v>
-      </c>
-      <c r="B516" t="s">
+      <c r="C519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" t="s">
+        <v>279</v>
+      </c>
+      <c r="B520" t="s">
         <v>288</v>
       </c>
-      <c r="C516">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4" hidden="1">
-      <c r="A517" t="s">
-        <v>280</v>
-      </c>
-      <c r="B517" t="s">
+      <c r="C520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" t="s">
+        <v>279</v>
+      </c>
+      <c r="B521" t="s">
         <v>289</v>
       </c>
-      <c r="C517">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518" spans="1:4" hidden="1">
-      <c r="A518" t="s">
-        <v>280</v>
-      </c>
-      <c r="B518" t="s">
+      <c r="C521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" t="s">
+        <v>279</v>
+      </c>
+      <c r="B522" t="s">
         <v>290</v>
       </c>
-      <c r="C518">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519" spans="1:4" hidden="1">
-      <c r="A519" t="s">
-        <v>280</v>
-      </c>
-      <c r="B519" t="s">
+      <c r="C522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" t="s">
+        <v>279</v>
+      </c>
+      <c r="B523" t="s">
         <v>291</v>
       </c>
-      <c r="C519">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520" spans="1:4" hidden="1">
-      <c r="A520" t="s">
-        <v>280</v>
-      </c>
-      <c r="B520" t="s">
+      <c r="C523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" t="s">
+        <v>279</v>
+      </c>
+      <c r="B524" t="s">
         <v>292</v>
-      </c>
-      <c r="C520">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4" hidden="1">
-      <c r="A521" t="s">
-        <v>280</v>
-      </c>
-      <c r="B521" t="s">
-        <v>293</v>
-      </c>
-      <c r="C521">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4" hidden="1">
-      <c r="A522" t="s">
-        <v>280</v>
-      </c>
-      <c r="B522" t="s">
-        <v>294</v>
-      </c>
-      <c r="C522">
-        <v>0</v>
-      </c>
-      <c r="D522">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4" hidden="1">
-      <c r="A523" t="s">
-        <v>280</v>
-      </c>
-      <c r="B523" t="s">
-        <v>295</v>
-      </c>
-      <c r="C523">
-        <v>0</v>
-      </c>
-      <c r="D523">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4" hidden="1">
-      <c r="A524" t="s">
-        <v>280</v>
-      </c>
-      <c r="B524" t="s">
-        <v>126</v>
       </c>
       <c r="C524">
         <v>0</v>
@@ -7773,10 +7774,10 @@
     </row>
     <row r="525" spans="1:4">
       <c r="A525" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B525" t="s">
-        <v>33</v>
+        <v>293</v>
       </c>
       <c r="C525">
         <v>0</v>
@@ -7787,21 +7788,24 @@
     </row>
     <row r="526" spans="1:4">
       <c r="A526" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B526" t="s">
-        <v>5</v>
+        <v>294</v>
       </c>
       <c r="C526">
+        <v>0</v>
+      </c>
+      <c r="D526">
         <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:4">
       <c r="A527" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B527" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C527">
         <v>0</v>
@@ -7809,60 +7813,57 @@
     </row>
     <row r="528" spans="1:4">
       <c r="A528" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B528" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="C528">
+        <v>0</v>
+      </c>
+      <c r="D528">
         <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:4">
       <c r="A529" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B529" t="s">
-        <v>251</v>
+        <v>5</v>
       </c>
       <c r="C529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:4">
       <c r="A530" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B530" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C530">
         <v>0</v>
-      </c>
-      <c r="D530">
-        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:4">
       <c r="A531" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B531" t="s">
-        <v>225</v>
+        <v>71</v>
       </c>
       <c r="C531">
-        <v>0</v>
-      </c>
-      <c r="D531">
         <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:4">
       <c r="A532" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B532" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C532">
         <v>0</v>
@@ -7870,13 +7871,13 @@
     </row>
     <row r="533" spans="1:4">
       <c r="A533" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B533" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C533">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D533">
         <v>1</v>
@@ -7884,10 +7885,10 @@
     </row>
     <row r="534" spans="1:4">
       <c r="A534" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B534" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="C534">
         <v>0</v>
@@ -7898,27 +7899,24 @@
     </row>
     <row r="535" spans="1:4">
       <c r="A535" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B535" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="C535">
         <v>0</v>
-      </c>
-      <c r="D535">
-        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:4">
       <c r="A536" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B536" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C536">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D536">
         <v>1</v>
@@ -7926,10 +7924,10 @@
     </row>
     <row r="537" spans="1:4">
       <c r="A537" t="s">
+        <v>295</v>
+      </c>
+      <c r="B537" t="s">
         <v>296</v>
-      </c>
-      <c r="B537" t="s">
-        <v>255</v>
       </c>
       <c r="C537">
         <v>0</v>
@@ -7940,10 +7938,10 @@
     </row>
     <row r="538" spans="1:4">
       <c r="A538" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B538" t="s">
-        <v>86</v>
+        <v>297</v>
       </c>
       <c r="C538">
         <v>0</v>
@@ -7954,43 +7952,52 @@
     </row>
     <row r="539" spans="1:4">
       <c r="A539" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B539" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C539">
         <v>0</v>
+      </c>
+      <c r="D539">
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:4">
       <c r="A540" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B540" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="C540">
         <v>0</v>
+      </c>
+      <c r="D540">
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:4">
       <c r="A541" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B541" t="s">
-        <v>299</v>
+        <v>86</v>
       </c>
       <c r="C541">
         <v>0</v>
+      </c>
+      <c r="D541">
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:4">
       <c r="A542" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B542" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="C542">
         <v>0</v>
@@ -7998,10 +8005,10 @@
     </row>
     <row r="543" spans="1:4">
       <c r="A543" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B543" t="s">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="C543">
         <v>0</v>
@@ -8009,10 +8016,10 @@
     </row>
     <row r="544" spans="1:4">
       <c r="A544" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B544" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C544">
         <v>0</v>
@@ -8020,10 +8027,10 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B545" t="s">
-        <v>302</v>
+        <v>54</v>
       </c>
       <c r="C545">
         <v>0</v>
@@ -8031,52 +8038,43 @@
     </row>
     <row r="546" spans="1:4">
       <c r="A546" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B546" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C546">
         <v>0</v>
-      </c>
-      <c r="D546">
-        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:4">
       <c r="A547" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B547" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C547">
         <v>0</v>
-      </c>
-      <c r="D547">
-        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:4">
       <c r="A548" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B548" t="s">
-        <v>89</v>
+        <v>301</v>
       </c>
       <c r="C548">
         <v>0</v>
-      </c>
-      <c r="D548">
-        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:4">
       <c r="A549" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B549" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C549">
         <v>0</v>
@@ -8087,43 +8085,52 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B550" t="s">
-        <v>6</v>
+        <v>303</v>
       </c>
       <c r="C550">
         <v>0</v>
+      </c>
+      <c r="D550">
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:4">
       <c r="A551" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B551" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="C551">
         <v>0</v>
+      </c>
+      <c r="D551">
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:4">
       <c r="A552" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B552" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C552">
         <v>0</v>
+      </c>
+      <c r="D552">
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:4">
       <c r="A553" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B553" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C553">
         <v>0</v>
@@ -8131,21 +8138,21 @@
     </row>
     <row r="554" spans="1:4">
       <c r="A554" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B554" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:4">
       <c r="A555" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B555" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C555">
         <v>0</v>
@@ -8153,10 +8160,10 @@
     </row>
     <row r="556" spans="1:4">
       <c r="A556" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B556" t="s">
-        <v>308</v>
+        <v>69</v>
       </c>
       <c r="C556">
         <v>0</v>
@@ -8164,35 +8171,32 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B557" t="s">
-        <v>257</v>
+        <v>70</v>
       </c>
       <c r="C557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:4">
       <c r="A558" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B558" t="s">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="C558">
         <v>0</v>
-      </c>
-      <c r="D558">
-        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:4">
       <c r="A559" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B559" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="C559">
         <v>0</v>
@@ -8200,426 +8204,463 @@
     </row>
     <row r="560" spans="1:4">
       <c r="A560" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B560" t="s">
-        <v>337</v>
+        <v>257</v>
       </c>
       <c r="C560">
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:4" hidden="1">
+    <row r="561" spans="1:4">
       <c r="A561" t="s">
+        <v>295</v>
+      </c>
+      <c r="B561" t="s">
+        <v>78</v>
+      </c>
+      <c r="C561">
+        <v>0</v>
+      </c>
+      <c r="D561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" t="s">
+        <v>295</v>
+      </c>
+      <c r="B562" t="s">
+        <v>334</v>
+      </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563" t="s">
+        <v>295</v>
+      </c>
+      <c r="B563" t="s">
+        <v>336</v>
+      </c>
+      <c r="C563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="A564" t="s">
+        <v>308</v>
+      </c>
+      <c r="B564" t="s">
+        <v>331</v>
+      </c>
+      <c r="C564">
+        <v>0</v>
+      </c>
+      <c r="D564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565" t="s">
+        <v>308</v>
+      </c>
+      <c r="B565" t="s">
+        <v>5</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="A566" t="s">
+        <v>308</v>
+      </c>
+      <c r="B566" t="s">
+        <v>71</v>
+      </c>
+      <c r="C566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567" t="s">
+        <v>308</v>
+      </c>
+      <c r="B567" t="s">
+        <v>69</v>
+      </c>
+      <c r="C567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="A568" t="s">
+        <v>308</v>
+      </c>
+      <c r="B568" t="s">
+        <v>70</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="A569" t="s">
+        <v>308</v>
+      </c>
+      <c r="B569" t="s">
         <v>309</v>
       </c>
-      <c r="B561" t="s">
-        <v>5</v>
-      </c>
-      <c r="C561">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="562" spans="1:4" hidden="1">
-      <c r="A562" t="s">
-        <v>309</v>
-      </c>
-      <c r="B562" t="s">
-        <v>71</v>
-      </c>
-      <c r="C562">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="563" spans="1:4" hidden="1">
-      <c r="A563" t="s">
-        <v>309</v>
-      </c>
-      <c r="B563" t="s">
-        <v>69</v>
-      </c>
-      <c r="C563">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="564" spans="1:4" hidden="1">
-      <c r="A564" t="s">
-        <v>309</v>
-      </c>
-      <c r="B564" t="s">
-        <v>70</v>
-      </c>
-      <c r="C564">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="565" spans="1:4" hidden="1">
-      <c r="A565" t="s">
-        <v>309</v>
-      </c>
-      <c r="B565" t="s">
+      <c r="C569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="A570" t="s">
+        <v>308</v>
+      </c>
+      <c r="B570" t="s">
         <v>310</v>
       </c>
-      <c r="C565">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="566" spans="1:4" hidden="1">
-      <c r="A566" t="s">
-        <v>309</v>
-      </c>
-      <c r="B566" t="s">
+      <c r="C570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571" t="s">
+        <v>308</v>
+      </c>
+      <c r="B571" t="s">
         <v>311</v>
       </c>
-      <c r="C566">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4" hidden="1">
-      <c r="A567" t="s">
-        <v>309</v>
-      </c>
-      <c r="B567" t="s">
+      <c r="C571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="A572" t="s">
+        <v>308</v>
+      </c>
+      <c r="B572" t="s">
+        <v>50</v>
+      </c>
+      <c r="C572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573" t="s">
+        <v>308</v>
+      </c>
+      <c r="B573" t="s">
         <v>312</v>
       </c>
-      <c r="C567">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4" hidden="1">
-      <c r="A568" t="s">
-        <v>309</v>
-      </c>
-      <c r="B568" t="s">
-        <v>50</v>
-      </c>
-      <c r="C568">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="569" spans="1:4" hidden="1">
-      <c r="A569" t="s">
-        <v>309</v>
-      </c>
-      <c r="B569" t="s">
+      <c r="C573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574" t="s">
+        <v>308</v>
+      </c>
+      <c r="B574" t="s">
+        <v>55</v>
+      </c>
+      <c r="C574">
+        <v>0</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575" t="s">
+        <v>308</v>
+      </c>
+      <c r="B575" t="s">
         <v>313</v>
       </c>
-      <c r="C569">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4" hidden="1">
-      <c r="A570" t="s">
-        <v>309</v>
-      </c>
-      <c r="B570" t="s">
-        <v>55</v>
-      </c>
-      <c r="C570">
-        <v>0</v>
-      </c>
-      <c r="D570">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4" hidden="1">
-      <c r="A571" t="s">
-        <v>309</v>
-      </c>
-      <c r="B571" t="s">
+      <c r="C575">
+        <v>0</v>
+      </c>
+      <c r="D575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576" t="s">
+        <v>308</v>
+      </c>
+      <c r="B576" t="s">
         <v>314</v>
       </c>
-      <c r="C571">
-        <v>0</v>
-      </c>
-      <c r="D571">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4" hidden="1">
-      <c r="A572" t="s">
-        <v>309</v>
-      </c>
-      <c r="B572" t="s">
+      <c r="C576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577" t="s">
+        <v>308</v>
+      </c>
+      <c r="B577" t="s">
+        <v>221</v>
+      </c>
+      <c r="C577">
+        <v>0</v>
+      </c>
+      <c r="D577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578" t="s">
+        <v>308</v>
+      </c>
+      <c r="B578" t="s">
+        <v>112</v>
+      </c>
+      <c r="C578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579" t="s">
+        <v>308</v>
+      </c>
+      <c r="B579" t="s">
         <v>315</v>
       </c>
-      <c r="C572">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="573" spans="1:4" hidden="1">
-      <c r="A573" t="s">
-        <v>309</v>
-      </c>
-      <c r="B573" t="s">
-        <v>221</v>
-      </c>
-      <c r="C573">
-        <v>0</v>
-      </c>
-      <c r="D573">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="574" spans="1:4" hidden="1">
-      <c r="A574" t="s">
-        <v>309</v>
-      </c>
-      <c r="B574" t="s">
-        <v>112</v>
-      </c>
-      <c r="C574">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4" hidden="1">
-      <c r="A575" t="s">
-        <v>309</v>
-      </c>
-      <c r="B575" t="s">
+      <c r="C579">
+        <v>0</v>
+      </c>
+      <c r="D579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580" t="s">
+        <v>308</v>
+      </c>
+      <c r="B580" t="s">
+        <v>18</v>
+      </c>
+      <c r="C580">
+        <v>0</v>
+      </c>
+      <c r="D580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581" t="s">
+        <v>308</v>
+      </c>
+      <c r="B581" t="s">
         <v>316</v>
       </c>
-      <c r="C575">
-        <v>0</v>
-      </c>
-      <c r="D575">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4" hidden="1">
-      <c r="A576" t="s">
-        <v>309</v>
-      </c>
-      <c r="B576" t="s">
-        <v>18</v>
-      </c>
-      <c r="C576">
-        <v>0</v>
-      </c>
-      <c r="D576">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4" hidden="1">
-      <c r="A577" t="s">
-        <v>309</v>
-      </c>
-      <c r="B577" t="s">
+      <c r="C581">
+        <v>0</v>
+      </c>
+      <c r="D581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582" t="s">
+        <v>308</v>
+      </c>
+      <c r="B582" t="s">
         <v>317</v>
       </c>
-      <c r="C577">
-        <v>0</v>
-      </c>
-      <c r="D577">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="578" spans="1:4" hidden="1">
-      <c r="A578" t="s">
-        <v>309</v>
-      </c>
-      <c r="B578" t="s">
+      <c r="C582">
+        <v>0</v>
+      </c>
+      <c r="D582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583" t="s">
+        <v>308</v>
+      </c>
+      <c r="B583" t="s">
         <v>318</v>
       </c>
-      <c r="C578">
-        <v>0</v>
-      </c>
-      <c r="D578">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="579" spans="1:4" hidden="1">
-      <c r="A579" t="s">
-        <v>309</v>
-      </c>
-      <c r="B579" t="s">
+      <c r="C583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="A584" t="s">
+        <v>308</v>
+      </c>
+      <c r="B584" t="s">
+        <v>303</v>
+      </c>
+      <c r="C584">
+        <v>0</v>
+      </c>
+      <c r="D584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4">
+      <c r="A585" t="s">
+        <v>308</v>
+      </c>
+      <c r="B585" t="s">
         <v>319</v>
       </c>
-      <c r="C579">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="580" spans="1:4" hidden="1">
-      <c r="A580" t="s">
-        <v>309</v>
-      </c>
-      <c r="B580" t="s">
-        <v>304</v>
-      </c>
-      <c r="C580">
-        <v>0</v>
-      </c>
-      <c r="D580">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="581" spans="1:4" hidden="1">
-      <c r="A581" t="s">
-        <v>309</v>
-      </c>
-      <c r="B581" t="s">
+      <c r="C585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4">
+      <c r="A586" t="s">
+        <v>308</v>
+      </c>
+      <c r="B586" t="s">
         <v>320</v>
       </c>
-      <c r="C581">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582" spans="1:4" hidden="1">
-      <c r="A582" t="s">
-        <v>309</v>
-      </c>
-      <c r="B582" t="s">
+      <c r="C586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4">
+      <c r="A587" t="s">
+        <v>308</v>
+      </c>
+      <c r="B587" t="s">
         <v>321</v>
       </c>
-      <c r="C582">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4" hidden="1">
-      <c r="A583" t="s">
-        <v>309</v>
-      </c>
-      <c r="B583" t="s">
+      <c r="C587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4">
+      <c r="A588" t="s">
+        <v>308</v>
+      </c>
+      <c r="B588" t="s">
         <v>322</v>
       </c>
-      <c r="C583">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4" hidden="1">
-      <c r="A584" t="s">
-        <v>309</v>
-      </c>
-      <c r="B584" t="s">
+      <c r="C588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4">
+      <c r="A589" t="s">
+        <v>308</v>
+      </c>
+      <c r="B589" t="s">
         <v>323</v>
       </c>
-      <c r="C584">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="585" spans="1:4" hidden="1">
-      <c r="A585" t="s">
-        <v>309</v>
-      </c>
-      <c r="B585" t="s">
+      <c r="C589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4">
+      <c r="A590" t="s">
+        <v>308</v>
+      </c>
+      <c r="B590" t="s">
         <v>324</v>
       </c>
-      <c r="C585">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="586" spans="1:4" hidden="1">
-      <c r="A586" t="s">
-        <v>309</v>
-      </c>
-      <c r="B586" t="s">
+      <c r="C590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4">
+      <c r="A591" t="s">
+        <v>308</v>
+      </c>
+      <c r="B591" t="s">
         <v>325</v>
       </c>
-      <c r="C586">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="587" spans="1:4" hidden="1">
-      <c r="A587" t="s">
-        <v>309</v>
-      </c>
-      <c r="B587" t="s">
+      <c r="C591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4">
+      <c r="A592" t="s">
+        <v>308</v>
+      </c>
+      <c r="B592" t="s">
         <v>326</v>
       </c>
-      <c r="C587">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4" hidden="1">
-      <c r="A588" t="s">
-        <v>309</v>
-      </c>
-      <c r="B588" t="s">
+      <c r="C592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4">
+      <c r="A593" t="s">
+        <v>308</v>
+      </c>
+      <c r="B593" t="s">
         <v>327</v>
       </c>
-      <c r="C588">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4" hidden="1">
-      <c r="A589" t="s">
-        <v>309</v>
-      </c>
-      <c r="B589" t="s">
+      <c r="C593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4">
+      <c r="A594" t="s">
+        <v>308</v>
+      </c>
+      <c r="B594" t="s">
+        <v>51</v>
+      </c>
+      <c r="C594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4">
+      <c r="A595" t="s">
+        <v>308</v>
+      </c>
+      <c r="B595" t="s">
+        <v>52</v>
+      </c>
+      <c r="C595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4">
+      <c r="A596" t="s">
+        <v>308</v>
+      </c>
+      <c r="B596" t="s">
         <v>328</v>
       </c>
-      <c r="C589">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="590" spans="1:4" hidden="1">
-      <c r="A590" t="s">
-        <v>309</v>
-      </c>
-      <c r="B590" t="s">
-        <v>51</v>
-      </c>
-      <c r="C590">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="591" spans="1:4" hidden="1">
-      <c r="A591" t="s">
-        <v>309</v>
-      </c>
-      <c r="B591" t="s">
-        <v>52</v>
-      </c>
-      <c r="C591">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="592" spans="1:4" hidden="1">
-      <c r="A592" t="s">
-        <v>309</v>
-      </c>
-      <c r="B592" t="s">
+      <c r="C596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4">
+      <c r="A597" t="s">
+        <v>308</v>
+      </c>
+      <c r="B597" t="s">
         <v>329</v>
       </c>
-      <c r="C592">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="593" spans="1:4" hidden="1">
-      <c r="A593" t="s">
-        <v>309</v>
-      </c>
-      <c r="B593" t="s">
+      <c r="C597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4">
+      <c r="A598" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B598" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C593">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="594" spans="1:4" hidden="1">
-      <c r="A594" t="s">
-        <v>309</v>
-      </c>
-      <c r="B594" t="s">
-        <v>331</v>
-      </c>
-      <c r="C594">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="595" spans="1:4" hidden="1">
-      <c r="A595" t="s">
-        <v>309</v>
-      </c>
-      <c r="B595" t="s">
-        <v>332</v>
-      </c>
-      <c r="C595">
-        <v>0</v>
-      </c>
-      <c r="D595">
-        <v>1</v>
-      </c>
+      <c r="C598" s="1">
+        <v>0</v>
+      </c>
+      <c r="D598" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="350">
   <si>
     <t>TABELA</t>
   </si>
@@ -1036,6 +1036,36 @@
   </si>
   <si>
     <t>CD_TIPO_SITE</t>
+  </si>
+  <si>
+    <t>ln.ods.cap_titulo_reversao</t>
+  </si>
+  <si>
+    <t>CD_TRANSACAO_LINK</t>
+  </si>
+  <si>
+    <t>NR_DOCUMENTO_LINK</t>
+  </si>
+  <si>
+    <t>NR_LINHA_LINK</t>
+  </si>
+  <si>
+    <t>DT_LINK</t>
+  </si>
+  <si>
+    <t>VL_LINK</t>
+  </si>
+  <si>
+    <t>CD_TRANSACAO_REVERSAO</t>
+  </si>
+  <si>
+    <t>NR_DOCUMENTO_REVERSAO</t>
+  </si>
+  <si>
+    <t>NR_LINHA_REVERSAO</t>
+  </si>
+  <si>
+    <t>DT_REVERSAO</t>
   </si>
 </sst>
 </file>
@@ -1095,8 +1125,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D598" totalsRowShown="0">
-  <autoFilter ref="A1:D598">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D610" totalsRowShown="0">
+  <autoFilter ref="A1:D610">
     <filterColumn colId="0"/>
   </autoFilter>
   <tableColumns count="4">
@@ -1394,13 +1424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D598"/>
+  <dimension ref="A1:D610"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A586" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:C86"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
   </cols>
@@ -2317,21 +2349,18 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C75">
         <v>0</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -2342,7 +2371,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -2353,32 +2382,32 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>341</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>342</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>343</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2386,10 +2415,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>344</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2397,10 +2426,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>345</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2408,10 +2437,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>346</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2419,10 +2448,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2430,10 +2459,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="B85" t="s">
-        <v>68</v>
+        <v>348</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2441,10 +2470,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2455,10 +2484,13 @@
         <v>60</v>
       </c>
       <c r="B87" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C87">
         <v>0</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2466,10 +2498,10 @@
         <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2477,7 +2509,7 @@
         <v>60</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2488,10 +2520,10 @@
         <v>60</v>
       </c>
       <c r="B90" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2499,10 +2531,10 @@
         <v>60</v>
       </c>
       <c r="B91" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2510,7 +2542,7 @@
         <v>60</v>
       </c>
       <c r="B92" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2521,7 +2553,7 @@
         <v>60</v>
       </c>
       <c r="B93" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2532,7 +2564,7 @@
         <v>60</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2543,13 +2575,10 @@
         <v>60</v>
       </c>
       <c r="B95" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C95">
         <v>0</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2557,186 +2586,189 @@
         <v>60</v>
       </c>
       <c r="B96" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>60</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>60</v>
       </c>
       <c r="B98" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>60</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>60</v>
       </c>
       <c r="B100" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>60</v>
       </c>
       <c r="B101" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>60</v>
       </c>
       <c r="B102" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>60</v>
       </c>
       <c r="B103" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>60</v>
       </c>
       <c r="B104" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>60</v>
       </c>
       <c r="B105" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>60</v>
       </c>
       <c r="B106" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>60</v>
       </c>
       <c r="B107" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>60</v>
       </c>
       <c r="B108" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>60</v>
       </c>
       <c r="B109" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>60</v>
       </c>
       <c r="B110" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>60</v>
       </c>
       <c r="B111" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>60</v>
       </c>
       <c r="B112" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2747,7 +2779,7 @@
         <v>60</v>
       </c>
       <c r="B113" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2758,7 +2790,7 @@
         <v>60</v>
       </c>
       <c r="B114" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2769,7 +2801,7 @@
         <v>60</v>
       </c>
       <c r="B115" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2780,7 +2812,7 @@
         <v>60</v>
       </c>
       <c r="B116" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2791,7 +2823,7 @@
         <v>60</v>
       </c>
       <c r="B117" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2802,7 +2834,7 @@
         <v>60</v>
       </c>
       <c r="B118" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2813,7 +2845,7 @@
         <v>60</v>
       </c>
       <c r="B119" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2824,7 +2856,7 @@
         <v>60</v>
       </c>
       <c r="B120" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2835,7 +2867,7 @@
         <v>60</v>
       </c>
       <c r="B121" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2846,7 +2878,7 @@
         <v>60</v>
       </c>
       <c r="B122" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2857,7 +2889,7 @@
         <v>60</v>
       </c>
       <c r="B123" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2868,7 +2900,7 @@
         <v>60</v>
       </c>
       <c r="B124" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2879,7 +2911,7 @@
         <v>60</v>
       </c>
       <c r="B125" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2890,7 +2922,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2901,7 +2933,7 @@
         <v>60</v>
       </c>
       <c r="B127" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2912,186 +2944,183 @@
         <v>60</v>
       </c>
       <c r="B128" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>60</v>
       </c>
       <c r="B129" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>60</v>
       </c>
       <c r="B130" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>60</v>
       </c>
       <c r="B131" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>60</v>
       </c>
       <c r="B132" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>60</v>
       </c>
       <c r="B133" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>60</v>
       </c>
       <c r="B134" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>60</v>
       </c>
       <c r="B135" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>60</v>
       </c>
       <c r="B136" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>60</v>
       </c>
       <c r="B137" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>60</v>
       </c>
       <c r="B138" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>60</v>
       </c>
       <c r="B139" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>60</v>
       </c>
       <c r="B140" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>60</v>
       </c>
       <c r="B141" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>60</v>
       </c>
       <c r="B142" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>60</v>
       </c>
       <c r="B143" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>60</v>
       </c>
       <c r="B144" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3102,7 +3131,7 @@
         <v>60</v>
       </c>
       <c r="B145" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3113,7 +3142,7 @@
         <v>60</v>
       </c>
       <c r="B146" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3124,7 +3153,7 @@
         <v>60</v>
       </c>
       <c r="B147" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3135,7 +3164,7 @@
         <v>60</v>
       </c>
       <c r="B148" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3146,7 +3175,7 @@
         <v>60</v>
       </c>
       <c r="B149" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3157,9 +3186,12 @@
         <v>60</v>
       </c>
       <c r="B150" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
         <v>1</v>
       </c>
     </row>
@@ -3168,13 +3200,10 @@
         <v>60</v>
       </c>
       <c r="B151" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C151">
         <v>0</v>
-      </c>
-      <c r="D151">
-        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3182,7 +3211,7 @@
         <v>60</v>
       </c>
       <c r="B152" t="s">
-        <v>303</v>
+        <v>122</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3193,7 +3222,7 @@
         <v>60</v>
       </c>
       <c r="B153" t="s">
-        <v>316</v>
+        <v>123</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3204,7 +3233,7 @@
         <v>60</v>
       </c>
       <c r="B154" t="s">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3212,21 +3241,21 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3234,10 +3263,10 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B157" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3245,10 +3274,10 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B158" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3256,10 +3285,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B159" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3267,10 +3296,10 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B160" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3278,38 +3307,32 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="C161">
         <v>0</v>
-      </c>
-      <c r="D161">
-        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B162" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C162">
-        <v>0</v>
-      </c>
-      <c r="D162">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B163" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3320,38 +3343,32 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B164" t="s">
-        <v>137</v>
+        <v>303</v>
       </c>
       <c r="C164">
         <v>0</v>
-      </c>
-      <c r="D164">
-        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B165" t="s">
-        <v>138</v>
+        <v>316</v>
       </c>
       <c r="C165">
         <v>0</v>
-      </c>
-      <c r="D165">
-        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B166" t="s">
-        <v>63</v>
+        <v>334</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3362,10 +3379,10 @@
         <v>132</v>
       </c>
       <c r="B167" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3373,7 +3390,7 @@
         <v>132</v>
       </c>
       <c r="B168" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3384,7 +3401,7 @@
         <v>132</v>
       </c>
       <c r="B169" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3395,7 +3412,7 @@
         <v>132</v>
       </c>
       <c r="B170" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3406,13 +3423,10 @@
         <v>132</v>
       </c>
       <c r="B171" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C171">
         <v>0</v>
-      </c>
-      <c r="D171">
-        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3420,13 +3434,10 @@
         <v>132</v>
       </c>
       <c r="B172" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C172">
         <v>0</v>
-      </c>
-      <c r="D172">
-        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3434,7 +3445,7 @@
         <v>132</v>
       </c>
       <c r="B173" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3448,7 +3459,7 @@
         <v>132</v>
       </c>
       <c r="B174" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3462,7 +3473,7 @@
         <v>132</v>
       </c>
       <c r="B175" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3476,7 +3487,7 @@
         <v>132</v>
       </c>
       <c r="B176" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3490,7 +3501,7 @@
         <v>132</v>
       </c>
       <c r="B177" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3504,13 +3515,10 @@
         <v>132</v>
       </c>
       <c r="B178" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="C178">
         <v>0</v>
-      </c>
-      <c r="D178">
-        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3518,13 +3526,10 @@
         <v>132</v>
       </c>
       <c r="B179" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="C179">
         <v>0</v>
-      </c>
-      <c r="D179">
-        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3532,13 +3537,10 @@
         <v>132</v>
       </c>
       <c r="B180" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="C180">
         <v>0</v>
-      </c>
-      <c r="D180">
-        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3546,13 +3548,10 @@
         <v>132</v>
       </c>
       <c r="B181" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="C181">
         <v>0</v>
-      </c>
-      <c r="D181">
-        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3560,13 +3559,10 @@
         <v>132</v>
       </c>
       <c r="B182" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C182">
         <v>0</v>
-      </c>
-      <c r="D182">
-        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3574,7 +3570,7 @@
         <v>132</v>
       </c>
       <c r="B183" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3588,7 +3584,7 @@
         <v>132</v>
       </c>
       <c r="B184" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3602,7 +3598,7 @@
         <v>132</v>
       </c>
       <c r="B185" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3616,10 +3612,13 @@
         <v>132</v>
       </c>
       <c r="B186" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="C186">
         <v>0</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3627,7 +3626,7 @@
         <v>132</v>
       </c>
       <c r="B187" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3641,7 +3640,7 @@
         <v>132</v>
       </c>
       <c r="B188" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3655,7 +3654,7 @@
         <v>132</v>
       </c>
       <c r="B189" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3669,7 +3668,7 @@
         <v>132</v>
       </c>
       <c r="B190" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3683,10 +3682,13 @@
         <v>132</v>
       </c>
       <c r="B191" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C191">
         <v>0</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3694,10 +3696,13 @@
         <v>132</v>
       </c>
       <c r="B192" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="C192">
         <v>0</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3705,10 +3710,13 @@
         <v>132</v>
       </c>
       <c r="B193" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="C193">
         <v>0</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3716,7 +3724,7 @@
         <v>132</v>
       </c>
       <c r="B194" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3730,7 +3738,7 @@
         <v>132</v>
       </c>
       <c r="B195" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3744,7 +3752,7 @@
         <v>132</v>
       </c>
       <c r="B196" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3758,7 +3766,7 @@
         <v>132</v>
       </c>
       <c r="B197" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3772,13 +3780,10 @@
         <v>132</v>
       </c>
       <c r="B198" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C198">
         <v>0</v>
-      </c>
-      <c r="D198">
-        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3786,7 +3791,7 @@
         <v>132</v>
       </c>
       <c r="B199" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3800,7 +3805,7 @@
         <v>132</v>
       </c>
       <c r="B200" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3814,7 +3819,7 @@
         <v>132</v>
       </c>
       <c r="B201" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3828,7 +3833,7 @@
         <v>132</v>
       </c>
       <c r="B202" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -3842,13 +3847,10 @@
         <v>132</v>
       </c>
       <c r="B203" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C203">
         <v>0</v>
-      </c>
-      <c r="D203">
-        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3856,13 +3858,10 @@
         <v>132</v>
       </c>
       <c r="B204" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C204">
         <v>0</v>
-      </c>
-      <c r="D204">
-        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3870,13 +3869,10 @@
         <v>132</v>
       </c>
       <c r="B205" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C205">
         <v>0</v>
-      </c>
-      <c r="D205">
-        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3884,7 +3880,7 @@
         <v>132</v>
       </c>
       <c r="B206" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3898,10 +3894,13 @@
         <v>132</v>
       </c>
       <c r="B207" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="C207">
         <v>0</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3909,10 +3908,13 @@
         <v>132</v>
       </c>
       <c r="B208" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="C208">
         <v>0</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3920,10 +3922,13 @@
         <v>132</v>
       </c>
       <c r="B209" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="C209">
         <v>0</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3931,9 +3936,12 @@
         <v>132</v>
       </c>
       <c r="B210" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
         <v>1</v>
       </c>
     </row>
@@ -3942,40 +3950,49 @@
         <v>132</v>
       </c>
       <c r="B211" t="s">
-        <v>335</v>
+        <v>156</v>
       </c>
       <c r="C211">
         <v>0</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
         <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="C213">
         <v>0</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B214" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -3986,10 +4003,10 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B215" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -4000,105 +4017,99 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B216" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
         <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B217" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C217">
         <v>0</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B218" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C218">
         <v>0</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B219" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C219">
         <v>0</v>
-      </c>
-      <c r="D219">
-        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B220" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C220">
         <v>0</v>
-      </c>
-      <c r="D220">
-        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B221" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="C221">
         <v>0</v>
-      </c>
-      <c r="D221">
-        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B222" t="s">
-        <v>173</v>
+        <v>35</v>
       </c>
       <c r="C222">
-        <v>0</v>
-      </c>
-      <c r="D222">
         <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B223" t="s">
-        <v>174</v>
+        <v>335</v>
       </c>
       <c r="C223">
         <v>0</v>
-      </c>
-      <c r="D223">
-        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4106,12 +4117,9 @@
         <v>166</v>
       </c>
       <c r="B224" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="C224">
-        <v>0</v>
-      </c>
-      <c r="D224">
         <v>1</v>
       </c>
     </row>
@@ -4120,13 +4128,10 @@
         <v>166</v>
       </c>
       <c r="B225" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="C225">
         <v>0</v>
-      </c>
-      <c r="D225">
-        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4134,7 +4139,7 @@
         <v>166</v>
       </c>
       <c r="B226" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -4148,7 +4153,7 @@
         <v>166</v>
       </c>
       <c r="B227" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -4162,12 +4167,9 @@
         <v>166</v>
       </c>
       <c r="B228" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C228">
-        <v>0</v>
-      </c>
-      <c r="D228">
         <v>1</v>
       </c>
     </row>
@@ -4176,13 +4178,10 @@
         <v>166</v>
       </c>
       <c r="B229" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C229">
         <v>0</v>
-      </c>
-      <c r="D229">
-        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4190,13 +4189,10 @@
         <v>166</v>
       </c>
       <c r="B230" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="C230">
         <v>0</v>
-      </c>
-      <c r="D230">
-        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4204,7 +4200,7 @@
         <v>166</v>
       </c>
       <c r="B231" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -4218,7 +4214,7 @@
         <v>166</v>
       </c>
       <c r="B232" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -4232,7 +4228,7 @@
         <v>166</v>
       </c>
       <c r="B233" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -4246,7 +4242,7 @@
         <v>166</v>
       </c>
       <c r="B234" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -4260,7 +4256,7 @@
         <v>166</v>
       </c>
       <c r="B235" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -4274,7 +4270,7 @@
         <v>166</v>
       </c>
       <c r="B236" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -4288,7 +4284,7 @@
         <v>166</v>
       </c>
       <c r="B237" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -4302,7 +4298,7 @@
         <v>166</v>
       </c>
       <c r="B238" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -4316,7 +4312,7 @@
         <v>166</v>
       </c>
       <c r="B239" t="s">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -4330,7 +4326,7 @@
         <v>166</v>
       </c>
       <c r="B240" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -4344,10 +4340,13 @@
         <v>166</v>
       </c>
       <c r="B241" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C241">
         <v>0</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4355,10 +4354,13 @@
         <v>166</v>
       </c>
       <c r="B242" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="C242">
         <v>0</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4366,7 +4368,7 @@
         <v>166</v>
       </c>
       <c r="B243" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4380,7 +4382,7 @@
         <v>166</v>
       </c>
       <c r="B244" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -4394,7 +4396,7 @@
         <v>166</v>
       </c>
       <c r="B245" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -4408,7 +4410,7 @@
         <v>166</v>
       </c>
       <c r="B246" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -4422,7 +4424,7 @@
         <v>166</v>
       </c>
       <c r="B247" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -4436,7 +4438,7 @@
         <v>166</v>
       </c>
       <c r="B248" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -4450,7 +4452,7 @@
         <v>166</v>
       </c>
       <c r="B249" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -4464,7 +4466,7 @@
         <v>166</v>
       </c>
       <c r="B250" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -4478,7 +4480,7 @@
         <v>166</v>
       </c>
       <c r="B251" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -4492,7 +4494,7 @@
         <v>166</v>
       </c>
       <c r="B252" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -4506,13 +4508,10 @@
         <v>166</v>
       </c>
       <c r="B253" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="C253">
         <v>0</v>
-      </c>
-      <c r="D253">
-        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4520,13 +4519,10 @@
         <v>166</v>
       </c>
       <c r="B254" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="C254">
         <v>0</v>
-      </c>
-      <c r="D254">
-        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4534,7 +4530,7 @@
         <v>166</v>
       </c>
       <c r="B255" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -4548,7 +4544,7 @@
         <v>166</v>
       </c>
       <c r="B256" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -4562,7 +4558,7 @@
         <v>166</v>
       </c>
       <c r="B257" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -4576,7 +4572,7 @@
         <v>166</v>
       </c>
       <c r="B258" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -4590,7 +4586,7 @@
         <v>166</v>
       </c>
       <c r="B259" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -4604,7 +4600,7 @@
         <v>166</v>
       </c>
       <c r="B260" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -4618,7 +4614,7 @@
         <v>166</v>
       </c>
       <c r="B261" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -4632,7 +4628,7 @@
         <v>166</v>
       </c>
       <c r="B262" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -4646,7 +4642,7 @@
         <v>166</v>
       </c>
       <c r="B263" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -4660,7 +4656,7 @@
         <v>166</v>
       </c>
       <c r="B264" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -4674,7 +4670,7 @@
         <v>166</v>
       </c>
       <c r="B265" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -4688,7 +4684,7 @@
         <v>166</v>
       </c>
       <c r="B266" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -4702,10 +4698,13 @@
         <v>166</v>
       </c>
       <c r="B267" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C267">
         <v>0</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4713,10 +4712,13 @@
         <v>166</v>
       </c>
       <c r="B268" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="C268">
         <v>0</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4724,10 +4726,13 @@
         <v>166</v>
       </c>
       <c r="B269" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="C269">
         <v>0</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4735,7 +4740,7 @@
         <v>166</v>
       </c>
       <c r="B270" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -4749,7 +4754,7 @@
         <v>166</v>
       </c>
       <c r="B271" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -4763,7 +4768,7 @@
         <v>166</v>
       </c>
       <c r="B272" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -4777,7 +4782,7 @@
         <v>166</v>
       </c>
       <c r="B273" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -4791,7 +4796,7 @@
         <v>166</v>
       </c>
       <c r="B274" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -4805,7 +4810,7 @@
         <v>166</v>
       </c>
       <c r="B275" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -4819,7 +4824,7 @@
         <v>166</v>
       </c>
       <c r="B276" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -4833,7 +4838,7 @@
         <v>166</v>
       </c>
       <c r="B277" t="s">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -4847,7 +4852,7 @@
         <v>166</v>
       </c>
       <c r="B278" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -4861,13 +4866,10 @@
         <v>166</v>
       </c>
       <c r="B279" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="C279">
         <v>0</v>
-      </c>
-      <c r="D279">
-        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4875,13 +4877,10 @@
         <v>166</v>
       </c>
       <c r="B280" t="s">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="C280">
         <v>0</v>
-      </c>
-      <c r="D280">
-        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4889,7 +4888,7 @@
         <v>166</v>
       </c>
       <c r="B281" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -4900,10 +4899,13 @@
         <v>166</v>
       </c>
       <c r="B282" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="C282">
         <v>0</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4911,9 +4913,12 @@
         <v>166</v>
       </c>
       <c r="B283" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
         <v>1</v>
       </c>
     </row>
@@ -4922,10 +4927,13 @@
         <v>166</v>
       </c>
       <c r="B284" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C284">
         <v>0</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4933,10 +4941,13 @@
         <v>166</v>
       </c>
       <c r="B285" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="C285">
         <v>0</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4944,7 +4955,7 @@
         <v>166</v>
       </c>
       <c r="B286" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -4955,32 +4966,38 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B287" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
         <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B288" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="C288">
         <v>0</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B289" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -4991,10 +5008,10 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B290" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -5005,32 +5022,38 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B291" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="C291">
         <v>0</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B292" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="C292">
         <v>0</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B293" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -5038,10 +5061,10 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B294" t="s">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -5049,21 +5072,21 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B295" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="C295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B296" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -5071,10 +5094,10 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B297" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -5082,10 +5105,10 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B298" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -5099,12 +5122,9 @@
         <v>199</v>
       </c>
       <c r="B299" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C299">
-        <v>0</v>
-      </c>
-      <c r="D299">
         <v>1</v>
       </c>
     </row>
@@ -5113,13 +5133,10 @@
         <v>199</v>
       </c>
       <c r="B300" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="C300">
         <v>0</v>
-      </c>
-      <c r="D300">
-        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5127,10 +5144,13 @@
         <v>199</v>
       </c>
       <c r="B301" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C301">
         <v>0</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5138,10 +5158,13 @@
         <v>199</v>
       </c>
       <c r="B302" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C302">
         <v>0</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5149,7 +5172,7 @@
         <v>199</v>
       </c>
       <c r="B303" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -5160,7 +5183,7 @@
         <v>199</v>
       </c>
       <c r="B304" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -5171,7 +5194,7 @@
         <v>199</v>
       </c>
       <c r="B305" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -5182,7 +5205,7 @@
         <v>199</v>
       </c>
       <c r="B306" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -5193,7 +5216,7 @@
         <v>199</v>
       </c>
       <c r="B307" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -5204,7 +5227,7 @@
         <v>199</v>
       </c>
       <c r="B308" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -5215,7 +5238,7 @@
         <v>199</v>
       </c>
       <c r="B309" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -5226,10 +5249,13 @@
         <v>199</v>
       </c>
       <c r="B310" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="C310">
         <v>0</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -5237,10 +5263,13 @@
         <v>199</v>
       </c>
       <c r="B311" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C311">
         <v>0</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -5248,10 +5277,13 @@
         <v>199</v>
       </c>
       <c r="B312" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C312">
         <v>0</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -5259,7 +5291,7 @@
         <v>199</v>
       </c>
       <c r="B313" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -5270,7 +5302,7 @@
         <v>199</v>
       </c>
       <c r="B314" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -5281,13 +5313,10 @@
         <v>199</v>
       </c>
       <c r="B315" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="C315">
         <v>0</v>
-      </c>
-      <c r="D315">
-        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -5295,13 +5324,10 @@
         <v>199</v>
       </c>
       <c r="B316" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C316">
         <v>0</v>
-      </c>
-      <c r="D316">
-        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -5309,7 +5335,7 @@
         <v>199</v>
       </c>
       <c r="B317" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -5320,7 +5346,7 @@
         <v>199</v>
       </c>
       <c r="B318" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -5331,7 +5357,7 @@
         <v>199</v>
       </c>
       <c r="B319" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -5342,7 +5368,7 @@
         <v>199</v>
       </c>
       <c r="B320" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -5353,7 +5379,7 @@
         <v>199</v>
       </c>
       <c r="B321" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -5364,7 +5390,7 @@
         <v>199</v>
       </c>
       <c r="B322" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -5375,7 +5401,7 @@
         <v>199</v>
       </c>
       <c r="B323" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -5386,7 +5412,7 @@
         <v>199</v>
       </c>
       <c r="B324" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -5397,7 +5423,7 @@
         <v>199</v>
       </c>
       <c r="B325" t="s">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -5408,7 +5434,7 @@
         <v>199</v>
       </c>
       <c r="B326" t="s">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="C326">
         <v>0</v>
@@ -5419,7 +5445,7 @@
         <v>199</v>
       </c>
       <c r="B327" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -5433,10 +5459,13 @@
         <v>199</v>
       </c>
       <c r="B328" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="C328">
         <v>0</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -5444,7 +5473,7 @@
         <v>199</v>
       </c>
       <c r="B329" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -5455,29 +5484,29 @@
         <v>199</v>
       </c>
       <c r="B330" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B331" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B332" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -5485,49 +5514,43 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B333" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C333">
         <v>0</v>
-      </c>
-      <c r="D333">
-        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B334" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="C334">
         <v>0</v>
-      </c>
-      <c r="D334">
-        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B335" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="C335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B336" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -5535,10 +5558,10 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B337" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -5546,10 +5569,10 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B338" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C338">
         <v>0</v>
@@ -5557,21 +5580,24 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B339" t="s">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="C339">
         <v>0</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B340" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -5579,10 +5605,10 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B341" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -5590,13 +5616,13 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B342" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="C342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5604,10 +5630,10 @@
         <v>205</v>
       </c>
       <c r="B343" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="C343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5615,7 +5641,7 @@
         <v>205</v>
       </c>
       <c r="B344" t="s">
-        <v>202</v>
+        <v>6</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -5626,10 +5652,13 @@
         <v>205</v>
       </c>
       <c r="B345" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C345">
         <v>0</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5637,10 +5666,13 @@
         <v>205</v>
       </c>
       <c r="B346" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="C346">
         <v>0</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5648,10 +5680,10 @@
         <v>205</v>
       </c>
       <c r="B347" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5659,7 +5691,7 @@
         <v>205</v>
       </c>
       <c r="B348" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -5670,13 +5702,10 @@
         <v>205</v>
       </c>
       <c r="B349" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C349">
         <v>0</v>
-      </c>
-      <c r="D349">
-        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5684,7 +5713,7 @@
         <v>205</v>
       </c>
       <c r="B350" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -5695,7 +5724,7 @@
         <v>205</v>
       </c>
       <c r="B351" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -5706,410 +5735,395 @@
         <v>205</v>
       </c>
       <c r="B352" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C352">
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:4">
       <c r="A353" t="s">
         <v>205</v>
       </c>
       <c r="B353" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="C353">
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:4">
       <c r="A354" t="s">
         <v>205</v>
       </c>
       <c r="B354" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C354">
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:4">
       <c r="A355" t="s">
         <v>205</v>
       </c>
       <c r="B355" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C355">
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:4">
       <c r="A356" t="s">
         <v>205</v>
       </c>
       <c r="B356" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="C356">
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:4">
       <c r="A357" t="s">
         <v>205</v>
       </c>
       <c r="B357" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C357">
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:4">
       <c r="A358" t="s">
         <v>205</v>
       </c>
       <c r="B358" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="C358">
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:4">
       <c r="A359" t="s">
         <v>205</v>
       </c>
       <c r="B359" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C359">
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:4">
       <c r="A360" t="s">
         <v>205</v>
       </c>
       <c r="B360" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C360">
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:4">
       <c r="A361" t="s">
         <v>205</v>
       </c>
       <c r="B361" t="s">
-        <v>101</v>
+        <v>208</v>
       </c>
       <c r="C361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:3">
+      <c r="D361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
       <c r="A362" t="s">
         <v>205</v>
       </c>
       <c r="B362" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C362">
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:4">
       <c r="A363" t="s">
         <v>205</v>
       </c>
       <c r="B363" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C363">
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:4">
       <c r="A364" t="s">
         <v>205</v>
       </c>
       <c r="B364" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C364">
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:4">
       <c r="A365" t="s">
         <v>205</v>
       </c>
       <c r="B365" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C365">
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:4">
       <c r="A366" t="s">
         <v>205</v>
       </c>
       <c r="B366" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C366">
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:4">
       <c r="A367" t="s">
         <v>205</v>
       </c>
       <c r="B367" t="s">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c r="C367">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
       <c r="A368" t="s">
         <v>205</v>
       </c>
       <c r="B368" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C368">
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:3">
       <c r="A369" t="s">
         <v>205</v>
       </c>
       <c r="B369" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="C369">
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:3">
       <c r="A370" t="s">
         <v>205</v>
       </c>
       <c r="B370" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="C370">
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:3">
       <c r="A371" t="s">
         <v>205</v>
       </c>
       <c r="B371" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="C371">
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:3">
       <c r="A372" t="s">
         <v>205</v>
       </c>
       <c r="B372" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="C372">
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:3">
       <c r="A373" t="s">
         <v>205</v>
       </c>
       <c r="B373" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="C373">
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:3">
       <c r="A374" t="s">
         <v>205</v>
       </c>
       <c r="B374" t="s">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="C374">
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:3">
       <c r="A375" t="s">
         <v>205</v>
       </c>
       <c r="B375" t="s">
-        <v>204</v>
+        <v>103</v>
       </c>
       <c r="C375">
         <v>0</v>
       </c>
-      <c r="D375">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
+    </row>
+    <row r="376" spans="1:3">
       <c r="A376" t="s">
         <v>205</v>
       </c>
       <c r="B376" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="C376">
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:3">
       <c r="A377" t="s">
         <v>205</v>
       </c>
       <c r="B377" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C377">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
       <c r="A378" t="s">
         <v>205</v>
       </c>
       <c r="B378" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C378">
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:3">
       <c r="A379" t="s">
         <v>205</v>
       </c>
       <c r="B379" t="s">
-        <v>118</v>
+        <v>209</v>
       </c>
       <c r="C379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B380" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C380">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B381" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C381">
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B382" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="C382">
         <v>0</v>
       </c>
-      <c r="D382">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
+    </row>
+    <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B383" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="C383">
         <v>0</v>
       </c>
-      <c r="D383">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
+    </row>
+    <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B384" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="C384">
         <v>0</v>
-      </c>
-      <c r="D384">
-        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B385" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="C385">
         <v>0</v>
-      </c>
-      <c r="D385">
-        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B386" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C386">
         <v>0</v>
-      </c>
-      <c r="D386">
-        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B387" t="s">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="C387">
         <v>0</v>
@@ -6120,38 +6134,32 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B388" t="s">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="C388">
         <v>0</v>
-      </c>
-      <c r="D388">
-        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B389" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="C389">
-        <v>0</v>
-      </c>
-      <c r="D389">
         <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B390" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="C390">
         <v>0</v>
@@ -6159,18 +6167,18 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B391" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="C391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B392" t="s">
         <v>5</v>
@@ -6181,7 +6189,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B393" t="s">
         <v>6</v>
@@ -6192,32 +6200,38 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B394" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="C394">
+        <v>0</v>
+      </c>
+      <c r="D394">
         <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B395" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="C395">
         <v>0</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B396" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -6228,10 +6242,10 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B397" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -6242,10 +6256,10 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B398" t="s">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -6256,10 +6270,10 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B399" t="s">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -6270,10 +6284,10 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B400" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -6284,38 +6298,38 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B401" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C401">
         <v>0</v>
+      </c>
+      <c r="D401">
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B402" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="C402">
         <v>0</v>
-      </c>
-      <c r="D402">
-        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B403" t="s">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="C403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6323,12 +6337,9 @@
         <v>217</v>
       </c>
       <c r="B404" t="s">
-        <v>222</v>
+        <v>5</v>
       </c>
       <c r="C404">
-        <v>0</v>
-      </c>
-      <c r="D404">
         <v>1</v>
       </c>
     </row>
@@ -6337,13 +6348,10 @@
         <v>217</v>
       </c>
       <c r="B405" t="s">
-        <v>223</v>
+        <v>6</v>
       </c>
       <c r="C405">
         <v>0</v>
-      </c>
-      <c r="D405">
-        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6351,12 +6359,9 @@
         <v>217</v>
       </c>
       <c r="B406" t="s">
-        <v>224</v>
+        <v>25</v>
       </c>
       <c r="C406">
-        <v>0</v>
-      </c>
-      <c r="D406">
         <v>1</v>
       </c>
     </row>
@@ -6365,13 +6370,10 @@
         <v>217</v>
       </c>
       <c r="B407" t="s">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="C407">
         <v>0</v>
-      </c>
-      <c r="D407">
-        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6379,7 +6381,7 @@
         <v>217</v>
       </c>
       <c r="B408" t="s">
-        <v>226</v>
+        <v>63</v>
       </c>
       <c r="C408">
         <v>0</v>
@@ -6393,7 +6395,7 @@
         <v>217</v>
       </c>
       <c r="B409" t="s">
-        <v>227</v>
+        <v>64</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -6407,7 +6409,7 @@
         <v>217</v>
       </c>
       <c r="B410" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -6421,7 +6423,7 @@
         <v>217</v>
       </c>
       <c r="B411" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -6435,10 +6437,13 @@
         <v>217</v>
       </c>
       <c r="B412" t="s">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="C412">
         <v>0</v>
+      </c>
+      <c r="D412">
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6446,7 +6451,7 @@
         <v>217</v>
       </c>
       <c r="B413" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -6457,7 +6462,7 @@
         <v>217</v>
       </c>
       <c r="B414" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="C414">
         <v>0</v>
@@ -6471,13 +6476,10 @@
         <v>217</v>
       </c>
       <c r="B415" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C415">
         <v>0</v>
-      </c>
-      <c r="D415">
-        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6485,7 +6487,7 @@
         <v>217</v>
       </c>
       <c r="B416" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="C416">
         <v>0</v>
@@ -6499,10 +6501,13 @@
         <v>217</v>
       </c>
       <c r="B417" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C417">
         <v>0</v>
+      </c>
+      <c r="D417">
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6510,10 +6515,13 @@
         <v>217</v>
       </c>
       <c r="B418" t="s">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="C418">
         <v>0</v>
+      </c>
+      <c r="D418">
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -6521,7 +6529,7 @@
         <v>217</v>
       </c>
       <c r="B419" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -6535,7 +6543,7 @@
         <v>217</v>
       </c>
       <c r="B420" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -6549,10 +6557,13 @@
         <v>217</v>
       </c>
       <c r="B421" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="C421">
         <v>0</v>
+      </c>
+      <c r="D421">
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -6560,10 +6571,13 @@
         <v>217</v>
       </c>
       <c r="B422" t="s">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c r="C422">
         <v>0</v>
+      </c>
+      <c r="D422">
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -6571,7 +6585,7 @@
         <v>217</v>
       </c>
       <c r="B423" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -6582,93 +6596,96 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B424" t="s">
-        <v>5</v>
+        <v>229</v>
       </c>
       <c r="C424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B425" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="C425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B426" t="s">
-        <v>181</v>
+        <v>85</v>
       </c>
       <c r="C426">
         <v>0</v>
+      </c>
+      <c r="D426">
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B427" t="s">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="C427">
+        <v>0</v>
+      </c>
+      <c r="D427">
         <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B428" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="C428">
         <v>0</v>
+      </c>
+      <c r="D428">
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B429" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C429">
         <v>0</v>
-      </c>
-      <c r="D429">
-        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B430" t="s">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="C430">
         <v>0</v>
-      </c>
-      <c r="D430">
-        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B431" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -6679,10 +6696,10 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B432" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C432">
         <v>0</v>
@@ -6693,38 +6710,32 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B433" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="C433">
         <v>0</v>
-      </c>
-      <c r="D433">
-        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B434" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C434">
         <v>0</v>
-      </c>
-      <c r="D434">
-        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B435" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -6738,12 +6749,9 @@
         <v>237</v>
       </c>
       <c r="B436" t="s">
-        <v>245</v>
+        <v>5</v>
       </c>
       <c r="C436">
-        <v>0</v>
-      </c>
-      <c r="D436">
         <v>1</v>
       </c>
     </row>
@@ -6752,12 +6760,9 @@
         <v>237</v>
       </c>
       <c r="B437" t="s">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c r="C437">
-        <v>0</v>
-      </c>
-      <c r="D437">
         <v>1</v>
       </c>
     </row>
@@ -6766,13 +6771,10 @@
         <v>237</v>
       </c>
       <c r="B438" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="C438">
         <v>0</v>
-      </c>
-      <c r="D438">
-        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -6780,12 +6782,9 @@
         <v>237</v>
       </c>
       <c r="B439" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C439">
-        <v>0</v>
-      </c>
-      <c r="D439">
         <v>1</v>
       </c>
     </row>
@@ -6794,13 +6793,10 @@
         <v>237</v>
       </c>
       <c r="B440" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C440">
         <v>0</v>
-      </c>
-      <c r="D440">
-        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6808,7 +6804,7 @@
         <v>237</v>
       </c>
       <c r="B441" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="C441">
         <v>0</v>
@@ -6822,7 +6818,7 @@
         <v>237</v>
       </c>
       <c r="B442" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C442">
         <v>0</v>
@@ -6836,7 +6832,7 @@
         <v>237</v>
       </c>
       <c r="B443" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="C443">
         <v>0</v>
@@ -6850,10 +6846,13 @@
         <v>237</v>
       </c>
       <c r="B444" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="C444">
         <v>0</v>
+      </c>
+      <c r="D444">
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -6861,10 +6860,13 @@
         <v>237</v>
       </c>
       <c r="B445" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="C445">
         <v>0</v>
+      </c>
+      <c r="D445">
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -6872,18 +6874,21 @@
         <v>237</v>
       </c>
       <c r="B446" t="s">
-        <v>64</v>
+        <v>243</v>
       </c>
       <c r="C446">
         <v>0</v>
+      </c>
+      <c r="D446">
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B447" t="s">
-        <v>33</v>
+        <v>244</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -6894,98 +6899,122 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B448" t="s">
-        <v>5</v>
+        <v>245</v>
       </c>
       <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448">
         <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B449" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449">
         <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B450" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C450">
         <v>0</v>
+      </c>
+      <c r="D450">
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B451" t="s">
-        <v>251</v>
+        <v>33</v>
       </c>
       <c r="C451">
         <v>0</v>
+      </c>
+      <c r="D451">
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B452" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C452">
         <v>0</v>
+      </c>
+      <c r="D452">
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B453" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C453">
         <v>0</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B454" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C454">
         <v>0</v>
+      </c>
+      <c r="D454">
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B455" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="C455">
+        <v>0</v>
+      </c>
+      <c r="D455">
         <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B456" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -6993,10 +7022,10 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B457" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -7004,10 +7033,10 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B458" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -7018,10 +7047,13 @@
         <v>249</v>
       </c>
       <c r="B459" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C459">
         <v>0</v>
+      </c>
+      <c r="D459">
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -7029,10 +7061,10 @@
         <v>249</v>
       </c>
       <c r="B460" t="s">
-        <v>254</v>
+        <v>5</v>
       </c>
       <c r="C460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -7040,12 +7072,9 @@
         <v>249</v>
       </c>
       <c r="B461" t="s">
-        <v>225</v>
+        <v>71</v>
       </c>
       <c r="C461">
-        <v>0</v>
-      </c>
-      <c r="D461">
         <v>1</v>
       </c>
     </row>
@@ -7054,13 +7083,10 @@
         <v>249</v>
       </c>
       <c r="B462" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C462">
         <v>0</v>
-      </c>
-      <c r="D462">
-        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -7068,13 +7094,10 @@
         <v>249</v>
       </c>
       <c r="B463" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C463">
         <v>0</v>
-      </c>
-      <c r="D463">
-        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -7082,13 +7105,10 @@
         <v>249</v>
       </c>
       <c r="B464" t="s">
-        <v>86</v>
+        <v>252</v>
       </c>
       <c r="C464">
         <v>0</v>
-      </c>
-      <c r="D464">
-        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -7096,7 +7116,7 @@
         <v>249</v>
       </c>
       <c r="B465" t="s">
-        <v>256</v>
+        <v>112</v>
       </c>
       <c r="C465">
         <v>0</v>
@@ -7107,7 +7127,7 @@
         <v>249</v>
       </c>
       <c r="B466" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C466">
         <v>0</v>
@@ -7118,10 +7138,10 @@
         <v>249</v>
       </c>
       <c r="B467" t="s">
-        <v>258</v>
+        <v>70</v>
       </c>
       <c r="C467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -7129,13 +7149,10 @@
         <v>249</v>
       </c>
       <c r="B468" t="s">
-        <v>259</v>
+        <v>116</v>
       </c>
       <c r="C468">
         <v>0</v>
-      </c>
-      <c r="D468">
-        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -7143,13 +7160,10 @@
         <v>249</v>
       </c>
       <c r="B469" t="s">
-        <v>260</v>
+        <v>6</v>
       </c>
       <c r="C469">
         <v>0</v>
-      </c>
-      <c r="D469">
-        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -7157,7 +7171,7 @@
         <v>249</v>
       </c>
       <c r="B470" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="C470">
         <v>0</v>
@@ -7168,7 +7182,7 @@
         <v>249</v>
       </c>
       <c r="B471" t="s">
-        <v>261</v>
+        <v>64</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -7179,7 +7193,7 @@
         <v>249</v>
       </c>
       <c r="B472" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="C472">
         <v>0</v>
@@ -7190,10 +7204,13 @@
         <v>249</v>
       </c>
       <c r="B473" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="C473">
         <v>0</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -7201,10 +7218,13 @@
         <v>249</v>
       </c>
       <c r="B474" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="C474">
         <v>0</v>
+      </c>
+      <c r="D474">
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7212,10 +7232,13 @@
         <v>249</v>
       </c>
       <c r="B475" t="s">
-        <v>110</v>
+        <v>255</v>
       </c>
       <c r="C475">
         <v>0</v>
+      </c>
+      <c r="D475">
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7223,10 +7246,13 @@
         <v>249</v>
       </c>
       <c r="B476" t="s">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="C476">
         <v>0</v>
+      </c>
+      <c r="D476">
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7234,7 +7260,7 @@
         <v>249</v>
       </c>
       <c r="B477" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -7245,7 +7271,7 @@
         <v>249</v>
       </c>
       <c r="B478" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C478">
         <v>0</v>
@@ -7256,7 +7282,7 @@
         <v>249</v>
       </c>
       <c r="B479" t="s">
-        <v>126</v>
+        <v>258</v>
       </c>
       <c r="C479">
         <v>0</v>
@@ -7267,10 +7293,13 @@
         <v>249</v>
       </c>
       <c r="B480" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C480">
         <v>0</v>
+      </c>
+      <c r="D480">
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7278,10 +7307,13 @@
         <v>249</v>
       </c>
       <c r="B481" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C481">
         <v>0</v>
+      </c>
+      <c r="D481">
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7289,13 +7321,10 @@
         <v>249</v>
       </c>
       <c r="B482" t="s">
-        <v>269</v>
+        <v>109</v>
       </c>
       <c r="C482">
         <v>0</v>
-      </c>
-      <c r="D482">
-        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7303,13 +7332,10 @@
         <v>249</v>
       </c>
       <c r="B483" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C483">
         <v>0</v>
-      </c>
-      <c r="D483">
-        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7317,7 +7343,7 @@
         <v>249</v>
       </c>
       <c r="B484" t="s">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="C484">
         <v>0</v>
@@ -7328,7 +7354,7 @@
         <v>249</v>
       </c>
       <c r="B485" t="s">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="C485">
         <v>0</v>
@@ -7339,7 +7365,7 @@
         <v>249</v>
       </c>
       <c r="B486" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C486">
         <v>0</v>
@@ -7350,13 +7376,10 @@
         <v>249</v>
       </c>
       <c r="B487" t="s">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="C487">
         <v>0</v>
-      </c>
-      <c r="D487">
-        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7364,7 +7387,7 @@
         <v>249</v>
       </c>
       <c r="B488" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C488">
         <v>0</v>
@@ -7375,7 +7398,7 @@
         <v>249</v>
       </c>
       <c r="B489" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -7386,7 +7409,7 @@
         <v>249</v>
       </c>
       <c r="B490" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C490">
         <v>0</v>
@@ -7397,7 +7420,7 @@
         <v>249</v>
       </c>
       <c r="B491" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C491">
         <v>0</v>
@@ -7408,7 +7431,7 @@
         <v>249</v>
       </c>
       <c r="B492" t="s">
-        <v>125</v>
+        <v>267</v>
       </c>
       <c r="C492">
         <v>0</v>
@@ -7419,7 +7442,7 @@
         <v>249</v>
       </c>
       <c r="B493" t="s">
-        <v>119</v>
+        <v>268</v>
       </c>
       <c r="C493">
         <v>0</v>
@@ -7430,10 +7453,13 @@
         <v>249</v>
       </c>
       <c r="B494" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C494">
         <v>0</v>
+      </c>
+      <c r="D494">
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7441,7 +7467,7 @@
         <v>249</v>
       </c>
       <c r="B495" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C495">
         <v>0</v>
@@ -7455,393 +7481,390 @@
         <v>249</v>
       </c>
       <c r="B496" t="s">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="C496">
         <v>0</v>
       </c>
-      <c r="D496">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3">
+    </row>
+    <row r="497" spans="1:4">
       <c r="A497" t="s">
         <v>249</v>
       </c>
       <c r="B497" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C497">
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:4">
       <c r="A498" t="s">
         <v>249</v>
       </c>
       <c r="B498" t="s">
+        <v>271</v>
+      </c>
+      <c r="C498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" t="s">
+        <v>249</v>
+      </c>
+      <c r="B499" t="s">
+        <v>272</v>
+      </c>
+      <c r="C499">
+        <v>0</v>
+      </c>
+      <c r="D499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" t="s">
+        <v>249</v>
+      </c>
+      <c r="B500" t="s">
+        <v>273</v>
+      </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" t="s">
+        <v>249</v>
+      </c>
+      <c r="B501" t="s">
+        <v>274</v>
+      </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" t="s">
+        <v>249</v>
+      </c>
+      <c r="B502" t="s">
+        <v>275</v>
+      </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" t="s">
+        <v>249</v>
+      </c>
+      <c r="B503" t="s">
+        <v>124</v>
+      </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" t="s">
+        <v>249</v>
+      </c>
+      <c r="B504" t="s">
+        <v>125</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" t="s">
+        <v>249</v>
+      </c>
+      <c r="B505" t="s">
+        <v>119</v>
+      </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" t="s">
+        <v>249</v>
+      </c>
+      <c r="B506" t="s">
+        <v>276</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" t="s">
+        <v>249</v>
+      </c>
+      <c r="B507" t="s">
+        <v>277</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+      <c r="D507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" t="s">
+        <v>249</v>
+      </c>
+      <c r="B508" t="s">
+        <v>278</v>
+      </c>
+      <c r="C508">
+        <v>0</v>
+      </c>
+      <c r="D508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" t="s">
+        <v>249</v>
+      </c>
+      <c r="B509" t="s">
+        <v>34</v>
+      </c>
+      <c r="C509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" t="s">
+        <v>249</v>
+      </c>
+      <c r="B510" t="s">
         <v>339</v>
       </c>
-      <c r="C498">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3">
-      <c r="A499" t="s">
-        <v>279</v>
-      </c>
-      <c r="B499" t="s">
-        <v>5</v>
-      </c>
-      <c r="C499">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3">
-      <c r="A500" t="s">
-        <v>279</v>
-      </c>
-      <c r="B500" t="s">
-        <v>69</v>
-      </c>
-      <c r="C500">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3">
-      <c r="A501" t="s">
-        <v>279</v>
-      </c>
-      <c r="B501" t="s">
-        <v>70</v>
-      </c>
-      <c r="C501">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3">
-      <c r="A502" t="s">
-        <v>279</v>
-      </c>
-      <c r="B502" t="s">
-        <v>71</v>
-      </c>
-      <c r="C502">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3">
-      <c r="A503" t="s">
-        <v>279</v>
-      </c>
-      <c r="B503" t="s">
-        <v>66</v>
-      </c>
-      <c r="C503">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3">
-      <c r="A504" t="s">
-        <v>279</v>
-      </c>
-      <c r="B504" t="s">
-        <v>280</v>
-      </c>
-      <c r="C504">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3">
-      <c r="A505" t="s">
-        <v>279</v>
-      </c>
-      <c r="B505" t="s">
-        <v>109</v>
-      </c>
-      <c r="C505">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3">
-      <c r="A506" t="s">
-        <v>279</v>
-      </c>
-      <c r="B506" t="s">
-        <v>261</v>
-      </c>
-      <c r="C506">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3">
-      <c r="A507" t="s">
-        <v>279</v>
-      </c>
-      <c r="B507" t="s">
-        <v>281</v>
-      </c>
-      <c r="C507">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3">
-      <c r="A508" t="s">
-        <v>279</v>
-      </c>
-      <c r="B508" t="s">
-        <v>262</v>
-      </c>
-      <c r="C508">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3">
-      <c r="A509" t="s">
-        <v>279</v>
-      </c>
-      <c r="B509" t="s">
-        <v>282</v>
-      </c>
-      <c r="C509">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3">
-      <c r="A510" t="s">
-        <v>279</v>
-      </c>
-      <c r="B510" t="s">
-        <v>283</v>
-      </c>
       <c r="C510">
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:4">
       <c r="A511" t="s">
         <v>279</v>
       </c>
       <c r="B511" t="s">
-        <v>284</v>
+        <v>5</v>
       </c>
       <c r="C511">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
       <c r="A512" t="s">
         <v>279</v>
       </c>
       <c r="B512" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="C512">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
       <c r="A513" t="s">
         <v>279</v>
       </c>
       <c r="B513" t="s">
-        <v>286</v>
+        <v>70</v>
       </c>
       <c r="C513">
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:3">
       <c r="A514" t="s">
         <v>279</v>
       </c>
       <c r="B514" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C514">
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:3">
       <c r="A515" t="s">
         <v>279</v>
       </c>
       <c r="B515" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="C515">
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:3">
       <c r="A516" t="s">
         <v>279</v>
       </c>
       <c r="B516" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="C516">
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:3">
       <c r="A517" t="s">
         <v>279</v>
       </c>
       <c r="B517" t="s">
-        <v>265</v>
+        <v>109</v>
       </c>
       <c r="C517">
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:3">
       <c r="A518" t="s">
         <v>279</v>
       </c>
       <c r="B518" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C518">
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:3">
       <c r="A519" t="s">
         <v>279</v>
       </c>
       <c r="B519" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C519">
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:3">
       <c r="A520" t="s">
         <v>279</v>
       </c>
       <c r="B520" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="C520">
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:3">
       <c r="A521" t="s">
         <v>279</v>
       </c>
       <c r="B521" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C521">
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:3">
       <c r="A522" t="s">
         <v>279</v>
       </c>
       <c r="B522" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C522">
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:3">
       <c r="A523" t="s">
         <v>279</v>
       </c>
       <c r="B523" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C523">
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:3">
       <c r="A524" t="s">
         <v>279</v>
       </c>
       <c r="B524" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C524">
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:3">
       <c r="A525" t="s">
         <v>279</v>
       </c>
       <c r="B525" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C525">
         <v>0</v>
       </c>
-      <c r="D525">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:4">
+    </row>
+    <row r="526" spans="1:3">
       <c r="A526" t="s">
         <v>279</v>
       </c>
       <c r="B526" t="s">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="C526">
         <v>0</v>
       </c>
-      <c r="D526">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4">
+    </row>
+    <row r="527" spans="1:3">
       <c r="A527" t="s">
         <v>279</v>
       </c>
       <c r="B527" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C527">
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:3">
       <c r="A528" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B528" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="C528">
         <v>0</v>
-      </c>
-      <c r="D528">
-        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:4">
       <c r="A529" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B529" t="s">
-        <v>5</v>
+        <v>265</v>
       </c>
       <c r="C529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:4">
       <c r="A530" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B530" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="C530">
         <v>0</v>
@@ -7849,21 +7872,21 @@
     </row>
     <row r="531" spans="1:4">
       <c r="A531" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B531" t="s">
-        <v>71</v>
+        <v>287</v>
       </c>
       <c r="C531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:4">
       <c r="A532" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B532" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="C532">
         <v>0</v>
@@ -7871,38 +7894,32 @@
     </row>
     <row r="533" spans="1:4">
       <c r="A533" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B533" t="s">
-        <v>120</v>
+        <v>289</v>
       </c>
       <c r="C533">
         <v>0</v>
-      </c>
-      <c r="D533">
-        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:4">
       <c r="A534" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B534" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="C534">
         <v>0</v>
-      </c>
-      <c r="D534">
-        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:4">
       <c r="A535" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B535" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="C535">
         <v>0</v>
@@ -7910,24 +7927,21 @@
     </row>
     <row r="536" spans="1:4">
       <c r="A536" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B536" t="s">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="C536">
-        <v>1</v>
-      </c>
-      <c r="D536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:4">
       <c r="A537" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B537" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C537">
         <v>0</v>
@@ -7938,10 +7952,10 @@
     </row>
     <row r="538" spans="1:4">
       <c r="A538" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B538" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C538">
         <v>0</v>
@@ -7952,16 +7966,13 @@
     </row>
     <row r="539" spans="1:4">
       <c r="A539" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B539" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C539">
         <v>0</v>
-      </c>
-      <c r="D539">
-        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -7969,7 +7980,7 @@
         <v>295</v>
       </c>
       <c r="B540" t="s">
-        <v>255</v>
+        <v>33</v>
       </c>
       <c r="C540">
         <v>0</v>
@@ -7983,12 +7994,9 @@
         <v>295</v>
       </c>
       <c r="B541" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C541">
-        <v>0</v>
-      </c>
-      <c r="D541">
         <v>1</v>
       </c>
     </row>
@@ -7997,7 +8005,7 @@
         <v>295</v>
       </c>
       <c r="B542" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C542">
         <v>0</v>
@@ -8008,10 +8016,10 @@
         <v>295</v>
       </c>
       <c r="B543" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="C543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -8019,7 +8027,7 @@
         <v>295</v>
       </c>
       <c r="B544" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C544">
         <v>0</v>
@@ -8030,10 +8038,13 @@
         <v>295</v>
       </c>
       <c r="B545" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="C545">
         <v>0</v>
+      </c>
+      <c r="D545">
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -8041,10 +8052,13 @@
         <v>295</v>
       </c>
       <c r="B546" t="s">
-        <v>299</v>
+        <v>225</v>
       </c>
       <c r="C546">
         <v>0</v>
+      </c>
+      <c r="D546">
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8052,7 +8066,7 @@
         <v>295</v>
       </c>
       <c r="B547" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="C547">
         <v>0</v>
@@ -8063,10 +8077,13 @@
         <v>295</v>
       </c>
       <c r="B548" t="s">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="C548">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D548">
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -8074,7 +8091,7 @@
         <v>295</v>
       </c>
       <c r="B549" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C549">
         <v>0</v>
@@ -8088,7 +8105,7 @@
         <v>295</v>
       </c>
       <c r="B550" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C550">
         <v>0</v>
@@ -8102,7 +8119,7 @@
         <v>295</v>
       </c>
       <c r="B551" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C551">
         <v>0</v>
@@ -8116,7 +8133,7 @@
         <v>295</v>
       </c>
       <c r="B552" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="C552">
         <v>0</v>
@@ -8130,10 +8147,13 @@
         <v>295</v>
       </c>
       <c r="B553" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="C553">
         <v>0</v>
+      </c>
+      <c r="D553">
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -8141,7 +8161,7 @@
         <v>295</v>
       </c>
       <c r="B554" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="C554">
         <v>0</v>
@@ -8152,7 +8172,7 @@
         <v>295</v>
       </c>
       <c r="B555" t="s">
-        <v>305</v>
+        <v>126</v>
       </c>
       <c r="C555">
         <v>0</v>
@@ -8163,7 +8183,7 @@
         <v>295</v>
       </c>
       <c r="B556" t="s">
-        <v>69</v>
+        <v>298</v>
       </c>
       <c r="C556">
         <v>0</v>
@@ -8174,10 +8194,10 @@
         <v>295</v>
       </c>
       <c r="B557" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -8185,7 +8205,7 @@
         <v>295</v>
       </c>
       <c r="B558" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C558">
         <v>0</v>
@@ -8196,7 +8216,7 @@
         <v>295</v>
       </c>
       <c r="B559" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C559">
         <v>0</v>
@@ -8207,7 +8227,7 @@
         <v>295</v>
       </c>
       <c r="B560" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="C560">
         <v>0</v>
@@ -8218,7 +8238,7 @@
         <v>295</v>
       </c>
       <c r="B561" t="s">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="C561">
         <v>0</v>
@@ -8232,10 +8252,13 @@
         <v>295</v>
       </c>
       <c r="B562" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="C562">
         <v>0</v>
+      </c>
+      <c r="D562">
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -8243,18 +8266,21 @@
         <v>295</v>
       </c>
       <c r="B563" t="s">
-        <v>336</v>
+        <v>89</v>
       </c>
       <c r="C563">
         <v>0</v>
+      </c>
+      <c r="D563">
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:4">
       <c r="A564" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B564" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="C564">
         <v>0</v>
@@ -8265,32 +8291,32 @@
     </row>
     <row r="565" spans="1:4">
       <c r="A565" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B565" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:4">
       <c r="A566" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B566" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="C566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:4">
       <c r="A567" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B567" t="s">
-        <v>69</v>
+        <v>305</v>
       </c>
       <c r="C567">
         <v>0</v>
@@ -8298,21 +8324,21 @@
     </row>
     <row r="568" spans="1:4">
       <c r="A568" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B568" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:4">
       <c r="A569" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B569" t="s">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="C569">
         <v>1</v>
@@ -8320,21 +8346,21 @@
     </row>
     <row r="570" spans="1:4">
       <c r="A570" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B570" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:4">
       <c r="A571" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B571" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C571">
         <v>0</v>
@@ -8342,10 +8368,10 @@
     </row>
     <row r="572" spans="1:4">
       <c r="A572" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B572" t="s">
-        <v>50</v>
+        <v>257</v>
       </c>
       <c r="C572">
         <v>0</v>
@@ -8353,41 +8379,38 @@
     </row>
     <row r="573" spans="1:4">
       <c r="A573" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B573" t="s">
-        <v>312</v>
+        <v>78</v>
       </c>
       <c r="C573">
         <v>0</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:4">
       <c r="A574" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B574" t="s">
-        <v>55</v>
+        <v>334</v>
       </c>
       <c r="C574">
         <v>0</v>
-      </c>
-      <c r="D574">
-        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:4">
       <c r="A575" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B575" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="C575">
         <v>0</v>
-      </c>
-      <c r="D575">
-        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -8395,10 +8418,13 @@
         <v>308</v>
       </c>
       <c r="B576" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="C576">
         <v>0</v>
+      </c>
+      <c r="D576">
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -8406,12 +8432,9 @@
         <v>308</v>
       </c>
       <c r="B577" t="s">
-        <v>221</v>
+        <v>5</v>
       </c>
       <c r="C577">
-        <v>0</v>
-      </c>
-      <c r="D577">
         <v>1</v>
       </c>
     </row>
@@ -8420,10 +8443,10 @@
         <v>308</v>
       </c>
       <c r="B578" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -8431,13 +8454,10 @@
         <v>308</v>
       </c>
       <c r="B579" t="s">
-        <v>315</v>
+        <v>69</v>
       </c>
       <c r="C579">
         <v>0</v>
-      </c>
-      <c r="D579">
-        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -8445,12 +8465,9 @@
         <v>308</v>
       </c>
       <c r="B580" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C580">
-        <v>0</v>
-      </c>
-      <c r="D580">
         <v>1</v>
       </c>
     </row>
@@ -8459,12 +8476,9 @@
         <v>308</v>
       </c>
       <c r="B581" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C581">
-        <v>0</v>
-      </c>
-      <c r="D581">
         <v>1</v>
       </c>
     </row>
@@ -8473,12 +8487,9 @@
         <v>308</v>
       </c>
       <c r="B582" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C582">
-        <v>0</v>
-      </c>
-      <c r="D582">
         <v>1</v>
       </c>
     </row>
@@ -8487,7 +8498,7 @@
         <v>308</v>
       </c>
       <c r="B583" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C583">
         <v>0</v>
@@ -8498,13 +8509,10 @@
         <v>308</v>
       </c>
       <c r="B584" t="s">
-        <v>303</v>
+        <v>50</v>
       </c>
       <c r="C584">
         <v>0</v>
-      </c>
-      <c r="D584">
-        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -8512,7 +8520,7 @@
         <v>308</v>
       </c>
       <c r="B585" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C585">
         <v>0</v>
@@ -8523,10 +8531,13 @@
         <v>308</v>
       </c>
       <c r="B586" t="s">
-        <v>320</v>
+        <v>55</v>
       </c>
       <c r="C586">
         <v>0</v>
+      </c>
+      <c r="D586">
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -8534,10 +8545,13 @@
         <v>308</v>
       </c>
       <c r="B587" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C587">
         <v>0</v>
+      </c>
+      <c r="D587">
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -8545,7 +8559,7 @@
         <v>308</v>
       </c>
       <c r="B588" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C588">
         <v>0</v>
@@ -8556,10 +8570,13 @@
         <v>308</v>
       </c>
       <c r="B589" t="s">
-        <v>323</v>
+        <v>221</v>
       </c>
       <c r="C589">
         <v>0</v>
+      </c>
+      <c r="D589">
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -8567,7 +8584,7 @@
         <v>308</v>
       </c>
       <c r="B590" t="s">
-        <v>324</v>
+        <v>112</v>
       </c>
       <c r="C590">
         <v>0</v>
@@ -8578,10 +8595,13 @@
         <v>308</v>
       </c>
       <c r="B591" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C591">
         <v>0</v>
+      </c>
+      <c r="D591">
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -8589,10 +8609,13 @@
         <v>308</v>
       </c>
       <c r="B592" t="s">
-        <v>326</v>
+        <v>18</v>
       </c>
       <c r="C592">
         <v>0</v>
+      </c>
+      <c r="D592">
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -8600,10 +8623,13 @@
         <v>308</v>
       </c>
       <c r="B593" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C593">
         <v>0</v>
+      </c>
+      <c r="D593">
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -8611,10 +8637,13 @@
         <v>308</v>
       </c>
       <c r="B594" t="s">
-        <v>51</v>
+        <v>317</v>
       </c>
       <c r="C594">
         <v>0</v>
+      </c>
+      <c r="D594">
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -8622,7 +8651,7 @@
         <v>308</v>
       </c>
       <c r="B595" t="s">
-        <v>52</v>
+        <v>318</v>
       </c>
       <c r="C595">
         <v>0</v>
@@ -8633,10 +8662,13 @@
         <v>308</v>
       </c>
       <c r="B596" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="C596">
         <v>0</v>
+      </c>
+      <c r="D596">
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -8644,23 +8676,155 @@
         <v>308</v>
       </c>
       <c r="B597" t="s">
+        <v>319</v>
+      </c>
+      <c r="C597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4">
+      <c r="A598" t="s">
+        <v>308</v>
+      </c>
+      <c r="B598" t="s">
+        <v>320</v>
+      </c>
+      <c r="C598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4">
+      <c r="A599" t="s">
+        <v>308</v>
+      </c>
+      <c r="B599" t="s">
+        <v>321</v>
+      </c>
+      <c r="C599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4">
+      <c r="A600" t="s">
+        <v>308</v>
+      </c>
+      <c r="B600" t="s">
+        <v>322</v>
+      </c>
+      <c r="C600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4">
+      <c r="A601" t="s">
+        <v>308</v>
+      </c>
+      <c r="B601" t="s">
+        <v>323</v>
+      </c>
+      <c r="C601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4">
+      <c r="A602" t="s">
+        <v>308</v>
+      </c>
+      <c r="B602" t="s">
+        <v>324</v>
+      </c>
+      <c r="C602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4">
+      <c r="A603" t="s">
+        <v>308</v>
+      </c>
+      <c r="B603" t="s">
+        <v>325</v>
+      </c>
+      <c r="C603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4">
+      <c r="A604" t="s">
+        <v>308</v>
+      </c>
+      <c r="B604" t="s">
+        <v>326</v>
+      </c>
+      <c r="C604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4">
+      <c r="A605" t="s">
+        <v>308</v>
+      </c>
+      <c r="B605" t="s">
+        <v>327</v>
+      </c>
+      <c r="C605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4">
+      <c r="A606" t="s">
+        <v>308</v>
+      </c>
+      <c r="B606" t="s">
+        <v>51</v>
+      </c>
+      <c r="C606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4">
+      <c r="A607" t="s">
+        <v>308</v>
+      </c>
+      <c r="B607" t="s">
+        <v>52</v>
+      </c>
+      <c r="C607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4">
+      <c r="A608" t="s">
+        <v>308</v>
+      </c>
+      <c r="B608" t="s">
+        <v>328</v>
+      </c>
+      <c r="C608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4">
+      <c r="A609" t="s">
+        <v>308</v>
+      </c>
+      <c r="B609" t="s">
         <v>329</v>
       </c>
-      <c r="C597">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="598" spans="1:4">
-      <c r="A598" s="1" t="s">
+      <c r="C609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4">
+      <c r="A610" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B598" s="1" t="s">
+      <c r="B610" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C598" s="1">
-        <v>0</v>
-      </c>
-      <c r="D598" s="1"/>
+      <c r="C610" s="1">
+        <v>0</v>
+      </c>
+      <c r="D610" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="135" windowWidth="20490" windowHeight="7950"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="349">
   <si>
     <t>TABELA</t>
   </si>
@@ -807,9 +807,6 @@
     <t>CD_CEP_FATURA</t>
   </si>
   <si>
-    <t>COD_CLIENTE_ENTREGA</t>
-  </si>
-  <si>
     <t>CD_PAIS_ENTREGA</t>
   </si>
   <si>
@@ -825,12 +822,6 @@
     <t>NR_CAMPANHA_B2B</t>
   </si>
   <si>
-    <t>PRAZO_TRANSIT_TIME</t>
-  </si>
-  <si>
-    <t>PRAZO_CD</t>
-  </si>
-  <si>
     <t>NR_PEDIDO_GARANTIA</t>
   </si>
   <si>
@@ -1066,6 +1057,12 @@
   </si>
   <si>
     <t>DT_REVERSAO</t>
+  </si>
+  <si>
+    <t>QT_PRAZO_TRANSIT_TIME</t>
+  </si>
+  <si>
+    <t>QT_PRAZO_CD</t>
   </si>
 </sst>
 </file>
@@ -1426,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D610"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:C86"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="B495" sqref="B495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1445,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1884,7 +1881,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1939,7 +1936,7 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2349,7 +2346,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B75" t="s">
         <v>36</v>
@@ -2360,7 +2357,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -2371,7 +2368,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -2382,10 +2379,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B78" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2393,10 +2390,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B79" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2404,10 +2401,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
+        <v>337</v>
+      </c>
+      <c r="B80" t="s">
         <v>340</v>
-      </c>
-      <c r="B80" t="s">
-        <v>343</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2415,10 +2412,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B81" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2426,10 +2423,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B82" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2437,10 +2434,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B83" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2448,10 +2445,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B84" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2459,10 +2456,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B85" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2470,10 +2467,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B86" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3346,7 +3343,7 @@
         <v>60</v>
       </c>
       <c r="B164" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3357,7 +3354,7 @@
         <v>60</v>
       </c>
       <c r="B165" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3368,7 +3365,7 @@
         <v>60</v>
       </c>
       <c r="B166" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -4106,7 +4103,7 @@
         <v>132</v>
       </c>
       <c r="B223" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -7343,7 +7340,7 @@
         <v>249</v>
       </c>
       <c r="B484" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C484">
         <v>0</v>
@@ -7365,7 +7362,7 @@
         <v>249</v>
       </c>
       <c r="B486" t="s">
-        <v>263</v>
+        <v>67</v>
       </c>
       <c r="C486">
         <v>0</v>
@@ -7387,7 +7384,7 @@
         <v>249</v>
       </c>
       <c r="B488" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C488">
         <v>0</v>
@@ -7398,7 +7395,7 @@
         <v>249</v>
       </c>
       <c r="B489" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -7409,7 +7406,7 @@
         <v>249</v>
       </c>
       <c r="B490" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C490">
         <v>0</v>
@@ -7431,7 +7428,7 @@
         <v>249</v>
       </c>
       <c r="B492" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C492">
         <v>0</v>
@@ -7442,7 +7439,7 @@
         <v>249</v>
       </c>
       <c r="B493" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C493">
         <v>0</v>
@@ -7453,7 +7450,7 @@
         <v>249</v>
       </c>
       <c r="B494" t="s">
-        <v>269</v>
+        <v>347</v>
       </c>
       <c r="C494">
         <v>0</v>
@@ -7467,7 +7464,7 @@
         <v>249</v>
       </c>
       <c r="B495" t="s">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="C495">
         <v>0</v>
@@ -7503,7 +7500,7 @@
         <v>249</v>
       </c>
       <c r="B498" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C498">
         <v>0</v>
@@ -7514,7 +7511,7 @@
         <v>249</v>
       </c>
       <c r="B499" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C499">
         <v>0</v>
@@ -7528,7 +7525,7 @@
         <v>249</v>
       </c>
       <c r="B500" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C500">
         <v>0</v>
@@ -7539,7 +7536,7 @@
         <v>249</v>
       </c>
       <c r="B501" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -7550,7 +7547,7 @@
         <v>249</v>
       </c>
       <c r="B502" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -7594,7 +7591,7 @@
         <v>249</v>
       </c>
       <c r="B506" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -7605,7 +7602,7 @@
         <v>249</v>
       </c>
       <c r="B507" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -7619,7 +7616,7 @@
         <v>249</v>
       </c>
       <c r="B508" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C508">
         <v>0</v>
@@ -7644,7 +7641,7 @@
         <v>249</v>
       </c>
       <c r="B510" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C510">
         <v>0</v>
@@ -7652,7 +7649,7 @@
     </row>
     <row r="511" spans="1:4">
       <c r="A511" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B511" t="s">
         <v>5</v>
@@ -7663,7 +7660,7 @@
     </row>
     <row r="512" spans="1:4">
       <c r="A512" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B512" t="s">
         <v>69</v>
@@ -7674,7 +7671,7 @@
     </row>
     <row r="513" spans="1:3">
       <c r="A513" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B513" t="s">
         <v>70</v>
@@ -7685,7 +7682,7 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B514" t="s">
         <v>71</v>
@@ -7696,7 +7693,7 @@
     </row>
     <row r="515" spans="1:3">
       <c r="A515" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B515" t="s">
         <v>66</v>
@@ -7707,10 +7704,10 @@
     </row>
     <row r="516" spans="1:3">
       <c r="A516" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B516" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -7718,7 +7715,7 @@
     </row>
     <row r="517" spans="1:3">
       <c r="A517" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B517" t="s">
         <v>109</v>
@@ -7729,7 +7726,7 @@
     </row>
     <row r="518" spans="1:3">
       <c r="A518" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B518" t="s">
         <v>261</v>
@@ -7740,10 +7737,10 @@
     </row>
     <row r="519" spans="1:3">
       <c r="A519" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B519" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C519">
         <v>0</v>
@@ -7751,7 +7748,7 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B520" t="s">
         <v>262</v>
@@ -7762,10 +7759,10 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521" t="s">
+        <v>276</v>
+      </c>
+      <c r="B521" t="s">
         <v>279</v>
-      </c>
-      <c r="B521" t="s">
-        <v>282</v>
       </c>
       <c r="C521">
         <v>0</v>
@@ -7773,10 +7770,10 @@
     </row>
     <row r="522" spans="1:3">
       <c r="A522" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B522" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C522">
         <v>0</v>
@@ -7784,10 +7781,10 @@
     </row>
     <row r="523" spans="1:3">
       <c r="A523" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B523" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C523">
         <v>0</v>
@@ -7795,10 +7792,10 @@
     </row>
     <row r="524" spans="1:3">
       <c r="A524" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B524" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C524">
         <v>0</v>
@@ -7806,10 +7803,10 @@
     </row>
     <row r="525" spans="1:3">
       <c r="A525" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B525" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C525">
         <v>0</v>
@@ -7817,7 +7814,7 @@
     </row>
     <row r="526" spans="1:3">
       <c r="A526" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B526" t="s">
         <v>67</v>
@@ -7828,7 +7825,7 @@
     </row>
     <row r="527" spans="1:3">
       <c r="A527" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B527" t="s">
         <v>110</v>
@@ -7839,10 +7836,10 @@
     </row>
     <row r="528" spans="1:3">
       <c r="A528" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B528" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C528">
         <v>0</v>
@@ -7850,10 +7847,10 @@
     </row>
     <row r="529" spans="1:4">
       <c r="A529" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B529" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C529">
         <v>0</v>
@@ -7861,10 +7858,10 @@
     </row>
     <row r="530" spans="1:4">
       <c r="A530" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B530" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C530">
         <v>0</v>
@@ -7872,10 +7869,10 @@
     </row>
     <row r="531" spans="1:4">
       <c r="A531" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B531" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C531">
         <v>0</v>
@@ -7883,10 +7880,10 @@
     </row>
     <row r="532" spans="1:4">
       <c r="A532" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B532" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C532">
         <v>0</v>
@@ -7894,10 +7891,10 @@
     </row>
     <row r="533" spans="1:4">
       <c r="A533" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B533" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C533">
         <v>0</v>
@@ -7905,10 +7902,10 @@
     </row>
     <row r="534" spans="1:4">
       <c r="A534" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B534" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C534">
         <v>0</v>
@@ -7916,10 +7913,10 @@
     </row>
     <row r="535" spans="1:4">
       <c r="A535" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B535" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C535">
         <v>0</v>
@@ -7927,10 +7924,10 @@
     </row>
     <row r="536" spans="1:4">
       <c r="A536" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B536" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C536">
         <v>0</v>
@@ -7938,10 +7935,10 @@
     </row>
     <row r="537" spans="1:4">
       <c r="A537" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B537" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C537">
         <v>0</v>
@@ -7952,10 +7949,10 @@
     </row>
     <row r="538" spans="1:4">
       <c r="A538" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B538" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C538">
         <v>0</v>
@@ -7966,7 +7963,7 @@
     </row>
     <row r="539" spans="1:4">
       <c r="A539" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B539" t="s">
         <v>126</v>
@@ -7977,7 +7974,7 @@
     </row>
     <row r="540" spans="1:4">
       <c r="A540" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B540" t="s">
         <v>33</v>
@@ -7991,7 +7988,7 @@
     </row>
     <row r="541" spans="1:4">
       <c r="A541" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B541" t="s">
         <v>5</v>
@@ -8002,7 +7999,7 @@
     </row>
     <row r="542" spans="1:4">
       <c r="A542" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B542" t="s">
         <v>112</v>
@@ -8013,7 +8010,7 @@
     </row>
     <row r="543" spans="1:4">
       <c r="A543" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B543" t="s">
         <v>71</v>
@@ -8024,7 +8021,7 @@
     </row>
     <row r="544" spans="1:4">
       <c r="A544" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B544" t="s">
         <v>251</v>
@@ -8035,7 +8032,7 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B545" t="s">
         <v>120</v>
@@ -8049,7 +8046,7 @@
     </row>
     <row r="546" spans="1:4">
       <c r="A546" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B546" t="s">
         <v>225</v>
@@ -8063,7 +8060,7 @@
     </row>
     <row r="547" spans="1:4">
       <c r="A547" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B547" t="s">
         <v>256</v>
@@ -8074,7 +8071,7 @@
     </row>
     <row r="548" spans="1:4">
       <c r="A548" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B548" t="s">
         <v>80</v>
@@ -8088,10 +8085,10 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B549" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C549">
         <v>0</v>
@@ -8102,10 +8099,10 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B550" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C550">
         <v>0</v>
@@ -8116,7 +8113,7 @@
     </row>
     <row r="551" spans="1:4">
       <c r="A551" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B551" t="s">
         <v>106</v>
@@ -8130,7 +8127,7 @@
     </row>
     <row r="552" spans="1:4">
       <c r="A552" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B552" t="s">
         <v>255</v>
@@ -8144,7 +8141,7 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B553" t="s">
         <v>86</v>
@@ -8158,7 +8155,7 @@
     </row>
     <row r="554" spans="1:4">
       <c r="A554" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B554" t="s">
         <v>116</v>
@@ -8169,7 +8166,7 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B555" t="s">
         <v>126</v>
@@ -8180,10 +8177,10 @@
     </row>
     <row r="556" spans="1:4">
       <c r="A556" t="s">
+        <v>292</v>
+      </c>
+      <c r="B556" t="s">
         <v>295</v>
-      </c>
-      <c r="B556" t="s">
-        <v>298</v>
       </c>
       <c r="C556">
         <v>0</v>
@@ -8191,7 +8188,7 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B557" t="s">
         <v>54</v>
@@ -8202,10 +8199,10 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B558" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C558">
         <v>0</v>
@@ -8213,10 +8210,10 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B559" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C559">
         <v>0</v>
@@ -8224,10 +8221,10 @@
     </row>
     <row r="560" spans="1:4">
       <c r="A560" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B560" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C560">
         <v>0</v>
@@ -8235,10 +8232,10 @@
     </row>
     <row r="561" spans="1:4">
       <c r="A561" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B561" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C561">
         <v>0</v>
@@ -8249,10 +8246,10 @@
     </row>
     <row r="562" spans="1:4">
       <c r="A562" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B562" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C562">
         <v>0</v>
@@ -8263,7 +8260,7 @@
     </row>
     <row r="563" spans="1:4">
       <c r="A563" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B563" t="s">
         <v>89</v>
@@ -8277,10 +8274,10 @@
     </row>
     <row r="564" spans="1:4">
       <c r="A564" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B564" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C564">
         <v>0</v>
@@ -8291,7 +8288,7 @@
     </row>
     <row r="565" spans="1:4">
       <c r="A565" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B565" t="s">
         <v>6</v>
@@ -8302,7 +8299,7 @@
     </row>
     <row r="566" spans="1:4">
       <c r="A566" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B566" t="s">
         <v>34</v>
@@ -8313,10 +8310,10 @@
     </row>
     <row r="567" spans="1:4">
       <c r="A567" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B567" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C567">
         <v>0</v>
@@ -8324,7 +8321,7 @@
     </row>
     <row r="568" spans="1:4">
       <c r="A568" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B568" t="s">
         <v>69</v>
@@ -8335,7 +8332,7 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B569" t="s">
         <v>70</v>
@@ -8346,10 +8343,10 @@
     </row>
     <row r="570" spans="1:4">
       <c r="A570" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B570" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C570">
         <v>0</v>
@@ -8357,10 +8354,10 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B571" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C571">
         <v>0</v>
@@ -8368,7 +8365,7 @@
     </row>
     <row r="572" spans="1:4">
       <c r="A572" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B572" t="s">
         <v>257</v>
@@ -8379,7 +8376,7 @@
     </row>
     <row r="573" spans="1:4">
       <c r="A573" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B573" t="s">
         <v>78</v>
@@ -8393,10 +8390,10 @@
     </row>
     <row r="574" spans="1:4">
       <c r="A574" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B574" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C574">
         <v>0</v>
@@ -8404,10 +8401,10 @@
     </row>
     <row r="575" spans="1:4">
       <c r="A575" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B575" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C575">
         <v>0</v>
@@ -8415,10 +8412,10 @@
     </row>
     <row r="576" spans="1:4">
       <c r="A576" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B576" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C576">
         <v>0</v>
@@ -8429,7 +8426,7 @@
     </row>
     <row r="577" spans="1:4">
       <c r="A577" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B577" t="s">
         <v>5</v>
@@ -8440,7 +8437,7 @@
     </row>
     <row r="578" spans="1:4">
       <c r="A578" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B578" t="s">
         <v>71</v>
@@ -8451,7 +8448,7 @@
     </row>
     <row r="579" spans="1:4">
       <c r="A579" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B579" t="s">
         <v>69</v>
@@ -8462,7 +8459,7 @@
     </row>
     <row r="580" spans="1:4">
       <c r="A580" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B580" t="s">
         <v>70</v>
@@ -8473,10 +8470,10 @@
     </row>
     <row r="581" spans="1:4">
       <c r="A581" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B581" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C581">
         <v>1</v>
@@ -8484,10 +8481,10 @@
     </row>
     <row r="582" spans="1:4">
       <c r="A582" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B582" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C582">
         <v>1</v>
@@ -8495,10 +8492,10 @@
     </row>
     <row r="583" spans="1:4">
       <c r="A583" t="s">
+        <v>305</v>
+      </c>
+      <c r="B583" t="s">
         <v>308</v>
-      </c>
-      <c r="B583" t="s">
-        <v>311</v>
       </c>
       <c r="C583">
         <v>0</v>
@@ -8506,7 +8503,7 @@
     </row>
     <row r="584" spans="1:4">
       <c r="A584" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B584" t="s">
         <v>50</v>
@@ -8517,10 +8514,10 @@
     </row>
     <row r="585" spans="1:4">
       <c r="A585" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B585" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C585">
         <v>0</v>
@@ -8528,7 +8525,7 @@
     </row>
     <row r="586" spans="1:4">
       <c r="A586" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B586" t="s">
         <v>55</v>
@@ -8542,10 +8539,10 @@
     </row>
     <row r="587" spans="1:4">
       <c r="A587" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B587" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C587">
         <v>0</v>
@@ -8556,10 +8553,10 @@
     </row>
     <row r="588" spans="1:4">
       <c r="A588" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B588" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C588">
         <v>0</v>
@@ -8567,7 +8564,7 @@
     </row>
     <row r="589" spans="1:4">
       <c r="A589" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B589" t="s">
         <v>221</v>
@@ -8581,7 +8578,7 @@
     </row>
     <row r="590" spans="1:4">
       <c r="A590" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B590" t="s">
         <v>112</v>
@@ -8592,10 +8589,10 @@
     </row>
     <row r="591" spans="1:4">
       <c r="A591" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B591" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C591">
         <v>0</v>
@@ -8606,7 +8603,7 @@
     </row>
     <row r="592" spans="1:4">
       <c r="A592" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B592" t="s">
         <v>18</v>
@@ -8620,10 +8617,10 @@
     </row>
     <row r="593" spans="1:4">
       <c r="A593" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B593" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C593">
         <v>0</v>
@@ -8634,10 +8631,10 @@
     </row>
     <row r="594" spans="1:4">
       <c r="A594" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B594" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C594">
         <v>0</v>
@@ -8648,10 +8645,10 @@
     </row>
     <row r="595" spans="1:4">
       <c r="A595" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B595" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C595">
         <v>0</v>
@@ -8659,10 +8656,10 @@
     </row>
     <row r="596" spans="1:4">
       <c r="A596" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B596" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C596">
         <v>0</v>
@@ -8673,10 +8670,10 @@
     </row>
     <row r="597" spans="1:4">
       <c r="A597" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B597" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C597">
         <v>0</v>
@@ -8684,10 +8681,10 @@
     </row>
     <row r="598" spans="1:4">
       <c r="A598" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B598" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C598">
         <v>0</v>
@@ -8695,10 +8692,10 @@
     </row>
     <row r="599" spans="1:4">
       <c r="A599" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B599" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C599">
         <v>0</v>
@@ -8706,10 +8703,10 @@
     </row>
     <row r="600" spans="1:4">
       <c r="A600" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B600" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C600">
         <v>0</v>
@@ -8717,10 +8714,10 @@
     </row>
     <row r="601" spans="1:4">
       <c r="A601" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B601" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C601">
         <v>0</v>
@@ -8728,10 +8725,10 @@
     </row>
     <row r="602" spans="1:4">
       <c r="A602" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B602" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C602">
         <v>0</v>
@@ -8739,10 +8736,10 @@
     </row>
     <row r="603" spans="1:4">
       <c r="A603" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B603" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C603">
         <v>0</v>
@@ -8750,10 +8747,10 @@
     </row>
     <row r="604" spans="1:4">
       <c r="A604" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B604" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C604">
         <v>0</v>
@@ -8761,10 +8758,10 @@
     </row>
     <row r="605" spans="1:4">
       <c r="A605" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B605" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C605">
         <v>0</v>
@@ -8772,7 +8769,7 @@
     </row>
     <row r="606" spans="1:4">
       <c r="A606" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B606" t="s">
         <v>51</v>
@@ -8783,7 +8780,7 @@
     </row>
     <row r="607" spans="1:4">
       <c r="A607" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B607" t="s">
         <v>52</v>
@@ -8794,10 +8791,10 @@
     </row>
     <row r="608" spans="1:4">
       <c r="A608" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B608" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C608">
         <v>0</v>
@@ -8805,10 +8802,10 @@
     </row>
     <row r="609" spans="1:4">
       <c r="A609" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B609" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C609">
         <v>0</v>
@@ -8816,10 +8813,10 @@
     </row>
     <row r="610" spans="1:4">
       <c r="A610" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C610" s="1">
         <v>0</v>

--- a/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="372">
   <si>
     <t>TABELA</t>
   </si>
@@ -1066,6 +1066,72 @@
   </si>
   <si>
     <t>DT_REVERSAO</t>
+  </si>
+  <si>
+    <t>ln.ods_car_titulo</t>
+  </si>
+  <si>
+    <t>CD_CENTRO_CUSTO</t>
+  </si>
+  <si>
+    <t>NR_BANCARIO</t>
+  </si>
+  <si>
+    <t>DS_OBSERVACAO_TITULO</t>
+  </si>
+  <si>
+    <t>DS_USUARIO_GERACAO_TITULO</t>
+  </si>
+  <si>
+    <t>CD_METODO_RECEBIMENTO</t>
+  </si>
+  <si>
+    <t>ln.ods_car_titulo_mvmto</t>
+  </si>
+  <si>
+    <t>DT_SITUACAO_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>CD_MODULO_TITULO_REFERENCIA</t>
+  </si>
+  <si>
+    <t>DT_VENCTO_PRORROGADO</t>
+  </si>
+  <si>
+    <t>DT_VENCTO_ORIGINAL_PRORROGADO</t>
+  </si>
+  <si>
+    <t>DT_LIQUIDEZ_PREVISTA</t>
+  </si>
+  <si>
+    <t>ln.ods_car_titulo_remessa</t>
+  </si>
+  <si>
+    <t>NR_REMESSA</t>
+  </si>
+  <si>
+    <t>DT_REMESSA</t>
+  </si>
+  <si>
+    <t>DT_PREVISTA_RECEBIMENTO</t>
+  </si>
+  <si>
+    <t>CD_STATUS_RECEBIMENTO</t>
+  </si>
+  <si>
+    <t>ln.ods_cap_titulo_reembolso</t>
+  </si>
+  <si>
+    <t>NR_ORDEM_VENDA</t>
+  </si>
+  <si>
+    <t>NR_ORDEM_VENDA_ORIGINAL</t>
+  </si>
+  <si>
+    <t>NR_ID_TITULO</t>
+  </si>
+  <si>
+    <t>ln.ods_cap_titulo_reversao</t>
   </si>
 </sst>
 </file>
@@ -1081,21 +1147,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1103,13 +1163,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1125,9 +1196,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D610" totalsRowShown="0">
-  <autoFilter ref="A1:D610">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D699" totalsRowShown="0">
+  <autoFilter ref="A1:D699">
     <filterColumn colId="0"/>
+    <filterColumn colId="3"/>
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" name="TABELA"/>
@@ -1424,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D610"/>
+  <dimension ref="A1:D699"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:C86"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A602" workbookViewId="0">
+      <selection activeCell="C692" sqref="C692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1953,7 +2025,7 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4149,17 +4221,17 @@
       </c>
     </row>
     <row r="227" spans="1:4">
-      <c r="A227" t="s">
+      <c r="A227" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C227">
-        <v>0</v>
-      </c>
-      <c r="D227">
-        <v>1</v>
+      <c r="C227" s="1">
+        <v>1</v>
+      </c>
+      <c r="D227" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -8082,9 +8154,6 @@
       <c r="C548">
         <v>1</v>
       </c>
-      <c r="D548">
-        <v>1</v>
-      </c>
     </row>
     <row r="549" spans="1:4">
       <c r="A549" t="s">
@@ -8410,7 +8479,7 @@
         <v>336</v>
       </c>
       <c r="C575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -8814,17 +8883,1001 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
-      <c r="A610" s="1" t="s">
+    <row r="610" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A610" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B610" s="1" t="s">
+      <c r="B610" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C610" s="1">
-        <v>0</v>
-      </c>
-      <c r="D610" s="1"/>
+      <c r="C610" s="3">
+        <v>0</v>
+      </c>
+      <c r="D610" s="3"/>
+    </row>
+    <row r="611" spans="1:4" ht="15.75" thickTop="1">
+      <c r="A611" t="s">
+        <v>350</v>
+      </c>
+      <c r="B611" t="s">
+        <v>5</v>
+      </c>
+      <c r="C611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4">
+      <c r="A612" t="s">
+        <v>350</v>
+      </c>
+      <c r="B612" t="s">
+        <v>6</v>
+      </c>
+      <c r="C612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4">
+      <c r="A613" t="s">
+        <v>350</v>
+      </c>
+      <c r="B613" t="s">
+        <v>3</v>
+      </c>
+      <c r="C613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4">
+      <c r="A614" t="s">
+        <v>350</v>
+      </c>
+      <c r="B614" t="s">
+        <v>39</v>
+      </c>
+      <c r="C614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4">
+      <c r="A615" t="s">
+        <v>350</v>
+      </c>
+      <c r="B615" t="s">
+        <v>9</v>
+      </c>
+      <c r="C615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4">
+      <c r="A616" t="s">
+        <v>350</v>
+      </c>
+      <c r="B616" t="s">
+        <v>61</v>
+      </c>
+      <c r="C616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4">
+      <c r="A617" t="s">
+        <v>350</v>
+      </c>
+      <c r="B617" t="s">
+        <v>62</v>
+      </c>
+      <c r="C617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4">
+      <c r="A618" t="s">
+        <v>350</v>
+      </c>
+      <c r="B618" t="s">
+        <v>13</v>
+      </c>
+      <c r="C618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4">
+      <c r="A619" t="s">
+        <v>350</v>
+      </c>
+      <c r="B619" t="s">
+        <v>14</v>
+      </c>
+      <c r="C619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4">
+      <c r="A620" t="s">
+        <v>350</v>
+      </c>
+      <c r="B620" t="s">
+        <v>16</v>
+      </c>
+      <c r="C620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4">
+      <c r="A621" t="s">
+        <v>350</v>
+      </c>
+      <c r="B621" t="s">
+        <v>17</v>
+      </c>
+      <c r="C621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4">
+      <c r="A622" t="s">
+        <v>350</v>
+      </c>
+      <c r="B622" t="s">
+        <v>50</v>
+      </c>
+      <c r="C622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4">
+      <c r="A623" t="s">
+        <v>350</v>
+      </c>
+      <c r="B623" t="s">
+        <v>51</v>
+      </c>
+      <c r="C623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4">
+      <c r="A624" t="s">
+        <v>350</v>
+      </c>
+      <c r="B624" t="s">
+        <v>52</v>
+      </c>
+      <c r="C624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625" t="s">
+        <v>350</v>
+      </c>
+      <c r="B625" t="s">
+        <v>351</v>
+      </c>
+      <c r="C625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626" t="s">
+        <v>350</v>
+      </c>
+      <c r="B626" t="s">
+        <v>21</v>
+      </c>
+      <c r="C626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="A627" t="s">
+        <v>350</v>
+      </c>
+      <c r="B627" t="s">
+        <v>22</v>
+      </c>
+      <c r="C627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628" t="s">
+        <v>350</v>
+      </c>
+      <c r="B628" t="s">
+        <v>15</v>
+      </c>
+      <c r="C628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="A629" t="s">
+        <v>350</v>
+      </c>
+      <c r="B629" t="s">
+        <v>352</v>
+      </c>
+      <c r="C629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630" t="s">
+        <v>350</v>
+      </c>
+      <c r="B630" t="s">
+        <v>24</v>
+      </c>
+      <c r="C630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="A631" t="s">
+        <v>350</v>
+      </c>
+      <c r="B631" t="s">
+        <v>88</v>
+      </c>
+      <c r="C631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="A632" t="s">
+        <v>350</v>
+      </c>
+      <c r="B632" t="s">
+        <v>4</v>
+      </c>
+      <c r="C632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633" t="s">
+        <v>350</v>
+      </c>
+      <c r="B633" t="s">
+        <v>353</v>
+      </c>
+      <c r="C633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634" t="s">
+        <v>350</v>
+      </c>
+      <c r="B634" t="s">
+        <v>354</v>
+      </c>
+      <c r="C634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635" t="s">
+        <v>350</v>
+      </c>
+      <c r="B635" t="s">
+        <v>33</v>
+      </c>
+      <c r="C635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636" t="s">
+        <v>350</v>
+      </c>
+      <c r="B636" t="s">
+        <v>34</v>
+      </c>
+      <c r="C636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="A637" t="s">
+        <v>350</v>
+      </c>
+      <c r="B637" t="s">
+        <v>69</v>
+      </c>
+      <c r="C637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638" t="s">
+        <v>350</v>
+      </c>
+      <c r="B638" t="s">
+        <v>355</v>
+      </c>
+      <c r="C638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="A639" t="s">
+        <v>350</v>
+      </c>
+      <c r="B639" t="s">
+        <v>58</v>
+      </c>
+      <c r="C639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="A640" t="s">
+        <v>350</v>
+      </c>
+      <c r="B640" t="s">
+        <v>7</v>
+      </c>
+      <c r="C640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4">
+      <c r="A641" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C641">
+        <v>1</v>
+      </c>
+      <c r="D641" s="2"/>
+    </row>
+    <row r="642" spans="1:4">
+      <c r="A642" t="s">
+        <v>356</v>
+      </c>
+      <c r="B642" t="s">
+        <v>5</v>
+      </c>
+      <c r="C642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4">
+      <c r="A643" t="s">
+        <v>356</v>
+      </c>
+      <c r="B643" t="s">
+        <v>6</v>
+      </c>
+      <c r="C643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4">
+      <c r="A644" t="s">
+        <v>356</v>
+      </c>
+      <c r="B644" t="s">
+        <v>38</v>
+      </c>
+      <c r="C644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4">
+      <c r="A645" t="s">
+        <v>356</v>
+      </c>
+      <c r="B645" t="s">
+        <v>337</v>
+      </c>
+      <c r="C645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4">
+      <c r="A646" t="s">
+        <v>356</v>
+      </c>
+      <c r="B646" t="s">
+        <v>338</v>
+      </c>
+      <c r="C646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4">
+      <c r="A647" t="s">
+        <v>356</v>
+      </c>
+      <c r="B647" t="s">
+        <v>36</v>
+      </c>
+      <c r="C647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4">
+      <c r="A648" t="s">
+        <v>356</v>
+      </c>
+      <c r="B648" t="s">
+        <v>3</v>
+      </c>
+      <c r="C648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4">
+      <c r="A649" t="s">
+        <v>356</v>
+      </c>
+      <c r="B649" t="s">
+        <v>23</v>
+      </c>
+      <c r="C649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4">
+      <c r="A650" t="s">
+        <v>356</v>
+      </c>
+      <c r="B650" t="s">
+        <v>7</v>
+      </c>
+      <c r="C650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4">
+      <c r="A651" t="s">
+        <v>356</v>
+      </c>
+      <c r="B651" t="s">
+        <v>8</v>
+      </c>
+      <c r="C651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4">
+      <c r="A652" t="s">
+        <v>356</v>
+      </c>
+      <c r="B652" t="s">
+        <v>43</v>
+      </c>
+      <c r="C652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4">
+      <c r="A653" t="s">
+        <v>356</v>
+      </c>
+      <c r="B653" t="s">
+        <v>42</v>
+      </c>
+      <c r="C653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4">
+      <c r="A654" t="s">
+        <v>356</v>
+      </c>
+      <c r="B654" t="s">
+        <v>47</v>
+      </c>
+      <c r="C654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4">
+      <c r="A655" t="s">
+        <v>356</v>
+      </c>
+      <c r="B655" t="s">
+        <v>20</v>
+      </c>
+      <c r="C655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4">
+      <c r="A656" t="s">
+        <v>356</v>
+      </c>
+      <c r="B656" t="s">
+        <v>357</v>
+      </c>
+      <c r="C656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4">
+      <c r="A657" t="s">
+        <v>356</v>
+      </c>
+      <c r="B657" t="s">
+        <v>50</v>
+      </c>
+      <c r="C657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4">
+      <c r="A658" t="s">
+        <v>356</v>
+      </c>
+      <c r="B658" t="s">
+        <v>51</v>
+      </c>
+      <c r="C658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4">
+      <c r="A659" t="s">
+        <v>356</v>
+      </c>
+      <c r="B659" t="s">
+        <v>52</v>
+      </c>
+      <c r="C659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4">
+      <c r="A660" t="s">
+        <v>356</v>
+      </c>
+      <c r="B660" t="s">
+        <v>33</v>
+      </c>
+      <c r="C660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4">
+      <c r="A661" t="s">
+        <v>356</v>
+      </c>
+      <c r="B661" t="s">
+        <v>34</v>
+      </c>
+      <c r="C661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4">
+      <c r="A662" t="s">
+        <v>356</v>
+      </c>
+      <c r="B662" t="s">
+        <v>45</v>
+      </c>
+      <c r="C662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4">
+      <c r="A663" t="s">
+        <v>356</v>
+      </c>
+      <c r="B663" t="s">
+        <v>358</v>
+      </c>
+      <c r="C663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4">
+      <c r="A664" t="s">
+        <v>356</v>
+      </c>
+      <c r="B664" t="s">
+        <v>4</v>
+      </c>
+      <c r="C664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4">
+      <c r="A665" t="s">
+        <v>356</v>
+      </c>
+      <c r="B665" t="s">
+        <v>40</v>
+      </c>
+      <c r="C665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4">
+      <c r="A666" t="s">
+        <v>356</v>
+      </c>
+      <c r="B666" t="s">
+        <v>359</v>
+      </c>
+      <c r="C666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4">
+      <c r="A667" t="s">
+        <v>356</v>
+      </c>
+      <c r="B667" t="s">
+        <v>360</v>
+      </c>
+      <c r="C667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4">
+      <c r="A668" t="s">
+        <v>356</v>
+      </c>
+      <c r="B668" t="s">
+        <v>361</v>
+      </c>
+      <c r="C668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4">
+      <c r="A669" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C669">
+        <v>0</v>
+      </c>
+      <c r="D669" s="2"/>
+    </row>
+    <row r="670" spans="1:4">
+      <c r="A670" t="s">
+        <v>362</v>
+      </c>
+      <c r="B670" t="s">
+        <v>36</v>
+      </c>
+      <c r="C670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4">
+      <c r="A671" t="s">
+        <v>362</v>
+      </c>
+      <c r="B671" t="s">
+        <v>363</v>
+      </c>
+      <c r="C671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4">
+      <c r="A672" t="s">
+        <v>362</v>
+      </c>
+      <c r="B672" t="s">
+        <v>364</v>
+      </c>
+      <c r="C672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4">
+      <c r="A673" t="s">
+        <v>362</v>
+      </c>
+      <c r="B673" t="s">
+        <v>338</v>
+      </c>
+      <c r="C673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4">
+      <c r="A674" t="s">
+        <v>362</v>
+      </c>
+      <c r="B674" t="s">
+        <v>365</v>
+      </c>
+      <c r="C674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4">
+      <c r="A675" t="s">
+        <v>362</v>
+      </c>
+      <c r="B675" t="s">
+        <v>355</v>
+      </c>
+      <c r="C675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4">
+      <c r="A676" t="s">
+        <v>362</v>
+      </c>
+      <c r="B676" t="s">
+        <v>366</v>
+      </c>
+      <c r="C676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4">
+      <c r="A677" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C677" s="2">
+        <v>0</v>
+      </c>
+      <c r="D677" s="2"/>
+    </row>
+    <row r="678" spans="1:4">
+      <c r="A678" t="s">
+        <v>367</v>
+      </c>
+      <c r="B678" t="s">
+        <v>5</v>
+      </c>
+      <c r="C678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4">
+      <c r="A679" t="s">
+        <v>367</v>
+      </c>
+      <c r="B679" t="s">
+        <v>7</v>
+      </c>
+      <c r="C679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4">
+      <c r="A680" t="s">
+        <v>367</v>
+      </c>
+      <c r="B680" t="s">
+        <v>6</v>
+      </c>
+      <c r="C680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4">
+      <c r="A681" t="s">
+        <v>367</v>
+      </c>
+      <c r="B681" t="s">
+        <v>368</v>
+      </c>
+      <c r="C681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4">
+      <c r="A682" t="s">
+        <v>367</v>
+      </c>
+      <c r="B682" t="s">
+        <v>369</v>
+      </c>
+      <c r="C682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4">
+      <c r="A683" t="s">
+        <v>367</v>
+      </c>
+      <c r="B683" t="s">
+        <v>253</v>
+      </c>
+      <c r="C683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4">
+      <c r="A684" t="s">
+        <v>367</v>
+      </c>
+      <c r="B684" t="s">
+        <v>112</v>
+      </c>
+      <c r="C684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4">
+      <c r="A685" t="s">
+        <v>367</v>
+      </c>
+      <c r="B685" t="s">
+        <v>370</v>
+      </c>
+      <c r="C685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4">
+      <c r="A686" t="s">
+        <v>367</v>
+      </c>
+      <c r="B686" t="s">
+        <v>9</v>
+      </c>
+      <c r="C686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4">
+      <c r="A687" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C687" s="2">
+        <v>1</v>
+      </c>
+      <c r="D687" s="2"/>
+    </row>
+    <row r="688" spans="1:4">
+      <c r="A688" t="s">
+        <v>371</v>
+      </c>
+      <c r="B688" t="s">
+        <v>36</v>
+      </c>
+      <c r="C688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4">
+      <c r="A689" t="s">
+        <v>371</v>
+      </c>
+      <c r="B689" t="s">
+        <v>5</v>
+      </c>
+      <c r="C689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4">
+      <c r="A690" t="s">
+        <v>371</v>
+      </c>
+      <c r="B690" t="s">
+        <v>6</v>
+      </c>
+      <c r="C690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4">
+      <c r="A691" t="s">
+        <v>371</v>
+      </c>
+      <c r="B691" t="s">
+        <v>341</v>
+      </c>
+      <c r="C691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4">
+      <c r="A692" t="s">
+        <v>371</v>
+      </c>
+      <c r="B692" t="s">
+        <v>342</v>
+      </c>
+      <c r="C692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4">
+      <c r="A693" t="s">
+        <v>371</v>
+      </c>
+      <c r="B693" t="s">
+        <v>343</v>
+      </c>
+      <c r="C693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4">
+      <c r="A694" t="s">
+        <v>371</v>
+      </c>
+      <c r="B694" t="s">
+        <v>344</v>
+      </c>
+      <c r="C694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4">
+      <c r="A695" t="s">
+        <v>371</v>
+      </c>
+      <c r="B695" t="s">
+        <v>345</v>
+      </c>
+      <c r="C695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4">
+      <c r="A696" t="s">
+        <v>371</v>
+      </c>
+      <c r="B696" t="s">
+        <v>346</v>
+      </c>
+      <c r="C696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4">
+      <c r="A697" t="s">
+        <v>371</v>
+      </c>
+      <c r="B697" t="s">
+        <v>347</v>
+      </c>
+      <c r="C697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4">
+      <c r="A698" t="s">
+        <v>371</v>
+      </c>
+      <c r="B698" t="s">
+        <v>348</v>
+      </c>
+      <c r="C698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4">
+      <c r="A699" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C699" s="2">
+        <v>0</v>
+      </c>
+      <c r="D699" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="372">
   <si>
     <t>TABELA</t>
   </si>
@@ -1196,8 +1196,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D699" totalsRowShown="0">
-  <autoFilter ref="A1:D699">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D700" totalsRowShown="0">
+  <autoFilter ref="A1:D700">
     <filterColumn colId="0"/>
     <filterColumn colId="3"/>
   </autoFilter>
@@ -1496,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D699"/>
+  <dimension ref="A1:D700"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A602" workbookViewId="0">
-      <selection activeCell="C692" sqref="C692"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A326" workbookViewId="0">
+      <selection activeCell="D343" sqref="D343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5699,13 +5699,13 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B343" t="s">
-        <v>5</v>
+        <v>235</v>
       </c>
       <c r="C343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5713,10 +5713,10 @@
         <v>205</v>
       </c>
       <c r="B344" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5724,13 +5724,10 @@
         <v>205</v>
       </c>
       <c r="B345" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C345">
         <v>0</v>
-      </c>
-      <c r="D345">
-        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5738,7 +5735,7 @@
         <v>205</v>
       </c>
       <c r="B346" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -5752,9 +5749,12 @@
         <v>205</v>
       </c>
       <c r="B347" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347">
         <v>1</v>
       </c>
     </row>
@@ -5763,10 +5763,10 @@
         <v>205</v>
       </c>
       <c r="B348" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5774,7 +5774,7 @@
         <v>205</v>
       </c>
       <c r="B349" t="s">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -5785,7 +5785,7 @@
         <v>205</v>
       </c>
       <c r="B350" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>205</v>
       </c>
       <c r="B351" t="s">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -5807,7 +5807,7 @@
         <v>205</v>
       </c>
       <c r="B352" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -5818,7 +5818,7 @@
         <v>205</v>
       </c>
       <c r="B353" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -5829,7 +5829,7 @@
         <v>205</v>
       </c>
       <c r="B354" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -5840,7 +5840,7 @@
         <v>205</v>
       </c>
       <c r="B355" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -5851,7 +5851,7 @@
         <v>205</v>
       </c>
       <c r="B356" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>205</v>
       </c>
       <c r="B357" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>205</v>
       </c>
       <c r="B358" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>205</v>
       </c>
       <c r="B359" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -5895,7 +5895,7 @@
         <v>205</v>
       </c>
       <c r="B360" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -5906,13 +5906,10 @@
         <v>205</v>
       </c>
       <c r="B361" t="s">
-        <v>208</v>
+        <v>89</v>
       </c>
       <c r="C361">
         <v>0</v>
-      </c>
-      <c r="D361">
-        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5920,10 +5917,13 @@
         <v>205</v>
       </c>
       <c r="B362" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="C362">
         <v>0</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5931,7 +5931,7 @@
         <v>205</v>
       </c>
       <c r="B363" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>205</v>
       </c>
       <c r="B364" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -5953,7 +5953,7 @@
         <v>205</v>
       </c>
       <c r="B365" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -5964,7 +5964,7 @@
         <v>205</v>
       </c>
       <c r="B366" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>205</v>
       </c>
       <c r="B367" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>205</v>
       </c>
       <c r="B368" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -5997,7 +5997,7 @@
         <v>205</v>
       </c>
       <c r="B369" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -6008,7 +6008,7 @@
         <v>205</v>
       </c>
       <c r="B370" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>205</v>
       </c>
       <c r="B371" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -6030,7 +6030,7 @@
         <v>205</v>
       </c>
       <c r="B372" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C372">
         <v>0</v>
@@ -6041,7 +6041,7 @@
         <v>205</v>
       </c>
       <c r="B373" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C373">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>205</v>
       </c>
       <c r="B374" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -6063,7 +6063,7 @@
         <v>205</v>
       </c>
       <c r="B375" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -6074,7 +6074,7 @@
         <v>205</v>
       </c>
       <c r="B376" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C376">
         <v>0</v>
@@ -6085,7 +6085,7 @@
         <v>205</v>
       </c>
       <c r="B377" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>205</v>
       </c>
       <c r="B378" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -6107,10 +6107,10 @@
         <v>205</v>
       </c>
       <c r="B379" t="s">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="C379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6118,10 +6118,10 @@
         <v>205</v>
       </c>
       <c r="B380" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="C380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6129,7 +6129,7 @@
         <v>205</v>
       </c>
       <c r="B381" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C381">
         <v>0</v>
@@ -6140,7 +6140,7 @@
         <v>205</v>
       </c>
       <c r="B382" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>205</v>
       </c>
       <c r="B383" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -6162,7 +6162,7 @@
         <v>205</v>
       </c>
       <c r="B384" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -6173,7 +6173,7 @@
         <v>205</v>
       </c>
       <c r="B385" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -6184,7 +6184,7 @@
         <v>205</v>
       </c>
       <c r="B386" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -6195,13 +6195,10 @@
         <v>205</v>
       </c>
       <c r="B387" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C387">
         <v>0</v>
-      </c>
-      <c r="D387">
-        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -6209,10 +6206,13 @@
         <v>205</v>
       </c>
       <c r="B388" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="C388">
         <v>0</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -6220,10 +6220,10 @@
         <v>205</v>
       </c>
       <c r="B389" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -6231,10 +6231,10 @@
         <v>205</v>
       </c>
       <c r="B390" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="C390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -6242,7 +6242,7 @@
         <v>205</v>
       </c>
       <c r="B391" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C391">
         <v>0</v>
@@ -6250,13 +6250,13 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B392" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="C392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -6264,10 +6264,10 @@
         <v>210</v>
       </c>
       <c r="B393" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -6275,13 +6275,10 @@
         <v>210</v>
       </c>
       <c r="B394" t="s">
-        <v>211</v>
+        <v>6</v>
       </c>
       <c r="C394">
         <v>0</v>
-      </c>
-      <c r="D394">
-        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -6289,7 +6286,7 @@
         <v>210</v>
       </c>
       <c r="B395" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C395">
         <v>0</v>
@@ -6303,7 +6300,7 @@
         <v>210</v>
       </c>
       <c r="B396" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -6317,7 +6314,7 @@
         <v>210</v>
       </c>
       <c r="B397" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -6331,7 +6328,7 @@
         <v>210</v>
       </c>
       <c r="B398" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -6345,7 +6342,7 @@
         <v>210</v>
       </c>
       <c r="B399" t="s">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -6359,7 +6356,7 @@
         <v>210</v>
       </c>
       <c r="B400" t="s">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -6373,7 +6370,7 @@
         <v>210</v>
       </c>
       <c r="B401" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -6387,10 +6384,13 @@
         <v>210</v>
       </c>
       <c r="B402" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="C402">
         <v>0</v>
+      </c>
+      <c r="D402">
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -6398,18 +6398,18 @@
         <v>210</v>
       </c>
       <c r="B403" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B404" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C404">
         <v>1</v>
@@ -6420,10 +6420,10 @@
         <v>217</v>
       </c>
       <c r="B405" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6431,10 +6431,10 @@
         <v>217</v>
       </c>
       <c r="B406" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6442,10 +6442,10 @@
         <v>217</v>
       </c>
       <c r="B407" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="C407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6453,13 +6453,10 @@
         <v>217</v>
       </c>
       <c r="B408" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="C408">
         <v>0</v>
-      </c>
-      <c r="D408">
-        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6467,7 +6464,7 @@
         <v>217</v>
       </c>
       <c r="B409" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -6481,7 +6478,7 @@
         <v>217</v>
       </c>
       <c r="B410" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -6495,7 +6492,7 @@
         <v>217</v>
       </c>
       <c r="B411" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -6509,7 +6506,7 @@
         <v>217</v>
       </c>
       <c r="B412" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -6523,10 +6520,13 @@
         <v>217</v>
       </c>
       <c r="B413" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="C413">
         <v>0</v>
+      </c>
+      <c r="D413">
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6534,13 +6534,10 @@
         <v>217</v>
       </c>
       <c r="B414" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C414">
         <v>0</v>
-      </c>
-      <c r="D414">
-        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6548,10 +6545,13 @@
         <v>217</v>
       </c>
       <c r="B415" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C415">
         <v>0</v>
+      </c>
+      <c r="D415">
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6559,13 +6559,10 @@
         <v>217</v>
       </c>
       <c r="B416" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C416">
         <v>0</v>
-      </c>
-      <c r="D416">
-        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6573,7 +6570,7 @@
         <v>217</v>
       </c>
       <c r="B417" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C417">
         <v>0</v>
@@ -6587,7 +6584,7 @@
         <v>217</v>
       </c>
       <c r="B418" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C418">
         <v>0</v>
@@ -6601,7 +6598,7 @@
         <v>217</v>
       </c>
       <c r="B419" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -6615,7 +6612,7 @@
         <v>217</v>
       </c>
       <c r="B420" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -6629,7 +6626,7 @@
         <v>217</v>
       </c>
       <c r="B421" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -6643,7 +6640,7 @@
         <v>217</v>
       </c>
       <c r="B422" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="C422">
         <v>0</v>
@@ -6657,7 +6654,7 @@
         <v>217</v>
       </c>
       <c r="B423" t="s">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -6671,10 +6668,13 @@
         <v>217</v>
       </c>
       <c r="B424" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C424">
         <v>0</v>
+      </c>
+      <c r="D424">
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6682,7 +6682,7 @@
         <v>217</v>
       </c>
       <c r="B425" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C425">
         <v>0</v>
@@ -6693,13 +6693,10 @@
         <v>217</v>
       </c>
       <c r="B426" t="s">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="C426">
         <v>0</v>
-      </c>
-      <c r="D426">
-        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6707,7 +6704,7 @@
         <v>217</v>
       </c>
       <c r="B427" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -6721,7 +6718,7 @@
         <v>217</v>
       </c>
       <c r="B428" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="C428">
         <v>0</v>
@@ -6735,10 +6732,13 @@
         <v>217</v>
       </c>
       <c r="B429" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C429">
         <v>0</v>
+      </c>
+      <c r="D429">
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -6746,7 +6746,7 @@
         <v>217</v>
       </c>
       <c r="B430" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -6757,13 +6757,10 @@
         <v>217</v>
       </c>
       <c r="B431" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="C431">
         <v>0</v>
-      </c>
-      <c r="D431">
-        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -6771,7 +6768,7 @@
         <v>217</v>
       </c>
       <c r="B432" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C432">
         <v>0</v>
@@ -6785,10 +6782,13 @@
         <v>217</v>
       </c>
       <c r="B433" t="s">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="C433">
         <v>0</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6796,7 +6796,7 @@
         <v>217</v>
       </c>
       <c r="B434" t="s">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -6807,23 +6807,23 @@
         <v>217</v>
       </c>
       <c r="B435" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C435">
         <v>0</v>
-      </c>
-      <c r="D435">
-        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B436" t="s">
-        <v>5</v>
+        <v>236</v>
       </c>
       <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436">
         <v>1</v>
       </c>
     </row>
@@ -6832,7 +6832,7 @@
         <v>237</v>
       </c>
       <c r="B437" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C437">
         <v>1</v>
@@ -6843,10 +6843,10 @@
         <v>237</v>
       </c>
       <c r="B438" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="C438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -6854,10 +6854,10 @@
         <v>237</v>
       </c>
       <c r="B439" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="C439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6865,10 +6865,10 @@
         <v>237</v>
       </c>
       <c r="B440" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="C440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6876,13 +6876,10 @@
         <v>237</v>
       </c>
       <c r="B441" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C441">
         <v>0</v>
-      </c>
-      <c r="D441">
-        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6890,7 +6887,7 @@
         <v>237</v>
       </c>
       <c r="B442" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C442">
         <v>0</v>
@@ -6904,7 +6901,7 @@
         <v>237</v>
       </c>
       <c r="B443" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C443">
         <v>0</v>
@@ -6918,7 +6915,7 @@
         <v>237</v>
       </c>
       <c r="B444" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -6932,7 +6929,7 @@
         <v>237</v>
       </c>
       <c r="B445" t="s">
-        <v>120</v>
+        <v>242</v>
       </c>
       <c r="C445">
         <v>0</v>
@@ -6946,7 +6943,7 @@
         <v>237</v>
       </c>
       <c r="B446" t="s">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="C446">
         <v>0</v>
@@ -6960,7 +6957,7 @@
         <v>237</v>
       </c>
       <c r="B447" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -6974,7 +6971,7 @@
         <v>237</v>
       </c>
       <c r="B448" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C448">
         <v>0</v>
@@ -6988,7 +6985,7 @@
         <v>237</v>
       </c>
       <c r="B449" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C449">
         <v>0</v>
@@ -7002,7 +6999,7 @@
         <v>237</v>
       </c>
       <c r="B450" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C450">
         <v>0</v>
@@ -7016,7 +7013,7 @@
         <v>237</v>
       </c>
       <c r="B451" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="C451">
         <v>0</v>
@@ -7030,7 +7027,7 @@
         <v>237</v>
       </c>
       <c r="B452" t="s">
-        <v>248</v>
+        <v>33</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -7044,7 +7041,7 @@
         <v>237</v>
       </c>
       <c r="B453" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="C453">
         <v>0</v>
@@ -7058,7 +7055,7 @@
         <v>237</v>
       </c>
       <c r="B454" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="C454">
         <v>0</v>
@@ -7072,7 +7069,7 @@
         <v>237</v>
       </c>
       <c r="B455" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="C455">
         <v>0</v>
@@ -7086,10 +7083,13 @@
         <v>237</v>
       </c>
       <c r="B456" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C456">
         <v>0</v>
+      </c>
+      <c r="D456">
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -7097,7 +7097,7 @@
         <v>237</v>
       </c>
       <c r="B457" t="s">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -7108,7 +7108,7 @@
         <v>237</v>
       </c>
       <c r="B458" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -7116,16 +7116,13 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B459" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C459">
         <v>0</v>
-      </c>
-      <c r="D459">
-        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -7133,9 +7130,12 @@
         <v>249</v>
       </c>
       <c r="B460" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C460">
+        <v>0</v>
+      </c>
+      <c r="D460">
         <v>1</v>
       </c>
     </row>
@@ -7144,7 +7144,7 @@
         <v>249</v>
       </c>
       <c r="B461" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C461">
         <v>1</v>
@@ -7155,10 +7155,10 @@
         <v>249</v>
       </c>
       <c r="B462" t="s">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="C462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -7166,7 +7166,7 @@
         <v>249</v>
       </c>
       <c r="B463" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C463">
         <v>0</v>
@@ -7177,7 +7177,7 @@
         <v>249</v>
       </c>
       <c r="B464" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C464">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>249</v>
       </c>
       <c r="B465" t="s">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="C465">
         <v>0</v>
@@ -7199,7 +7199,7 @@
         <v>249</v>
       </c>
       <c r="B466" t="s">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="C466">
         <v>0</v>
@@ -7210,10 +7210,10 @@
         <v>249</v>
       </c>
       <c r="B467" t="s">
-        <v>70</v>
+        <v>253</v>
       </c>
       <c r="C467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -7221,10 +7221,10 @@
         <v>249</v>
       </c>
       <c r="B468" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="C468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -7232,7 +7232,7 @@
         <v>249</v>
       </c>
       <c r="B469" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="C469">
         <v>0</v>
@@ -7243,7 +7243,7 @@
         <v>249</v>
       </c>
       <c r="B470" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C470">
         <v>0</v>
@@ -7254,7 +7254,7 @@
         <v>249</v>
       </c>
       <c r="B471" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -7265,7 +7265,7 @@
         <v>249</v>
       </c>
       <c r="B472" t="s">
-        <v>254</v>
+        <v>64</v>
       </c>
       <c r="C472">
         <v>0</v>
@@ -7276,13 +7276,10 @@
         <v>249</v>
       </c>
       <c r="B473" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="C473">
         <v>0</v>
-      </c>
-      <c r="D473">
-        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -7290,7 +7287,7 @@
         <v>249</v>
       </c>
       <c r="B474" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C474">
         <v>0</v>
@@ -7304,7 +7301,7 @@
         <v>249</v>
       </c>
       <c r="B475" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C475">
         <v>0</v>
@@ -7318,7 +7315,7 @@
         <v>249</v>
       </c>
       <c r="B476" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
       <c r="C476">
         <v>0</v>
@@ -7332,10 +7329,13 @@
         <v>249</v>
       </c>
       <c r="B477" t="s">
-        <v>256</v>
+        <v>86</v>
       </c>
       <c r="C477">
         <v>0</v>
+      </c>
+      <c r="D477">
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7343,7 +7343,7 @@
         <v>249</v>
       </c>
       <c r="B478" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C478">
         <v>0</v>
@@ -7354,7 +7354,7 @@
         <v>249</v>
       </c>
       <c r="B479" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C479">
         <v>0</v>
@@ -7365,13 +7365,10 @@
         <v>249</v>
       </c>
       <c r="B480" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C480">
         <v>0</v>
-      </c>
-      <c r="D480">
-        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7379,7 +7376,7 @@
         <v>249</v>
       </c>
       <c r="B481" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C481">
         <v>0</v>
@@ -7393,10 +7390,13 @@
         <v>249</v>
       </c>
       <c r="B482" t="s">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="C482">
         <v>0</v>
+      </c>
+      <c r="D482">
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7404,7 +7404,7 @@
         <v>249</v>
       </c>
       <c r="B483" t="s">
-        <v>261</v>
+        <v>109</v>
       </c>
       <c r="C483">
         <v>0</v>
@@ -7415,7 +7415,7 @@
         <v>249</v>
       </c>
       <c r="B484" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="C484">
         <v>0</v>
@@ -7426,7 +7426,7 @@
         <v>249</v>
       </c>
       <c r="B485" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="C485">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>249</v>
       </c>
       <c r="B486" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C486">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>249</v>
       </c>
       <c r="B487" t="s">
-        <v>110</v>
+        <v>263</v>
       </c>
       <c r="C487">
         <v>0</v>
@@ -7459,7 +7459,7 @@
         <v>249</v>
       </c>
       <c r="B488" t="s">
-        <v>264</v>
+        <v>110</v>
       </c>
       <c r="C488">
         <v>0</v>
@@ -7470,7 +7470,7 @@
         <v>249</v>
       </c>
       <c r="B489" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -7481,7 +7481,7 @@
         <v>249</v>
       </c>
       <c r="B490" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C490">
         <v>0</v>
@@ -7492,7 +7492,7 @@
         <v>249</v>
       </c>
       <c r="B491" t="s">
-        <v>126</v>
+        <v>266</v>
       </c>
       <c r="C491">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>249</v>
       </c>
       <c r="B492" t="s">
-        <v>267</v>
+        <v>126</v>
       </c>
       <c r="C492">
         <v>0</v>
@@ -7514,7 +7514,7 @@
         <v>249</v>
       </c>
       <c r="B493" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C493">
         <v>0</v>
@@ -7525,13 +7525,10 @@
         <v>249</v>
       </c>
       <c r="B494" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C494">
         <v>0</v>
-      </c>
-      <c r="D494">
-        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7539,7 +7536,7 @@
         <v>249</v>
       </c>
       <c r="B495" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C495">
         <v>0</v>
@@ -7553,10 +7550,13 @@
         <v>249</v>
       </c>
       <c r="B496" t="s">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="C496">
         <v>0</v>
+      </c>
+      <c r="D496">
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7564,7 +7564,7 @@
         <v>249</v>
       </c>
       <c r="B497" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C497">
         <v>0</v>
@@ -7575,7 +7575,7 @@
         <v>249</v>
       </c>
       <c r="B498" t="s">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="C498">
         <v>0</v>
@@ -7586,13 +7586,10 @@
         <v>249</v>
       </c>
       <c r="B499" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C499">
         <v>0</v>
-      </c>
-      <c r="D499">
-        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -7600,10 +7597,13 @@
         <v>249</v>
       </c>
       <c r="B500" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C500">
         <v>0</v>
+      </c>
+      <c r="D500">
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7611,7 +7611,7 @@
         <v>249</v>
       </c>
       <c r="B501" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>249</v>
       </c>
       <c r="B502" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -7633,7 +7633,7 @@
         <v>249</v>
       </c>
       <c r="B503" t="s">
-        <v>124</v>
+        <v>275</v>
       </c>
       <c r="C503">
         <v>0</v>
@@ -7644,7 +7644,7 @@
         <v>249</v>
       </c>
       <c r="B504" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C504">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>249</v>
       </c>
       <c r="B505" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C505">
         <v>0</v>
@@ -7666,7 +7666,7 @@
         <v>249</v>
       </c>
       <c r="B506" t="s">
-        <v>276</v>
+        <v>119</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -7677,13 +7677,10 @@
         <v>249</v>
       </c>
       <c r="B507" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C507">
         <v>0</v>
-      </c>
-      <c r="D507">
-        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -7691,7 +7688,7 @@
         <v>249</v>
       </c>
       <c r="B508" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C508">
         <v>0</v>
@@ -7705,10 +7702,13 @@
         <v>249</v>
       </c>
       <c r="B509" t="s">
-        <v>34</v>
+        <v>278</v>
       </c>
       <c r="C509">
         <v>0</v>
+      </c>
+      <c r="D509">
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7716,7 +7716,7 @@
         <v>249</v>
       </c>
       <c r="B510" t="s">
-        <v>339</v>
+        <v>34</v>
       </c>
       <c r="C510">
         <v>0</v>
@@ -7724,13 +7724,13 @@
     </row>
     <row r="511" spans="1:4">
       <c r="A511" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="B511" t="s">
-        <v>5</v>
+        <v>339</v>
       </c>
       <c r="C511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7738,7 +7738,7 @@
         <v>279</v>
       </c>
       <c r="B512" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="C512">
         <v>1</v>
@@ -7749,10 +7749,10 @@
         <v>279</v>
       </c>
       <c r="B513" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -7760,7 +7760,7 @@
         <v>279</v>
       </c>
       <c r="B514" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C514">
         <v>0</v>
@@ -7771,7 +7771,7 @@
         <v>279</v>
       </c>
       <c r="B515" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -7782,7 +7782,7 @@
         <v>279</v>
       </c>
       <c r="B516" t="s">
-        <v>280</v>
+        <v>66</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -7793,7 +7793,7 @@
         <v>279</v>
       </c>
       <c r="B517" t="s">
-        <v>109</v>
+        <v>280</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -7804,7 +7804,7 @@
         <v>279</v>
       </c>
       <c r="B518" t="s">
-        <v>261</v>
+        <v>109</v>
       </c>
       <c r="C518">
         <v>0</v>
@@ -7815,7 +7815,7 @@
         <v>279</v>
       </c>
       <c r="B519" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="C519">
         <v>0</v>
@@ -7826,7 +7826,7 @@
         <v>279</v>
       </c>
       <c r="B520" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="C520">
         <v>0</v>
@@ -7837,7 +7837,7 @@
         <v>279</v>
       </c>
       <c r="B521" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C521">
         <v>0</v>
@@ -7848,7 +7848,7 @@
         <v>279</v>
       </c>
       <c r="B522" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C522">
         <v>0</v>
@@ -7859,7 +7859,7 @@
         <v>279</v>
       </c>
       <c r="B523" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C523">
         <v>0</v>
@@ -7870,7 +7870,7 @@
         <v>279</v>
       </c>
       <c r="B524" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C524">
         <v>0</v>
@@ -7881,7 +7881,7 @@
         <v>279</v>
       </c>
       <c r="B525" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C525">
         <v>0</v>
@@ -7892,7 +7892,7 @@
         <v>279</v>
       </c>
       <c r="B526" t="s">
-        <v>67</v>
+        <v>286</v>
       </c>
       <c r="C526">
         <v>0</v>
@@ -7903,7 +7903,7 @@
         <v>279</v>
       </c>
       <c r="B527" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="C527">
         <v>0</v>
@@ -7914,7 +7914,7 @@
         <v>279</v>
       </c>
       <c r="B528" t="s">
-        <v>264</v>
+        <v>110</v>
       </c>
       <c r="C528">
         <v>0</v>
@@ -7925,7 +7925,7 @@
         <v>279</v>
       </c>
       <c r="B529" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C529">
         <v>0</v>
@@ -7936,7 +7936,7 @@
         <v>279</v>
       </c>
       <c r="B530" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C530">
         <v>0</v>
@@ -7947,7 +7947,7 @@
         <v>279</v>
       </c>
       <c r="B531" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="C531">
         <v>0</v>
@@ -7958,7 +7958,7 @@
         <v>279</v>
       </c>
       <c r="B532" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C532">
         <v>0</v>
@@ -7969,7 +7969,7 @@
         <v>279</v>
       </c>
       <c r="B533" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C533">
         <v>0</v>
@@ -7980,7 +7980,7 @@
         <v>279</v>
       </c>
       <c r="B534" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C534">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>279</v>
       </c>
       <c r="B535" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C535">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>279</v>
       </c>
       <c r="B536" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C536">
         <v>0</v>
@@ -8013,13 +8013,10 @@
         <v>279</v>
       </c>
       <c r="B537" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C537">
         <v>0</v>
-      </c>
-      <c r="D537">
-        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -8027,7 +8024,7 @@
         <v>279</v>
       </c>
       <c r="B538" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C538">
         <v>0</v>
@@ -8041,24 +8038,24 @@
         <v>279</v>
       </c>
       <c r="B539" t="s">
-        <v>126</v>
+        <v>294</v>
       </c>
       <c r="C539">
         <v>0</v>
+      </c>
+      <c r="D539">
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:4">
       <c r="A540" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B540" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="C540">
         <v>0</v>
-      </c>
-      <c r="D540">
-        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -8066,9 +8063,12 @@
         <v>295</v>
       </c>
       <c r="B541" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C541">
+        <v>0</v>
+      </c>
+      <c r="D541">
         <v>1</v>
       </c>
     </row>
@@ -8077,10 +8077,10 @@
         <v>295</v>
       </c>
       <c r="B542" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="C542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -8088,10 +8088,10 @@
         <v>295</v>
       </c>
       <c r="B543" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -8099,10 +8099,10 @@
         <v>295</v>
       </c>
       <c r="B544" t="s">
-        <v>251</v>
+        <v>71</v>
       </c>
       <c r="C544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8110,13 +8110,10 @@
         <v>295</v>
       </c>
       <c r="B545" t="s">
-        <v>120</v>
+        <v>251</v>
       </c>
       <c r="C545">
         <v>0</v>
-      </c>
-      <c r="D545">
-        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -8124,7 +8121,7 @@
         <v>295</v>
       </c>
       <c r="B546" t="s">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="C546">
         <v>0</v>
@@ -8138,10 +8135,13 @@
         <v>295</v>
       </c>
       <c r="B547" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="C547">
         <v>0</v>
+      </c>
+      <c r="D547">
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -8149,10 +8149,10 @@
         <v>295</v>
       </c>
       <c r="B548" t="s">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="C548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -8160,12 +8160,9 @@
         <v>295</v>
       </c>
       <c r="B549" t="s">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="C549">
-        <v>0</v>
-      </c>
-      <c r="D549">
         <v>1</v>
       </c>
     </row>
@@ -8174,7 +8171,7 @@
         <v>295</v>
       </c>
       <c r="B550" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C550">
         <v>0</v>
@@ -8188,7 +8185,7 @@
         <v>295</v>
       </c>
       <c r="B551" t="s">
-        <v>106</v>
+        <v>297</v>
       </c>
       <c r="C551">
         <v>0</v>
@@ -8202,7 +8199,7 @@
         <v>295</v>
       </c>
       <c r="B552" t="s">
-        <v>255</v>
+        <v>106</v>
       </c>
       <c r="C552">
         <v>0</v>
@@ -8216,7 +8213,7 @@
         <v>295</v>
       </c>
       <c r="B553" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
       <c r="C553">
         <v>0</v>
@@ -8230,10 +8227,13 @@
         <v>295</v>
       </c>
       <c r="B554" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C554">
         <v>0</v>
+      </c>
+      <c r="D554">
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -8241,7 +8241,7 @@
         <v>295</v>
       </c>
       <c r="B555" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C555">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>295</v>
       </c>
       <c r="B556" t="s">
-        <v>298</v>
+        <v>126</v>
       </c>
       <c r="C556">
         <v>0</v>
@@ -8263,7 +8263,7 @@
         <v>295</v>
       </c>
       <c r="B557" t="s">
-        <v>54</v>
+        <v>298</v>
       </c>
       <c r="C557">
         <v>0</v>
@@ -8274,7 +8274,7 @@
         <v>295</v>
       </c>
       <c r="B558" t="s">
-        <v>299</v>
+        <v>54</v>
       </c>
       <c r="C558">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>295</v>
       </c>
       <c r="B559" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C559">
         <v>0</v>
@@ -8296,7 +8296,7 @@
         <v>295</v>
       </c>
       <c r="B560" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C560">
         <v>0</v>
@@ -8307,13 +8307,10 @@
         <v>295</v>
       </c>
       <c r="B561" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C561">
         <v>0</v>
-      </c>
-      <c r="D561">
-        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -8321,7 +8318,7 @@
         <v>295</v>
       </c>
       <c r="B562" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C562">
         <v>0</v>
@@ -8335,7 +8332,7 @@
         <v>295</v>
       </c>
       <c r="B563" t="s">
-        <v>89</v>
+        <v>303</v>
       </c>
       <c r="C563">
         <v>0</v>
@@ -8349,7 +8346,7 @@
         <v>295</v>
       </c>
       <c r="B564" t="s">
-        <v>304</v>
+        <v>89</v>
       </c>
       <c r="C564">
         <v>0</v>
@@ -8363,10 +8360,13 @@
         <v>295</v>
       </c>
       <c r="B565" t="s">
-        <v>6</v>
+        <v>304</v>
       </c>
       <c r="C565">
         <v>0</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -8374,7 +8374,7 @@
         <v>295</v>
       </c>
       <c r="B566" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C566">
         <v>0</v>
@@ -8385,7 +8385,7 @@
         <v>295</v>
       </c>
       <c r="B567" t="s">
-        <v>305</v>
+        <v>34</v>
       </c>
       <c r="C567">
         <v>0</v>
@@ -8396,7 +8396,7 @@
         <v>295</v>
       </c>
       <c r="B568" t="s">
-        <v>69</v>
+        <v>305</v>
       </c>
       <c r="C568">
         <v>0</v>
@@ -8407,10 +8407,10 @@
         <v>295</v>
       </c>
       <c r="B569" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -8418,10 +8418,10 @@
         <v>295</v>
       </c>
       <c r="B570" t="s">
-        <v>306</v>
+        <v>70</v>
       </c>
       <c r="C570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -8429,7 +8429,7 @@
         <v>295</v>
       </c>
       <c r="B571" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C571">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>295</v>
       </c>
       <c r="B572" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="C572">
         <v>0</v>
@@ -8451,13 +8451,10 @@
         <v>295</v>
       </c>
       <c r="B573" t="s">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="C573">
         <v>0</v>
-      </c>
-      <c r="D573">
-        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -8465,10 +8462,13 @@
         <v>295</v>
       </c>
       <c r="B574" t="s">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="C574">
         <v>0</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -8476,23 +8476,20 @@
         <v>295</v>
       </c>
       <c r="B575" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C575">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:4">
       <c r="A576" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B576" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C576">
-        <v>0</v>
-      </c>
-      <c r="D576">
         <v>1</v>
       </c>
     </row>
@@ -8501,9 +8498,12 @@
         <v>308</v>
       </c>
       <c r="B577" t="s">
-        <v>5</v>
+        <v>331</v>
       </c>
       <c r="C577">
+        <v>0</v>
+      </c>
+      <c r="D577">
         <v>1</v>
       </c>
     </row>
@@ -8512,7 +8512,7 @@
         <v>308</v>
       </c>
       <c r="B578" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C578">
         <v>1</v>
@@ -8523,10 +8523,10 @@
         <v>308</v>
       </c>
       <c r="B579" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -8534,10 +8534,10 @@
         <v>308</v>
       </c>
       <c r="B580" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -8545,7 +8545,7 @@
         <v>308</v>
       </c>
       <c r="B581" t="s">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="C581">
         <v>1</v>
@@ -8556,7 +8556,7 @@
         <v>308</v>
       </c>
       <c r="B582" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C582">
         <v>1</v>
@@ -8567,10 +8567,10 @@
         <v>308</v>
       </c>
       <c r="B583" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -8578,7 +8578,7 @@
         <v>308</v>
       </c>
       <c r="B584" t="s">
-        <v>50</v>
+        <v>311</v>
       </c>
       <c r="C584">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>308</v>
       </c>
       <c r="B585" t="s">
-        <v>312</v>
+        <v>50</v>
       </c>
       <c r="C585">
         <v>0</v>
@@ -8600,13 +8600,10 @@
         <v>308</v>
       </c>
       <c r="B586" t="s">
-        <v>55</v>
+        <v>312</v>
       </c>
       <c r="C586">
         <v>0</v>
-      </c>
-      <c r="D586">
-        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -8614,7 +8611,7 @@
         <v>308</v>
       </c>
       <c r="B587" t="s">
-        <v>313</v>
+        <v>55</v>
       </c>
       <c r="C587">
         <v>0</v>
@@ -8628,10 +8625,13 @@
         <v>308</v>
       </c>
       <c r="B588" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C588">
         <v>0</v>
+      </c>
+      <c r="D588">
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -8639,13 +8639,10 @@
         <v>308</v>
       </c>
       <c r="B589" t="s">
-        <v>221</v>
+        <v>314</v>
       </c>
       <c r="C589">
         <v>0</v>
-      </c>
-      <c r="D589">
-        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -8653,10 +8650,13 @@
         <v>308</v>
       </c>
       <c r="B590" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="C590">
         <v>0</v>
+      </c>
+      <c r="D590">
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -8664,13 +8664,10 @@
         <v>308</v>
       </c>
       <c r="B591" t="s">
-        <v>315</v>
+        <v>112</v>
       </c>
       <c r="C591">
         <v>0</v>
-      </c>
-      <c r="D591">
-        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -8678,7 +8675,7 @@
         <v>308</v>
       </c>
       <c r="B592" t="s">
-        <v>18</v>
+        <v>315</v>
       </c>
       <c r="C592">
         <v>0</v>
@@ -8692,7 +8689,7 @@
         <v>308</v>
       </c>
       <c r="B593" t="s">
-        <v>316</v>
+        <v>18</v>
       </c>
       <c r="C593">
         <v>0</v>
@@ -8706,7 +8703,7 @@
         <v>308</v>
       </c>
       <c r="B594" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C594">
         <v>0</v>
@@ -8720,10 +8717,13 @@
         <v>308</v>
       </c>
       <c r="B595" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C595">
         <v>0</v>
+      </c>
+      <c r="D595">
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -8731,13 +8731,10 @@
         <v>308</v>
       </c>
       <c r="B596" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="C596">
         <v>0</v>
-      </c>
-      <c r="D596">
-        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -8745,10 +8742,13 @@
         <v>308</v>
       </c>
       <c r="B597" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="C597">
         <v>0</v>
+      </c>
+      <c r="D597">
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -8756,7 +8756,7 @@
         <v>308</v>
       </c>
       <c r="B598" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C598">
         <v>0</v>
@@ -8767,7 +8767,7 @@
         <v>308</v>
       </c>
       <c r="B599" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C599">
         <v>0</v>
@@ -8778,7 +8778,7 @@
         <v>308</v>
       </c>
       <c r="B600" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C600">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>308</v>
       </c>
       <c r="B601" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C601">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>308</v>
       </c>
       <c r="B602" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C602">
         <v>0</v>
@@ -8811,7 +8811,7 @@
         <v>308</v>
       </c>
       <c r="B603" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C603">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>308</v>
       </c>
       <c r="B604" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C604">
         <v>0</v>
@@ -8833,7 +8833,7 @@
         <v>308</v>
       </c>
       <c r="B605" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C605">
         <v>0</v>
@@ -8844,7 +8844,7 @@
         <v>308</v>
       </c>
       <c r="B606" t="s">
-        <v>51</v>
+        <v>327</v>
       </c>
       <c r="C606">
         <v>0</v>
@@ -8855,7 +8855,7 @@
         <v>308</v>
       </c>
       <c r="B607" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C607">
         <v>0</v>
@@ -8866,7 +8866,7 @@
         <v>308</v>
       </c>
       <c r="B608" t="s">
-        <v>328</v>
+        <v>52</v>
       </c>
       <c r="C608">
         <v>0</v>
@@ -8877,44 +8877,44 @@
         <v>308</v>
       </c>
       <c r="B609" t="s">
+        <v>328</v>
+      </c>
+      <c r="C609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4">
+      <c r="A610" t="s">
+        <v>308</v>
+      </c>
+      <c r="B610" t="s">
         <v>329</v>
       </c>
-      <c r="C609">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="610" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A610" s="3" t="s">
+      <c r="C610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A611" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B610" s="3" t="s">
+      <c r="B611" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C610" s="3">
-        <v>0</v>
-      </c>
-      <c r="D610" s="3"/>
-    </row>
-    <row r="611" spans="1:4" ht="15.75" thickTop="1">
-      <c r="A611" t="s">
-        <v>350</v>
-      </c>
-      <c r="B611" t="s">
-        <v>5</v>
-      </c>
-      <c r="C611">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="612" spans="1:4">
+      <c r="C611" s="3">
+        <v>0</v>
+      </c>
+      <c r="D611" s="3"/>
+    </row>
+    <row r="612" spans="1:4" ht="15.75" thickTop="1">
       <c r="A612" t="s">
         <v>350</v>
       </c>
       <c r="B612" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -8922,7 +8922,7 @@
         <v>350</v>
       </c>
       <c r="B613" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C613">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>350</v>
       </c>
       <c r="B614" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C614">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>350</v>
       </c>
       <c r="B615" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C615">
         <v>0</v>
@@ -8955,7 +8955,7 @@
         <v>350</v>
       </c>
       <c r="B616" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C616">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>350</v>
       </c>
       <c r="B617" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C617">
         <v>0</v>
@@ -8977,7 +8977,7 @@
         <v>350</v>
       </c>
       <c r="B618" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C618">
         <v>0</v>
@@ -8988,7 +8988,7 @@
         <v>350</v>
       </c>
       <c r="B619" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C619">
         <v>0</v>
@@ -8999,7 +8999,7 @@
         <v>350</v>
       </c>
       <c r="B620" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C620">
         <v>0</v>
@@ -9010,7 +9010,7 @@
         <v>350</v>
       </c>
       <c r="B621" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C621">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>350</v>
       </c>
       <c r="B622" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C622">
         <v>0</v>
@@ -9032,7 +9032,7 @@
         <v>350</v>
       </c>
       <c r="B623" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C623">
         <v>0</v>
@@ -9043,7 +9043,7 @@
         <v>350</v>
       </c>
       <c r="B624" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C624">
         <v>0</v>
@@ -9054,7 +9054,7 @@
         <v>350</v>
       </c>
       <c r="B625" t="s">
-        <v>351</v>
+        <v>52</v>
       </c>
       <c r="C625">
         <v>0</v>
@@ -9065,7 +9065,7 @@
         <v>350</v>
       </c>
       <c r="B626" t="s">
-        <v>21</v>
+        <v>351</v>
       </c>
       <c r="C626">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>350</v>
       </c>
       <c r="B627" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C627">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>350</v>
       </c>
       <c r="B628" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C628">
         <v>0</v>
@@ -9098,7 +9098,7 @@
         <v>350</v>
       </c>
       <c r="B629" t="s">
-        <v>352</v>
+        <v>15</v>
       </c>
       <c r="C629">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>350</v>
       </c>
       <c r="B630" t="s">
-        <v>24</v>
+        <v>352</v>
       </c>
       <c r="C630">
         <v>0</v>
@@ -9120,7 +9120,7 @@
         <v>350</v>
       </c>
       <c r="B631" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C631">
         <v>0</v>
@@ -9131,7 +9131,7 @@
         <v>350</v>
       </c>
       <c r="B632" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C632">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>350</v>
       </c>
       <c r="B633" t="s">
-        <v>353</v>
+        <v>4</v>
       </c>
       <c r="C633">
         <v>0</v>
@@ -9153,7 +9153,7 @@
         <v>350</v>
       </c>
       <c r="B634" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C634">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>350</v>
       </c>
       <c r="B635" t="s">
-        <v>33</v>
+        <v>354</v>
       </c>
       <c r="C635">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>350</v>
       </c>
       <c r="B636" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C636">
         <v>0</v>
@@ -9186,7 +9186,7 @@
         <v>350</v>
       </c>
       <c r="B637" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C637">
         <v>0</v>
@@ -9197,7 +9197,7 @@
         <v>350</v>
       </c>
       <c r="B638" t="s">
-        <v>355</v>
+        <v>69</v>
       </c>
       <c r="C638">
         <v>0</v>
@@ -9208,7 +9208,7 @@
         <v>350</v>
       </c>
       <c r="B639" t="s">
-        <v>58</v>
+        <v>355</v>
       </c>
       <c r="C639">
         <v>0</v>
@@ -9219,44 +9219,44 @@
         <v>350</v>
       </c>
       <c r="B640" t="s">
+        <v>58</v>
+      </c>
+      <c r="C640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4">
+      <c r="A641" t="s">
+        <v>350</v>
+      </c>
+      <c r="B641" t="s">
         <v>7</v>
       </c>
-      <c r="C640">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="641" spans="1:4">
-      <c r="A641" s="2" t="s">
+      <c r="C641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4">
+      <c r="A642" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B641" s="2" t="s">
+      <c r="B642" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C641">
-        <v>1</v>
-      </c>
-      <c r="D641" s="2"/>
-    </row>
-    <row r="642" spans="1:4">
-      <c r="A642" t="s">
-        <v>356</v>
-      </c>
-      <c r="B642" t="s">
-        <v>5</v>
-      </c>
       <c r="C642">
         <v>1</v>
       </c>
+      <c r="D642" s="2"/>
     </row>
     <row r="643" spans="1:4">
       <c r="A643" t="s">
         <v>356</v>
       </c>
       <c r="B643" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -9264,10 +9264,10 @@
         <v>356</v>
       </c>
       <c r="B644" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -9275,7 +9275,7 @@
         <v>356</v>
       </c>
       <c r="B645" t="s">
-        <v>337</v>
+        <v>38</v>
       </c>
       <c r="C645">
         <v>1</v>
@@ -9286,10 +9286,10 @@
         <v>356</v>
       </c>
       <c r="B646" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:4">
@@ -9297,10 +9297,10 @@
         <v>356</v>
       </c>
       <c r="B647" t="s">
-        <v>36</v>
+        <v>338</v>
       </c>
       <c r="C647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -9308,10 +9308,10 @@
         <v>356</v>
       </c>
       <c r="B648" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:4">
@@ -9319,7 +9319,7 @@
         <v>356</v>
       </c>
       <c r="B649" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C649">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>356</v>
       </c>
       <c r="B650" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C650">
         <v>0</v>
@@ -9341,7 +9341,7 @@
         <v>356</v>
       </c>
       <c r="B651" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C651">
         <v>0</v>
@@ -9352,7 +9352,7 @@
         <v>356</v>
       </c>
       <c r="B652" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C652">
         <v>0</v>
@@ -9363,7 +9363,7 @@
         <v>356</v>
       </c>
       <c r="B653" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C653">
         <v>0</v>
@@ -9374,7 +9374,7 @@
         <v>356</v>
       </c>
       <c r="B654" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C654">
         <v>0</v>
@@ -9385,7 +9385,7 @@
         <v>356</v>
       </c>
       <c r="B655" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C655">
         <v>0</v>
@@ -9396,7 +9396,7 @@
         <v>356</v>
       </c>
       <c r="B656" t="s">
-        <v>357</v>
+        <v>20</v>
       </c>
       <c r="C656">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>356</v>
       </c>
       <c r="B657" t="s">
-        <v>50</v>
+        <v>357</v>
       </c>
       <c r="C657">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>356</v>
       </c>
       <c r="B658" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C658">
         <v>0</v>
@@ -9429,7 +9429,7 @@
         <v>356</v>
       </c>
       <c r="B659" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C659">
         <v>0</v>
@@ -9440,7 +9440,7 @@
         <v>356</v>
       </c>
       <c r="B660" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C660">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>356</v>
       </c>
       <c r="B661" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C661">
         <v>0</v>
@@ -9462,7 +9462,7 @@
         <v>356</v>
       </c>
       <c r="B662" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C662">
         <v>0</v>
@@ -9473,7 +9473,7 @@
         <v>356</v>
       </c>
       <c r="B663" t="s">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="C663">
         <v>0</v>
@@ -9484,7 +9484,7 @@
         <v>356</v>
       </c>
       <c r="B664" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
       <c r="C664">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>356</v>
       </c>
       <c r="B665" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C665">
         <v>0</v>
@@ -9506,7 +9506,7 @@
         <v>356</v>
       </c>
       <c r="B666" t="s">
-        <v>359</v>
+        <v>40</v>
       </c>
       <c r="C666">
         <v>0</v>
@@ -9517,7 +9517,7 @@
         <v>356</v>
       </c>
       <c r="B667" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C667">
         <v>0</v>
@@ -9528,41 +9528,41 @@
         <v>356</v>
       </c>
       <c r="B668" t="s">
+        <v>360</v>
+      </c>
+      <c r="C668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4">
+      <c r="A669" t="s">
+        <v>356</v>
+      </c>
+      <c r="B669" t="s">
         <v>361</v>
       </c>
-      <c r="C668">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="669" spans="1:4">
-      <c r="A669" s="2" t="s">
+      <c r="C669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4">
+      <c r="A670" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B669" s="2" t="s">
+      <c r="B670" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C669">
-        <v>0</v>
-      </c>
-      <c r="D669" s="2"/>
-    </row>
-    <row r="670" spans="1:4">
-      <c r="A670" t="s">
-        <v>362</v>
-      </c>
-      <c r="B670" t="s">
-        <v>36</v>
-      </c>
       <c r="C670">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D670" s="2"/>
     </row>
     <row r="671" spans="1:4">
       <c r="A671" t="s">
         <v>362</v>
       </c>
       <c r="B671" t="s">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="C671">
         <v>1</v>
@@ -9573,10 +9573,10 @@
         <v>362</v>
       </c>
       <c r="B672" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -9584,10 +9584,10 @@
         <v>362</v>
       </c>
       <c r="B673" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="C673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -9595,10 +9595,10 @@
         <v>362</v>
       </c>
       <c r="B674" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="C674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -9606,7 +9606,7 @@
         <v>362</v>
       </c>
       <c r="B675" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C675">
         <v>0</v>
@@ -9617,44 +9617,44 @@
         <v>362</v>
       </c>
       <c r="B676" t="s">
+        <v>355</v>
+      </c>
+      <c r="C676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4">
+      <c r="A677" t="s">
+        <v>362</v>
+      </c>
+      <c r="B677" t="s">
         <v>366</v>
       </c>
-      <c r="C676">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="677" spans="1:4">
-      <c r="A677" s="2" t="s">
+      <c r="C677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4">
+      <c r="A678" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B677" s="2" t="s">
+      <c r="B678" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C677" s="2">
-        <v>0</v>
-      </c>
-      <c r="D677" s="2"/>
-    </row>
-    <row r="678" spans="1:4">
-      <c r="A678" t="s">
-        <v>367</v>
-      </c>
-      <c r="B678" t="s">
-        <v>5</v>
-      </c>
-      <c r="C678">
-        <v>1</v>
-      </c>
+      <c r="C678" s="2">
+        <v>0</v>
+      </c>
+      <c r="D678" s="2"/>
     </row>
     <row r="679" spans="1:4">
       <c r="A679" t="s">
         <v>367</v>
       </c>
       <c r="B679" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -9662,7 +9662,7 @@
         <v>367</v>
       </c>
       <c r="B680" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C680">
         <v>0</v>
@@ -9673,10 +9673,10 @@
         <v>367</v>
       </c>
       <c r="B681" t="s">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="C681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -9684,10 +9684,10 @@
         <v>367</v>
       </c>
       <c r="B682" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -9695,7 +9695,7 @@
         <v>367</v>
       </c>
       <c r="B683" t="s">
-        <v>253</v>
+        <v>369</v>
       </c>
       <c r="C683">
         <v>0</v>
@@ -9706,7 +9706,7 @@
         <v>367</v>
       </c>
       <c r="B684" t="s">
-        <v>112</v>
+        <v>253</v>
       </c>
       <c r="C684">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>367</v>
       </c>
       <c r="B685" t="s">
-        <v>370</v>
+        <v>112</v>
       </c>
       <c r="C685">
         <v>0</v>
@@ -9728,41 +9728,41 @@
         <v>367</v>
       </c>
       <c r="B686" t="s">
+        <v>370</v>
+      </c>
+      <c r="C686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4">
+      <c r="A687" t="s">
+        <v>367</v>
+      </c>
+      <c r="B687" t="s">
         <v>9</v>
       </c>
-      <c r="C686">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="687" spans="1:4">
-      <c r="A687" s="2" t="s">
+      <c r="C687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4">
+      <c r="A688" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B687" s="2" t="s">
+      <c r="B688" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C687" s="2">
-        <v>1</v>
-      </c>
-      <c r="D687" s="2"/>
-    </row>
-    <row r="688" spans="1:4">
-      <c r="A688" t="s">
-        <v>371</v>
-      </c>
-      <c r="B688" t="s">
-        <v>36</v>
-      </c>
-      <c r="C688">
-        <v>1</v>
-      </c>
+      <c r="C688" s="2">
+        <v>1</v>
+      </c>
+      <c r="D688" s="2"/>
     </row>
     <row r="689" spans="1:4">
       <c r="A689" t="s">
         <v>371</v>
       </c>
       <c r="B689" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C689">
         <v>1</v>
@@ -9773,10 +9773,10 @@
         <v>371</v>
       </c>
       <c r="B690" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -9784,10 +9784,10 @@
         <v>371</v>
       </c>
       <c r="B691" t="s">
-        <v>341</v>
+        <v>6</v>
       </c>
       <c r="C691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -9795,7 +9795,7 @@
         <v>371</v>
       </c>
       <c r="B692" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C692">
         <v>1</v>
@@ -9806,7 +9806,7 @@
         <v>371</v>
       </c>
       <c r="B693" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C693">
         <v>1</v>
@@ -9817,10 +9817,10 @@
         <v>371</v>
       </c>
       <c r="B694" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -9828,7 +9828,7 @@
         <v>371</v>
       </c>
       <c r="B695" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C695">
         <v>0</v>
@@ -9839,7 +9839,7 @@
         <v>371</v>
       </c>
       <c r="B696" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C696">
         <v>0</v>
@@ -9850,7 +9850,7 @@
         <v>371</v>
       </c>
       <c r="B697" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C697">
         <v>0</v>
@@ -9861,23 +9861,34 @@
         <v>371</v>
       </c>
       <c r="B698" t="s">
+        <v>347</v>
+      </c>
+      <c r="C698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4">
+      <c r="A699" t="s">
+        <v>371</v>
+      </c>
+      <c r="B699" t="s">
         <v>348</v>
       </c>
-      <c r="C698">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="699" spans="1:4">
-      <c r="A699" s="2" t="s">
+      <c r="C699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4">
+      <c r="A700" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B699" s="2" t="s">
+      <c r="B700" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C699" s="2">
-        <v>0</v>
-      </c>
-      <c r="D699" s="2"/>
+      <c r="C700" s="2">
+        <v>0</v>
+      </c>
+      <c r="D700" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="372">
   <si>
     <t>TABELA</t>
   </si>
@@ -1196,8 +1196,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D700" totalsRowShown="0">
-  <autoFilter ref="A1:D700">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D702" totalsRowShown="0">
+  <autoFilter ref="A1:D702">
     <filterColumn colId="0"/>
     <filterColumn colId="3"/>
   </autoFilter>
@@ -1496,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D700"/>
+  <dimension ref="A1:D702"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="D343" sqref="D343"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9746,7 +9746,7 @@
       </c>
     </row>
     <row r="688" spans="1:4">
-      <c r="A688" s="2" t="s">
+      <c r="A688" t="s">
         <v>367</v>
       </c>
       <c r="B688" s="2" t="s">
@@ -9755,39 +9755,39 @@
       <c r="C688" s="2">
         <v>1</v>
       </c>
-      <c r="D688" s="2"/>
     </row>
     <row r="689" spans="1:4">
       <c r="A689" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B689" t="s">
-        <v>36</v>
+        <v>256</v>
       </c>
       <c r="C689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:4">
-      <c r="A690" t="s">
-        <v>371</v>
-      </c>
-      <c r="B690" t="s">
-        <v>5</v>
-      </c>
-      <c r="C690">
-        <v>1</v>
-      </c>
+      <c r="A690" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C690" s="2">
+        <v>0</v>
+      </c>
+      <c r="D690" s="2"/>
     </row>
     <row r="691" spans="1:4">
       <c r="A691" t="s">
         <v>371</v>
       </c>
       <c r="B691" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -9795,7 +9795,7 @@
         <v>371</v>
       </c>
       <c r="B692" t="s">
-        <v>341</v>
+        <v>5</v>
       </c>
       <c r="C692">
         <v>1</v>
@@ -9806,10 +9806,10 @@
         <v>371</v>
       </c>
       <c r="B693" t="s">
-        <v>342</v>
+        <v>6</v>
       </c>
       <c r="C693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -9817,7 +9817,7 @@
         <v>371</v>
       </c>
       <c r="B694" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C694">
         <v>1</v>
@@ -9828,10 +9828,10 @@
         <v>371</v>
       </c>
       <c r="B695" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -9839,10 +9839,10 @@
         <v>371</v>
       </c>
       <c r="B696" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -9850,7 +9850,7 @@
         <v>371</v>
       </c>
       <c r="B697" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C697">
         <v>0</v>
@@ -9861,7 +9861,7 @@
         <v>371</v>
       </c>
       <c r="B698" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C698">
         <v>0</v>
@@ -9872,23 +9872,45 @@
         <v>371</v>
       </c>
       <c r="B699" t="s">
+        <v>346</v>
+      </c>
+      <c r="C699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4">
+      <c r="A700" t="s">
+        <v>371</v>
+      </c>
+      <c r="B700" t="s">
+        <v>347</v>
+      </c>
+      <c r="C700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4">
+      <c r="A701" t="s">
+        <v>371</v>
+      </c>
+      <c r="B701" t="s">
         <v>348</v>
       </c>
-      <c r="C699">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="700" spans="1:4">
-      <c r="A700" s="2" t="s">
+      <c r="C701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4">
+      <c r="A702" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B700" s="2" t="s">
+      <c r="B702" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C700" s="2">
-        <v>0</v>
-      </c>
-      <c r="D700" s="2"/>
+      <c r="C702" s="2">
+        <v>0</v>
+      </c>
+      <c r="D702" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="372">
   <si>
     <t>TABELA</t>
   </si>
@@ -1196,8 +1196,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D702" totalsRowShown="0">
-  <autoFilter ref="A1:D702">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D703" totalsRowShown="0">
+  <autoFilter ref="A1:D703">
     <filterColumn colId="0"/>
     <filterColumn colId="3"/>
   </autoFilter>
@@ -1496,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D702"/>
+  <dimension ref="A1:D703"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="E338" sqref="E338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5710,13 +5710,13 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B344" t="s">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="C344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5724,10 +5724,10 @@
         <v>205</v>
       </c>
       <c r="B345" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5735,13 +5735,10 @@
         <v>205</v>
       </c>
       <c r="B346" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C346">
         <v>0</v>
-      </c>
-      <c r="D346">
-        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5749,7 +5746,7 @@
         <v>205</v>
       </c>
       <c r="B347" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -5763,9 +5760,12 @@
         <v>205</v>
       </c>
       <c r="B348" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
         <v>1</v>
       </c>
     </row>
@@ -5774,10 +5774,10 @@
         <v>205</v>
       </c>
       <c r="B349" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5785,7 +5785,7 @@
         <v>205</v>
       </c>
       <c r="B350" t="s">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>205</v>
       </c>
       <c r="B351" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -5807,7 +5807,7 @@
         <v>205</v>
       </c>
       <c r="B352" t="s">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -5818,7 +5818,7 @@
         <v>205</v>
       </c>
       <c r="B353" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -5829,7 +5829,7 @@
         <v>205</v>
       </c>
       <c r="B354" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -5840,7 +5840,7 @@
         <v>205</v>
       </c>
       <c r="B355" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -5851,7 +5851,7 @@
         <v>205</v>
       </c>
       <c r="B356" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>205</v>
       </c>
       <c r="B357" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>205</v>
       </c>
       <c r="B358" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>205</v>
       </c>
       <c r="B359" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -5895,7 +5895,7 @@
         <v>205</v>
       </c>
       <c r="B360" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -5906,7 +5906,7 @@
         <v>205</v>
       </c>
       <c r="B361" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C361">
         <v>0</v>
@@ -5917,13 +5917,10 @@
         <v>205</v>
       </c>
       <c r="B362" t="s">
-        <v>208</v>
+        <v>89</v>
       </c>
       <c r="C362">
         <v>0</v>
-      </c>
-      <c r="D362">
-        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5931,10 +5928,13 @@
         <v>205</v>
       </c>
       <c r="B363" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="C363">
         <v>0</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5942,7 +5942,7 @@
         <v>205</v>
       </c>
       <c r="B364" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -5953,7 +5953,7 @@
         <v>205</v>
       </c>
       <c r="B365" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -5964,7 +5964,7 @@
         <v>205</v>
       </c>
       <c r="B366" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>205</v>
       </c>
       <c r="B367" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>205</v>
       </c>
       <c r="B368" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -5997,7 +5997,7 @@
         <v>205</v>
       </c>
       <c r="B369" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -6008,7 +6008,7 @@
         <v>205</v>
       </c>
       <c r="B370" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>205</v>
       </c>
       <c r="B371" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -6030,7 +6030,7 @@
         <v>205</v>
       </c>
       <c r="B372" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C372">
         <v>0</v>
@@ -6041,7 +6041,7 @@
         <v>205</v>
       </c>
       <c r="B373" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C373">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>205</v>
       </c>
       <c r="B374" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -6063,7 +6063,7 @@
         <v>205</v>
       </c>
       <c r="B375" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -6074,7 +6074,7 @@
         <v>205</v>
       </c>
       <c r="B376" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C376">
         <v>0</v>
@@ -6085,7 +6085,7 @@
         <v>205</v>
       </c>
       <c r="B377" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>205</v>
       </c>
       <c r="B378" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -6107,7 +6107,7 @@
         <v>205</v>
       </c>
       <c r="B379" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C379">
         <v>0</v>
@@ -6118,10 +6118,10 @@
         <v>205</v>
       </c>
       <c r="B380" t="s">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="C380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6129,10 +6129,10 @@
         <v>205</v>
       </c>
       <c r="B381" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="C381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6140,7 +6140,7 @@
         <v>205</v>
       </c>
       <c r="B382" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>205</v>
       </c>
       <c r="B383" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -6162,7 +6162,7 @@
         <v>205</v>
       </c>
       <c r="B384" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -6173,7 +6173,7 @@
         <v>205</v>
       </c>
       <c r="B385" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -6184,7 +6184,7 @@
         <v>205</v>
       </c>
       <c r="B386" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>205</v>
       </c>
       <c r="B387" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="C387">
         <v>0</v>
@@ -6206,13 +6206,10 @@
         <v>205</v>
       </c>
       <c r="B388" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C388">
         <v>0</v>
-      </c>
-      <c r="D388">
-        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -6220,10 +6217,13 @@
         <v>205</v>
       </c>
       <c r="B389" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="C389">
         <v>0</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -6231,10 +6231,10 @@
         <v>205</v>
       </c>
       <c r="B390" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -6242,10 +6242,10 @@
         <v>205</v>
       </c>
       <c r="B391" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="C391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -6253,7 +6253,7 @@
         <v>205</v>
       </c>
       <c r="B392" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C392">
         <v>0</v>
@@ -6261,13 +6261,13 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B393" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="C393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -6275,10 +6275,10 @@
         <v>210</v>
       </c>
       <c r="B394" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -6286,13 +6286,10 @@
         <v>210</v>
       </c>
       <c r="B395" t="s">
-        <v>211</v>
+        <v>6</v>
       </c>
       <c r="C395">
         <v>0</v>
-      </c>
-      <c r="D395">
-        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -6300,7 +6297,7 @@
         <v>210</v>
       </c>
       <c r="B396" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -6314,7 +6311,7 @@
         <v>210</v>
       </c>
       <c r="B397" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -6328,7 +6325,7 @@
         <v>210</v>
       </c>
       <c r="B398" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -6342,7 +6339,7 @@
         <v>210</v>
       </c>
       <c r="B399" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -6356,7 +6353,7 @@
         <v>210</v>
       </c>
       <c r="B400" t="s">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -6370,7 +6367,7 @@
         <v>210</v>
       </c>
       <c r="B401" t="s">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -6384,7 +6381,7 @@
         <v>210</v>
       </c>
       <c r="B402" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -6398,10 +6395,13 @@
         <v>210</v>
       </c>
       <c r="B403" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="C403">
         <v>0</v>
+      </c>
+      <c r="D403">
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6409,18 +6409,18 @@
         <v>210</v>
       </c>
       <c r="B404" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B405" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C405">
         <v>1</v>
@@ -6431,10 +6431,10 @@
         <v>217</v>
       </c>
       <c r="B406" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6442,10 +6442,10 @@
         <v>217</v>
       </c>
       <c r="B407" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6453,10 +6453,10 @@
         <v>217</v>
       </c>
       <c r="B408" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="C408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6464,13 +6464,10 @@
         <v>217</v>
       </c>
       <c r="B409" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="C409">
         <v>0</v>
-      </c>
-      <c r="D409">
-        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6478,7 +6475,7 @@
         <v>217</v>
       </c>
       <c r="B410" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -6492,7 +6489,7 @@
         <v>217</v>
       </c>
       <c r="B411" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -6506,7 +6503,7 @@
         <v>217</v>
       </c>
       <c r="B412" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -6520,7 +6517,7 @@
         <v>217</v>
       </c>
       <c r="B413" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -6534,10 +6531,13 @@
         <v>217</v>
       </c>
       <c r="B414" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="C414">
         <v>0</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6545,13 +6545,10 @@
         <v>217</v>
       </c>
       <c r="B415" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C415">
         <v>0</v>
-      </c>
-      <c r="D415">
-        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6559,10 +6556,13 @@
         <v>217</v>
       </c>
       <c r="B416" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C416">
         <v>0</v>
+      </c>
+      <c r="D416">
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6570,13 +6570,10 @@
         <v>217</v>
       </c>
       <c r="B417" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C417">
         <v>0</v>
-      </c>
-      <c r="D417">
-        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6584,7 +6581,7 @@
         <v>217</v>
       </c>
       <c r="B418" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C418">
         <v>0</v>
@@ -6598,7 +6595,7 @@
         <v>217</v>
       </c>
       <c r="B419" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -6612,7 +6609,7 @@
         <v>217</v>
       </c>
       <c r="B420" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -6626,7 +6623,7 @@
         <v>217</v>
       </c>
       <c r="B421" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -6640,7 +6637,7 @@
         <v>217</v>
       </c>
       <c r="B422" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C422">
         <v>0</v>
@@ -6654,7 +6651,7 @@
         <v>217</v>
       </c>
       <c r="B423" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -6668,7 +6665,7 @@
         <v>217</v>
       </c>
       <c r="B424" t="s">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c r="C424">
         <v>0</v>
@@ -6682,10 +6679,13 @@
         <v>217</v>
       </c>
       <c r="B425" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C425">
         <v>0</v>
+      </c>
+      <c r="D425">
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6693,7 +6693,7 @@
         <v>217</v>
       </c>
       <c r="B426" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C426">
         <v>0</v>
@@ -6704,13 +6704,10 @@
         <v>217</v>
       </c>
       <c r="B427" t="s">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="C427">
         <v>0</v>
-      </c>
-      <c r="D427">
-        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6718,7 +6715,7 @@
         <v>217</v>
       </c>
       <c r="B428" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="C428">
         <v>0</v>
@@ -6732,7 +6729,7 @@
         <v>217</v>
       </c>
       <c r="B429" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="C429">
         <v>0</v>
@@ -6746,10 +6743,13 @@
         <v>217</v>
       </c>
       <c r="B430" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C430">
         <v>0</v>
+      </c>
+      <c r="D430">
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -6757,7 +6757,7 @@
         <v>217</v>
       </c>
       <c r="B431" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -6768,13 +6768,10 @@
         <v>217</v>
       </c>
       <c r="B432" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="C432">
         <v>0</v>
-      </c>
-      <c r="D432">
-        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -6782,7 +6779,7 @@
         <v>217</v>
       </c>
       <c r="B433" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -6796,10 +6793,13 @@
         <v>217</v>
       </c>
       <c r="B434" t="s">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="C434">
         <v>0</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6807,7 +6807,7 @@
         <v>217</v>
       </c>
       <c r="B435" t="s">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -6818,23 +6818,23 @@
         <v>217</v>
       </c>
       <c r="B436" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C436">
         <v>0</v>
-      </c>
-      <c r="D436">
-        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B437" t="s">
-        <v>5</v>
+        <v>236</v>
       </c>
       <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437">
         <v>1</v>
       </c>
     </row>
@@ -6843,7 +6843,7 @@
         <v>237</v>
       </c>
       <c r="B438" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C438">
         <v>1</v>
@@ -6854,10 +6854,10 @@
         <v>237</v>
       </c>
       <c r="B439" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="C439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6865,10 +6865,10 @@
         <v>237</v>
       </c>
       <c r="B440" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="C440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6876,10 +6876,10 @@
         <v>237</v>
       </c>
       <c r="B441" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="C441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6887,13 +6887,10 @@
         <v>237</v>
       </c>
       <c r="B442" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C442">
         <v>0</v>
-      </c>
-      <c r="D442">
-        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6901,7 +6898,7 @@
         <v>237</v>
       </c>
       <c r="B443" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C443">
         <v>0</v>
@@ -6915,7 +6912,7 @@
         <v>237</v>
       </c>
       <c r="B444" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -6929,7 +6926,7 @@
         <v>237</v>
       </c>
       <c r="B445" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C445">
         <v>0</v>
@@ -6943,7 +6940,7 @@
         <v>237</v>
       </c>
       <c r="B446" t="s">
-        <v>120</v>
+        <v>242</v>
       </c>
       <c r="C446">
         <v>0</v>
@@ -6957,7 +6954,7 @@
         <v>237</v>
       </c>
       <c r="B447" t="s">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -6971,7 +6968,7 @@
         <v>237</v>
       </c>
       <c r="B448" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C448">
         <v>0</v>
@@ -6985,7 +6982,7 @@
         <v>237</v>
       </c>
       <c r="B449" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C449">
         <v>0</v>
@@ -6999,7 +6996,7 @@
         <v>237</v>
       </c>
       <c r="B450" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C450">
         <v>0</v>
@@ -7013,7 +7010,7 @@
         <v>237</v>
       </c>
       <c r="B451" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C451">
         <v>0</v>
@@ -7027,7 +7024,7 @@
         <v>237</v>
       </c>
       <c r="B452" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -7041,7 +7038,7 @@
         <v>237</v>
       </c>
       <c r="B453" t="s">
-        <v>248</v>
+        <v>33</v>
       </c>
       <c r="C453">
         <v>0</v>
@@ -7055,7 +7052,7 @@
         <v>237</v>
       </c>
       <c r="B454" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="C454">
         <v>0</v>
@@ -7069,7 +7066,7 @@
         <v>237</v>
       </c>
       <c r="B455" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="C455">
         <v>0</v>
@@ -7083,7 +7080,7 @@
         <v>237</v>
       </c>
       <c r="B456" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -7097,10 +7094,13 @@
         <v>237</v>
       </c>
       <c r="B457" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C457">
         <v>0</v>
+      </c>
+      <c r="D457">
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -7108,7 +7108,7 @@
         <v>237</v>
       </c>
       <c r="B458" t="s">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -7119,7 +7119,7 @@
         <v>237</v>
       </c>
       <c r="B459" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C459">
         <v>0</v>
@@ -7127,16 +7127,13 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B460" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C460">
         <v>0</v>
-      </c>
-      <c r="D460">
-        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -7144,9 +7141,12 @@
         <v>249</v>
       </c>
       <c r="B461" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461">
         <v>1</v>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
         <v>249</v>
       </c>
       <c r="B462" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C462">
         <v>1</v>
@@ -7166,10 +7166,10 @@
         <v>249</v>
       </c>
       <c r="B463" t="s">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="C463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -7177,7 +7177,7 @@
         <v>249</v>
       </c>
       <c r="B464" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C464">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>249</v>
       </c>
       <c r="B465" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C465">
         <v>0</v>
@@ -7199,7 +7199,7 @@
         <v>249</v>
       </c>
       <c r="B466" t="s">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="C466">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>249</v>
       </c>
       <c r="B467" t="s">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -7221,10 +7221,10 @@
         <v>249</v>
       </c>
       <c r="B468" t="s">
-        <v>70</v>
+        <v>253</v>
       </c>
       <c r="C468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -7232,10 +7232,10 @@
         <v>249</v>
       </c>
       <c r="B469" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="C469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -7243,7 +7243,7 @@
         <v>249</v>
       </c>
       <c r="B470" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="C470">
         <v>0</v>
@@ -7254,7 +7254,7 @@
         <v>249</v>
       </c>
       <c r="B471" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -7265,7 +7265,7 @@
         <v>249</v>
       </c>
       <c r="B472" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C472">
         <v>0</v>
@@ -7276,7 +7276,7 @@
         <v>249</v>
       </c>
       <c r="B473" t="s">
-        <v>254</v>
+        <v>64</v>
       </c>
       <c r="C473">
         <v>0</v>
@@ -7287,13 +7287,10 @@
         <v>249</v>
       </c>
       <c r="B474" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="C474">
         <v>0</v>
-      </c>
-      <c r="D474">
-        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7301,7 +7298,7 @@
         <v>249</v>
       </c>
       <c r="B475" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C475">
         <v>0</v>
@@ -7315,7 +7312,7 @@
         <v>249</v>
       </c>
       <c r="B476" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C476">
         <v>0</v>
@@ -7329,7 +7326,7 @@
         <v>249</v>
       </c>
       <c r="B477" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -7343,10 +7340,13 @@
         <v>249</v>
       </c>
       <c r="B478" t="s">
-        <v>256</v>
+        <v>86</v>
       </c>
       <c r="C478">
         <v>0</v>
+      </c>
+      <c r="D478">
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7354,7 +7354,7 @@
         <v>249</v>
       </c>
       <c r="B479" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C479">
         <v>0</v>
@@ -7365,7 +7365,7 @@
         <v>249</v>
       </c>
       <c r="B480" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C480">
         <v>0</v>
@@ -7376,13 +7376,10 @@
         <v>249</v>
       </c>
       <c r="B481" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C481">
         <v>0</v>
-      </c>
-      <c r="D481">
-        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7390,7 +7387,7 @@
         <v>249</v>
       </c>
       <c r="B482" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C482">
         <v>0</v>
@@ -7404,10 +7401,13 @@
         <v>249</v>
       </c>
       <c r="B483" t="s">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="C483">
         <v>0</v>
+      </c>
+      <c r="D483">
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7415,7 +7415,7 @@
         <v>249</v>
       </c>
       <c r="B484" t="s">
-        <v>261</v>
+        <v>109</v>
       </c>
       <c r="C484">
         <v>0</v>
@@ -7426,7 +7426,7 @@
         <v>249</v>
       </c>
       <c r="B485" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="C485">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>249</v>
       </c>
       <c r="B486" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="C486">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>249</v>
       </c>
       <c r="B487" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C487">
         <v>0</v>
@@ -7459,7 +7459,7 @@
         <v>249</v>
       </c>
       <c r="B488" t="s">
-        <v>110</v>
+        <v>263</v>
       </c>
       <c r="C488">
         <v>0</v>
@@ -7470,7 +7470,7 @@
         <v>249</v>
       </c>
       <c r="B489" t="s">
-        <v>264</v>
+        <v>110</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -7481,7 +7481,7 @@
         <v>249</v>
       </c>
       <c r="B490" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C490">
         <v>0</v>
@@ -7492,7 +7492,7 @@
         <v>249</v>
       </c>
       <c r="B491" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C491">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>249</v>
       </c>
       <c r="B492" t="s">
-        <v>126</v>
+        <v>266</v>
       </c>
       <c r="C492">
         <v>0</v>
@@ -7514,7 +7514,7 @@
         <v>249</v>
       </c>
       <c r="B493" t="s">
-        <v>267</v>
+        <v>126</v>
       </c>
       <c r="C493">
         <v>0</v>
@@ -7525,7 +7525,7 @@
         <v>249</v>
       </c>
       <c r="B494" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C494">
         <v>0</v>
@@ -7536,13 +7536,10 @@
         <v>249</v>
       </c>
       <c r="B495" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C495">
         <v>0</v>
-      </c>
-      <c r="D495">
-        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7550,7 +7547,7 @@
         <v>249</v>
       </c>
       <c r="B496" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C496">
         <v>0</v>
@@ -7564,10 +7561,13 @@
         <v>249</v>
       </c>
       <c r="B497" t="s">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="C497">
         <v>0</v>
+      </c>
+      <c r="D497">
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7575,7 +7575,7 @@
         <v>249</v>
       </c>
       <c r="B498" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C498">
         <v>0</v>
@@ -7586,7 +7586,7 @@
         <v>249</v>
       </c>
       <c r="B499" t="s">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="C499">
         <v>0</v>
@@ -7597,13 +7597,10 @@
         <v>249</v>
       </c>
       <c r="B500" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C500">
         <v>0</v>
-      </c>
-      <c r="D500">
-        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7611,10 +7608,13 @@
         <v>249</v>
       </c>
       <c r="B501" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C501">
         <v>0</v>
+      </c>
+      <c r="D501">
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7622,7 +7622,7 @@
         <v>249</v>
       </c>
       <c r="B502" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -7633,7 +7633,7 @@
         <v>249</v>
       </c>
       <c r="B503" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C503">
         <v>0</v>
@@ -7644,7 +7644,7 @@
         <v>249</v>
       </c>
       <c r="B504" t="s">
-        <v>124</v>
+        <v>275</v>
       </c>
       <c r="C504">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>249</v>
       </c>
       <c r="B505" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C505">
         <v>0</v>
@@ -7666,7 +7666,7 @@
         <v>249</v>
       </c>
       <c r="B506" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -7677,7 +7677,7 @@
         <v>249</v>
       </c>
       <c r="B507" t="s">
-        <v>276</v>
+        <v>119</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -7688,13 +7688,10 @@
         <v>249</v>
       </c>
       <c r="B508" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C508">
         <v>0</v>
-      </c>
-      <c r="D508">
-        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7702,7 +7699,7 @@
         <v>249</v>
       </c>
       <c r="B509" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C509">
         <v>0</v>
@@ -7716,10 +7713,13 @@
         <v>249</v>
       </c>
       <c r="B510" t="s">
-        <v>34</v>
+        <v>278</v>
       </c>
       <c r="C510">
         <v>0</v>
+      </c>
+      <c r="D510">
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7727,7 +7727,7 @@
         <v>249</v>
       </c>
       <c r="B511" t="s">
-        <v>339</v>
+        <v>34</v>
       </c>
       <c r="C511">
         <v>0</v>
@@ -7735,13 +7735,13 @@
     </row>
     <row r="512" spans="1:4">
       <c r="A512" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="B512" t="s">
-        <v>5</v>
+        <v>339</v>
       </c>
       <c r="C512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -7749,7 +7749,7 @@
         <v>279</v>
       </c>
       <c r="B513" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="C513">
         <v>1</v>
@@ -7760,10 +7760,10 @@
         <v>279</v>
       </c>
       <c r="B514" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -7771,7 +7771,7 @@
         <v>279</v>
       </c>
       <c r="B515" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -7782,7 +7782,7 @@
         <v>279</v>
       </c>
       <c r="B516" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -7793,7 +7793,7 @@
         <v>279</v>
       </c>
       <c r="B517" t="s">
-        <v>280</v>
+        <v>66</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -7804,7 +7804,7 @@
         <v>279</v>
       </c>
       <c r="B518" t="s">
-        <v>109</v>
+        <v>280</v>
       </c>
       <c r="C518">
         <v>0</v>
@@ -7815,7 +7815,7 @@
         <v>279</v>
       </c>
       <c r="B519" t="s">
-        <v>261</v>
+        <v>109</v>
       </c>
       <c r="C519">
         <v>0</v>
@@ -7826,7 +7826,7 @@
         <v>279</v>
       </c>
       <c r="B520" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="C520">
         <v>0</v>
@@ -7837,7 +7837,7 @@
         <v>279</v>
       </c>
       <c r="B521" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="C521">
         <v>0</v>
@@ -7848,7 +7848,7 @@
         <v>279</v>
       </c>
       <c r="B522" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C522">
         <v>0</v>
@@ -7859,7 +7859,7 @@
         <v>279</v>
       </c>
       <c r="B523" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C523">
         <v>0</v>
@@ -7870,7 +7870,7 @@
         <v>279</v>
       </c>
       <c r="B524" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C524">
         <v>0</v>
@@ -7881,7 +7881,7 @@
         <v>279</v>
       </c>
       <c r="B525" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C525">
         <v>0</v>
@@ -7892,7 +7892,7 @@
         <v>279</v>
       </c>
       <c r="B526" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C526">
         <v>0</v>
@@ -7903,7 +7903,7 @@
         <v>279</v>
       </c>
       <c r="B527" t="s">
-        <v>67</v>
+        <v>286</v>
       </c>
       <c r="C527">
         <v>0</v>
@@ -7914,7 +7914,7 @@
         <v>279</v>
       </c>
       <c r="B528" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="C528">
         <v>0</v>
@@ -7925,7 +7925,7 @@
         <v>279</v>
       </c>
       <c r="B529" t="s">
-        <v>264</v>
+        <v>110</v>
       </c>
       <c r="C529">
         <v>0</v>
@@ -7936,7 +7936,7 @@
         <v>279</v>
       </c>
       <c r="B530" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C530">
         <v>0</v>
@@ -7947,7 +7947,7 @@
         <v>279</v>
       </c>
       <c r="B531" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C531">
         <v>0</v>
@@ -7958,7 +7958,7 @@
         <v>279</v>
       </c>
       <c r="B532" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="C532">
         <v>0</v>
@@ -7969,7 +7969,7 @@
         <v>279</v>
       </c>
       <c r="B533" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C533">
         <v>0</v>
@@ -7980,7 +7980,7 @@
         <v>279</v>
       </c>
       <c r="B534" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C534">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>279</v>
       </c>
       <c r="B535" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C535">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>279</v>
       </c>
       <c r="B536" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C536">
         <v>0</v>
@@ -8013,7 +8013,7 @@
         <v>279</v>
       </c>
       <c r="B537" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C537">
         <v>0</v>
@@ -8024,13 +8024,10 @@
         <v>279</v>
       </c>
       <c r="B538" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C538">
         <v>0</v>
-      </c>
-      <c r="D538">
-        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -8038,7 +8035,7 @@
         <v>279</v>
       </c>
       <c r="B539" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C539">
         <v>0</v>
@@ -8052,24 +8049,24 @@
         <v>279</v>
       </c>
       <c r="B540" t="s">
-        <v>126</v>
+        <v>294</v>
       </c>
       <c r="C540">
         <v>0</v>
+      </c>
+      <c r="D540">
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:4">
       <c r="A541" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B541" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="C541">
         <v>0</v>
-      </c>
-      <c r="D541">
-        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -8077,9 +8074,12 @@
         <v>295</v>
       </c>
       <c r="B542" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C542">
+        <v>0</v>
+      </c>
+      <c r="D542">
         <v>1</v>
       </c>
     </row>
@@ -8088,10 +8088,10 @@
         <v>295</v>
       </c>
       <c r="B543" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="C543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -8099,10 +8099,10 @@
         <v>295</v>
       </c>
       <c r="B544" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8110,10 +8110,10 @@
         <v>295</v>
       </c>
       <c r="B545" t="s">
-        <v>251</v>
+        <v>71</v>
       </c>
       <c r="C545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -8121,13 +8121,10 @@
         <v>295</v>
       </c>
       <c r="B546" t="s">
-        <v>120</v>
+        <v>251</v>
       </c>
       <c r="C546">
         <v>0</v>
-      </c>
-      <c r="D546">
-        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8135,7 +8132,7 @@
         <v>295</v>
       </c>
       <c r="B547" t="s">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="C547">
         <v>0</v>
@@ -8149,10 +8146,13 @@
         <v>295</v>
       </c>
       <c r="B548" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="C548">
         <v>0</v>
+      </c>
+      <c r="D548">
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -8160,10 +8160,10 @@
         <v>295</v>
       </c>
       <c r="B549" t="s">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="C549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -8171,12 +8171,9 @@
         <v>295</v>
       </c>
       <c r="B550" t="s">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="C550">
-        <v>0</v>
-      </c>
-      <c r="D550">
         <v>1</v>
       </c>
     </row>
@@ -8185,7 +8182,7 @@
         <v>295</v>
       </c>
       <c r="B551" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C551">
         <v>0</v>
@@ -8199,7 +8196,7 @@
         <v>295</v>
       </c>
       <c r="B552" t="s">
-        <v>106</v>
+        <v>297</v>
       </c>
       <c r="C552">
         <v>0</v>
@@ -8213,7 +8210,7 @@
         <v>295</v>
       </c>
       <c r="B553" t="s">
-        <v>255</v>
+        <v>106</v>
       </c>
       <c r="C553">
         <v>0</v>
@@ -8227,7 +8224,7 @@
         <v>295</v>
       </c>
       <c r="B554" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
       <c r="C554">
         <v>0</v>
@@ -8241,10 +8238,13 @@
         <v>295</v>
       </c>
       <c r="B555" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C555">
         <v>0</v>
+      </c>
+      <c r="D555">
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -8252,7 +8252,7 @@
         <v>295</v>
       </c>
       <c r="B556" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C556">
         <v>0</v>
@@ -8263,7 +8263,7 @@
         <v>295</v>
       </c>
       <c r="B557" t="s">
-        <v>298</v>
+        <v>126</v>
       </c>
       <c r="C557">
         <v>0</v>
@@ -8274,7 +8274,7 @@
         <v>295</v>
       </c>
       <c r="B558" t="s">
-        <v>54</v>
+        <v>298</v>
       </c>
       <c r="C558">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>295</v>
       </c>
       <c r="B559" t="s">
-        <v>299</v>
+        <v>54</v>
       </c>
       <c r="C559">
         <v>0</v>
@@ -8296,7 +8296,7 @@
         <v>295</v>
       </c>
       <c r="B560" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C560">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>295</v>
       </c>
       <c r="B561" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C561">
         <v>0</v>
@@ -8318,13 +8318,10 @@
         <v>295</v>
       </c>
       <c r="B562" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C562">
         <v>0</v>
-      </c>
-      <c r="D562">
-        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -8332,7 +8329,7 @@
         <v>295</v>
       </c>
       <c r="B563" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C563">
         <v>0</v>
@@ -8346,7 +8343,7 @@
         <v>295</v>
       </c>
       <c r="B564" t="s">
-        <v>89</v>
+        <v>303</v>
       </c>
       <c r="C564">
         <v>0</v>
@@ -8360,7 +8357,7 @@
         <v>295</v>
       </c>
       <c r="B565" t="s">
-        <v>304</v>
+        <v>89</v>
       </c>
       <c r="C565">
         <v>0</v>
@@ -8374,10 +8371,13 @@
         <v>295</v>
       </c>
       <c r="B566" t="s">
-        <v>6</v>
+        <v>304</v>
       </c>
       <c r="C566">
         <v>0</v>
+      </c>
+      <c r="D566">
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -8385,7 +8385,7 @@
         <v>295</v>
       </c>
       <c r="B567" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C567">
         <v>0</v>
@@ -8396,7 +8396,7 @@
         <v>295</v>
       </c>
       <c r="B568" t="s">
-        <v>305</v>
+        <v>34</v>
       </c>
       <c r="C568">
         <v>0</v>
@@ -8407,7 +8407,7 @@
         <v>295</v>
       </c>
       <c r="B569" t="s">
-        <v>69</v>
+        <v>305</v>
       </c>
       <c r="C569">
         <v>0</v>
@@ -8418,10 +8418,10 @@
         <v>295</v>
       </c>
       <c r="B570" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -8429,10 +8429,10 @@
         <v>295</v>
       </c>
       <c r="B571" t="s">
-        <v>306</v>
+        <v>70</v>
       </c>
       <c r="C571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -8440,7 +8440,7 @@
         <v>295</v>
       </c>
       <c r="B572" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C572">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>295</v>
       </c>
       <c r="B573" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="C573">
         <v>0</v>
@@ -8462,13 +8462,10 @@
         <v>295</v>
       </c>
       <c r="B574" t="s">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="C574">
         <v>0</v>
-      </c>
-      <c r="D574">
-        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -8476,10 +8473,13 @@
         <v>295</v>
       </c>
       <c r="B575" t="s">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="C575">
         <v>0</v>
+      </c>
+      <c r="D575">
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -8487,23 +8487,20 @@
         <v>295</v>
       </c>
       <c r="B576" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C576">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:4">
       <c r="A577" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B577" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C577">
-        <v>0</v>
-      </c>
-      <c r="D577">
         <v>1</v>
       </c>
     </row>
@@ -8512,9 +8509,12 @@
         <v>308</v>
       </c>
       <c r="B578" t="s">
-        <v>5</v>
+        <v>331</v>
       </c>
       <c r="C578">
+        <v>0</v>
+      </c>
+      <c r="D578">
         <v>1</v>
       </c>
     </row>
@@ -8523,7 +8523,7 @@
         <v>308</v>
       </c>
       <c r="B579" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C579">
         <v>1</v>
@@ -8534,10 +8534,10 @@
         <v>308</v>
       </c>
       <c r="B580" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -8545,10 +8545,10 @@
         <v>308</v>
       </c>
       <c r="B581" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -8556,7 +8556,7 @@
         <v>308</v>
       </c>
       <c r="B582" t="s">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="C582">
         <v>1</v>
@@ -8567,7 +8567,7 @@
         <v>308</v>
       </c>
       <c r="B583" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C583">
         <v>1</v>
@@ -8578,10 +8578,10 @@
         <v>308</v>
       </c>
       <c r="B584" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -8589,7 +8589,7 @@
         <v>308</v>
       </c>
       <c r="B585" t="s">
-        <v>50</v>
+        <v>311</v>
       </c>
       <c r="C585">
         <v>0</v>
@@ -8600,7 +8600,7 @@
         <v>308</v>
       </c>
       <c r="B586" t="s">
-        <v>312</v>
+        <v>50</v>
       </c>
       <c r="C586">
         <v>0</v>
@@ -8611,13 +8611,10 @@
         <v>308</v>
       </c>
       <c r="B587" t="s">
-        <v>55</v>
+        <v>312</v>
       </c>
       <c r="C587">
         <v>0</v>
-      </c>
-      <c r="D587">
-        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -8625,7 +8622,7 @@
         <v>308</v>
       </c>
       <c r="B588" t="s">
-        <v>313</v>
+        <v>55</v>
       </c>
       <c r="C588">
         <v>0</v>
@@ -8639,10 +8636,13 @@
         <v>308</v>
       </c>
       <c r="B589" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C589">
         <v>0</v>
+      </c>
+      <c r="D589">
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -8650,13 +8650,10 @@
         <v>308</v>
       </c>
       <c r="B590" t="s">
-        <v>221</v>
+        <v>314</v>
       </c>
       <c r="C590">
         <v>0</v>
-      </c>
-      <c r="D590">
-        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -8664,10 +8661,13 @@
         <v>308</v>
       </c>
       <c r="B591" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="C591">
         <v>0</v>
+      </c>
+      <c r="D591">
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -8675,13 +8675,10 @@
         <v>308</v>
       </c>
       <c r="B592" t="s">
-        <v>315</v>
+        <v>112</v>
       </c>
       <c r="C592">
         <v>0</v>
-      </c>
-      <c r="D592">
-        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -8689,7 +8686,7 @@
         <v>308</v>
       </c>
       <c r="B593" t="s">
-        <v>18</v>
+        <v>315</v>
       </c>
       <c r="C593">
         <v>0</v>
@@ -8703,7 +8700,7 @@
         <v>308</v>
       </c>
       <c r="B594" t="s">
-        <v>316</v>
+        <v>18</v>
       </c>
       <c r="C594">
         <v>0</v>
@@ -8717,7 +8714,7 @@
         <v>308</v>
       </c>
       <c r="B595" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C595">
         <v>0</v>
@@ -8731,10 +8728,13 @@
         <v>308</v>
       </c>
       <c r="B596" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C596">
         <v>0</v>
+      </c>
+      <c r="D596">
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -8742,13 +8742,10 @@
         <v>308</v>
       </c>
       <c r="B597" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="C597">
         <v>0</v>
-      </c>
-      <c r="D597">
-        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -8756,10 +8753,13 @@
         <v>308</v>
       </c>
       <c r="B598" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="C598">
         <v>0</v>
+      </c>
+      <c r="D598">
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -8767,7 +8767,7 @@
         <v>308</v>
       </c>
       <c r="B599" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C599">
         <v>0</v>
@@ -8778,7 +8778,7 @@
         <v>308</v>
       </c>
       <c r="B600" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C600">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>308</v>
       </c>
       <c r="B601" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C601">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>308</v>
       </c>
       <c r="B602" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C602">
         <v>0</v>
@@ -8811,7 +8811,7 @@
         <v>308</v>
       </c>
       <c r="B603" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C603">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>308</v>
       </c>
       <c r="B604" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C604">
         <v>0</v>
@@ -8833,7 +8833,7 @@
         <v>308</v>
       </c>
       <c r="B605" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C605">
         <v>0</v>
@@ -8844,7 +8844,7 @@
         <v>308</v>
       </c>
       <c r="B606" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C606">
         <v>0</v>
@@ -8855,7 +8855,7 @@
         <v>308</v>
       </c>
       <c r="B607" t="s">
-        <v>51</v>
+        <v>327</v>
       </c>
       <c r="C607">
         <v>0</v>
@@ -8866,7 +8866,7 @@
         <v>308</v>
       </c>
       <c r="B608" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C608">
         <v>0</v>
@@ -8877,7 +8877,7 @@
         <v>308</v>
       </c>
       <c r="B609" t="s">
-        <v>328</v>
+        <v>52</v>
       </c>
       <c r="C609">
         <v>0</v>
@@ -8888,44 +8888,44 @@
         <v>308</v>
       </c>
       <c r="B610" t="s">
+        <v>328</v>
+      </c>
+      <c r="C610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4">
+      <c r="A611" t="s">
+        <v>308</v>
+      </c>
+      <c r="B611" t="s">
         <v>329</v>
       </c>
-      <c r="C610">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="611" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A611" s="3" t="s">
+      <c r="C611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A612" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B611" s="3" t="s">
+      <c r="B612" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C611" s="3">
-        <v>0</v>
-      </c>
-      <c r="D611" s="3"/>
-    </row>
-    <row r="612" spans="1:4" ht="15.75" thickTop="1">
-      <c r="A612" t="s">
-        <v>350</v>
-      </c>
-      <c r="B612" t="s">
-        <v>5</v>
-      </c>
-      <c r="C612">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="613" spans="1:4">
+      <c r="C612" s="3">
+        <v>0</v>
+      </c>
+      <c r="D612" s="3"/>
+    </row>
+    <row r="613" spans="1:4" ht="15.75" thickTop="1">
       <c r="A613" t="s">
         <v>350</v>
       </c>
       <c r="B613" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -8933,7 +8933,7 @@
         <v>350</v>
       </c>
       <c r="B614" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C614">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>350</v>
       </c>
       <c r="B615" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C615">
         <v>0</v>
@@ -8955,7 +8955,7 @@
         <v>350</v>
       </c>
       <c r="B616" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C616">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>350</v>
       </c>
       <c r="B617" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C617">
         <v>0</v>
@@ -8977,7 +8977,7 @@
         <v>350</v>
       </c>
       <c r="B618" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C618">
         <v>0</v>
@@ -8988,7 +8988,7 @@
         <v>350</v>
       </c>
       <c r="B619" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C619">
         <v>0</v>
@@ -8999,7 +8999,7 @@
         <v>350</v>
       </c>
       <c r="B620" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C620">
         <v>0</v>
@@ -9010,7 +9010,7 @@
         <v>350</v>
       </c>
       <c r="B621" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C621">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>350</v>
       </c>
       <c r="B622" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C622">
         <v>0</v>
@@ -9032,7 +9032,7 @@
         <v>350</v>
       </c>
       <c r="B623" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C623">
         <v>0</v>
@@ -9043,7 +9043,7 @@
         <v>350</v>
       </c>
       <c r="B624" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C624">
         <v>0</v>
@@ -9054,7 +9054,7 @@
         <v>350</v>
       </c>
       <c r="B625" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C625">
         <v>0</v>
@@ -9065,7 +9065,7 @@
         <v>350</v>
       </c>
       <c r="B626" t="s">
-        <v>351</v>
+        <v>52</v>
       </c>
       <c r="C626">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>350</v>
       </c>
       <c r="B627" t="s">
-        <v>21</v>
+        <v>351</v>
       </c>
       <c r="C627">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>350</v>
       </c>
       <c r="B628" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C628">
         <v>0</v>
@@ -9098,7 +9098,7 @@
         <v>350</v>
       </c>
       <c r="B629" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C629">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>350</v>
       </c>
       <c r="B630" t="s">
-        <v>352</v>
+        <v>15</v>
       </c>
       <c r="C630">
         <v>0</v>
@@ -9120,7 +9120,7 @@
         <v>350</v>
       </c>
       <c r="B631" t="s">
-        <v>24</v>
+        <v>352</v>
       </c>
       <c r="C631">
         <v>0</v>
@@ -9131,7 +9131,7 @@
         <v>350</v>
       </c>
       <c r="B632" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C632">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>350</v>
       </c>
       <c r="B633" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C633">
         <v>0</v>
@@ -9153,7 +9153,7 @@
         <v>350</v>
       </c>
       <c r="B634" t="s">
-        <v>353</v>
+        <v>4</v>
       </c>
       <c r="C634">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>350</v>
       </c>
       <c r="B635" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C635">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>350</v>
       </c>
       <c r="B636" t="s">
-        <v>33</v>
+        <v>354</v>
       </c>
       <c r="C636">
         <v>0</v>
@@ -9186,7 +9186,7 @@
         <v>350</v>
       </c>
       <c r="B637" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C637">
         <v>0</v>
@@ -9197,7 +9197,7 @@
         <v>350</v>
       </c>
       <c r="B638" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C638">
         <v>0</v>
@@ -9208,7 +9208,7 @@
         <v>350</v>
       </c>
       <c r="B639" t="s">
-        <v>355</v>
+        <v>69</v>
       </c>
       <c r="C639">
         <v>0</v>
@@ -9219,7 +9219,7 @@
         <v>350</v>
       </c>
       <c r="B640" t="s">
-        <v>58</v>
+        <v>355</v>
       </c>
       <c r="C640">
         <v>0</v>
@@ -9230,44 +9230,44 @@
         <v>350</v>
       </c>
       <c r="B641" t="s">
+        <v>58</v>
+      </c>
+      <c r="C641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4">
+      <c r="A642" t="s">
+        <v>350</v>
+      </c>
+      <c r="B642" t="s">
         <v>7</v>
       </c>
-      <c r="C641">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="642" spans="1:4">
-      <c r="A642" s="2" t="s">
+      <c r="C642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4">
+      <c r="A643" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B642" s="2" t="s">
+      <c r="B643" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C642">
-        <v>1</v>
-      </c>
-      <c r="D642" s="2"/>
-    </row>
-    <row r="643" spans="1:4">
-      <c r="A643" t="s">
-        <v>356</v>
-      </c>
-      <c r="B643" t="s">
-        <v>5</v>
-      </c>
       <c r="C643">
         <v>1</v>
       </c>
+      <c r="D643" s="2"/>
     </row>
     <row r="644" spans="1:4">
       <c r="A644" t="s">
         <v>356</v>
       </c>
       <c r="B644" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -9275,10 +9275,10 @@
         <v>356</v>
       </c>
       <c r="B645" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -9286,7 +9286,7 @@
         <v>356</v>
       </c>
       <c r="B646" t="s">
-        <v>337</v>
+        <v>38</v>
       </c>
       <c r="C646">
         <v>1</v>
@@ -9297,10 +9297,10 @@
         <v>356</v>
       </c>
       <c r="B647" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -9308,10 +9308,10 @@
         <v>356</v>
       </c>
       <c r="B648" t="s">
-        <v>36</v>
+        <v>338</v>
       </c>
       <c r="C648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:4">
@@ -9319,10 +9319,10 @@
         <v>356</v>
       </c>
       <c r="B649" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -9330,7 +9330,7 @@
         <v>356</v>
       </c>
       <c r="B650" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C650">
         <v>0</v>
@@ -9341,7 +9341,7 @@
         <v>356</v>
       </c>
       <c r="B651" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C651">
         <v>0</v>
@@ -9352,7 +9352,7 @@
         <v>356</v>
       </c>
       <c r="B652" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C652">
         <v>0</v>
@@ -9363,7 +9363,7 @@
         <v>356</v>
       </c>
       <c r="B653" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C653">
         <v>0</v>
@@ -9374,7 +9374,7 @@
         <v>356</v>
       </c>
       <c r="B654" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C654">
         <v>0</v>
@@ -9385,7 +9385,7 @@
         <v>356</v>
       </c>
       <c r="B655" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C655">
         <v>0</v>
@@ -9396,7 +9396,7 @@
         <v>356</v>
       </c>
       <c r="B656" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C656">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>356</v>
       </c>
       <c r="B657" t="s">
-        <v>357</v>
+        <v>20</v>
       </c>
       <c r="C657">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>356</v>
       </c>
       <c r="B658" t="s">
-        <v>50</v>
+        <v>357</v>
       </c>
       <c r="C658">
         <v>0</v>
@@ -9429,7 +9429,7 @@
         <v>356</v>
       </c>
       <c r="B659" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C659">
         <v>0</v>
@@ -9440,7 +9440,7 @@
         <v>356</v>
       </c>
       <c r="B660" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C660">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>356</v>
       </c>
       <c r="B661" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C661">
         <v>0</v>
@@ -9462,7 +9462,7 @@
         <v>356</v>
       </c>
       <c r="B662" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C662">
         <v>0</v>
@@ -9473,7 +9473,7 @@
         <v>356</v>
       </c>
       <c r="B663" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C663">
         <v>0</v>
@@ -9484,7 +9484,7 @@
         <v>356</v>
       </c>
       <c r="B664" t="s">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="C664">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>356</v>
       </c>
       <c r="B665" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
       <c r="C665">
         <v>0</v>
@@ -9506,7 +9506,7 @@
         <v>356</v>
       </c>
       <c r="B666" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C666">
         <v>0</v>
@@ -9517,7 +9517,7 @@
         <v>356</v>
       </c>
       <c r="B667" t="s">
-        <v>359</v>
+        <v>40</v>
       </c>
       <c r="C667">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>356</v>
       </c>
       <c r="B668" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C668">
         <v>0</v>
@@ -9539,41 +9539,41 @@
         <v>356</v>
       </c>
       <c r="B669" t="s">
+        <v>360</v>
+      </c>
+      <c r="C669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4">
+      <c r="A670" t="s">
+        <v>356</v>
+      </c>
+      <c r="B670" t="s">
         <v>361</v>
       </c>
-      <c r="C669">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="670" spans="1:4">
-      <c r="A670" s="2" t="s">
+      <c r="C670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4">
+      <c r="A671" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B670" s="2" t="s">
+      <c r="B671" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C670">
-        <v>0</v>
-      </c>
-      <c r="D670" s="2"/>
-    </row>
-    <row r="671" spans="1:4">
-      <c r="A671" t="s">
-        <v>362</v>
-      </c>
-      <c r="B671" t="s">
-        <v>36</v>
-      </c>
       <c r="C671">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D671" s="2"/>
     </row>
     <row r="672" spans="1:4">
       <c r="A672" t="s">
         <v>362</v>
       </c>
       <c r="B672" t="s">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="C672">
         <v>1</v>
@@ -9584,10 +9584,10 @@
         <v>362</v>
       </c>
       <c r="B673" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -9595,10 +9595,10 @@
         <v>362</v>
       </c>
       <c r="B674" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="C674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -9606,10 +9606,10 @@
         <v>362</v>
       </c>
       <c r="B675" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="C675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:4">
@@ -9617,7 +9617,7 @@
         <v>362</v>
       </c>
       <c r="B676" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C676">
         <v>0</v>
@@ -9628,44 +9628,44 @@
         <v>362</v>
       </c>
       <c r="B677" t="s">
+        <v>355</v>
+      </c>
+      <c r="C677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4">
+      <c r="A678" t="s">
+        <v>362</v>
+      </c>
+      <c r="B678" t="s">
         <v>366</v>
       </c>
-      <c r="C677">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="678" spans="1:4">
-      <c r="A678" s="2" t="s">
+      <c r="C678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4">
+      <c r="A679" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B678" s="2" t="s">
+      <c r="B679" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C678" s="2">
-        <v>0</v>
-      </c>
-      <c r="D678" s="2"/>
-    </row>
-    <row r="679" spans="1:4">
-      <c r="A679" t="s">
-        <v>367</v>
-      </c>
-      <c r="B679" t="s">
-        <v>5</v>
-      </c>
-      <c r="C679">
-        <v>1</v>
-      </c>
+      <c r="C679" s="2">
+        <v>0</v>
+      </c>
+      <c r="D679" s="2"/>
     </row>
     <row r="680" spans="1:4">
       <c r="A680" t="s">
         <v>367</v>
       </c>
       <c r="B680" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -9673,7 +9673,7 @@
         <v>367</v>
       </c>
       <c r="B681" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C681">
         <v>0</v>
@@ -9684,10 +9684,10 @@
         <v>367</v>
       </c>
       <c r="B682" t="s">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="C682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -9695,10 +9695,10 @@
         <v>367</v>
       </c>
       <c r="B683" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -9706,7 +9706,7 @@
         <v>367</v>
       </c>
       <c r="B684" t="s">
-        <v>253</v>
+        <v>369</v>
       </c>
       <c r="C684">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>367</v>
       </c>
       <c r="B685" t="s">
-        <v>112</v>
+        <v>253</v>
       </c>
       <c r="C685">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>367</v>
       </c>
       <c r="B686" t="s">
-        <v>370</v>
+        <v>112</v>
       </c>
       <c r="C686">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>367</v>
       </c>
       <c r="B687" t="s">
-        <v>9</v>
+        <v>370</v>
       </c>
       <c r="C687">
         <v>0</v>
@@ -9749,53 +9749,53 @@
       <c r="A688" t="s">
         <v>367</v>
       </c>
-      <c r="B688" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C688" s="2">
-        <v>1</v>
+      <c r="B688" t="s">
+        <v>9</v>
+      </c>
+      <c r="C688">
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:4">
       <c r="A689" t="s">
         <v>367</v>
       </c>
-      <c r="B689" t="s">
+      <c r="B689" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C689" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4">
+      <c r="A690" t="s">
+        <v>367</v>
+      </c>
+      <c r="B690" t="s">
         <v>256</v>
       </c>
-      <c r="C689">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="690" spans="1:4">
-      <c r="A690" s="2" t="s">
+      <c r="C690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4">
+      <c r="A691" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B690" s="2" t="s">
+      <c r="B691" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C690" s="2">
-        <v>0</v>
-      </c>
-      <c r="D690" s="2"/>
-    </row>
-    <row r="691" spans="1:4">
-      <c r="A691" t="s">
-        <v>371</v>
-      </c>
-      <c r="B691" t="s">
-        <v>36</v>
-      </c>
-      <c r="C691">
-        <v>1</v>
-      </c>
+      <c r="C691" s="2">
+        <v>0</v>
+      </c>
+      <c r="D691" s="2"/>
     </row>
     <row r="692" spans="1:4">
       <c r="A692" t="s">
         <v>371</v>
       </c>
       <c r="B692" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C692">
         <v>1</v>
@@ -9806,10 +9806,10 @@
         <v>371</v>
       </c>
       <c r="B693" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -9817,10 +9817,10 @@
         <v>371</v>
       </c>
       <c r="B694" t="s">
-        <v>341</v>
+        <v>6</v>
       </c>
       <c r="C694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -9828,7 +9828,7 @@
         <v>371</v>
       </c>
       <c r="B695" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C695">
         <v>1</v>
@@ -9839,7 +9839,7 @@
         <v>371</v>
       </c>
       <c r="B696" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C696">
         <v>1</v>
@@ -9850,10 +9850,10 @@
         <v>371</v>
       </c>
       <c r="B697" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -9861,7 +9861,7 @@
         <v>371</v>
       </c>
       <c r="B698" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C698">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>371</v>
       </c>
       <c r="B699" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C699">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>371</v>
       </c>
       <c r="B700" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C700">
         <v>0</v>
@@ -9894,23 +9894,34 @@
         <v>371</v>
       </c>
       <c r="B701" t="s">
+        <v>347</v>
+      </c>
+      <c r="C701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4">
+      <c r="A702" t="s">
+        <v>371</v>
+      </c>
+      <c r="B702" t="s">
         <v>348</v>
       </c>
-      <c r="C701">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="702" spans="1:4">
-      <c r="A702" s="2" t="s">
+      <c r="C702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4">
+      <c r="A703" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B702" s="2" t="s">
+      <c r="B703" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C702" s="2">
-        <v>0</v>
-      </c>
-      <c r="D702" s="2"/>
+      <c r="C703" s="2">
+        <v>0</v>
+      </c>
+      <c r="D703" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="372">
   <si>
     <t>TABELA</t>
   </si>
@@ -1196,9 +1196,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D703" totalsRowShown="0">
-  <autoFilter ref="A1:D703">
-    <filterColumn colId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D702" totalsRowShown="0">
+  <autoFilter ref="A1:D702">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="ln.ods_nfr_det"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3"/>
   </autoFilter>
   <tableColumns count="4">
@@ -1496,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D703"/>
+  <dimension ref="A1:D702"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="E338" sqref="E338"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="C270" sqref="C270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1523,7 +1527,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" hidden="1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1534,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" hidden="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1545,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" hidden="1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1556,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" hidden="1">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1567,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" hidden="1">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1578,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" hidden="1">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" hidden="1">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1600,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" hidden="1">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1611,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" hidden="1">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1622,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" hidden="1">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1633,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" hidden="1">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1644,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" hidden="1">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1658,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" hidden="1">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1672,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" hidden="1">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1686,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" hidden="1">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1700,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" hidden="1">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1714,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" hidden="1">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1728,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" hidden="1">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1742,7 +1746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" hidden="1">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1756,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" hidden="1">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1770,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" hidden="1">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1781,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" hidden="1">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1795,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" hidden="1">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1809,7 +1813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" hidden="1">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1823,7 +1827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" hidden="1">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1837,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" hidden="1">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1851,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" hidden="1">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1865,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" hidden="1">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1879,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" hidden="1">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1893,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" hidden="1">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1907,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" hidden="1">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1918,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" hidden="1">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1929,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" hidden="1">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1940,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" hidden="1">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1951,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" hidden="1">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1962,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" hidden="1">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1973,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" hidden="1">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1984,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" hidden="1">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1995,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" hidden="1">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -2006,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" hidden="1">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -2017,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" hidden="1">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -2028,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" hidden="1">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2039,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" hidden="1">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2050,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" hidden="1">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -2061,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" hidden="1">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -2072,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" hidden="1">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -2083,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" hidden="1">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -2097,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" hidden="1">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -2111,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" hidden="1">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -2125,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" hidden="1">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -2136,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" hidden="1">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -2147,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" hidden="1">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -2158,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" hidden="1">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -2169,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" hidden="1">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -2183,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" hidden="1">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -2197,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" hidden="1">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -2211,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" hidden="1">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -2225,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" hidden="1">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -2236,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" hidden="1">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -2247,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" hidden="1">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -2258,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" hidden="1">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -2269,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" hidden="1">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -2280,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" hidden="1">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -2291,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" hidden="1">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -2302,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" hidden="1">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -2316,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" hidden="1">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -2330,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" hidden="1">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -2344,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" hidden="1">
       <c r="A69" t="s">
         <v>49</v>
       </c>
@@ -2355,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" hidden="1">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -2369,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" hidden="1">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -2383,7 +2387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" hidden="1">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -2397,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" hidden="1">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -2408,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" hidden="1">
       <c r="A74" t="s">
         <v>49</v>
       </c>
@@ -2419,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" hidden="1">
       <c r="A75" t="s">
         <v>340</v>
       </c>
@@ -2430,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" hidden="1">
       <c r="A76" t="s">
         <v>340</v>
       </c>
@@ -2441,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" hidden="1">
       <c r="A77" t="s">
         <v>340</v>
       </c>
@@ -2452,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" hidden="1">
       <c r="A78" t="s">
         <v>340</v>
       </c>
@@ -2463,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" hidden="1">
       <c r="A79" t="s">
         <v>340</v>
       </c>
@@ -2474,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" hidden="1">
       <c r="A80" t="s">
         <v>340</v>
       </c>
@@ -2485,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" hidden="1">
       <c r="A81" t="s">
         <v>340</v>
       </c>
@@ -2496,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" hidden="1">
       <c r="A82" t="s">
         <v>340</v>
       </c>
@@ -2507,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" hidden="1">
       <c r="A83" t="s">
         <v>340</v>
       </c>
@@ -2518,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" hidden="1">
       <c r="A84" t="s">
         <v>340</v>
       </c>
@@ -2529,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" hidden="1">
       <c r="A85" t="s">
         <v>340</v>
       </c>
@@ -2540,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" hidden="1">
       <c r="A86" t="s">
         <v>340</v>
       </c>
@@ -2551,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" hidden="1">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -2565,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" hidden="1">
       <c r="A88" t="s">
         <v>60</v>
       </c>
@@ -2576,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" hidden="1">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -2587,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" hidden="1">
       <c r="A90" t="s">
         <v>60</v>
       </c>
@@ -2598,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" hidden="1">
       <c r="A91" t="s">
         <v>60</v>
       </c>
@@ -2609,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" hidden="1">
       <c r="A92" t="s">
         <v>60</v>
       </c>
@@ -2620,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" hidden="1">
       <c r="A93" t="s">
         <v>60</v>
       </c>
@@ -2631,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" hidden="1">
       <c r="A94" t="s">
         <v>60</v>
       </c>
@@ -2642,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" hidden="1">
       <c r="A95" t="s">
         <v>60</v>
       </c>
@@ -2653,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" hidden="1">
       <c r="A96" t="s">
         <v>60</v>
       </c>
@@ -2664,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" hidden="1">
       <c r="A97" t="s">
         <v>60</v>
       </c>
@@ -2675,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" hidden="1">
       <c r="A98" t="s">
         <v>60</v>
       </c>
@@ -2686,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" hidden="1">
       <c r="A99" t="s">
         <v>60</v>
       </c>
@@ -2697,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" hidden="1">
       <c r="A100" t="s">
         <v>60</v>
       </c>
@@ -2708,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" hidden="1">
       <c r="A101" t="s">
         <v>60</v>
       </c>
@@ -2719,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" hidden="1">
       <c r="A102" t="s">
         <v>60</v>
       </c>
@@ -2730,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" hidden="1">
       <c r="A103" t="s">
         <v>60</v>
       </c>
@@ -2741,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" hidden="1">
       <c r="A104" t="s">
         <v>60</v>
       </c>
@@ -2752,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" hidden="1">
       <c r="A105" t="s">
         <v>60</v>
       </c>
@@ -2763,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" hidden="1">
       <c r="A106" t="s">
         <v>60</v>
       </c>
@@ -2774,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" hidden="1">
       <c r="A107" t="s">
         <v>60</v>
       </c>
@@ -2788,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" hidden="1">
       <c r="A108" t="s">
         <v>60</v>
       </c>
@@ -2802,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" hidden="1">
       <c r="A109" t="s">
         <v>60</v>
       </c>
@@ -2813,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" hidden="1">
       <c r="A110" t="s">
         <v>60</v>
       </c>
@@ -2824,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" hidden="1">
       <c r="A111" t="s">
         <v>60</v>
       </c>
@@ -2835,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" hidden="1">
       <c r="A112" t="s">
         <v>60</v>
       </c>
@@ -2846,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" hidden="1">
       <c r="A113" t="s">
         <v>60</v>
       </c>
@@ -2857,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" hidden="1">
       <c r="A114" t="s">
         <v>60</v>
       </c>
@@ -2868,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" hidden="1">
       <c r="A115" t="s">
         <v>60</v>
       </c>
@@ -2879,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" hidden="1">
       <c r="A116" t="s">
         <v>60</v>
       </c>
@@ -2890,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" hidden="1">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -2901,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" hidden="1">
       <c r="A118" t="s">
         <v>60</v>
       </c>
@@ -2912,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" hidden="1">
       <c r="A119" t="s">
         <v>60</v>
       </c>
@@ -2923,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" hidden="1">
       <c r="A120" t="s">
         <v>60</v>
       </c>
@@ -2934,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" hidden="1">
       <c r="A121" t="s">
         <v>60</v>
       </c>
@@ -2945,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" hidden="1">
       <c r="A122" t="s">
         <v>60</v>
       </c>
@@ -2956,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" hidden="1">
       <c r="A123" t="s">
         <v>60</v>
       </c>
@@ -2967,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" hidden="1">
       <c r="A124" t="s">
         <v>60</v>
       </c>
@@ -2978,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" hidden="1">
       <c r="A125" t="s">
         <v>60</v>
       </c>
@@ -2989,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" hidden="1">
       <c r="A126" t="s">
         <v>60</v>
       </c>
@@ -3000,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" hidden="1">
       <c r="A127" t="s">
         <v>60</v>
       </c>
@@ -3011,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" hidden="1">
       <c r="A128" t="s">
         <v>60</v>
       </c>
@@ -3022,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" hidden="1">
       <c r="A129" t="s">
         <v>60</v>
       </c>
@@ -3033,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" hidden="1">
       <c r="A130" t="s">
         <v>60</v>
       </c>
@@ -3044,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" hidden="1">
       <c r="A131" t="s">
         <v>60</v>
       </c>
@@ -3055,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" hidden="1">
       <c r="A132" t="s">
         <v>60</v>
       </c>
@@ -3066,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" hidden="1">
       <c r="A133" t="s">
         <v>60</v>
       </c>
@@ -3077,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" hidden="1">
       <c r="A134" t="s">
         <v>60</v>
       </c>
@@ -3088,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" hidden="1">
       <c r="A135" t="s">
         <v>60</v>
       </c>
@@ -3099,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" hidden="1">
       <c r="A136" t="s">
         <v>60</v>
       </c>
@@ -3110,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" hidden="1">
       <c r="A137" t="s">
         <v>60</v>
       </c>
@@ -3121,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" hidden="1">
       <c r="A138" t="s">
         <v>60</v>
       </c>
@@ -3132,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" hidden="1">
       <c r="A139" t="s">
         <v>60</v>
       </c>
@@ -3143,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" hidden="1">
       <c r="A140" t="s">
         <v>60</v>
       </c>
@@ -3154,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" hidden="1">
       <c r="A141" t="s">
         <v>60</v>
       </c>
@@ -3165,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" hidden="1">
       <c r="A142" t="s">
         <v>60</v>
       </c>
@@ -3176,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" hidden="1">
       <c r="A143" t="s">
         <v>60</v>
       </c>
@@ -3187,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" hidden="1">
       <c r="A144" t="s">
         <v>60</v>
       </c>
@@ -3198,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" hidden="1">
       <c r="A145" t="s">
         <v>60</v>
       </c>
@@ -3209,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" hidden="1">
       <c r="A146" t="s">
         <v>60</v>
       </c>
@@ -3220,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" hidden="1">
       <c r="A147" t="s">
         <v>60</v>
       </c>
@@ -3231,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" hidden="1">
       <c r="A148" t="s">
         <v>60</v>
       </c>
@@ -3242,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" hidden="1">
       <c r="A149" t="s">
         <v>60</v>
       </c>
@@ -3253,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" hidden="1">
       <c r="A150" t="s">
         <v>60</v>
       </c>
@@ -3267,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" hidden="1">
       <c r="A151" t="s">
         <v>60</v>
       </c>
@@ -3278,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" hidden="1">
       <c r="A152" t="s">
         <v>60</v>
       </c>
@@ -3289,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" hidden="1">
       <c r="A153" t="s">
         <v>60</v>
       </c>
@@ -3300,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" hidden="1">
       <c r="A154" t="s">
         <v>60</v>
       </c>
@@ -3311,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" hidden="1">
       <c r="A155" t="s">
         <v>60</v>
       </c>
@@ -3322,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" hidden="1">
       <c r="A156" t="s">
         <v>60</v>
       </c>
@@ -3333,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" hidden="1">
       <c r="A157" t="s">
         <v>60</v>
       </c>
@@ -3344,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" hidden="1">
       <c r="A158" t="s">
         <v>60</v>
       </c>
@@ -3355,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" hidden="1">
       <c r="A159" t="s">
         <v>60</v>
       </c>
@@ -3366,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" hidden="1">
       <c r="A160" t="s">
         <v>60</v>
       </c>
@@ -3377,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" hidden="1">
       <c r="A161" t="s">
         <v>60</v>
       </c>
@@ -3388,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" hidden="1">
       <c r="A162" t="s">
         <v>60</v>
       </c>
@@ -3399,7 +3403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" hidden="1">
       <c r="A163" t="s">
         <v>60</v>
       </c>
@@ -3413,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" hidden="1">
       <c r="A164" t="s">
         <v>60</v>
       </c>
@@ -3424,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" hidden="1">
       <c r="A165" t="s">
         <v>60</v>
       </c>
@@ -3435,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" hidden="1">
       <c r="A166" t="s">
         <v>60</v>
       </c>
@@ -3446,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" hidden="1">
       <c r="A167" t="s">
         <v>132</v>
       </c>
@@ -3457,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" hidden="1">
       <c r="A168" t="s">
         <v>132</v>
       </c>
@@ -3468,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" hidden="1">
       <c r="A169" t="s">
         <v>132</v>
       </c>
@@ -3479,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" hidden="1">
       <c r="A170" t="s">
         <v>132</v>
       </c>
@@ -3490,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" hidden="1">
       <c r="A171" t="s">
         <v>132</v>
       </c>
@@ -3501,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" hidden="1">
       <c r="A172" t="s">
         <v>132</v>
       </c>
@@ -3512,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" hidden="1">
       <c r="A173" t="s">
         <v>132</v>
       </c>
@@ -3526,7 +3530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" hidden="1">
       <c r="A174" t="s">
         <v>132</v>
       </c>
@@ -3540,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" hidden="1">
       <c r="A175" t="s">
         <v>132</v>
       </c>
@@ -3554,7 +3558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" hidden="1">
       <c r="A176" t="s">
         <v>132</v>
       </c>
@@ -3568,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" hidden="1">
       <c r="A177" t="s">
         <v>132</v>
       </c>
@@ -3582,7 +3586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" hidden="1">
       <c r="A178" t="s">
         <v>132</v>
       </c>
@@ -3593,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" hidden="1">
       <c r="A179" t="s">
         <v>132</v>
       </c>
@@ -3604,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" hidden="1">
       <c r="A180" t="s">
         <v>132</v>
       </c>
@@ -3615,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" hidden="1">
       <c r="A181" t="s">
         <v>132</v>
       </c>
@@ -3626,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" hidden="1">
       <c r="A182" t="s">
         <v>132</v>
       </c>
@@ -3637,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" hidden="1">
       <c r="A183" t="s">
         <v>132</v>
       </c>
@@ -3651,7 +3655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" hidden="1">
       <c r="A184" t="s">
         <v>132</v>
       </c>
@@ -3665,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" hidden="1">
       <c r="A185" t="s">
         <v>132</v>
       </c>
@@ -3679,7 +3683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" hidden="1">
       <c r="A186" t="s">
         <v>132</v>
       </c>
@@ -3693,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" hidden="1">
       <c r="A187" t="s">
         <v>132</v>
       </c>
@@ -3707,7 +3711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" hidden="1">
       <c r="A188" t="s">
         <v>132</v>
       </c>
@@ -3721,7 +3725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" hidden="1">
       <c r="A189" t="s">
         <v>132</v>
       </c>
@@ -3735,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" hidden="1">
       <c r="A190" t="s">
         <v>132</v>
       </c>
@@ -3749,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" hidden="1">
       <c r="A191" t="s">
         <v>132</v>
       </c>
@@ -3763,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" hidden="1">
       <c r="A192" t="s">
         <v>132</v>
       </c>
@@ -3777,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" hidden="1">
       <c r="A193" t="s">
         <v>132</v>
       </c>
@@ -3791,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" hidden="1">
       <c r="A194" t="s">
         <v>132</v>
       </c>
@@ -3805,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" hidden="1">
       <c r="A195" t="s">
         <v>132</v>
       </c>
@@ -3819,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" hidden="1">
       <c r="A196" t="s">
         <v>132</v>
       </c>
@@ -3833,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" hidden="1">
       <c r="A197" t="s">
         <v>132</v>
       </c>
@@ -3847,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" hidden="1">
       <c r="A198" t="s">
         <v>132</v>
       </c>
@@ -3858,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" hidden="1">
       <c r="A199" t="s">
         <v>132</v>
       </c>
@@ -3872,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" hidden="1">
       <c r="A200" t="s">
         <v>132</v>
       </c>
@@ -3886,7 +3890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" hidden="1">
       <c r="A201" t="s">
         <v>132</v>
       </c>
@@ -3900,7 +3904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" hidden="1">
       <c r="A202" t="s">
         <v>132</v>
       </c>
@@ -3914,7 +3918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" hidden="1">
       <c r="A203" t="s">
         <v>132</v>
       </c>
@@ -3925,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" hidden="1">
       <c r="A204" t="s">
         <v>132</v>
       </c>
@@ -3936,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" hidden="1">
       <c r="A205" t="s">
         <v>132</v>
       </c>
@@ -3947,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" hidden="1">
       <c r="A206" t="s">
         <v>132</v>
       </c>
@@ -3961,7 +3965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" hidden="1">
       <c r="A207" t="s">
         <v>132</v>
       </c>
@@ -3975,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" hidden="1">
       <c r="A208" t="s">
         <v>132</v>
       </c>
@@ -3989,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" hidden="1">
       <c r="A209" t="s">
         <v>132</v>
       </c>
@@ -4003,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" hidden="1">
       <c r="A210" t="s">
         <v>132</v>
       </c>
@@ -4017,7 +4021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" hidden="1">
       <c r="A211" t="s">
         <v>132</v>
       </c>
@@ -4031,7 +4035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" hidden="1">
       <c r="A212" t="s">
         <v>132</v>
       </c>
@@ -4045,7 +4049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" hidden="1">
       <c r="A213" t="s">
         <v>132</v>
       </c>
@@ -4059,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" hidden="1">
       <c r="A214" t="s">
         <v>132</v>
       </c>
@@ -4073,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" hidden="1">
       <c r="A215" t="s">
         <v>132</v>
       </c>
@@ -4087,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" hidden="1">
       <c r="A216" t="s">
         <v>132</v>
       </c>
@@ -4101,7 +4105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" hidden="1">
       <c r="A217" t="s">
         <v>132</v>
       </c>
@@ -4115,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" hidden="1">
       <c r="A218" t="s">
         <v>132</v>
       </c>
@@ -4129,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" hidden="1">
       <c r="A219" t="s">
         <v>132</v>
       </c>
@@ -4140,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" hidden="1">
       <c r="A220" t="s">
         <v>132</v>
       </c>
@@ -4151,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" hidden="1">
       <c r="A221" t="s">
         <v>132</v>
       </c>
@@ -4162,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" hidden="1">
       <c r="A222" t="s">
         <v>132</v>
       </c>
@@ -4173,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" hidden="1">
       <c r="A223" t="s">
         <v>132</v>
       </c>
@@ -4868,7 +4872,7 @@
         <v>166</v>
       </c>
       <c r="B274" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -4882,7 +4886,7 @@
         <v>166</v>
       </c>
       <c r="B275" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -4896,7 +4900,7 @@
         <v>166</v>
       </c>
       <c r="B276" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -4910,7 +4914,7 @@
         <v>166</v>
       </c>
       <c r="B277" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -4924,13 +4928,10 @@
         <v>166</v>
       </c>
       <c r="B278" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C278">
         <v>0</v>
-      </c>
-      <c r="D278">
-        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4938,7 +4939,7 @@
         <v>166</v>
       </c>
       <c r="B279" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -4949,7 +4950,7 @@
         <v>166</v>
       </c>
       <c r="B280" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -4960,10 +4961,13 @@
         <v>166</v>
       </c>
       <c r="B281" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="C281">
         <v>0</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4971,7 +4975,7 @@
         <v>166</v>
       </c>
       <c r="B282" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -4985,7 +4989,7 @@
         <v>166</v>
       </c>
       <c r="B283" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -4999,7 +5003,7 @@
         <v>166</v>
       </c>
       <c r="B284" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -5013,7 +5017,7 @@
         <v>166</v>
       </c>
       <c r="B285" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -5027,7 +5031,7 @@
         <v>166</v>
       </c>
       <c r="B286" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -5041,7 +5045,7 @@
         <v>166</v>
       </c>
       <c r="B287" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -5055,7 +5059,7 @@
         <v>166</v>
       </c>
       <c r="B288" t="s">
-        <v>195</v>
+        <v>33</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -5069,7 +5073,7 @@
         <v>166</v>
       </c>
       <c r="B289" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -5083,7 +5087,7 @@
         <v>166</v>
       </c>
       <c r="B290" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -5097,7 +5101,7 @@
         <v>166</v>
       </c>
       <c r="B291" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -5111,13 +5115,10 @@
         <v>166</v>
       </c>
       <c r="B292" t="s">
-        <v>197</v>
+        <v>25</v>
       </c>
       <c r="C292">
         <v>0</v>
-      </c>
-      <c r="D292">
-        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5125,7 +5126,7 @@
         <v>166</v>
       </c>
       <c r="B293" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -5136,10 +5137,10 @@
         <v>166</v>
       </c>
       <c r="B294" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5147,10 +5148,10 @@
         <v>166</v>
       </c>
       <c r="B295" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5158,7 +5159,7 @@
         <v>166</v>
       </c>
       <c r="B296" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -5169,54 +5170,57 @@
         <v>166</v>
       </c>
       <c r="B297" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="C297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:4">
+      <c r="D297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" hidden="1">
       <c r="A298" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B298" t="s">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="C298">
-        <v>0</v>
-      </c>
-      <c r="D298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" hidden="1">
       <c r="A299" t="s">
         <v>199</v>
       </c>
       <c r="B299" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" hidden="1">
       <c r="A300" t="s">
         <v>199</v>
       </c>
       <c r="B300" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:4">
+      <c r="D300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" hidden="1">
       <c r="A301" t="s">
         <v>199</v>
       </c>
       <c r="B301" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -5225,103 +5229,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" hidden="1">
       <c r="A302" t="s">
         <v>199</v>
       </c>
       <c r="B302" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C302">
         <v>0</v>
       </c>
-      <c r="D302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4">
+    </row>
+    <row r="303" spans="1:4" hidden="1">
       <c r="A303" t="s">
         <v>199</v>
       </c>
       <c r="B303" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C303">
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" hidden="1">
       <c r="A304" t="s">
         <v>199</v>
       </c>
       <c r="B304" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="C304">
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" hidden="1">
       <c r="A305" t="s">
         <v>199</v>
       </c>
       <c r="B305" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="C305">
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" hidden="1">
       <c r="A306" t="s">
         <v>199</v>
       </c>
       <c r="B306" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C306">
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" hidden="1">
       <c r="A307" t="s">
         <v>199</v>
       </c>
       <c r="B307" t="s">
-        <v>201</v>
+        <v>66</v>
       </c>
       <c r="C307">
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" hidden="1">
       <c r="A308" t="s">
         <v>199</v>
       </c>
       <c r="B308" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C308">
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" hidden="1">
       <c r="A309" t="s">
         <v>199</v>
       </c>
       <c r="B309" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:4">
+      <c r="D309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" hidden="1">
       <c r="A310" t="s">
         <v>199</v>
       </c>
       <c r="B310" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -5330,12 +5334,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" hidden="1">
       <c r="A311" t="s">
         <v>199</v>
       </c>
       <c r="B311" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -5344,180 +5348,180 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" hidden="1">
       <c r="A312" t="s">
         <v>199</v>
       </c>
       <c r="B312" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C312">
         <v>0</v>
       </c>
-      <c r="D312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4">
+    </row>
+    <row r="313" spans="1:4" hidden="1">
       <c r="A313" t="s">
         <v>199</v>
       </c>
       <c r="B313" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C313">
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" hidden="1">
       <c r="A314" t="s">
         <v>199</v>
       </c>
       <c r="B314" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="C314">
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" hidden="1">
       <c r="A315" t="s">
         <v>199</v>
       </c>
       <c r="B315" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="C315">
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" hidden="1">
       <c r="A316" t="s">
         <v>199</v>
       </c>
       <c r="B316" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C316">
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" hidden="1">
       <c r="A317" t="s">
         <v>199</v>
       </c>
       <c r="B317" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="C317">
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" hidden="1">
       <c r="A318" t="s">
         <v>199</v>
       </c>
       <c r="B318" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="C318">
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" hidden="1">
       <c r="A319" t="s">
         <v>199</v>
       </c>
       <c r="B319" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="C319">
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" hidden="1">
       <c r="A320" t="s">
         <v>199</v>
       </c>
       <c r="B320" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="C320">
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" hidden="1">
       <c r="A321" t="s">
         <v>199</v>
       </c>
       <c r="B321" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="C321">
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" hidden="1">
       <c r="A322" t="s">
         <v>199</v>
       </c>
       <c r="B322" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="C322">
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" hidden="1">
       <c r="A323" t="s">
         <v>199</v>
       </c>
       <c r="B323" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C323">
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" hidden="1">
       <c r="A324" t="s">
         <v>199</v>
       </c>
       <c r="B324" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C324">
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" hidden="1">
       <c r="A325" t="s">
         <v>199</v>
       </c>
       <c r="B325" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C325">
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" hidden="1">
       <c r="A326" t="s">
         <v>199</v>
       </c>
       <c r="B326" t="s">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="C326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:4">
+      <c r="D326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" hidden="1">
       <c r="A327" t="s">
         <v>199</v>
       </c>
       <c r="B327" t="s">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -5526,227 +5530,227 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" hidden="1">
       <c r="A328" t="s">
         <v>199</v>
       </c>
       <c r="B328" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C328">
         <v>0</v>
       </c>
-      <c r="D328">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4">
+    </row>
+    <row r="329" spans="1:4" hidden="1">
       <c r="A329" t="s">
         <v>199</v>
       </c>
       <c r="B329" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C329">
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" hidden="1">
       <c r="A330" t="s">
         <v>199</v>
       </c>
       <c r="B330" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C330">
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" hidden="1">
       <c r="A331" t="s">
         <v>199</v>
       </c>
       <c r="B331" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C331">
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" hidden="1">
       <c r="A332" t="s">
         <v>199</v>
       </c>
       <c r="B332" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C332">
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" hidden="1">
       <c r="A333" t="s">
         <v>199</v>
       </c>
       <c r="B333" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="C333">
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" hidden="1">
       <c r="A334" t="s">
         <v>199</v>
       </c>
       <c r="B334" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C334">
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" hidden="1">
       <c r="A335" t="s">
         <v>199</v>
       </c>
       <c r="B335" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C335">
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" hidden="1">
       <c r="A336" t="s">
         <v>199</v>
       </c>
       <c r="B336" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C336">
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" hidden="1">
       <c r="A337" t="s">
         <v>199</v>
       </c>
       <c r="B337" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="C337">
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" hidden="1">
       <c r="A338" t="s">
         <v>199</v>
       </c>
       <c r="B338" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:4">
+      <c r="D338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" hidden="1">
       <c r="A339" t="s">
         <v>199</v>
       </c>
       <c r="B339" t="s">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="C339">
         <v>0</v>
       </c>
-      <c r="D339">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4">
+    </row>
+    <row r="340" spans="1:4" hidden="1">
       <c r="A340" t="s">
         <v>199</v>
       </c>
       <c r="B340" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C340">
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" hidden="1">
       <c r="A341" t="s">
         <v>199</v>
       </c>
       <c r="B341" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="C341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" hidden="1">
       <c r="A342" t="s">
         <v>199</v>
       </c>
       <c r="B342" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="C342">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" hidden="1">
       <c r="A343" t="s">
         <v>199</v>
       </c>
       <c r="B343" t="s">
-        <v>235</v>
+        <v>131</v>
       </c>
       <c r="C343">
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" hidden="1">
       <c r="A344" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B344" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" hidden="1">
       <c r="A345" t="s">
         <v>205</v>
       </c>
       <c r="B345" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C345">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" hidden="1">
       <c r="A346" t="s">
         <v>205</v>
       </c>
       <c r="B346" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:4">
+      <c r="D346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" hidden="1">
       <c r="A347" t="s">
         <v>205</v>
       </c>
       <c r="B347" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -5755,549 +5759,549 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" hidden="1">
       <c r="A348" t="s">
         <v>205</v>
       </c>
       <c r="B348" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C348">
-        <v>0</v>
-      </c>
-      <c r="D348">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" hidden="1">
       <c r="A349" t="s">
         <v>205</v>
       </c>
       <c r="B349" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C349">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" hidden="1">
       <c r="A350" t="s">
         <v>205</v>
       </c>
       <c r="B350" t="s">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="C350">
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" hidden="1">
       <c r="A351" t="s">
         <v>205</v>
       </c>
       <c r="B351" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C351">
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" hidden="1">
       <c r="A352" t="s">
         <v>205</v>
       </c>
       <c r="B352" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="C352">
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" hidden="1">
       <c r="A353" t="s">
         <v>205</v>
       </c>
       <c r="B353" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C353">
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" hidden="1">
       <c r="A354" t="s">
         <v>205</v>
       </c>
       <c r="B354" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="C354">
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" hidden="1">
       <c r="A355" t="s">
         <v>205</v>
       </c>
       <c r="B355" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="C355">
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" hidden="1">
       <c r="A356" t="s">
         <v>205</v>
       </c>
       <c r="B356" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C356">
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" hidden="1">
       <c r="A357" t="s">
         <v>205</v>
       </c>
       <c r="B357" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="C357">
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" hidden="1">
       <c r="A358" t="s">
         <v>205</v>
       </c>
       <c r="B358" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="C358">
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" hidden="1">
       <c r="A359" t="s">
         <v>205</v>
       </c>
       <c r="B359" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="C359">
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" hidden="1">
       <c r="A360" t="s">
         <v>205</v>
       </c>
       <c r="B360" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="C360">
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" hidden="1">
       <c r="A361" t="s">
         <v>205</v>
       </c>
       <c r="B361" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C361">
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" hidden="1">
       <c r="A362" t="s">
         <v>205</v>
       </c>
       <c r="B362" t="s">
-        <v>89</v>
+        <v>208</v>
       </c>
       <c r="C362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:4">
+      <c r="D362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" hidden="1">
       <c r="A363" t="s">
         <v>205</v>
       </c>
       <c r="B363" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="C363">
         <v>0</v>
       </c>
-      <c r="D363">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4">
+    </row>
+    <row r="364" spans="1:4" hidden="1">
       <c r="A364" t="s">
         <v>205</v>
       </c>
       <c r="B364" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C364">
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" hidden="1">
       <c r="A365" t="s">
         <v>205</v>
       </c>
       <c r="B365" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C365">
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" hidden="1">
       <c r="A366" t="s">
         <v>205</v>
       </c>
       <c r="B366" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C366">
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" hidden="1">
       <c r="A367" t="s">
         <v>205</v>
       </c>
       <c r="B367" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C367">
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" hidden="1">
       <c r="A368" t="s">
         <v>205</v>
       </c>
       <c r="B368" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C368">
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" hidden="1">
       <c r="A369" t="s">
         <v>205</v>
       </c>
       <c r="B369" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C369">
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" hidden="1">
       <c r="A370" t="s">
         <v>205</v>
       </c>
       <c r="B370" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C370">
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" hidden="1">
       <c r="A371" t="s">
         <v>205</v>
       </c>
       <c r="B371" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C371">
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" hidden="1">
       <c r="A372" t="s">
         <v>205</v>
       </c>
       <c r="B372" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C372">
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" hidden="1">
       <c r="A373" t="s">
         <v>205</v>
       </c>
       <c r="B373" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C373">
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" hidden="1">
       <c r="A374" t="s">
         <v>205</v>
       </c>
       <c r="B374" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C374">
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" hidden="1">
       <c r="A375" t="s">
         <v>205</v>
       </c>
       <c r="B375" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C375">
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" hidden="1">
       <c r="A376" t="s">
         <v>205</v>
       </c>
       <c r="B376" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C376">
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" hidden="1">
       <c r="A377" t="s">
         <v>205</v>
       </c>
       <c r="B377" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C377">
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" hidden="1">
       <c r="A378" t="s">
         <v>205</v>
       </c>
       <c r="B378" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C378">
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" hidden="1">
       <c r="A379" t="s">
         <v>205</v>
       </c>
       <c r="B379" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C379">
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" hidden="1">
       <c r="A380" t="s">
         <v>205</v>
       </c>
       <c r="B380" t="s">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="C380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" hidden="1">
       <c r="A381" t="s">
         <v>205</v>
       </c>
       <c r="B381" t="s">
-        <v>209</v>
+        <v>63</v>
       </c>
       <c r="C381">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" hidden="1">
       <c r="A382" t="s">
         <v>205</v>
       </c>
       <c r="B382" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C382">
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" hidden="1">
       <c r="A383" t="s">
         <v>205</v>
       </c>
       <c r="B383" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="C383">
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" hidden="1">
       <c r="A384" t="s">
         <v>205</v>
       </c>
       <c r="B384" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C384">
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" hidden="1">
       <c r="A385" t="s">
         <v>205</v>
       </c>
       <c r="B385" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C385">
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" hidden="1">
       <c r="A386" t="s">
         <v>205</v>
       </c>
       <c r="B386" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C386">
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" hidden="1">
       <c r="A387" t="s">
         <v>205</v>
       </c>
       <c r="B387" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="C387">
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" hidden="1">
       <c r="A388" t="s">
         <v>205</v>
       </c>
       <c r="B388" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:4">
+      <c r="D388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" hidden="1">
       <c r="A389" t="s">
         <v>205</v>
       </c>
       <c r="B389" t="s">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="C389">
         <v>0</v>
       </c>
-      <c r="D389">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4">
+    </row>
+    <row r="390" spans="1:4" hidden="1">
       <c r="A390" t="s">
         <v>205</v>
       </c>
       <c r="B390" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C390">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" hidden="1">
       <c r="A391" t="s">
         <v>205</v>
       </c>
       <c r="B391" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="C391">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" hidden="1">
       <c r="A392" t="s">
         <v>205</v>
       </c>
       <c r="B392" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C392">
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" hidden="1">
       <c r="A393" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B393" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="C393">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" hidden="1">
       <c r="A394" t="s">
         <v>210</v>
       </c>
       <c r="B394" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C394">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" hidden="1">
       <c r="A395" t="s">
         <v>210</v>
       </c>
       <c r="B395" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="C395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:4">
+      <c r="D395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" hidden="1">
       <c r="A396" t="s">
         <v>210</v>
       </c>
       <c r="B396" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -6306,12 +6310,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" hidden="1">
       <c r="A397" t="s">
         <v>210</v>
       </c>
       <c r="B397" t="s">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -6320,12 +6324,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" hidden="1">
       <c r="A398" t="s">
         <v>210</v>
       </c>
       <c r="B398" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -6334,12 +6338,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" hidden="1">
       <c r="A399" t="s">
         <v>210</v>
       </c>
       <c r="B399" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -6348,12 +6352,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" hidden="1">
       <c r="A400" t="s">
         <v>210</v>
       </c>
       <c r="B400" t="s">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -6362,12 +6366,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" hidden="1">
       <c r="A401" t="s">
         <v>210</v>
       </c>
       <c r="B401" t="s">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -6376,12 +6380,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" hidden="1">
       <c r="A402" t="s">
         <v>210</v>
       </c>
       <c r="B402" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -6390,92 +6394,92 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" hidden="1">
       <c r="A403" t="s">
         <v>210</v>
       </c>
       <c r="B403" t="s">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="C403">
         <v>0</v>
       </c>
-      <c r="D403">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4">
+    </row>
+    <row r="404" spans="1:4" hidden="1">
       <c r="A404" t="s">
         <v>210</v>
       </c>
       <c r="B404" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C404">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" hidden="1">
       <c r="A405" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B405" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C405">
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" hidden="1">
       <c r="A406" t="s">
         <v>217</v>
       </c>
       <c r="B406" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C406">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" hidden="1">
       <c r="A407" t="s">
         <v>217</v>
       </c>
       <c r="B407" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C407">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" hidden="1">
       <c r="A408" t="s">
         <v>217</v>
       </c>
       <c r="B408" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="C408">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" hidden="1">
       <c r="A409" t="s">
         <v>217</v>
       </c>
       <c r="B409" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="C409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:4">
+      <c r="D409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" hidden="1">
       <c r="A410" t="s">
         <v>217</v>
       </c>
       <c r="B410" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -6484,12 +6488,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" hidden="1">
       <c r="A411" t="s">
         <v>217</v>
       </c>
       <c r="B411" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -6498,12 +6502,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" hidden="1">
       <c r="A412" t="s">
         <v>217</v>
       </c>
       <c r="B412" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -6512,12 +6516,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" hidden="1">
       <c r="A413" t="s">
         <v>217</v>
       </c>
       <c r="B413" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -6526,62 +6530,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" hidden="1">
       <c r="A414" t="s">
         <v>217</v>
       </c>
       <c r="B414" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="C414">
         <v>0</v>
       </c>
-      <c r="D414">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4">
+    </row>
+    <row r="415" spans="1:4" hidden="1">
       <c r="A415" t="s">
         <v>217</v>
       </c>
       <c r="B415" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:4">
+      <c r="D415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" hidden="1">
       <c r="A416" t="s">
         <v>217</v>
       </c>
       <c r="B416" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C416">
         <v>0</v>
       </c>
-      <c r="D416">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4">
+    </row>
+    <row r="417" spans="1:4" hidden="1">
       <c r="A417" t="s">
         <v>217</v>
       </c>
       <c r="B417" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:4">
+      <c r="D417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" hidden="1">
       <c r="A418" t="s">
         <v>217</v>
       </c>
       <c r="B418" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C418">
         <v>0</v>
@@ -6590,12 +6594,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" hidden="1">
       <c r="A419" t="s">
         <v>217</v>
       </c>
       <c r="B419" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -6604,12 +6608,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" hidden="1">
       <c r="A420" t="s">
         <v>217</v>
       </c>
       <c r="B420" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -6618,12 +6622,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" hidden="1">
       <c r="A421" t="s">
         <v>217</v>
       </c>
       <c r="B421" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -6632,12 +6636,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" hidden="1">
       <c r="A422" t="s">
         <v>217</v>
       </c>
       <c r="B422" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C422">
         <v>0</v>
@@ -6646,12 +6650,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" hidden="1">
       <c r="A423" t="s">
         <v>217</v>
       </c>
       <c r="B423" t="s">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -6660,12 +6664,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" hidden="1">
       <c r="A424" t="s">
         <v>217</v>
       </c>
       <c r="B424" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="C424">
         <v>0</v>
@@ -6674,48 +6678,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" hidden="1">
       <c r="A425" t="s">
         <v>217</v>
       </c>
       <c r="B425" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C425">
         <v>0</v>
       </c>
-      <c r="D425">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4">
+    </row>
+    <row r="426" spans="1:4" hidden="1">
       <c r="A426" t="s">
         <v>217</v>
       </c>
       <c r="B426" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C426">
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" hidden="1">
       <c r="A427" t="s">
         <v>217</v>
       </c>
       <c r="B427" t="s">
-        <v>230</v>
+        <v>85</v>
       </c>
       <c r="C427">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:4">
+      <c r="D427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" hidden="1">
       <c r="A428" t="s">
         <v>217</v>
       </c>
       <c r="B428" t="s">
-        <v>85</v>
+        <v>231</v>
       </c>
       <c r="C428">
         <v>0</v>
@@ -6724,12 +6728,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" hidden="1">
       <c r="A429" t="s">
         <v>217</v>
       </c>
       <c r="B429" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="C429">
         <v>0</v>
@@ -6738,48 +6742,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" hidden="1">
       <c r="A430" t="s">
         <v>217</v>
       </c>
       <c r="B430" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="C430">
         <v>0</v>
       </c>
-      <c r="D430">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4">
+    </row>
+    <row r="431" spans="1:4" hidden="1">
       <c r="A431" t="s">
         <v>217</v>
       </c>
       <c r="B431" t="s">
-        <v>232</v>
+        <v>34</v>
       </c>
       <c r="C431">
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" hidden="1">
       <c r="A432" t="s">
         <v>217</v>
       </c>
       <c r="B432" t="s">
-        <v>34</v>
+        <v>233</v>
       </c>
       <c r="C432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:4">
+      <c r="D432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" hidden="1">
       <c r="A433" t="s">
         <v>217</v>
       </c>
       <c r="B433" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -6788,117 +6792,117 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" hidden="1">
       <c r="A434" t="s">
         <v>217</v>
       </c>
       <c r="B434" t="s">
-        <v>234</v>
+        <v>23</v>
       </c>
       <c r="C434">
         <v>0</v>
       </c>
-      <c r="D434">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4">
+    </row>
+    <row r="435" spans="1:4" hidden="1">
       <c r="A435" t="s">
         <v>217</v>
       </c>
       <c r="B435" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="C435">
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" hidden="1">
       <c r="A436" t="s">
         <v>217</v>
       </c>
       <c r="B436" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C436">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:4">
+      <c r="D436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" hidden="1">
       <c r="A437" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="B437" t="s">
-        <v>236</v>
+        <v>5</v>
       </c>
       <c r="C437">
-        <v>0</v>
-      </c>
-      <c r="D437">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" hidden="1">
       <c r="A438" t="s">
         <v>237</v>
       </c>
       <c r="B438" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C438">
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" hidden="1">
       <c r="A439" t="s">
         <v>237</v>
       </c>
       <c r="B439" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C439">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" hidden="1">
       <c r="A440" t="s">
         <v>237</v>
       </c>
       <c r="B440" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="C440">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" hidden="1">
       <c r="A441" t="s">
         <v>237</v>
       </c>
       <c r="B441" t="s">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="C441">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" hidden="1">
       <c r="A442" t="s">
         <v>237</v>
       </c>
       <c r="B442" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C442">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:4">
+      <c r="D442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" hidden="1">
       <c r="A443" t="s">
         <v>237</v>
       </c>
       <c r="B443" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C443">
         <v>0</v>
@@ -6907,12 +6911,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" hidden="1">
       <c r="A444" t="s">
         <v>237</v>
       </c>
       <c r="B444" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -6921,12 +6925,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" hidden="1">
       <c r="A445" t="s">
         <v>237</v>
       </c>
       <c r="B445" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C445">
         <v>0</v>
@@ -6935,12 +6939,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" hidden="1">
       <c r="A446" t="s">
         <v>237</v>
       </c>
       <c r="B446" t="s">
-        <v>242</v>
+        <v>120</v>
       </c>
       <c r="C446">
         <v>0</v>
@@ -6949,12 +6953,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" hidden="1">
       <c r="A447" t="s">
         <v>237</v>
       </c>
       <c r="B447" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -6963,12 +6967,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" hidden="1">
       <c r="A448" t="s">
         <v>237</v>
       </c>
       <c r="B448" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C448">
         <v>0</v>
@@ -6977,12 +6981,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" hidden="1">
       <c r="A449" t="s">
         <v>237</v>
       </c>
       <c r="B449" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C449">
         <v>0</v>
@@ -6991,12 +6995,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" hidden="1">
       <c r="A450" t="s">
         <v>237</v>
       </c>
       <c r="B450" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C450">
         <v>0</v>
@@ -7005,12 +7009,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" hidden="1">
       <c r="A451" t="s">
         <v>237</v>
       </c>
       <c r="B451" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C451">
         <v>0</v>
@@ -7019,12 +7023,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" hidden="1">
       <c r="A452" t="s">
         <v>237</v>
       </c>
       <c r="B452" t="s">
-        <v>247</v>
+        <v>33</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -7033,12 +7037,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" hidden="1">
       <c r="A453" t="s">
         <v>237</v>
       </c>
       <c r="B453" t="s">
-        <v>33</v>
+        <v>248</v>
       </c>
       <c r="C453">
         <v>0</v>
@@ -7047,12 +7051,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" hidden="1">
       <c r="A454" t="s">
         <v>237</v>
       </c>
       <c r="B454" t="s">
-        <v>248</v>
+        <v>85</v>
       </c>
       <c r="C454">
         <v>0</v>
@@ -7061,12 +7065,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" hidden="1">
       <c r="A455" t="s">
         <v>237</v>
       </c>
       <c r="B455" t="s">
-        <v>85</v>
+        <v>231</v>
       </c>
       <c r="C455">
         <v>0</v>
@@ -7075,12 +7079,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" hidden="1">
       <c r="A456" t="s">
         <v>237</v>
       </c>
       <c r="B456" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -7089,216 +7093,216 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" hidden="1">
       <c r="A457" t="s">
         <v>237</v>
       </c>
       <c r="B457" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C457">
         <v>0</v>
       </c>
-      <c r="D457">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4">
+    </row>
+    <row r="458" spans="1:4" hidden="1">
       <c r="A458" t="s">
         <v>237</v>
       </c>
       <c r="B458" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="C458">
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" hidden="1">
       <c r="A459" t="s">
         <v>237</v>
       </c>
       <c r="B459" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C459">
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" hidden="1">
       <c r="A460" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B460" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C460">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:4">
+      <c r="D460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" hidden="1">
       <c r="A461" t="s">
         <v>249</v>
       </c>
       <c r="B461" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C461">
-        <v>0</v>
-      </c>
-      <c r="D461">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" hidden="1">
       <c r="A462" t="s">
         <v>249</v>
       </c>
       <c r="B462" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C462">
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" hidden="1">
       <c r="A463" t="s">
         <v>249</v>
       </c>
       <c r="B463" t="s">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c r="C463">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" hidden="1">
       <c r="A464" t="s">
         <v>249</v>
       </c>
       <c r="B464" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C464">
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" hidden="1">
       <c r="A465" t="s">
         <v>249</v>
       </c>
       <c r="B465" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C465">
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" hidden="1">
       <c r="A466" t="s">
         <v>249</v>
       </c>
       <c r="B466" t="s">
-        <v>252</v>
+        <v>112</v>
       </c>
       <c r="C466">
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" hidden="1">
       <c r="A467" t="s">
         <v>249</v>
       </c>
       <c r="B467" t="s">
-        <v>112</v>
+        <v>253</v>
       </c>
       <c r="C467">
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" hidden="1">
       <c r="A468" t="s">
         <v>249</v>
       </c>
       <c r="B468" t="s">
-        <v>253</v>
+        <v>70</v>
       </c>
       <c r="C468">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" hidden="1">
       <c r="A469" t="s">
         <v>249</v>
       </c>
       <c r="B469" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="C469">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" hidden="1">
       <c r="A470" t="s">
         <v>249</v>
       </c>
       <c r="B470" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="C470">
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" hidden="1">
       <c r="A471" t="s">
         <v>249</v>
       </c>
       <c r="B471" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C471">
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" hidden="1">
       <c r="A472" t="s">
         <v>249</v>
       </c>
       <c r="B472" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C472">
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" hidden="1">
       <c r="A473" t="s">
         <v>249</v>
       </c>
       <c r="B473" t="s">
-        <v>64</v>
+        <v>254</v>
       </c>
       <c r="C473">
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" hidden="1">
       <c r="A474" t="s">
         <v>249</v>
       </c>
       <c r="B474" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="C474">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:4">
+      <c r="D474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" hidden="1">
       <c r="A475" t="s">
         <v>249</v>
       </c>
       <c r="B475" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C475">
         <v>0</v>
@@ -7307,12 +7311,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" hidden="1">
       <c r="A476" t="s">
         <v>249</v>
       </c>
       <c r="B476" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C476">
         <v>0</v>
@@ -7321,12 +7325,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" hidden="1">
       <c r="A477" t="s">
         <v>249</v>
       </c>
       <c r="B477" t="s">
-        <v>255</v>
+        <v>86</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -7335,59 +7339,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" hidden="1">
       <c r="A478" t="s">
         <v>249</v>
       </c>
       <c r="B478" t="s">
-        <v>86</v>
+        <v>256</v>
       </c>
       <c r="C478">
         <v>0</v>
       </c>
-      <c r="D478">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4">
+    </row>
+    <row r="479" spans="1:4" hidden="1">
       <c r="A479" t="s">
         <v>249</v>
       </c>
       <c r="B479" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C479">
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" hidden="1">
       <c r="A480" t="s">
         <v>249</v>
       </c>
       <c r="B480" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C480">
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" hidden="1">
       <c r="A481" t="s">
         <v>249</v>
       </c>
       <c r="B481" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C481">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:4">
+      <c r="D481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" hidden="1">
       <c r="A482" t="s">
         <v>249</v>
       </c>
       <c r="B482" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C482">
         <v>0</v>
@@ -7396,158 +7400,158 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" hidden="1">
       <c r="A483" t="s">
         <v>249</v>
       </c>
       <c r="B483" t="s">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c r="C483">
         <v>0</v>
       </c>
-      <c r="D483">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4">
+    </row>
+    <row r="484" spans="1:4" hidden="1">
       <c r="A484" t="s">
         <v>249</v>
       </c>
       <c r="B484" t="s">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c r="C484">
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" hidden="1">
       <c r="A485" t="s">
         <v>249</v>
       </c>
       <c r="B485" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="C485">
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" hidden="1">
       <c r="A486" t="s">
         <v>249</v>
       </c>
       <c r="B486" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C486">
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" hidden="1">
       <c r="A487" t="s">
         <v>249</v>
       </c>
       <c r="B487" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C487">
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" hidden="1">
       <c r="A488" t="s">
         <v>249</v>
       </c>
       <c r="B488" t="s">
-        <v>263</v>
+        <v>110</v>
       </c>
       <c r="C488">
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" hidden="1">
       <c r="A489" t="s">
         <v>249</v>
       </c>
       <c r="B489" t="s">
-        <v>110</v>
+        <v>264</v>
       </c>
       <c r="C489">
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" hidden="1">
       <c r="A490" t="s">
         <v>249</v>
       </c>
       <c r="B490" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C490">
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" hidden="1">
       <c r="A491" t="s">
         <v>249</v>
       </c>
       <c r="B491" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C491">
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" hidden="1">
       <c r="A492" t="s">
         <v>249</v>
       </c>
       <c r="B492" t="s">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="C492">
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" hidden="1">
       <c r="A493" t="s">
         <v>249</v>
       </c>
       <c r="B493" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="C493">
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" hidden="1">
       <c r="A494" t="s">
         <v>249</v>
       </c>
       <c r="B494" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C494">
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" hidden="1">
       <c r="A495" t="s">
         <v>249</v>
       </c>
       <c r="B495" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C495">
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:4">
+      <c r="D495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" hidden="1">
       <c r="A496" t="s">
         <v>249</v>
       </c>
       <c r="B496" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C496">
         <v>0</v>
@@ -7556,150 +7560,150 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" hidden="1">
       <c r="A497" t="s">
         <v>249</v>
       </c>
       <c r="B497" t="s">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="C497">
         <v>0</v>
       </c>
-      <c r="D497">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4">
+    </row>
+    <row r="498" spans="1:4" hidden="1">
       <c r="A498" t="s">
         <v>249</v>
       </c>
       <c r="B498" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C498">
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" hidden="1">
       <c r="A499" t="s">
         <v>249</v>
       </c>
       <c r="B499" t="s">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="C499">
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" hidden="1">
       <c r="A500" t="s">
         <v>249</v>
       </c>
       <c r="B500" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C500">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:4">
+      <c r="D500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" hidden="1">
       <c r="A501" t="s">
         <v>249</v>
       </c>
       <c r="B501" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C501">
         <v>0</v>
       </c>
-      <c r="D501">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4">
+    </row>
+    <row r="502" spans="1:4" hidden="1">
       <c r="A502" t="s">
         <v>249</v>
       </c>
       <c r="B502" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C502">
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" hidden="1">
       <c r="A503" t="s">
         <v>249</v>
       </c>
       <c r="B503" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C503">
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" hidden="1">
       <c r="A504" t="s">
         <v>249</v>
       </c>
       <c r="B504" t="s">
-        <v>275</v>
+        <v>124</v>
       </c>
       <c r="C504">
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" hidden="1">
       <c r="A505" t="s">
         <v>249</v>
       </c>
       <c r="B505" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C505">
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" hidden="1">
       <c r="A506" t="s">
         <v>249</v>
       </c>
       <c r="B506" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C506">
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" hidden="1">
       <c r="A507" t="s">
         <v>249</v>
       </c>
       <c r="B507" t="s">
-        <v>119</v>
+        <v>276</v>
       </c>
       <c r="C507">
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" hidden="1">
       <c r="A508" t="s">
         <v>249</v>
       </c>
       <c r="B508" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C508">
         <v>0</v>
       </c>
-    </row>
-    <row r="509" spans="1:4">
+      <c r="D508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" hidden="1">
       <c r="A509" t="s">
         <v>249</v>
       </c>
       <c r="B509" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C509">
         <v>0</v>
@@ -7708,334 +7712,334 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" hidden="1">
       <c r="A510" t="s">
         <v>249</v>
       </c>
       <c r="B510" t="s">
-        <v>278</v>
+        <v>34</v>
       </c>
       <c r="C510">
         <v>0</v>
       </c>
-      <c r="D510">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4">
+    </row>
+    <row r="511" spans="1:4" hidden="1">
       <c r="A511" t="s">
         <v>249</v>
       </c>
       <c r="B511" t="s">
-        <v>34</v>
+        <v>339</v>
       </c>
       <c r="C511">
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" hidden="1">
       <c r="A512" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="B512" t="s">
-        <v>339</v>
+        <v>5</v>
       </c>
       <c r="C512">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" hidden="1">
       <c r="A513" t="s">
         <v>279</v>
       </c>
       <c r="B513" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C513">
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" hidden="1">
       <c r="A514" t="s">
         <v>279</v>
       </c>
       <c r="B514" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C514">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" hidden="1">
       <c r="A515" t="s">
         <v>279</v>
       </c>
       <c r="B515" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C515">
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" hidden="1">
       <c r="A516" t="s">
         <v>279</v>
       </c>
       <c r="B516" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C516">
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" hidden="1">
       <c r="A517" t="s">
         <v>279</v>
       </c>
       <c r="B517" t="s">
-        <v>66</v>
+        <v>280</v>
       </c>
       <c r="C517">
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" hidden="1">
       <c r="A518" t="s">
         <v>279</v>
       </c>
       <c r="B518" t="s">
-        <v>280</v>
+        <v>109</v>
       </c>
       <c r="C518">
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" hidden="1">
       <c r="A519" t="s">
         <v>279</v>
       </c>
       <c r="B519" t="s">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c r="C519">
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" hidden="1">
       <c r="A520" t="s">
         <v>279</v>
       </c>
       <c r="B520" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="C520">
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" hidden="1">
       <c r="A521" t="s">
         <v>279</v>
       </c>
       <c r="B521" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C521">
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" hidden="1">
       <c r="A522" t="s">
         <v>279</v>
       </c>
       <c r="B522" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="C522">
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" hidden="1">
       <c r="A523" t="s">
         <v>279</v>
       </c>
       <c r="B523" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C523">
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" hidden="1">
       <c r="A524" t="s">
         <v>279</v>
       </c>
       <c r="B524" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C524">
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" hidden="1">
       <c r="A525" t="s">
         <v>279</v>
       </c>
       <c r="B525" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C525">
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" hidden="1">
       <c r="A526" t="s">
         <v>279</v>
       </c>
       <c r="B526" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C526">
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" hidden="1">
       <c r="A527" t="s">
         <v>279</v>
       </c>
       <c r="B527" t="s">
-        <v>286</v>
+        <v>67</v>
       </c>
       <c r="C527">
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" hidden="1">
       <c r="A528" t="s">
         <v>279</v>
       </c>
       <c r="B528" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="C528">
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" hidden="1">
       <c r="A529" t="s">
         <v>279</v>
       </c>
       <c r="B529" t="s">
-        <v>110</v>
+        <v>264</v>
       </c>
       <c r="C529">
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" hidden="1">
       <c r="A530" t="s">
         <v>279</v>
       </c>
       <c r="B530" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C530">
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" hidden="1">
       <c r="A531" t="s">
         <v>279</v>
       </c>
       <c r="B531" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C531">
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" hidden="1">
       <c r="A532" t="s">
         <v>279</v>
       </c>
       <c r="B532" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="C532">
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" hidden="1">
       <c r="A533" t="s">
         <v>279</v>
       </c>
       <c r="B533" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C533">
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" hidden="1">
       <c r="A534" t="s">
         <v>279</v>
       </c>
       <c r="B534" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C534">
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" hidden="1">
       <c r="A535" t="s">
         <v>279</v>
       </c>
       <c r="B535" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C535">
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" hidden="1">
       <c r="A536" t="s">
         <v>279</v>
       </c>
       <c r="B536" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C536">
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" hidden="1">
       <c r="A537" t="s">
         <v>279</v>
       </c>
       <c r="B537" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C537">
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" hidden="1">
       <c r="A538" t="s">
         <v>279</v>
       </c>
       <c r="B538" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C538">
         <v>0</v>
       </c>
-    </row>
-    <row r="539" spans="1:4">
+      <c r="D538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" hidden="1">
       <c r="A539" t="s">
         <v>279</v>
       </c>
       <c r="B539" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C539">
         <v>0</v>
@@ -8044,95 +8048,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" hidden="1">
       <c r="A540" t="s">
         <v>279</v>
       </c>
       <c r="B540" t="s">
-        <v>294</v>
+        <v>126</v>
       </c>
       <c r="C540">
         <v>0</v>
       </c>
-      <c r="D540">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="541" spans="1:4">
+    </row>
+    <row r="541" spans="1:4" hidden="1">
       <c r="A541" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="B541" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="C541">
         <v>0</v>
       </c>
-    </row>
-    <row r="542" spans="1:4">
+      <c r="D541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" hidden="1">
       <c r="A542" t="s">
         <v>295</v>
       </c>
       <c r="B542" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C542">
-        <v>0</v>
-      </c>
-      <c r="D542">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" hidden="1">
       <c r="A543" t="s">
         <v>295</v>
       </c>
       <c r="B543" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="C543">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" hidden="1">
       <c r="A544" t="s">
         <v>295</v>
       </c>
       <c r="B544" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C544">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="545" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" hidden="1">
       <c r="A545" t="s">
         <v>295</v>
       </c>
       <c r="B545" t="s">
-        <v>71</v>
+        <v>251</v>
       </c>
       <c r="C545">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" hidden="1">
       <c r="A546" t="s">
         <v>295</v>
       </c>
       <c r="B546" t="s">
-        <v>251</v>
+        <v>120</v>
       </c>
       <c r="C546">
         <v>0</v>
       </c>
-    </row>
-    <row r="547" spans="1:4">
+      <c r="D546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" hidden="1">
       <c r="A547" t="s">
         <v>295</v>
       </c>
       <c r="B547" t="s">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="C547">
         <v>0</v>
@@ -8141,48 +8145,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" hidden="1">
       <c r="A548" t="s">
         <v>295</v>
       </c>
       <c r="B548" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="C548">
         <v>0</v>
       </c>
-      <c r="D548">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="549" spans="1:4">
+    </row>
+    <row r="549" spans="1:4" hidden="1">
       <c r="A549" t="s">
         <v>295</v>
       </c>
       <c r="B549" t="s">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="C549">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="550" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" hidden="1">
       <c r="A550" t="s">
         <v>295</v>
       </c>
       <c r="B550" t="s">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="C550">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="551" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" hidden="1">
       <c r="A551" t="s">
         <v>295</v>
       </c>
       <c r="B551" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C551">
         <v>0</v>
@@ -8191,12 +8195,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" hidden="1">
       <c r="A552" t="s">
         <v>295</v>
       </c>
       <c r="B552" t="s">
-        <v>297</v>
+        <v>106</v>
       </c>
       <c r="C552">
         <v>0</v>
@@ -8205,12 +8209,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" hidden="1">
       <c r="A553" t="s">
         <v>295</v>
       </c>
       <c r="B553" t="s">
-        <v>106</v>
+        <v>255</v>
       </c>
       <c r="C553">
         <v>0</v>
@@ -8219,12 +8223,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" hidden="1">
       <c r="A554" t="s">
         <v>295</v>
       </c>
       <c r="B554" t="s">
-        <v>255</v>
+        <v>86</v>
       </c>
       <c r="C554">
         <v>0</v>
@@ -8233,103 +8237,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" hidden="1">
       <c r="A555" t="s">
         <v>295</v>
       </c>
       <c r="B555" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C555">
         <v>0</v>
       </c>
-      <c r="D555">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4">
+    </row>
+    <row r="556" spans="1:4" hidden="1">
       <c r="A556" t="s">
         <v>295</v>
       </c>
       <c r="B556" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C556">
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" hidden="1">
       <c r="A557" t="s">
         <v>295</v>
       </c>
       <c r="B557" t="s">
-        <v>126</v>
+        <v>298</v>
       </c>
       <c r="C557">
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" hidden="1">
       <c r="A558" t="s">
         <v>295</v>
       </c>
       <c r="B558" t="s">
-        <v>298</v>
+        <v>54</v>
       </c>
       <c r="C558">
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" hidden="1">
       <c r="A559" t="s">
         <v>295</v>
       </c>
       <c r="B559" t="s">
-        <v>54</v>
+        <v>299</v>
       </c>
       <c r="C559">
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" hidden="1">
       <c r="A560" t="s">
         <v>295</v>
       </c>
       <c r="B560" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C560">
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" hidden="1">
       <c r="A561" t="s">
         <v>295</v>
       </c>
       <c r="B561" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C561">
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" hidden="1">
       <c r="A562" t="s">
         <v>295</v>
       </c>
       <c r="B562" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C562">
         <v>0</v>
       </c>
-    </row>
-    <row r="563" spans="1:4">
+      <c r="D562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" hidden="1">
       <c r="A563" t="s">
         <v>295</v>
       </c>
       <c r="B563" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C563">
         <v>0</v>
@@ -8338,12 +8342,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" hidden="1">
       <c r="A564" t="s">
         <v>295</v>
       </c>
       <c r="B564" t="s">
-        <v>303</v>
+        <v>89</v>
       </c>
       <c r="C564">
         <v>0</v>
@@ -8352,12 +8356,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" hidden="1">
       <c r="A565" t="s">
         <v>295</v>
       </c>
       <c r="B565" t="s">
-        <v>89</v>
+        <v>304</v>
       </c>
       <c r="C565">
         <v>0</v>
@@ -8366,263 +8370,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" hidden="1">
       <c r="A566" t="s">
         <v>295</v>
       </c>
       <c r="B566" t="s">
-        <v>304</v>
+        <v>6</v>
       </c>
       <c r="C566">
         <v>0</v>
       </c>
-      <c r="D566">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4">
+    </row>
+    <row r="567" spans="1:4" hidden="1">
       <c r="A567" t="s">
         <v>295</v>
       </c>
       <c r="B567" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C567">
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" hidden="1">
       <c r="A568" t="s">
         <v>295</v>
       </c>
       <c r="B568" t="s">
-        <v>34</v>
+        <v>305</v>
       </c>
       <c r="C568">
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" hidden="1">
       <c r="A569" t="s">
         <v>295</v>
       </c>
       <c r="B569" t="s">
-        <v>305</v>
+        <v>69</v>
       </c>
       <c r="C569">
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" hidden="1">
       <c r="A570" t="s">
         <v>295</v>
       </c>
       <c r="B570" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C570">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" hidden="1">
       <c r="A571" t="s">
         <v>295</v>
       </c>
       <c r="B571" t="s">
-        <v>70</v>
+        <v>306</v>
       </c>
       <c r="C571">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" hidden="1">
       <c r="A572" t="s">
         <v>295</v>
       </c>
       <c r="B572" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C572">
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" hidden="1">
       <c r="A573" t="s">
         <v>295</v>
       </c>
       <c r="B573" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="C573">
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" hidden="1">
       <c r="A574" t="s">
         <v>295</v>
       </c>
       <c r="B574" t="s">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="C574">
         <v>0</v>
       </c>
-    </row>
-    <row r="575" spans="1:4">
+      <c r="D574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" hidden="1">
       <c r="A575" t="s">
         <v>295</v>
       </c>
       <c r="B575" t="s">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="C575">
         <v>0</v>
       </c>
-      <c r="D575">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4">
+    </row>
+    <row r="576" spans="1:4" hidden="1">
       <c r="A576" t="s">
         <v>295</v>
       </c>
       <c r="B576" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C576">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" hidden="1">
       <c r="A577" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="B577" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C577">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="578" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" hidden="1">
       <c r="A578" t="s">
         <v>308</v>
       </c>
       <c r="B578" t="s">
-        <v>331</v>
+        <v>5</v>
       </c>
       <c r="C578">
-        <v>0</v>
-      </c>
-      <c r="D578">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="579" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" hidden="1">
       <c r="A579" t="s">
         <v>308</v>
       </c>
       <c r="B579" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C579">
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" hidden="1">
       <c r="A580" t="s">
         <v>308</v>
       </c>
       <c r="B580" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C580">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="581" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" hidden="1">
       <c r="A581" t="s">
         <v>308</v>
       </c>
       <c r="B581" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C581">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" hidden="1">
       <c r="A582" t="s">
         <v>308</v>
       </c>
       <c r="B582" t="s">
-        <v>70</v>
+        <v>309</v>
       </c>
       <c r="C582">
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" hidden="1">
       <c r="A583" t="s">
         <v>308</v>
       </c>
       <c r="B583" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C583">
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" hidden="1">
       <c r="A584" t="s">
         <v>308</v>
       </c>
       <c r="B584" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C584">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="585" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" hidden="1">
       <c r="A585" t="s">
         <v>308</v>
       </c>
       <c r="B585" t="s">
-        <v>311</v>
+        <v>50</v>
       </c>
       <c r="C585">
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" hidden="1">
       <c r="A586" t="s">
         <v>308</v>
       </c>
       <c r="B586" t="s">
-        <v>50</v>
+        <v>312</v>
       </c>
       <c r="C586">
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" hidden="1">
       <c r="A587" t="s">
         <v>308</v>
       </c>
       <c r="B587" t="s">
-        <v>312</v>
+        <v>55</v>
       </c>
       <c r="C587">
         <v>0</v>
       </c>
-    </row>
-    <row r="588" spans="1:4">
+      <c r="D587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" hidden="1">
       <c r="A588" t="s">
         <v>308</v>
       </c>
       <c r="B588" t="s">
-        <v>55</v>
+        <v>313</v>
       </c>
       <c r="C588">
         <v>0</v>
@@ -8631,62 +8635,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" hidden="1">
       <c r="A589" t="s">
         <v>308</v>
       </c>
       <c r="B589" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C589">
         <v>0</v>
       </c>
-      <c r="D589">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="590" spans="1:4">
+    </row>
+    <row r="590" spans="1:4" hidden="1">
       <c r="A590" t="s">
         <v>308</v>
       </c>
       <c r="B590" t="s">
-        <v>314</v>
+        <v>221</v>
       </c>
       <c r="C590">
         <v>0</v>
       </c>
-    </row>
-    <row r="591" spans="1:4">
+      <c r="D590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" hidden="1">
       <c r="A591" t="s">
         <v>308</v>
       </c>
       <c r="B591" t="s">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="C591">
         <v>0</v>
       </c>
-      <c r="D591">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="592" spans="1:4">
+    </row>
+    <row r="592" spans="1:4" hidden="1">
       <c r="A592" t="s">
         <v>308</v>
       </c>
       <c r="B592" t="s">
-        <v>112</v>
+        <v>315</v>
       </c>
       <c r="C592">
         <v>0</v>
       </c>
-    </row>
-    <row r="593" spans="1:4">
+      <c r="D592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" hidden="1">
       <c r="A593" t="s">
         <v>308</v>
       </c>
       <c r="B593" t="s">
-        <v>315</v>
+        <v>18</v>
       </c>
       <c r="C593">
         <v>0</v>
@@ -8695,12 +8699,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" hidden="1">
       <c r="A594" t="s">
         <v>308</v>
       </c>
       <c r="B594" t="s">
-        <v>18</v>
+        <v>316</v>
       </c>
       <c r="C594">
         <v>0</v>
@@ -8709,12 +8713,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" hidden="1">
       <c r="A595" t="s">
         <v>308</v>
       </c>
       <c r="B595" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C595">
         <v>0</v>
@@ -8723,1205 +8727,1191 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" hidden="1">
       <c r="A596" t="s">
         <v>308</v>
       </c>
       <c r="B596" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C596">
         <v>0</v>
       </c>
-      <c r="D596">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="597" spans="1:4">
+    </row>
+    <row r="597" spans="1:4" hidden="1">
       <c r="A597" t="s">
         <v>308</v>
       </c>
       <c r="B597" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C597">
         <v>0</v>
       </c>
-    </row>
-    <row r="598" spans="1:4">
+      <c r="D597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" hidden="1">
       <c r="A598" t="s">
         <v>308</v>
       </c>
       <c r="B598" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="C598">
         <v>0</v>
       </c>
-      <c r="D598">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="599" spans="1:4">
+    </row>
+    <row r="599" spans="1:4" hidden="1">
       <c r="A599" t="s">
         <v>308</v>
       </c>
       <c r="B599" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C599">
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" hidden="1">
       <c r="A600" t="s">
         <v>308</v>
       </c>
       <c r="B600" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C600">
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" hidden="1">
       <c r="A601" t="s">
         <v>308</v>
       </c>
       <c r="B601" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C601">
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" hidden="1">
       <c r="A602" t="s">
         <v>308</v>
       </c>
       <c r="B602" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C602">
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" hidden="1">
       <c r="A603" t="s">
         <v>308</v>
       </c>
       <c r="B603" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C603">
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" hidden="1">
       <c r="A604" t="s">
         <v>308</v>
       </c>
       <c r="B604" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C604">
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" hidden="1">
       <c r="A605" t="s">
         <v>308</v>
       </c>
       <c r="B605" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C605">
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" hidden="1">
       <c r="A606" t="s">
         <v>308</v>
       </c>
       <c r="B606" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C606">
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" hidden="1">
       <c r="A607" t="s">
         <v>308</v>
       </c>
       <c r="B607" t="s">
-        <v>327</v>
+        <v>51</v>
       </c>
       <c r="C607">
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" hidden="1">
       <c r="A608" t="s">
         <v>308</v>
       </c>
       <c r="B608" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C608">
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" hidden="1">
       <c r="A609" t="s">
         <v>308</v>
       </c>
       <c r="B609" t="s">
-        <v>52</v>
+        <v>328</v>
       </c>
       <c r="C609">
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" hidden="1">
       <c r="A610" t="s">
         <v>308</v>
       </c>
       <c r="B610" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C610">
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
-      <c r="A611" t="s">
+    <row r="611" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A611" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B611" t="s">
-        <v>329</v>
-      </c>
-      <c r="C611">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A612" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B612" s="3" t="s">
+      <c r="B611" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C612" s="3">
-        <v>0</v>
-      </c>
-      <c r="D612" s="3"/>
-    </row>
-    <row r="613" spans="1:4" ht="15.75" thickTop="1">
+      <c r="C611" s="3">
+        <v>0</v>
+      </c>
+      <c r="D611" s="3"/>
+    </row>
+    <row r="612" spans="1:4" hidden="1">
+      <c r="A612" t="s">
+        <v>350</v>
+      </c>
+      <c r="B612" t="s">
+        <v>5</v>
+      </c>
+      <c r="C612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" hidden="1">
       <c r="A613" t="s">
         <v>350</v>
       </c>
       <c r="B613" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C613">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="614" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" hidden="1">
       <c r="A614" t="s">
         <v>350</v>
       </c>
       <c r="B614" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C614">
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" hidden="1">
       <c r="A615" t="s">
         <v>350</v>
       </c>
       <c r="B615" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C615">
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" hidden="1">
       <c r="A616" t="s">
         <v>350</v>
       </c>
       <c r="B616" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C616">
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" hidden="1">
       <c r="A617" t="s">
         <v>350</v>
       </c>
       <c r="B617" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C617">
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" hidden="1">
       <c r="A618" t="s">
         <v>350</v>
       </c>
       <c r="B618" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C618">
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" hidden="1">
       <c r="A619" t="s">
         <v>350</v>
       </c>
       <c r="B619" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="C619">
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" hidden="1">
       <c r="A620" t="s">
         <v>350</v>
       </c>
       <c r="B620" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C620">
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" hidden="1">
       <c r="A621" t="s">
         <v>350</v>
       </c>
       <c r="B621" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C621">
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" hidden="1">
       <c r="A622" t="s">
         <v>350</v>
       </c>
       <c r="B622" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C622">
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" hidden="1">
       <c r="A623" t="s">
         <v>350</v>
       </c>
       <c r="B623" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C623">
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" hidden="1">
       <c r="A624" t="s">
         <v>350</v>
       </c>
       <c r="B624" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C624">
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:3">
+    <row r="625" spans="1:3" hidden="1">
       <c r="A625" t="s">
         <v>350</v>
       </c>
       <c r="B625" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C625">
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:3">
+    <row r="626" spans="1:3" hidden="1">
       <c r="A626" t="s">
         <v>350</v>
       </c>
       <c r="B626" t="s">
-        <v>52</v>
+        <v>351</v>
       </c>
       <c r="C626">
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:3">
+    <row r="627" spans="1:3" hidden="1">
       <c r="A627" t="s">
         <v>350</v>
       </c>
       <c r="B627" t="s">
-        <v>351</v>
+        <v>21</v>
       </c>
       <c r="C627">
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:3">
+    <row r="628" spans="1:3" hidden="1">
       <c r="A628" t="s">
         <v>350</v>
       </c>
       <c r="B628" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C628">
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:3">
+    <row r="629" spans="1:3" hidden="1">
       <c r="A629" t="s">
         <v>350</v>
       </c>
       <c r="B629" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C629">
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:3">
+    <row r="630" spans="1:3" hidden="1">
       <c r="A630" t="s">
         <v>350</v>
       </c>
       <c r="B630" t="s">
-        <v>15</v>
+        <v>352</v>
       </c>
       <c r="C630">
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:3">
+    <row r="631" spans="1:3" hidden="1">
       <c r="A631" t="s">
         <v>350</v>
       </c>
       <c r="B631" t="s">
-        <v>352</v>
+        <v>24</v>
       </c>
       <c r="C631">
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:3">
+    <row r="632" spans="1:3" hidden="1">
       <c r="A632" t="s">
         <v>350</v>
       </c>
       <c r="B632" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="C632">
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:3">
+    <row r="633" spans="1:3" hidden="1">
       <c r="A633" t="s">
         <v>350</v>
       </c>
       <c r="B633" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C633">
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:3">
+    <row r="634" spans="1:3" hidden="1">
       <c r="A634" t="s">
         <v>350</v>
       </c>
       <c r="B634" t="s">
-        <v>4</v>
+        <v>353</v>
       </c>
       <c r="C634">
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:3">
+    <row r="635" spans="1:3" hidden="1">
       <c r="A635" t="s">
         <v>350</v>
       </c>
       <c r="B635" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C635">
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:3">
+    <row r="636" spans="1:3" hidden="1">
       <c r="A636" t="s">
         <v>350</v>
       </c>
       <c r="B636" t="s">
-        <v>354</v>
+        <v>33</v>
       </c>
       <c r="C636">
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:3">
+    <row r="637" spans="1:3" hidden="1">
       <c r="A637" t="s">
         <v>350</v>
       </c>
       <c r="B637" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C637">
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:3">
+    <row r="638" spans="1:3" hidden="1">
       <c r="A638" t="s">
         <v>350</v>
       </c>
       <c r="B638" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C638">
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:3">
+    <row r="639" spans="1:3" hidden="1">
       <c r="A639" t="s">
         <v>350</v>
       </c>
       <c r="B639" t="s">
-        <v>69</v>
+        <v>355</v>
       </c>
       <c r="C639">
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:3">
+    <row r="640" spans="1:3" hidden="1">
       <c r="A640" t="s">
         <v>350</v>
       </c>
       <c r="B640" t="s">
-        <v>355</v>
+        <v>58</v>
       </c>
       <c r="C640">
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" hidden="1">
       <c r="A641" t="s">
         <v>350</v>
       </c>
       <c r="B641" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C641">
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:4">
-      <c r="A642" t="s">
+    <row r="642" spans="1:4" hidden="1">
+      <c r="A642" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B642" t="s">
-        <v>7</v>
+      <c r="B642" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C642">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="643" spans="1:4">
-      <c r="A643" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B643" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="D642" s="2"/>
+    </row>
+    <row r="643" spans="1:4" hidden="1">
+      <c r="A643" t="s">
+        <v>356</v>
+      </c>
+      <c r="B643" t="s">
+        <v>5</v>
       </c>
       <c r="C643">
         <v>1</v>
       </c>
-      <c r="D643" s="2"/>
-    </row>
-    <row r="644" spans="1:4">
+    </row>
+    <row r="644" spans="1:4" hidden="1">
       <c r="A644" t="s">
         <v>356</v>
       </c>
       <c r="B644" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C644">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="645" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" hidden="1">
       <c r="A645" t="s">
         <v>356</v>
       </c>
       <c r="B645" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C645">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="646" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" hidden="1">
       <c r="A646" t="s">
         <v>356</v>
       </c>
       <c r="B646" t="s">
-        <v>38</v>
+        <v>337</v>
       </c>
       <c r="C646">
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:4">
+    <row r="647" spans="1:4" hidden="1">
       <c r="A647" t="s">
         <v>356</v>
       </c>
       <c r="B647" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C647">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="648" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" hidden="1">
       <c r="A648" t="s">
         <v>356</v>
       </c>
       <c r="B648" t="s">
-        <v>338</v>
+        <v>36</v>
       </c>
       <c r="C648">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="649" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" hidden="1">
       <c r="A649" t="s">
         <v>356</v>
       </c>
       <c r="B649" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C649">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="650" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" hidden="1">
       <c r="A650" t="s">
         <v>356</v>
       </c>
       <c r="B650" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C650">
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" spans="1:4" hidden="1">
       <c r="A651" t="s">
         <v>356</v>
       </c>
       <c r="B651" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C651">
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:4">
+    <row r="652" spans="1:4" hidden="1">
       <c r="A652" t="s">
         <v>356</v>
       </c>
       <c r="B652" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C652">
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:4">
+    <row r="653" spans="1:4" hidden="1">
       <c r="A653" t="s">
         <v>356</v>
       </c>
       <c r="B653" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C653">
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" spans="1:4" hidden="1">
       <c r="A654" t="s">
         <v>356</v>
       </c>
       <c r="B654" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C654">
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:4">
+    <row r="655" spans="1:4" hidden="1">
       <c r="A655" t="s">
         <v>356</v>
       </c>
       <c r="B655" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C655">
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:4">
+    <row r="656" spans="1:4" hidden="1">
       <c r="A656" t="s">
         <v>356</v>
       </c>
       <c r="B656" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C656">
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:4">
+    <row r="657" spans="1:4" hidden="1">
       <c r="A657" t="s">
         <v>356</v>
       </c>
       <c r="B657" t="s">
-        <v>20</v>
+        <v>357</v>
       </c>
       <c r="C657">
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:4">
+    <row r="658" spans="1:4" hidden="1">
       <c r="A658" t="s">
         <v>356</v>
       </c>
       <c r="B658" t="s">
-        <v>357</v>
+        <v>50</v>
       </c>
       <c r="C658">
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:4">
+    <row r="659" spans="1:4" hidden="1">
       <c r="A659" t="s">
         <v>356</v>
       </c>
       <c r="B659" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C659">
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:4">
+    <row r="660" spans="1:4" hidden="1">
       <c r="A660" t="s">
         <v>356</v>
       </c>
       <c r="B660" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C660">
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
+    <row r="661" spans="1:4" hidden="1">
       <c r="A661" t="s">
         <v>356</v>
       </c>
       <c r="B661" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C661">
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:4">
+    <row r="662" spans="1:4" hidden="1">
       <c r="A662" t="s">
         <v>356</v>
       </c>
       <c r="B662" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C662">
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:4">
+    <row r="663" spans="1:4" hidden="1">
       <c r="A663" t="s">
         <v>356</v>
       </c>
       <c r="B663" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C663">
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:4">
+    <row r="664" spans="1:4" hidden="1">
       <c r="A664" t="s">
         <v>356</v>
       </c>
       <c r="B664" t="s">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="C664">
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:4">
+    <row r="665" spans="1:4" hidden="1">
       <c r="A665" t="s">
         <v>356</v>
       </c>
       <c r="B665" t="s">
-        <v>358</v>
+        <v>4</v>
       </c>
       <c r="C665">
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:4">
+    <row r="666" spans="1:4" hidden="1">
       <c r="A666" t="s">
         <v>356</v>
       </c>
       <c r="B666" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C666">
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:4">
+    <row r="667" spans="1:4" hidden="1">
       <c r="A667" t="s">
         <v>356</v>
       </c>
       <c r="B667" t="s">
-        <v>40</v>
+        <v>359</v>
       </c>
       <c r="C667">
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:4">
+    <row r="668" spans="1:4" hidden="1">
       <c r="A668" t="s">
         <v>356</v>
       </c>
       <c r="B668" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C668">
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:4">
+    <row r="669" spans="1:4" hidden="1">
       <c r="A669" t="s">
         <v>356</v>
       </c>
       <c r="B669" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C669">
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:4">
-      <c r="A670" t="s">
+    <row r="670" spans="1:4" hidden="1">
+      <c r="A670" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B670" t="s">
-        <v>361</v>
+      <c r="B670" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C670">
         <v>0</v>
       </c>
-    </row>
-    <row r="671" spans="1:4">
-      <c r="A671" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B671" s="2" t="s">
-        <v>48</v>
+      <c r="D670" s="2"/>
+    </row>
+    <row r="671" spans="1:4" hidden="1">
+      <c r="A671" t="s">
+        <v>362</v>
+      </c>
+      <c r="B671" t="s">
+        <v>36</v>
       </c>
       <c r="C671">
-        <v>0</v>
-      </c>
-      <c r="D671" s="2"/>
-    </row>
-    <row r="672" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" hidden="1">
       <c r="A672" t="s">
         <v>362</v>
       </c>
       <c r="B672" t="s">
-        <v>36</v>
+        <v>363</v>
       </c>
       <c r="C672">
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:4">
+    <row r="673" spans="1:4" hidden="1">
       <c r="A673" t="s">
         <v>362</v>
       </c>
       <c r="B673" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C673">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="674" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" hidden="1">
       <c r="A674" t="s">
         <v>362</v>
       </c>
       <c r="B674" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="C674">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="675" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" hidden="1">
       <c r="A675" t="s">
         <v>362</v>
       </c>
       <c r="B675" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="C675">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="676" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" hidden="1">
       <c r="A676" t="s">
         <v>362</v>
       </c>
       <c r="B676" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C676">
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:4">
+    <row r="677" spans="1:4" hidden="1">
       <c r="A677" t="s">
         <v>362</v>
       </c>
       <c r="B677" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="C677">
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:4">
-      <c r="A678" t="s">
+    <row r="678" spans="1:4" hidden="1">
+      <c r="A678" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B678" t="s">
-        <v>366</v>
-      </c>
-      <c r="C678">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="679" spans="1:4">
-      <c r="A679" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B679" s="2" t="s">
+      <c r="B678" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C679" s="2">
-        <v>0</v>
-      </c>
-      <c r="D679" s="2"/>
-    </row>
-    <row r="680" spans="1:4">
+      <c r="C678" s="2">
+        <v>0</v>
+      </c>
+      <c r="D678" s="2"/>
+    </row>
+    <row r="679" spans="1:4" hidden="1">
+      <c r="A679" t="s">
+        <v>367</v>
+      </c>
+      <c r="B679" t="s">
+        <v>5</v>
+      </c>
+      <c r="C679">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" hidden="1">
       <c r="A680" t="s">
         <v>367</v>
       </c>
       <c r="B680" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C680">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="681" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" hidden="1">
       <c r="A681" t="s">
         <v>367</v>
       </c>
       <c r="B681" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C681">
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
+    <row r="682" spans="1:4" hidden="1">
       <c r="A682" t="s">
         <v>367</v>
       </c>
       <c r="B682" t="s">
-        <v>6</v>
+        <v>368</v>
       </c>
       <c r="C682">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="683" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" hidden="1">
       <c r="A683" t="s">
         <v>367</v>
       </c>
       <c r="B683" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C683">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="684" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" hidden="1">
       <c r="A684" t="s">
         <v>367</v>
       </c>
       <c r="B684" t="s">
-        <v>369</v>
+        <v>253</v>
       </c>
       <c r="C684">
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:4">
+    <row r="685" spans="1:4" hidden="1">
       <c r="A685" t="s">
         <v>367</v>
       </c>
       <c r="B685" t="s">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="C685">
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:4">
+    <row r="686" spans="1:4" hidden="1">
       <c r="A686" t="s">
         <v>367</v>
       </c>
       <c r="B686" t="s">
-        <v>112</v>
+        <v>370</v>
       </c>
       <c r="C686">
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:4">
+    <row r="687" spans="1:4" hidden="1">
       <c r="A687" t="s">
         <v>367</v>
       </c>
       <c r="B687" t="s">
-        <v>370</v>
+        <v>9</v>
       </c>
       <c r="C687">
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:4">
+    <row r="688" spans="1:4" hidden="1">
       <c r="A688" t="s">
         <v>367</v>
       </c>
-      <c r="B688" t="s">
-        <v>9</v>
-      </c>
-      <c r="C688">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="689" spans="1:4">
+      <c r="B688" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C688" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" hidden="1">
       <c r="A689" t="s">
         <v>367</v>
       </c>
-      <c r="B689" s="2" t="s">
+      <c r="B689" t="s">
+        <v>256</v>
+      </c>
+      <c r="C689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" hidden="1">
+      <c r="A690" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C690" s="2">
+        <v>0</v>
+      </c>
+      <c r="D690" s="2"/>
+    </row>
+    <row r="691" spans="1:4" hidden="1">
+      <c r="A691" t="s">
+        <v>371</v>
+      </c>
+      <c r="B691" t="s">
         <v>36</v>
       </c>
-      <c r="C689" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="690" spans="1:4">
-      <c r="A690" t="s">
-        <v>367</v>
-      </c>
-      <c r="B690" t="s">
-        <v>256</v>
-      </c>
-      <c r="C690">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="691" spans="1:4">
-      <c r="A691" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B691" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C691" s="2">
-        <v>0</v>
-      </c>
-      <c r="D691" s="2"/>
-    </row>
-    <row r="692" spans="1:4">
+      <c r="C691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" hidden="1">
       <c r="A692" t="s">
         <v>371</v>
       </c>
       <c r="B692" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C692">
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:4">
+    <row r="693" spans="1:4" hidden="1">
       <c r="A693" t="s">
         <v>371</v>
       </c>
       <c r="B693" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C693">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="694" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" hidden="1">
       <c r="A694" t="s">
         <v>371</v>
       </c>
       <c r="B694" t="s">
-        <v>6</v>
+        <v>341</v>
       </c>
       <c r="C694">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="695" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" hidden="1">
       <c r="A695" t="s">
         <v>371</v>
       </c>
       <c r="B695" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C695">
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:4">
+    <row r="696" spans="1:4" hidden="1">
       <c r="A696" t="s">
         <v>371</v>
       </c>
       <c r="B696" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C696">
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:4">
+    <row r="697" spans="1:4" hidden="1">
       <c r="A697" t="s">
         <v>371</v>
       </c>
       <c r="B697" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C697">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="698" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" hidden="1">
       <c r="A698" t="s">
         <v>371</v>
       </c>
       <c r="B698" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C698">
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:4">
+    <row r="699" spans="1:4" hidden="1">
       <c r="A699" t="s">
         <v>371</v>
       </c>
       <c r="B699" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C699">
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:4">
+    <row r="700" spans="1:4" hidden="1">
       <c r="A700" t="s">
         <v>371</v>
       </c>
       <c r="B700" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C700">
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:4">
+    <row r="701" spans="1:4" hidden="1">
       <c r="A701" t="s">
         <v>371</v>
       </c>
       <c r="B701" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C701">
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:4">
-      <c r="A702" t="s">
+    <row r="702" spans="1:4" hidden="1">
+      <c r="A702" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B702" t="s">
-        <v>348</v>
-      </c>
-      <c r="C702">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="703" spans="1:4">
-      <c r="A703" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B703" s="2" t="s">
+      <c r="B702" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C703" s="2">
-        <v>0</v>
-      </c>
-      <c r="D703" s="2"/>
+      <c r="C702" s="2">
+        <v>0</v>
+      </c>
+      <c r="D702" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="371">
   <si>
     <t>TABELA</t>
   </si>
@@ -1114,9 +1114,6 @@
   </si>
   <si>
     <t>DT_PREVISTA_RECEBIMENTO</t>
-  </si>
-  <si>
-    <t>CD_STATUS_RECEBIMENTO</t>
   </si>
   <si>
     <t>ln.ods_cap_titulo_reembolso</t>
@@ -1200,7 +1197,7 @@
   <autoFilter ref="A1:D702">
     <filterColumn colId="0">
       <filters>
-        <filter val="ln.ods_nfr_det"/>
+        <filter val="ln.ods_car_titulo_remessa"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3"/>
@@ -1502,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D702"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="C270" sqref="C270"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B705" sqref="B705"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4188,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" hidden="1">
       <c r="A224" t="s">
         <v>166</v>
       </c>
@@ -4199,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" hidden="1">
       <c r="A225" t="s">
         <v>166</v>
       </c>
@@ -4210,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" hidden="1">
       <c r="A226" t="s">
         <v>166</v>
       </c>
@@ -4224,7 +4221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" hidden="1">
       <c r="A227" s="1" t="s">
         <v>166</v>
       </c>
@@ -4238,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" hidden="1">
       <c r="A228" t="s">
         <v>166</v>
       </c>
@@ -4249,7 +4246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" hidden="1">
       <c r="A229" t="s">
         <v>166</v>
       </c>
@@ -4260,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" hidden="1">
       <c r="A230" t="s">
         <v>166</v>
       </c>
@@ -4271,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" hidden="1">
       <c r="A231" t="s">
         <v>166</v>
       </c>
@@ -4285,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" hidden="1">
       <c r="A232" t="s">
         <v>166</v>
       </c>
@@ -4299,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" hidden="1">
       <c r="A233" t="s">
         <v>166</v>
       </c>
@@ -4313,7 +4310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" hidden="1">
       <c r="A234" t="s">
         <v>166</v>
       </c>
@@ -4327,7 +4324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" hidden="1">
       <c r="A235" t="s">
         <v>166</v>
       </c>
@@ -4341,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" hidden="1">
       <c r="A236" t="s">
         <v>166</v>
       </c>
@@ -4355,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" hidden="1">
       <c r="A237" t="s">
         <v>166</v>
       </c>
@@ -4369,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" hidden="1">
       <c r="A238" t="s">
         <v>166</v>
       </c>
@@ -4383,7 +4380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" hidden="1">
       <c r="A239" t="s">
         <v>166</v>
       </c>
@@ -4397,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" hidden="1">
       <c r="A240" t="s">
         <v>166</v>
       </c>
@@ -4411,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" hidden="1">
       <c r="A241" t="s">
         <v>166</v>
       </c>
@@ -4425,7 +4422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" hidden="1">
       <c r="A242" t="s">
         <v>166</v>
       </c>
@@ -4439,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" hidden="1">
       <c r="A243" t="s">
         <v>166</v>
       </c>
@@ -4453,7 +4450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" hidden="1">
       <c r="A244" t="s">
         <v>166</v>
       </c>
@@ -4467,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" hidden="1">
       <c r="A245" t="s">
         <v>166</v>
       </c>
@@ -4481,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" hidden="1">
       <c r="A246" t="s">
         <v>166</v>
       </c>
@@ -4495,7 +4492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" hidden="1">
       <c r="A247" t="s">
         <v>166</v>
       </c>
@@ -4509,7 +4506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" hidden="1">
       <c r="A248" t="s">
         <v>166</v>
       </c>
@@ -4523,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" hidden="1">
       <c r="A249" t="s">
         <v>166</v>
       </c>
@@ -4537,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" hidden="1">
       <c r="A250" t="s">
         <v>166</v>
       </c>
@@ -4551,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" hidden="1">
       <c r="A251" t="s">
         <v>166</v>
       </c>
@@ -4565,7 +4562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" hidden="1">
       <c r="A252" t="s">
         <v>166</v>
       </c>
@@ -4579,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" hidden="1">
       <c r="A253" t="s">
         <v>166</v>
       </c>
@@ -4590,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" hidden="1">
       <c r="A254" t="s">
         <v>166</v>
       </c>
@@ -4601,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" hidden="1">
       <c r="A255" t="s">
         <v>166</v>
       </c>
@@ -4615,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" hidden="1">
       <c r="A256" t="s">
         <v>166</v>
       </c>
@@ -4629,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" hidden="1">
       <c r="A257" t="s">
         <v>166</v>
       </c>
@@ -4643,7 +4640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" hidden="1">
       <c r="A258" t="s">
         <v>166</v>
       </c>
@@ -4657,7 +4654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" hidden="1">
       <c r="A259" t="s">
         <v>166</v>
       </c>
@@ -4671,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" hidden="1">
       <c r="A260" t="s">
         <v>166</v>
       </c>
@@ -4685,7 +4682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" hidden="1">
       <c r="A261" t="s">
         <v>166</v>
       </c>
@@ -4699,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" hidden="1">
       <c r="A262" t="s">
         <v>166</v>
       </c>
@@ -4713,7 +4710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" hidden="1">
       <c r="A263" t="s">
         <v>166</v>
       </c>
@@ -4727,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" hidden="1">
       <c r="A264" t="s">
         <v>166</v>
       </c>
@@ -4741,7 +4738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" hidden="1">
       <c r="A265" t="s">
         <v>166</v>
       </c>
@@ -4755,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" hidden="1">
       <c r="A266" t="s">
         <v>166</v>
       </c>
@@ -4769,7 +4766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" hidden="1">
       <c r="A267" t="s">
         <v>166</v>
       </c>
@@ -4783,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" hidden="1">
       <c r="A268" t="s">
         <v>166</v>
       </c>
@@ -4797,7 +4794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" hidden="1">
       <c r="A269" t="s">
         <v>166</v>
       </c>
@@ -4811,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" hidden="1">
       <c r="A270" t="s">
         <v>166</v>
       </c>
@@ -4825,7 +4822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" hidden="1">
       <c r="A271" t="s">
         <v>166</v>
       </c>
@@ -4839,7 +4836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" hidden="1">
       <c r="A272" t="s">
         <v>166</v>
       </c>
@@ -4853,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" hidden="1">
       <c r="A273" t="s">
         <v>166</v>
       </c>
@@ -4867,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" hidden="1">
       <c r="A274" t="s">
         <v>166</v>
       </c>
@@ -4881,7 +4878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" hidden="1">
       <c r="A275" t="s">
         <v>166</v>
       </c>
@@ -4895,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" hidden="1">
       <c r="A276" t="s">
         <v>166</v>
       </c>
@@ -4909,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" hidden="1">
       <c r="A277" t="s">
         <v>166</v>
       </c>
@@ -4923,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" hidden="1">
       <c r="A278" t="s">
         <v>166</v>
       </c>
@@ -4934,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" hidden="1">
       <c r="A279" t="s">
         <v>166</v>
       </c>
@@ -4945,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" hidden="1">
       <c r="A280" t="s">
         <v>166</v>
       </c>
@@ -4956,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" hidden="1">
       <c r="A281" t="s">
         <v>166</v>
       </c>
@@ -4970,7 +4967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" hidden="1">
       <c r="A282" t="s">
         <v>166</v>
       </c>
@@ -4984,7 +4981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" hidden="1">
       <c r="A283" t="s">
         <v>166</v>
       </c>
@@ -4998,7 +4995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" hidden="1">
       <c r="A284" t="s">
         <v>166</v>
       </c>
@@ -5012,7 +5009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" hidden="1">
       <c r="A285" t="s">
         <v>166</v>
       </c>
@@ -5026,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" hidden="1">
       <c r="A286" t="s">
         <v>166</v>
       </c>
@@ -5040,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" hidden="1">
       <c r="A287" t="s">
         <v>166</v>
       </c>
@@ -5054,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" hidden="1">
       <c r="A288" t="s">
         <v>166</v>
       </c>
@@ -5068,7 +5065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" hidden="1">
       <c r="A289" t="s">
         <v>166</v>
       </c>
@@ -5082,7 +5079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" hidden="1">
       <c r="A290" t="s">
         <v>166</v>
       </c>
@@ -5096,7 +5093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" hidden="1">
       <c r="A291" t="s">
         <v>166</v>
       </c>
@@ -5110,7 +5107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" hidden="1">
       <c r="A292" t="s">
         <v>166</v>
       </c>
@@ -5121,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" hidden="1">
       <c r="A293" t="s">
         <v>166</v>
       </c>
@@ -5132,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" hidden="1">
       <c r="A294" t="s">
         <v>166</v>
       </c>
@@ -5143,7 +5140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" hidden="1">
       <c r="A295" t="s">
         <v>166</v>
       </c>
@@ -5154,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" hidden="1">
       <c r="A296" t="s">
         <v>166</v>
       </c>
@@ -5165,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" hidden="1">
       <c r="A297" t="s">
         <v>166</v>
       </c>
@@ -9558,7 +9555,7 @@
       </c>
       <c r="D670" s="2"/>
     </row>
-    <row r="671" spans="1:4" hidden="1">
+    <row r="671" spans="1:4">
       <c r="A671" t="s">
         <v>362</v>
       </c>
@@ -9569,7 +9566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:4" hidden="1">
+    <row r="672" spans="1:4">
       <c r="A672" t="s">
         <v>362</v>
       </c>
@@ -9580,7 +9577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:4" hidden="1">
+    <row r="673" spans="1:4">
       <c r="A673" t="s">
         <v>362</v>
       </c>
@@ -9591,7 +9588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:4" hidden="1">
+    <row r="674" spans="1:4">
       <c r="A674" t="s">
         <v>362</v>
       </c>
@@ -9602,7 +9599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:4" hidden="1">
+    <row r="675" spans="1:4">
       <c r="A675" t="s">
         <v>362</v>
       </c>
@@ -9613,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:4" hidden="1">
+    <row r="676" spans="1:4">
       <c r="A676" t="s">
         <v>362</v>
       </c>
@@ -9624,18 +9621,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:4" hidden="1">
+    <row r="677" spans="1:4">
       <c r="A677" t="s">
         <v>362</v>
       </c>
       <c r="B677" t="s">
-        <v>366</v>
+        <v>21</v>
       </c>
       <c r="C677">
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:4" hidden="1">
+    <row r="678" spans="1:4">
       <c r="A678" s="2" t="s">
         <v>362</v>
       </c>
@@ -9649,7 +9646,7 @@
     </row>
     <row r="679" spans="1:4" hidden="1">
       <c r="A679" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B679" t="s">
         <v>5</v>
@@ -9660,7 +9657,7 @@
     </row>
     <row r="680" spans="1:4" hidden="1">
       <c r="A680" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B680" t="s">
         <v>7</v>
@@ -9671,7 +9668,7 @@
     </row>
     <row r="681" spans="1:4" hidden="1">
       <c r="A681" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B681" t="s">
         <v>6</v>
@@ -9682,10 +9679,10 @@
     </row>
     <row r="682" spans="1:4" hidden="1">
       <c r="A682" t="s">
+        <v>366</v>
+      </c>
+      <c r="B682" t="s">
         <v>367</v>
-      </c>
-      <c r="B682" t="s">
-        <v>368</v>
       </c>
       <c r="C682">
         <v>1</v>
@@ -9693,10 +9690,10 @@
     </row>
     <row r="683" spans="1:4" hidden="1">
       <c r="A683" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B683" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C683">
         <v>0</v>
@@ -9704,7 +9701,7 @@
     </row>
     <row r="684" spans="1:4" hidden="1">
       <c r="A684" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B684" t="s">
         <v>253</v>
@@ -9715,7 +9712,7 @@
     </row>
     <row r="685" spans="1:4" hidden="1">
       <c r="A685" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B685" t="s">
         <v>112</v>
@@ -9726,10 +9723,10 @@
     </row>
     <row r="686" spans="1:4" hidden="1">
       <c r="A686" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B686" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C686">
         <v>0</v>
@@ -9737,7 +9734,7 @@
     </row>
     <row r="687" spans="1:4" hidden="1">
       <c r="A687" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B687" t="s">
         <v>9</v>
@@ -9748,7 +9745,7 @@
     </row>
     <row r="688" spans="1:4" hidden="1">
       <c r="A688" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B688" s="2" t="s">
         <v>36</v>
@@ -9759,7 +9756,7 @@
     </row>
     <row r="689" spans="1:4" hidden="1">
       <c r="A689" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B689" t="s">
         <v>256</v>
@@ -9770,7 +9767,7 @@
     </row>
     <row r="690" spans="1:4" hidden="1">
       <c r="A690" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B690" s="2" t="s">
         <v>310</v>
@@ -9782,7 +9779,7 @@
     </row>
     <row r="691" spans="1:4" hidden="1">
       <c r="A691" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B691" t="s">
         <v>36</v>
@@ -9793,7 +9790,7 @@
     </row>
     <row r="692" spans="1:4" hidden="1">
       <c r="A692" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B692" t="s">
         <v>5</v>
@@ -9804,7 +9801,7 @@
     </row>
     <row r="693" spans="1:4" hidden="1">
       <c r="A693" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B693" t="s">
         <v>6</v>
@@ -9815,7 +9812,7 @@
     </row>
     <row r="694" spans="1:4" hidden="1">
       <c r="A694" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B694" t="s">
         <v>341</v>
@@ -9826,7 +9823,7 @@
     </row>
     <row r="695" spans="1:4" hidden="1">
       <c r="A695" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B695" t="s">
         <v>342</v>
@@ -9837,7 +9834,7 @@
     </row>
     <row r="696" spans="1:4" hidden="1">
       <c r="A696" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B696" t="s">
         <v>343</v>
@@ -9848,7 +9845,7 @@
     </row>
     <row r="697" spans="1:4" hidden="1">
       <c r="A697" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B697" t="s">
         <v>344</v>
@@ -9859,7 +9856,7 @@
     </row>
     <row r="698" spans="1:4" hidden="1">
       <c r="A698" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B698" t="s">
         <v>345</v>
@@ -9870,7 +9867,7 @@
     </row>
     <row r="699" spans="1:4" hidden="1">
       <c r="A699" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B699" t="s">
         <v>346</v>
@@ -9881,7 +9878,7 @@
     </row>
     <row r="700" spans="1:4" hidden="1">
       <c r="A700" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B700" t="s">
         <v>347</v>
@@ -9892,7 +9889,7 @@
     </row>
     <row r="701" spans="1:4" hidden="1">
       <c r="A701" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B701" t="s">
         <v>348</v>
@@ -9903,7 +9900,7 @@
     </row>
     <row r="702" spans="1:4" hidden="1">
       <c r="A702" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B702" s="2" t="s">
         <v>349</v>

--- a/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="373">
   <si>
     <t>TABELA</t>
   </si>
@@ -1129,6 +1129,12 @@
   </si>
   <si>
     <t>ln.ods_cap_titulo_reversao</t>
+  </si>
+  <si>
+    <t>NR_REFERENCIA_FISCAL_FATURA</t>
+  </si>
+  <si>
+    <t>NR_ITEM_NF_FATURA</t>
   </si>
 </sst>
 </file>
@@ -1193,11 +1199,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D702" totalsRowShown="0">
-  <autoFilter ref="A1:D702">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D706" totalsRowShown="0">
+  <autoFilter ref="A1:D706">
     <filterColumn colId="0">
       <filters>
-        <filter val="ln.ods_car_titulo_remessa"/>
+        <filter val="ln.ods_fat_faturamento"/>
+        <filter val="ln.ods_nfv_det"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3"/>
@@ -1497,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D702"/>
+  <dimension ref="A1:D706"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B705" sqref="B705"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2552,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -2566,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>60</v>
       </c>
@@ -2577,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -2588,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>60</v>
       </c>
@@ -2599,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>60</v>
       </c>
@@ -2610,7 +2617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>60</v>
       </c>
@@ -2621,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>60</v>
       </c>
@@ -2632,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>60</v>
       </c>
@@ -2643,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>60</v>
       </c>
@@ -2654,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>60</v>
       </c>
@@ -2665,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>60</v>
       </c>
@@ -2676,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>60</v>
       </c>
@@ -2687,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>60</v>
       </c>
@@ -2698,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>60</v>
       </c>
@@ -2709,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>60</v>
       </c>
@@ -2720,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>60</v>
       </c>
@@ -2731,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>60</v>
       </c>
@@ -2742,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>60</v>
       </c>
@@ -2753,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>60</v>
       </c>
@@ -2764,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>60</v>
       </c>
@@ -2775,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>60</v>
       </c>
@@ -2789,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>60</v>
       </c>
@@ -2803,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>60</v>
       </c>
@@ -2814,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>60</v>
       </c>
@@ -2825,7 +2832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>60</v>
       </c>
@@ -2836,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>60</v>
       </c>
@@ -2847,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>60</v>
       </c>
@@ -2858,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>60</v>
       </c>
@@ -2869,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>60</v>
       </c>
@@ -2880,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>60</v>
       </c>
@@ -2891,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -2902,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>60</v>
       </c>
@@ -2913,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>60</v>
       </c>
@@ -2924,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>60</v>
       </c>
@@ -2935,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>60</v>
       </c>
@@ -2946,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>60</v>
       </c>
@@ -2957,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>60</v>
       </c>
@@ -2968,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>60</v>
       </c>
@@ -2979,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>60</v>
       </c>
@@ -2990,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>60</v>
       </c>
@@ -3001,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>60</v>
       </c>
@@ -3012,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>60</v>
       </c>
@@ -3023,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>60</v>
       </c>
@@ -3034,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>60</v>
       </c>
@@ -3045,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>60</v>
       </c>
@@ -3056,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>60</v>
       </c>
@@ -3067,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>60</v>
       </c>
@@ -3078,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>60</v>
       </c>
@@ -3089,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>60</v>
       </c>
@@ -3100,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>60</v>
       </c>
@@ -3111,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>60</v>
       </c>
@@ -3122,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>60</v>
       </c>
@@ -3133,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>60</v>
       </c>
@@ -3144,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>60</v>
       </c>
@@ -3155,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>60</v>
       </c>
@@ -3166,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>60</v>
       </c>
@@ -3177,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>60</v>
       </c>
@@ -3188,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>60</v>
       </c>
@@ -3199,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>60</v>
       </c>
@@ -3210,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>60</v>
       </c>
@@ -3221,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>60</v>
       </c>
@@ -3232,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>60</v>
       </c>
@@ -3243,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>60</v>
       </c>
@@ -3254,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>60</v>
       </c>
@@ -3268,7 +3275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>60</v>
       </c>
@@ -3279,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>60</v>
       </c>
@@ -3290,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>60</v>
       </c>
@@ -3301,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>60</v>
       </c>
@@ -3312,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>60</v>
       </c>
@@ -3323,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>60</v>
       </c>
@@ -3334,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>60</v>
       </c>
@@ -3345,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>60</v>
       </c>
@@ -3356,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>60</v>
       </c>
@@ -3367,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>60</v>
       </c>
@@ -3378,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>60</v>
       </c>
@@ -3389,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>60</v>
       </c>
@@ -3400,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>60</v>
       </c>
@@ -3414,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>60</v>
       </c>
@@ -3425,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>60</v>
       </c>
@@ -3436,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>60</v>
       </c>
@@ -3447,26 +3454,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>371</v>
       </c>
       <c r="C167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" hidden="1">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>372</v>
       </c>
       <c r="C168">
         <v>0</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:4" hidden="1">
@@ -3474,10 +3487,10 @@
         <v>132</v>
       </c>
       <c r="B169" t="s">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:4" hidden="1">
@@ -3485,7 +3498,7 @@
         <v>132</v>
       </c>
       <c r="B170" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3496,7 +3509,7 @@
         <v>132</v>
       </c>
       <c r="B171" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3507,7 +3520,7 @@
         <v>132</v>
       </c>
       <c r="B172" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3518,13 +3531,10 @@
         <v>132</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="C173">
         <v>0</v>
-      </c>
-      <c r="D173">
-        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:4" hidden="1">
@@ -3532,13 +3542,10 @@
         <v>132</v>
       </c>
       <c r="B174" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="C174">
         <v>0</v>
-      </c>
-      <c r="D174">
-        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:4" hidden="1">
@@ -3546,7 +3553,7 @@
         <v>132</v>
       </c>
       <c r="B175" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3560,7 +3567,7 @@
         <v>132</v>
       </c>
       <c r="B176" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3574,7 +3581,7 @@
         <v>132</v>
       </c>
       <c r="B177" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3588,10 +3595,13 @@
         <v>132</v>
       </c>
       <c r="B178" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="C178">
         <v>0</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:4" hidden="1">
@@ -3599,10 +3609,13 @@
         <v>132</v>
       </c>
       <c r="B179" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="C179">
         <v>0</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:4" hidden="1">
@@ -3610,7 +3623,7 @@
         <v>132</v>
       </c>
       <c r="B180" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3621,7 +3634,7 @@
         <v>132</v>
       </c>
       <c r="B181" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -3632,7 +3645,7 @@
         <v>132</v>
       </c>
       <c r="B182" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3643,13 +3656,10 @@
         <v>132</v>
       </c>
       <c r="B183" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C183">
         <v>0</v>
-      </c>
-      <c r="D183">
-        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:4" hidden="1">
@@ -3657,13 +3667,10 @@
         <v>132</v>
       </c>
       <c r="B184" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C184">
         <v>0</v>
-      </c>
-      <c r="D184">
-        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:4" hidden="1">
@@ -3671,7 +3678,7 @@
         <v>132</v>
       </c>
       <c r="B185" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3685,7 +3692,7 @@
         <v>132</v>
       </c>
       <c r="B186" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -3699,7 +3706,7 @@
         <v>132</v>
       </c>
       <c r="B187" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3713,7 +3720,7 @@
         <v>132</v>
       </c>
       <c r="B188" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3727,7 +3734,7 @@
         <v>132</v>
       </c>
       <c r="B189" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3741,7 +3748,7 @@
         <v>132</v>
       </c>
       <c r="B190" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3755,7 +3762,7 @@
         <v>132</v>
       </c>
       <c r="B191" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3769,7 +3776,7 @@
         <v>132</v>
       </c>
       <c r="B192" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3783,7 +3790,7 @@
         <v>132</v>
       </c>
       <c r="B193" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3797,7 +3804,7 @@
         <v>132</v>
       </c>
       <c r="B194" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3811,7 +3818,7 @@
         <v>132</v>
       </c>
       <c r="B195" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3825,7 +3832,7 @@
         <v>132</v>
       </c>
       <c r="B196" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3839,7 +3846,7 @@
         <v>132</v>
       </c>
       <c r="B197" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3853,10 +3860,13 @@
         <v>132</v>
       </c>
       <c r="B198" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C198">
         <v>0</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:4" hidden="1">
@@ -3864,7 +3874,7 @@
         <v>132</v>
       </c>
       <c r="B199" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3878,13 +3888,10 @@
         <v>132</v>
       </c>
       <c r="B200" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C200">
         <v>0</v>
-      </c>
-      <c r="D200">
-        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:4" hidden="1">
@@ -3892,7 +3899,7 @@
         <v>132</v>
       </c>
       <c r="B201" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3906,7 +3913,7 @@
         <v>132</v>
       </c>
       <c r="B202" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -3920,10 +3927,13 @@
         <v>132</v>
       </c>
       <c r="B203" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="C203">
         <v>0</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:4" hidden="1">
@@ -3931,10 +3941,13 @@
         <v>132</v>
       </c>
       <c r="B204" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="C204">
         <v>0</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:4" hidden="1">
@@ -3942,7 +3955,7 @@
         <v>132</v>
       </c>
       <c r="B205" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -3953,13 +3966,10 @@
         <v>132</v>
       </c>
       <c r="B206" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="C206">
         <v>0</v>
-      </c>
-      <c r="D206">
-        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:4" hidden="1">
@@ -3967,13 +3977,10 @@
         <v>132</v>
       </c>
       <c r="B207" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="C207">
         <v>0</v>
-      </c>
-      <c r="D207">
-        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:4" hidden="1">
@@ -3981,7 +3988,7 @@
         <v>132</v>
       </c>
       <c r="B208" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -3995,7 +4002,7 @@
         <v>132</v>
       </c>
       <c r="B209" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -4009,7 +4016,7 @@
         <v>132</v>
       </c>
       <c r="B210" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -4023,7 +4030,7 @@
         <v>132</v>
       </c>
       <c r="B211" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -4037,7 +4044,7 @@
         <v>132</v>
       </c>
       <c r="B212" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -4051,7 +4058,7 @@
         <v>132</v>
       </c>
       <c r="B213" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -4065,7 +4072,7 @@
         <v>132</v>
       </c>
       <c r="B214" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -4079,7 +4086,7 @@
         <v>132</v>
       </c>
       <c r="B215" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -4093,7 +4100,7 @@
         <v>132</v>
       </c>
       <c r="B216" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -4107,7 +4114,7 @@
         <v>132</v>
       </c>
       <c r="B217" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -4121,7 +4128,7 @@
         <v>132</v>
       </c>
       <c r="B218" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -4135,10 +4142,13 @@
         <v>132</v>
       </c>
       <c r="B219" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C219">
         <v>0</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:4" hidden="1">
@@ -4146,10 +4156,13 @@
         <v>132</v>
       </c>
       <c r="B220" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C220">
         <v>0</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:4" hidden="1">
@@ -4157,7 +4170,7 @@
         <v>132</v>
       </c>
       <c r="B221" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -4168,10 +4181,10 @@
         <v>132</v>
       </c>
       <c r="B222" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:4" hidden="1">
@@ -4179,7 +4192,7 @@
         <v>132</v>
       </c>
       <c r="B223" t="s">
-        <v>335</v>
+        <v>34</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -4187,10 +4200,10 @@
     </row>
     <row r="224" spans="1:4" hidden="1">
       <c r="A224" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -4198,10 +4211,10 @@
     </row>
     <row r="225" spans="1:4" hidden="1">
       <c r="A225" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>335</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -4212,26 +4225,20 @@
         <v>166</v>
       </c>
       <c r="B226" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C226">
-        <v>0</v>
-      </c>
-      <c r="D226">
         <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:4" hidden="1">
-      <c r="A227" s="1" t="s">
+      <c r="A227" t="s">
         <v>166</v>
       </c>
-      <c r="B227" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C227" s="1">
-        <v>1</v>
-      </c>
-      <c r="D227" s="1">
+      <c r="B227" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227">
         <v>0</v>
       </c>
     </row>
@@ -4240,20 +4247,26 @@
         <v>166</v>
       </c>
       <c r="B228" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
         <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:4" hidden="1">
-      <c r="A229" t="s">
+      <c r="A229" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B229" t="s">
-        <v>168</v>
-      </c>
-      <c r="C229">
+      <c r="B229" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C229" s="1">
+        <v>1</v>
+      </c>
+      <c r="D229" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4262,10 +4275,10 @@
         <v>166</v>
       </c>
       <c r="B230" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="C230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:4" hidden="1">
@@ -4273,13 +4286,10 @@
         <v>166</v>
       </c>
       <c r="B231" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C231">
         <v>0</v>
-      </c>
-      <c r="D231">
-        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:4" hidden="1">
@@ -4287,13 +4297,10 @@
         <v>166</v>
       </c>
       <c r="B232" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C232">
         <v>0</v>
-      </c>
-      <c r="D232">
-        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:4" hidden="1">
@@ -4301,7 +4308,7 @@
         <v>166</v>
       </c>
       <c r="B233" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -4315,7 +4322,7 @@
         <v>166</v>
       </c>
       <c r="B234" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -4329,7 +4336,7 @@
         <v>166</v>
       </c>
       <c r="B235" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -4343,7 +4350,7 @@
         <v>166</v>
       </c>
       <c r="B236" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -4357,7 +4364,7 @@
         <v>166</v>
       </c>
       <c r="B237" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -4371,7 +4378,7 @@
         <v>166</v>
       </c>
       <c r="B238" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -4385,7 +4392,7 @@
         <v>166</v>
       </c>
       <c r="B239" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -4399,7 +4406,7 @@
         <v>166</v>
       </c>
       <c r="B240" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -4413,7 +4420,7 @@
         <v>166</v>
       </c>
       <c r="B241" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -4427,7 +4434,7 @@
         <v>166</v>
       </c>
       <c r="B242" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -4441,7 +4448,7 @@
         <v>166</v>
       </c>
       <c r="B243" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4455,7 +4462,7 @@
         <v>166</v>
       </c>
       <c r="B244" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -4469,7 +4476,7 @@
         <v>166</v>
       </c>
       <c r="B245" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -4483,7 +4490,7 @@
         <v>166</v>
       </c>
       <c r="B246" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -4497,7 +4504,7 @@
         <v>166</v>
       </c>
       <c r="B247" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -4511,7 +4518,7 @@
         <v>166</v>
       </c>
       <c r="B248" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -4525,7 +4532,7 @@
         <v>166</v>
       </c>
       <c r="B249" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -4539,7 +4546,7 @@
         <v>166</v>
       </c>
       <c r="B250" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -4553,7 +4560,7 @@
         <v>166</v>
       </c>
       <c r="B251" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -4567,7 +4574,7 @@
         <v>166</v>
       </c>
       <c r="B252" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -4581,10 +4588,13 @@
         <v>166</v>
       </c>
       <c r="B253" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C253">
         <v>0</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:4" hidden="1">
@@ -4592,10 +4602,13 @@
         <v>166</v>
       </c>
       <c r="B254" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C254">
         <v>0</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:4" hidden="1">
@@ -4603,13 +4616,10 @@
         <v>166</v>
       </c>
       <c r="B255" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="C255">
         <v>0</v>
-      </c>
-      <c r="D255">
-        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:4" hidden="1">
@@ -4617,13 +4627,10 @@
         <v>166</v>
       </c>
       <c r="B256" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C256">
         <v>0</v>
-      </c>
-      <c r="D256">
-        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:4" hidden="1">
@@ -4631,7 +4638,7 @@
         <v>166</v>
       </c>
       <c r="B257" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -4645,7 +4652,7 @@
         <v>166</v>
       </c>
       <c r="B258" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -4659,7 +4666,7 @@
         <v>166</v>
       </c>
       <c r="B259" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -4673,7 +4680,7 @@
         <v>166</v>
       </c>
       <c r="B260" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -4687,7 +4694,7 @@
         <v>166</v>
       </c>
       <c r="B261" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -4701,7 +4708,7 @@
         <v>166</v>
       </c>
       <c r="B262" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -4715,7 +4722,7 @@
         <v>166</v>
       </c>
       <c r="B263" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -4729,7 +4736,7 @@
         <v>166</v>
       </c>
       <c r="B264" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -4743,7 +4750,7 @@
         <v>166</v>
       </c>
       <c r="B265" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -4757,7 +4764,7 @@
         <v>166</v>
       </c>
       <c r="B266" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -4771,7 +4778,7 @@
         <v>166</v>
       </c>
       <c r="B267" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -4785,7 +4792,7 @@
         <v>166</v>
       </c>
       <c r="B268" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -4799,7 +4806,7 @@
         <v>166</v>
       </c>
       <c r="B269" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -4813,7 +4820,7 @@
         <v>166</v>
       </c>
       <c r="B270" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -4827,7 +4834,7 @@
         <v>166</v>
       </c>
       <c r="B271" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -4841,7 +4848,7 @@
         <v>166</v>
       </c>
       <c r="B272" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -4855,7 +4862,7 @@
         <v>166</v>
       </c>
       <c r="B273" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -4869,7 +4876,7 @@
         <v>166</v>
       </c>
       <c r="B274" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -4883,7 +4890,7 @@
         <v>166</v>
       </c>
       <c r="B275" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -4897,7 +4904,7 @@
         <v>166</v>
       </c>
       <c r="B276" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -4911,7 +4918,7 @@
         <v>166</v>
       </c>
       <c r="B277" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -4925,10 +4932,13 @@
         <v>166</v>
       </c>
       <c r="B278" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C278">
         <v>0</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:4" hidden="1">
@@ -4936,10 +4946,13 @@
         <v>166</v>
       </c>
       <c r="B279" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="C279">
         <v>0</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:4" hidden="1">
@@ -4947,7 +4960,7 @@
         <v>166</v>
       </c>
       <c r="B280" t="s">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -4958,13 +4971,10 @@
         <v>166</v>
       </c>
       <c r="B281" t="s">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="C281">
         <v>0</v>
-      </c>
-      <c r="D281">
-        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:4" hidden="1">
@@ -4972,13 +4982,10 @@
         <v>166</v>
       </c>
       <c r="B282" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="C282">
         <v>0</v>
-      </c>
-      <c r="D282">
-        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:4" hidden="1">
@@ -4986,7 +4993,7 @@
         <v>166</v>
       </c>
       <c r="B283" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -5000,7 +5007,7 @@
         <v>166</v>
       </c>
       <c r="B284" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -5014,7 +5021,7 @@
         <v>166</v>
       </c>
       <c r="B285" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -5028,7 +5035,7 @@
         <v>166</v>
       </c>
       <c r="B286" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -5042,7 +5049,7 @@
         <v>166</v>
       </c>
       <c r="B287" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -5056,7 +5063,7 @@
         <v>166</v>
       </c>
       <c r="B288" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -5070,7 +5077,7 @@
         <v>166</v>
       </c>
       <c r="B289" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -5084,7 +5091,7 @@
         <v>166</v>
       </c>
       <c r="B290" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -5098,7 +5105,7 @@
         <v>166</v>
       </c>
       <c r="B291" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -5112,10 +5119,13 @@
         <v>166</v>
       </c>
       <c r="B292" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="C292">
         <v>0</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:4" hidden="1">
@@ -5123,10 +5133,13 @@
         <v>166</v>
       </c>
       <c r="B293" t="s">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="C293">
         <v>0</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:4" hidden="1">
@@ -5134,10 +5147,10 @@
         <v>166</v>
       </c>
       <c r="B294" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:4" hidden="1">
@@ -5145,7 +5158,7 @@
         <v>166</v>
       </c>
       <c r="B295" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -5156,10 +5169,10 @@
         <v>166</v>
       </c>
       <c r="B296" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="C296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:4" hidden="1">
@@ -5167,35 +5180,35 @@
         <v>166</v>
       </c>
       <c r="B297" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="C297">
         <v>0</v>
-      </c>
-      <c r="D297">
-        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:4" hidden="1">
       <c r="A298" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B298" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:4" hidden="1">
       <c r="A299" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B299" t="s">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="C299">
         <v>0</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:4" hidden="1">
@@ -5203,12 +5216,9 @@
         <v>199</v>
       </c>
       <c r="B300" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C300">
-        <v>0</v>
-      </c>
-      <c r="D300">
         <v>1</v>
       </c>
     </row>
@@ -5217,13 +5227,10 @@
         <v>199</v>
       </c>
       <c r="B301" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="C301">
         <v>0</v>
-      </c>
-      <c r="D301">
-        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:4" hidden="1">
@@ -5231,10 +5238,13 @@
         <v>199</v>
       </c>
       <c r="B302" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C302">
         <v>0</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:4" hidden="1">
@@ -5242,10 +5252,13 @@
         <v>199</v>
       </c>
       <c r="B303" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C303">
         <v>0</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:4" hidden="1">
@@ -5253,7 +5266,7 @@
         <v>199</v>
       </c>
       <c r="B304" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -5264,7 +5277,7 @@
         <v>199</v>
       </c>
       <c r="B305" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -5275,7 +5288,7 @@
         <v>199</v>
       </c>
       <c r="B306" t="s">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -5286,7 +5299,7 @@
         <v>199</v>
       </c>
       <c r="B307" t="s">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -5297,7 +5310,7 @@
         <v>199</v>
       </c>
       <c r="B308" t="s">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -5308,13 +5321,10 @@
         <v>199</v>
       </c>
       <c r="B309" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C309">
         <v>0</v>
-      </c>
-      <c r="D309">
-        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:4" hidden="1">
@@ -5322,13 +5332,10 @@
         <v>199</v>
       </c>
       <c r="B310" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C310">
         <v>0</v>
-      </c>
-      <c r="D310">
-        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:4" hidden="1">
@@ -5336,7 +5343,7 @@
         <v>199</v>
       </c>
       <c r="B311" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -5350,10 +5357,13 @@
         <v>199</v>
       </c>
       <c r="B312" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C312">
         <v>0</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:4" hidden="1">
@@ -5361,10 +5371,13 @@
         <v>199</v>
       </c>
       <c r="B313" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C313">
         <v>0</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:4" hidden="1">
@@ -5372,7 +5385,7 @@
         <v>199</v>
       </c>
       <c r="B314" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -5383,7 +5396,7 @@
         <v>199</v>
       </c>
       <c r="B315" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -5394,7 +5407,7 @@
         <v>199</v>
       </c>
       <c r="B316" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -5405,7 +5418,7 @@
         <v>199</v>
       </c>
       <c r="B317" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -5416,7 +5429,7 @@
         <v>199</v>
       </c>
       <c r="B318" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -5427,7 +5440,7 @@
         <v>199</v>
       </c>
       <c r="B319" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -5438,7 +5451,7 @@
         <v>199</v>
       </c>
       <c r="B320" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -5449,7 +5462,7 @@
         <v>199</v>
       </c>
       <c r="B321" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -5460,7 +5473,7 @@
         <v>199</v>
       </c>
       <c r="B322" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -5471,7 +5484,7 @@
         <v>199</v>
       </c>
       <c r="B323" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -5482,7 +5495,7 @@
         <v>199</v>
       </c>
       <c r="B324" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -5493,7 +5506,7 @@
         <v>199</v>
       </c>
       <c r="B325" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -5504,13 +5517,10 @@
         <v>199</v>
       </c>
       <c r="B326" t="s">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="C326">
         <v>0</v>
-      </c>
-      <c r="D326">
-        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:4" hidden="1">
@@ -5518,13 +5528,10 @@
         <v>199</v>
       </c>
       <c r="B327" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C327">
         <v>0</v>
-      </c>
-      <c r="D327">
-        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:4" hidden="1">
@@ -5532,10 +5539,13 @@
         <v>199</v>
       </c>
       <c r="B328" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="C328">
         <v>0</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:4" hidden="1">
@@ -5543,10 +5553,13 @@
         <v>199</v>
       </c>
       <c r="B329" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C329">
         <v>0</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:4" hidden="1">
@@ -5554,7 +5567,7 @@
         <v>199</v>
       </c>
       <c r="B330" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -5565,7 +5578,7 @@
         <v>199</v>
       </c>
       <c r="B331" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -5576,7 +5589,7 @@
         <v>199</v>
       </c>
       <c r="B332" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -5587,7 +5600,7 @@
         <v>199</v>
       </c>
       <c r="B333" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -5598,7 +5611,7 @@
         <v>199</v>
       </c>
       <c r="B334" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -5609,7 +5622,7 @@
         <v>199</v>
       </c>
       <c r="B335" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -5620,7 +5633,7 @@
         <v>199</v>
       </c>
       <c r="B336" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -5631,7 +5644,7 @@
         <v>199</v>
       </c>
       <c r="B337" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -5642,13 +5655,10 @@
         <v>199</v>
       </c>
       <c r="B338" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="C338">
         <v>0</v>
-      </c>
-      <c r="D338">
-        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:4" hidden="1">
@@ -5656,7 +5666,7 @@
         <v>199</v>
       </c>
       <c r="B339" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -5667,10 +5677,13 @@
         <v>199</v>
       </c>
       <c r="B340" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="C340">
         <v>0</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:4" hidden="1">
@@ -5678,10 +5691,10 @@
         <v>199</v>
       </c>
       <c r="B341" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:4" hidden="1">
@@ -5689,7 +5702,7 @@
         <v>199</v>
       </c>
       <c r="B342" t="s">
-        <v>235</v>
+        <v>112</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -5700,591 +5713,591 @@
         <v>199</v>
       </c>
       <c r="B343" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="C343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:4" hidden="1">
       <c r="A344" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B344" t="s">
-        <v>5</v>
+        <v>235</v>
       </c>
       <c r="C344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:4" hidden="1">
       <c r="A345" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B345" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="C345">
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1">
+    <row r="346" spans="1:4">
       <c r="A346" t="s">
         <v>205</v>
       </c>
       <c r="B346" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C346">
-        <v>0</v>
-      </c>
-      <c r="D346">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
       <c r="A347" t="s">
         <v>205</v>
       </c>
       <c r="B347" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="C347">
         <v>0</v>
       </c>
-      <c r="D347">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" hidden="1">
+    </row>
+    <row r="348" spans="1:4">
       <c r="A348" t="s">
         <v>205</v>
       </c>
       <c r="B348" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C348">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" hidden="1">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
       <c r="A349" t="s">
         <v>205</v>
       </c>
       <c r="B349" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" hidden="1">
+      <c r="D349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
         <v>205</v>
       </c>
       <c r="B350" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="C350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
       <c r="A351" t="s">
         <v>205</v>
       </c>
       <c r="B351" t="s">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="C351">
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1">
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
         <v>205</v>
       </c>
       <c r="B352" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="C352">
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1">
+    <row r="353" spans="1:4">
       <c r="A353" t="s">
         <v>205</v>
       </c>
       <c r="B353" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="C353">
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1">
+    <row r="354" spans="1:4">
       <c r="A354" t="s">
         <v>205</v>
       </c>
       <c r="B354" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="C354">
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1">
+    <row r="355" spans="1:4">
       <c r="A355" t="s">
         <v>205</v>
       </c>
       <c r="B355" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C355">
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1">
+    <row r="356" spans="1:4">
       <c r="A356" t="s">
         <v>205</v>
       </c>
       <c r="B356" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="C356">
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1">
+    <row r="357" spans="1:4">
       <c r="A357" t="s">
         <v>205</v>
       </c>
       <c r="B357" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="C357">
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1">
+    <row r="358" spans="1:4">
       <c r="A358" t="s">
         <v>205</v>
       </c>
       <c r="B358" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C358">
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1">
+    <row r="359" spans="1:4">
       <c r="A359" t="s">
         <v>205</v>
       </c>
       <c r="B359" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="C359">
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1">
+    <row r="360" spans="1:4">
       <c r="A360" t="s">
         <v>205</v>
       </c>
       <c r="B360" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C360">
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1">
+    <row r="361" spans="1:4">
       <c r="A361" t="s">
         <v>205</v>
       </c>
       <c r="B361" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="C361">
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1">
+    <row r="362" spans="1:4">
       <c r="A362" t="s">
         <v>205</v>
       </c>
       <c r="B362" t="s">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="C362">
         <v>0</v>
       </c>
-      <c r="D362">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" hidden="1">
+    </row>
+    <row r="363" spans="1:4">
       <c r="A363" t="s">
         <v>205</v>
       </c>
       <c r="B363" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C363">
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1">
+    <row r="364" spans="1:4">
       <c r="A364" t="s">
         <v>205</v>
       </c>
       <c r="B364" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="C364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" hidden="1">
+      <c r="D364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
       <c r="A365" t="s">
         <v>205</v>
       </c>
       <c r="B365" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C365">
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1">
+    <row r="366" spans="1:4">
       <c r="A366" t="s">
         <v>205</v>
       </c>
       <c r="B366" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C366">
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1">
+    <row r="367" spans="1:4">
       <c r="A367" t="s">
         <v>205</v>
       </c>
       <c r="B367" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C367">
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1">
+    <row r="368" spans="1:4">
       <c r="A368" t="s">
         <v>205</v>
       </c>
       <c r="B368" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C368">
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:3" hidden="1">
+    <row r="369" spans="1:3">
       <c r="A369" t="s">
         <v>205</v>
       </c>
       <c r="B369" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C369">
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:3" hidden="1">
+    <row r="370" spans="1:3">
       <c r="A370" t="s">
         <v>205</v>
       </c>
       <c r="B370" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C370">
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:3" hidden="1">
+    <row r="371" spans="1:3">
       <c r="A371" t="s">
         <v>205</v>
       </c>
       <c r="B371" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C371">
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:3" hidden="1">
+    <row r="372" spans="1:3">
       <c r="A372" t="s">
         <v>205</v>
       </c>
       <c r="B372" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C372">
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:3" hidden="1">
+    <row r="373" spans="1:3">
       <c r="A373" t="s">
         <v>205</v>
       </c>
       <c r="B373" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C373">
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:3" hidden="1">
+    <row r="374" spans="1:3">
       <c r="A374" t="s">
         <v>205</v>
       </c>
       <c r="B374" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C374">
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:3" hidden="1">
+    <row r="375" spans="1:3">
       <c r="A375" t="s">
         <v>205</v>
       </c>
       <c r="B375" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C375">
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:3" hidden="1">
+    <row r="376" spans="1:3">
       <c r="A376" t="s">
         <v>205</v>
       </c>
       <c r="B376" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C376">
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:3" hidden="1">
+    <row r="377" spans="1:3">
       <c r="A377" t="s">
         <v>205</v>
       </c>
       <c r="B377" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C377">
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:3" hidden="1">
+    <row r="378" spans="1:3">
       <c r="A378" t="s">
         <v>205</v>
       </c>
       <c r="B378" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C378">
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:3" hidden="1">
+    <row r="379" spans="1:3">
       <c r="A379" t="s">
         <v>205</v>
       </c>
       <c r="B379" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C379">
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:3" hidden="1">
+    <row r="380" spans="1:3">
       <c r="A380" t="s">
         <v>205</v>
       </c>
       <c r="B380" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="C380">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
       <c r="A381" t="s">
         <v>205</v>
       </c>
       <c r="B381" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C381">
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:3" hidden="1">
+    <row r="382" spans="1:3">
       <c r="A382" t="s">
         <v>205</v>
       </c>
       <c r="B382" t="s">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="C382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
       <c r="A383" t="s">
         <v>205</v>
       </c>
       <c r="B383" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="C383">
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:3" hidden="1">
+    <row r="384" spans="1:3">
       <c r="A384" t="s">
         <v>205</v>
       </c>
       <c r="B384" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="C384">
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1">
+    <row r="385" spans="1:4">
       <c r="A385" t="s">
         <v>205</v>
       </c>
       <c r="B385" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C385">
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1">
+    <row r="386" spans="1:4">
       <c r="A386" t="s">
         <v>205</v>
       </c>
       <c r="B386" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C386">
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1">
+    <row r="387" spans="1:4">
       <c r="A387" t="s">
         <v>205</v>
       </c>
       <c r="B387" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C387">
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1">
+    <row r="388" spans="1:4">
       <c r="A388" t="s">
         <v>205</v>
       </c>
       <c r="B388" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="C388">
         <v>0</v>
       </c>
-      <c r="D388">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" hidden="1">
+    </row>
+    <row r="389" spans="1:4">
       <c r="A389" t="s">
         <v>205</v>
       </c>
       <c r="B389" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="C389">
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1">
+    <row r="390" spans="1:4">
       <c r="A390" t="s">
         <v>205</v>
       </c>
       <c r="B390" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="C390">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" hidden="1">
+        <v>0</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
       <c r="A391" t="s">
         <v>205</v>
       </c>
       <c r="B391" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C391">
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1">
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
         <v>205</v>
       </c>
       <c r="B392" t="s">
+        <v>35</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" t="s">
+        <v>205</v>
+      </c>
+      <c r="B393" t="s">
+        <v>117</v>
+      </c>
+      <c r="C393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" t="s">
+        <v>205</v>
+      </c>
+      <c r="B394" t="s">
         <v>118</v>
       </c>
-      <c r="C392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" hidden="1">
-      <c r="A393" t="s">
-        <v>210</v>
-      </c>
-      <c r="B393" t="s">
-        <v>5</v>
-      </c>
-      <c r="C393">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" hidden="1">
-      <c r="A394" t="s">
-        <v>210</v>
-      </c>
-      <c r="B394" t="s">
-        <v>6</v>
-      </c>
       <c r="C394">
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1">
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B395" t="s">
-        <v>211</v>
+        <v>371</v>
       </c>
       <c r="C395">
         <v>0</v>
@@ -6293,12 +6306,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1">
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B396" t="s">
-        <v>212</v>
+        <v>372</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -6312,12 +6325,9 @@
         <v>210</v>
       </c>
       <c r="B397" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C397">
-        <v>0</v>
-      </c>
-      <c r="D397">
         <v>1</v>
       </c>
     </row>
@@ -6326,13 +6336,10 @@
         <v>210</v>
       </c>
       <c r="B398" t="s">
-        <v>213</v>
+        <v>6</v>
       </c>
       <c r="C398">
         <v>0</v>
-      </c>
-      <c r="D398">
-        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:4" hidden="1">
@@ -6340,7 +6347,7 @@
         <v>210</v>
       </c>
       <c r="B399" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -6354,7 +6361,7 @@
         <v>210</v>
       </c>
       <c r="B400" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -6368,7 +6375,7 @@
         <v>210</v>
       </c>
       <c r="B401" t="s">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -6382,7 +6389,7 @@
         <v>210</v>
       </c>
       <c r="B402" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -6396,10 +6403,13 @@
         <v>210</v>
       </c>
       <c r="B403" t="s">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="C403">
         <v>0</v>
+      </c>
+      <c r="D403">
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:4" hidden="1">
@@ -6407,54 +6417,63 @@
         <v>210</v>
       </c>
       <c r="B404" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C404">
+        <v>0</v>
+      </c>
+      <c r="D404">
         <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:4" hidden="1">
       <c r="A405" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B405" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="C405">
+        <v>0</v>
+      </c>
+      <c r="D405">
         <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:4" hidden="1">
       <c r="A406" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B406" t="s">
-        <v>6</v>
+        <v>216</v>
       </c>
       <c r="C406">
         <v>0</v>
+      </c>
+      <c r="D406">
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:4" hidden="1">
       <c r="A407" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B407" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:4" hidden="1">
       <c r="A408" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B408" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="C408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:4" hidden="1">
@@ -6462,12 +6481,9 @@
         <v>217</v>
       </c>
       <c r="B409" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C409">
-        <v>0</v>
-      </c>
-      <c r="D409">
         <v>1</v>
       </c>
     </row>
@@ -6476,13 +6492,10 @@
         <v>217</v>
       </c>
       <c r="B410" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="C410">
         <v>0</v>
-      </c>
-      <c r="D410">
-        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:4" hidden="1">
@@ -6490,12 +6503,9 @@
         <v>217</v>
       </c>
       <c r="B411" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="C411">
-        <v>0</v>
-      </c>
-      <c r="D411">
         <v>1</v>
       </c>
     </row>
@@ -6504,13 +6514,10 @@
         <v>217</v>
       </c>
       <c r="B412" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="C412">
         <v>0</v>
-      </c>
-      <c r="D412">
-        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:4" hidden="1">
@@ -6518,7 +6525,7 @@
         <v>217</v>
       </c>
       <c r="B413" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -6532,10 +6539,13 @@
         <v>217</v>
       </c>
       <c r="B414" t="s">
-        <v>219</v>
+        <v>64</v>
       </c>
       <c r="C414">
         <v>0</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:4" hidden="1">
@@ -6543,7 +6553,7 @@
         <v>217</v>
       </c>
       <c r="B415" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="C415">
         <v>0</v>
@@ -6557,10 +6567,13 @@
         <v>217</v>
       </c>
       <c r="B416" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C416">
         <v>0</v>
+      </c>
+      <c r="D416">
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:4" hidden="1">
@@ -6568,7 +6581,7 @@
         <v>217</v>
       </c>
       <c r="B417" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="C417">
         <v>0</v>
@@ -6582,13 +6595,10 @@
         <v>217</v>
       </c>
       <c r="B418" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C418">
         <v>0</v>
-      </c>
-      <c r="D418">
-        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:4" hidden="1">
@@ -6596,7 +6606,7 @@
         <v>217</v>
       </c>
       <c r="B419" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -6610,13 +6620,10 @@
         <v>217</v>
       </c>
       <c r="B420" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C420">
         <v>0</v>
-      </c>
-      <c r="D420">
-        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:4" hidden="1">
@@ -6624,7 +6631,7 @@
         <v>217</v>
       </c>
       <c r="B421" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -6638,7 +6645,7 @@
         <v>217</v>
       </c>
       <c r="B422" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C422">
         <v>0</v>
@@ -6652,7 +6659,7 @@
         <v>217</v>
       </c>
       <c r="B423" t="s">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -6666,7 +6673,7 @@
         <v>217</v>
       </c>
       <c r="B424" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C424">
         <v>0</v>
@@ -6680,10 +6687,13 @@
         <v>217</v>
       </c>
       <c r="B425" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C425">
         <v>0</v>
+      </c>
+      <c r="D425">
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:4" hidden="1">
@@ -6691,10 +6701,13 @@
         <v>217</v>
       </c>
       <c r="B426" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C426">
         <v>0</v>
+      </c>
+      <c r="D426">
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:4" hidden="1">
@@ -6702,7 +6715,7 @@
         <v>217</v>
       </c>
       <c r="B427" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -6716,7 +6729,7 @@
         <v>217</v>
       </c>
       <c r="B428" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C428">
         <v>0</v>
@@ -6730,13 +6743,10 @@
         <v>217</v>
       </c>
       <c r="B429" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="C429">
         <v>0</v>
-      </c>
-      <c r="D429">
-        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:4" hidden="1">
@@ -6744,7 +6754,7 @@
         <v>217</v>
       </c>
       <c r="B430" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -6755,10 +6765,13 @@
         <v>217</v>
       </c>
       <c r="B431" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C431">
         <v>0</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:4" hidden="1">
@@ -6766,7 +6779,7 @@
         <v>217</v>
       </c>
       <c r="B432" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C432">
         <v>0</v>
@@ -6780,7 +6793,7 @@
         <v>217</v>
       </c>
       <c r="B433" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -6794,7 +6807,7 @@
         <v>217</v>
       </c>
       <c r="B434" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -6805,7 +6818,7 @@
         <v>217</v>
       </c>
       <c r="B435" t="s">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -6816,7 +6829,7 @@
         <v>217</v>
       </c>
       <c r="B436" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C436">
         <v>0</v>
@@ -6827,32 +6840,35 @@
     </row>
     <row r="437" spans="1:4" hidden="1">
       <c r="A437" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B437" t="s">
-        <v>5</v>
+        <v>234</v>
       </c>
       <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437">
         <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:4" hidden="1">
       <c r="A438" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B438" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:4" hidden="1">
       <c r="A439" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B439" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="C439">
         <v>0</v>
@@ -6860,12 +6876,15 @@
     </row>
     <row r="440" spans="1:4" hidden="1">
       <c r="A440" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B440" t="s">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="C440">
+        <v>0</v>
+      </c>
+      <c r="D440">
         <v>1</v>
       </c>
     </row>
@@ -6874,10 +6893,10 @@
         <v>237</v>
       </c>
       <c r="B441" t="s">
-        <v>238</v>
+        <v>5</v>
       </c>
       <c r="C441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:4" hidden="1">
@@ -6885,12 +6904,9 @@
         <v>237</v>
       </c>
       <c r="B442" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="C442">
-        <v>0</v>
-      </c>
-      <c r="D442">
         <v>1</v>
       </c>
     </row>
@@ -6899,13 +6915,10 @@
         <v>237</v>
       </c>
       <c r="B443" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="C443">
         <v>0</v>
-      </c>
-      <c r="D443">
-        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:4" hidden="1">
@@ -6913,12 +6926,9 @@
         <v>237</v>
       </c>
       <c r="B444" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="C444">
-        <v>0</v>
-      </c>
-      <c r="D444">
         <v>1</v>
       </c>
     </row>
@@ -6927,13 +6937,10 @@
         <v>237</v>
       </c>
       <c r="B445" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C445">
         <v>0</v>
-      </c>
-      <c r="D445">
-        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:4" hidden="1">
@@ -6941,7 +6948,7 @@
         <v>237</v>
       </c>
       <c r="B446" t="s">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="C446">
         <v>0</v>
@@ -6955,7 +6962,7 @@
         <v>237</v>
       </c>
       <c r="B447" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -6969,7 +6976,7 @@
         <v>237</v>
       </c>
       <c r="B448" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C448">
         <v>0</v>
@@ -6983,7 +6990,7 @@
         <v>237</v>
       </c>
       <c r="B449" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C449">
         <v>0</v>
@@ -6997,7 +7004,7 @@
         <v>237</v>
       </c>
       <c r="B450" t="s">
-        <v>246</v>
+        <v>120</v>
       </c>
       <c r="C450">
         <v>0</v>
@@ -7011,7 +7018,7 @@
         <v>237</v>
       </c>
       <c r="B451" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C451">
         <v>0</v>
@@ -7025,7 +7032,7 @@
         <v>237</v>
       </c>
       <c r="B452" t="s">
-        <v>33</v>
+        <v>244</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -7039,7 +7046,7 @@
         <v>237</v>
       </c>
       <c r="B453" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C453">
         <v>0</v>
@@ -7053,7 +7060,7 @@
         <v>237</v>
       </c>
       <c r="B454" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="C454">
         <v>0</v>
@@ -7067,7 +7074,7 @@
         <v>237</v>
       </c>
       <c r="B455" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="C455">
         <v>0</v>
@@ -7081,7 +7088,7 @@
         <v>237</v>
       </c>
       <c r="B456" t="s">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -7095,10 +7102,13 @@
         <v>237</v>
       </c>
       <c r="B457" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="C457">
         <v>0</v>
+      </c>
+      <c r="D457">
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:4" hidden="1">
@@ -7106,10 +7116,13 @@
         <v>237</v>
       </c>
       <c r="B458" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C458">
         <v>0</v>
+      </c>
+      <c r="D458">
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:4" hidden="1">
@@ -7117,18 +7130,21 @@
         <v>237</v>
       </c>
       <c r="B459" t="s">
-        <v>64</v>
+        <v>231</v>
       </c>
       <c r="C459">
         <v>0</v>
+      </c>
+      <c r="D459">
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:4" hidden="1">
       <c r="A460" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B460" t="s">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="C460">
         <v>0</v>
@@ -7139,32 +7155,32 @@
     </row>
     <row r="461" spans="1:4" hidden="1">
       <c r="A461" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B461" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="C461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:4" hidden="1">
       <c r="A462" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B462" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:4" hidden="1">
       <c r="A463" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B463" t="s">
-        <v>250</v>
+        <v>64</v>
       </c>
       <c r="C463">
         <v>0</v>
@@ -7175,10 +7191,13 @@
         <v>249</v>
       </c>
       <c r="B464" t="s">
-        <v>251</v>
+        <v>33</v>
       </c>
       <c r="C464">
         <v>0</v>
+      </c>
+      <c r="D464">
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:4" hidden="1">
@@ -7186,10 +7205,10 @@
         <v>249</v>
       </c>
       <c r="B465" t="s">
-        <v>252</v>
+        <v>5</v>
       </c>
       <c r="C465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:4" hidden="1">
@@ -7197,10 +7216,10 @@
         <v>249</v>
       </c>
       <c r="B466" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:4" hidden="1">
@@ -7208,7 +7227,7 @@
         <v>249</v>
       </c>
       <c r="B467" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -7219,10 +7238,10 @@
         <v>249</v>
       </c>
       <c r="B468" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="C468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:4" hidden="1">
@@ -7230,7 +7249,7 @@
         <v>249</v>
       </c>
       <c r="B469" t="s">
-        <v>116</v>
+        <v>252</v>
       </c>
       <c r="C469">
         <v>0</v>
@@ -7241,7 +7260,7 @@
         <v>249</v>
       </c>
       <c r="B470" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="C470">
         <v>0</v>
@@ -7252,7 +7271,7 @@
         <v>249</v>
       </c>
       <c r="B471" t="s">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -7263,10 +7282,10 @@
         <v>249</v>
       </c>
       <c r="B472" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:4" hidden="1">
@@ -7274,7 +7293,7 @@
         <v>249</v>
       </c>
       <c r="B473" t="s">
-        <v>254</v>
+        <v>116</v>
       </c>
       <c r="C473">
         <v>0</v>
@@ -7285,13 +7304,10 @@
         <v>249</v>
       </c>
       <c r="B474" t="s">
-        <v>225</v>
+        <v>6</v>
       </c>
       <c r="C474">
         <v>0</v>
-      </c>
-      <c r="D474">
-        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:4" hidden="1">
@@ -7299,13 +7315,10 @@
         <v>249</v>
       </c>
       <c r="B475" t="s">
-        <v>226</v>
+        <v>63</v>
       </c>
       <c r="C475">
         <v>0</v>
-      </c>
-      <c r="D475">
-        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:4" hidden="1">
@@ -7313,13 +7326,10 @@
         <v>249</v>
       </c>
       <c r="B476" t="s">
-        <v>255</v>
+        <v>64</v>
       </c>
       <c r="C476">
         <v>0</v>
-      </c>
-      <c r="D476">
-        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:4" hidden="1">
@@ -7327,13 +7337,10 @@
         <v>249</v>
       </c>
       <c r="B477" t="s">
-        <v>86</v>
+        <v>254</v>
       </c>
       <c r="C477">
         <v>0</v>
-      </c>
-      <c r="D477">
-        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:4" hidden="1">
@@ -7341,10 +7348,13 @@
         <v>249</v>
       </c>
       <c r="B478" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="C478">
         <v>0</v>
+      </c>
+      <c r="D478">
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:4" hidden="1">
@@ -7352,10 +7362,13 @@
         <v>249</v>
       </c>
       <c r="B479" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="C479">
         <v>0</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:4" hidden="1">
@@ -7363,10 +7376,13 @@
         <v>249</v>
       </c>
       <c r="B480" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C480">
         <v>0</v>
+      </c>
+      <c r="D480">
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:4" hidden="1">
@@ -7374,7 +7390,7 @@
         <v>249</v>
       </c>
       <c r="B481" t="s">
-        <v>259</v>
+        <v>86</v>
       </c>
       <c r="C481">
         <v>0</v>
@@ -7388,13 +7404,10 @@
         <v>249</v>
       </c>
       <c r="B482" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C482">
         <v>0</v>
-      </c>
-      <c r="D482">
-        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:4" hidden="1">
@@ -7402,7 +7415,7 @@
         <v>249</v>
       </c>
       <c r="B483" t="s">
-        <v>109</v>
+        <v>257</v>
       </c>
       <c r="C483">
         <v>0</v>
@@ -7413,7 +7426,7 @@
         <v>249</v>
       </c>
       <c r="B484" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C484">
         <v>0</v>
@@ -7424,10 +7437,13 @@
         <v>249</v>
       </c>
       <c r="B485" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="C485">
         <v>0</v>
+      </c>
+      <c r="D485">
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:4" hidden="1">
@@ -7435,10 +7451,13 @@
         <v>249</v>
       </c>
       <c r="B486" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C486">
         <v>0</v>
+      </c>
+      <c r="D486">
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:4" hidden="1">
@@ -7446,7 +7465,7 @@
         <v>249</v>
       </c>
       <c r="B487" t="s">
-        <v>263</v>
+        <v>109</v>
       </c>
       <c r="C487">
         <v>0</v>
@@ -7457,7 +7476,7 @@
         <v>249</v>
       </c>
       <c r="B488" t="s">
-        <v>110</v>
+        <v>261</v>
       </c>
       <c r="C488">
         <v>0</v>
@@ -7468,7 +7487,7 @@
         <v>249</v>
       </c>
       <c r="B489" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -7479,7 +7498,7 @@
         <v>249</v>
       </c>
       <c r="B490" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C490">
         <v>0</v>
@@ -7490,7 +7509,7 @@
         <v>249</v>
       </c>
       <c r="B491" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C491">
         <v>0</v>
@@ -7501,7 +7520,7 @@
         <v>249</v>
       </c>
       <c r="B492" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C492">
         <v>0</v>
@@ -7512,7 +7531,7 @@
         <v>249</v>
       </c>
       <c r="B493" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C493">
         <v>0</v>
@@ -7523,7 +7542,7 @@
         <v>249</v>
       </c>
       <c r="B494" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C494">
         <v>0</v>
@@ -7534,13 +7553,10 @@
         <v>249</v>
       </c>
       <c r="B495" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C495">
         <v>0</v>
-      </c>
-      <c r="D495">
-        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:4" hidden="1">
@@ -7548,13 +7564,10 @@
         <v>249</v>
       </c>
       <c r="B496" t="s">
-        <v>270</v>
+        <v>126</v>
       </c>
       <c r="C496">
         <v>0</v>
-      </c>
-      <c r="D496">
-        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:4" hidden="1">
@@ -7562,7 +7575,7 @@
         <v>249</v>
       </c>
       <c r="B497" t="s">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="C497">
         <v>0</v>
@@ -7573,7 +7586,7 @@
         <v>249</v>
       </c>
       <c r="B498" t="s">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="C498">
         <v>0</v>
@@ -7584,10 +7597,13 @@
         <v>249</v>
       </c>
       <c r="B499" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C499">
         <v>0</v>
+      </c>
+      <c r="D499">
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:4" hidden="1">
@@ -7595,7 +7611,7 @@
         <v>249</v>
       </c>
       <c r="B500" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C500">
         <v>0</v>
@@ -7609,7 +7625,7 @@
         <v>249</v>
       </c>
       <c r="B501" t="s">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -7620,7 +7636,7 @@
         <v>249</v>
       </c>
       <c r="B502" t="s">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -7631,7 +7647,7 @@
         <v>249</v>
       </c>
       <c r="B503" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C503">
         <v>0</v>
@@ -7642,10 +7658,13 @@
         <v>249</v>
       </c>
       <c r="B504" t="s">
-        <v>124</v>
+        <v>272</v>
       </c>
       <c r="C504">
         <v>0</v>
+      </c>
+      <c r="D504">
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:4" hidden="1">
@@ -7653,7 +7672,7 @@
         <v>249</v>
       </c>
       <c r="B505" t="s">
-        <v>125</v>
+        <v>273</v>
       </c>
       <c r="C505">
         <v>0</v>
@@ -7664,7 +7683,7 @@
         <v>249</v>
       </c>
       <c r="B506" t="s">
-        <v>119</v>
+        <v>274</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -7675,7 +7694,7 @@
         <v>249</v>
       </c>
       <c r="B507" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -7686,13 +7705,10 @@
         <v>249</v>
       </c>
       <c r="B508" t="s">
-        <v>277</v>
+        <v>124</v>
       </c>
       <c r="C508">
         <v>0</v>
-      </c>
-      <c r="D508">
-        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:4" hidden="1">
@@ -7700,13 +7716,10 @@
         <v>249</v>
       </c>
       <c r="B509" t="s">
-        <v>278</v>
+        <v>125</v>
       </c>
       <c r="C509">
         <v>0</v>
-      </c>
-      <c r="D509">
-        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:4" hidden="1">
@@ -7714,7 +7727,7 @@
         <v>249</v>
       </c>
       <c r="B510" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="C510">
         <v>0</v>
@@ -7725,7 +7738,7 @@
         <v>249</v>
       </c>
       <c r="B511" t="s">
-        <v>339</v>
+        <v>276</v>
       </c>
       <c r="C511">
         <v>0</v>
@@ -7733,186 +7746,192 @@
     </row>
     <row r="512" spans="1:4" hidden="1">
       <c r="A512" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="B512" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="C512">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3" hidden="1">
+        <v>0</v>
+      </c>
+      <c r="D512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" hidden="1">
       <c r="A513" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="B513" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="C513">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3" hidden="1">
+        <v>0</v>
+      </c>
+      <c r="D513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" hidden="1">
       <c r="A514" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="B514" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C514">
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:3" hidden="1">
+    <row r="515" spans="1:4" hidden="1">
       <c r="A515" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="B515" t="s">
-        <v>71</v>
+        <v>339</v>
       </c>
       <c r="C515">
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:3" hidden="1">
+    <row r="516" spans="1:4" hidden="1">
       <c r="A516" t="s">
         <v>279</v>
       </c>
       <c r="B516" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C516">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" hidden="1">
       <c r="A517" t="s">
         <v>279</v>
       </c>
       <c r="B517" t="s">
-        <v>280</v>
+        <v>69</v>
       </c>
       <c r="C517">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" hidden="1">
       <c r="A518" t="s">
         <v>279</v>
       </c>
       <c r="B518" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="C518">
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:3" hidden="1">
+    <row r="519" spans="1:4" hidden="1">
       <c r="A519" t="s">
         <v>279</v>
       </c>
       <c r="B519" t="s">
-        <v>261</v>
+        <v>71</v>
       </c>
       <c r="C519">
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:3" hidden="1">
+    <row r="520" spans="1:4" hidden="1">
       <c r="A520" t="s">
         <v>279</v>
       </c>
       <c r="B520" t="s">
-        <v>281</v>
+        <v>66</v>
       </c>
       <c r="C520">
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:3" hidden="1">
+    <row r="521" spans="1:4" hidden="1">
       <c r="A521" t="s">
         <v>279</v>
       </c>
       <c r="B521" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="C521">
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:3" hidden="1">
+    <row r="522" spans="1:4" hidden="1">
       <c r="A522" t="s">
         <v>279</v>
       </c>
       <c r="B522" t="s">
-        <v>282</v>
+        <v>109</v>
       </c>
       <c r="C522">
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:3" hidden="1">
+    <row r="523" spans="1:4" hidden="1">
       <c r="A523" t="s">
         <v>279</v>
       </c>
       <c r="B523" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="C523">
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:3" hidden="1">
+    <row r="524" spans="1:4" hidden="1">
       <c r="A524" t="s">
         <v>279</v>
       </c>
       <c r="B524" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C524">
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:3" hidden="1">
+    <row r="525" spans="1:4" hidden="1">
       <c r="A525" t="s">
         <v>279</v>
       </c>
       <c r="B525" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C525">
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:3" hidden="1">
+    <row r="526" spans="1:4" hidden="1">
       <c r="A526" t="s">
         <v>279</v>
       </c>
       <c r="B526" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C526">
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:3" hidden="1">
+    <row r="527" spans="1:4" hidden="1">
       <c r="A527" t="s">
         <v>279</v>
       </c>
       <c r="B527" t="s">
-        <v>67</v>
+        <v>283</v>
       </c>
       <c r="C527">
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:3" hidden="1">
+    <row r="528" spans="1:4" hidden="1">
       <c r="A528" t="s">
         <v>279</v>
       </c>
       <c r="B528" t="s">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c r="C528">
         <v>0</v>
@@ -7923,7 +7942,7 @@
         <v>279</v>
       </c>
       <c r="B529" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="C529">
         <v>0</v>
@@ -7934,7 +7953,7 @@
         <v>279</v>
       </c>
       <c r="B530" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="C530">
         <v>0</v>
@@ -7945,7 +7964,7 @@
         <v>279</v>
       </c>
       <c r="B531" t="s">
-        <v>266</v>
+        <v>67</v>
       </c>
       <c r="C531">
         <v>0</v>
@@ -7956,7 +7975,7 @@
         <v>279</v>
       </c>
       <c r="B532" t="s">
-        <v>287</v>
+        <v>110</v>
       </c>
       <c r="C532">
         <v>0</v>
@@ -7967,7 +7986,7 @@
         <v>279</v>
       </c>
       <c r="B533" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="C533">
         <v>0</v>
@@ -7978,7 +7997,7 @@
         <v>279</v>
       </c>
       <c r="B534" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="C534">
         <v>0</v>
@@ -7989,7 +8008,7 @@
         <v>279</v>
       </c>
       <c r="B535" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="C535">
         <v>0</v>
@@ -8000,7 +8019,7 @@
         <v>279</v>
       </c>
       <c r="B536" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C536">
         <v>0</v>
@@ -8011,7 +8030,7 @@
         <v>279</v>
       </c>
       <c r="B537" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C537">
         <v>0</v>
@@ -8022,13 +8041,10 @@
         <v>279</v>
       </c>
       <c r="B538" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C538">
         <v>0</v>
-      </c>
-      <c r="D538">
-        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:4" hidden="1">
@@ -8036,13 +8052,10 @@
         <v>279</v>
       </c>
       <c r="B539" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C539">
         <v>0</v>
-      </c>
-      <c r="D539">
-        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:4" hidden="1">
@@ -8050,7 +8063,7 @@
         <v>279</v>
       </c>
       <c r="B540" t="s">
-        <v>126</v>
+        <v>291</v>
       </c>
       <c r="C540">
         <v>0</v>
@@ -8058,49 +8071,52 @@
     </row>
     <row r="541" spans="1:4" hidden="1">
       <c r="A541" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B541" t="s">
-        <v>33</v>
+        <v>292</v>
       </c>
       <c r="C541">
         <v>0</v>
-      </c>
-      <c r="D541">
-        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:4" hidden="1">
       <c r="A542" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B542" t="s">
-        <v>5</v>
+        <v>293</v>
       </c>
       <c r="C542">
+        <v>0</v>
+      </c>
+      <c r="D542">
         <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:4" hidden="1">
       <c r="A543" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B543" t="s">
-        <v>112</v>
+        <v>294</v>
       </c>
       <c r="C543">
         <v>0</v>
+      </c>
+      <c r="D543">
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:4" hidden="1">
       <c r="A544" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B544" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="C544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:4" hidden="1">
@@ -8108,10 +8124,13 @@
         <v>295</v>
       </c>
       <c r="B545" t="s">
-        <v>251</v>
+        <v>33</v>
       </c>
       <c r="C545">
         <v>0</v>
+      </c>
+      <c r="D545">
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:4" hidden="1">
@@ -8119,12 +8138,9 @@
         <v>295</v>
       </c>
       <c r="B546" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="C546">
-        <v>0</v>
-      </c>
-      <c r="D546">
         <v>1</v>
       </c>
     </row>
@@ -8133,13 +8149,10 @@
         <v>295</v>
       </c>
       <c r="B547" t="s">
-        <v>225</v>
+        <v>112</v>
       </c>
       <c r="C547">
         <v>0</v>
-      </c>
-      <c r="D547">
-        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:4" hidden="1">
@@ -8147,10 +8160,10 @@
         <v>295</v>
       </c>
       <c r="B548" t="s">
-        <v>256</v>
+        <v>71</v>
       </c>
       <c r="C548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:4" hidden="1">
@@ -8158,10 +8171,10 @@
         <v>295</v>
       </c>
       <c r="B549" t="s">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="C549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:4" hidden="1">
@@ -8169,7 +8182,7 @@
         <v>295</v>
       </c>
       <c r="B550" t="s">
-        <v>296</v>
+        <v>120</v>
       </c>
       <c r="C550">
         <v>0</v>
@@ -8183,7 +8196,7 @@
         <v>295</v>
       </c>
       <c r="B551" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="C551">
         <v>0</v>
@@ -8197,13 +8210,10 @@
         <v>295</v>
       </c>
       <c r="B552" t="s">
-        <v>106</v>
+        <v>256</v>
       </c>
       <c r="C552">
         <v>0</v>
-      </c>
-      <c r="D552">
-        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:4" hidden="1">
@@ -8211,12 +8221,9 @@
         <v>295</v>
       </c>
       <c r="B553" t="s">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="C553">
-        <v>0</v>
-      </c>
-      <c r="D553">
         <v>1</v>
       </c>
     </row>
@@ -8225,7 +8232,7 @@
         <v>295</v>
       </c>
       <c r="B554" t="s">
-        <v>86</v>
+        <v>296</v>
       </c>
       <c r="C554">
         <v>0</v>
@@ -8239,10 +8246,13 @@
         <v>295</v>
       </c>
       <c r="B555" t="s">
-        <v>116</v>
+        <v>297</v>
       </c>
       <c r="C555">
         <v>0</v>
+      </c>
+      <c r="D555">
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:4" hidden="1">
@@ -8250,10 +8260,13 @@
         <v>295</v>
       </c>
       <c r="B556" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C556">
         <v>0</v>
+      </c>
+      <c r="D556">
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:4" hidden="1">
@@ -8261,10 +8274,13 @@
         <v>295</v>
       </c>
       <c r="B557" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="C557">
         <v>0</v>
+      </c>
+      <c r="D557">
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:4" hidden="1">
@@ -8272,10 +8288,13 @@
         <v>295</v>
       </c>
       <c r="B558" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C558">
         <v>0</v>
+      </c>
+      <c r="D558">
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:4" hidden="1">
@@ -8283,7 +8302,7 @@
         <v>295</v>
       </c>
       <c r="B559" t="s">
-        <v>299</v>
+        <v>116</v>
       </c>
       <c r="C559">
         <v>0</v>
@@ -8294,7 +8313,7 @@
         <v>295</v>
       </c>
       <c r="B560" t="s">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="C560">
         <v>0</v>
@@ -8305,7 +8324,7 @@
         <v>295</v>
       </c>
       <c r="B561" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C561">
         <v>0</v>
@@ -8316,13 +8335,10 @@
         <v>295</v>
       </c>
       <c r="B562" t="s">
-        <v>302</v>
+        <v>54</v>
       </c>
       <c r="C562">
         <v>0</v>
-      </c>
-      <c r="D562">
-        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:4" hidden="1">
@@ -8330,13 +8346,10 @@
         <v>295</v>
       </c>
       <c r="B563" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C563">
         <v>0</v>
-      </c>
-      <c r="D563">
-        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:4" hidden="1">
@@ -8344,13 +8357,10 @@
         <v>295</v>
       </c>
       <c r="B564" t="s">
-        <v>89</v>
+        <v>300</v>
       </c>
       <c r="C564">
         <v>0</v>
-      </c>
-      <c r="D564">
-        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:4" hidden="1">
@@ -8358,13 +8368,10 @@
         <v>295</v>
       </c>
       <c r="B565" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C565">
         <v>0</v>
-      </c>
-      <c r="D565">
-        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:4" hidden="1">
@@ -8372,10 +8379,13 @@
         <v>295</v>
       </c>
       <c r="B566" t="s">
-        <v>6</v>
+        <v>302</v>
       </c>
       <c r="C566">
         <v>0</v>
+      </c>
+      <c r="D566">
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:4" hidden="1">
@@ -8383,10 +8393,13 @@
         <v>295</v>
       </c>
       <c r="B567" t="s">
-        <v>34</v>
+        <v>303</v>
       </c>
       <c r="C567">
         <v>0</v>
+      </c>
+      <c r="D567">
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:4" hidden="1">
@@ -8394,10 +8407,13 @@
         <v>295</v>
       </c>
       <c r="B568" t="s">
-        <v>305</v>
+        <v>89</v>
       </c>
       <c r="C568">
         <v>0</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:4" hidden="1">
@@ -8405,10 +8421,13 @@
         <v>295</v>
       </c>
       <c r="B569" t="s">
-        <v>69</v>
+        <v>304</v>
       </c>
       <c r="C569">
         <v>0</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:4" hidden="1">
@@ -8416,10 +8435,10 @@
         <v>295</v>
       </c>
       <c r="B570" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="C570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:4" hidden="1">
@@ -8427,7 +8446,7 @@
         <v>295</v>
       </c>
       <c r="B571" t="s">
-        <v>306</v>
+        <v>34</v>
       </c>
       <c r="C571">
         <v>0</v>
@@ -8438,7 +8457,7 @@
         <v>295</v>
       </c>
       <c r="B572" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C572">
         <v>0</v>
@@ -8449,7 +8468,7 @@
         <v>295</v>
       </c>
       <c r="B573" t="s">
-        <v>257</v>
+        <v>69</v>
       </c>
       <c r="C573">
         <v>0</v>
@@ -8460,12 +8479,9 @@
         <v>295</v>
       </c>
       <c r="B574" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C574">
-        <v>0</v>
-      </c>
-      <c r="D574">
         <v>1</v>
       </c>
     </row>
@@ -8474,7 +8490,7 @@
         <v>295</v>
       </c>
       <c r="B575" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="C575">
         <v>0</v>
@@ -8485,57 +8501,57 @@
         <v>295</v>
       </c>
       <c r="B576" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="C576">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:4" hidden="1">
       <c r="A577" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B577" t="s">
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="C577">
         <v>0</v>
-      </c>
-      <c r="D577">
-        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:4" hidden="1">
       <c r="A578" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B578" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C578">
+        <v>0</v>
+      </c>
+      <c r="D578">
         <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:4" hidden="1">
       <c r="A579" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B579" t="s">
-        <v>71</v>
+        <v>334</v>
       </c>
       <c r="C579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:4" hidden="1">
       <c r="A580" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B580" t="s">
-        <v>69</v>
+        <v>336</v>
       </c>
       <c r="C580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:4" hidden="1">
@@ -8543,9 +8559,12 @@
         <v>308</v>
       </c>
       <c r="B581" t="s">
-        <v>70</v>
+        <v>331</v>
       </c>
       <c r="C581">
+        <v>0</v>
+      </c>
+      <c r="D581">
         <v>1</v>
       </c>
     </row>
@@ -8554,7 +8573,7 @@
         <v>308</v>
       </c>
       <c r="B582" t="s">
-        <v>309</v>
+        <v>5</v>
       </c>
       <c r="C582">
         <v>1</v>
@@ -8565,7 +8584,7 @@
         <v>308</v>
       </c>
       <c r="B583" t="s">
-        <v>310</v>
+        <v>71</v>
       </c>
       <c r="C583">
         <v>1</v>
@@ -8576,7 +8595,7 @@
         <v>308</v>
       </c>
       <c r="B584" t="s">
-        <v>311</v>
+        <v>69</v>
       </c>
       <c r="C584">
         <v>0</v>
@@ -8587,10 +8606,10 @@
         <v>308</v>
       </c>
       <c r="B585" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:4" hidden="1">
@@ -8598,10 +8617,10 @@
         <v>308</v>
       </c>
       <c r="B586" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:4" hidden="1">
@@ -8609,12 +8628,9 @@
         <v>308</v>
       </c>
       <c r="B587" t="s">
-        <v>55</v>
+        <v>310</v>
       </c>
       <c r="C587">
-        <v>0</v>
-      </c>
-      <c r="D587">
         <v>1</v>
       </c>
     </row>
@@ -8623,13 +8639,10 @@
         <v>308</v>
       </c>
       <c r="B588" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C588">
         <v>0</v>
-      </c>
-      <c r="D588">
-        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:4" hidden="1">
@@ -8637,7 +8650,7 @@
         <v>308</v>
       </c>
       <c r="B589" t="s">
-        <v>314</v>
+        <v>50</v>
       </c>
       <c r="C589">
         <v>0</v>
@@ -8648,13 +8661,10 @@
         <v>308</v>
       </c>
       <c r="B590" t="s">
-        <v>221</v>
+        <v>312</v>
       </c>
       <c r="C590">
         <v>0</v>
-      </c>
-      <c r="D590">
-        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:4" hidden="1">
@@ -8662,10 +8672,13 @@
         <v>308</v>
       </c>
       <c r="B591" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="C591">
         <v>0</v>
+      </c>
+      <c r="D591">
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:4" hidden="1">
@@ -8673,7 +8686,7 @@
         <v>308</v>
       </c>
       <c r="B592" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C592">
         <v>0</v>
@@ -8687,13 +8700,10 @@
         <v>308</v>
       </c>
       <c r="B593" t="s">
-        <v>18</v>
+        <v>314</v>
       </c>
       <c r="C593">
         <v>0</v>
-      </c>
-      <c r="D593">
-        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:4" hidden="1">
@@ -8701,7 +8711,7 @@
         <v>308</v>
       </c>
       <c r="B594" t="s">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="C594">
         <v>0</v>
@@ -8715,13 +8725,10 @@
         <v>308</v>
       </c>
       <c r="B595" t="s">
-        <v>317</v>
+        <v>112</v>
       </c>
       <c r="C595">
         <v>0</v>
-      </c>
-      <c r="D595">
-        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:4" hidden="1">
@@ -8729,10 +8736,13 @@
         <v>308</v>
       </c>
       <c r="B596" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C596">
         <v>0</v>
+      </c>
+      <c r="D596">
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:4" hidden="1">
@@ -8740,7 +8750,7 @@
         <v>308</v>
       </c>
       <c r="B597" t="s">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="C597">
         <v>0</v>
@@ -8754,10 +8764,13 @@
         <v>308</v>
       </c>
       <c r="B598" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C598">
         <v>0</v>
+      </c>
+      <c r="D598">
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:4" hidden="1">
@@ -8765,10 +8778,13 @@
         <v>308</v>
       </c>
       <c r="B599" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C599">
         <v>0</v>
+      </c>
+      <c r="D599">
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:4" hidden="1">
@@ -8776,7 +8792,7 @@
         <v>308</v>
       </c>
       <c r="B600" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C600">
         <v>0</v>
@@ -8787,10 +8803,13 @@
         <v>308</v>
       </c>
       <c r="B601" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="C601">
         <v>0</v>
+      </c>
+      <c r="D601">
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:4" hidden="1">
@@ -8798,7 +8817,7 @@
         <v>308</v>
       </c>
       <c r="B602" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C602">
         <v>0</v>
@@ -8809,7 +8828,7 @@
         <v>308</v>
       </c>
       <c r="B603" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C603">
         <v>0</v>
@@ -8820,7 +8839,7 @@
         <v>308</v>
       </c>
       <c r="B604" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C604">
         <v>0</v>
@@ -8831,7 +8850,7 @@
         <v>308</v>
       </c>
       <c r="B605" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C605">
         <v>0</v>
@@ -8842,7 +8861,7 @@
         <v>308</v>
       </c>
       <c r="B606" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C606">
         <v>0</v>
@@ -8853,7 +8872,7 @@
         <v>308</v>
       </c>
       <c r="B607" t="s">
-        <v>51</v>
+        <v>324</v>
       </c>
       <c r="C607">
         <v>0</v>
@@ -8864,7 +8883,7 @@
         <v>308</v>
       </c>
       <c r="B608" t="s">
-        <v>52</v>
+        <v>325</v>
       </c>
       <c r="C608">
         <v>0</v>
@@ -8875,7 +8894,7 @@
         <v>308</v>
       </c>
       <c r="B609" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C609">
         <v>0</v>
@@ -8886,41 +8905,40 @@
         <v>308</v>
       </c>
       <c r="B610" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C610">
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="15.75" hidden="1" thickBot="1">
-      <c r="A611" s="3" t="s">
+    <row r="611" spans="1:4" hidden="1">
+      <c r="A611" t="s">
         <v>308</v>
       </c>
-      <c r="B611" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C611" s="3">
-        <v>0</v>
-      </c>
-      <c r="D611" s="3"/>
+      <c r="B611" t="s">
+        <v>51</v>
+      </c>
+      <c r="C611">
+        <v>0</v>
+      </c>
     </row>
     <row r="612" spans="1:4" hidden="1">
       <c r="A612" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="B612" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:4" hidden="1">
       <c r="A613" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="B613" t="s">
-        <v>6</v>
+        <v>328</v>
       </c>
       <c r="C613">
         <v>0</v>
@@ -8928,35 +8946,36 @@
     </row>
     <row r="614" spans="1:4" hidden="1">
       <c r="A614" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="B614" t="s">
-        <v>3</v>
+        <v>329</v>
       </c>
       <c r="C614">
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1">
-      <c r="A615" t="s">
-        <v>350</v>
-      </c>
-      <c r="B615" t="s">
-        <v>39</v>
-      </c>
-      <c r="C615">
-        <v>0</v>
-      </c>
+    <row r="615" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A615" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C615" s="3">
+        <v>0</v>
+      </c>
+      <c r="D615" s="3"/>
     </row>
     <row r="616" spans="1:4" hidden="1">
       <c r="A616" t="s">
         <v>350</v>
       </c>
       <c r="B616" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:4" hidden="1">
@@ -8964,7 +8983,7 @@
         <v>350</v>
       </c>
       <c r="B617" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C617">
         <v>0</v>
@@ -8975,7 +8994,7 @@
         <v>350</v>
       </c>
       <c r="B618" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C618">
         <v>0</v>
@@ -8986,7 +9005,7 @@
         <v>350</v>
       </c>
       <c r="B619" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C619">
         <v>0</v>
@@ -8997,7 +9016,7 @@
         <v>350</v>
       </c>
       <c r="B620" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C620">
         <v>0</v>
@@ -9008,7 +9027,7 @@
         <v>350</v>
       </c>
       <c r="B621" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C621">
         <v>0</v>
@@ -9019,7 +9038,7 @@
         <v>350</v>
       </c>
       <c r="B622" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C622">
         <v>0</v>
@@ -9030,7 +9049,7 @@
         <v>350</v>
       </c>
       <c r="B623" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C623">
         <v>0</v>
@@ -9041,7 +9060,7 @@
         <v>350</v>
       </c>
       <c r="B624" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C624">
         <v>0</v>
@@ -9052,7 +9071,7 @@
         <v>350</v>
       </c>
       <c r="B625" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C625">
         <v>0</v>
@@ -9063,7 +9082,7 @@
         <v>350</v>
       </c>
       <c r="B626" t="s">
-        <v>351</v>
+        <v>17</v>
       </c>
       <c r="C626">
         <v>0</v>
@@ -9074,7 +9093,7 @@
         <v>350</v>
       </c>
       <c r="B627" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C627">
         <v>0</v>
@@ -9085,7 +9104,7 @@
         <v>350</v>
       </c>
       <c r="B628" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C628">
         <v>0</v>
@@ -9096,7 +9115,7 @@
         <v>350</v>
       </c>
       <c r="B629" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C629">
         <v>0</v>
@@ -9107,7 +9126,7 @@
         <v>350</v>
       </c>
       <c r="B630" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C630">
         <v>0</v>
@@ -9118,7 +9137,7 @@
         <v>350</v>
       </c>
       <c r="B631" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C631">
         <v>0</v>
@@ -9129,7 +9148,7 @@
         <v>350</v>
       </c>
       <c r="B632" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="C632">
         <v>0</v>
@@ -9140,7 +9159,7 @@
         <v>350</v>
       </c>
       <c r="B633" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C633">
         <v>0</v>
@@ -9151,7 +9170,7 @@
         <v>350</v>
       </c>
       <c r="B634" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C634">
         <v>0</v>
@@ -9162,7 +9181,7 @@
         <v>350</v>
       </c>
       <c r="B635" t="s">
-        <v>354</v>
+        <v>24</v>
       </c>
       <c r="C635">
         <v>0</v>
@@ -9173,7 +9192,7 @@
         <v>350</v>
       </c>
       <c r="B636" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C636">
         <v>0</v>
@@ -9184,7 +9203,7 @@
         <v>350</v>
       </c>
       <c r="B637" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C637">
         <v>0</v>
@@ -9195,7 +9214,7 @@
         <v>350</v>
       </c>
       <c r="B638" t="s">
-        <v>69</v>
+        <v>353</v>
       </c>
       <c r="C638">
         <v>0</v>
@@ -9206,7 +9225,7 @@
         <v>350</v>
       </c>
       <c r="B639" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C639">
         <v>0</v>
@@ -9217,7 +9236,7 @@
         <v>350</v>
       </c>
       <c r="B640" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C640">
         <v>0</v>
@@ -9228,41 +9247,40 @@
         <v>350</v>
       </c>
       <c r="B641" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C641">
         <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:4" hidden="1">
-      <c r="A642" s="2" t="s">
+      <c r="A642" t="s">
         <v>350</v>
       </c>
-      <c r="B642" s="2" t="s">
-        <v>36</v>
+      <c r="B642" t="s">
+        <v>69</v>
       </c>
       <c r="C642">
-        <v>1</v>
-      </c>
-      <c r="D642" s="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="643" spans="1:4" hidden="1">
       <c r="A643" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B643" t="s">
-        <v>5</v>
+        <v>355</v>
       </c>
       <c r="C643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:4" hidden="1">
       <c r="A644" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B644" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C644">
         <v>0</v>
@@ -9270,35 +9288,36 @@
     </row>
     <row r="645" spans="1:4" hidden="1">
       <c r="A645" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B645" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:4" hidden="1">
-      <c r="A646" t="s">
-        <v>356</v>
-      </c>
-      <c r="B646" t="s">
-        <v>337</v>
+      <c r="A646" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C646">
         <v>1</v>
       </c>
+      <c r="D646" s="2"/>
     </row>
     <row r="647" spans="1:4" hidden="1">
       <c r="A647" t="s">
         <v>356</v>
       </c>
       <c r="B647" t="s">
-        <v>338</v>
+        <v>5</v>
       </c>
       <c r="C647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:4" hidden="1">
@@ -9306,10 +9325,10 @@
         <v>356</v>
       </c>
       <c r="B648" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:4" hidden="1">
@@ -9317,10 +9336,10 @@
         <v>356</v>
       </c>
       <c r="B649" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:4" hidden="1">
@@ -9328,10 +9347,10 @@
         <v>356</v>
       </c>
       <c r="B650" t="s">
-        <v>23</v>
+        <v>337</v>
       </c>
       <c r="C650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:4" hidden="1">
@@ -9339,7 +9358,7 @@
         <v>356</v>
       </c>
       <c r="B651" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
       <c r="C651">
         <v>0</v>
@@ -9350,10 +9369,10 @@
         <v>356</v>
       </c>
       <c r="B652" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:4" hidden="1">
@@ -9361,7 +9380,7 @@
         <v>356</v>
       </c>
       <c r="B653" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C653">
         <v>0</v>
@@ -9372,7 +9391,7 @@
         <v>356</v>
       </c>
       <c r="B654" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C654">
         <v>0</v>
@@ -9383,7 +9402,7 @@
         <v>356</v>
       </c>
       <c r="B655" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C655">
         <v>0</v>
@@ -9394,273 +9413,272 @@
         <v>356</v>
       </c>
       <c r="B656" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C656">
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:4" hidden="1">
+    <row r="657" spans="1:3" hidden="1">
       <c r="A657" t="s">
         <v>356</v>
       </c>
       <c r="B657" t="s">
-        <v>357</v>
+        <v>43</v>
       </c>
       <c r="C657">
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:4" hidden="1">
+    <row r="658" spans="1:3" hidden="1">
       <c r="A658" t="s">
         <v>356</v>
       </c>
       <c r="B658" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C658">
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:4" hidden="1">
+    <row r="659" spans="1:3" hidden="1">
       <c r="A659" t="s">
         <v>356</v>
       </c>
       <c r="B659" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C659">
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:4" hidden="1">
+    <row r="660" spans="1:3" hidden="1">
       <c r="A660" t="s">
         <v>356</v>
       </c>
       <c r="B660" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C660">
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:4" hidden="1">
+    <row r="661" spans="1:3" hidden="1">
       <c r="A661" t="s">
         <v>356</v>
       </c>
       <c r="B661" t="s">
-        <v>33</v>
+        <v>357</v>
       </c>
       <c r="C661">
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:4" hidden="1">
+    <row r="662" spans="1:3" hidden="1">
       <c r="A662" t="s">
         <v>356</v>
       </c>
       <c r="B662" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C662">
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:4" hidden="1">
+    <row r="663" spans="1:3" hidden="1">
       <c r="A663" t="s">
         <v>356</v>
       </c>
       <c r="B663" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C663">
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:4" hidden="1">
+    <row r="664" spans="1:3" hidden="1">
       <c r="A664" t="s">
         <v>356</v>
       </c>
       <c r="B664" t="s">
-        <v>358</v>
+        <v>52</v>
       </c>
       <c r="C664">
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:4" hidden="1">
+    <row r="665" spans="1:3" hidden="1">
       <c r="A665" t="s">
         <v>356</v>
       </c>
       <c r="B665" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C665">
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:4" hidden="1">
+    <row r="666" spans="1:3" hidden="1">
       <c r="A666" t="s">
         <v>356</v>
       </c>
       <c r="B666" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C666">
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:4" hidden="1">
+    <row r="667" spans="1:3" hidden="1">
       <c r="A667" t="s">
         <v>356</v>
       </c>
       <c r="B667" t="s">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="C667">
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:4" hidden="1">
+    <row r="668" spans="1:3" hidden="1">
       <c r="A668" t="s">
         <v>356</v>
       </c>
       <c r="B668" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C668">
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:4" hidden="1">
+    <row r="669" spans="1:3" hidden="1">
       <c r="A669" t="s">
         <v>356</v>
       </c>
       <c r="B669" t="s">
+        <v>4</v>
+      </c>
+      <c r="C669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" hidden="1">
+      <c r="A670" t="s">
+        <v>356</v>
+      </c>
+      <c r="B670" t="s">
+        <v>40</v>
+      </c>
+      <c r="C670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" hidden="1">
+      <c r="A671" t="s">
+        <v>356</v>
+      </c>
+      <c r="B671" t="s">
+        <v>359</v>
+      </c>
+      <c r="C671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" hidden="1">
+      <c r="A672" t="s">
+        <v>356</v>
+      </c>
+      <c r="B672" t="s">
+        <v>360</v>
+      </c>
+      <c r="C672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" hidden="1">
+      <c r="A673" t="s">
+        <v>356</v>
+      </c>
+      <c r="B673" t="s">
         <v>361</v>
       </c>
-      <c r="C669">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="670" spans="1:4" hidden="1">
-      <c r="A670" s="2" t="s">
+      <c r="C673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" hidden="1">
+      <c r="A674" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B670" s="2" t="s">
+      <c r="B674" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C670">
-        <v>0</v>
-      </c>
-      <c r="D670" s="2"/>
-    </row>
-    <row r="671" spans="1:4">
-      <c r="A671" t="s">
-        <v>362</v>
-      </c>
-      <c r="B671" t="s">
-        <v>36</v>
-      </c>
-      <c r="C671">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="672" spans="1:4">
-      <c r="A672" t="s">
-        <v>362</v>
-      </c>
-      <c r="B672" t="s">
-        <v>363</v>
-      </c>
-      <c r="C672">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="673" spans="1:4">
-      <c r="A673" t="s">
-        <v>362</v>
-      </c>
-      <c r="B673" t="s">
-        <v>364</v>
-      </c>
-      <c r="C673">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="674" spans="1:4">
-      <c r="A674" t="s">
-        <v>362</v>
-      </c>
-      <c r="B674" t="s">
-        <v>338</v>
-      </c>
       <c r="C674">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="675" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D674" s="2"/>
+    </row>
+    <row r="675" spans="1:4" hidden="1">
       <c r="A675" t="s">
         <v>362</v>
       </c>
       <c r="B675" t="s">
-        <v>365</v>
+        <v>36</v>
       </c>
       <c r="C675">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="676" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" hidden="1">
       <c r="A676" t="s">
         <v>362</v>
       </c>
       <c r="B676" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C676">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="677" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" hidden="1">
       <c r="A677" t="s">
         <v>362</v>
       </c>
       <c r="B677" t="s">
-        <v>21</v>
+        <v>364</v>
       </c>
       <c r="C677">
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:4">
-      <c r="A678" s="2" t="s">
+    <row r="678" spans="1:4" hidden="1">
+      <c r="A678" t="s">
         <v>362</v>
       </c>
-      <c r="B678" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C678" s="2">
-        <v>0</v>
-      </c>
-      <c r="D678" s="2"/>
+      <c r="B678" t="s">
+        <v>338</v>
+      </c>
+      <c r="C678">
+        <v>1</v>
+      </c>
     </row>
     <row r="679" spans="1:4" hidden="1">
       <c r="A679" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B679" t="s">
-        <v>5</v>
+        <v>365</v>
       </c>
       <c r="C679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:4" hidden="1">
       <c r="A680" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B680" t="s">
-        <v>7</v>
+        <v>355</v>
       </c>
       <c r="C680">
         <v>0</v>
@@ -9668,35 +9686,36 @@
     </row>
     <row r="681" spans="1:4" hidden="1">
       <c r="A681" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B681" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C681">
         <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:4" hidden="1">
-      <c r="A682" t="s">
-        <v>366</v>
-      </c>
-      <c r="B682" t="s">
-        <v>367</v>
-      </c>
-      <c r="C682">
-        <v>1</v>
-      </c>
+      <c r="A682" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C682" s="2">
+        <v>0</v>
+      </c>
+      <c r="D682" s="2"/>
     </row>
     <row r="683" spans="1:4" hidden="1">
       <c r="A683" t="s">
         <v>366</v>
       </c>
       <c r="B683" t="s">
-        <v>368</v>
+        <v>5</v>
       </c>
       <c r="C683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:4" hidden="1">
@@ -9704,7 +9723,7 @@
         <v>366</v>
       </c>
       <c r="B684" t="s">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="C684">
         <v>0</v>
@@ -9715,7 +9734,7 @@
         <v>366</v>
       </c>
       <c r="B685" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="C685">
         <v>0</v>
@@ -9726,10 +9745,10 @@
         <v>366</v>
       </c>
       <c r="B686" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:4" hidden="1">
@@ -9737,7 +9756,7 @@
         <v>366</v>
       </c>
       <c r="B687" t="s">
-        <v>9</v>
+        <v>368</v>
       </c>
       <c r="C687">
         <v>0</v>
@@ -9747,11 +9766,11 @@
       <c r="A688" t="s">
         <v>366</v>
       </c>
-      <c r="B688" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C688" s="2">
-        <v>1</v>
+      <c r="B688" t="s">
+        <v>253</v>
+      </c>
+      <c r="C688">
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:4" hidden="1">
@@ -9759,74 +9778,74 @@
         <v>366</v>
       </c>
       <c r="B689" t="s">
-        <v>256</v>
+        <v>112</v>
       </c>
       <c r="C689">
         <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:4" hidden="1">
-      <c r="A690" s="2" t="s">
+      <c r="A690" t="s">
         <v>366</v>
       </c>
-      <c r="B690" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C690" s="2">
-        <v>0</v>
-      </c>
-      <c r="D690" s="2"/>
+      <c r="B690" t="s">
+        <v>369</v>
+      </c>
+      <c r="C690">
+        <v>0</v>
+      </c>
     </row>
     <row r="691" spans="1:4" hidden="1">
       <c r="A691" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B691" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:4" hidden="1">
       <c r="A692" t="s">
-        <v>370</v>
-      </c>
-      <c r="B692" t="s">
-        <v>5</v>
-      </c>
-      <c r="C692">
+        <v>366</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C692" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:4" hidden="1">
       <c r="A693" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B693" t="s">
-        <v>6</v>
+        <v>256</v>
       </c>
       <c r="C693">
         <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:4" hidden="1">
-      <c r="A694" t="s">
-        <v>370</v>
-      </c>
-      <c r="B694" t="s">
-        <v>341</v>
-      </c>
-      <c r="C694">
-        <v>1</v>
-      </c>
+      <c r="A694" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C694" s="2">
+        <v>0</v>
+      </c>
+      <c r="D694" s="2"/>
     </row>
     <row r="695" spans="1:4" hidden="1">
       <c r="A695" t="s">
         <v>370</v>
       </c>
       <c r="B695" t="s">
-        <v>342</v>
+        <v>36</v>
       </c>
       <c r="C695">
         <v>1</v>
@@ -9837,7 +9856,7 @@
         <v>370</v>
       </c>
       <c r="B696" t="s">
-        <v>343</v>
+        <v>5</v>
       </c>
       <c r="C696">
         <v>1</v>
@@ -9848,7 +9867,7 @@
         <v>370</v>
       </c>
       <c r="B697" t="s">
-        <v>344</v>
+        <v>6</v>
       </c>
       <c r="C697">
         <v>0</v>
@@ -9859,10 +9878,10 @@
         <v>370</v>
       </c>
       <c r="B698" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:4" hidden="1">
@@ -9870,10 +9889,10 @@
         <v>370</v>
       </c>
       <c r="B699" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:4" hidden="1">
@@ -9881,10 +9900,10 @@
         <v>370</v>
       </c>
       <c r="B700" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:4" hidden="1">
@@ -9892,23 +9911,67 @@
         <v>370</v>
       </c>
       <c r="B701" t="s">
+        <v>344</v>
+      </c>
+      <c r="C701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" hidden="1">
+      <c r="A702" t="s">
+        <v>370</v>
+      </c>
+      <c r="B702" t="s">
+        <v>345</v>
+      </c>
+      <c r="C702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" hidden="1">
+      <c r="A703" t="s">
+        <v>370</v>
+      </c>
+      <c r="B703" t="s">
+        <v>346</v>
+      </c>
+      <c r="C703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" hidden="1">
+      <c r="A704" t="s">
+        <v>370</v>
+      </c>
+      <c r="B704" t="s">
+        <v>347</v>
+      </c>
+      <c r="C704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" hidden="1">
+      <c r="A705" t="s">
+        <v>370</v>
+      </c>
+      <c r="B705" t="s">
         <v>348</v>
       </c>
-      <c r="C701">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="702" spans="1:4" hidden="1">
-      <c r="A702" s="2" t="s">
+      <c r="C705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" hidden="1">
+      <c r="A706" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B702" s="2" t="s">
+      <c r="B706" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C702" s="2">
-        <v>0</v>
-      </c>
-      <c r="D702" s="2"/>
+      <c r="C706" s="2">
+        <v>0</v>
+      </c>
+      <c r="D706" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="376">
   <si>
     <t>TABELA</t>
   </si>
@@ -1135,6 +1135,15 @@
   </si>
   <si>
     <t>NR_ITEM_NF_FATURA</t>
+  </si>
+  <si>
+    <t>ln.ods_car_titulo_parcelamento</t>
+  </si>
+  <si>
+    <t>NR_PARCELA</t>
+  </si>
+  <si>
+    <t>VL_PARCELA</t>
   </si>
 </sst>
 </file>
@@ -1199,14 +1208,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D706" totalsRowShown="0">
-  <autoFilter ref="A1:D706">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="ln.ods_fat_faturamento"/>
-        <filter val="ln.ods_nfv_det"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D716" totalsRowShown="0">
+  <autoFilter ref="A1:D716">
+    <filterColumn colId="0"/>
     <filterColumn colId="3"/>
   </autoFilter>
   <tableColumns count="4">
@@ -1504,15 +1508,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D706"/>
+  <dimension ref="A1:D716"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A671" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G681" sqref="G681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
   </cols>
@@ -1531,7 +1536,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1542,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1553,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1564,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1575,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1586,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1597,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1608,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1619,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1630,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1641,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1652,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1666,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1680,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1694,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1708,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1722,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1736,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1750,7 +1755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1764,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1778,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1789,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1803,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1817,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1831,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1845,7 +1850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1859,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1873,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1887,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1901,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1915,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1926,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1937,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1948,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1959,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1970,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1981,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1992,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2003,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -2014,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -2025,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -2036,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2047,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2058,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -2069,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -2080,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -2091,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -2105,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -2119,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -2133,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -2144,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -2155,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -2166,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -2177,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -2191,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -2205,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -2219,7 +2224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -2233,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -2244,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -2255,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -2266,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -2277,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -2288,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -2299,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -2310,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -2324,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -2338,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -2352,7 +2357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>49</v>
       </c>
@@ -2363,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -2377,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -2391,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -2405,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -2416,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>49</v>
       </c>
@@ -2427,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>340</v>
       </c>
@@ -2438,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>340</v>
       </c>
@@ -2449,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>340</v>
       </c>
@@ -2460,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>340</v>
       </c>
@@ -2471,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>340</v>
       </c>
@@ -2482,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>340</v>
       </c>
@@ -2493,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>340</v>
       </c>
@@ -2504,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>340</v>
       </c>
@@ -2515,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>340</v>
       </c>
@@ -2526,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>340</v>
       </c>
@@ -2537,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>340</v>
       </c>
@@ -2548,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>340</v>
       </c>
@@ -3482,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>132</v>
       </c>
@@ -3493,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>132</v>
       </c>
@@ -3504,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>132</v>
       </c>
@@ -3515,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>132</v>
       </c>
@@ -3526,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>132</v>
       </c>
@@ -3537,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>132</v>
       </c>
@@ -3548,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>132</v>
       </c>
@@ -3562,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>132</v>
       </c>
@@ -3576,7 +3581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>132</v>
       </c>
@@ -3590,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>132</v>
       </c>
@@ -3604,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>132</v>
       </c>
@@ -3618,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>132</v>
       </c>
@@ -3629,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>132</v>
       </c>
@@ -3640,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>132</v>
       </c>
@@ -3651,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>132</v>
       </c>
@@ -3662,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>132</v>
       </c>
@@ -3673,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>132</v>
       </c>
@@ -3687,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>132</v>
       </c>
@@ -3701,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>132</v>
       </c>
@@ -3715,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>132</v>
       </c>
@@ -3729,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>132</v>
       </c>
@@ -3743,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>132</v>
       </c>
@@ -3757,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>132</v>
       </c>
@@ -3771,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>132</v>
       </c>
@@ -3785,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>132</v>
       </c>
@@ -3799,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>132</v>
       </c>
@@ -3813,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>132</v>
       </c>
@@ -3827,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>132</v>
       </c>
@@ -3841,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>132</v>
       </c>
@@ -3855,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>132</v>
       </c>
@@ -3869,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>132</v>
       </c>
@@ -3883,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>132</v>
       </c>
@@ -3894,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>132</v>
       </c>
@@ -3908,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>132</v>
       </c>
@@ -3922,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>132</v>
       </c>
@@ -3936,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>132</v>
       </c>
@@ -3950,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>132</v>
       </c>
@@ -3961,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>132</v>
       </c>
@@ -3972,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>132</v>
       </c>
@@ -3983,7 +3988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>132</v>
       </c>
@@ -3997,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>132</v>
       </c>
@@ -4011,7 +4016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>132</v>
       </c>
@@ -4025,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>132</v>
       </c>
@@ -4039,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>132</v>
       </c>
@@ -4053,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>132</v>
       </c>
@@ -4067,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>132</v>
       </c>
@@ -4081,7 +4086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>132</v>
       </c>
@@ -4095,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>132</v>
       </c>
@@ -4109,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>132</v>
       </c>
@@ -4123,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>132</v>
       </c>
@@ -4137,7 +4142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>132</v>
       </c>
@@ -4151,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>132</v>
       </c>
@@ -4165,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>132</v>
       </c>
@@ -4176,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>132</v>
       </c>
@@ -4187,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>132</v>
       </c>
@@ -4198,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>132</v>
       </c>
@@ -4209,7 +4214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>132</v>
       </c>
@@ -4220,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>166</v>
       </c>
@@ -4231,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>166</v>
       </c>
@@ -4242,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>166</v>
       </c>
@@ -4256,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1">
+    <row r="229" spans="1:4">
       <c r="A229" s="1" t="s">
         <v>166</v>
       </c>
@@ -4270,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>166</v>
       </c>
@@ -4281,7 +4286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>166</v>
       </c>
@@ -4292,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>166</v>
       </c>
@@ -4303,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>166</v>
       </c>
@@ -4317,7 +4322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>166</v>
       </c>
@@ -4331,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>166</v>
       </c>
@@ -4345,7 +4350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>166</v>
       </c>
@@ -4359,7 +4364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>166</v>
       </c>
@@ -4373,7 +4378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>166</v>
       </c>
@@ -4387,7 +4392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>166</v>
       </c>
@@ -4401,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>166</v>
       </c>
@@ -4415,7 +4420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>166</v>
       </c>
@@ -4429,7 +4434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>166</v>
       </c>
@@ -4443,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>166</v>
       </c>
@@ -4457,7 +4462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>166</v>
       </c>
@@ -4471,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>166</v>
       </c>
@@ -4485,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>166</v>
       </c>
@@ -4499,7 +4504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>166</v>
       </c>
@@ -4513,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>166</v>
       </c>
@@ -4527,7 +4532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>166</v>
       </c>
@@ -4541,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>166</v>
       </c>
@@ -4555,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>166</v>
       </c>
@@ -4569,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>166</v>
       </c>
@@ -4583,7 +4588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>166</v>
       </c>
@@ -4597,7 +4602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>166</v>
       </c>
@@ -4611,7 +4616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>166</v>
       </c>
@@ -4622,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>166</v>
       </c>
@@ -4633,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>166</v>
       </c>
@@ -4647,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>166</v>
       </c>
@@ -4661,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>166</v>
       </c>
@@ -4675,7 +4680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>166</v>
       </c>
@@ -4689,7 +4694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>166</v>
       </c>
@@ -4703,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>166</v>
       </c>
@@ -4717,7 +4722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>166</v>
       </c>
@@ -4731,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>166</v>
       </c>
@@ -4745,7 +4750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>166</v>
       </c>
@@ -4759,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>166</v>
       </c>
@@ -4773,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>166</v>
       </c>
@@ -4787,7 +4792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>166</v>
       </c>
@@ -4801,7 +4806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>166</v>
       </c>
@@ -4815,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>166</v>
       </c>
@@ -4829,7 +4834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>166</v>
       </c>
@@ -4843,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>166</v>
       </c>
@@ -4857,7 +4862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>166</v>
       </c>
@@ -4871,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>166</v>
       </c>
@@ -4885,7 +4890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>166</v>
       </c>
@@ -4899,7 +4904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>166</v>
       </c>
@@ -4913,7 +4918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>166</v>
       </c>
@@ -4927,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>166</v>
       </c>
@@ -4941,7 +4946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>166</v>
       </c>
@@ -4955,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>166</v>
       </c>
@@ -4966,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>166</v>
       </c>
@@ -4977,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>166</v>
       </c>
@@ -4988,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>166</v>
       </c>
@@ -5002,7 +5007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>166</v>
       </c>
@@ -5016,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>166</v>
       </c>
@@ -5030,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>166</v>
       </c>
@@ -5044,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>166</v>
       </c>
@@ -5058,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>166</v>
       </c>
@@ -5072,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>166</v>
       </c>
@@ -5086,7 +5091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>166</v>
       </c>
@@ -5100,7 +5105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>166</v>
       </c>
@@ -5114,7 +5119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>166</v>
       </c>
@@ -5128,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>166</v>
       </c>
@@ -5142,7 +5147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>166</v>
       </c>
@@ -5153,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>166</v>
       </c>
@@ -5164,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>166</v>
       </c>
@@ -5175,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>166</v>
       </c>
@@ -5186,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1">
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>166</v>
       </c>
@@ -5197,7 +5202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1">
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>166</v>
       </c>
@@ -5211,7 +5216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1">
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>199</v>
       </c>
@@ -5222,7 +5227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>199</v>
       </c>
@@ -5233,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>199</v>
       </c>
@@ -5247,7 +5252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1">
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>199</v>
       </c>
@@ -5261,7 +5266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1">
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>199</v>
       </c>
@@ -5272,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>199</v>
       </c>
@@ -5283,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>199</v>
       </c>
@@ -5294,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>199</v>
       </c>
@@ -5305,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>199</v>
       </c>
@@ -5316,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>199</v>
       </c>
@@ -5327,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>199</v>
       </c>
@@ -5338,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>199</v>
       </c>
@@ -5352,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>199</v>
       </c>
@@ -5366,7 +5371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>199</v>
       </c>
@@ -5380,7 +5385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>199</v>
       </c>
@@ -5391,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>199</v>
       </c>
@@ -5402,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1">
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>199</v>
       </c>
@@ -5413,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1">
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>199</v>
       </c>
@@ -5424,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1">
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>199</v>
       </c>
@@ -5435,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1">
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>199</v>
       </c>
@@ -5446,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1">
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>199</v>
       </c>
@@ -5457,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1">
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>199</v>
       </c>
@@ -5468,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1">
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>199</v>
       </c>
@@ -5479,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1">
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>199</v>
       </c>
@@ -5490,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1">
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
         <v>199</v>
       </c>
@@ -5501,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1">
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>199</v>
       </c>
@@ -5512,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1">
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>199</v>
       </c>
@@ -5523,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1">
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
         <v>199</v>
       </c>
@@ -5534,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1">
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
         <v>199</v>
       </c>
@@ -5548,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1">
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
         <v>199</v>
       </c>
@@ -5562,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1">
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>199</v>
       </c>
@@ -5573,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1">
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>199</v>
       </c>
@@ -5584,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1">
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>199</v>
       </c>
@@ -5595,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1">
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>199</v>
       </c>
@@ -5606,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1">
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>199</v>
       </c>
@@ -5617,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1">
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>199</v>
       </c>
@@ -5628,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1">
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>199</v>
       </c>
@@ -5639,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1">
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
         <v>199</v>
       </c>
@@ -5650,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1">
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
         <v>199</v>
       </c>
@@ -5661,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1">
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>199</v>
       </c>
@@ -5672,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1">
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
         <v>199</v>
       </c>
@@ -5686,7 +5691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1">
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>199</v>
       </c>
@@ -5697,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1">
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>199</v>
       </c>
@@ -5708,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1">
+    <row r="343" spans="1:4">
       <c r="A343" t="s">
         <v>199</v>
       </c>
@@ -5719,7 +5724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1">
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>199</v>
       </c>
@@ -5730,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1">
+    <row r="345" spans="1:4">
       <c r="A345" t="s">
         <v>199</v>
       </c>
@@ -6320,7 +6325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1">
+    <row r="397" spans="1:4">
       <c r="A397" t="s">
         <v>210</v>
       </c>
@@ -6331,7 +6336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1">
+    <row r="398" spans="1:4">
       <c r="A398" t="s">
         <v>210</v>
       </c>
@@ -6342,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1">
+    <row r="399" spans="1:4">
       <c r="A399" t="s">
         <v>210</v>
       </c>
@@ -6356,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1">
+    <row r="400" spans="1:4">
       <c r="A400" t="s">
         <v>210</v>
       </c>
@@ -6370,7 +6375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1">
+    <row r="401" spans="1:4">
       <c r="A401" t="s">
         <v>210</v>
       </c>
@@ -6384,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1">
+    <row r="402" spans="1:4">
       <c r="A402" t="s">
         <v>210</v>
       </c>
@@ -6398,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1">
+    <row r="403" spans="1:4">
       <c r="A403" t="s">
         <v>210</v>
       </c>
@@ -6412,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1">
+    <row r="404" spans="1:4">
       <c r="A404" t="s">
         <v>210</v>
       </c>
@@ -6426,7 +6431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1">
+    <row r="405" spans="1:4">
       <c r="A405" t="s">
         <v>210</v>
       </c>
@@ -6440,7 +6445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:4" hidden="1">
+    <row r="406" spans="1:4">
       <c r="A406" t="s">
         <v>210</v>
       </c>
@@ -6454,7 +6459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1">
+    <row r="407" spans="1:4">
       <c r="A407" t="s">
         <v>210</v>
       </c>
@@ -6465,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:4" hidden="1">
+    <row r="408" spans="1:4">
       <c r="A408" t="s">
         <v>210</v>
       </c>
@@ -6476,7 +6481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1">
+    <row r="409" spans="1:4">
       <c r="A409" t="s">
         <v>217</v>
       </c>
@@ -6487,7 +6492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1">
+    <row r="410" spans="1:4">
       <c r="A410" t="s">
         <v>217</v>
       </c>
@@ -6498,7 +6503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1">
+    <row r="411" spans="1:4">
       <c r="A411" t="s">
         <v>217</v>
       </c>
@@ -6509,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1">
+    <row r="412" spans="1:4">
       <c r="A412" t="s">
         <v>217</v>
       </c>
@@ -6520,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:4" hidden="1">
+    <row r="413" spans="1:4">
       <c r="A413" t="s">
         <v>217</v>
       </c>
@@ -6534,7 +6539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1">
+    <row r="414" spans="1:4">
       <c r="A414" t="s">
         <v>217</v>
       </c>
@@ -6548,7 +6553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1">
+    <row r="415" spans="1:4">
       <c r="A415" t="s">
         <v>217</v>
       </c>
@@ -6562,7 +6567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1">
+    <row r="416" spans="1:4">
       <c r="A416" t="s">
         <v>217</v>
       </c>
@@ -6576,7 +6581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1">
+    <row r="417" spans="1:4">
       <c r="A417" t="s">
         <v>217</v>
       </c>
@@ -6590,7 +6595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1">
+    <row r="418" spans="1:4">
       <c r="A418" t="s">
         <v>217</v>
       </c>
@@ -6601,7 +6606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1">
+    <row r="419" spans="1:4">
       <c r="A419" t="s">
         <v>217</v>
       </c>
@@ -6615,7 +6620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:4" hidden="1">
+    <row r="420" spans="1:4">
       <c r="A420" t="s">
         <v>217</v>
       </c>
@@ -6626,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1">
+    <row r="421" spans="1:4">
       <c r="A421" t="s">
         <v>217</v>
       </c>
@@ -6640,7 +6645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1">
+    <row r="422" spans="1:4">
       <c r="A422" t="s">
         <v>217</v>
       </c>
@@ -6654,7 +6659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1">
+    <row r="423" spans="1:4">
       <c r="A423" t="s">
         <v>217</v>
       </c>
@@ -6668,7 +6673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1">
+    <row r="424" spans="1:4">
       <c r="A424" t="s">
         <v>217</v>
       </c>
@@ -6682,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1">
+    <row r="425" spans="1:4">
       <c r="A425" t="s">
         <v>217</v>
       </c>
@@ -6696,7 +6701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1">
+    <row r="426" spans="1:4">
       <c r="A426" t="s">
         <v>217</v>
       </c>
@@ -6710,7 +6715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:4" hidden="1">
+    <row r="427" spans="1:4">
       <c r="A427" t="s">
         <v>217</v>
       </c>
@@ -6724,7 +6729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:4" hidden="1">
+    <row r="428" spans="1:4">
       <c r="A428" t="s">
         <v>217</v>
       </c>
@@ -6738,7 +6743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1">
+    <row r="429" spans="1:4">
       <c r="A429" t="s">
         <v>217</v>
       </c>
@@ -6749,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1">
+    <row r="430" spans="1:4">
       <c r="A430" t="s">
         <v>217</v>
       </c>
@@ -6760,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1">
+    <row r="431" spans="1:4">
       <c r="A431" t="s">
         <v>217</v>
       </c>
@@ -6774,7 +6779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1">
+    <row r="432" spans="1:4">
       <c r="A432" t="s">
         <v>217</v>
       </c>
@@ -6788,7 +6793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1">
+    <row r="433" spans="1:4">
       <c r="A433" t="s">
         <v>217</v>
       </c>
@@ -6802,7 +6807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1">
+    <row r="434" spans="1:4">
       <c r="A434" t="s">
         <v>217</v>
       </c>
@@ -6813,7 +6818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1">
+    <row r="435" spans="1:4">
       <c r="A435" t="s">
         <v>217</v>
       </c>
@@ -6824,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1">
+    <row r="436" spans="1:4">
       <c r="A436" t="s">
         <v>217</v>
       </c>
@@ -6838,7 +6843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1">
+    <row r="437" spans="1:4">
       <c r="A437" t="s">
         <v>217</v>
       </c>
@@ -6852,7 +6857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1">
+    <row r="438" spans="1:4">
       <c r="A438" t="s">
         <v>217</v>
       </c>
@@ -6863,7 +6868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1">
+    <row r="439" spans="1:4">
       <c r="A439" t="s">
         <v>217</v>
       </c>
@@ -6874,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1">
+    <row r="440" spans="1:4">
       <c r="A440" t="s">
         <v>217</v>
       </c>
@@ -6888,7 +6893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1">
+    <row r="441" spans="1:4">
       <c r="A441" t="s">
         <v>237</v>
       </c>
@@ -6899,7 +6904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1">
+    <row r="442" spans="1:4">
       <c r="A442" t="s">
         <v>237</v>
       </c>
@@ -6910,7 +6915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:4" hidden="1">
+    <row r="443" spans="1:4">
       <c r="A443" t="s">
         <v>237</v>
       </c>
@@ -6921,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1">
+    <row r="444" spans="1:4">
       <c r="A444" t="s">
         <v>237</v>
       </c>
@@ -6932,7 +6937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:4" hidden="1">
+    <row r="445" spans="1:4">
       <c r="A445" t="s">
         <v>237</v>
       </c>
@@ -6943,7 +6948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1">
+    <row r="446" spans="1:4">
       <c r="A446" t="s">
         <v>237</v>
       </c>
@@ -6957,7 +6962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1">
+    <row r="447" spans="1:4">
       <c r="A447" t="s">
         <v>237</v>
       </c>
@@ -6971,7 +6976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1">
+    <row r="448" spans="1:4">
       <c r="A448" t="s">
         <v>237</v>
       </c>
@@ -6985,7 +6990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1">
+    <row r="449" spans="1:4">
       <c r="A449" t="s">
         <v>237</v>
       </c>
@@ -6999,7 +7004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1">
+    <row r="450" spans="1:4">
       <c r="A450" t="s">
         <v>237</v>
       </c>
@@ -7013,7 +7018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1">
+    <row r="451" spans="1:4">
       <c r="A451" t="s">
         <v>237</v>
       </c>
@@ -7027,7 +7032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1">
+    <row r="452" spans="1:4">
       <c r="A452" t="s">
         <v>237</v>
       </c>
@@ -7041,7 +7046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1">
+    <row r="453" spans="1:4">
       <c r="A453" t="s">
         <v>237</v>
       </c>
@@ -7055,7 +7060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1">
+    <row r="454" spans="1:4">
       <c r="A454" t="s">
         <v>237</v>
       </c>
@@ -7069,7 +7074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1">
+    <row r="455" spans="1:4">
       <c r="A455" t="s">
         <v>237</v>
       </c>
@@ -7083,7 +7088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1">
+    <row r="456" spans="1:4">
       <c r="A456" t="s">
         <v>237</v>
       </c>
@@ -7097,7 +7102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1">
+    <row r="457" spans="1:4">
       <c r="A457" t="s">
         <v>237</v>
       </c>
@@ -7111,7 +7116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1">
+    <row r="458" spans="1:4">
       <c r="A458" t="s">
         <v>237</v>
       </c>
@@ -7125,7 +7130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1">
+    <row r="459" spans="1:4">
       <c r="A459" t="s">
         <v>237</v>
       </c>
@@ -7139,7 +7144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1">
+    <row r="460" spans="1:4">
       <c r="A460" t="s">
         <v>237</v>
       </c>
@@ -7153,7 +7158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1">
+    <row r="461" spans="1:4">
       <c r="A461" t="s">
         <v>237</v>
       </c>
@@ -7164,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1">
+    <row r="462" spans="1:4">
       <c r="A462" t="s">
         <v>237</v>
       </c>
@@ -7175,7 +7180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1">
+    <row r="463" spans="1:4">
       <c r="A463" t="s">
         <v>237</v>
       </c>
@@ -7186,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1">
+    <row r="464" spans="1:4">
       <c r="A464" t="s">
         <v>249</v>
       </c>
@@ -7200,7 +7205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1">
+    <row r="465" spans="1:4">
       <c r="A465" t="s">
         <v>249</v>
       </c>
@@ -7211,7 +7216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1">
+    <row r="466" spans="1:4">
       <c r="A466" t="s">
         <v>249</v>
       </c>
@@ -7222,7 +7227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1">
+    <row r="467" spans="1:4">
       <c r="A467" t="s">
         <v>249</v>
       </c>
@@ -7233,7 +7238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1">
+    <row r="468" spans="1:4">
       <c r="A468" t="s">
         <v>249</v>
       </c>
@@ -7244,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1">
+    <row r="469" spans="1:4">
       <c r="A469" t="s">
         <v>249</v>
       </c>
@@ -7255,7 +7260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4" hidden="1">
+    <row r="470" spans="1:4">
       <c r="A470" t="s">
         <v>249</v>
       </c>
@@ -7266,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1">
+    <row r="471" spans="1:4">
       <c r="A471" t="s">
         <v>249</v>
       </c>
@@ -7277,7 +7282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1">
+    <row r="472" spans="1:4">
       <c r="A472" t="s">
         <v>249</v>
       </c>
@@ -7288,7 +7293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1">
+    <row r="473" spans="1:4">
       <c r="A473" t="s">
         <v>249</v>
       </c>
@@ -7299,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1">
+    <row r="474" spans="1:4">
       <c r="A474" t="s">
         <v>249</v>
       </c>
@@ -7310,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1">
+    <row r="475" spans="1:4">
       <c r="A475" t="s">
         <v>249</v>
       </c>
@@ -7321,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1">
+    <row r="476" spans="1:4">
       <c r="A476" t="s">
         <v>249</v>
       </c>
@@ -7332,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1">
+    <row r="477" spans="1:4">
       <c r="A477" t="s">
         <v>249</v>
       </c>
@@ -7343,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1">
+    <row r="478" spans="1:4">
       <c r="A478" t="s">
         <v>249</v>
       </c>
@@ -7357,7 +7362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1">
+    <row r="479" spans="1:4">
       <c r="A479" t="s">
         <v>249</v>
       </c>
@@ -7371,7 +7376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1">
+    <row r="480" spans="1:4">
       <c r="A480" t="s">
         <v>249</v>
       </c>
@@ -7385,7 +7390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1">
+    <row r="481" spans="1:4">
       <c r="A481" t="s">
         <v>249</v>
       </c>
@@ -7399,7 +7404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1">
+    <row r="482" spans="1:4">
       <c r="A482" t="s">
         <v>249</v>
       </c>
@@ -7410,7 +7415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1">
+    <row r="483" spans="1:4">
       <c r="A483" t="s">
         <v>249</v>
       </c>
@@ -7421,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1">
+    <row r="484" spans="1:4">
       <c r="A484" t="s">
         <v>249</v>
       </c>
@@ -7432,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1">
+    <row r="485" spans="1:4">
       <c r="A485" t="s">
         <v>249</v>
       </c>
@@ -7446,7 +7451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1">
+    <row r="486" spans="1:4">
       <c r="A486" t="s">
         <v>249</v>
       </c>
@@ -7460,7 +7465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1">
+    <row r="487" spans="1:4">
       <c r="A487" t="s">
         <v>249</v>
       </c>
@@ -7471,7 +7476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1">
+    <row r="488" spans="1:4">
       <c r="A488" t="s">
         <v>249</v>
       </c>
@@ -7482,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1">
+    <row r="489" spans="1:4">
       <c r="A489" t="s">
         <v>249</v>
       </c>
@@ -7493,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1">
+    <row r="490" spans="1:4">
       <c r="A490" t="s">
         <v>249</v>
       </c>
@@ -7504,7 +7509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1">
+    <row r="491" spans="1:4">
       <c r="A491" t="s">
         <v>249</v>
       </c>
@@ -7515,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1">
+    <row r="492" spans="1:4">
       <c r="A492" t="s">
         <v>249</v>
       </c>
@@ -7526,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1">
+    <row r="493" spans="1:4">
       <c r="A493" t="s">
         <v>249</v>
       </c>
@@ -7537,7 +7542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1">
+    <row r="494" spans="1:4">
       <c r="A494" t="s">
         <v>249</v>
       </c>
@@ -7548,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1">
+    <row r="495" spans="1:4">
       <c r="A495" t="s">
         <v>249</v>
       </c>
@@ -7559,7 +7564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:4" hidden="1">
+    <row r="496" spans="1:4">
       <c r="A496" t="s">
         <v>249</v>
       </c>
@@ -7570,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1">
+    <row r="497" spans="1:4">
       <c r="A497" t="s">
         <v>249</v>
       </c>
@@ -7581,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1">
+    <row r="498" spans="1:4">
       <c r="A498" t="s">
         <v>249</v>
       </c>
@@ -7592,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1">
+    <row r="499" spans="1:4">
       <c r="A499" t="s">
         <v>249</v>
       </c>
@@ -7606,7 +7611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1">
+    <row r="500" spans="1:4">
       <c r="A500" t="s">
         <v>249</v>
       </c>
@@ -7620,7 +7625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:4" hidden="1">
+    <row r="501" spans="1:4">
       <c r="A501" t="s">
         <v>249</v>
       </c>
@@ -7631,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1">
+    <row r="502" spans="1:4">
       <c r="A502" t="s">
         <v>249</v>
       </c>
@@ -7642,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1">
+    <row r="503" spans="1:4">
       <c r="A503" t="s">
         <v>249</v>
       </c>
@@ -7653,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1">
+    <row r="504" spans="1:4">
       <c r="A504" t="s">
         <v>249</v>
       </c>
@@ -7667,7 +7672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1">
+    <row r="505" spans="1:4">
       <c r="A505" t="s">
         <v>249</v>
       </c>
@@ -7678,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1">
+    <row r="506" spans="1:4">
       <c r="A506" t="s">
         <v>249</v>
       </c>
@@ -7689,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1">
+    <row r="507" spans="1:4">
       <c r="A507" t="s">
         <v>249</v>
       </c>
@@ -7700,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1">
+    <row r="508" spans="1:4">
       <c r="A508" t="s">
         <v>249</v>
       </c>
@@ -7711,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:4" hidden="1">
+    <row r="509" spans="1:4">
       <c r="A509" t="s">
         <v>249</v>
       </c>
@@ -7722,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1">
+    <row r="510" spans="1:4">
       <c r="A510" t="s">
         <v>249</v>
       </c>
@@ -7733,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1">
+    <row r="511" spans="1:4">
       <c r="A511" t="s">
         <v>249</v>
       </c>
@@ -7744,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1">
+    <row r="512" spans="1:4">
       <c r="A512" t="s">
         <v>249</v>
       </c>
@@ -7758,7 +7763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1">
+    <row r="513" spans="1:4">
       <c r="A513" t="s">
         <v>249</v>
       </c>
@@ -7772,7 +7777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1">
+    <row r="514" spans="1:4">
       <c r="A514" t="s">
         <v>249</v>
       </c>
@@ -7783,7 +7788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1">
+    <row r="515" spans="1:4">
       <c r="A515" t="s">
         <v>249</v>
       </c>
@@ -7794,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1">
+    <row r="516" spans="1:4">
       <c r="A516" t="s">
         <v>279</v>
       </c>
@@ -7805,7 +7810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:4" hidden="1">
+    <row r="517" spans="1:4">
       <c r="A517" t="s">
         <v>279</v>
       </c>
@@ -7816,7 +7821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:4" hidden="1">
+    <row r="518" spans="1:4">
       <c r="A518" t="s">
         <v>279</v>
       </c>
@@ -7827,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1">
+    <row r="519" spans="1:4">
       <c r="A519" t="s">
         <v>279</v>
       </c>
@@ -7838,7 +7843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1">
+    <row r="520" spans="1:4">
       <c r="A520" t="s">
         <v>279</v>
       </c>
@@ -7849,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4" hidden="1">
+    <row r="521" spans="1:4">
       <c r="A521" t="s">
         <v>279</v>
       </c>
@@ -7860,7 +7865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:4" hidden="1">
+    <row r="522" spans="1:4">
       <c r="A522" t="s">
         <v>279</v>
       </c>
@@ -7871,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1">
+    <row r="523" spans="1:4">
       <c r="A523" t="s">
         <v>279</v>
       </c>
@@ -7882,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:4" hidden="1">
+    <row r="524" spans="1:4">
       <c r="A524" t="s">
         <v>279</v>
       </c>
@@ -7893,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1">
+    <row r="525" spans="1:4">
       <c r="A525" t="s">
         <v>279</v>
       </c>
@@ -7904,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1">
+    <row r="526" spans="1:4">
       <c r="A526" t="s">
         <v>279</v>
       </c>
@@ -7915,7 +7920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1">
+    <row r="527" spans="1:4">
       <c r="A527" t="s">
         <v>279</v>
       </c>
@@ -7926,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1">
+    <row r="528" spans="1:4">
       <c r="A528" t="s">
         <v>279</v>
       </c>
@@ -7937,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1">
+    <row r="529" spans="1:4">
       <c r="A529" t="s">
         <v>279</v>
       </c>
@@ -7948,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" hidden="1">
+    <row r="530" spans="1:4">
       <c r="A530" t="s">
         <v>279</v>
       </c>
@@ -7959,7 +7964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:4" hidden="1">
+    <row r="531" spans="1:4">
       <c r="A531" t="s">
         <v>279</v>
       </c>
@@ -7970,7 +7975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:4" hidden="1">
+    <row r="532" spans="1:4">
       <c r="A532" t="s">
         <v>279</v>
       </c>
@@ -7981,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:4" hidden="1">
+    <row r="533" spans="1:4">
       <c r="A533" t="s">
         <v>279</v>
       </c>
@@ -7992,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:4" hidden="1">
+    <row r="534" spans="1:4">
       <c r="A534" t="s">
         <v>279</v>
       </c>
@@ -8003,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:4" hidden="1">
+    <row r="535" spans="1:4">
       <c r="A535" t="s">
         <v>279</v>
       </c>
@@ -8014,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1">
+    <row r="536" spans="1:4">
       <c r="A536" t="s">
         <v>279</v>
       </c>
@@ -8025,7 +8030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1">
+    <row r="537" spans="1:4">
       <c r="A537" t="s">
         <v>279</v>
       </c>
@@ -8036,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1">
+    <row r="538" spans="1:4">
       <c r="A538" t="s">
         <v>279</v>
       </c>
@@ -8047,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1">
+    <row r="539" spans="1:4">
       <c r="A539" t="s">
         <v>279</v>
       </c>
@@ -8058,7 +8063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:4" hidden="1">
+    <row r="540" spans="1:4">
       <c r="A540" t="s">
         <v>279</v>
       </c>
@@ -8069,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4" hidden="1">
+    <row r="541" spans="1:4">
       <c r="A541" t="s">
         <v>279</v>
       </c>
@@ -8080,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:4" hidden="1">
+    <row r="542" spans="1:4">
       <c r="A542" t="s">
         <v>279</v>
       </c>
@@ -8094,7 +8099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:4" hidden="1">
+    <row r="543" spans="1:4">
       <c r="A543" t="s">
         <v>279</v>
       </c>
@@ -8108,7 +8113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:4" hidden="1">
+    <row r="544" spans="1:4">
       <c r="A544" t="s">
         <v>279</v>
       </c>
@@ -8119,7 +8124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1">
+    <row r="545" spans="1:4">
       <c r="A545" t="s">
         <v>295</v>
       </c>
@@ -8133,7 +8138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1">
+    <row r="546" spans="1:4">
       <c r="A546" t="s">
         <v>295</v>
       </c>
@@ -8144,7 +8149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:4" hidden="1">
+    <row r="547" spans="1:4">
       <c r="A547" t="s">
         <v>295</v>
       </c>
@@ -8155,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" hidden="1">
+    <row r="548" spans="1:4">
       <c r="A548" t="s">
         <v>295</v>
       </c>
@@ -8166,7 +8171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1">
+    <row r="549" spans="1:4">
       <c r="A549" t="s">
         <v>295</v>
       </c>
@@ -8177,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" hidden="1">
+    <row r="550" spans="1:4">
       <c r="A550" t="s">
         <v>295</v>
       </c>
@@ -8191,7 +8196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1">
+    <row r="551" spans="1:4">
       <c r="A551" t="s">
         <v>295</v>
       </c>
@@ -8205,7 +8210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1">
+    <row r="552" spans="1:4">
       <c r="A552" t="s">
         <v>295</v>
       </c>
@@ -8216,7 +8221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1">
+    <row r="553" spans="1:4">
       <c r="A553" t="s">
         <v>295</v>
       </c>
@@ -8227,7 +8232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1">
+    <row r="554" spans="1:4">
       <c r="A554" t="s">
         <v>295</v>
       </c>
@@ -8241,7 +8246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:4" hidden="1">
+    <row r="555" spans="1:4">
       <c r="A555" t="s">
         <v>295</v>
       </c>
@@ -8255,7 +8260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1">
+    <row r="556" spans="1:4">
       <c r="A556" t="s">
         <v>295</v>
       </c>
@@ -8269,7 +8274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1">
+    <row r="557" spans="1:4">
       <c r="A557" t="s">
         <v>295</v>
       </c>
@@ -8283,7 +8288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1">
+    <row r="558" spans="1:4">
       <c r="A558" t="s">
         <v>295</v>
       </c>
@@ -8297,7 +8302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:4" hidden="1">
+    <row r="559" spans="1:4">
       <c r="A559" t="s">
         <v>295</v>
       </c>
@@ -8308,7 +8313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:4" hidden="1">
+    <row r="560" spans="1:4">
       <c r="A560" t="s">
         <v>295</v>
       </c>
@@ -8319,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:4" hidden="1">
+    <row r="561" spans="1:4">
       <c r="A561" t="s">
         <v>295</v>
       </c>
@@ -8330,7 +8335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:4" hidden="1">
+    <row r="562" spans="1:4">
       <c r="A562" t="s">
         <v>295</v>
       </c>
@@ -8341,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:4" hidden="1">
+    <row r="563" spans="1:4">
       <c r="A563" t="s">
         <v>295</v>
       </c>
@@ -8352,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:4" hidden="1">
+    <row r="564" spans="1:4">
       <c r="A564" t="s">
         <v>295</v>
       </c>
@@ -8363,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:4" hidden="1">
+    <row r="565" spans="1:4">
       <c r="A565" t="s">
         <v>295</v>
       </c>
@@ -8374,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:4" hidden="1">
+    <row r="566" spans="1:4">
       <c r="A566" t="s">
         <v>295</v>
       </c>
@@ -8388,7 +8393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:4" hidden="1">
+    <row r="567" spans="1:4">
       <c r="A567" t="s">
         <v>295</v>
       </c>
@@ -8402,7 +8407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:4" hidden="1">
+    <row r="568" spans="1:4">
       <c r="A568" t="s">
         <v>295</v>
       </c>
@@ -8416,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:4" hidden="1">
+    <row r="569" spans="1:4">
       <c r="A569" t="s">
         <v>295</v>
       </c>
@@ -8430,7 +8435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:4" hidden="1">
+    <row r="570" spans="1:4">
       <c r="A570" t="s">
         <v>295</v>
       </c>
@@ -8441,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:4" hidden="1">
+    <row r="571" spans="1:4">
       <c r="A571" t="s">
         <v>295</v>
       </c>
@@ -8452,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:4" hidden="1">
+    <row r="572" spans="1:4">
       <c r="A572" t="s">
         <v>295</v>
       </c>
@@ -8463,7 +8468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:4" hidden="1">
+    <row r="573" spans="1:4">
       <c r="A573" t="s">
         <v>295</v>
       </c>
@@ -8474,7 +8479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:4" hidden="1">
+    <row r="574" spans="1:4">
       <c r="A574" t="s">
         <v>295</v>
       </c>
@@ -8485,7 +8490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:4" hidden="1">
+    <row r="575" spans="1:4">
       <c r="A575" t="s">
         <v>295</v>
       </c>
@@ -8496,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:4" hidden="1">
+    <row r="576" spans="1:4">
       <c r="A576" t="s">
         <v>295</v>
       </c>
@@ -8507,7 +8512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:4" hidden="1">
+    <row r="577" spans="1:4">
       <c r="A577" t="s">
         <v>295</v>
       </c>
@@ -8518,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1">
+    <row r="578" spans="1:4">
       <c r="A578" t="s">
         <v>295</v>
       </c>
@@ -8532,7 +8537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1">
+    <row r="579" spans="1:4">
       <c r="A579" t="s">
         <v>295</v>
       </c>
@@ -8543,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1">
+    <row r="580" spans="1:4">
       <c r="A580" t="s">
         <v>295</v>
       </c>
@@ -8554,7 +8559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1">
+    <row r="581" spans="1:4">
       <c r="A581" t="s">
         <v>308</v>
       </c>
@@ -8568,7 +8573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1">
+    <row r="582" spans="1:4">
       <c r="A582" t="s">
         <v>308</v>
       </c>
@@ -8579,7 +8584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1">
+    <row r="583" spans="1:4">
       <c r="A583" t="s">
         <v>308</v>
       </c>
@@ -8590,7 +8595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1">
+    <row r="584" spans="1:4">
       <c r="A584" t="s">
         <v>308</v>
       </c>
@@ -8601,7 +8606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1">
+    <row r="585" spans="1:4">
       <c r="A585" t="s">
         <v>308</v>
       </c>
@@ -8612,7 +8617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:4" hidden="1">
+    <row r="586" spans="1:4">
       <c r="A586" t="s">
         <v>308</v>
       </c>
@@ -8623,7 +8628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1">
+    <row r="587" spans="1:4">
       <c r="A587" t="s">
         <v>308</v>
       </c>
@@ -8634,7 +8639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:4" hidden="1">
+    <row r="588" spans="1:4">
       <c r="A588" t="s">
         <v>308</v>
       </c>
@@ -8645,7 +8650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1">
+    <row r="589" spans="1:4">
       <c r="A589" t="s">
         <v>308</v>
       </c>
@@ -8656,7 +8661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1">
+    <row r="590" spans="1:4">
       <c r="A590" t="s">
         <v>308</v>
       </c>
@@ -8667,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1">
+    <row r="591" spans="1:4">
       <c r="A591" t="s">
         <v>308</v>
       </c>
@@ -8681,7 +8686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:4" hidden="1">
+    <row r="592" spans="1:4">
       <c r="A592" t="s">
         <v>308</v>
       </c>
@@ -8695,7 +8700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:4" hidden="1">
+    <row r="593" spans="1:4">
       <c r="A593" t="s">
         <v>308</v>
       </c>
@@ -8706,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1">
+    <row r="594" spans="1:4">
       <c r="A594" t="s">
         <v>308</v>
       </c>
@@ -8720,7 +8725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1">
+    <row r="595" spans="1:4">
       <c r="A595" t="s">
         <v>308</v>
       </c>
@@ -8731,7 +8736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:4" hidden="1">
+    <row r="596" spans="1:4">
       <c r="A596" t="s">
         <v>308</v>
       </c>
@@ -8745,7 +8750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1">
+    <row r="597" spans="1:4">
       <c r="A597" t="s">
         <v>308</v>
       </c>
@@ -8759,7 +8764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1">
+    <row r="598" spans="1:4">
       <c r="A598" t="s">
         <v>308</v>
       </c>
@@ -8773,7 +8778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1">
+    <row r="599" spans="1:4">
       <c r="A599" t="s">
         <v>308</v>
       </c>
@@ -8787,7 +8792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1">
+    <row r="600" spans="1:4">
       <c r="A600" t="s">
         <v>308</v>
       </c>
@@ -8798,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1">
+    <row r="601" spans="1:4">
       <c r="A601" t="s">
         <v>308</v>
       </c>
@@ -8812,7 +8817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1">
+    <row r="602" spans="1:4">
       <c r="A602" t="s">
         <v>308</v>
       </c>
@@ -8823,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1">
+    <row r="603" spans="1:4">
       <c r="A603" t="s">
         <v>308</v>
       </c>
@@ -8834,7 +8839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1">
+    <row r="604" spans="1:4">
       <c r="A604" t="s">
         <v>308</v>
       </c>
@@ -8845,7 +8850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1">
+    <row r="605" spans="1:4">
       <c r="A605" t="s">
         <v>308</v>
       </c>
@@ -8856,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1">
+    <row r="606" spans="1:4">
       <c r="A606" t="s">
         <v>308</v>
       </c>
@@ -8867,7 +8872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1">
+    <row r="607" spans="1:4">
       <c r="A607" t="s">
         <v>308</v>
       </c>
@@ -8878,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1">
+    <row r="608" spans="1:4">
       <c r="A608" t="s">
         <v>308</v>
       </c>
@@ -8889,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1">
+    <row r="609" spans="1:4">
       <c r="A609" t="s">
         <v>308</v>
       </c>
@@ -8900,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1">
+    <row r="610" spans="1:4">
       <c r="A610" t="s">
         <v>308</v>
       </c>
@@ -8911,7 +8916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1">
+    <row r="611" spans="1:4">
       <c r="A611" t="s">
         <v>308</v>
       </c>
@@ -8922,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1">
+    <row r="612" spans="1:4">
       <c r="A612" t="s">
         <v>308</v>
       </c>
@@ -8933,7 +8938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1">
+    <row r="613" spans="1:4">
       <c r="A613" t="s">
         <v>308</v>
       </c>
@@ -8944,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1">
+    <row r="614" spans="1:4">
       <c r="A614" t="s">
         <v>308</v>
       </c>
@@ -8955,7 +8960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+    <row r="615" spans="1:4" ht="15.75" thickBot="1">
       <c r="A615" s="3" t="s">
         <v>308</v>
       </c>
@@ -8967,7 +8972,7 @@
       </c>
       <c r="D615" s="3"/>
     </row>
-    <row r="616" spans="1:4" hidden="1">
+    <row r="616" spans="1:4" ht="15.75" thickTop="1">
       <c r="A616" t="s">
         <v>350</v>
       </c>
@@ -8978,7 +8983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1">
+    <row r="617" spans="1:4">
       <c r="A617" t="s">
         <v>350</v>
       </c>
@@ -8989,7 +8994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1">
+    <row r="618" spans="1:4">
       <c r="A618" t="s">
         <v>350</v>
       </c>
@@ -9000,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:4" hidden="1">
+    <row r="619" spans="1:4">
       <c r="A619" t="s">
         <v>350</v>
       </c>
@@ -9011,7 +9016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:4" hidden="1">
+    <row r="620" spans="1:4">
       <c r="A620" t="s">
         <v>350</v>
       </c>
@@ -9022,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1">
+    <row r="621" spans="1:4">
       <c r="A621" t="s">
         <v>350</v>
       </c>
@@ -9033,7 +9038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:4" hidden="1">
+    <row r="622" spans="1:4">
       <c r="A622" t="s">
         <v>350</v>
       </c>
@@ -9044,7 +9049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:4" hidden="1">
+    <row r="623" spans="1:4">
       <c r="A623" t="s">
         <v>350</v>
       </c>
@@ -9055,7 +9060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1">
+    <row r="624" spans="1:4">
       <c r="A624" t="s">
         <v>350</v>
       </c>
@@ -9066,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:3" hidden="1">
+    <row r="625" spans="1:3">
       <c r="A625" t="s">
         <v>350</v>
       </c>
@@ -9077,7 +9082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:3" hidden="1">
+    <row r="626" spans="1:3">
       <c r="A626" t="s">
         <v>350</v>
       </c>
@@ -9088,7 +9093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:3" hidden="1">
+    <row r="627" spans="1:3">
       <c r="A627" t="s">
         <v>350</v>
       </c>
@@ -9099,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:3" hidden="1">
+    <row r="628" spans="1:3">
       <c r="A628" t="s">
         <v>350</v>
       </c>
@@ -9110,7 +9115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:3" hidden="1">
+    <row r="629" spans="1:3">
       <c r="A629" t="s">
         <v>350</v>
       </c>
@@ -9121,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:3" hidden="1">
+    <row r="630" spans="1:3">
       <c r="A630" t="s">
         <v>350</v>
       </c>
@@ -9132,7 +9137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:3" hidden="1">
+    <row r="631" spans="1:3">
       <c r="A631" t="s">
         <v>350</v>
       </c>
@@ -9143,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:3" hidden="1">
+    <row r="632" spans="1:3">
       <c r="A632" t="s">
         <v>350</v>
       </c>
@@ -9154,7 +9159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:3" hidden="1">
+    <row r="633" spans="1:3">
       <c r="A633" t="s">
         <v>350</v>
       </c>
@@ -9165,7 +9170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:3" hidden="1">
+    <row r="634" spans="1:3">
       <c r="A634" t="s">
         <v>350</v>
       </c>
@@ -9176,7 +9181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:3" hidden="1">
+    <row r="635" spans="1:3">
       <c r="A635" t="s">
         <v>350</v>
       </c>
@@ -9187,7 +9192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:3" hidden="1">
+    <row r="636" spans="1:3">
       <c r="A636" t="s">
         <v>350</v>
       </c>
@@ -9198,7 +9203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:3" hidden="1">
+    <row r="637" spans="1:3">
       <c r="A637" t="s">
         <v>350</v>
       </c>
@@ -9209,7 +9214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:3" hidden="1">
+    <row r="638" spans="1:3">
       <c r="A638" t="s">
         <v>350</v>
       </c>
@@ -9220,7 +9225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:3" hidden="1">
+    <row r="639" spans="1:3">
       <c r="A639" t="s">
         <v>350</v>
       </c>
@@ -9231,7 +9236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:3" hidden="1">
+    <row r="640" spans="1:3">
       <c r="A640" t="s">
         <v>350</v>
       </c>
@@ -9242,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:4" hidden="1">
+    <row r="641" spans="1:4">
       <c r="A641" t="s">
         <v>350</v>
       </c>
@@ -9253,7 +9258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1">
+    <row r="642" spans="1:4">
       <c r="A642" t="s">
         <v>350</v>
       </c>
@@ -9264,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:4" hidden="1">
+    <row r="643" spans="1:4">
       <c r="A643" t="s">
         <v>350</v>
       </c>
@@ -9275,7 +9280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1">
+    <row r="644" spans="1:4">
       <c r="A644" t="s">
         <v>350</v>
       </c>
@@ -9286,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:4" hidden="1">
+    <row r="645" spans="1:4">
       <c r="A645" t="s">
         <v>350</v>
       </c>
@@ -9297,7 +9302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:4" hidden="1">
+    <row r="646" spans="1:4">
       <c r="A646" s="2" t="s">
         <v>350</v>
       </c>
@@ -9309,7 +9314,7 @@
       </c>
       <c r="D646" s="2"/>
     </row>
-    <row r="647" spans="1:4" hidden="1">
+    <row r="647" spans="1:4">
       <c r="A647" t="s">
         <v>356</v>
       </c>
@@ -9320,7 +9325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:4" hidden="1">
+    <row r="648" spans="1:4">
       <c r="A648" t="s">
         <v>356</v>
       </c>
@@ -9331,7 +9336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:4" hidden="1">
+    <row r="649" spans="1:4">
       <c r="A649" t="s">
         <v>356</v>
       </c>
@@ -9342,7 +9347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:4" hidden="1">
+    <row r="650" spans="1:4">
       <c r="A650" t="s">
         <v>356</v>
       </c>
@@ -9353,7 +9358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:4" hidden="1">
+    <row r="651" spans="1:4">
       <c r="A651" t="s">
         <v>356</v>
       </c>
@@ -9364,7 +9369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:4" hidden="1">
+    <row r="652" spans="1:4">
       <c r="A652" t="s">
         <v>356</v>
       </c>
@@ -9375,7 +9380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:4" hidden="1">
+    <row r="653" spans="1:4">
       <c r="A653" t="s">
         <v>356</v>
       </c>
@@ -9386,7 +9391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:4" hidden="1">
+    <row r="654" spans="1:4">
       <c r="A654" t="s">
         <v>356</v>
       </c>
@@ -9397,7 +9402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:4" hidden="1">
+    <row r="655" spans="1:4">
       <c r="A655" t="s">
         <v>356</v>
       </c>
@@ -9408,7 +9413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:4" hidden="1">
+    <row r="656" spans="1:4">
       <c r="A656" t="s">
         <v>356</v>
       </c>
@@ -9419,7 +9424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:3" hidden="1">
+    <row r="657" spans="1:3">
       <c r="A657" t="s">
         <v>356</v>
       </c>
@@ -9430,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:3" hidden="1">
+    <row r="658" spans="1:3">
       <c r="A658" t="s">
         <v>356</v>
       </c>
@@ -9441,7 +9446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:3" hidden="1">
+    <row r="659" spans="1:3">
       <c r="A659" t="s">
         <v>356</v>
       </c>
@@ -9452,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:3" hidden="1">
+    <row r="660" spans="1:3">
       <c r="A660" t="s">
         <v>356</v>
       </c>
@@ -9463,7 +9468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:3" hidden="1">
+    <row r="661" spans="1:3">
       <c r="A661" t="s">
         <v>356</v>
       </c>
@@ -9474,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:3" hidden="1">
+    <row r="662" spans="1:3">
       <c r="A662" t="s">
         <v>356</v>
       </c>
@@ -9485,7 +9490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:3" hidden="1">
+    <row r="663" spans="1:3">
       <c r="A663" t="s">
         <v>356</v>
       </c>
@@ -9496,7 +9501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:3" hidden="1">
+    <row r="664" spans="1:3">
       <c r="A664" t="s">
         <v>356</v>
       </c>
@@ -9507,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:3" hidden="1">
+    <row r="665" spans="1:3">
       <c r="A665" t="s">
         <v>356</v>
       </c>
@@ -9518,7 +9523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:3" hidden="1">
+    <row r="666" spans="1:3">
       <c r="A666" t="s">
         <v>356</v>
       </c>
@@ -9529,7 +9534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:3" hidden="1">
+    <row r="667" spans="1:3">
       <c r="A667" t="s">
         <v>356</v>
       </c>
@@ -9540,7 +9545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:3" hidden="1">
+    <row r="668" spans="1:3">
       <c r="A668" t="s">
         <v>356</v>
       </c>
@@ -9551,7 +9556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:3" hidden="1">
+    <row r="669" spans="1:3">
       <c r="A669" t="s">
         <v>356</v>
       </c>
@@ -9562,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:3" hidden="1">
+    <row r="670" spans="1:3">
       <c r="A670" t="s">
         <v>356</v>
       </c>
@@ -9573,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:3" hidden="1">
+    <row r="671" spans="1:3">
       <c r="A671" t="s">
         <v>356</v>
       </c>
@@ -9584,7 +9589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:3" hidden="1">
+    <row r="672" spans="1:3">
       <c r="A672" t="s">
         <v>356</v>
       </c>
@@ -9595,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:4" hidden="1">
+    <row r="673" spans="1:4">
       <c r="A673" t="s">
         <v>356</v>
       </c>
@@ -9606,7 +9611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:4" hidden="1">
+    <row r="674" spans="1:4">
       <c r="A674" s="2" t="s">
         <v>356</v>
       </c>
@@ -9618,64 +9623,69 @@
       </c>
       <c r="D674" s="2"/>
     </row>
-    <row r="675" spans="1:4" hidden="1">
-      <c r="A675" t="s">
-        <v>362</v>
+    <row r="675" spans="1:4">
+      <c r="A675" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="B675" t="s">
+        <v>5</v>
+      </c>
+      <c r="C675">
+        <v>0</v>
+      </c>
+      <c r="D675" s="2"/>
+    </row>
+    <row r="676" spans="1:4">
+      <c r="A676" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B676" t="s">
+        <v>6</v>
+      </c>
+      <c r="C676">
+        <v>0</v>
+      </c>
+      <c r="D676" s="2"/>
+    </row>
+    <row r="677" spans="1:4">
+      <c r="A677" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B677" t="s">
         <v>36</v>
       </c>
-      <c r="C675">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="676" spans="1:4" hidden="1">
-      <c r="A676" t="s">
-        <v>362</v>
-      </c>
-      <c r="B676" t="s">
-        <v>363</v>
-      </c>
-      <c r="C676">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="677" spans="1:4" hidden="1">
-      <c r="A677" t="s">
-        <v>362</v>
-      </c>
-      <c r="B677" t="s">
-        <v>364</v>
-      </c>
       <c r="C677">
         <v>0</v>
       </c>
-    </row>
-    <row r="678" spans="1:4" hidden="1">
-      <c r="A678" t="s">
-        <v>362</v>
+      <c r="D677" s="2"/>
+    </row>
+    <row r="678" spans="1:4">
+      <c r="A678" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="B678" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="C678">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="679" spans="1:4" hidden="1">
-      <c r="A679" t="s">
-        <v>362</v>
+        <v>0</v>
+      </c>
+      <c r="D678" s="2"/>
+    </row>
+    <row r="679" spans="1:4">
+      <c r="A679" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="B679" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C679">
         <v>0</v>
       </c>
-    </row>
-    <row r="680" spans="1:4" hidden="1">
-      <c r="A680" t="s">
-        <v>362</v>
+      <c r="D679" s="2"/>
+    </row>
+    <row r="680" spans="1:4">
+      <c r="A680" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="B680" t="s">
         <v>355</v>
@@ -9683,295 +9693,410 @@
       <c r="C680">
         <v>0</v>
       </c>
-    </row>
-    <row r="681" spans="1:4" hidden="1">
-      <c r="A681" t="s">
+      <c r="D680" s="2"/>
+    </row>
+    <row r="681" spans="1:4">
+      <c r="A681" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B681" t="s">
+        <v>58</v>
+      </c>
+      <c r="C681">
+        <v>0</v>
+      </c>
+      <c r="D681" s="2"/>
+    </row>
+    <row r="682" spans="1:4">
+      <c r="A682" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B682" t="s">
+        <v>14</v>
+      </c>
+      <c r="C682">
+        <v>0</v>
+      </c>
+      <c r="D682" s="2"/>
+    </row>
+    <row r="683" spans="1:4">
+      <c r="A683" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B683" t="s">
+        <v>33</v>
+      </c>
+      <c r="C683">
+        <v>0</v>
+      </c>
+      <c r="D683" s="2"/>
+    </row>
+    <row r="684" spans="1:4">
+      <c r="A684" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B684" t="s">
+        <v>3</v>
+      </c>
+      <c r="C684">
+        <v>0</v>
+      </c>
+      <c r="D684" s="2"/>
+    </row>
+    <row r="685" spans="1:4">
+      <c r="A685" t="s">
         <v>362</v>
       </c>
-      <c r="B681" t="s">
+      <c r="B685" t="s">
+        <v>36</v>
+      </c>
+      <c r="C685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4">
+      <c r="A686" t="s">
+        <v>362</v>
+      </c>
+      <c r="B686" t="s">
+        <v>363</v>
+      </c>
+      <c r="C686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4">
+      <c r="A687" t="s">
+        <v>362</v>
+      </c>
+      <c r="B687" t="s">
+        <v>364</v>
+      </c>
+      <c r="C687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4">
+      <c r="A688" t="s">
+        <v>362</v>
+      </c>
+      <c r="B688" t="s">
+        <v>338</v>
+      </c>
+      <c r="C688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4">
+      <c r="A689" t="s">
+        <v>362</v>
+      </c>
+      <c r="B689" t="s">
+        <v>365</v>
+      </c>
+      <c r="C689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4">
+      <c r="A690" t="s">
+        <v>362</v>
+      </c>
+      <c r="B690" t="s">
+        <v>355</v>
+      </c>
+      <c r="C690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4">
+      <c r="A691" t="s">
+        <v>362</v>
+      </c>
+      <c r="B691" t="s">
         <v>21</v>
       </c>
-      <c r="C681">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="682" spans="1:4" hidden="1">
-      <c r="A682" s="2" t="s">
+      <c r="C691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4">
+      <c r="A692" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B682" s="2" t="s">
+      <c r="B692" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C682" s="2">
-        <v>0</v>
-      </c>
-      <c r="D682" s="2"/>
-    </row>
-    <row r="683" spans="1:4" hidden="1">
-      <c r="A683" t="s">
-        <v>366</v>
-      </c>
-      <c r="B683" t="s">
-        <v>5</v>
-      </c>
-      <c r="C683">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="684" spans="1:4" hidden="1">
-      <c r="A684" t="s">
-        <v>366</v>
-      </c>
-      <c r="B684" t="s">
-        <v>7</v>
-      </c>
-      <c r="C684">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="685" spans="1:4" hidden="1">
-      <c r="A685" t="s">
-        <v>366</v>
-      </c>
-      <c r="B685" t="s">
-        <v>6</v>
-      </c>
-      <c r="C685">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="686" spans="1:4" hidden="1">
-      <c r="A686" t="s">
-        <v>366</v>
-      </c>
-      <c r="B686" t="s">
-        <v>367</v>
-      </c>
-      <c r="C686">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="687" spans="1:4" hidden="1">
-      <c r="A687" t="s">
-        <v>366</v>
-      </c>
-      <c r="B687" t="s">
-        <v>368</v>
-      </c>
-      <c r="C687">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="688" spans="1:4" hidden="1">
-      <c r="A688" t="s">
-        <v>366</v>
-      </c>
-      <c r="B688" t="s">
-        <v>253</v>
-      </c>
-      <c r="C688">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="689" spans="1:4" hidden="1">
-      <c r="A689" t="s">
-        <v>366</v>
-      </c>
-      <c r="B689" t="s">
-        <v>112</v>
-      </c>
-      <c r="C689">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="690" spans="1:4" hidden="1">
-      <c r="A690" t="s">
-        <v>366</v>
-      </c>
-      <c r="B690" t="s">
-        <v>369</v>
-      </c>
-      <c r="C690">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="691" spans="1:4" hidden="1">
-      <c r="A691" t="s">
-        <v>366</v>
-      </c>
-      <c r="B691" t="s">
-        <v>9</v>
-      </c>
-      <c r="C691">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="692" spans="1:4" hidden="1">
-      <c r="A692" t="s">
-        <v>366</v>
-      </c>
-      <c r="B692" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C692" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="693" spans="1:4" hidden="1">
+        <v>0</v>
+      </c>
+      <c r="D692" s="2"/>
+    </row>
+    <row r="693" spans="1:4">
       <c r="A693" t="s">
         <v>366</v>
       </c>
       <c r="B693" t="s">
+        <v>5</v>
+      </c>
+      <c r="C693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4">
+      <c r="A694" t="s">
+        <v>366</v>
+      </c>
+      <c r="B694" t="s">
+        <v>7</v>
+      </c>
+      <c r="C694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4">
+      <c r="A695" t="s">
+        <v>366</v>
+      </c>
+      <c r="B695" t="s">
+        <v>6</v>
+      </c>
+      <c r="C695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4">
+      <c r="A696" t="s">
+        <v>366</v>
+      </c>
+      <c r="B696" t="s">
+        <v>367</v>
+      </c>
+      <c r="C696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4">
+      <c r="A697" t="s">
+        <v>366</v>
+      </c>
+      <c r="B697" t="s">
+        <v>368</v>
+      </c>
+      <c r="C697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4">
+      <c r="A698" t="s">
+        <v>366</v>
+      </c>
+      <c r="B698" t="s">
+        <v>253</v>
+      </c>
+      <c r="C698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4">
+      <c r="A699" t="s">
+        <v>366</v>
+      </c>
+      <c r="B699" t="s">
+        <v>112</v>
+      </c>
+      <c r="C699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4">
+      <c r="A700" t="s">
+        <v>366</v>
+      </c>
+      <c r="B700" t="s">
+        <v>369</v>
+      </c>
+      <c r="C700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4">
+      <c r="A701" t="s">
+        <v>366</v>
+      </c>
+      <c r="B701" t="s">
+        <v>9</v>
+      </c>
+      <c r="C701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4">
+      <c r="A702" t="s">
+        <v>366</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C702" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4">
+      <c r="A703" t="s">
+        <v>366</v>
+      </c>
+      <c r="B703" t="s">
         <v>256</v>
       </c>
-      <c r="C693">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="694" spans="1:4" hidden="1">
-      <c r="A694" s="2" t="s">
+      <c r="C703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4">
+      <c r="A704" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B694" s="2" t="s">
+      <c r="B704" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C694" s="2">
-        <v>0</v>
-      </c>
-      <c r="D694" s="2"/>
-    </row>
-    <row r="695" spans="1:4" hidden="1">
-      <c r="A695" t="s">
-        <v>370</v>
-      </c>
-      <c r="B695" t="s">
-        <v>36</v>
-      </c>
-      <c r="C695">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="696" spans="1:4" hidden="1">
-      <c r="A696" t="s">
-        <v>370</v>
-      </c>
-      <c r="B696" t="s">
-        <v>5</v>
-      </c>
-      <c r="C696">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="697" spans="1:4" hidden="1">
-      <c r="A697" t="s">
-        <v>370</v>
-      </c>
-      <c r="B697" t="s">
-        <v>6</v>
-      </c>
-      <c r="C697">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="698" spans="1:4" hidden="1">
-      <c r="A698" t="s">
-        <v>370</v>
-      </c>
-      <c r="B698" t="s">
-        <v>341</v>
-      </c>
-      <c r="C698">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="699" spans="1:4" hidden="1">
-      <c r="A699" t="s">
-        <v>370</v>
-      </c>
-      <c r="B699" t="s">
-        <v>342</v>
-      </c>
-      <c r="C699">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="700" spans="1:4" hidden="1">
-      <c r="A700" t="s">
-        <v>370</v>
-      </c>
-      <c r="B700" t="s">
-        <v>343</v>
-      </c>
-      <c r="C700">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="701" spans="1:4" hidden="1">
-      <c r="A701" t="s">
-        <v>370</v>
-      </c>
-      <c r="B701" t="s">
-        <v>344</v>
-      </c>
-      <c r="C701">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="702" spans="1:4" hidden="1">
-      <c r="A702" t="s">
-        <v>370</v>
-      </c>
-      <c r="B702" t="s">
-        <v>345</v>
-      </c>
-      <c r="C702">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="703" spans="1:4" hidden="1">
-      <c r="A703" t="s">
-        <v>370</v>
-      </c>
-      <c r="B703" t="s">
-        <v>346</v>
-      </c>
-      <c r="C703">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="704" spans="1:4" hidden="1">
-      <c r="A704" t="s">
-        <v>370</v>
-      </c>
-      <c r="B704" t="s">
-        <v>347</v>
-      </c>
-      <c r="C704">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="705" spans="1:4" hidden="1">
+      <c r="C704" s="2">
+        <v>0</v>
+      </c>
+      <c r="D704" s="2"/>
+    </row>
+    <row r="705" spans="1:4">
       <c r="A705" t="s">
         <v>370</v>
       </c>
       <c r="B705" t="s">
+        <v>36</v>
+      </c>
+      <c r="C705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4">
+      <c r="A706" t="s">
+        <v>370</v>
+      </c>
+      <c r="B706" t="s">
+        <v>5</v>
+      </c>
+      <c r="C706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4">
+      <c r="A707" t="s">
+        <v>370</v>
+      </c>
+      <c r="B707" t="s">
+        <v>6</v>
+      </c>
+      <c r="C707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4">
+      <c r="A708" t="s">
+        <v>370</v>
+      </c>
+      <c r="B708" t="s">
+        <v>341</v>
+      </c>
+      <c r="C708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4">
+      <c r="A709" t="s">
+        <v>370</v>
+      </c>
+      <c r="B709" t="s">
+        <v>342</v>
+      </c>
+      <c r="C709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4">
+      <c r="A710" t="s">
+        <v>370</v>
+      </c>
+      <c r="B710" t="s">
+        <v>343</v>
+      </c>
+      <c r="C710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4">
+      <c r="A711" t="s">
+        <v>370</v>
+      </c>
+      <c r="B711" t="s">
+        <v>344</v>
+      </c>
+      <c r="C711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4">
+      <c r="A712" t="s">
+        <v>370</v>
+      </c>
+      <c r="B712" t="s">
+        <v>345</v>
+      </c>
+      <c r="C712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4">
+      <c r="A713" t="s">
+        <v>370</v>
+      </c>
+      <c r="B713" t="s">
+        <v>346</v>
+      </c>
+      <c r="C713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4">
+      <c r="A714" t="s">
+        <v>370</v>
+      </c>
+      <c r="B714" t="s">
+        <v>347</v>
+      </c>
+      <c r="C714">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4">
+      <c r="A715" t="s">
+        <v>370</v>
+      </c>
+      <c r="B715" t="s">
         <v>348</v>
       </c>
-      <c r="C705">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="706" spans="1:4" hidden="1">
-      <c r="A706" s="2" t="s">
+      <c r="C715">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4">
+      <c r="A716" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B706" s="2" t="s">
+      <c r="B716" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C706" s="2">
-        <v>0</v>
-      </c>
-      <c r="D706" s="2"/>
+      <c r="C716" s="2">
+        <v>0</v>
+      </c>
+      <c r="D716" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="389">
   <si>
     <t>TABELA</t>
   </si>
@@ -1247,7 +1247,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D734" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D731" totalsRowShown="0">
+  <autoFilter ref="A1:D731">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="ln.ods_pec_cab"/>
+        <filter val="ln.ods_pec_det"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:D734">
     <sortCondition ref="A2:A734"/>
   </sortState>
@@ -1546,11 +1554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D734"/>
+  <dimension ref="A1:D731"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A580" sqref="A580:XFD580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1574,7 +1582,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" hidden="1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1585,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" hidden="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1596,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" hidden="1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1607,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" hidden="1">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1618,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" hidden="1">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1629,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" hidden="1">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1640,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" hidden="1">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1651,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" hidden="1">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1662,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" hidden="1">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1673,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" hidden="1">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1684,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" hidden="1">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1695,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" hidden="1">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1709,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" hidden="1">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1723,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" hidden="1">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1737,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" hidden="1">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1751,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" hidden="1">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1765,7 +1773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" hidden="1">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1779,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" hidden="1">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1793,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" hidden="1">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1807,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" hidden="1">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1821,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" hidden="1">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1832,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" hidden="1">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1846,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" hidden="1">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1860,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" hidden="1">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1874,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" hidden="1">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1888,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" hidden="1">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1902,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" hidden="1">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1916,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" hidden="1">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1930,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" hidden="1">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1944,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" hidden="1">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1958,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" hidden="1">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1969,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" hidden="1">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1980,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" hidden="1">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1991,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" hidden="1">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2002,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" hidden="1">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2013,7 +2021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" hidden="1">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2024,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" hidden="1">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2035,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" hidden="1">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2046,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" hidden="1">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -2057,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" hidden="1">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -2068,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" hidden="1">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -2079,7 +2087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" hidden="1">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2090,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" hidden="1">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2101,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" hidden="1">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -2112,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" hidden="1">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -2123,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" hidden="1">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -2134,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" hidden="1">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -2148,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" hidden="1">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -2162,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" hidden="1">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -2176,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" hidden="1">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -2187,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" hidden="1">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -2198,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" hidden="1">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -2209,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" hidden="1">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -2220,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" hidden="1">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -2234,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" hidden="1">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -2248,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" hidden="1">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -2262,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" hidden="1">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -2276,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" hidden="1">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -2287,7 +2295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" hidden="1">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -2298,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" hidden="1">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -2309,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" hidden="1">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -2320,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" hidden="1">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -2331,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" hidden="1">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -2342,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" hidden="1">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -2353,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" hidden="1">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -2367,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" hidden="1">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -2381,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" hidden="1">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -2395,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" hidden="1">
       <c r="A69" t="s">
         <v>49</v>
       </c>
@@ -2406,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" hidden="1">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -2420,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" hidden="1">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -2434,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" hidden="1">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -2448,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" hidden="1">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -2459,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" hidden="1">
       <c r="A74" t="s">
         <v>49</v>
       </c>
@@ -2470,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" hidden="1">
       <c r="A75" t="s">
         <v>363</v>
       </c>
@@ -2481,7 +2489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" hidden="1">
       <c r="A76" t="s">
         <v>363</v>
       </c>
@@ -2492,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" hidden="1">
       <c r="A77" t="s">
         <v>363</v>
       </c>
@@ -2503,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" hidden="1">
       <c r="A78" t="s">
         <v>363</v>
       </c>
@@ -2514,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" hidden="1">
       <c r="A79" t="s">
         <v>363</v>
       </c>
@@ -2525,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" hidden="1">
       <c r="A80" t="s">
         <v>363</v>
       </c>
@@ -2536,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" hidden="1">
       <c r="A81" t="s">
         <v>363</v>
       </c>
@@ -2547,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" hidden="1">
       <c r="A82" t="s">
         <v>363</v>
       </c>
@@ -2558,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" hidden="1">
       <c r="A83" t="s">
         <v>363</v>
       </c>
@@ -2569,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" hidden="1">
       <c r="A84" t="s">
         <v>363</v>
       </c>
@@ -2580,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" hidden="1">
       <c r="A85" t="s">
         <v>363</v>
       </c>
@@ -2591,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" hidden="1">
       <c r="A86" s="2" t="s">
         <v>363</v>
       </c>
@@ -2603,7 +2611,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" hidden="1">
       <c r="A87" t="s">
         <v>367</v>
       </c>
@@ -2614,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" hidden="1">
       <c r="A88" t="s">
         <v>367</v>
       </c>
@@ -2625,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" hidden="1">
       <c r="A89" t="s">
         <v>367</v>
       </c>
@@ -2636,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" hidden="1">
       <c r="A90" t="s">
         <v>367</v>
       </c>
@@ -2647,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" hidden="1">
       <c r="A91" t="s">
         <v>367</v>
       </c>
@@ -2658,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" hidden="1">
       <c r="A92" t="s">
         <v>367</v>
       </c>
@@ -2669,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" hidden="1">
       <c r="A93" t="s">
         <v>367</v>
       </c>
@@ -2680,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" hidden="1">
       <c r="A94" t="s">
         <v>367</v>
       </c>
@@ -2691,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" hidden="1">
       <c r="A95" t="s">
         <v>367</v>
       </c>
@@ -2702,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" hidden="1">
       <c r="A96" t="s">
         <v>367</v>
       </c>
@@ -2713,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" hidden="1">
       <c r="A97" t="s">
         <v>367</v>
       </c>
@@ -2724,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" hidden="1">
       <c r="A98" t="s">
         <v>367</v>
       </c>
@@ -2735,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" hidden="1">
       <c r="A99" t="s">
         <v>367</v>
       </c>
@@ -2746,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" hidden="1">
       <c r="A100" t="s">
         <v>367</v>
       </c>
@@ -2757,7 +2765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" hidden="1">
       <c r="A101" t="s">
         <v>367</v>
       </c>
@@ -2768,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" hidden="1">
       <c r="A102" t="s">
         <v>367</v>
       </c>
@@ -2779,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" hidden="1">
       <c r="A103" t="s">
         <v>367</v>
       </c>
@@ -2790,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" hidden="1">
       <c r="A104" t="s">
         <v>367</v>
       </c>
@@ -2801,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" hidden="1">
       <c r="A105" t="s">
         <v>367</v>
       </c>
@@ -2812,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" hidden="1">
       <c r="A106" t="s">
         <v>367</v>
       </c>
@@ -2823,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" hidden="1">
       <c r="A107" t="s">
         <v>367</v>
       </c>
@@ -2834,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" hidden="1">
       <c r="A108" t="s">
         <v>367</v>
       </c>
@@ -2845,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" hidden="1">
       <c r="A109" t="s">
         <v>367</v>
       </c>
@@ -2856,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" hidden="1">
       <c r="A110" s="2" t="s">
         <v>367</v>
       </c>
@@ -2868,7 +2876,7 @@
       </c>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" hidden="1">
       <c r="A111" t="s">
         <v>347</v>
       </c>
@@ -2879,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" hidden="1">
       <c r="A112" t="s">
         <v>347</v>
       </c>
@@ -2890,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" hidden="1">
       <c r="A113" t="s">
         <v>347</v>
       </c>
@@ -2901,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" hidden="1">
       <c r="A114" t="s">
         <v>347</v>
       </c>
@@ -2912,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" hidden="1">
       <c r="A115" t="s">
         <v>347</v>
       </c>
@@ -2923,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" hidden="1">
       <c r="A116" t="s">
         <v>347</v>
       </c>
@@ -2934,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" hidden="1">
       <c r="A117" t="s">
         <v>347</v>
       </c>
@@ -2945,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" hidden="1">
       <c r="A118" t="s">
         <v>347</v>
       </c>
@@ -2956,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" hidden="1">
       <c r="A119" t="s">
         <v>347</v>
       </c>
@@ -2967,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" hidden="1">
       <c r="A120" t="s">
         <v>347</v>
       </c>
@@ -2978,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" hidden="1">
       <c r="A121" t="s">
         <v>347</v>
       </c>
@@ -2989,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" hidden="1">
       <c r="A122" t="s">
         <v>347</v>
       </c>
@@ -3000,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" hidden="1">
       <c r="A123" t="s">
         <v>347</v>
       </c>
@@ -3011,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" hidden="1">
       <c r="A124" t="s">
         <v>347</v>
       </c>
@@ -3022,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" hidden="1">
       <c r="A125" t="s">
         <v>347</v>
       </c>
@@ -3033,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" hidden="1">
       <c r="A126" t="s">
         <v>347</v>
       </c>
@@ -3044,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" hidden="1">
       <c r="A127" t="s">
         <v>347</v>
       </c>
@@ -3055,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" hidden="1">
       <c r="A128" t="s">
         <v>347</v>
       </c>
@@ -3066,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" hidden="1">
       <c r="A129" t="s">
         <v>347</v>
       </c>
@@ -3077,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" hidden="1">
       <c r="A130" t="s">
         <v>347</v>
       </c>
@@ -3088,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" hidden="1">
       <c r="A131" t="s">
         <v>347</v>
       </c>
@@ -3099,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" hidden="1">
       <c r="A132" t="s">
         <v>347</v>
       </c>
@@ -3110,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" hidden="1">
       <c r="A133" t="s">
         <v>347</v>
       </c>
@@ -3121,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" hidden="1">
       <c r="A134" t="s">
         <v>347</v>
       </c>
@@ -3132,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" hidden="1">
       <c r="A135" t="s">
         <v>347</v>
       </c>
@@ -3143,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" hidden="1">
       <c r="A136" t="s">
         <v>347</v>
       </c>
@@ -3154,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" hidden="1">
       <c r="A137" t="s">
         <v>347</v>
       </c>
@@ -3165,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" hidden="1">
       <c r="A138" t="s">
         <v>347</v>
       </c>
@@ -3176,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" hidden="1">
       <c r="A139" t="s">
         <v>347</v>
       </c>
@@ -3187,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" hidden="1">
       <c r="A140" t="s">
         <v>347</v>
       </c>
@@ -3198,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" hidden="1">
       <c r="A141" s="2" t="s">
         <v>347</v>
       </c>
@@ -3210,7 +3218,7 @@
       </c>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" hidden="1">
       <c r="A142" t="s">
         <v>353</v>
       </c>
@@ -3221,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" hidden="1">
       <c r="A143" t="s">
         <v>353</v>
       </c>
@@ -3232,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" hidden="1">
       <c r="A144" t="s">
         <v>353</v>
       </c>
@@ -3243,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" hidden="1">
       <c r="A145" t="s">
         <v>353</v>
       </c>
@@ -3254,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" hidden="1">
       <c r="A146" t="s">
         <v>353</v>
       </c>
@@ -3265,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" hidden="1">
       <c r="A147" t="s">
         <v>353</v>
       </c>
@@ -3276,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" hidden="1">
       <c r="A148" t="s">
         <v>353</v>
       </c>
@@ -3287,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" hidden="1">
       <c r="A149" t="s">
         <v>353</v>
       </c>
@@ -3298,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" hidden="1">
       <c r="A150" t="s">
         <v>353</v>
       </c>
@@ -3309,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" hidden="1">
       <c r="A151" t="s">
         <v>353</v>
       </c>
@@ -3320,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" hidden="1">
       <c r="A152" t="s">
         <v>353</v>
       </c>
@@ -3331,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" hidden="1">
       <c r="A153" t="s">
         <v>353</v>
       </c>
@@ -3342,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" hidden="1">
       <c r="A154" t="s">
         <v>353</v>
       </c>
@@ -3353,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" hidden="1">
       <c r="A155" t="s">
         <v>353</v>
       </c>
@@ -3364,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" hidden="1">
       <c r="A156" t="s">
         <v>353</v>
       </c>
@@ -3375,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" hidden="1">
       <c r="A157" t="s">
         <v>353</v>
       </c>
@@ -3386,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" hidden="1">
       <c r="A158" t="s">
         <v>353</v>
       </c>
@@ -3397,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" hidden="1">
       <c r="A159" t="s">
         <v>353</v>
       </c>
@@ -3408,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" hidden="1">
       <c r="A160" t="s">
         <v>353</v>
       </c>
@@ -3419,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" hidden="1">
       <c r="A161" t="s">
         <v>353</v>
       </c>
@@ -3430,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" hidden="1">
       <c r="A162" t="s">
         <v>353</v>
       </c>
@@ -3441,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" hidden="1">
       <c r="A163" t="s">
         <v>353</v>
       </c>
@@ -3452,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" hidden="1">
       <c r="A164" t="s">
         <v>353</v>
       </c>
@@ -3463,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" hidden="1">
       <c r="A165" t="s">
         <v>353</v>
       </c>
@@ -3474,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" hidden="1">
       <c r="A166" t="s">
         <v>353</v>
       </c>
@@ -3485,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" hidden="1">
       <c r="A167" t="s">
         <v>353</v>
       </c>
@@ -3496,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" hidden="1">
       <c r="A168" t="s">
         <v>353</v>
       </c>
@@ -3507,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" hidden="1">
       <c r="A169" s="2" t="s">
         <v>353</v>
       </c>
@@ -3519,7 +3527,7 @@
       </c>
       <c r="D169" s="2"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" hidden="1">
       <c r="A170" s="2" t="s">
         <v>370</v>
       </c>
@@ -3531,7 +3539,7 @@
       </c>
       <c r="D170" s="2"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" hidden="1">
       <c r="A171" s="2" t="s">
         <v>370</v>
       </c>
@@ -3543,7 +3551,7 @@
       </c>
       <c r="D171" s="2"/>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" hidden="1">
       <c r="A172" s="2" t="s">
         <v>370</v>
       </c>
@@ -3555,7 +3563,7 @@
       </c>
       <c r="D172" s="2"/>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" hidden="1">
       <c r="A173" s="2" t="s">
         <v>370</v>
       </c>
@@ -3567,7 +3575,7 @@
       </c>
       <c r="D173" s="2"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" hidden="1">
       <c r="A174" s="2" t="s">
         <v>370</v>
       </c>
@@ -3579,7 +3587,7 @@
       </c>
       <c r="D174" s="2"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" hidden="1">
       <c r="A175" s="2" t="s">
         <v>370</v>
       </c>
@@ -3591,7 +3599,7 @@
       </c>
       <c r="D175" s="2"/>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" hidden="1">
       <c r="A176" s="2" t="s">
         <v>370</v>
       </c>
@@ -3603,7 +3611,7 @@
       </c>
       <c r="D176" s="2"/>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" hidden="1">
       <c r="A177" s="2" t="s">
         <v>370</v>
       </c>
@@ -3615,7 +3623,7 @@
       </c>
       <c r="D177" s="2"/>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" hidden="1">
       <c r="A178" s="2" t="s">
         <v>370</v>
       </c>
@@ -3627,7 +3635,7 @@
       </c>
       <c r="D178" s="2"/>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" hidden="1">
       <c r="A179" s="2" t="s">
         <v>370</v>
       </c>
@@ -3639,7 +3647,7 @@
       </c>
       <c r="D179" s="2"/>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" hidden="1">
       <c r="A180" t="s">
         <v>359</v>
       </c>
@@ -3650,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" hidden="1">
       <c r="A181" t="s">
         <v>359</v>
       </c>
@@ -3661,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" hidden="1">
       <c r="A182" t="s">
         <v>359</v>
       </c>
@@ -3672,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" hidden="1">
       <c r="A183" t="s">
         <v>359</v>
       </c>
@@ -3683,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" hidden="1">
       <c r="A184" t="s">
         <v>359</v>
       </c>
@@ -3694,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" hidden="1">
       <c r="A185" t="s">
         <v>359</v>
       </c>
@@ -3705,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" hidden="1">
       <c r="A186" t="s">
         <v>359</v>
       </c>
@@ -3716,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" hidden="1">
       <c r="A187" s="2" t="s">
         <v>359</v>
       </c>
@@ -3728,7 +3736,7 @@
       </c>
       <c r="D187" s="2"/>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" hidden="1">
       <c r="A188" t="s">
         <v>388</v>
       </c>
@@ -3739,7 +3747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" hidden="1">
       <c r="A189" t="s">
         <v>388</v>
       </c>
@@ -3750,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" hidden="1">
       <c r="A190" t="s">
         <v>388</v>
       </c>
@@ -3761,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" hidden="1">
       <c r="A191" t="s">
         <v>388</v>
       </c>
@@ -3772,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" hidden="1">
       <c r="A192" t="s">
         <v>388</v>
       </c>
@@ -3783,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" hidden="1">
       <c r="A193" t="s">
         <v>388</v>
       </c>
@@ -3797,7 +3805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" hidden="1">
       <c r="A194" t="s">
         <v>388</v>
       </c>
@@ -3808,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" hidden="1">
       <c r="A195" t="s">
         <v>388</v>
       </c>
@@ -3819,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" hidden="1">
       <c r="A196" t="s">
         <v>388</v>
       </c>
@@ -3833,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" hidden="1">
       <c r="A197" t="s">
         <v>388</v>
       </c>
@@ -3847,7 +3855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" hidden="1">
       <c r="A198" t="s">
         <v>388</v>
       </c>
@@ -3858,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" hidden="1">
       <c r="A199" t="s">
         <v>388</v>
       </c>
@@ -3872,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" hidden="1">
       <c r="A200" t="s">
         <v>388</v>
       </c>
@@ -3886,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" hidden="1">
       <c r="A201" t="s">
         <v>388</v>
       </c>
@@ -3900,7 +3908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" hidden="1">
       <c r="A202" t="s">
         <v>388</v>
       </c>
@@ -3914,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" hidden="1">
       <c r="A203" t="s">
         <v>388</v>
       </c>
@@ -3925,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" hidden="1">
       <c r="A204" t="s">
         <v>388</v>
       </c>
@@ -3936,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" hidden="1">
       <c r="A205" t="s">
         <v>388</v>
       </c>
@@ -3947,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" hidden="1">
       <c r="A206" t="s">
         <v>388</v>
       </c>
@@ -3958,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" hidden="1">
       <c r="A207" t="s">
         <v>388</v>
       </c>
@@ -3969,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" hidden="1">
       <c r="A208" t="s">
         <v>388</v>
       </c>
@@ -3983,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" hidden="1">
       <c r="A209" t="s">
         <v>388</v>
       </c>
@@ -3997,7 +4005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" hidden="1">
       <c r="A210" t="s">
         <v>60</v>
       </c>
@@ -4011,7 +4019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" hidden="1">
       <c r="A211" t="s">
         <v>60</v>
       </c>
@@ -4022,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" hidden="1">
       <c r="A212" t="s">
         <v>60</v>
       </c>
@@ -4033,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" hidden="1">
       <c r="A213" t="s">
         <v>60</v>
       </c>
@@ -4044,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" hidden="1">
       <c r="A214" t="s">
         <v>60</v>
       </c>
@@ -4055,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" hidden="1">
       <c r="A215" t="s">
         <v>60</v>
       </c>
@@ -4066,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" hidden="1">
       <c r="A216" t="s">
         <v>60</v>
       </c>
@@ -4077,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" hidden="1">
       <c r="A217" t="s">
         <v>60</v>
       </c>
@@ -4088,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" hidden="1">
       <c r="A218" t="s">
         <v>60</v>
       </c>
@@ -4099,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" hidden="1">
       <c r="A219" t="s">
         <v>60</v>
       </c>
@@ -4110,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" hidden="1">
       <c r="A220" t="s">
         <v>60</v>
       </c>
@@ -4121,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" hidden="1">
       <c r="A221" t="s">
         <v>60</v>
       </c>
@@ -4132,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" hidden="1">
       <c r="A222" t="s">
         <v>60</v>
       </c>
@@ -4143,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" hidden="1">
       <c r="A223" t="s">
         <v>60</v>
       </c>
@@ -4154,7 +4162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" hidden="1">
       <c r="A224" t="s">
         <v>60</v>
       </c>
@@ -4165,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" hidden="1">
       <c r="A225" t="s">
         <v>60</v>
       </c>
@@ -4176,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" hidden="1">
       <c r="A226" t="s">
         <v>60</v>
       </c>
@@ -4187,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" hidden="1">
       <c r="A227" t="s">
         <v>60</v>
       </c>
@@ -4198,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" hidden="1">
       <c r="A228" t="s">
         <v>60</v>
       </c>
@@ -4209,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" hidden="1">
       <c r="A229" t="s">
         <v>60</v>
       </c>
@@ -4220,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" hidden="1">
       <c r="A230" t="s">
         <v>60</v>
       </c>
@@ -4234,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" hidden="1">
       <c r="A231" t="s">
         <v>60</v>
       </c>
@@ -4248,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" hidden="1">
       <c r="A232" t="s">
         <v>60</v>
       </c>
@@ -4259,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" hidden="1">
       <c r="A233" t="s">
         <v>60</v>
       </c>
@@ -4270,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" hidden="1">
       <c r="A234" t="s">
         <v>60</v>
       </c>
@@ -4281,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" hidden="1">
       <c r="A235" t="s">
         <v>60</v>
       </c>
@@ -4292,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" hidden="1">
       <c r="A236" t="s">
         <v>60</v>
       </c>
@@ -4303,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" hidden="1">
       <c r="A237" t="s">
         <v>60</v>
       </c>
@@ -4314,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" hidden="1">
       <c r="A238" t="s">
         <v>60</v>
       </c>
@@ -4325,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" hidden="1">
       <c r="A239" t="s">
         <v>60</v>
       </c>
@@ -4336,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" hidden="1">
       <c r="A240" t="s">
         <v>60</v>
       </c>
@@ -4347,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" hidden="1">
       <c r="A241" t="s">
         <v>60</v>
       </c>
@@ -4358,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" hidden="1">
       <c r="A242" t="s">
         <v>60</v>
       </c>
@@ -4369,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" hidden="1">
       <c r="A243" t="s">
         <v>60</v>
       </c>
@@ -4380,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" hidden="1">
       <c r="A244" t="s">
         <v>60</v>
       </c>
@@ -4391,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" hidden="1">
       <c r="A245" t="s">
         <v>60</v>
       </c>
@@ -4402,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" hidden="1">
       <c r="A246" t="s">
         <v>60</v>
       </c>
@@ -4413,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" hidden="1">
       <c r="A247" t="s">
         <v>60</v>
       </c>
@@ -4424,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" hidden="1">
       <c r="A248" t="s">
         <v>60</v>
       </c>
@@ -4435,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" hidden="1">
       <c r="A249" t="s">
         <v>60</v>
       </c>
@@ -4446,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" hidden="1">
       <c r="A250" t="s">
         <v>60</v>
       </c>
@@ -4457,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" hidden="1">
       <c r="A251" t="s">
         <v>60</v>
       </c>
@@ -4468,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" hidden="1">
       <c r="A252" t="s">
         <v>60</v>
       </c>
@@ -4479,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" hidden="1">
       <c r="A253" t="s">
         <v>60</v>
       </c>
@@ -4490,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" hidden="1">
       <c r="A254" t="s">
         <v>60</v>
       </c>
@@ -4501,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" hidden="1">
       <c r="A255" t="s">
         <v>60</v>
       </c>
@@ -4512,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" hidden="1">
       <c r="A256" t="s">
         <v>60</v>
       </c>
@@ -4523,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" hidden="1">
       <c r="A257" t="s">
         <v>60</v>
       </c>
@@ -4534,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" hidden="1">
       <c r="A258" t="s">
         <v>60</v>
       </c>
@@ -4545,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" hidden="1">
       <c r="A259" t="s">
         <v>60</v>
       </c>
@@ -4556,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" hidden="1">
       <c r="A260" t="s">
         <v>60</v>
       </c>
@@ -4567,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" hidden="1">
       <c r="A261" t="s">
         <v>60</v>
       </c>
@@ -4578,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" hidden="1">
       <c r="A262" t="s">
         <v>60</v>
       </c>
@@ -4589,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" hidden="1">
       <c r="A263" t="s">
         <v>60</v>
       </c>
@@ -4600,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" hidden="1">
       <c r="A264" t="s">
         <v>60</v>
       </c>
@@ -4611,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" hidden="1">
       <c r="A265" t="s">
         <v>60</v>
       </c>
@@ -4622,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" hidden="1">
       <c r="A266" t="s">
         <v>60</v>
       </c>
@@ -4633,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" hidden="1">
       <c r="A267" t="s">
         <v>60</v>
       </c>
@@ -4644,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" hidden="1">
       <c r="A268" t="s">
         <v>60</v>
       </c>
@@ -4655,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" hidden="1">
       <c r="A269" t="s">
         <v>60</v>
       </c>
@@ -4666,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" hidden="1">
       <c r="A270" t="s">
         <v>60</v>
       </c>
@@ -4677,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" hidden="1">
       <c r="A271" t="s">
         <v>60</v>
       </c>
@@ -4688,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" hidden="1">
       <c r="A272" t="s">
         <v>60</v>
       </c>
@@ -4699,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" hidden="1">
       <c r="A273" t="s">
         <v>60</v>
       </c>
@@ -4713,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" hidden="1">
       <c r="A274" t="s">
         <v>60</v>
       </c>
@@ -4724,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" hidden="1">
       <c r="A275" t="s">
         <v>60</v>
       </c>
@@ -4735,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" hidden="1">
       <c r="A276" t="s">
         <v>60</v>
       </c>
@@ -4746,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" hidden="1">
       <c r="A277" t="s">
         <v>60</v>
       </c>
@@ -4757,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" hidden="1">
       <c r="A278" t="s">
         <v>60</v>
       </c>
@@ -4768,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" hidden="1">
       <c r="A279" t="s">
         <v>60</v>
       </c>
@@ -4779,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" hidden="1">
       <c r="A280" t="s">
         <v>60</v>
       </c>
@@ -4790,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" hidden="1">
       <c r="A281" t="s">
         <v>60</v>
       </c>
@@ -4801,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" hidden="1">
       <c r="A282" t="s">
         <v>60</v>
       </c>
@@ -4812,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" hidden="1">
       <c r="A283" t="s">
         <v>60</v>
       </c>
@@ -4823,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" hidden="1">
       <c r="A284" t="s">
         <v>60</v>
       </c>
@@ -4834,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" hidden="1">
       <c r="A285" t="s">
         <v>60</v>
       </c>
@@ -4845,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" hidden="1">
       <c r="A286" t="s">
         <v>60</v>
       </c>
@@ -4859,7 +4867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" hidden="1">
       <c r="A287" t="s">
         <v>60</v>
       </c>
@@ -4870,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" hidden="1">
       <c r="A288" t="s">
         <v>60</v>
       </c>
@@ -4881,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" hidden="1">
       <c r="A289" t="s">
         <v>60</v>
       </c>
@@ -4892,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" hidden="1">
       <c r="A290" t="s">
         <v>60</v>
       </c>
@@ -4906,7 +4914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" hidden="1">
       <c r="A291" t="s">
         <v>60</v>
       </c>
@@ -4920,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" hidden="1">
       <c r="A292" t="s">
         <v>132</v>
       </c>
@@ -4931,7 +4939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" hidden="1">
       <c r="A293" t="s">
         <v>132</v>
       </c>
@@ -4942,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" hidden="1">
       <c r="A294" t="s">
         <v>132</v>
       </c>
@@ -4953,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" hidden="1">
       <c r="A295" t="s">
         <v>132</v>
       </c>
@@ -4964,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" hidden="1">
       <c r="A296" t="s">
         <v>132</v>
       </c>
@@ -4975,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" hidden="1">
       <c r="A297" t="s">
         <v>132</v>
       </c>
@@ -4986,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" hidden="1">
       <c r="A298" t="s">
         <v>132</v>
       </c>
@@ -5000,7 +5008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" hidden="1">
       <c r="A299" t="s">
         <v>132</v>
       </c>
@@ -5014,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" hidden="1">
       <c r="A300" t="s">
         <v>132</v>
       </c>
@@ -5028,7 +5036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" hidden="1">
       <c r="A301" t="s">
         <v>132</v>
       </c>
@@ -5042,7 +5050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" hidden="1">
       <c r="A302" t="s">
         <v>132</v>
       </c>
@@ -5056,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" hidden="1">
       <c r="A303" t="s">
         <v>132</v>
       </c>
@@ -5067,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" hidden="1">
       <c r="A304" t="s">
         <v>132</v>
       </c>
@@ -5078,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" hidden="1">
       <c r="A305" t="s">
         <v>132</v>
       </c>
@@ -5089,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" hidden="1">
       <c r="A306" t="s">
         <v>132</v>
       </c>
@@ -5100,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" hidden="1">
       <c r="A307" t="s">
         <v>132</v>
       </c>
@@ -5111,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" hidden="1">
       <c r="A308" t="s">
         <v>132</v>
       </c>
@@ -5125,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" hidden="1">
       <c r="A309" t="s">
         <v>132</v>
       </c>
@@ -5139,7 +5147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" hidden="1">
       <c r="A310" t="s">
         <v>132</v>
       </c>
@@ -5153,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" hidden="1">
       <c r="A311" t="s">
         <v>132</v>
       </c>
@@ -5167,7 +5175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" hidden="1">
       <c r="A312" t="s">
         <v>132</v>
       </c>
@@ -5181,7 +5189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" hidden="1">
       <c r="A313" t="s">
         <v>132</v>
       </c>
@@ -5195,7 +5203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" hidden="1">
       <c r="A314" t="s">
         <v>132</v>
       </c>
@@ -5209,7 +5217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" hidden="1">
       <c r="A315" t="s">
         <v>132</v>
       </c>
@@ -5223,7 +5231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" hidden="1">
       <c r="A316" t="s">
         <v>132</v>
       </c>
@@ -5237,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" hidden="1">
       <c r="A317" t="s">
         <v>132</v>
       </c>
@@ -5251,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" hidden="1">
       <c r="A318" t="s">
         <v>132</v>
       </c>
@@ -5265,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" hidden="1">
       <c r="A319" t="s">
         <v>132</v>
       </c>
@@ -5279,7 +5287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" hidden="1">
       <c r="A320" t="s">
         <v>132</v>
       </c>
@@ -5293,7 +5301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" hidden="1">
       <c r="A321" t="s">
         <v>132</v>
       </c>
@@ -5307,7 +5315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" hidden="1">
       <c r="A322" t="s">
         <v>132</v>
       </c>
@@ -5318,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" hidden="1">
       <c r="A323" t="s">
         <v>132</v>
       </c>
@@ -5332,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" hidden="1">
       <c r="A324" t="s">
         <v>132</v>
       </c>
@@ -5346,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" hidden="1">
       <c r="A325" t="s">
         <v>132</v>
       </c>
@@ -5360,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" hidden="1">
       <c r="A326" t="s">
         <v>132</v>
       </c>
@@ -5374,7 +5382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" hidden="1">
       <c r="A327" t="s">
         <v>132</v>
       </c>
@@ -5385,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" hidden="1">
       <c r="A328" t="s">
         <v>132</v>
       </c>
@@ -5396,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" hidden="1">
       <c r="A329" t="s">
         <v>132</v>
       </c>
@@ -5410,7 +5418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" hidden="1">
       <c r="A330" t="s">
         <v>132</v>
       </c>
@@ -5424,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" hidden="1">
       <c r="A331" t="s">
         <v>132</v>
       </c>
@@ -5438,7 +5446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" hidden="1">
       <c r="A332" t="s">
         <v>132</v>
       </c>
@@ -5452,7 +5460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" hidden="1">
       <c r="A333" t="s">
         <v>132</v>
       </c>
@@ -5466,7 +5474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" hidden="1">
       <c r="A334" t="s">
         <v>132</v>
       </c>
@@ -5480,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" hidden="1">
       <c r="A335" t="s">
         <v>132</v>
       </c>
@@ -5494,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" hidden="1">
       <c r="A336" t="s">
         <v>132</v>
       </c>
@@ -5508,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" hidden="1">
       <c r="A337" t="s">
         <v>132</v>
       </c>
@@ -5522,7 +5530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" hidden="1">
       <c r="A338" t="s">
         <v>132</v>
       </c>
@@ -5536,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" hidden="1">
       <c r="A339" t="s">
         <v>132</v>
       </c>
@@ -5550,7 +5558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" hidden="1">
       <c r="A340" t="s">
         <v>132</v>
       </c>
@@ -5561,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" hidden="1">
       <c r="A341" t="s">
         <v>132</v>
       </c>
@@ -5572,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" hidden="1">
       <c r="A342" t="s">
         <v>132</v>
       </c>
@@ -5583,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" hidden="1">
       <c r="A343" t="s">
         <v>132</v>
       </c>
@@ -5594,7 +5602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" hidden="1">
       <c r="A344" t="s">
         <v>132</v>
       </c>
@@ -5605,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" hidden="1">
       <c r="A345" t="s">
         <v>164</v>
       </c>
@@ -5616,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" hidden="1">
       <c r="A346" t="s">
         <v>164</v>
       </c>
@@ -5627,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" hidden="1">
       <c r="A347" t="s">
         <v>164</v>
       </c>
@@ -5641,7 +5649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" hidden="1">
       <c r="A348" s="1" t="s">
         <v>164</v>
       </c>
@@ -5655,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" hidden="1">
       <c r="A349" t="s">
         <v>164</v>
       </c>
@@ -5666,7 +5674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" hidden="1">
       <c r="A350" t="s">
         <v>164</v>
       </c>
@@ -5677,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" hidden="1">
       <c r="A351" t="s">
         <v>164</v>
       </c>
@@ -5688,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" hidden="1">
       <c r="A352" t="s">
         <v>164</v>
       </c>
@@ -5702,7 +5710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" hidden="1">
       <c r="A353" t="s">
         <v>164</v>
       </c>
@@ -5716,7 +5724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" hidden="1">
       <c r="A354" t="s">
         <v>164</v>
       </c>
@@ -5730,7 +5738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" hidden="1">
       <c r="A355" t="s">
         <v>164</v>
       </c>
@@ -5744,7 +5752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" hidden="1">
       <c r="A356" t="s">
         <v>164</v>
       </c>
@@ -5758,7 +5766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" hidden="1">
       <c r="A357" t="s">
         <v>164</v>
       </c>
@@ -5772,7 +5780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" hidden="1">
       <c r="A358" t="s">
         <v>164</v>
       </c>
@@ -5786,7 +5794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" hidden="1">
       <c r="A359" t="s">
         <v>164</v>
       </c>
@@ -5800,7 +5808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" hidden="1">
       <c r="A360" t="s">
         <v>164</v>
       </c>
@@ -5814,7 +5822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" hidden="1">
       <c r="A361" t="s">
         <v>164</v>
       </c>
@@ -5828,7 +5836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" hidden="1">
       <c r="A362" t="s">
         <v>164</v>
       </c>
@@ -5842,7 +5850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" hidden="1">
       <c r="A363" t="s">
         <v>164</v>
       </c>
@@ -5856,7 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" hidden="1">
       <c r="A364" t="s">
         <v>164</v>
       </c>
@@ -5870,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" hidden="1">
       <c r="A365" t="s">
         <v>164</v>
       </c>
@@ -5884,7 +5892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" hidden="1">
       <c r="A366" t="s">
         <v>164</v>
       </c>
@@ -5898,7 +5906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" hidden="1">
       <c r="A367" t="s">
         <v>164</v>
       </c>
@@ -5912,7 +5920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" hidden="1">
       <c r="A368" t="s">
         <v>164</v>
       </c>
@@ -5926,7 +5934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" hidden="1">
       <c r="A369" t="s">
         <v>164</v>
       </c>
@@ -5940,7 +5948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" hidden="1">
       <c r="A370" t="s">
         <v>164</v>
       </c>
@@ -5954,7 +5962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" hidden="1">
       <c r="A371" t="s">
         <v>164</v>
       </c>
@@ -5968,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" hidden="1">
       <c r="A372" t="s">
         <v>164</v>
       </c>
@@ -5982,7 +5990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" hidden="1">
       <c r="A373" t="s">
         <v>164</v>
       </c>
@@ -5996,7 +6004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" hidden="1">
       <c r="A374" t="s">
         <v>164</v>
       </c>
@@ -6007,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" hidden="1">
       <c r="A375" t="s">
         <v>164</v>
       </c>
@@ -6018,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" hidden="1">
       <c r="A376" t="s">
         <v>164</v>
       </c>
@@ -6032,7 +6040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" hidden="1">
       <c r="A377" t="s">
         <v>164</v>
       </c>
@@ -6046,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" hidden="1">
       <c r="A378" t="s">
         <v>164</v>
       </c>
@@ -6060,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" hidden="1">
       <c r="A379" t="s">
         <v>164</v>
       </c>
@@ -6074,7 +6082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" hidden="1">
       <c r="A380" t="s">
         <v>164</v>
       </c>
@@ -6088,7 +6096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" hidden="1">
       <c r="A381" t="s">
         <v>164</v>
       </c>
@@ -6102,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" hidden="1">
       <c r="A382" t="s">
         <v>164</v>
       </c>
@@ -6116,7 +6124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" hidden="1">
       <c r="A383" t="s">
         <v>164</v>
       </c>
@@ -6130,7 +6138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" hidden="1">
       <c r="A384" t="s">
         <v>164</v>
       </c>
@@ -6144,7 +6152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" hidden="1">
       <c r="A385" t="s">
         <v>164</v>
       </c>
@@ -6158,7 +6166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" hidden="1">
       <c r="A386" t="s">
         <v>164</v>
       </c>
@@ -6172,7 +6180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" hidden="1">
       <c r="A387" t="s">
         <v>164</v>
       </c>
@@ -6186,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" hidden="1">
       <c r="A388" t="s">
         <v>164</v>
       </c>
@@ -6200,7 +6208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" hidden="1">
       <c r="A389" t="s">
         <v>164</v>
       </c>
@@ -6214,7 +6222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" hidden="1">
       <c r="A390" t="s">
         <v>164</v>
       </c>
@@ -6228,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" hidden="1">
       <c r="A391" t="s">
         <v>164</v>
       </c>
@@ -6242,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" hidden="1">
       <c r="A392" t="s">
         <v>164</v>
       </c>
@@ -6256,7 +6264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" hidden="1">
       <c r="A393" t="s">
         <v>164</v>
       </c>
@@ -6270,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" hidden="1">
       <c r="A394" t="s">
         <v>164</v>
       </c>
@@ -6284,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" hidden="1">
       <c r="A395" t="s">
         <v>164</v>
       </c>
@@ -6298,7 +6306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" hidden="1">
       <c r="A396" t="s">
         <v>164</v>
       </c>
@@ -6312,7 +6320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" hidden="1">
       <c r="A397" t="s">
         <v>164</v>
       </c>
@@ -6326,7 +6334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" hidden="1">
       <c r="A398" t="s">
         <v>164</v>
       </c>
@@ -6340,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" hidden="1">
       <c r="A399" t="s">
         <v>164</v>
       </c>
@@ -6351,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" hidden="1">
       <c r="A400" t="s">
         <v>164</v>
       </c>
@@ -6362,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" hidden="1">
       <c r="A401" t="s">
         <v>164</v>
       </c>
@@ -6373,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" hidden="1">
       <c r="A402" t="s">
         <v>164</v>
       </c>
@@ -6387,7 +6395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" hidden="1">
       <c r="A403" t="s">
         <v>164</v>
       </c>
@@ -6401,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" hidden="1">
       <c r="A404" t="s">
         <v>164</v>
       </c>
@@ -6415,7 +6423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" hidden="1">
       <c r="A405" t="s">
         <v>164</v>
       </c>
@@ -6429,7 +6437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" hidden="1">
       <c r="A406" t="s">
         <v>164</v>
       </c>
@@ -6443,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" hidden="1">
       <c r="A407" t="s">
         <v>164</v>
       </c>
@@ -6457,7 +6465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" hidden="1">
       <c r="A408" t="s">
         <v>164</v>
       </c>
@@ -6471,7 +6479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" hidden="1">
       <c r="A409" t="s">
         <v>164</v>
       </c>
@@ -6485,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" hidden="1">
       <c r="A410" t="s">
         <v>164</v>
       </c>
@@ -6499,7 +6507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" hidden="1">
       <c r="A411" t="s">
         <v>164</v>
       </c>
@@ -6513,7 +6521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" hidden="1">
       <c r="A412" t="s">
         <v>164</v>
       </c>
@@ -6527,7 +6535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" hidden="1">
       <c r="A413" t="s">
         <v>164</v>
       </c>
@@ -6538,7 +6546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" hidden="1">
       <c r="A414" t="s">
         <v>164</v>
       </c>
@@ -6549,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" hidden="1">
       <c r="A415" t="s">
         <v>164</v>
       </c>
@@ -6560,7 +6568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" hidden="1">
       <c r="A416" t="s">
         <v>164</v>
       </c>
@@ -6571,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" hidden="1">
       <c r="A417" t="s">
         <v>164</v>
       </c>
@@ -6582,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" hidden="1">
       <c r="A418" t="s">
         <v>164</v>
       </c>
@@ -6596,7 +6604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" hidden="1">
       <c r="A419" t="s">
         <v>197</v>
       </c>
@@ -6607,7 +6615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" hidden="1">
       <c r="A420" t="s">
         <v>197</v>
       </c>
@@ -6618,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" hidden="1">
       <c r="A421" t="s">
         <v>197</v>
       </c>
@@ -6632,7 +6640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" hidden="1">
       <c r="A422" t="s">
         <v>197</v>
       </c>
@@ -6646,7 +6654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" hidden="1">
       <c r="A423" t="s">
         <v>197</v>
       </c>
@@ -6657,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" hidden="1">
       <c r="A424" t="s">
         <v>197</v>
       </c>
@@ -6668,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" hidden="1">
       <c r="A425" t="s">
         <v>197</v>
       </c>
@@ -6679,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" hidden="1">
       <c r="A426" t="s">
         <v>197</v>
       </c>
@@ -6690,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" hidden="1">
       <c r="A427" t="s">
         <v>197</v>
       </c>
@@ -6701,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" hidden="1">
       <c r="A428" t="s">
         <v>197</v>
       </c>
@@ -6712,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" hidden="1">
       <c r="A429" t="s">
         <v>197</v>
       </c>
@@ -6723,7 +6731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" hidden="1">
       <c r="A430" t="s">
         <v>197</v>
       </c>
@@ -6737,7 +6745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" hidden="1">
       <c r="A431" t="s">
         <v>197</v>
       </c>
@@ -6751,7 +6759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" hidden="1">
       <c r="A432" t="s">
         <v>197</v>
       </c>
@@ -6765,7 +6773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" hidden="1">
       <c r="A433" t="s">
         <v>197</v>
       </c>
@@ -6776,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" hidden="1">
       <c r="A434" t="s">
         <v>197</v>
       </c>
@@ -6787,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" hidden="1">
       <c r="A435" t="s">
         <v>197</v>
       </c>
@@ -6798,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" hidden="1">
       <c r="A436" t="s">
         <v>197</v>
       </c>
@@ -6809,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" hidden="1">
       <c r="A437" t="s">
         <v>197</v>
       </c>
@@ -6820,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" hidden="1">
       <c r="A438" t="s">
         <v>197</v>
       </c>
@@ -6831,7 +6839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" hidden="1">
       <c r="A439" t="s">
         <v>197</v>
       </c>
@@ -6842,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" hidden="1">
       <c r="A440" t="s">
         <v>197</v>
       </c>
@@ -6853,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" hidden="1">
       <c r="A441" t="s">
         <v>197</v>
       </c>
@@ -6864,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" hidden="1">
       <c r="A442" t="s">
         <v>197</v>
       </c>
@@ -6875,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" hidden="1">
       <c r="A443" t="s">
         <v>197</v>
       </c>
@@ -6886,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" hidden="1">
       <c r="A444" t="s">
         <v>197</v>
       </c>
@@ -6897,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" hidden="1">
       <c r="A445" t="s">
         <v>197</v>
       </c>
@@ -6908,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" hidden="1">
       <c r="A446" t="s">
         <v>197</v>
       </c>
@@ -6919,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" hidden="1">
       <c r="A447" t="s">
         <v>197</v>
       </c>
@@ -6933,7 +6941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" hidden="1">
       <c r="A448" t="s">
         <v>197</v>
       </c>
@@ -6947,7 +6955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" hidden="1">
       <c r="A449" t="s">
         <v>197</v>
       </c>
@@ -6958,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" hidden="1">
       <c r="A450" t="s">
         <v>197</v>
       </c>
@@ -6969,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" hidden="1">
       <c r="A451" t="s">
         <v>197</v>
       </c>
@@ -6980,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" hidden="1">
       <c r="A452" t="s">
         <v>197</v>
       </c>
@@ -6991,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" hidden="1">
       <c r="A453" t="s">
         <v>197</v>
       </c>
@@ -7002,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" hidden="1">
       <c r="A454" t="s">
         <v>197</v>
       </c>
@@ -7013,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" hidden="1">
       <c r="A455" t="s">
         <v>197</v>
       </c>
@@ -7024,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" hidden="1">
       <c r="A456" t="s">
         <v>197</v>
       </c>
@@ -7035,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" hidden="1">
       <c r="A457" t="s">
         <v>197</v>
       </c>
@@ -7046,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" hidden="1">
       <c r="A458" t="s">
         <v>197</v>
       </c>
@@ -7057,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" hidden="1">
       <c r="A459" t="s">
         <v>197</v>
       </c>
@@ -7071,7 +7079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" hidden="1">
       <c r="A460" t="s">
         <v>197</v>
       </c>
@@ -7082,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" hidden="1">
       <c r="A461" t="s">
         <v>197</v>
       </c>
@@ -7093,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" hidden="1">
       <c r="A462" t="s">
         <v>197</v>
       </c>
@@ -7104,7 +7112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" hidden="1">
       <c r="A463" t="s">
         <v>197</v>
       </c>
@@ -7115,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" hidden="1">
       <c r="A464" t="s">
         <v>197</v>
       </c>
@@ -7126,7 +7134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" hidden="1">
       <c r="A465" t="s">
         <v>203</v>
       </c>
@@ -7137,7 +7145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" hidden="1">
       <c r="A466" t="s">
         <v>203</v>
       </c>
@@ -7148,7 +7156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" hidden="1">
       <c r="A467" t="s">
         <v>203</v>
       </c>
@@ -7162,7 +7170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" hidden="1">
       <c r="A468" t="s">
         <v>203</v>
       </c>
@@ -7176,7 +7184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" hidden="1">
       <c r="A469" t="s">
         <v>203</v>
       </c>
@@ -7187,7 +7195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" hidden="1">
       <c r="A470" t="s">
         <v>203</v>
       </c>
@@ -7198,7 +7206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" hidden="1">
       <c r="A471" t="s">
         <v>203</v>
       </c>
@@ -7209,7 +7217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" hidden="1">
       <c r="A472" t="s">
         <v>203</v>
       </c>
@@ -7220,7 +7228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" hidden="1">
       <c r="A473" t="s">
         <v>203</v>
       </c>
@@ -7231,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" hidden="1">
       <c r="A474" t="s">
         <v>203</v>
       </c>
@@ -7242,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" hidden="1">
       <c r="A475" t="s">
         <v>203</v>
       </c>
@@ -7253,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" hidden="1">
       <c r="A476" t="s">
         <v>203</v>
       </c>
@@ -7264,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" hidden="1">
       <c r="A477" t="s">
         <v>203</v>
       </c>
@@ -7275,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" hidden="1">
       <c r="A478" t="s">
         <v>203</v>
       </c>
@@ -7286,7 +7294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" hidden="1">
       <c r="A479" t="s">
         <v>203</v>
       </c>
@@ -7297,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" hidden="1">
       <c r="A480" t="s">
         <v>203</v>
       </c>
@@ -7308,7 +7316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" hidden="1">
       <c r="A481" t="s">
         <v>203</v>
       </c>
@@ -7319,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" hidden="1">
       <c r="A482" t="s">
         <v>203</v>
       </c>
@@ -7330,7 +7338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" hidden="1">
       <c r="A483" t="s">
         <v>203</v>
       </c>
@@ -7344,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" hidden="1">
       <c r="A484" t="s">
         <v>203</v>
       </c>
@@ -7355,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" hidden="1">
       <c r="A485" t="s">
         <v>203</v>
       </c>
@@ -7366,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" hidden="1">
       <c r="A486" t="s">
         <v>203</v>
       </c>
@@ -7377,7 +7385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" hidden="1">
       <c r="A487" t="s">
         <v>203</v>
       </c>
@@ -7388,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" hidden="1">
       <c r="A488" t="s">
         <v>203</v>
       </c>
@@ -7399,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" hidden="1">
       <c r="A489" t="s">
         <v>203</v>
       </c>
@@ -7410,7 +7418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" hidden="1">
       <c r="A490" t="s">
         <v>203</v>
       </c>
@@ -7421,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" hidden="1">
       <c r="A491" t="s">
         <v>203</v>
       </c>
@@ -7432,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" hidden="1">
       <c r="A492" t="s">
         <v>203</v>
       </c>
@@ -7443,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" hidden="1">
       <c r="A493" t="s">
         <v>203</v>
       </c>
@@ -7454,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" hidden="1">
       <c r="A494" t="s">
         <v>203</v>
       </c>
@@ -7465,7 +7473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" hidden="1">
       <c r="A495" t="s">
         <v>203</v>
       </c>
@@ -7476,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" hidden="1">
       <c r="A496" t="s">
         <v>203</v>
       </c>
@@ -7487,7 +7495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" hidden="1">
       <c r="A497" t="s">
         <v>203</v>
       </c>
@@ -7498,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" hidden="1">
       <c r="A498" t="s">
         <v>203</v>
       </c>
@@ -7509,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" hidden="1">
       <c r="A499" t="s">
         <v>203</v>
       </c>
@@ -7520,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" hidden="1">
       <c r="A500" t="s">
         <v>203</v>
       </c>
@@ -7531,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" hidden="1">
       <c r="A501" t="s">
         <v>203</v>
       </c>
@@ -7542,7 +7550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" hidden="1">
       <c r="A502" t="s">
         <v>203</v>
       </c>
@@ -7553,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" hidden="1">
       <c r="A503" t="s">
         <v>203</v>
       </c>
@@ -7564,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" hidden="1">
       <c r="A504" t="s">
         <v>203</v>
       </c>
@@ -7575,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" hidden="1">
       <c r="A505" t="s">
         <v>203</v>
       </c>
@@ -7586,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" hidden="1">
       <c r="A506" t="s">
         <v>203</v>
       </c>
@@ -7597,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" hidden="1">
       <c r="A507" t="s">
         <v>203</v>
       </c>
@@ -7608,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" hidden="1">
       <c r="A508" t="s">
         <v>203</v>
       </c>
@@ -7619,7 +7627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" hidden="1">
       <c r="A509" t="s">
         <v>203</v>
       </c>
@@ -7633,7 +7641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" hidden="1">
       <c r="A510" t="s">
         <v>203</v>
       </c>
@@ -7644,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" hidden="1">
       <c r="A511" t="s">
         <v>203</v>
       </c>
@@ -7655,7 +7663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" hidden="1">
       <c r="A512" t="s">
         <v>203</v>
       </c>
@@ -7666,7 +7674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" hidden="1">
       <c r="A513" t="s">
         <v>203</v>
       </c>
@@ -7677,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" hidden="1">
       <c r="A514" t="s">
         <v>203</v>
       </c>
@@ -7691,7 +7699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" hidden="1">
       <c r="A515" t="s">
         <v>203</v>
       </c>
@@ -7705,7 +7713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" hidden="1">
       <c r="A516" t="s">
         <v>208</v>
       </c>
@@ -7716,7 +7724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" hidden="1">
       <c r="A517" t="s">
         <v>208</v>
       </c>
@@ -7727,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" hidden="1">
       <c r="A518" t="s">
         <v>208</v>
       </c>
@@ -7741,7 +7749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" hidden="1">
       <c r="A519" t="s">
         <v>208</v>
       </c>
@@ -7755,7 +7763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" hidden="1">
       <c r="A520" t="s">
         <v>208</v>
       </c>
@@ -7769,7 +7777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" hidden="1">
       <c r="A521" t="s">
         <v>208</v>
       </c>
@@ -7783,7 +7791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" hidden="1">
       <c r="A522" t="s">
         <v>208</v>
       </c>
@@ -7797,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" hidden="1">
       <c r="A523" t="s">
         <v>208</v>
       </c>
@@ -7811,7 +7819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" hidden="1">
       <c r="A524" t="s">
         <v>208</v>
       </c>
@@ -7825,7 +7833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" hidden="1">
       <c r="A525" t="s">
         <v>208</v>
       </c>
@@ -7839,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" hidden="1">
       <c r="A526" t="s">
         <v>208</v>
       </c>
@@ -7850,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" hidden="1">
       <c r="A527" t="s">
         <v>208</v>
       </c>
@@ -7924,7 +7932,7 @@
         <v>215</v>
       </c>
       <c r="B533" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="C533">
         <v>0</v>
@@ -7938,7 +7946,7 @@
         <v>215</v>
       </c>
       <c r="B534" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="C534">
         <v>0</v>
@@ -7952,7 +7960,7 @@
         <v>215</v>
       </c>
       <c r="B535" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="C535">
         <v>0</v>
@@ -7966,13 +7974,10 @@
         <v>215</v>
       </c>
       <c r="B536" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="C536">
         <v>0</v>
-      </c>
-      <c r="D536">
-        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -7980,10 +7985,13 @@
         <v>215</v>
       </c>
       <c r="B537" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C537">
         <v>0</v>
+      </c>
+      <c r="D537">
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -7991,13 +7999,10 @@
         <v>215</v>
       </c>
       <c r="B538" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C538">
         <v>0</v>
-      </c>
-      <c r="D538">
-        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -8005,10 +8010,13 @@
         <v>215</v>
       </c>
       <c r="B539" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C539">
         <v>0</v>
+      </c>
+      <c r="D539">
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -8016,7 +8024,7 @@
         <v>215</v>
       </c>
       <c r="B540" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C540">
         <v>0</v>
@@ -8030,7 +8038,7 @@
         <v>215</v>
       </c>
       <c r="B541" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C541">
         <v>0</v>
@@ -8044,7 +8052,7 @@
         <v>215</v>
       </c>
       <c r="B542" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C542">
         <v>0</v>
@@ -8058,7 +8066,7 @@
         <v>215</v>
       </c>
       <c r="B543" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C543">
         <v>0</v>
@@ -8072,7 +8080,7 @@
         <v>215</v>
       </c>
       <c r="B544" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C544">
         <v>0</v>
@@ -8086,7 +8094,7 @@
         <v>215</v>
       </c>
       <c r="B545" t="s">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="C545">
         <v>0</v>
@@ -8100,7 +8108,7 @@
         <v>215</v>
       </c>
       <c r="B546" t="s">
-        <v>33</v>
+        <v>226</v>
       </c>
       <c r="C546">
         <v>0</v>
@@ -8114,13 +8122,10 @@
         <v>215</v>
       </c>
       <c r="B547" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C547">
         <v>0</v>
-      </c>
-      <c r="D547">
-        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -8128,10 +8133,13 @@
         <v>215</v>
       </c>
       <c r="B548" t="s">
-        <v>227</v>
+        <v>85</v>
       </c>
       <c r="C548">
         <v>0</v>
+      </c>
+      <c r="D548">
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -8139,10 +8147,13 @@
         <v>215</v>
       </c>
       <c r="B549" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C549">
         <v>0</v>
+      </c>
+      <c r="D549">
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -8150,7 +8161,7 @@
         <v>215</v>
       </c>
       <c r="B550" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="C550">
         <v>0</v>
@@ -8164,13 +8175,10 @@
         <v>215</v>
       </c>
       <c r="B551" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C551">
         <v>0</v>
-      </c>
-      <c r="D551">
-        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -8178,13 +8186,10 @@
         <v>215</v>
       </c>
       <c r="B552" t="s">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="C552">
         <v>0</v>
-      </c>
-      <c r="D552">
-        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -8192,10 +8197,13 @@
         <v>215</v>
       </c>
       <c r="B553" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C553">
         <v>0</v>
+      </c>
+      <c r="D553">
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -8203,10 +8211,13 @@
         <v>215</v>
       </c>
       <c r="B554" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="C554">
         <v>0</v>
+      </c>
+      <c r="D554">
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -8214,13 +8225,10 @@
         <v>215</v>
       </c>
       <c r="B555" t="s">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="C555">
         <v>0</v>
-      </c>
-      <c r="D555">
-        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -8228,13 +8236,10 @@
         <v>215</v>
       </c>
       <c r="B556" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C556">
         <v>0</v>
-      </c>
-      <c r="D556">
-        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -8242,34 +8247,34 @@
         <v>215</v>
       </c>
       <c r="B557" t="s">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="C557">
         <v>0</v>
+      </c>
+      <c r="D557">
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:4">
       <c r="A558" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="B558" t="s">
-        <v>233</v>
+        <v>5</v>
       </c>
       <c r="C558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:4">
       <c r="A559" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="B559" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="C559">
-        <v>0</v>
-      </c>
-      <c r="D559">
         <v>1</v>
       </c>
     </row>
@@ -8278,10 +8283,10 @@
         <v>235</v>
       </c>
       <c r="B560" t="s">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="C560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -8289,7 +8294,7 @@
         <v>235</v>
       </c>
       <c r="B561" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="C561">
         <v>1</v>
@@ -8300,7 +8305,7 @@
         <v>235</v>
       </c>
       <c r="B562" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="C562">
         <v>0</v>
@@ -8311,9 +8316,12 @@
         <v>235</v>
       </c>
       <c r="B563" t="s">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="C563">
+        <v>0</v>
+      </c>
+      <c r="D563">
         <v>1</v>
       </c>
     </row>
@@ -8322,10 +8330,13 @@
         <v>235</v>
       </c>
       <c r="B564" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C564">
         <v>0</v>
+      </c>
+      <c r="D564">
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -8333,7 +8344,7 @@
         <v>235</v>
       </c>
       <c r="B565" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C565">
         <v>0</v>
@@ -8347,7 +8358,7 @@
         <v>235</v>
       </c>
       <c r="B566" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C566">
         <v>0</v>
@@ -8361,7 +8372,7 @@
         <v>235</v>
       </c>
       <c r="B567" t="s">
-        <v>239</v>
+        <v>120</v>
       </c>
       <c r="C567">
         <v>0</v>
@@ -8375,7 +8386,7 @@
         <v>235</v>
       </c>
       <c r="B568" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C568">
         <v>0</v>
@@ -8389,7 +8400,7 @@
         <v>235</v>
       </c>
       <c r="B569" t="s">
-        <v>120</v>
+        <v>242</v>
       </c>
       <c r="C569">
         <v>0</v>
@@ -8403,7 +8414,7 @@
         <v>235</v>
       </c>
       <c r="B570" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C570">
         <v>0</v>
@@ -8417,7 +8428,7 @@
         <v>235</v>
       </c>
       <c r="B571" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C571">
         <v>0</v>
@@ -8431,7 +8442,7 @@
         <v>235</v>
       </c>
       <c r="B572" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C572">
         <v>0</v>
@@ -8445,7 +8456,7 @@
         <v>235</v>
       </c>
       <c r="B573" t="s">
-        <v>244</v>
+        <v>33</v>
       </c>
       <c r="C573">
         <v>0</v>
@@ -8459,7 +8470,7 @@
         <v>235</v>
       </c>
       <c r="B574" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C574">
         <v>0</v>
@@ -8473,7 +8484,7 @@
         <v>235</v>
       </c>
       <c r="B575" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C575">
         <v>0</v>
@@ -8487,7 +8498,7 @@
         <v>235</v>
       </c>
       <c r="B576" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C576">
         <v>0</v>
@@ -8501,7 +8512,7 @@
         <v>235</v>
       </c>
       <c r="B577" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="C577">
         <v>0</v>
@@ -8515,13 +8526,10 @@
         <v>235</v>
       </c>
       <c r="B578" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="C578">
         <v>0</v>
-      </c>
-      <c r="D578">
-        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -8529,211 +8537,217 @@
         <v>235</v>
       </c>
       <c r="B579" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="C579">
         <v>0</v>
       </c>
-      <c r="D579">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="580" spans="1:4">
+    </row>
+    <row r="580" spans="1:4" hidden="1">
       <c r="A580" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B580" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="C580">
         <v>0</v>
       </c>
-    </row>
-    <row r="581" spans="1:4">
+      <c r="D580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" hidden="1">
       <c r="A581" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B581" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C581">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" hidden="1">
       <c r="A582" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B582" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C582">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" hidden="1">
       <c r="A583" t="s">
         <v>247</v>
       </c>
       <c r="B583" t="s">
-        <v>33</v>
+        <v>248</v>
       </c>
       <c r="C583">
         <v>0</v>
       </c>
-      <c r="D583">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4">
+    </row>
+    <row r="584" spans="1:4" hidden="1">
       <c r="A584" t="s">
         <v>247</v>
       </c>
       <c r="B584" t="s">
-        <v>5</v>
+        <v>249</v>
       </c>
       <c r="C584">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="585" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" hidden="1">
       <c r="A585" t="s">
         <v>247</v>
       </c>
       <c r="B585" t="s">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c r="C585">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="586" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" hidden="1">
       <c r="A586" t="s">
         <v>247</v>
       </c>
       <c r="B586" t="s">
-        <v>248</v>
+        <v>112</v>
       </c>
       <c r="C586">
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" hidden="1">
       <c r="A587" t="s">
         <v>247</v>
       </c>
       <c r="B587" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C587">
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" hidden="1">
       <c r="A588" t="s">
         <v>247</v>
       </c>
       <c r="B588" t="s">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="C588">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" hidden="1">
       <c r="A589" t="s">
         <v>247</v>
       </c>
       <c r="B589" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C589">
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" hidden="1">
       <c r="A590" t="s">
         <v>247</v>
       </c>
       <c r="B590" t="s">
-        <v>251</v>
+        <v>6</v>
       </c>
       <c r="C590">
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" hidden="1">
       <c r="A591" t="s">
         <v>247</v>
       </c>
       <c r="B591" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C591">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="592" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" hidden="1">
       <c r="A592" t="s">
         <v>247</v>
       </c>
       <c r="B592" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="C592">
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" hidden="1">
       <c r="A593" t="s">
         <v>247</v>
       </c>
       <c r="B593" t="s">
-        <v>6</v>
+        <v>252</v>
       </c>
       <c r="C593">
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" hidden="1">
       <c r="A594" t="s">
         <v>247</v>
       </c>
       <c r="B594" t="s">
-        <v>63</v>
+        <v>223</v>
       </c>
       <c r="C594">
         <v>0</v>
       </c>
-    </row>
-    <row r="595" spans="1:4">
+      <c r="D594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" hidden="1">
       <c r="A595" t="s">
         <v>247</v>
       </c>
       <c r="B595" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="C595">
         <v>0</v>
       </c>
-    </row>
-    <row r="596" spans="1:4">
+      <c r="D595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" hidden="1">
       <c r="A596" t="s">
         <v>247</v>
       </c>
       <c r="B596" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C596">
         <v>0</v>
       </c>
-    </row>
-    <row r="597" spans="1:4">
+      <c r="D596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" hidden="1">
       <c r="A597" t="s">
         <v>247</v>
       </c>
       <c r="B597" t="s">
-        <v>223</v>
+        <v>86</v>
       </c>
       <c r="C597">
         <v>0</v>
@@ -8742,736 +8756,733 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" hidden="1">
       <c r="A598" t="s">
         <v>247</v>
       </c>
       <c r="B598" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="C598">
         <v>0</v>
       </c>
-      <c r="D598">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="599" spans="1:4">
+    </row>
+    <row r="599" spans="1:4" hidden="1">
       <c r="A599" t="s">
         <v>247</v>
       </c>
       <c r="B599" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C599">
         <v>0</v>
       </c>
-      <c r="D599">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="600" spans="1:4">
+    </row>
+    <row r="600" spans="1:4" hidden="1">
       <c r="A600" t="s">
         <v>247</v>
       </c>
       <c r="B600" t="s">
-        <v>86</v>
+        <v>256</v>
       </c>
       <c r="C600">
         <v>0</v>
       </c>
-      <c r="D600">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="601" spans="1:4">
+    </row>
+    <row r="601" spans="1:4" hidden="1">
       <c r="A601" t="s">
         <v>247</v>
       </c>
       <c r="B601" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C601">
         <v>0</v>
       </c>
-    </row>
-    <row r="602" spans="1:4">
+      <c r="D601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" hidden="1">
       <c r="A602" t="s">
         <v>247</v>
       </c>
       <c r="B602" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C602">
         <v>0</v>
       </c>
-    </row>
-    <row r="603" spans="1:4">
+      <c r="D602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" hidden="1">
       <c r="A603" t="s">
         <v>247</v>
       </c>
       <c r="B603" t="s">
-        <v>256</v>
+        <v>109</v>
       </c>
       <c r="C603">
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" hidden="1">
       <c r="A604" t="s">
         <v>247</v>
       </c>
       <c r="B604" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C604">
         <v>0</v>
       </c>
-      <c r="D604">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="605" spans="1:4">
+    </row>
+    <row r="605" spans="1:4" hidden="1">
       <c r="A605" t="s">
         <v>247</v>
       </c>
       <c r="B605" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="C605">
         <v>0</v>
       </c>
-      <c r="D605">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="606" spans="1:4">
+    </row>
+    <row r="606" spans="1:4" hidden="1">
       <c r="A606" t="s">
         <v>247</v>
       </c>
       <c r="B606" t="s">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="C606">
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" hidden="1">
       <c r="A607" t="s">
         <v>247</v>
       </c>
       <c r="B607" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C607">
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
-      <c r="A608" t="s">
+    <row r="608" spans="1:4" ht="15.75" hidden="1" thickBot="1">
+      <c r="A608" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B608" t="s">
-        <v>279</v>
-      </c>
-      <c r="C608">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="609" spans="1:4">
+      <c r="B608" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C608" s="3">
+        <v>0</v>
+      </c>
+      <c r="D608" s="3"/>
+    </row>
+    <row r="609" spans="1:4" hidden="1">
       <c r="A609" t="s">
         <v>247</v>
       </c>
       <c r="B609" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C609">
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" hidden="1">
       <c r="A610" t="s">
         <v>247</v>
       </c>
       <c r="B610" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C610">
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A611" s="3" t="s">
+    <row r="611" spans="1:4" hidden="1">
+      <c r="A611" t="s">
         <v>247</v>
       </c>
-      <c r="B611" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C611" s="3">
-        <v>0</v>
-      </c>
-      <c r="D611" s="3"/>
-    </row>
-    <row r="612" spans="1:4" ht="15.75" thickTop="1">
+      <c r="B611" t="s">
+        <v>264</v>
+      </c>
+      <c r="C611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" hidden="1">
       <c r="A612" t="s">
         <v>247</v>
       </c>
       <c r="B612" t="s">
-        <v>262</v>
+        <v>126</v>
       </c>
       <c r="C612">
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" hidden="1">
       <c r="A613" t="s">
         <v>247</v>
       </c>
       <c r="B613" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C613">
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" spans="1:4" hidden="1">
       <c r="A614" t="s">
         <v>247</v>
       </c>
       <c r="B614" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C614">
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" hidden="1">
       <c r="A615" t="s">
         <v>247</v>
       </c>
       <c r="B615" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="C615">
         <v>0</v>
       </c>
-    </row>
-    <row r="616" spans="1:4">
+      <c r="D615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" hidden="1">
       <c r="A616" t="s">
         <v>247</v>
       </c>
       <c r="B616" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C616">
         <v>0</v>
       </c>
-    </row>
-    <row r="617" spans="1:4">
+      <c r="D616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" hidden="1">
       <c r="A617" t="s">
         <v>247</v>
       </c>
       <c r="B617" t="s">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="C617">
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" hidden="1">
       <c r="A618" t="s">
         <v>247</v>
       </c>
       <c r="B618" t="s">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="C618">
         <v>0</v>
       </c>
-      <c r="D618">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="619" spans="1:4">
+    </row>
+    <row r="619" spans="1:4" hidden="1">
       <c r="A619" t="s">
         <v>247</v>
       </c>
       <c r="B619" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C619">
         <v>0</v>
       </c>
-      <c r="D619">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="620" spans="1:4">
+    </row>
+    <row r="620" spans="1:4" hidden="1">
       <c r="A620" t="s">
         <v>247</v>
       </c>
       <c r="B620" t="s">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="C620">
         <v>0</v>
       </c>
-    </row>
-    <row r="621" spans="1:4">
+      <c r="D620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" hidden="1">
       <c r="A621" t="s">
         <v>247</v>
       </c>
       <c r="B621" t="s">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="C621">
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" hidden="1">
       <c r="A622" t="s">
         <v>247</v>
       </c>
       <c r="B622" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C622">
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" hidden="1">
       <c r="A623" t="s">
         <v>247</v>
       </c>
       <c r="B623" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C623">
         <v>0</v>
       </c>
-      <c r="D623">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="624" spans="1:4">
+    </row>
+    <row r="624" spans="1:4" hidden="1">
       <c r="A624" t="s">
         <v>247</v>
       </c>
       <c r="B624" t="s">
-        <v>271</v>
+        <v>124</v>
       </c>
       <c r="C624">
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:4">
+    <row r="625" spans="1:4" hidden="1">
       <c r="A625" t="s">
         <v>247</v>
       </c>
       <c r="B625" t="s">
-        <v>272</v>
+        <v>125</v>
       </c>
       <c r="C625">
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:4">
+    <row r="626" spans="1:4" hidden="1">
       <c r="A626" t="s">
         <v>247</v>
       </c>
       <c r="B626" t="s">
-        <v>273</v>
+        <v>119</v>
       </c>
       <c r="C626">
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:4" hidden="1">
       <c r="A627" t="s">
         <v>247</v>
       </c>
       <c r="B627" t="s">
-        <v>124</v>
+        <v>274</v>
       </c>
       <c r="C627">
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" spans="1:4" hidden="1">
       <c r="A628" t="s">
         <v>247</v>
       </c>
       <c r="B628" t="s">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="C628">
         <v>0</v>
       </c>
-    </row>
-    <row r="629" spans="1:4">
+      <c r="D628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" hidden="1">
       <c r="A629" t="s">
         <v>247</v>
       </c>
       <c r="B629" t="s">
-        <v>119</v>
+        <v>276</v>
       </c>
       <c r="C629">
         <v>0</v>
       </c>
-    </row>
-    <row r="630" spans="1:4">
+      <c r="D629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" hidden="1">
       <c r="A630" t="s">
         <v>247</v>
       </c>
       <c r="B630" t="s">
-        <v>274</v>
+        <v>34</v>
       </c>
       <c r="C630">
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" spans="1:4" hidden="1">
       <c r="A631" t="s">
         <v>247</v>
       </c>
       <c r="B631" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
       <c r="C631">
         <v>0</v>
       </c>
-      <c r="D631">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="632" spans="1:4">
+    </row>
+    <row r="632" spans="1:4" hidden="1">
       <c r="A632" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="B632" t="s">
-        <v>276</v>
+        <v>5</v>
       </c>
       <c r="C632">
-        <v>0</v>
-      </c>
-      <c r="D632">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="633" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" hidden="1">
       <c r="A633" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="B633" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C633">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="634" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" hidden="1">
       <c r="A634" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="B634" t="s">
-        <v>337</v>
+        <v>70</v>
       </c>
       <c r="C634">
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:4">
+    <row r="635" spans="1:4" hidden="1">
       <c r="A635" t="s">
         <v>277</v>
       </c>
       <c r="B635" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C635">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="636" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" hidden="1">
       <c r="A636" t="s">
         <v>277</v>
       </c>
       <c r="B636" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C636">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="637" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" hidden="1">
       <c r="A637" t="s">
         <v>277</v>
       </c>
       <c r="B637" t="s">
-        <v>70</v>
+        <v>278</v>
       </c>
       <c r="C637">
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" spans="1:4" hidden="1">
       <c r="A638" t="s">
         <v>277</v>
       </c>
       <c r="B638" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C638">
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:4">
+    <row r="639" spans="1:4" hidden="1">
       <c r="A639" t="s">
         <v>277</v>
       </c>
       <c r="B639" t="s">
-        <v>66</v>
+        <v>259</v>
       </c>
       <c r="C639">
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:4">
+    <row r="640" spans="1:4" hidden="1">
       <c r="A640" t="s">
         <v>277</v>
       </c>
       <c r="B640" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C640">
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:3">
+    <row r="641" spans="1:3" hidden="1">
       <c r="A641" t="s">
         <v>277</v>
       </c>
       <c r="B641" t="s">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="C641">
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" spans="1:3" hidden="1">
       <c r="A642" t="s">
         <v>277</v>
       </c>
       <c r="B642" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="C642">
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:3">
+    <row r="643" spans="1:3" hidden="1">
       <c r="A643" t="s">
         <v>277</v>
       </c>
       <c r="B643" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C643">
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:3">
+    <row r="644" spans="1:3" hidden="1">
       <c r="A644" t="s">
         <v>277</v>
       </c>
       <c r="B644" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="C644">
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:3">
+    <row r="645" spans="1:3" hidden="1">
       <c r="A645" t="s">
         <v>277</v>
       </c>
       <c r="B645" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C645">
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:3">
+    <row r="646" spans="1:3" hidden="1">
       <c r="A646" t="s">
         <v>277</v>
       </c>
       <c r="B646" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C646">
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:3">
+    <row r="647" spans="1:3" hidden="1">
       <c r="A647" t="s">
         <v>277</v>
       </c>
       <c r="B647" t="s">
-        <v>282</v>
+        <v>67</v>
       </c>
       <c r="C647">
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:3">
+    <row r="648" spans="1:3" hidden="1">
       <c r="A648" t="s">
         <v>277</v>
       </c>
       <c r="B648" t="s">
-        <v>283</v>
+        <v>110</v>
       </c>
       <c r="C648">
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:3">
+    <row r="649" spans="1:3" hidden="1">
       <c r="A649" t="s">
         <v>277</v>
       </c>
       <c r="B649" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="C649">
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:3">
+    <row r="650" spans="1:3" hidden="1">
       <c r="A650" t="s">
         <v>277</v>
       </c>
       <c r="B650" t="s">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="C650">
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:3">
+    <row r="651" spans="1:3" hidden="1">
       <c r="A651" t="s">
         <v>277</v>
       </c>
       <c r="B651" t="s">
-        <v>110</v>
+        <v>264</v>
       </c>
       <c r="C651">
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:3">
+    <row r="652" spans="1:3" hidden="1">
       <c r="A652" t="s">
         <v>277</v>
       </c>
       <c r="B652" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="C652">
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:3">
+    <row r="653" spans="1:3" hidden="1">
       <c r="A653" t="s">
         <v>277</v>
       </c>
       <c r="B653" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="C653">
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:3">
+    <row r="654" spans="1:3" hidden="1">
       <c r="A654" t="s">
         <v>277</v>
       </c>
       <c r="B654" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="C654">
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:3">
+    <row r="655" spans="1:3" hidden="1">
       <c r="A655" t="s">
         <v>277</v>
       </c>
       <c r="B655" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C655">
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:3">
+    <row r="656" spans="1:3" hidden="1">
       <c r="A656" t="s">
         <v>277</v>
       </c>
       <c r="B656" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C656">
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:4">
+    <row r="657" spans="1:4" hidden="1">
       <c r="A657" t="s">
         <v>277</v>
       </c>
       <c r="B657" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C657">
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:4">
+    <row r="658" spans="1:4" hidden="1">
       <c r="A658" t="s">
         <v>277</v>
       </c>
       <c r="B658" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C658">
         <v>0</v>
       </c>
-    </row>
-    <row r="659" spans="1:4">
+      <c r="D658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" hidden="1">
       <c r="A659" t="s">
         <v>277</v>
       </c>
       <c r="B659" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C659">
         <v>0</v>
       </c>
-    </row>
-    <row r="660" spans="1:4">
+      <c r="D659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" hidden="1">
       <c r="A660" t="s">
         <v>277</v>
       </c>
       <c r="B660" t="s">
-        <v>290</v>
+        <v>126</v>
       </c>
       <c r="C660">
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
+    <row r="661" spans="1:4" hidden="1">
       <c r="A661" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="B661" t="s">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c r="C661">
         <v>0</v>
@@ -9480,109 +9491,106 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:4">
+    <row r="662" spans="1:4" hidden="1">
       <c r="A662" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="B662" t="s">
-        <v>292</v>
+        <v>5</v>
       </c>
       <c r="C662">
-        <v>0</v>
-      </c>
-      <c r="D662">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="663" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" hidden="1">
       <c r="A663" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="B663" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C663">
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:4">
+    <row r="664" spans="1:4" hidden="1">
       <c r="A664" t="s">
         <v>293</v>
       </c>
       <c r="B664" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C664">
-        <v>0</v>
-      </c>
-      <c r="D664">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="665" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" hidden="1">
       <c r="A665" t="s">
         <v>293</v>
       </c>
       <c r="B665" t="s">
-        <v>5</v>
+        <v>249</v>
       </c>
       <c r="C665">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="666" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" hidden="1">
       <c r="A666" t="s">
         <v>293</v>
       </c>
       <c r="B666" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C666">
         <v>0</v>
       </c>
-    </row>
-    <row r="667" spans="1:4">
+      <c r="D666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" hidden="1">
       <c r="A667" t="s">
         <v>293</v>
       </c>
       <c r="B667" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="C667">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="668" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" hidden="1">
       <c r="A668" t="s">
         <v>293</v>
       </c>
       <c r="B668" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C668">
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:4">
+    <row r="669" spans="1:4" hidden="1">
       <c r="A669" t="s">
         <v>293</v>
       </c>
       <c r="B669" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C669">
-        <v>0</v>
-      </c>
-      <c r="D669">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="670" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" hidden="1">
       <c r="A670" t="s">
         <v>293</v>
       </c>
       <c r="B670" t="s">
-        <v>223</v>
+        <v>294</v>
       </c>
       <c r="C670">
         <v>0</v>
@@ -9591,34 +9599,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:4">
+    <row r="671" spans="1:4" hidden="1">
       <c r="A671" t="s">
         <v>293</v>
       </c>
       <c r="B671" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="C671">
         <v>0</v>
       </c>
-    </row>
-    <row r="672" spans="1:4">
+      <c r="D671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" hidden="1">
       <c r="A672" t="s">
         <v>293</v>
       </c>
       <c r="B672" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C672">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="673" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D672">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" hidden="1">
       <c r="A673" t="s">
         <v>293</v>
       </c>
       <c r="B673" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="C673">
         <v>0</v>
@@ -9627,12 +9641,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:4">
+    <row r="674" spans="1:4" hidden="1">
       <c r="A674" t="s">
         <v>293</v>
       </c>
       <c r="B674" t="s">
-        <v>295</v>
+        <v>86</v>
       </c>
       <c r="C674">
         <v>0</v>
@@ -9641,131 +9655,131 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:4">
+    <row r="675" spans="1:4" hidden="1">
       <c r="A675" t="s">
         <v>293</v>
       </c>
       <c r="B675" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C675">
         <v>0</v>
       </c>
-      <c r="D675">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="676" spans="1:4">
+    </row>
+    <row r="676" spans="1:4" hidden="1">
       <c r="A676" t="s">
         <v>293</v>
       </c>
       <c r="B676" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="C676">
         <v>0</v>
       </c>
-      <c r="D676">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="677" spans="1:4">
+    </row>
+    <row r="677" spans="1:4" hidden="1">
       <c r="A677" t="s">
         <v>293</v>
       </c>
       <c r="B677" t="s">
-        <v>86</v>
+        <v>296</v>
       </c>
       <c r="C677">
         <v>0</v>
       </c>
-      <c r="D677">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="678" spans="1:4">
+    </row>
+    <row r="678" spans="1:4" hidden="1">
       <c r="A678" t="s">
         <v>293</v>
       </c>
       <c r="B678" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="C678">
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:4">
+    <row r="679" spans="1:4" hidden="1">
       <c r="A679" t="s">
         <v>293</v>
       </c>
       <c r="B679" t="s">
-        <v>126</v>
+        <v>297</v>
       </c>
       <c r="C679">
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:4">
+    <row r="680" spans="1:4" hidden="1">
       <c r="A680" t="s">
         <v>293</v>
       </c>
       <c r="B680" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C680">
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:4">
+    <row r="681" spans="1:4" hidden="1">
       <c r="A681" t="s">
         <v>293</v>
       </c>
       <c r="B681" t="s">
-        <v>54</v>
+        <v>299</v>
       </c>
       <c r="C681">
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
+    <row r="682" spans="1:4" hidden="1">
       <c r="A682" t="s">
         <v>293</v>
       </c>
       <c r="B682" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C682">
         <v>0</v>
       </c>
-    </row>
-    <row r="683" spans="1:4">
+      <c r="D682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" hidden="1">
       <c r="A683" t="s">
         <v>293</v>
       </c>
       <c r="B683" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C683">
         <v>0</v>
       </c>
-    </row>
-    <row r="684" spans="1:4">
+      <c r="D683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" hidden="1">
       <c r="A684" t="s">
         <v>293</v>
       </c>
       <c r="B684" t="s">
-        <v>299</v>
+        <v>89</v>
       </c>
       <c r="C684">
         <v>0</v>
       </c>
-    </row>
-    <row r="685" spans="1:4">
+      <c r="D684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" hidden="1">
       <c r="A685" t="s">
         <v>293</v>
       </c>
       <c r="B685" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C685">
         <v>0</v>
@@ -9774,142 +9788,136 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:4">
+    <row r="686" spans="1:4" hidden="1">
       <c r="A686" t="s">
         <v>293</v>
       </c>
       <c r="B686" t="s">
-        <v>301</v>
+        <v>6</v>
       </c>
       <c r="C686">
         <v>0</v>
       </c>
-      <c r="D686">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="687" spans="1:4">
+    </row>
+    <row r="687" spans="1:4" hidden="1">
       <c r="A687" t="s">
         <v>293</v>
       </c>
       <c r="B687" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="C687">
         <v>0</v>
       </c>
-      <c r="D687">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="688" spans="1:4">
+    </row>
+    <row r="688" spans="1:4" hidden="1">
       <c r="A688" t="s">
         <v>293</v>
       </c>
       <c r="B688" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C688">
         <v>0</v>
       </c>
-      <c r="D688">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="689" spans="1:4">
+    </row>
+    <row r="689" spans="1:4" hidden="1">
       <c r="A689" t="s">
         <v>293</v>
       </c>
       <c r="B689" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C689">
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:4">
+    <row r="690" spans="1:4" hidden="1">
       <c r="A690" t="s">
         <v>293</v>
       </c>
       <c r="B690" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C690">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="691" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" hidden="1">
       <c r="A691" t="s">
         <v>293</v>
       </c>
       <c r="B691" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C691">
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:4">
+    <row r="692" spans="1:4" hidden="1">
       <c r="A692" t="s">
         <v>293</v>
       </c>
       <c r="B692" t="s">
-        <v>69</v>
+        <v>305</v>
       </c>
       <c r="C692">
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:4">
+    <row r="693" spans="1:4" hidden="1">
       <c r="A693" t="s">
         <v>293</v>
       </c>
       <c r="B693" t="s">
-        <v>70</v>
+        <v>255</v>
       </c>
       <c r="C693">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="694" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" hidden="1">
       <c r="A694" t="s">
         <v>293</v>
       </c>
       <c r="B694" t="s">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="C694">
         <v>0</v>
       </c>
-    </row>
-    <row r="695" spans="1:4">
+      <c r="D694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" hidden="1">
       <c r="A695" t="s">
         <v>293</v>
       </c>
       <c r="B695" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="C695">
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:4">
+    <row r="696" spans="1:4" hidden="1">
       <c r="A696" t="s">
         <v>293</v>
       </c>
       <c r="B696" t="s">
-        <v>255</v>
+        <v>334</v>
       </c>
       <c r="C696">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="697" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" hidden="1">
       <c r="A697" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="B697" t="s">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="C697">
         <v>0</v>
@@ -9918,147 +9926,150 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:4">
+    <row r="698" spans="1:4" hidden="1">
       <c r="A698" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="B698" t="s">
-        <v>332</v>
+        <v>5</v>
       </c>
       <c r="C698">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="699" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" hidden="1">
       <c r="A699" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="B699" t="s">
-        <v>334</v>
+        <v>71</v>
       </c>
       <c r="C699">
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:4">
+    <row r="700" spans="1:4" hidden="1">
       <c r="A700" t="s">
         <v>306</v>
       </c>
       <c r="B700" t="s">
-        <v>329</v>
+        <v>69</v>
       </c>
       <c r="C700">
         <v>0</v>
       </c>
-      <c r="D700">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="701" spans="1:4">
+    </row>
+    <row r="701" spans="1:4" hidden="1">
       <c r="A701" t="s">
         <v>306</v>
       </c>
       <c r="B701" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="C701">
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:4">
+    <row r="702" spans="1:4" hidden="1">
       <c r="A702" t="s">
         <v>306</v>
       </c>
       <c r="B702" t="s">
-        <v>71</v>
+        <v>307</v>
       </c>
       <c r="C702">
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:4">
+    <row r="703" spans="1:4" hidden="1">
       <c r="A703" t="s">
         <v>306</v>
       </c>
       <c r="B703" t="s">
-        <v>69</v>
+        <v>308</v>
       </c>
       <c r="C703">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="704" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" hidden="1">
       <c r="A704" t="s">
         <v>306</v>
       </c>
       <c r="B704" t="s">
-        <v>70</v>
+        <v>309</v>
       </c>
       <c r="C704">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="705" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" hidden="1">
       <c r="A705" t="s">
         <v>306</v>
       </c>
       <c r="B705" t="s">
-        <v>307</v>
+        <v>50</v>
       </c>
       <c r="C705">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="706" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" hidden="1">
       <c r="A706" t="s">
         <v>306</v>
       </c>
       <c r="B706" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C706">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="707" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" hidden="1">
       <c r="A707" t="s">
         <v>306</v>
       </c>
       <c r="B707" t="s">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="C707">
         <v>0</v>
       </c>
-    </row>
-    <row r="708" spans="1:4">
+      <c r="D707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" hidden="1">
       <c r="A708" t="s">
         <v>306</v>
       </c>
       <c r="B708" t="s">
-        <v>50</v>
+        <v>311</v>
       </c>
       <c r="C708">
         <v>0</v>
       </c>
-    </row>
-    <row r="709" spans="1:4">
+      <c r="D708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" hidden="1">
       <c r="A709" t="s">
         <v>306</v>
       </c>
       <c r="B709" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C709">
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:4">
+    <row r="710" spans="1:4" hidden="1">
       <c r="A710" t="s">
         <v>306</v>
       </c>
       <c r="B710" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="C710">
         <v>0</v>
@@ -10067,37 +10078,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:4">
+    <row r="711" spans="1:4" hidden="1">
       <c r="A711" t="s">
         <v>306</v>
       </c>
       <c r="B711" t="s">
-        <v>311</v>
+        <v>112</v>
       </c>
       <c r="C711">
         <v>0</v>
       </c>
-      <c r="D711">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="712" spans="1:4">
+    </row>
+    <row r="712" spans="1:4" hidden="1">
       <c r="A712" t="s">
         <v>306</v>
       </c>
       <c r="B712" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C712">
         <v>0</v>
       </c>
-    </row>
-    <row r="713" spans="1:4">
+      <c r="D712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" hidden="1">
       <c r="A713" t="s">
         <v>306</v>
       </c>
       <c r="B713" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="C713">
         <v>0</v>
@@ -10106,23 +10117,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:4">
+    <row r="714" spans="1:4" hidden="1">
       <c r="A714" t="s">
         <v>306</v>
       </c>
       <c r="B714" t="s">
-        <v>112</v>
+        <v>314</v>
       </c>
       <c r="C714">
         <v>0</v>
       </c>
-    </row>
-    <row r="715" spans="1:4">
+      <c r="D714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" hidden="1">
       <c r="A715" t="s">
         <v>306</v>
       </c>
       <c r="B715" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C715">
         <v>0</v>
@@ -10131,26 +10145,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:4">
+    <row r="716" spans="1:4" hidden="1">
       <c r="A716" t="s">
         <v>306</v>
       </c>
       <c r="B716" t="s">
-        <v>18</v>
+        <v>316</v>
       </c>
       <c r="C716">
         <v>0</v>
       </c>
-      <c r="D716">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="717" spans="1:4">
+    </row>
+    <row r="717" spans="1:4" hidden="1">
       <c r="A717" t="s">
         <v>306</v>
       </c>
       <c r="B717" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C717">
         <v>0</v>
@@ -10159,199 +10170,160 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:4">
+    <row r="718" spans="1:4" hidden="1">
       <c r="A718" t="s">
         <v>306</v>
       </c>
       <c r="B718" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C718">
         <v>0</v>
       </c>
-      <c r="D718">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="719" spans="1:4">
+    </row>
+    <row r="719" spans="1:4" hidden="1">
       <c r="A719" t="s">
         <v>306</v>
       </c>
       <c r="B719" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C719">
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:4">
+    <row r="720" spans="1:4" hidden="1">
       <c r="A720" t="s">
         <v>306</v>
       </c>
       <c r="B720" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="C720">
         <v>0</v>
       </c>
-      <c r="D720">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="721" spans="1:4">
+    </row>
+    <row r="721" spans="1:4" hidden="1">
       <c r="A721" t="s">
         <v>306</v>
       </c>
       <c r="B721" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C721">
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:4">
+    <row r="722" spans="1:4" hidden="1">
       <c r="A722" t="s">
         <v>306</v>
       </c>
       <c r="B722" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C722">
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:4">
+    <row r="723" spans="1:4" hidden="1">
       <c r="A723" t="s">
         <v>306</v>
       </c>
       <c r="B723" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C723">
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:4">
+    <row r="724" spans="1:4" hidden="1">
       <c r="A724" t="s">
         <v>306</v>
       </c>
       <c r="B724" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C724">
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:4">
+    <row r="725" spans="1:4" hidden="1">
       <c r="A725" t="s">
         <v>306</v>
       </c>
       <c r="B725" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C725">
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:4">
+    <row r="726" spans="1:4" hidden="1">
       <c r="A726" t="s">
         <v>306</v>
       </c>
       <c r="B726" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C726">
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:4">
+    <row r="727" spans="1:4" hidden="1">
       <c r="A727" t="s">
         <v>306</v>
       </c>
       <c r="B727" t="s">
-        <v>323</v>
+        <v>51</v>
       </c>
       <c r="C727">
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:4">
+    <row r="728" spans="1:4" hidden="1">
       <c r="A728" t="s">
         <v>306</v>
       </c>
       <c r="B728" t="s">
-        <v>324</v>
+        <v>52</v>
       </c>
       <c r="C728">
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:4">
+    <row r="729" spans="1:4" hidden="1">
       <c r="A729" t="s">
         <v>306</v>
       </c>
       <c r="B729" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C729">
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:4">
+    <row r="730" spans="1:4" hidden="1">
       <c r="A730" t="s">
         <v>306</v>
       </c>
       <c r="B730" t="s">
-        <v>51</v>
+        <v>327</v>
       </c>
       <c r="C730">
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:4">
-      <c r="A731" t="s">
+    <row r="731" spans="1:4" hidden="1">
+      <c r="A731" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B731" t="s">
-        <v>52</v>
-      </c>
-      <c r="C731">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="732" spans="1:4">
-      <c r="A732" t="s">
-        <v>306</v>
-      </c>
-      <c r="B732" t="s">
-        <v>326</v>
-      </c>
-      <c r="C732">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="733" spans="1:4">
-      <c r="A733" t="s">
-        <v>306</v>
-      </c>
-      <c r="B733" t="s">
-        <v>327</v>
-      </c>
-      <c r="C733">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="734" spans="1:4">
-      <c r="A734" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B734" s="1" t="s">
+      <c r="B731" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C734" s="1">
-        <v>0</v>
-      </c>
-      <c r="D734" s="1"/>
+      <c r="C731" s="1">
+        <v>0</v>
+      </c>
+      <c r="D731" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="415">
   <si>
     <t>TABELA</t>
   </si>
@@ -1240,6 +1240,27 @@
   </si>
   <si>
     <t>VL_MINIMO_PEDIDO</t>
+  </si>
+  <si>
+    <t>ln.ods_car_remessa</t>
+  </si>
+  <si>
+    <t>NR_CONTA</t>
+  </si>
+  <si>
+    <t>CD_STATUS_ARQUIVO</t>
+  </si>
+  <si>
+    <t>CD_STATUS_ENVIO</t>
+  </si>
+  <si>
+    <t>CD_TRANSACAO_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>NR_DOC_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>NR_SERIE</t>
   </si>
 </sst>
 </file>
@@ -1304,8 +1325,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D774" totalsRowShown="0">
-  <autoFilter ref="A1:D774">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D790" totalsRowShown="0">
+  <autoFilter ref="A1:D790">
     <filterColumn colId="0"/>
   </autoFilter>
   <sortState ref="A2:D734">
@@ -1606,11 +1627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D774"/>
+  <dimension ref="A1:D790"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A577" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B771" sqref="B771"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2929,203 +2950,227 @@
       <c r="D110" s="2"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>343</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="A111" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0</v>
+      </c>
+      <c r="D111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C112" s="2">
+        <v>1</v>
+      </c>
+      <c r="D112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0</v>
+      </c>
+      <c r="D114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>343</v>
-      </c>
-      <c r="B112" t="s">
-        <v>6</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>343</v>
-      </c>
-      <c r="B113" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>343</v>
-      </c>
-      <c r="B114" t="s">
-        <v>38</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>343</v>
-      </c>
-      <c r="B115" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>343</v>
-      </c>
-      <c r="B116" t="s">
-        <v>60</v>
-      </c>
-      <c r="C116">
+      <c r="C116" s="2">
+        <v>1</v>
+      </c>
+      <c r="D116" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>343</v>
-      </c>
-      <c r="B117" t="s">
-        <v>61</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
+      <c r="A117" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C117" s="2">
+        <v>0</v>
+      </c>
+      <c r="D117" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>343</v>
-      </c>
-      <c r="B118" t="s">
-        <v>13</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
+      <c r="A118" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C118" s="2">
+        <v>0</v>
+      </c>
+      <c r="D118" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>343</v>
-      </c>
-      <c r="B119" t="s">
-        <v>14</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="D119">
+      <c r="A119" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0</v>
+      </c>
+      <c r="D119" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>343</v>
-      </c>
-      <c r="B120" t="s">
-        <v>16</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
+      <c r="A120" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C120" s="2">
+        <v>0</v>
+      </c>
+      <c r="D120" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>343</v>
-      </c>
-      <c r="B121" t="s">
-        <v>17</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
+      <c r="A121" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0</v>
+      </c>
+      <c r="D121" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>343</v>
-      </c>
-      <c r="B122" t="s">
-        <v>49</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
+      <c r="A122" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C122" s="2">
+        <v>1</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>343</v>
-      </c>
-      <c r="B123" t="s">
-        <v>50</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
+      <c r="A123" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>343</v>
-      </c>
-      <c r="B124" t="s">
-        <v>51</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
+      <c r="A124" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0</v>
+      </c>
+      <c r="D124" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>343</v>
-      </c>
-      <c r="B125" t="s">
-        <v>344</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
+      <c r="A125" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0</v>
+      </c>
+      <c r="D125" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>343</v>
-      </c>
-      <c r="B126" t="s">
-        <v>21</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
+      <c r="A126" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C126" s="2">
+        <v>1</v>
+      </c>
+      <c r="D126" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3133,12 +3178,9 @@
         <v>343</v>
       </c>
       <c r="B127" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
         <v>1</v>
       </c>
     </row>
@@ -3147,7 +3189,7 @@
         <v>343</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -3158,7 +3200,7 @@
         <v>343</v>
       </c>
       <c r="B129" t="s">
-        <v>345</v>
+        <v>3</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -3169,13 +3211,10 @@
         <v>343</v>
       </c>
       <c r="B130" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C130">
         <v>0</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3183,13 +3222,10 @@
         <v>343</v>
       </c>
       <c r="B131" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="C131">
         <v>0</v>
-      </c>
-      <c r="D131">
-        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3197,7 +3233,7 @@
         <v>343</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -3208,13 +3244,10 @@
         <v>343</v>
       </c>
       <c r="B133" t="s">
-        <v>346</v>
+        <v>61</v>
       </c>
       <c r="C133">
         <v>0</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3222,13 +3255,10 @@
         <v>343</v>
       </c>
       <c r="B134" t="s">
-        <v>347</v>
+        <v>13</v>
       </c>
       <c r="C134">
         <v>0</v>
-      </c>
-      <c r="D134">
-        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3236,7 +3266,7 @@
         <v>343</v>
       </c>
       <c r="B135" t="s">
-        <v>388</v>
+        <v>14</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3250,10 +3280,13 @@
         <v>343</v>
       </c>
       <c r="B136" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C136">
         <v>0</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3261,10 +3294,13 @@
         <v>343</v>
       </c>
       <c r="B137" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="C137">
         <v>0</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3272,10 +3308,13 @@
         <v>343</v>
       </c>
       <c r="B138" t="s">
-        <v>348</v>
+        <v>49</v>
       </c>
       <c r="C138">
         <v>0</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3283,10 +3322,13 @@
         <v>343</v>
       </c>
       <c r="B139" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C139">
         <v>0</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3294,55 +3336,63 @@
         <v>343</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="2" t="s">
+      <c r="A141" t="s">
         <v>343</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>35</v>
+      <c r="B141" t="s">
+        <v>344</v>
       </c>
       <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="D141" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="2" t="s">
+      <c r="A142" t="s">
         <v>343</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>384</v>
+      <c r="B142" t="s">
+        <v>21</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3350,87 +3400,102 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B145" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B146" t="s">
-        <v>331</v>
+        <v>24</v>
       </c>
       <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B147" t="s">
-        <v>332</v>
+        <v>87</v>
       </c>
       <c r="C147">
         <v>0</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B148" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B149" t="s">
-        <v>3</v>
+        <v>346</v>
       </c>
       <c r="C149">
         <v>0</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B150" t="s">
-        <v>23</v>
+        <v>347</v>
       </c>
       <c r="C150">
         <v>0</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>388</v>
       </c>
       <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3438,10 +3503,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B153" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3449,71 +3514,60 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B154" t="s">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="C154">
         <v>0</v>
-      </c>
-      <c r="D154">
-        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B155" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C155">
         <v>0</v>
-      </c>
-      <c r="D155">
-        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B156" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C156">
         <v>0</v>
       </c>
-      <c r="D156">
-        <v>1</v>
-      </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" t="s">
-        <v>349</v>
-      </c>
-      <c r="B157" t="s">
-        <v>350</v>
+      <c r="A157" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C157">
-        <v>0</v>
-      </c>
-      <c r="D157">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D157" s="2"/>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" t="s">
-        <v>349</v>
-      </c>
-      <c r="B158" t="s">
-        <v>49</v>
+      <c r="A158" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3522,12 +3576,9 @@
         <v>349</v>
       </c>
       <c r="B159" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C159">
-        <v>0</v>
-      </c>
-      <c r="D159">
         <v>1</v>
       </c>
     </row>
@@ -3536,13 +3587,10 @@
         <v>349</v>
       </c>
       <c r="B160" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C160">
         <v>0</v>
-      </c>
-      <c r="D160">
-        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3550,12 +3598,9 @@
         <v>349</v>
       </c>
       <c r="B161" t="s">
-        <v>388</v>
+        <v>37</v>
       </c>
       <c r="C161">
-        <v>0</v>
-      </c>
-      <c r="D161">
         <v>1</v>
       </c>
     </row>
@@ -3564,10 +3609,10 @@
         <v>349</v>
       </c>
       <c r="B162" t="s">
-        <v>33</v>
+        <v>331</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3575,13 +3620,10 @@
         <v>349</v>
       </c>
       <c r="B163" t="s">
-        <v>44</v>
+        <v>332</v>
       </c>
       <c r="C163">
         <v>0</v>
-      </c>
-      <c r="D163">
-        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3589,10 +3631,10 @@
         <v>349</v>
       </c>
       <c r="B164" t="s">
-        <v>351</v>
+        <v>35</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3600,7 +3642,7 @@
         <v>349</v>
       </c>
       <c r="B165" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3611,7 +3653,7 @@
         <v>349</v>
       </c>
       <c r="B166" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3622,12 +3664,9 @@
         <v>349</v>
       </c>
       <c r="B167" t="s">
-        <v>352</v>
+        <v>7</v>
       </c>
       <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="D167">
         <v>1</v>
       </c>
     </row>
@@ -3636,13 +3675,10 @@
         <v>349</v>
       </c>
       <c r="B168" t="s">
-        <v>353</v>
+        <v>8</v>
       </c>
       <c r="C168">
         <v>0</v>
-      </c>
-      <c r="D168">
-        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3650,317 +3686,320 @@
         <v>349</v>
       </c>
       <c r="B169" t="s">
-        <v>354</v>
+        <v>42</v>
       </c>
       <c r="C169">
         <v>0</v>
       </c>
-      <c r="D169">
-        <v>1</v>
-      </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="2" t="s">
+      <c r="A170" t="s">
         <v>349</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>47</v>
+      <c r="B170" t="s">
+        <v>41</v>
       </c>
       <c r="C170">
         <v>0</v>
       </c>
-      <c r="D170" s="2"/>
+      <c r="D170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="2" t="s">
-        <v>366</v>
+      <c r="A171" t="s">
+        <v>349</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C171">
         <v>0</v>
       </c>
-      <c r="D171" s="2"/>
+      <c r="D171">
+        <v>1</v>
+      </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="2" t="s">
-        <v>366</v>
+      <c r="A172" t="s">
+        <v>349</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C172">
         <v>0</v>
       </c>
-      <c r="D172" s="2"/>
+      <c r="D172">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="2" t="s">
-        <v>366</v>
+      <c r="A173" t="s">
+        <v>349</v>
       </c>
       <c r="B173" t="s">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="C173">
         <v>0</v>
       </c>
-      <c r="D173" s="2"/>
+      <c r="D173">
+        <v>1</v>
+      </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="2" t="s">
-        <v>366</v>
+      <c r="A174" t="s">
+        <v>349</v>
       </c>
       <c r="B174" t="s">
-        <v>367</v>
+        <v>49</v>
       </c>
       <c r="C174">
         <v>0</v>
       </c>
-      <c r="D174" s="2"/>
+      <c r="D174">
+        <v>1</v>
+      </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="2" t="s">
-        <v>366</v>
+      <c r="A175" t="s">
+        <v>349</v>
       </c>
       <c r="B175" t="s">
-        <v>368</v>
+        <v>50</v>
       </c>
       <c r="C175">
         <v>0</v>
       </c>
-      <c r="D175" s="2">
+      <c r="D175">
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="2" t="s">
-        <v>366</v>
+      <c r="A176" t="s">
+        <v>349</v>
       </c>
       <c r="B176" t="s">
-        <v>348</v>
+        <v>51</v>
       </c>
       <c r="C176">
         <v>0</v>
       </c>
-      <c r="D176" s="2">
+      <c r="D176">
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="2" t="s">
-        <v>366</v>
+      <c r="A177" t="s">
+        <v>349</v>
       </c>
       <c r="B177" t="s">
-        <v>57</v>
+        <v>388</v>
       </c>
       <c r="C177">
         <v>0</v>
       </c>
-      <c r="D177" s="2">
+      <c r="D177">
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="2" t="s">
-        <v>366</v>
+      <c r="A178" t="s">
+        <v>349</v>
       </c>
       <c r="B178" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C178">
         <v>0</v>
       </c>
-      <c r="D178" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="2" t="s">
-        <v>366</v>
+      <c r="A179" t="s">
+        <v>349</v>
       </c>
       <c r="B179" t="s">
-        <v>388</v>
+        <v>44</v>
       </c>
       <c r="C179">
         <v>0</v>
       </c>
-      <c r="D179" s="2">
+      <c r="D179">
         <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="2" t="s">
-        <v>366</v>
+      <c r="A180" t="s">
+        <v>349</v>
       </c>
       <c r="B180" t="s">
-        <v>3</v>
+        <v>351</v>
       </c>
       <c r="C180">
         <v>0</v>
       </c>
-      <c r="D180" s="2"/>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="2" t="s">
-        <v>366</v>
+      <c r="A181" t="s">
+        <v>349</v>
       </c>
       <c r="B181" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="C181">
         <v>0</v>
       </c>
-      <c r="D181" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="2" t="s">
-        <v>366</v>
+      <c r="A182" t="s">
+        <v>349</v>
       </c>
       <c r="B182" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C182">
         <v>0</v>
       </c>
-      <c r="D182" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="2" t="s">
-        <v>366</v>
+      <c r="A183" t="s">
+        <v>349</v>
       </c>
       <c r="B183" t="s">
-        <v>51</v>
+        <v>352</v>
       </c>
       <c r="C183">
         <v>0</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D183">
         <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>353</v>
       </c>
       <c r="C184">
-        <v>1</v>
-      </c>
-      <c r="D184" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B185" t="s">
+        <v>354</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186" s="2"/>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187" s="2"/>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B189" t="s">
         <v>35</v>
       </c>
-      <c r="C185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" t="s">
-        <v>355</v>
-      </c>
-      <c r="B186" t="s">
-        <v>356</v>
-      </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" t="s">
-        <v>355</v>
-      </c>
-      <c r="B187" t="s">
-        <v>357</v>
-      </c>
-      <c r="C187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" t="s">
-        <v>355</v>
-      </c>
-      <c r="B188" t="s">
-        <v>332</v>
-      </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" t="s">
-        <v>355</v>
-      </c>
-      <c r="B189" t="s">
-        <v>358</v>
-      </c>
       <c r="C189">
         <v>0</v>
       </c>
-      <c r="D189">
-        <v>1</v>
-      </c>
+      <c r="D189" s="2"/>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" t="s">
-        <v>355</v>
+      <c r="A190" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="B190" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="C190">
         <v>0</v>
       </c>
-      <c r="D190">
-        <v>1</v>
-      </c>
+      <c r="D190" s="2"/>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" t="s">
-        <v>355</v>
+      <c r="A191" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="B191" t="s">
-        <v>21</v>
+        <v>368</v>
       </c>
       <c r="C191">
         <v>0</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C192" s="2">
-        <v>0</v>
-      </c>
-      <c r="D192" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="B192" t="s">
+        <v>348</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C193" s="2">
+        <v>366</v>
+      </c>
+      <c r="B193" t="s">
+        <v>57</v>
+      </c>
+      <c r="C193">
         <v>0</v>
       </c>
       <c r="D193" s="2">
@@ -3968,130 +4007,138 @@
       </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" t="s">
-        <v>383</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>369</v>
+      <c r="A194" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B194" t="s">
+        <v>14</v>
       </c>
       <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" t="s">
-        <v>383</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>370</v>
+      <c r="A195" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B195" t="s">
+        <v>388</v>
       </c>
       <c r="C195">
         <v>0</v>
       </c>
+      <c r="D195" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" t="s">
-        <v>383</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>371</v>
+      <c r="A196" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B196" t="s">
+        <v>3</v>
       </c>
       <c r="C196">
         <v>0</v>
       </c>
+      <c r="D196" s="2"/>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" t="s">
-        <v>383</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>9</v>
+      <c r="A197" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B197" t="s">
+        <v>49</v>
       </c>
       <c r="C197">
         <v>0</v>
       </c>
+      <c r="D197" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" t="s">
-        <v>383</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>372</v>
+      <c r="A198" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B198" t="s">
+        <v>50</v>
       </c>
       <c r="C198">
         <v>0</v>
       </c>
+      <c r="D198" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" t="s">
-        <v>383</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>273</v>
+      <c r="A199" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B199" t="s">
+        <v>51</v>
       </c>
       <c r="C199">
         <v>0</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>383</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>34</v>
+        <v>355</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
       </c>
       <c r="C200">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D200" s="2"/>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>383</v>
-      </c>
-      <c r="B201" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B201" t="s">
         <v>35</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>383</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>373</v>
+        <v>355</v>
+      </c>
+      <c r="B202" t="s">
+        <v>356</v>
       </c>
       <c r="C202">
-        <v>0</v>
-      </c>
-      <c r="D202">
         <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>383</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>374</v>
+        <v>355</v>
+      </c>
+      <c r="B203" t="s">
+        <v>357</v>
       </c>
       <c r="C203">
-        <v>0</v>
-      </c>
-      <c r="D203">
         <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>383</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>375</v>
+        <v>355</v>
+      </c>
+      <c r="B204" t="s">
+        <v>332</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -4099,10 +4146,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>383</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>376</v>
+        <v>355</v>
+      </c>
+      <c r="B205" t="s">
+        <v>358</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -4113,10 +4160,10 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>383</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>377</v>
+        <v>355</v>
+      </c>
+      <c r="B206" t="s">
+        <v>348</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -4127,10 +4174,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>383</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>14</v>
+        <v>355</v>
+      </c>
+      <c r="B207" t="s">
+        <v>21</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -4140,28 +4187,29 @@
       </c>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" t="s">
-        <v>383</v>
+      <c r="A208" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C208">
-        <v>0</v>
-      </c>
-      <c r="D208">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C208" s="2">
+        <v>0</v>
+      </c>
+      <c r="D208" s="2"/>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" t="s">
-        <v>383</v>
+      <c r="A209" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C209">
-        <v>0</v>
+        <v>385</v>
+      </c>
+      <c r="C209" s="2">
+        <v>0</v>
+      </c>
+      <c r="D209" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4169,10 +4217,10 @@
         <v>383</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4180,7 +4228,7 @@
         <v>383</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -4191,7 +4239,7 @@
         <v>383</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -4202,7 +4250,7 @@
         <v>383</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>381</v>
+        <v>9</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -4213,13 +4261,10 @@
         <v>383</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C214">
         <v>0</v>
-      </c>
-      <c r="D214">
-        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4227,35 +4272,32 @@
         <v>383</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>388</v>
+        <v>273</v>
       </c>
       <c r="C215">
         <v>0</v>
       </c>
-      <c r="D215" s="2">
+      <c r="D215">
         <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>59</v>
-      </c>
-      <c r="B216" t="s">
-        <v>388</v>
+        <v>383</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C216">
         <v>0</v>
-      </c>
-      <c r="D216">
-        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>59</v>
-      </c>
-      <c r="B217" t="s">
-        <v>5</v>
+        <v>383</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -4263,87 +4305,105 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>59</v>
-      </c>
-      <c r="B218" t="s">
-        <v>6</v>
+        <v>383</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="C218">
         <v>0</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>59</v>
-      </c>
-      <c r="B219" t="s">
-        <v>60</v>
+        <v>383</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
         <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>59</v>
-      </c>
-      <c r="B220" t="s">
-        <v>61</v>
+        <v>383</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>59</v>
-      </c>
-      <c r="B221" t="s">
-        <v>62</v>
+        <v>383</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="C221">
         <v>0</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>59</v>
-      </c>
-      <c r="B222" t="s">
-        <v>63</v>
+        <v>383</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="C222">
         <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>59</v>
-      </c>
-      <c r="B223" t="s">
-        <v>64</v>
+        <v>383</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C223">
         <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>59</v>
-      </c>
-      <c r="B224" t="s">
-        <v>65</v>
+        <v>383</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C224">
         <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>59</v>
-      </c>
-      <c r="B225" t="s">
-        <v>66</v>
+        <v>383</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -4351,10 +4411,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>59</v>
-      </c>
-      <c r="B226" t="s">
-        <v>67</v>
+        <v>383</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -4362,10 +4422,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>59</v>
-      </c>
-      <c r="B227" t="s">
-        <v>68</v>
+        <v>383</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -4373,10 +4433,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>59</v>
-      </c>
-      <c r="B228" t="s">
-        <v>69</v>
+        <v>383</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -4384,35 +4444,41 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>59</v>
-      </c>
-      <c r="B229" t="s">
-        <v>70</v>
+        <v>383</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>59</v>
-      </c>
-      <c r="B230" t="s">
-        <v>71</v>
+        <v>383</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="C230">
         <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>59</v>
-      </c>
-      <c r="B231" t="s">
-        <v>72</v>
+        <v>383</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="C231">
         <v>0</v>
+      </c>
+      <c r="D231" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4420,10 +4486,13 @@
         <v>59</v>
       </c>
       <c r="B232" t="s">
-        <v>73</v>
+        <v>388</v>
       </c>
       <c r="C232">
         <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4431,7 +4500,7 @@
         <v>59</v>
       </c>
       <c r="B233" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -4442,7 +4511,7 @@
         <v>59</v>
       </c>
       <c r="B234" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -4453,10 +4522,10 @@
         <v>59</v>
       </c>
       <c r="B235" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4464,12 +4533,9 @@
         <v>59</v>
       </c>
       <c r="B236" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C236">
-        <v>0</v>
-      </c>
-      <c r="D236">
         <v>1</v>
       </c>
     </row>
@@ -4478,13 +4544,10 @@
         <v>59</v>
       </c>
       <c r="B237" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C237">
         <v>0</v>
-      </c>
-      <c r="D237">
-        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4492,7 +4555,7 @@
         <v>59</v>
       </c>
       <c r="B238" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -4503,10 +4566,10 @@
         <v>59</v>
       </c>
       <c r="B239" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4514,183 +4577,189 @@
         <v>59</v>
       </c>
       <c r="B240" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C240">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>59</v>
       </c>
       <c r="B241" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C241">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>59</v>
       </c>
       <c r="B242" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C242">
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>59</v>
       </c>
       <c r="B243" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C243">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>59</v>
       </c>
       <c r="B244" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C244">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>59</v>
       </c>
       <c r="B245" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>59</v>
       </c>
       <c r="B246" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C246">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>59</v>
       </c>
       <c r="B247" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C247">
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>59</v>
       </c>
       <c r="B248" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C248">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>59</v>
       </c>
       <c r="B249" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C249">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>59</v>
       </c>
       <c r="B250" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C250">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>59</v>
       </c>
       <c r="B251" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C251">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>59</v>
       </c>
       <c r="B252" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:3">
+      <c r="D252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:3">
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>59</v>
       </c>
       <c r="B254" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="C254">
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>59</v>
       </c>
       <c r="B255" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>59</v>
       </c>
       <c r="B256" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -4701,7 +4770,7 @@
         <v>59</v>
       </c>
       <c r="B257" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -4712,7 +4781,7 @@
         <v>59</v>
       </c>
       <c r="B258" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -4723,7 +4792,7 @@
         <v>59</v>
       </c>
       <c r="B259" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -4734,7 +4803,7 @@
         <v>59</v>
       </c>
       <c r="B260" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -4745,7 +4814,7 @@
         <v>59</v>
       </c>
       <c r="B261" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -4756,7 +4825,7 @@
         <v>59</v>
       </c>
       <c r="B262" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -4767,7 +4836,7 @@
         <v>59</v>
       </c>
       <c r="B263" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -4778,7 +4847,7 @@
         <v>59</v>
       </c>
       <c r="B264" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -4789,7 +4858,7 @@
         <v>59</v>
       </c>
       <c r="B265" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -4800,7 +4869,7 @@
         <v>59</v>
       </c>
       <c r="B266" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -4811,7 +4880,7 @@
         <v>59</v>
       </c>
       <c r="B267" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -4822,7 +4891,7 @@
         <v>59</v>
       </c>
       <c r="B268" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -4833,7 +4902,7 @@
         <v>59</v>
       </c>
       <c r="B269" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -4844,7 +4913,7 @@
         <v>59</v>
       </c>
       <c r="B270" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -4855,7 +4924,7 @@
         <v>59</v>
       </c>
       <c r="B271" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -4866,186 +4935,183 @@
         <v>59</v>
       </c>
       <c r="B272" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C272">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
         <v>59</v>
       </c>
       <c r="B273" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C273">
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
         <v>59</v>
       </c>
       <c r="B274" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C274">
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
         <v>59</v>
       </c>
       <c r="B275" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C275">
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
         <v>59</v>
       </c>
       <c r="B276" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C276">
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
         <v>59</v>
       </c>
       <c r="B277" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C277">
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
         <v>59</v>
       </c>
       <c r="B278" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C278">
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
         <v>59</v>
       </c>
       <c r="B279" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C279">
         <v>0</v>
       </c>
-      <c r="D279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
+    </row>
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
         <v>59</v>
       </c>
       <c r="B280" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C280">
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
         <v>59</v>
       </c>
       <c r="B281" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C281">
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
         <v>59</v>
       </c>
       <c r="B282" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C282">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
         <v>59</v>
       </c>
       <c r="B283" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C283">
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
         <v>59</v>
       </c>
       <c r="B284" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C284">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
         <v>59</v>
       </c>
       <c r="B285" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C285">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
         <v>59</v>
       </c>
       <c r="B286" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="C286">
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
         <v>59</v>
       </c>
       <c r="B287" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C287">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
         <v>59</v>
       </c>
       <c r="B288" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -5056,7 +5122,7 @@
         <v>59</v>
       </c>
       <c r="B289" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -5067,7 +5133,7 @@
         <v>59</v>
       </c>
       <c r="B290" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -5078,10 +5144,10 @@
         <v>59</v>
       </c>
       <c r="B291" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5089,13 +5155,10 @@
         <v>59</v>
       </c>
       <c r="B292" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C292">
         <v>0</v>
-      </c>
-      <c r="D292">
-        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5103,7 +5166,7 @@
         <v>59</v>
       </c>
       <c r="B293" t="s">
-        <v>298</v>
+        <v>117</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -5114,7 +5177,7 @@
         <v>59</v>
       </c>
       <c r="B294" t="s">
-        <v>311</v>
+        <v>118</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -5125,10 +5188,13 @@
         <v>59</v>
       </c>
       <c r="B295" t="s">
-        <v>328</v>
+        <v>119</v>
       </c>
       <c r="C295">
         <v>0</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5136,13 +5202,10 @@
         <v>59</v>
       </c>
       <c r="B296" t="s">
-        <v>364</v>
+        <v>120</v>
       </c>
       <c r="C296">
         <v>0</v>
-      </c>
-      <c r="D296">
-        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5150,237 +5213,195 @@
         <v>59</v>
       </c>
       <c r="B297" t="s">
-        <v>365</v>
+        <v>121</v>
       </c>
       <c r="C297">
         <v>0</v>
-      </c>
-      <c r="D297">
-        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B298" t="s">
-        <v>389</v>
+        <v>122</v>
       </c>
       <c r="C298">
-        <v>0</v>
-      </c>
-      <c r="D298">
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B299" t="s">
-        <v>390</v>
+        <v>123</v>
       </c>
       <c r="C299">
-        <v>0</v>
-      </c>
-      <c r="D299">
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B300" t="s">
-        <v>391</v>
+        <v>124</v>
       </c>
       <c r="C300">
-        <v>0</v>
-      </c>
-      <c r="D300">
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B301" t="s">
-        <v>392</v>
+        <v>125</v>
       </c>
       <c r="C301">
-        <v>0</v>
-      </c>
-      <c r="D301">
         <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B302" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="C302">
-        <v>1</v>
-      </c>
-      <c r="D302">
         <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B303" t="s">
-        <v>393</v>
+        <v>126</v>
       </c>
       <c r="C303">
-        <v>1</v>
-      </c>
-      <c r="D303">
         <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B304" t="s">
-        <v>394</v>
+        <v>127</v>
       </c>
       <c r="C304">
-        <v>0</v>
-      </c>
-      <c r="D304">
         <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B305" t="s">
-        <v>395</v>
+        <v>128</v>
       </c>
       <c r="C305">
-        <v>0</v>
-      </c>
-      <c r="D305">
         <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B306" t="s">
-        <v>396</v>
+        <v>129</v>
       </c>
       <c r="C306">
-        <v>0</v>
-      </c>
-      <c r="D306">
         <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B307" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="C307">
-        <v>0</v>
-      </c>
-      <c r="D307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B308" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="C308">
         <v>0</v>
       </c>
       <c r="D308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B309" t="s">
-        <v>101</v>
+        <v>298</v>
       </c>
       <c r="C309">
-        <v>0</v>
-      </c>
-      <c r="D309">
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B310" t="s">
-        <v>176</v>
+        <v>311</v>
       </c>
       <c r="C310">
-        <v>0</v>
-      </c>
-      <c r="D310">
         <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B311" t="s">
-        <v>68</v>
+        <v>328</v>
       </c>
       <c r="C311">
-        <v>1</v>
-      </c>
-      <c r="D311">
         <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B312" t="s">
-        <v>69</v>
+        <v>364</v>
       </c>
       <c r="C312">
         <v>0</v>
       </c>
       <c r="D312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B313" t="s">
-        <v>70</v>
+        <v>365</v>
       </c>
       <c r="C313">
         <v>0</v>
       </c>
       <c r="D313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -5388,7 +5409,7 @@
         <v>403</v>
       </c>
       <c r="B314" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -5402,7 +5423,7 @@
         <v>403</v>
       </c>
       <c r="B315" t="s">
-        <v>111</v>
+        <v>390</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -5416,7 +5437,7 @@
         <v>403</v>
       </c>
       <c r="B316" t="s">
-        <v>115</v>
+        <v>391</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -5430,7 +5451,7 @@
         <v>403</v>
       </c>
       <c r="B317" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -5444,10 +5465,10 @@
         <v>403</v>
       </c>
       <c r="B318" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="C318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -5458,10 +5479,10 @@
         <v>403</v>
       </c>
       <c r="B319" t="s">
-        <v>129</v>
+        <v>393</v>
       </c>
       <c r="C319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -5472,13 +5493,13 @@
         <v>403</v>
       </c>
       <c r="B320" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C320">
         <v>0</v>
       </c>
       <c r="D320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -5486,13 +5507,13 @@
         <v>403</v>
       </c>
       <c r="B321" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C321">
         <v>0</v>
       </c>
       <c r="D321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -5500,7 +5521,7 @@
         <v>403</v>
       </c>
       <c r="B322" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -5514,7 +5535,7 @@
         <v>403</v>
       </c>
       <c r="B323" t="s">
-        <v>401</v>
+        <v>90</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -5528,7 +5549,7 @@
         <v>403</v>
       </c>
       <c r="B324" t="s">
-        <v>402</v>
+        <v>94</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -5539,13 +5560,13 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="B325" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="C325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -5553,181 +5574,211 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="B326" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="C326">
+        <v>0</v>
+      </c>
+      <c r="D326">
         <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="B327" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
         <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="B328" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="C328">
+        <v>0</v>
+      </c>
+      <c r="D328">
         <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="B329" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="C329">
+        <v>0</v>
+      </c>
+      <c r="D329">
         <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="B330" t="s">
-        <v>135</v>
+        <v>397</v>
       </c>
       <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330">
         <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="B331" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="C331">
         <v>0</v>
       </c>
       <c r="D331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="B332" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="C332">
         <v>0</v>
       </c>
       <c r="D332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="B333" t="s">
-        <v>23</v>
+        <v>398</v>
       </c>
       <c r="C333">
         <v>0</v>
       </c>
       <c r="D333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="B334" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C334">
         <v>0</v>
       </c>
       <c r="D334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="B335" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C335">
         <v>0</v>
       </c>
       <c r="D335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="B336" t="s">
-        <v>62</v>
+        <v>399</v>
       </c>
       <c r="C336">
         <v>0</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="B337" t="s">
-        <v>63</v>
+        <v>388</v>
       </c>
       <c r="C337">
         <v>0</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="B338" t="s">
-        <v>138</v>
+        <v>400</v>
       </c>
       <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
         <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="B339" t="s">
-        <v>139</v>
+        <v>401</v>
       </c>
       <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
         <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="B340" t="s">
-        <v>140</v>
+        <v>402</v>
       </c>
       <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
         <v>0</v>
       </c>
     </row>
@@ -5736,13 +5787,13 @@
         <v>131</v>
       </c>
       <c r="B341" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="C341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5750,13 +5801,10 @@
         <v>131</v>
       </c>
       <c r="B342" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="C342">
         <v>0</v>
-      </c>
-      <c r="D342">
-        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5764,13 +5812,10 @@
         <v>131</v>
       </c>
       <c r="B343" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="C343">
         <v>0</v>
-      </c>
-      <c r="D343">
-        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5778,13 +5823,10 @@
         <v>131</v>
       </c>
       <c r="B344" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="C344">
         <v>0</v>
-      </c>
-      <c r="D344">
-        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5792,13 +5834,10 @@
         <v>131</v>
       </c>
       <c r="B345" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C345">
         <v>0</v>
-      </c>
-      <c r="D345">
-        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5806,13 +5845,10 @@
         <v>131</v>
       </c>
       <c r="B346" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C346">
         <v>0</v>
-      </c>
-      <c r="D346">
-        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5820,7 +5856,7 @@
         <v>131</v>
       </c>
       <c r="B347" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -5834,7 +5870,7 @@
         <v>131</v>
       </c>
       <c r="B348" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -5848,7 +5884,7 @@
         <v>131</v>
       </c>
       <c r="B349" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -5862,7 +5898,7 @@
         <v>131</v>
       </c>
       <c r="B350" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -5876,7 +5912,7 @@
         <v>131</v>
       </c>
       <c r="B351" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -5890,13 +5926,10 @@
         <v>131</v>
       </c>
       <c r="B352" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="C352">
         <v>0</v>
-      </c>
-      <c r="D352">
-        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5904,13 +5937,10 @@
         <v>131</v>
       </c>
       <c r="B353" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C353">
         <v>0</v>
-      </c>
-      <c r="D353">
-        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5918,13 +5948,10 @@
         <v>131</v>
       </c>
       <c r="B354" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C354">
         <v>0</v>
-      </c>
-      <c r="D354">
-        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5932,7 +5959,7 @@
         <v>131</v>
       </c>
       <c r="B355" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -5943,13 +5970,10 @@
         <v>131</v>
       </c>
       <c r="B356" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C356">
         <v>0</v>
-      </c>
-      <c r="D356">
-        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5957,7 +5981,7 @@
         <v>131</v>
       </c>
       <c r="B357" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -5971,7 +5995,7 @@
         <v>131</v>
       </c>
       <c r="B358" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -5985,7 +6009,7 @@
         <v>131</v>
       </c>
       <c r="B359" t="s">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -5999,10 +6023,13 @@
         <v>131</v>
       </c>
       <c r="B360" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="C360">
         <v>0</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6010,10 +6037,13 @@
         <v>131</v>
       </c>
       <c r="B361" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C361">
         <v>0</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6021,7 +6051,7 @@
         <v>131</v>
       </c>
       <c r="B362" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -6035,7 +6065,7 @@
         <v>131</v>
       </c>
       <c r="B363" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -6049,7 +6079,7 @@
         <v>131</v>
       </c>
       <c r="B364" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -6063,7 +6093,7 @@
         <v>131</v>
       </c>
       <c r="B365" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -6077,7 +6107,7 @@
         <v>131</v>
       </c>
       <c r="B366" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -6091,7 +6121,7 @@
         <v>131</v>
       </c>
       <c r="B367" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -6105,7 +6135,7 @@
         <v>131</v>
       </c>
       <c r="B368" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -6119,7 +6149,7 @@
         <v>131</v>
       </c>
       <c r="B369" t="s">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -6133,7 +6163,7 @@
         <v>131</v>
       </c>
       <c r="B370" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -6147,13 +6177,10 @@
         <v>131</v>
       </c>
       <c r="B371" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="C371">
         <v>0</v>
-      </c>
-      <c r="D371">
-        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6161,7 +6188,7 @@
         <v>131</v>
       </c>
       <c r="B372" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C372">
         <v>0</v>
@@ -6175,10 +6202,13 @@
         <v>131</v>
       </c>
       <c r="B373" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C373">
         <v>0</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -6186,10 +6216,13 @@
         <v>131</v>
       </c>
       <c r="B374" t="s">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="C374">
         <v>0</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -6197,10 +6230,13 @@
         <v>131</v>
       </c>
       <c r="B375" t="s">
-        <v>33</v>
+        <v>388</v>
       </c>
       <c r="C375">
         <v>0</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6208,10 +6244,10 @@
         <v>131</v>
       </c>
       <c r="B376" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="C376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -6219,7 +6255,7 @@
         <v>131</v>
       </c>
       <c r="B377" t="s">
-        <v>329</v>
+        <v>152</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -6227,32 +6263,38 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B378" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
         <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B379" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="C379">
         <v>0</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B380" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -6262,58 +6304,67 @@
       </c>
     </row>
     <row r="381" spans="1:4">
-      <c r="A381" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C381" s="1">
-        <v>1</v>
-      </c>
-      <c r="D381" s="1">
-        <v>0</v>
+      <c r="A381" t="s">
+        <v>131</v>
+      </c>
+      <c r="B381" t="s">
+        <v>153</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B382" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="D382">
         <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B383" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C383">
         <v>0</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B384" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C384">
         <v>0</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B385" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -6324,10 +6375,10 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B386" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -6338,10 +6389,10 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B387" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C387">
         <v>0</v>
@@ -6352,10 +6403,10 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B388" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C388">
         <v>0</v>
@@ -6366,72 +6417,57 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B389" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C389">
         <v>0</v>
-      </c>
-      <c r="D389">
-        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B390" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="C390">
         <v>0</v>
-      </c>
-      <c r="D390">
-        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B391" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="C391">
         <v>0</v>
-      </c>
-      <c r="D391">
-        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B392" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="C392">
-        <v>0</v>
-      </c>
-      <c r="D392">
         <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B393" t="s">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="C393">
         <v>0</v>
-      </c>
-      <c r="D393">
-        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -6439,12 +6475,9 @@
         <v>163</v>
       </c>
       <c r="B394" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="C394">
-        <v>0</v>
-      </c>
-      <c r="D394">
         <v>1</v>
       </c>
     </row>
@@ -6453,13 +6486,10 @@
         <v>163</v>
       </c>
       <c r="B395" t="s">
-        <v>173</v>
+        <v>6</v>
       </c>
       <c r="C395">
         <v>0</v>
-      </c>
-      <c r="D395">
-        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -6467,7 +6497,7 @@
         <v>163</v>
       </c>
       <c r="B396" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -6477,17 +6507,17 @@
       </c>
     </row>
     <row r="397" spans="1:4">
-      <c r="A397" t="s">
+      <c r="A397" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B397" t="s">
-        <v>144</v>
-      </c>
-      <c r="C397">
-        <v>0</v>
-      </c>
-      <c r="D397">
-        <v>1</v>
+      <c r="B397" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C397" s="1">
+        <v>1</v>
+      </c>
+      <c r="D397" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -6495,12 +6525,9 @@
         <v>163</v>
       </c>
       <c r="B398" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="C398">
-        <v>0</v>
-      </c>
-      <c r="D398">
         <v>1</v>
       </c>
     </row>
@@ -6509,13 +6536,10 @@
         <v>163</v>
       </c>
       <c r="B399" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="C399">
         <v>0</v>
-      </c>
-      <c r="D399">
-        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -6523,13 +6547,10 @@
         <v>163</v>
       </c>
       <c r="B400" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="C400">
         <v>0</v>
-      </c>
-      <c r="D400">
-        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -6537,7 +6558,7 @@
         <v>163</v>
       </c>
       <c r="B401" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -6551,7 +6572,7 @@
         <v>163</v>
       </c>
       <c r="B402" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -6565,7 +6586,7 @@
         <v>163</v>
       </c>
       <c r="B403" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C403">
         <v>0</v>
@@ -6579,7 +6600,7 @@
         <v>163</v>
       </c>
       <c r="B404" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="C404">
         <v>0</v>
@@ -6593,7 +6614,7 @@
         <v>163</v>
       </c>
       <c r="B405" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -6607,7 +6628,7 @@
         <v>163</v>
       </c>
       <c r="B406" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -6621,10 +6642,13 @@
         <v>163</v>
       </c>
       <c r="B407" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="C407">
         <v>0</v>
+      </c>
+      <c r="D407">
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6632,10 +6656,13 @@
         <v>163</v>
       </c>
       <c r="B408" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C408">
         <v>0</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6643,7 +6670,7 @@
         <v>163</v>
       </c>
       <c r="B409" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -6657,7 +6684,7 @@
         <v>163</v>
       </c>
       <c r="B410" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -6671,7 +6698,7 @@
         <v>163</v>
       </c>
       <c r="B411" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -6685,7 +6712,7 @@
         <v>163</v>
       </c>
       <c r="B412" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -6699,7 +6726,7 @@
         <v>163</v>
       </c>
       <c r="B413" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -6713,7 +6740,7 @@
         <v>163</v>
       </c>
       <c r="B414" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="C414">
         <v>0</v>
@@ -6727,7 +6754,7 @@
         <v>163</v>
       </c>
       <c r="B415" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="C415">
         <v>0</v>
@@ -6741,7 +6768,7 @@
         <v>163</v>
       </c>
       <c r="B416" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C416">
         <v>0</v>
@@ -6755,7 +6782,7 @@
         <v>163</v>
       </c>
       <c r="B417" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C417">
         <v>0</v>
@@ -6769,7 +6796,7 @@
         <v>163</v>
       </c>
       <c r="B418" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="C418">
         <v>0</v>
@@ -6783,7 +6810,7 @@
         <v>163</v>
       </c>
       <c r="B419" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -6797,7 +6824,7 @@
         <v>163</v>
       </c>
       <c r="B420" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -6811,7 +6838,7 @@
         <v>163</v>
       </c>
       <c r="B421" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -6825,7 +6852,7 @@
         <v>163</v>
       </c>
       <c r="B422" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C422">
         <v>0</v>
@@ -6839,13 +6866,10 @@
         <v>163</v>
       </c>
       <c r="B423" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C423">
         <v>0</v>
-      </c>
-      <c r="D423">
-        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6853,13 +6877,10 @@
         <v>163</v>
       </c>
       <c r="B424" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="C424">
         <v>0</v>
-      </c>
-      <c r="D424">
-        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6867,7 +6888,7 @@
         <v>163</v>
       </c>
       <c r="B425" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="C425">
         <v>0</v>
@@ -6881,7 +6902,7 @@
         <v>163</v>
       </c>
       <c r="B426" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="C426">
         <v>0</v>
@@ -6895,7 +6916,7 @@
         <v>163</v>
       </c>
       <c r="B427" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -6909,7 +6930,7 @@
         <v>163</v>
       </c>
       <c r="B428" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="C428">
         <v>0</v>
@@ -6923,7 +6944,7 @@
         <v>163</v>
       </c>
       <c r="B429" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="C429">
         <v>0</v>
@@ -6937,7 +6958,7 @@
         <v>163</v>
       </c>
       <c r="B430" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -6951,7 +6972,7 @@
         <v>163</v>
       </c>
       <c r="B431" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -6965,10 +6986,13 @@
         <v>163</v>
       </c>
       <c r="B432" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="C432">
         <v>0</v>
+      </c>
+      <c r="D432">
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -6976,10 +7000,13 @@
         <v>163</v>
       </c>
       <c r="B433" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="C433">
         <v>0</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6987,10 +7014,13 @@
         <v>163</v>
       </c>
       <c r="B434" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="C434">
         <v>0</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6998,7 +7028,7 @@
         <v>163</v>
       </c>
       <c r="B435" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -7012,7 +7042,7 @@
         <v>163</v>
       </c>
       <c r="B436" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="C436">
         <v>0</v>
@@ -7026,7 +7056,7 @@
         <v>163</v>
       </c>
       <c r="B437" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -7040,7 +7070,7 @@
         <v>163</v>
       </c>
       <c r="B438" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="C438">
         <v>0</v>
@@ -7054,7 +7084,7 @@
         <v>163</v>
       </c>
       <c r="B439" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="C439">
         <v>0</v>
@@ -7068,7 +7098,7 @@
         <v>163</v>
       </c>
       <c r="B440" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="C440">
         <v>0</v>
@@ -7082,7 +7112,7 @@
         <v>163</v>
       </c>
       <c r="B441" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C441">
         <v>0</v>
@@ -7096,7 +7126,7 @@
         <v>163</v>
       </c>
       <c r="B442" t="s">
-        <v>388</v>
+        <v>103</v>
       </c>
       <c r="C442">
         <v>0</v>
@@ -7110,7 +7140,7 @@
         <v>163</v>
       </c>
       <c r="B443" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="C443">
         <v>0</v>
@@ -7124,7 +7154,7 @@
         <v>163</v>
       </c>
       <c r="B444" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -7138,7 +7168,7 @@
         <v>163</v>
       </c>
       <c r="B445" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="C445">
         <v>0</v>
@@ -7152,10 +7182,13 @@
         <v>163</v>
       </c>
       <c r="B446" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="C446">
         <v>0</v>
+      </c>
+      <c r="D446">
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -7163,10 +7196,13 @@
         <v>163</v>
       </c>
       <c r="B447" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="C447">
         <v>0</v>
+      </c>
+      <c r="D447">
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -7174,10 +7210,10 @@
         <v>163</v>
       </c>
       <c r="B448" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="C448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -7185,7 +7221,7 @@
         <v>163</v>
       </c>
       <c r="B449" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="C449">
         <v>0</v>
@@ -7196,7 +7232,7 @@
         <v>163</v>
       </c>
       <c r="B450" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="C450">
         <v>0</v>
@@ -7207,7 +7243,7 @@
         <v>163</v>
       </c>
       <c r="B451" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="C451">
         <v>0</v>
@@ -7218,32 +7254,38 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B452" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C452">
+        <v>0</v>
+      </c>
+      <c r="D452">
         <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B453" t="s">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="C453">
         <v>0</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B454" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="C454">
         <v>0</v>
@@ -7254,10 +7296,10 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B455" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="C455">
         <v>0</v>
@@ -7268,76 +7310,94 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B456" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="C456">
         <v>0</v>
+      </c>
+      <c r="D456">
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B457" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="C457">
         <v>0</v>
+      </c>
+      <c r="D457">
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B458" t="s">
-        <v>23</v>
+        <v>388</v>
       </c>
       <c r="C458">
         <v>0</v>
+      </c>
+      <c r="D458">
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B459" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C459">
         <v>0</v>
+      </c>
+      <c r="D459">
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B460" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="C460">
         <v>0</v>
+      </c>
+      <c r="D460">
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B461" t="s">
-        <v>65</v>
+        <v>194</v>
       </c>
       <c r="C461">
         <v>0</v>
+      </c>
+      <c r="D461">
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B462" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C462">
         <v>0</v>
@@ -7345,52 +7405,43 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B463" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C463">
         <v>0</v>
-      </c>
-      <c r="D463">
-        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B464" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C464">
-        <v>0</v>
-      </c>
-      <c r="D464">
         <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B465" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="C465">
         <v>0</v>
-      </c>
-      <c r="D465">
-        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B466" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="C466">
         <v>0</v>
@@ -7398,13 +7449,16 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B467" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="C467">
         <v>0</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -7412,10 +7466,10 @@
         <v>196</v>
       </c>
       <c r="B468" t="s">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="C468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -7423,7 +7477,7 @@
         <v>196</v>
       </c>
       <c r="B469" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="C469">
         <v>0</v>
@@ -7434,10 +7488,13 @@
         <v>196</v>
       </c>
       <c r="B470" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C470">
         <v>0</v>
+      </c>
+      <c r="D470">
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -7445,10 +7502,13 @@
         <v>196</v>
       </c>
       <c r="B471" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="C471">
         <v>0</v>
+      </c>
+      <c r="D471">
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -7456,7 +7516,7 @@
         <v>196</v>
       </c>
       <c r="B472" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C472">
         <v>0</v>
@@ -7467,7 +7527,7 @@
         <v>196</v>
       </c>
       <c r="B473" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="C473">
         <v>0</v>
@@ -7478,7 +7538,7 @@
         <v>196</v>
       </c>
       <c r="B474" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="C474">
         <v>0</v>
@@ -7489,7 +7549,7 @@
         <v>196</v>
       </c>
       <c r="B475" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="C475">
         <v>0</v>
@@ -7500,7 +7560,7 @@
         <v>196</v>
       </c>
       <c r="B476" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="C476">
         <v>0</v>
@@ -7511,7 +7571,7 @@
         <v>196</v>
       </c>
       <c r="B477" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -7522,7 +7582,7 @@
         <v>196</v>
       </c>
       <c r="B478" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C478">
         <v>0</v>
@@ -7533,10 +7593,13 @@
         <v>196</v>
       </c>
       <c r="B479" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C479">
         <v>0</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7544,7 +7607,7 @@
         <v>196</v>
       </c>
       <c r="B480" t="s">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="C480">
         <v>0</v>
@@ -7558,7 +7621,7 @@
         <v>196</v>
       </c>
       <c r="B481" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C481">
         <v>0</v>
@@ -7572,7 +7635,7 @@
         <v>196</v>
       </c>
       <c r="B482" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C482">
         <v>0</v>
@@ -7583,7 +7646,7 @@
         <v>196</v>
       </c>
       <c r="B483" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C483">
         <v>0</v>
@@ -7594,7 +7657,7 @@
         <v>196</v>
       </c>
       <c r="B484" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="C484">
         <v>0</v>
@@ -7605,7 +7668,7 @@
         <v>196</v>
       </c>
       <c r="B485" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C485">
         <v>0</v>
@@ -7616,7 +7679,7 @@
         <v>196</v>
       </c>
       <c r="B486" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C486">
         <v>0</v>
@@ -7627,7 +7690,7 @@
         <v>196</v>
       </c>
       <c r="B487" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="C487">
         <v>0</v>
@@ -7638,7 +7701,7 @@
         <v>196</v>
       </c>
       <c r="B488" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="C488">
         <v>0</v>
@@ -7649,7 +7712,7 @@
         <v>196</v>
       </c>
       <c r="B489" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -7660,7 +7723,7 @@
         <v>196</v>
       </c>
       <c r="B490" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C490">
         <v>0</v>
@@ -7671,7 +7734,7 @@
         <v>196</v>
       </c>
       <c r="B491" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="C491">
         <v>0</v>
@@ -7682,13 +7745,10 @@
         <v>196</v>
       </c>
       <c r="B492" t="s">
-        <v>388</v>
+        <v>71</v>
       </c>
       <c r="C492">
         <v>0</v>
-      </c>
-      <c r="D492">
-        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -7696,7 +7756,7 @@
         <v>196</v>
       </c>
       <c r="B493" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C493">
         <v>0</v>
@@ -7707,7 +7767,7 @@
         <v>196</v>
       </c>
       <c r="B494" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="C494">
         <v>0</v>
@@ -7718,10 +7778,10 @@
         <v>196</v>
       </c>
       <c r="B495" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7729,10 +7789,13 @@
         <v>196</v>
       </c>
       <c r="B496" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="C496">
         <v>0</v>
+      </c>
+      <c r="D496">
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7740,29 +7803,32 @@
         <v>196</v>
       </c>
       <c r="B497" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="C497">
         <v>0</v>
+      </c>
+      <c r="D497">
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B498" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B499" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C499">
         <v>0</v>
@@ -7770,49 +7836,43 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B500" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C500">
         <v>0</v>
-      </c>
-      <c r="D500">
-        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B501" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C501">
         <v>0</v>
-      </c>
-      <c r="D501">
-        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B502" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B503" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="C503">
         <v>0</v>
@@ -7820,10 +7880,10 @@
     </row>
     <row r="504" spans="1:4">
       <c r="A504" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B504" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="C504">
         <v>0</v>
@@ -7831,10 +7891,10 @@
     </row>
     <row r="505" spans="1:4">
       <c r="A505" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B505" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="C505">
         <v>0</v>
@@ -7842,10 +7902,10 @@
     </row>
     <row r="506" spans="1:4">
       <c r="A506" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B506" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -7853,10 +7913,10 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B507" t="s">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -7864,21 +7924,24 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B508" t="s">
-        <v>143</v>
+        <v>388</v>
       </c>
       <c r="C508">
         <v>0</v>
+      </c>
+      <c r="D508">
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B509" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C509">
         <v>0</v>
@@ -7886,10 +7949,10 @@
     </row>
     <row r="510" spans="1:4">
       <c r="A510" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B510" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C510">
         <v>0</v>
@@ -7897,21 +7960,21 @@
     </row>
     <row r="511" spans="1:4">
       <c r="A511" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B511" t="s">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="C511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B512" t="s">
-        <v>86</v>
+        <v>231</v>
       </c>
       <c r="C512">
         <v>0</v>
@@ -7919,10 +7982,10 @@
     </row>
     <row r="513" spans="1:4">
       <c r="A513" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B513" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -7933,10 +7996,10 @@
         <v>201</v>
       </c>
       <c r="B514" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -7944,7 +8007,7 @@
         <v>201</v>
       </c>
       <c r="B515" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -7955,7 +8018,7 @@
         <v>201</v>
       </c>
       <c r="B516" t="s">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -7969,10 +8032,13 @@
         <v>201</v>
       </c>
       <c r="B517" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C517">
         <v>0</v>
+      </c>
+      <c r="D517">
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -7980,10 +8046,10 @@
         <v>201</v>
       </c>
       <c r="B518" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -7991,7 +8057,7 @@
         <v>201</v>
       </c>
       <c r="B519" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C519">
         <v>0</v>
@@ -8002,7 +8068,7 @@
         <v>201</v>
       </c>
       <c r="B520" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="C520">
         <v>0</v>
@@ -8013,7 +8079,7 @@
         <v>201</v>
       </c>
       <c r="B521" t="s">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="C521">
         <v>0</v>
@@ -8024,7 +8090,7 @@
         <v>201</v>
       </c>
       <c r="B522" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C522">
         <v>0</v>
@@ -8035,7 +8101,7 @@
         <v>201</v>
       </c>
       <c r="B523" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C523">
         <v>0</v>
@@ -8046,7 +8112,7 @@
         <v>201</v>
       </c>
       <c r="B524" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="C524">
         <v>0</v>
@@ -8057,7 +8123,7 @@
         <v>201</v>
       </c>
       <c r="B525" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C525">
         <v>0</v>
@@ -8068,7 +8134,7 @@
         <v>201</v>
       </c>
       <c r="B526" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C526">
         <v>0</v>
@@ -8079,7 +8145,7 @@
         <v>201</v>
       </c>
       <c r="B527" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="C527">
         <v>0</v>
@@ -8090,7 +8156,7 @@
         <v>201</v>
       </c>
       <c r="B528" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C528">
         <v>0</v>
@@ -8101,7 +8167,7 @@
         <v>201</v>
       </c>
       <c r="B529" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="C529">
         <v>0</v>
@@ -8112,7 +8178,7 @@
         <v>201</v>
       </c>
       <c r="B530" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C530">
         <v>0</v>
@@ -8123,7 +8189,7 @@
         <v>201</v>
       </c>
       <c r="B531" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C531">
         <v>0</v>
@@ -8134,10 +8200,13 @@
         <v>201</v>
       </c>
       <c r="B532" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="C532">
         <v>0</v>
+      </c>
+      <c r="D532">
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -8145,7 +8214,7 @@
         <v>201</v>
       </c>
       <c r="B533" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C533">
         <v>0</v>
@@ -8156,10 +8225,10 @@
         <v>201</v>
       </c>
       <c r="B534" t="s">
-        <v>205</v>
+        <v>90</v>
       </c>
       <c r="C534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -8167,7 +8236,7 @@
         <v>201</v>
       </c>
       <c r="B535" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C535">
         <v>0</v>
@@ -8178,7 +8247,7 @@
         <v>201</v>
       </c>
       <c r="B536" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C536">
         <v>0</v>
@@ -8189,7 +8258,7 @@
         <v>201</v>
       </c>
       <c r="B537" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="C537">
         <v>0</v>
@@ -8200,7 +8269,7 @@
         <v>201</v>
       </c>
       <c r="B538" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="C538">
         <v>0</v>
@@ -8211,7 +8280,7 @@
         <v>201</v>
       </c>
       <c r="B539" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C539">
         <v>0</v>
@@ -8222,7 +8291,7 @@
         <v>201</v>
       </c>
       <c r="B540" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="C540">
         <v>0</v>
@@ -8233,7 +8302,7 @@
         <v>201</v>
       </c>
       <c r="B541" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="C541">
         <v>0</v>
@@ -8244,13 +8313,10 @@
         <v>201</v>
       </c>
       <c r="B542" t="s">
-        <v>388</v>
+        <v>98</v>
       </c>
       <c r="C542">
         <v>0</v>
-      </c>
-      <c r="D542">
-        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -8258,7 +8324,7 @@
         <v>201</v>
       </c>
       <c r="B543" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="C543">
         <v>0</v>
@@ -8269,10 +8335,10 @@
         <v>201</v>
       </c>
       <c r="B544" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8280,7 +8346,7 @@
         <v>201</v>
       </c>
       <c r="B545" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C545">
         <v>0</v>
@@ -8291,7 +8357,7 @@
         <v>201</v>
       </c>
       <c r="B546" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C546">
         <v>0</v>
@@ -8302,13 +8368,10 @@
         <v>201</v>
       </c>
       <c r="B547" t="s">
-        <v>364</v>
+        <v>103</v>
       </c>
       <c r="C547">
         <v>0</v>
-      </c>
-      <c r="D547">
-        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -8316,13 +8379,10 @@
         <v>201</v>
       </c>
       <c r="B548" t="s">
-        <v>365</v>
+        <v>104</v>
       </c>
       <c r="C548">
         <v>0</v>
-      </c>
-      <c r="D548">
-        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -8330,13 +8390,10 @@
         <v>201</v>
       </c>
       <c r="B549" t="s">
-        <v>386</v>
+        <v>105</v>
       </c>
       <c r="C549">
         <v>0</v>
-      </c>
-      <c r="D549">
-        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -8344,32 +8401,29 @@
         <v>201</v>
       </c>
       <c r="B550" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="C550">
-        <v>0</v>
-      </c>
-      <c r="D550">
         <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:4">
       <c r="A551" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B551" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:4">
       <c r="A552" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B552" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C552">
         <v>0</v>
@@ -8377,80 +8431,65 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B553" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="C553">
         <v>0</v>
-      </c>
-      <c r="D553">
-        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:4">
       <c r="A554" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B554" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="C554">
         <v>0</v>
-      </c>
-      <c r="D554">
-        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:4">
       <c r="A555" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B555" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C555">
         <v>0</v>
-      </c>
-      <c r="D555">
-        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:4">
       <c r="A556" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B556" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="C556">
         <v>0</v>
-      </c>
-      <c r="D556">
-        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:4">
       <c r="A557" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B557" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C557">
         <v>0</v>
-      </c>
-      <c r="D557">
-        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:4">
       <c r="A558" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B558" t="s">
-        <v>78</v>
+        <v>388</v>
       </c>
       <c r="C558">
         <v>0</v>
@@ -8461,38 +8500,32 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B559" t="s">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="C559">
         <v>0</v>
-      </c>
-      <c r="D559">
-        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:4">
       <c r="A560" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B560" t="s">
-        <v>212</v>
+        <v>34</v>
       </c>
       <c r="C560">
-        <v>0</v>
-      </c>
-      <c r="D560">
         <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:4">
       <c r="A561" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B561" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="C561">
         <v>0</v>
@@ -8500,93 +8533,99 @@
     </row>
     <row r="562" spans="1:4">
       <c r="A562" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B562" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="C562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:4">
       <c r="A563" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B563" t="s">
-        <v>5</v>
+        <v>364</v>
       </c>
       <c r="C563">
+        <v>0</v>
+      </c>
+      <c r="D563">
         <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:4">
       <c r="A564" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B564" t="s">
-        <v>6</v>
+        <v>365</v>
       </c>
       <c r="C564">
         <v>0</v>
+      </c>
+      <c r="D564">
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B565" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="C565">
+        <v>0</v>
+      </c>
+      <c r="D565">
         <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:4">
       <c r="A566" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B566" t="s">
-        <v>135</v>
+        <v>387</v>
       </c>
       <c r="C566">
         <v>0</v>
+      </c>
+      <c r="D566">
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:4">
       <c r="A567" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B567" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C567">
-        <v>0</v>
-      </c>
-      <c r="D567">
         <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:4">
       <c r="A568" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B568" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="C568">
         <v>0</v>
-      </c>
-      <c r="D568">
-        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:4">
       <c r="A569" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B569" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C569">
         <v>0</v>
@@ -8597,10 +8636,10 @@
     </row>
     <row r="570" spans="1:4">
       <c r="A570" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B570" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="C570">
         <v>0</v>
@@ -8611,21 +8650,24 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B571" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="C571">
         <v>0</v>
+      </c>
+      <c r="D571">
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:4">
       <c r="A572" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B572" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C572">
         <v>0</v>
@@ -8636,21 +8678,24 @@
     </row>
     <row r="573" spans="1:4">
       <c r="A573" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B573" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C573">
         <v>0</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:4">
       <c r="A574" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B574" t="s">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="C574">
         <v>0</v>
@@ -8661,10 +8706,10 @@
     </row>
     <row r="575" spans="1:4">
       <c r="A575" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B575" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C575">
         <v>0</v>
@@ -8675,10 +8720,10 @@
     </row>
     <row r="576" spans="1:4">
       <c r="A576" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B576" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C576">
         <v>0</v>
@@ -8689,29 +8734,23 @@
     </row>
     <row r="577" spans="1:4">
       <c r="A577" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B577" t="s">
-        <v>221</v>
+        <v>33</v>
       </c>
       <c r="C577">
         <v>0</v>
-      </c>
-      <c r="D577">
-        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:4">
       <c r="A578" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B578" t="s">
-        <v>222</v>
+        <v>34</v>
       </c>
       <c r="C578">
-        <v>0</v>
-      </c>
-      <c r="D578">
         <v>1</v>
       </c>
     </row>
@@ -8720,12 +8759,9 @@
         <v>213</v>
       </c>
       <c r="B579" t="s">
-        <v>223</v>
+        <v>5</v>
       </c>
       <c r="C579">
-        <v>0</v>
-      </c>
-      <c r="D579">
         <v>1</v>
       </c>
     </row>
@@ -8734,13 +8770,10 @@
         <v>213</v>
       </c>
       <c r="B580" t="s">
-        <v>388</v>
+        <v>6</v>
       </c>
       <c r="C580">
         <v>0</v>
-      </c>
-      <c r="D580">
-        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -8748,12 +8781,9 @@
         <v>213</v>
       </c>
       <c r="B581" t="s">
-        <v>224</v>
+        <v>25</v>
       </c>
       <c r="C581">
-        <v>0</v>
-      </c>
-      <c r="D581">
         <v>1</v>
       </c>
     </row>
@@ -8762,7 +8792,7 @@
         <v>213</v>
       </c>
       <c r="B582" t="s">
-        <v>226</v>
+        <v>135</v>
       </c>
       <c r="C582">
         <v>0</v>
@@ -8773,7 +8803,7 @@
         <v>213</v>
       </c>
       <c r="B583" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C583">
         <v>0</v>
@@ -8787,7 +8817,7 @@
         <v>213</v>
       </c>
       <c r="B584" t="s">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="C584">
         <v>0</v>
@@ -8801,7 +8831,7 @@
         <v>213</v>
       </c>
       <c r="B585" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C585">
         <v>0</v>
@@ -8815,10 +8845,13 @@
         <v>213</v>
       </c>
       <c r="B586" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="C586">
         <v>0</v>
+      </c>
+      <c r="D586">
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -8826,7 +8859,7 @@
         <v>213</v>
       </c>
       <c r="B587" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="C587">
         <v>0</v>
@@ -8837,7 +8870,7 @@
         <v>213</v>
       </c>
       <c r="B588" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C588">
         <v>0</v>
@@ -8851,13 +8884,10 @@
         <v>213</v>
       </c>
       <c r="B589" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C589">
         <v>0</v>
-      </c>
-      <c r="D589">
-        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -8865,10 +8895,13 @@
         <v>213</v>
       </c>
       <c r="B590" t="s">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="C590">
         <v>0</v>
+      </c>
+      <c r="D590">
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -8876,10 +8909,13 @@
         <v>213</v>
       </c>
       <c r="B591" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C591">
         <v>0</v>
+      </c>
+      <c r="D591">
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -8887,7 +8923,7 @@
         <v>213</v>
       </c>
       <c r="B592" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C592">
         <v>0</v>
@@ -8898,79 +8934,91 @@
     </row>
     <row r="593" spans="1:4">
       <c r="A593" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B593" t="s">
-        <v>5</v>
+        <v>221</v>
       </c>
       <c r="C593">
+        <v>0</v>
+      </c>
+      <c r="D593">
         <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:4">
       <c r="A594" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B594" t="s">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="C594">
+        <v>0</v>
+      </c>
+      <c r="D594">
         <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:4">
       <c r="A595" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B595" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="C595">
         <v>0</v>
+      </c>
+      <c r="D595">
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:4">
       <c r="A596" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B596" t="s">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="C596">
+        <v>0</v>
+      </c>
+      <c r="D596">
         <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:4">
       <c r="A597" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B597" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C597">
         <v>0</v>
+      </c>
+      <c r="D597">
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:4">
       <c r="A598" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B598" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C598">
         <v>0</v>
-      </c>
-      <c r="D598">
-        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:4">
       <c r="A599" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B599" t="s">
-        <v>236</v>
+        <v>84</v>
       </c>
       <c r="C599">
         <v>0</v>
@@ -8981,10 +9029,10 @@
     </row>
     <row r="600" spans="1:4">
       <c r="A600" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B600" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C600">
         <v>0</v>
@@ -8995,10 +9043,10 @@
     </row>
     <row r="601" spans="1:4">
       <c r="A601" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B601" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="C601">
         <v>0</v>
@@ -9009,38 +9057,32 @@
     </row>
     <row r="602" spans="1:4">
       <c r="A602" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B602" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="C602">
         <v>0</v>
-      </c>
-      <c r="D602">
-        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:4">
       <c r="A603" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B603" t="s">
-        <v>239</v>
+        <v>33</v>
       </c>
       <c r="C603">
         <v>0</v>
-      </c>
-      <c r="D603">
-        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:4">
       <c r="A604" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B604" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C604">
         <v>0</v>
@@ -9051,10 +9093,10 @@
     </row>
     <row r="605" spans="1:4">
       <c r="A605" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B605" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C605">
         <v>0</v>
@@ -9065,38 +9107,32 @@
     </row>
     <row r="606" spans="1:4">
       <c r="A606" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B606" t="s">
-        <v>242</v>
+        <v>23</v>
       </c>
       <c r="C606">
         <v>0</v>
-      </c>
-      <c r="D606">
-        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:4">
       <c r="A607" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B607" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C607">
         <v>0</v>
-      </c>
-      <c r="D607">
-        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:4">
       <c r="A608" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B608" t="s">
-        <v>388</v>
+        <v>232</v>
       </c>
       <c r="C608">
         <v>0</v>
@@ -9110,12 +9146,9 @@
         <v>233</v>
       </c>
       <c r="B609" t="s">
-        <v>244</v>
+        <v>5</v>
       </c>
       <c r="C609">
-        <v>0</v>
-      </c>
-      <c r="D609">
         <v>1</v>
       </c>
     </row>
@@ -9124,12 +9157,9 @@
         <v>233</v>
       </c>
       <c r="B610" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="C610">
-        <v>0</v>
-      </c>
-      <c r="D610">
         <v>1</v>
       </c>
     </row>
@@ -9138,13 +9168,10 @@
         <v>233</v>
       </c>
       <c r="B611" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="C611">
         <v>0</v>
-      </c>
-      <c r="D611">
-        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -9152,12 +9179,9 @@
         <v>233</v>
       </c>
       <c r="B612" t="s">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="C612">
-        <v>0</v>
-      </c>
-      <c r="D612">
         <v>1</v>
       </c>
     </row>
@@ -9166,7 +9190,7 @@
         <v>233</v>
       </c>
       <c r="B613" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="C613">
         <v>0</v>
@@ -9177,18 +9201,21 @@
         <v>233</v>
       </c>
       <c r="B614" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="C614">
         <v>0</v>
+      </c>
+      <c r="D614">
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:4">
       <c r="A615" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B615" t="s">
-        <v>388</v>
+        <v>236</v>
       </c>
       <c r="C615">
         <v>0</v>
@@ -9199,173 +9226,206 @@
     </row>
     <row r="616" spans="1:4">
       <c r="A616" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B616" t="s">
-        <v>5</v>
+        <v>237</v>
       </c>
       <c r="C616">
+        <v>0</v>
+      </c>
+      <c r="D616">
         <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:4">
       <c r="A617" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B617" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="C617">
+        <v>0</v>
+      </c>
+      <c r="D617">
         <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:4">
       <c r="A618" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B618" t="s">
-        <v>246</v>
+        <v>119</v>
       </c>
       <c r="C618">
         <v>0</v>
+      </c>
+      <c r="D618">
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:4">
       <c r="A619" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B619" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C619">
         <v>0</v>
+      </c>
+      <c r="D619">
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:4">
       <c r="A620" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B620" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C620">
         <v>0</v>
+      </c>
+      <c r="D620">
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:4">
       <c r="A621" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B621" t="s">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c r="C621">
         <v>0</v>
+      </c>
+      <c r="D621">
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:4">
       <c r="A622" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B622" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C622">
         <v>0</v>
+      </c>
+      <c r="D622">
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:4">
       <c r="A623" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B623" t="s">
-        <v>69</v>
+        <v>243</v>
       </c>
       <c r="C623">
+        <v>0</v>
+      </c>
+      <c r="D623">
         <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:4">
       <c r="A624" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B624" t="s">
-        <v>115</v>
+        <v>388</v>
       </c>
       <c r="C624">
         <v>0</v>
+      </c>
+      <c r="D624">
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:4">
       <c r="A625" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B625" t="s">
-        <v>6</v>
+        <v>244</v>
       </c>
       <c r="C625">
         <v>0</v>
+      </c>
+      <c r="D625">
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:4">
       <c r="A626" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B626" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C626">
         <v>0</v>
+      </c>
+      <c r="D626">
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:4">
       <c r="A627" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B627" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C627">
         <v>0</v>
+      </c>
+      <c r="D627">
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:4">
       <c r="A628" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B628" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="C628">
         <v>0</v>
+      </c>
+      <c r="D628">
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:4">
       <c r="A629" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B629" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="C629">
         <v>0</v>
-      </c>
-      <c r="D629">
-        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:4">
       <c r="A630" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B630" t="s">
-        <v>222</v>
+        <v>62</v>
       </c>
       <c r="C630">
         <v>0</v>
-      </c>
-      <c r="D630">
-        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -9373,7 +9433,7 @@
         <v>245</v>
       </c>
       <c r="B631" t="s">
-        <v>251</v>
+        <v>388</v>
       </c>
       <c r="C631">
         <v>0</v>
@@ -9387,12 +9447,9 @@
         <v>245</v>
       </c>
       <c r="B632" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="C632">
-        <v>0</v>
-      </c>
-      <c r="D632">
         <v>1</v>
       </c>
     </row>
@@ -9401,10 +9458,10 @@
         <v>245</v>
       </c>
       <c r="B633" t="s">
-        <v>252</v>
+        <v>70</v>
       </c>
       <c r="C633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -9412,7 +9469,7 @@
         <v>245</v>
       </c>
       <c r="B634" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C634">
         <v>0</v>
@@ -9423,7 +9480,7 @@
         <v>245</v>
       </c>
       <c r="B635" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C635">
         <v>0</v>
@@ -9434,13 +9491,10 @@
         <v>245</v>
       </c>
       <c r="B636" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C636">
         <v>0</v>
-      </c>
-      <c r="D636">
-        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -9448,13 +9502,10 @@
         <v>245</v>
       </c>
       <c r="B637" t="s">
-        <v>256</v>
+        <v>111</v>
       </c>
       <c r="C637">
         <v>0</v>
-      </c>
-      <c r="D637">
-        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -9462,7 +9513,7 @@
         <v>245</v>
       </c>
       <c r="B638" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
       <c r="C638">
         <v>0</v>
@@ -9473,10 +9524,10 @@
         <v>245</v>
       </c>
       <c r="B639" t="s">
-        <v>257</v>
+        <v>69</v>
       </c>
       <c r="C639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -9484,7 +9535,7 @@
         <v>245</v>
       </c>
       <c r="B640" t="s">
-        <v>277</v>
+        <v>115</v>
       </c>
       <c r="C640">
         <v>0</v>
@@ -9495,7 +9546,7 @@
         <v>245</v>
       </c>
       <c r="B641" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="C641">
         <v>0</v>
@@ -9506,30 +9557,29 @@
         <v>245</v>
       </c>
       <c r="B642" t="s">
-        <v>259</v>
+        <v>62</v>
       </c>
       <c r="C642">
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A643" s="3" t="s">
+    <row r="643" spans="1:4">
+      <c r="A643" t="s">
         <v>245</v>
       </c>
-      <c r="B643" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C643" s="3">
-        <v>0</v>
-      </c>
-      <c r="D643" s="3"/>
-    </row>
-    <row r="644" spans="1:4" ht="15.75" thickTop="1">
+      <c r="B643" t="s">
+        <v>63</v>
+      </c>
+      <c r="C643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4">
       <c r="A644" t="s">
         <v>245</v>
       </c>
       <c r="B644" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C644">
         <v>0</v>
@@ -9540,10 +9590,13 @@
         <v>245</v>
       </c>
       <c r="B645" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C645">
         <v>0</v>
+      </c>
+      <c r="D645">
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -9551,10 +9604,13 @@
         <v>245</v>
       </c>
       <c r="B646" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="C646">
         <v>0</v>
+      </c>
+      <c r="D646">
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:4">
@@ -9562,10 +9618,13 @@
         <v>245</v>
       </c>
       <c r="B647" t="s">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="C647">
         <v>0</v>
+      </c>
+      <c r="D647">
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -9573,10 +9632,13 @@
         <v>245</v>
       </c>
       <c r="B648" t="s">
-        <v>263</v>
+        <v>85</v>
       </c>
       <c r="C648">
         <v>0</v>
+      </c>
+      <c r="D648">
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:4">
@@ -9584,7 +9646,7 @@
         <v>245</v>
       </c>
       <c r="B649" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C649">
         <v>0</v>
@@ -9595,13 +9657,10 @@
         <v>245</v>
       </c>
       <c r="B650" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C650">
         <v>0</v>
-      </c>
-      <c r="D650">
-        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -9609,13 +9668,10 @@
         <v>245</v>
       </c>
       <c r="B651" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C651">
         <v>0</v>
-      </c>
-      <c r="D651">
-        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -9623,10 +9679,13 @@
         <v>245</v>
       </c>
       <c r="B652" t="s">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="C652">
         <v>0</v>
+      </c>
+      <c r="D652">
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -9634,10 +9693,13 @@
         <v>245</v>
       </c>
       <c r="B653" t="s">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="C653">
         <v>0</v>
+      </c>
+      <c r="D653">
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -9645,7 +9707,7 @@
         <v>245</v>
       </c>
       <c r="B654" t="s">
-        <v>267</v>
+        <v>108</v>
       </c>
       <c r="C654">
         <v>0</v>
@@ -9656,13 +9718,10 @@
         <v>245</v>
       </c>
       <c r="B655" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C655">
         <v>0</v>
-      </c>
-      <c r="D655">
-        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -9670,7 +9729,7 @@
         <v>245</v>
       </c>
       <c r="B656" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C656">
         <v>0</v>
@@ -9681,7 +9740,7 @@
         <v>245</v>
       </c>
       <c r="B657" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C657">
         <v>0</v>
@@ -9692,29 +9751,30 @@
         <v>245</v>
       </c>
       <c r="B658" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C658">
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:4">
-      <c r="A659" t="s">
+    <row r="659" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A659" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B659" t="s">
-        <v>123</v>
-      </c>
-      <c r="C659">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="660" spans="1:4">
+      <c r="B659" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C659" s="3">
+        <v>0</v>
+      </c>
+      <c r="D659" s="3"/>
+    </row>
+    <row r="660" spans="1:4" ht="15.75" thickTop="1">
       <c r="A660" t="s">
         <v>245</v>
       </c>
       <c r="B660" t="s">
-        <v>124</v>
+        <v>260</v>
       </c>
       <c r="C660">
         <v>0</v>
@@ -9725,7 +9785,7 @@
         <v>245</v>
       </c>
       <c r="B661" t="s">
-        <v>118</v>
+        <v>261</v>
       </c>
       <c r="C661">
         <v>0</v>
@@ -9736,7 +9796,7 @@
         <v>245</v>
       </c>
       <c r="B662" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C662">
         <v>0</v>
@@ -9747,13 +9807,10 @@
         <v>245</v>
       </c>
       <c r="B663" t="s">
-        <v>273</v>
+        <v>125</v>
       </c>
       <c r="C663">
         <v>0</v>
-      </c>
-      <c r="D663">
-        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -9761,13 +9818,10 @@
         <v>245</v>
       </c>
       <c r="B664" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C664">
         <v>0</v>
-      </c>
-      <c r="D664">
-        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -9775,7 +9829,7 @@
         <v>245</v>
       </c>
       <c r="B665" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="C665">
         <v>0</v>
@@ -9786,40 +9840,46 @@
         <v>245</v>
       </c>
       <c r="B666" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="C666">
         <v>0</v>
+      </c>
+      <c r="D666">
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:4">
       <c r="A667" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B667" t="s">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="C667">
+        <v>0</v>
+      </c>
+      <c r="D667">
         <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:4">
       <c r="A668" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B668" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:4">
       <c r="A669" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B669" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C669">
         <v>0</v>
@@ -9827,10 +9887,10 @@
     </row>
     <row r="670" spans="1:4">
       <c r="A670" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B670" t="s">
-        <v>70</v>
+        <v>267</v>
       </c>
       <c r="C670">
         <v>0</v>
@@ -9838,455 +9898,437 @@
     </row>
     <row r="671" spans="1:4">
       <c r="A671" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B671" t="s">
-        <v>65</v>
+        <v>268</v>
       </c>
       <c r="C671">
         <v>0</v>
+      </c>
+      <c r="D671">
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:4">
       <c r="A672" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B672" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C672">
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:3">
+    <row r="673" spans="1:4">
       <c r="A673" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B673" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="C673">
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:3">
+    <row r="674" spans="1:4">
       <c r="A674" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B674" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C674">
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:3">
+    <row r="675" spans="1:4">
       <c r="A675" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B675" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="C675">
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:3">
+    <row r="676" spans="1:4">
       <c r="A676" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B676" t="s">
-        <v>258</v>
+        <v>124</v>
       </c>
       <c r="C676">
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:3">
+    <row r="677" spans="1:4">
       <c r="A677" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B677" t="s">
-        <v>278</v>
+        <v>118</v>
       </c>
       <c r="C677">
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:3">
+    <row r="678" spans="1:4">
       <c r="A678" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B678" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C678">
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:3">
+    <row r="679" spans="1:4">
       <c r="A679" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B679" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C679">
         <v>0</v>
       </c>
-    </row>
-    <row r="680" spans="1:3">
+      <c r="D679">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4">
       <c r="A680" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B680" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C680">
         <v>0</v>
       </c>
-    </row>
-    <row r="681" spans="1:3">
+      <c r="D680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4">
       <c r="A681" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B681" t="s">
-        <v>282</v>
+        <v>33</v>
       </c>
       <c r="C681">
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:3">
+    <row r="682" spans="1:4">
       <c r="A682" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B682" t="s">
-        <v>66</v>
+        <v>333</v>
       </c>
       <c r="C682">
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:3">
+    <row r="683" spans="1:4">
       <c r="A683" t="s">
         <v>275</v>
       </c>
       <c r="B683" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="C683">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="684" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4">
       <c r="A684" t="s">
         <v>275</v>
       </c>
       <c r="B684" t="s">
-        <v>260</v>
+        <v>68</v>
       </c>
       <c r="C684">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="685" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4">
       <c r="A685" t="s">
         <v>275</v>
       </c>
       <c r="B685" t="s">
-        <v>261</v>
+        <v>69</v>
       </c>
       <c r="C685">
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:3">
+    <row r="686" spans="1:4">
       <c r="A686" t="s">
         <v>275</v>
       </c>
       <c r="B686" t="s">
-        <v>262</v>
+        <v>70</v>
       </c>
       <c r="C686">
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:3">
+    <row r="687" spans="1:4">
       <c r="A687" t="s">
         <v>275</v>
       </c>
       <c r="B687" t="s">
-        <v>283</v>
+        <v>65</v>
       </c>
       <c r="C687">
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:3">
+    <row r="688" spans="1:4">
       <c r="A688" t="s">
         <v>275</v>
       </c>
       <c r="B688" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C688">
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:4">
+    <row r="689" spans="1:3">
       <c r="A689" t="s">
         <v>275</v>
       </c>
       <c r="B689" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="C689">
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:4">
+    <row r="690" spans="1:3">
       <c r="A690" t="s">
         <v>275</v>
       </c>
       <c r="B690" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="C690">
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:4">
+    <row r="691" spans="1:3">
       <c r="A691" t="s">
         <v>275</v>
       </c>
       <c r="B691" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C691">
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:4">
+    <row r="692" spans="1:3">
       <c r="A692" t="s">
         <v>275</v>
       </c>
       <c r="B692" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="C692">
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:4">
+    <row r="693" spans="1:3">
       <c r="A693" t="s">
         <v>275</v>
       </c>
       <c r="B693" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C693">
         <v>0</v>
       </c>
-      <c r="D693">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="694" spans="1:4">
+    </row>
+    <row r="694" spans="1:3">
       <c r="A694" t="s">
         <v>275</v>
       </c>
       <c r="B694" t="s">
-        <v>388</v>
+        <v>279</v>
       </c>
       <c r="C694">
         <v>0</v>
       </c>
-      <c r="D694">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="695" spans="1:4">
+    </row>
+    <row r="695" spans="1:3">
       <c r="A695" t="s">
         <v>275</v>
       </c>
       <c r="B695" t="s">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="C695">
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:4">
+    <row r="696" spans="1:3">
       <c r="A696" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B696" t="s">
-        <v>388</v>
+        <v>281</v>
       </c>
       <c r="C696">
         <v>0</v>
       </c>
-      <c r="D696">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="697" spans="1:4">
+    </row>
+    <row r="697" spans="1:3">
       <c r="A697" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B697" t="s">
-        <v>5</v>
+        <v>282</v>
       </c>
       <c r="C697">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="698" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3">
       <c r="A698" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B698" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="C698">
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:4">
+    <row r="699" spans="1:3">
       <c r="A699" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B699" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C699">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="700" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3">
       <c r="A700" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B700" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C700">
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:4">
+    <row r="701" spans="1:3">
       <c r="A701" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B701" t="s">
-        <v>119</v>
+        <v>261</v>
       </c>
       <c r="C701">
         <v>0</v>
       </c>
-      <c r="D701">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="702" spans="1:4">
+    </row>
+    <row r="702" spans="1:3">
       <c r="A702" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B702" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="C702">
         <v>0</v>
       </c>
-      <c r="D702">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="703" spans="1:4">
+    </row>
+    <row r="703" spans="1:3">
       <c r="A703" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B703" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="C703">
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:4">
+    <row r="704" spans="1:3">
       <c r="A704" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B704" t="s">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="C704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:4">
       <c r="A705" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B705" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C705">
         <v>0</v>
-      </c>
-      <c r="D705">
-        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:4">
       <c r="A706" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B706" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C706">
         <v>0</v>
-      </c>
-      <c r="D706">
-        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:4">
       <c r="A707" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B707" t="s">
-        <v>105</v>
+        <v>287</v>
       </c>
       <c r="C707">
         <v>0</v>
-      </c>
-      <c r="D707">
-        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:4">
       <c r="A708" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B708" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="C708">
         <v>0</v>
-      </c>
-      <c r="D708">
-        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:4">
       <c r="A709" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B709" t="s">
-        <v>85</v>
+        <v>289</v>
       </c>
       <c r="C709">
         <v>0</v>
@@ -10297,18 +10339,21 @@
     </row>
     <row r="710" spans="1:4">
       <c r="A710" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B710" t="s">
-        <v>115</v>
+        <v>388</v>
       </c>
       <c r="C710">
         <v>0</v>
+      </c>
+      <c r="D710">
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:4">
       <c r="A711" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B711" t="s">
         <v>125</v>
@@ -10322,10 +10367,13 @@
         <v>290</v>
       </c>
       <c r="B712" t="s">
-        <v>293</v>
+        <v>388</v>
       </c>
       <c r="C712">
         <v>0</v>
+      </c>
+      <c r="D712">
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -10333,10 +10381,10 @@
         <v>290</v>
       </c>
       <c r="B713" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -10344,7 +10392,7 @@
         <v>290</v>
       </c>
       <c r="B714" t="s">
-        <v>294</v>
+        <v>111</v>
       </c>
       <c r="C714">
         <v>0</v>
@@ -10355,10 +10403,10 @@
         <v>290</v>
       </c>
       <c r="B715" t="s">
-        <v>295</v>
+        <v>70</v>
       </c>
       <c r="C715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -10366,7 +10414,7 @@
         <v>290</v>
       </c>
       <c r="B716" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="C716">
         <v>0</v>
@@ -10377,7 +10425,7 @@
         <v>290</v>
       </c>
       <c r="B717" t="s">
-        <v>297</v>
+        <v>119</v>
       </c>
       <c r="C717">
         <v>0</v>
@@ -10391,7 +10439,7 @@
         <v>290</v>
       </c>
       <c r="B718" t="s">
-        <v>298</v>
+        <v>221</v>
       </c>
       <c r="C718">
         <v>0</v>
@@ -10405,13 +10453,10 @@
         <v>290</v>
       </c>
       <c r="B719" t="s">
-        <v>88</v>
+        <v>252</v>
       </c>
       <c r="C719">
         <v>0</v>
-      </c>
-      <c r="D719">
-        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -10419,12 +10464,9 @@
         <v>290</v>
       </c>
       <c r="B720" t="s">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="C720">
-        <v>0</v>
-      </c>
-      <c r="D720">
         <v>1</v>
       </c>
     </row>
@@ -10433,10 +10475,13 @@
         <v>290</v>
       </c>
       <c r="B721" t="s">
-        <v>6</v>
+        <v>291</v>
       </c>
       <c r="C721">
         <v>0</v>
+      </c>
+      <c r="D721">
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -10444,10 +10489,13 @@
         <v>290</v>
       </c>
       <c r="B722" t="s">
-        <v>33</v>
+        <v>292</v>
       </c>
       <c r="C722">
         <v>0</v>
+      </c>
+      <c r="D722">
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -10455,10 +10503,13 @@
         <v>290</v>
       </c>
       <c r="B723" t="s">
-        <v>300</v>
+        <v>105</v>
       </c>
       <c r="C723">
         <v>0</v>
+      </c>
+      <c r="D723">
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -10466,10 +10517,13 @@
         <v>290</v>
       </c>
       <c r="B724" t="s">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="C724">
         <v>0</v>
+      </c>
+      <c r="D724">
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -10477,9 +10531,12 @@
         <v>290</v>
       </c>
       <c r="B725" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C725">
+        <v>0</v>
+      </c>
+      <c r="D725">
         <v>1</v>
       </c>
     </row>
@@ -10488,7 +10545,7 @@
         <v>290</v>
       </c>
       <c r="B726" t="s">
-        <v>301</v>
+        <v>115</v>
       </c>
       <c r="C726">
         <v>0</v>
@@ -10499,7 +10556,7 @@
         <v>290</v>
       </c>
       <c r="B727" t="s">
-        <v>302</v>
+        <v>125</v>
       </c>
       <c r="C727">
         <v>0</v>
@@ -10510,7 +10567,7 @@
         <v>290</v>
       </c>
       <c r="B728" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="C728">
         <v>0</v>
@@ -10521,13 +10578,10 @@
         <v>290</v>
       </c>
       <c r="B729" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C729">
         <v>0</v>
-      </c>
-      <c r="D729">
-        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -10535,7 +10589,7 @@
         <v>290</v>
       </c>
       <c r="B730" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="C730">
         <v>0</v>
@@ -10546,98 +10600,107 @@
         <v>290</v>
       </c>
       <c r="B731" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="C731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:4">
       <c r="A732" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B732" t="s">
-        <v>388</v>
+        <v>296</v>
       </c>
       <c r="C732">
         <v>0</v>
-      </c>
-      <c r="D732">
-        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:4">
       <c r="A733" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B733" t="s">
-        <v>5</v>
+        <v>297</v>
       </c>
       <c r="C733">
+        <v>0</v>
+      </c>
+      <c r="D733">
         <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:4">
       <c r="A734" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B734" t="s">
-        <v>70</v>
+        <v>298</v>
       </c>
       <c r="C734">
+        <v>0</v>
+      </c>
+      <c r="D734">
         <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:4">
       <c r="A735" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B735" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C735">
         <v>0</v>
+      </c>
+      <c r="D735">
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:4">
       <c r="A736" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B736" t="s">
-        <v>69</v>
+        <v>299</v>
       </c>
       <c r="C736">
+        <v>0</v>
+      </c>
+      <c r="D736">
         <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:4">
       <c r="A737" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B737" t="s">
-        <v>304</v>
+        <v>6</v>
       </c>
       <c r="C737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:4">
       <c r="A738" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B738" t="s">
-        <v>305</v>
+        <v>33</v>
       </c>
       <c r="C738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:4">
       <c r="A739" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B739" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C739">
         <v>0</v>
@@ -10645,10 +10708,10 @@
     </row>
     <row r="740" spans="1:4">
       <c r="A740" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B740" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C740">
         <v>0</v>
@@ -10656,49 +10719,43 @@
     </row>
     <row r="741" spans="1:4">
       <c r="A741" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B741" t="s">
-        <v>307</v>
+        <v>69</v>
       </c>
       <c r="C741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:4">
       <c r="A742" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B742" t="s">
-        <v>54</v>
+        <v>301</v>
       </c>
       <c r="C742">
         <v>0</v>
-      </c>
-      <c r="D742">
-        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:4">
       <c r="A743" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B743" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C743">
         <v>0</v>
-      </c>
-      <c r="D743">
-        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:4">
       <c r="A744" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B744" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="C744">
         <v>0</v>
@@ -10706,10 +10763,10 @@
     </row>
     <row r="745" spans="1:4">
       <c r="A745" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B745" t="s">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="C745">
         <v>0</v>
@@ -10720,10 +10777,10 @@
     </row>
     <row r="746" spans="1:4">
       <c r="A746" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B746" t="s">
-        <v>111</v>
+        <v>328</v>
       </c>
       <c r="C746">
         <v>0</v>
@@ -10731,15 +10788,12 @@
     </row>
     <row r="747" spans="1:4">
       <c r="A747" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B747" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="C747">
-        <v>0</v>
-      </c>
-      <c r="D747">
         <v>1</v>
       </c>
     </row>
@@ -10748,7 +10802,7 @@
         <v>303</v>
       </c>
       <c r="B748" t="s">
-        <v>18</v>
+        <v>388</v>
       </c>
       <c r="C748">
         <v>0</v>
@@ -10762,12 +10816,9 @@
         <v>303</v>
       </c>
       <c r="B749" t="s">
-        <v>311</v>
+        <v>5</v>
       </c>
       <c r="C749">
-        <v>0</v>
-      </c>
-      <c r="D749">
         <v>1</v>
       </c>
     </row>
@@ -10776,12 +10827,9 @@
         <v>303</v>
       </c>
       <c r="B750" t="s">
-        <v>312</v>
+        <v>70</v>
       </c>
       <c r="C750">
-        <v>0</v>
-      </c>
-      <c r="D750">
         <v>1</v>
       </c>
     </row>
@@ -10790,7 +10838,7 @@
         <v>303</v>
       </c>
       <c r="B751" t="s">
-        <v>313</v>
+        <v>68</v>
       </c>
       <c r="C751">
         <v>0</v>
@@ -10801,12 +10849,9 @@
         <v>303</v>
       </c>
       <c r="B752" t="s">
-        <v>298</v>
+        <v>69</v>
       </c>
       <c r="C752">
-        <v>0</v>
-      </c>
-      <c r="D752">
         <v>1</v>
       </c>
     </row>
@@ -10815,10 +10860,10 @@
         <v>303</v>
       </c>
       <c r="B753" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -10826,10 +10871,10 @@
         <v>303</v>
       </c>
       <c r="B754" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -10837,7 +10882,7 @@
         <v>303</v>
       </c>
       <c r="B755" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C755">
         <v>0</v>
@@ -10848,7 +10893,7 @@
         <v>303</v>
       </c>
       <c r="B756" t="s">
-        <v>317</v>
+        <v>49</v>
       </c>
       <c r="C756">
         <v>0</v>
@@ -10859,7 +10904,7 @@
         <v>303</v>
       </c>
       <c r="B757" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C757">
         <v>0</v>
@@ -10870,10 +10915,13 @@
         <v>303</v>
       </c>
       <c r="B758" t="s">
-        <v>319</v>
+        <v>54</v>
       </c>
       <c r="C758">
         <v>0</v>
+      </c>
+      <c r="D758">
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -10881,10 +10929,13 @@
         <v>303</v>
       </c>
       <c r="B759" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C759">
         <v>0</v>
+      </c>
+      <c r="D759">
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -10892,7 +10943,7 @@
         <v>303</v>
       </c>
       <c r="B760" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C760">
         <v>0</v>
@@ -10903,10 +10954,13 @@
         <v>303</v>
       </c>
       <c r="B761" t="s">
-        <v>322</v>
+        <v>217</v>
       </c>
       <c r="C761">
         <v>0</v>
+      </c>
+      <c r="D761">
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -10914,7 +10968,7 @@
         <v>303</v>
       </c>
       <c r="B762" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C762">
         <v>0</v>
@@ -10925,10 +10979,13 @@
         <v>303</v>
       </c>
       <c r="B763" t="s">
-        <v>51</v>
+        <v>310</v>
       </c>
       <c r="C763">
         <v>0</v>
+      </c>
+      <c r="D763">
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -10936,10 +10993,13 @@
         <v>303</v>
       </c>
       <c r="B764" t="s">
-        <v>323</v>
+        <v>18</v>
       </c>
       <c r="C764">
         <v>0</v>
+      </c>
+      <c r="D764">
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -10947,110 +11007,295 @@
         <v>303</v>
       </c>
       <c r="B765" t="s">
+        <v>311</v>
+      </c>
+      <c r="C765">
+        <v>0</v>
+      </c>
+      <c r="D765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4">
+      <c r="A766" t="s">
+        <v>303</v>
+      </c>
+      <c r="B766" t="s">
+        <v>312</v>
+      </c>
+      <c r="C766">
+        <v>0</v>
+      </c>
+      <c r="D766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4">
+      <c r="A767" t="s">
+        <v>303</v>
+      </c>
+      <c r="B767" t="s">
+        <v>313</v>
+      </c>
+      <c r="C767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4">
+      <c r="A768" t="s">
+        <v>303</v>
+      </c>
+      <c r="B768" t="s">
+        <v>298</v>
+      </c>
+      <c r="C768">
+        <v>0</v>
+      </c>
+      <c r="D768">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4">
+      <c r="A769" t="s">
+        <v>303</v>
+      </c>
+      <c r="B769" t="s">
+        <v>314</v>
+      </c>
+      <c r="C769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4">
+      <c r="A770" t="s">
+        <v>303</v>
+      </c>
+      <c r="B770" t="s">
+        <v>315</v>
+      </c>
+      <c r="C770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4">
+      <c r="A771" t="s">
+        <v>303</v>
+      </c>
+      <c r="B771" t="s">
+        <v>316</v>
+      </c>
+      <c r="C771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4">
+      <c r="A772" t="s">
+        <v>303</v>
+      </c>
+      <c r="B772" t="s">
+        <v>317</v>
+      </c>
+      <c r="C772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4">
+      <c r="A773" t="s">
+        <v>303</v>
+      </c>
+      <c r="B773" t="s">
+        <v>318</v>
+      </c>
+      <c r="C773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4">
+      <c r="A774" t="s">
+        <v>303</v>
+      </c>
+      <c r="B774" t="s">
+        <v>319</v>
+      </c>
+      <c r="C774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4">
+      <c r="A775" t="s">
+        <v>303</v>
+      </c>
+      <c r="B775" t="s">
+        <v>320</v>
+      </c>
+      <c r="C775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4">
+      <c r="A776" t="s">
+        <v>303</v>
+      </c>
+      <c r="B776" t="s">
+        <v>321</v>
+      </c>
+      <c r="C776">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4">
+      <c r="A777" t="s">
+        <v>303</v>
+      </c>
+      <c r="B777" t="s">
+        <v>322</v>
+      </c>
+      <c r="C777">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4">
+      <c r="A778" t="s">
+        <v>303</v>
+      </c>
+      <c r="B778" t="s">
+        <v>50</v>
+      </c>
+      <c r="C778">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4">
+      <c r="A779" t="s">
+        <v>303</v>
+      </c>
+      <c r="B779" t="s">
+        <v>51</v>
+      </c>
+      <c r="C779">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4">
+      <c r="A780" t="s">
+        <v>303</v>
+      </c>
+      <c r="B780" t="s">
+        <v>323</v>
+      </c>
+      <c r="C780">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4">
+      <c r="A781" t="s">
+        <v>303</v>
+      </c>
+      <c r="B781" t="s">
         <v>324</v>
       </c>
-      <c r="C765">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="766" spans="1:4">
-      <c r="A766" s="1" t="s">
+      <c r="C781">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4">
+      <c r="A782" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B766" s="1" t="s">
+      <c r="B782" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C766" s="1">
-        <v>0</v>
-      </c>
-      <c r="D766" s="1"/>
-    </row>
-    <row r="767" spans="1:4">
-      <c r="A767" s="2" t="s">
+      <c r="C782" s="1">
+        <v>0</v>
+      </c>
+      <c r="D782" s="1"/>
+    </row>
+    <row r="783" spans="1:4">
+      <c r="A783" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B767" s="2" t="s">
+      <c r="B783" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C767" s="1">
-        <v>0</v>
-      </c>
-      <c r="D767" s="2"/>
-    </row>
-    <row r="768" spans="1:4">
-      <c r="A768" s="2" t="s">
+      <c r="C783" s="1">
+        <v>0</v>
+      </c>
+      <c r="D783" s="2"/>
+    </row>
+    <row r="784" spans="1:4">
+      <c r="A784" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B768" t="s">
+      <c r="B784" t="s">
         <v>140</v>
       </c>
-      <c r="C768" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="769" spans="1:3">
-      <c r="A769" s="2" t="s">
+      <c r="C784" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3">
+      <c r="A785" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B769" t="s">
+      <c r="B785" t="s">
         <v>405</v>
       </c>
-      <c r="C769" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="770" spans="1:3">
-      <c r="A770" s="2" t="s">
+      <c r="C785" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3">
+      <c r="A786" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B770" t="s">
+      <c r="B786" t="s">
         <v>406</v>
       </c>
-      <c r="C770" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="771" spans="1:3">
-      <c r="A771" s="2" t="s">
+      <c r="C786" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3">
+      <c r="A787" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B771" t="s">
+      <c r="B787" t="s">
         <v>5</v>
       </c>
-      <c r="C771" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="772" spans="1:3">
-      <c r="A772" s="2" t="s">
+      <c r="C787" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3">
+      <c r="A788" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B772" t="s">
+      <c r="B788" t="s">
         <v>407</v>
       </c>
-      <c r="C772" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="773" spans="1:3">
-      <c r="A773" s="2" t="s">
+      <c r="C788" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3">
+      <c r="A789" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B773" t="s">
+      <c r="B789" t="s">
         <v>388</v>
       </c>
-      <c r="C773" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="774" spans="1:3">
-      <c r="A774" s="2" t="s">
+      <c r="C789" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3">
+      <c r="A790" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B774" t="s">
+      <c r="B790" t="s">
         <v>9</v>
       </c>
-      <c r="C774" s="1">
+      <c r="C790" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="416">
   <si>
     <t>TABELA</t>
   </si>
@@ -1261,6 +1261,9 @@
   </si>
   <si>
     <t>NR_SERIE</t>
+  </si>
+  <si>
+    <t>CD_TIPO_ORDEM_VENDA</t>
   </si>
 </sst>
 </file>
@@ -1325,8 +1328,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D790" totalsRowShown="0">
-  <autoFilter ref="A1:D790">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D794" totalsRowShown="0">
+  <autoFilter ref="A1:D794">
     <filterColumn colId="0"/>
   </autoFilter>
   <sortState ref="A2:D734">
@@ -1627,11 +1630,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D790"/>
+  <dimension ref="A1:D794"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F511" sqref="F511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5406,15 +5409,12 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B314" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="C314">
-        <v>0</v>
-      </c>
-      <c r="D314">
         <v>0</v>
       </c>
     </row>
@@ -5423,7 +5423,7 @@
         <v>403</v>
       </c>
       <c r="B315" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>403</v>
       </c>
       <c r="B316" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -5451,7 +5451,7 @@
         <v>403</v>
       </c>
       <c r="B317" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -5465,10 +5465,10 @@
         <v>403</v>
       </c>
       <c r="B318" t="s">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="C318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -5479,7 +5479,7 @@
         <v>403</v>
       </c>
       <c r="B319" t="s">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -5493,10 +5493,10 @@
         <v>403</v>
       </c>
       <c r="B320" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -5507,7 +5507,7 @@
         <v>403</v>
       </c>
       <c r="B321" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -5521,7 +5521,7 @@
         <v>403</v>
       </c>
       <c r="B322" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -5535,7 +5535,7 @@
         <v>403</v>
       </c>
       <c r="B323" t="s">
-        <v>90</v>
+        <v>396</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -5549,7 +5549,7 @@
         <v>403</v>
       </c>
       <c r="B324" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -5563,7 +5563,7 @@
         <v>403</v>
       </c>
       <c r="B325" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -5577,7 +5577,7 @@
         <v>403</v>
       </c>
       <c r="B326" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="C326">
         <v>0</v>
@@ -5591,10 +5591,10 @@
         <v>403</v>
       </c>
       <c r="B327" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="C327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -5605,10 +5605,10 @@
         <v>403</v>
       </c>
       <c r="B328" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D328">
         <v>0</v>
@@ -5619,7 +5619,7 @@
         <v>403</v>
       </c>
       <c r="B329" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -5633,7 +5633,7 @@
         <v>403</v>
       </c>
       <c r="B330" t="s">
-        <v>397</v>
+        <v>70</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>403</v>
       </c>
       <c r="B331" t="s">
-        <v>111</v>
+        <v>397</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -5661,7 +5661,7 @@
         <v>403</v>
       </c>
       <c r="B332" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>403</v>
       </c>
       <c r="B333" t="s">
-        <v>398</v>
+        <v>115</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -5689,7 +5689,7 @@
         <v>403</v>
       </c>
       <c r="B334" t="s">
-        <v>125</v>
+        <v>398</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -5703,7 +5703,7 @@
         <v>403</v>
       </c>
       <c r="B335" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -5717,13 +5717,13 @@
         <v>403</v>
       </c>
       <c r="B336" t="s">
-        <v>399</v>
+        <v>129</v>
       </c>
       <c r="C336">
         <v>0</v>
       </c>
       <c r="D336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5731,7 +5731,7 @@
         <v>403</v>
       </c>
       <c r="B337" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -5745,13 +5745,13 @@
         <v>403</v>
       </c>
       <c r="B338" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="C338">
         <v>0</v>
       </c>
       <c r="D338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5759,7 +5759,7 @@
         <v>403</v>
       </c>
       <c r="B339" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -5773,7 +5773,7 @@
         <v>403</v>
       </c>
       <c r="B340" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -5784,13 +5784,13 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="B341" t="s">
-        <v>5</v>
+        <v>402</v>
       </c>
       <c r="C341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D341">
         <v>0</v>
@@ -5801,9 +5801,12 @@
         <v>131</v>
       </c>
       <c r="B342" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342">
         <v>0</v>
       </c>
     </row>
@@ -5812,7 +5815,7 @@
         <v>131</v>
       </c>
       <c r="B343" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -5823,7 +5826,7 @@
         <v>131</v>
       </c>
       <c r="B344" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -5834,7 +5837,7 @@
         <v>131</v>
       </c>
       <c r="B345" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -5845,7 +5848,7 @@
         <v>131</v>
       </c>
       <c r="B346" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -5856,13 +5859,10 @@
         <v>131</v>
       </c>
       <c r="B347" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="C347">
         <v>0</v>
-      </c>
-      <c r="D347">
-        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5870,7 +5870,7 @@
         <v>131</v>
       </c>
       <c r="B348" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>131</v>
       </c>
       <c r="B349" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -5898,7 +5898,7 @@
         <v>131</v>
       </c>
       <c r="B350" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>131</v>
       </c>
       <c r="B351" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -5926,10 +5926,13 @@
         <v>131</v>
       </c>
       <c r="B352" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="C352">
         <v>0</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5937,7 +5940,7 @@
         <v>131</v>
       </c>
       <c r="B353" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -5948,7 +5951,7 @@
         <v>131</v>
       </c>
       <c r="B354" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -5959,7 +5962,7 @@
         <v>131</v>
       </c>
       <c r="B355" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -5970,7 +5973,7 @@
         <v>131</v>
       </c>
       <c r="B356" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -5981,13 +5984,10 @@
         <v>131</v>
       </c>
       <c r="B357" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C357">
         <v>0</v>
-      </c>
-      <c r="D357">
-        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5995,7 +5995,7 @@
         <v>131</v>
       </c>
       <c r="B358" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>131</v>
       </c>
       <c r="B359" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>131</v>
       </c>
       <c r="B360" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -6037,7 +6037,7 @@
         <v>131</v>
       </c>
       <c r="B361" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="C361">
         <v>0</v>
@@ -6051,7 +6051,7 @@
         <v>131</v>
       </c>
       <c r="B362" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -6065,7 +6065,7 @@
         <v>131</v>
       </c>
       <c r="B363" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -6079,7 +6079,7 @@
         <v>131</v>
       </c>
       <c r="B364" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -6093,7 +6093,7 @@
         <v>131</v>
       </c>
       <c r="B365" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -6107,7 +6107,7 @@
         <v>131</v>
       </c>
       <c r="B366" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -6121,7 +6121,7 @@
         <v>131</v>
       </c>
       <c r="B367" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>131</v>
       </c>
       <c r="B368" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -6149,7 +6149,7 @@
         <v>131</v>
       </c>
       <c r="B369" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -6163,7 +6163,7 @@
         <v>131</v>
       </c>
       <c r="B370" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -6177,10 +6177,13 @@
         <v>131</v>
       </c>
       <c r="B371" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="C371">
         <v>0</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6188,13 +6191,10 @@
         <v>131</v>
       </c>
       <c r="B372" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C372">
         <v>0</v>
-      </c>
-      <c r="D372">
-        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -6202,7 +6202,7 @@
         <v>131</v>
       </c>
       <c r="B373" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C373">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>131</v>
       </c>
       <c r="B374" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>131</v>
       </c>
       <c r="B375" t="s">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -6244,10 +6244,13 @@
         <v>131</v>
       </c>
       <c r="B376" t="s">
-        <v>151</v>
+        <v>388</v>
       </c>
       <c r="C376">
         <v>0</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -6255,7 +6258,7 @@
         <v>131</v>
       </c>
       <c r="B377" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -6266,13 +6269,10 @@
         <v>131</v>
       </c>
       <c r="B378" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="C378">
         <v>0</v>
-      </c>
-      <c r="D378">
-        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6280,7 +6280,7 @@
         <v>131</v>
       </c>
       <c r="B379" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C379">
         <v>0</v>
@@ -6294,7 +6294,7 @@
         <v>131</v>
       </c>
       <c r="B380" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -6308,7 +6308,7 @@
         <v>131</v>
       </c>
       <c r="B381" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="C381">
         <v>0</v>
@@ -6322,7 +6322,7 @@
         <v>131</v>
       </c>
       <c r="B382" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -6336,7 +6336,7 @@
         <v>131</v>
       </c>
       <c r="B383" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>131</v>
       </c>
       <c r="B384" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -6364,7 +6364,7 @@
         <v>131</v>
       </c>
       <c r="B385" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -6378,7 +6378,7 @@
         <v>131</v>
       </c>
       <c r="B386" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>131</v>
       </c>
       <c r="B387" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C387">
         <v>0</v>
@@ -6406,7 +6406,7 @@
         <v>131</v>
       </c>
       <c r="B388" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C388">
         <v>0</v>
@@ -6420,10 +6420,13 @@
         <v>131</v>
       </c>
       <c r="B389" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C389">
         <v>0</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -6431,7 +6434,7 @@
         <v>131</v>
       </c>
       <c r="B390" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C390">
         <v>0</v>
@@ -6442,7 +6445,7 @@
         <v>131</v>
       </c>
       <c r="B391" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="C391">
         <v>0</v>
@@ -6453,10 +6456,10 @@
         <v>131</v>
       </c>
       <c r="B392" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -6464,21 +6467,21 @@
         <v>131</v>
       </c>
       <c r="B393" t="s">
-        <v>329</v>
+        <v>34</v>
       </c>
       <c r="C393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B394" t="s">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="C394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -6486,10 +6489,10 @@
         <v>163</v>
       </c>
       <c r="B395" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -6497,38 +6500,38 @@
         <v>163</v>
       </c>
       <c r="B396" t="s">
+        <v>6</v>
+      </c>
+      <c r="C396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" t="s">
+        <v>163</v>
+      </c>
+      <c r="B397" t="s">
         <v>10</v>
       </c>
-      <c r="C396">
-        <v>0</v>
-      </c>
-      <c r="D396">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4">
-      <c r="A397" s="1" t="s">
+      <c r="C397">
+        <v>0</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B397" s="1" t="s">
+      <c r="B398" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C397" s="1">
-        <v>1</v>
-      </c>
-      <c r="D397" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4">
-      <c r="A398" t="s">
-        <v>163</v>
-      </c>
-      <c r="B398" t="s">
-        <v>79</v>
-      </c>
-      <c r="C398">
-        <v>1</v>
+      <c r="C398" s="1">
+        <v>1</v>
+      </c>
+      <c r="D398" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -6536,10 +6539,10 @@
         <v>163</v>
       </c>
       <c r="B399" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="C399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -6547,7 +6550,7 @@
         <v>163</v>
       </c>
       <c r="B400" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -6558,13 +6561,10 @@
         <v>163</v>
       </c>
       <c r="B401" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C401">
         <v>0</v>
-      </c>
-      <c r="D401">
-        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -6572,7 +6572,7 @@
         <v>163</v>
       </c>
       <c r="B402" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -6586,7 +6586,7 @@
         <v>163</v>
       </c>
       <c r="B403" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C403">
         <v>0</v>
@@ -6600,7 +6600,7 @@
         <v>163</v>
       </c>
       <c r="B404" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C404">
         <v>0</v>
@@ -6614,7 +6614,7 @@
         <v>163</v>
       </c>
       <c r="B405" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>163</v>
       </c>
       <c r="B406" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>163</v>
       </c>
       <c r="B407" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -6656,7 +6656,7 @@
         <v>163</v>
       </c>
       <c r="B408" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="C408">
         <v>0</v>
@@ -6670,7 +6670,7 @@
         <v>163</v>
       </c>
       <c r="B409" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -6684,7 +6684,7 @@
         <v>163</v>
       </c>
       <c r="B410" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -6698,7 +6698,7 @@
         <v>163</v>
       </c>
       <c r="B411" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -6712,7 +6712,7 @@
         <v>163</v>
       </c>
       <c r="B412" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -6726,7 +6726,7 @@
         <v>163</v>
       </c>
       <c r="B413" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -6740,7 +6740,7 @@
         <v>163</v>
       </c>
       <c r="B414" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C414">
         <v>0</v>
@@ -6754,7 +6754,7 @@
         <v>163</v>
       </c>
       <c r="B415" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="C415">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>163</v>
       </c>
       <c r="B416" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C416">
         <v>0</v>
@@ -6782,7 +6782,7 @@
         <v>163</v>
       </c>
       <c r="B417" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C417">
         <v>0</v>
@@ -6796,7 +6796,7 @@
         <v>163</v>
       </c>
       <c r="B418" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="C418">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>163</v>
       </c>
       <c r="B419" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>163</v>
       </c>
       <c r="B420" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -6838,7 +6838,7 @@
         <v>163</v>
       </c>
       <c r="B421" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>163</v>
       </c>
       <c r="B422" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C422">
         <v>0</v>
@@ -6866,10 +6866,13 @@
         <v>163</v>
       </c>
       <c r="B423" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C423">
         <v>0</v>
+      </c>
+      <c r="D423">
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6877,7 +6880,7 @@
         <v>163</v>
       </c>
       <c r="B424" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C424">
         <v>0</v>
@@ -6888,13 +6891,10 @@
         <v>163</v>
       </c>
       <c r="B425" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="C425">
         <v>0</v>
-      </c>
-      <c r="D425">
-        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6902,7 +6902,7 @@
         <v>163</v>
       </c>
       <c r="B426" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="C426">
         <v>0</v>
@@ -6916,7 +6916,7 @@
         <v>163</v>
       </c>
       <c r="B427" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>163</v>
       </c>
       <c r="B428" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="C428">
         <v>0</v>
@@ -6944,7 +6944,7 @@
         <v>163</v>
       </c>
       <c r="B429" t="s">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="C429">
         <v>0</v>
@@ -6958,7 +6958,7 @@
         <v>163</v>
       </c>
       <c r="B430" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -6972,7 +6972,7 @@
         <v>163</v>
       </c>
       <c r="B431" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -6986,7 +6986,7 @@
         <v>163</v>
       </c>
       <c r="B432" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="C432">
         <v>0</v>
@@ -7000,7 +7000,7 @@
         <v>163</v>
       </c>
       <c r="B433" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -7014,7 +7014,7 @@
         <v>163</v>
       </c>
       <c r="B434" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -7028,7 +7028,7 @@
         <v>163</v>
       </c>
       <c r="B435" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -7042,7 +7042,7 @@
         <v>163</v>
       </c>
       <c r="B436" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C436">
         <v>0</v>
@@ -7056,7 +7056,7 @@
         <v>163</v>
       </c>
       <c r="B437" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>163</v>
       </c>
       <c r="B438" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C438">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>163</v>
       </c>
       <c r="B439" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C439">
         <v>0</v>
@@ -7098,7 +7098,7 @@
         <v>163</v>
       </c>
       <c r="B440" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="C440">
         <v>0</v>
@@ -7112,7 +7112,7 @@
         <v>163</v>
       </c>
       <c r="B441" t="s">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="C441">
         <v>0</v>
@@ -7126,7 +7126,7 @@
         <v>163</v>
       </c>
       <c r="B442" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="C442">
         <v>0</v>
@@ -7140,7 +7140,7 @@
         <v>163</v>
       </c>
       <c r="B443" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C443">
         <v>0</v>
@@ -7154,7 +7154,7 @@
         <v>163</v>
       </c>
       <c r="B444" t="s">
-        <v>188</v>
+        <v>104</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -7168,7 +7168,7 @@
         <v>163</v>
       </c>
       <c r="B445" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="C445">
         <v>0</v>
@@ -7182,7 +7182,7 @@
         <v>163</v>
       </c>
       <c r="B446" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="C446">
         <v>0</v>
@@ -7196,7 +7196,7 @@
         <v>163</v>
       </c>
       <c r="B447" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -7210,10 +7210,13 @@
         <v>163</v>
       </c>
       <c r="B448" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C448">
         <v>0</v>
+      </c>
+      <c r="D448">
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -7221,7 +7224,7 @@
         <v>163</v>
       </c>
       <c r="B449" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="C449">
         <v>0</v>
@@ -7232,7 +7235,7 @@
         <v>163</v>
       </c>
       <c r="B450" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C450">
         <v>0</v>
@@ -7243,13 +7246,10 @@
         <v>163</v>
       </c>
       <c r="B451" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="C451">
         <v>0</v>
-      </c>
-      <c r="D451">
-        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -7257,7 +7257,7 @@
         <v>163</v>
       </c>
       <c r="B452" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -7271,7 +7271,7 @@
         <v>163</v>
       </c>
       <c r="B453" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C453">
         <v>0</v>
@@ -7285,7 +7285,7 @@
         <v>163</v>
       </c>
       <c r="B454" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C454">
         <v>0</v>
@@ -7299,7 +7299,7 @@
         <v>163</v>
       </c>
       <c r="B455" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C455">
         <v>0</v>
@@ -7313,7 +7313,7 @@
         <v>163</v>
       </c>
       <c r="B456" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>163</v>
       </c>
       <c r="B457" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -7341,7 +7341,7 @@
         <v>163</v>
       </c>
       <c r="B458" t="s">
-        <v>388</v>
+        <v>192</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -7355,7 +7355,7 @@
         <v>163</v>
       </c>
       <c r="B459" t="s">
-        <v>193</v>
+        <v>388</v>
       </c>
       <c r="C459">
         <v>0</v>
@@ -7369,7 +7369,7 @@
         <v>163</v>
       </c>
       <c r="B460" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="C460">
         <v>0</v>
@@ -7383,7 +7383,7 @@
         <v>163</v>
       </c>
       <c r="B461" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="C461">
         <v>0</v>
@@ -7397,10 +7397,13 @@
         <v>163</v>
       </c>
       <c r="B462" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="C462">
         <v>0</v>
+      </c>
+      <c r="D462">
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -7408,7 +7411,7 @@
         <v>163</v>
       </c>
       <c r="B463" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C463">
         <v>0</v>
@@ -7419,10 +7422,10 @@
         <v>163</v>
       </c>
       <c r="B464" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -7430,10 +7433,10 @@
         <v>163</v>
       </c>
       <c r="B465" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="C465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -7441,7 +7444,7 @@
         <v>163</v>
       </c>
       <c r="B466" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C466">
         <v>0</v>
@@ -7452,23 +7455,23 @@
         <v>163</v>
       </c>
       <c r="B467" t="s">
-        <v>195</v>
+        <v>126</v>
       </c>
       <c r="C467">
         <v>0</v>
-      </c>
-      <c r="D467">
-        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B468" t="s">
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="C468">
+        <v>0</v>
+      </c>
+      <c r="D468">
         <v>1</v>
       </c>
     </row>
@@ -7477,10 +7480,10 @@
         <v>196</v>
       </c>
       <c r="B469" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -7488,13 +7491,10 @@
         <v>196</v>
       </c>
       <c r="B470" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="C470">
         <v>0</v>
-      </c>
-      <c r="D470">
-        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -7502,7 +7502,7 @@
         <v>196</v>
       </c>
       <c r="B471" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -7516,10 +7516,13 @@
         <v>196</v>
       </c>
       <c r="B472" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C472">
         <v>0</v>
+      </c>
+      <c r="D472">
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -7527,7 +7530,7 @@
         <v>196</v>
       </c>
       <c r="B473" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C473">
         <v>0</v>
@@ -7538,7 +7541,7 @@
         <v>196</v>
       </c>
       <c r="B474" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C474">
         <v>0</v>
@@ -7549,7 +7552,7 @@
         <v>196</v>
       </c>
       <c r="B475" t="s">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="C475">
         <v>0</v>
@@ -7560,7 +7563,7 @@
         <v>196</v>
       </c>
       <c r="B476" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C476">
         <v>0</v>
@@ -7571,7 +7574,7 @@
         <v>196</v>
       </c>
       <c r="B477" t="s">
-        <v>65</v>
+        <v>198</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -7582,7 +7585,7 @@
         <v>196</v>
       </c>
       <c r="B478" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C478">
         <v>0</v>
@@ -7593,13 +7596,10 @@
         <v>196</v>
       </c>
       <c r="B479" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C479">
         <v>0</v>
-      </c>
-      <c r="D479">
-        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7607,7 +7607,7 @@
         <v>196</v>
       </c>
       <c r="B480" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C480">
         <v>0</v>
@@ -7621,7 +7621,7 @@
         <v>196</v>
       </c>
       <c r="B481" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C481">
         <v>0</v>
@@ -7635,10 +7635,13 @@
         <v>196</v>
       </c>
       <c r="B482" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C482">
         <v>0</v>
+      </c>
+      <c r="D482">
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7646,7 +7649,7 @@
         <v>196</v>
       </c>
       <c r="B483" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C483">
         <v>0</v>
@@ -7657,7 +7660,7 @@
         <v>196</v>
       </c>
       <c r="B484" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="C484">
         <v>0</v>
@@ -7668,7 +7671,7 @@
         <v>196</v>
       </c>
       <c r="B485" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="C485">
         <v>0</v>
@@ -7679,7 +7682,7 @@
         <v>196</v>
       </c>
       <c r="B486" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C486">
         <v>0</v>
@@ -7690,7 +7693,7 @@
         <v>196</v>
       </c>
       <c r="B487" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="C487">
         <v>0</v>
@@ -7701,7 +7704,7 @@
         <v>196</v>
       </c>
       <c r="B488" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="C488">
         <v>0</v>
@@ -7712,7 +7715,7 @@
         <v>196</v>
       </c>
       <c r="B489" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -7723,7 +7726,7 @@
         <v>196</v>
       </c>
       <c r="B490" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="C490">
         <v>0</v>
@@ -7734,7 +7737,7 @@
         <v>196</v>
       </c>
       <c r="B491" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="C491">
         <v>0</v>
@@ -7745,7 +7748,7 @@
         <v>196</v>
       </c>
       <c r="B492" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="C492">
         <v>0</v>
@@ -7756,7 +7759,7 @@
         <v>196</v>
       </c>
       <c r="B493" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C493">
         <v>0</v>
@@ -7767,7 +7770,7 @@
         <v>196</v>
       </c>
       <c r="B494" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C494">
         <v>0</v>
@@ -7778,7 +7781,7 @@
         <v>196</v>
       </c>
       <c r="B495" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C495">
         <v>0</v>
@@ -7789,13 +7792,10 @@
         <v>196</v>
       </c>
       <c r="B496" t="s">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="C496">
         <v>0</v>
-      </c>
-      <c r="D496">
-        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7803,7 +7803,7 @@
         <v>196</v>
       </c>
       <c r="B497" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="C497">
         <v>0</v>
@@ -7817,10 +7817,13 @@
         <v>196</v>
       </c>
       <c r="B498" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C498">
         <v>0</v>
+      </c>
+      <c r="D498">
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -7828,7 +7831,7 @@
         <v>196</v>
       </c>
       <c r="B499" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C499">
         <v>0</v>
@@ -7839,7 +7842,7 @@
         <v>196</v>
       </c>
       <c r="B500" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C500">
         <v>0</v>
@@ -7850,7 +7853,7 @@
         <v>196</v>
       </c>
       <c r="B501" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -7861,7 +7864,7 @@
         <v>196</v>
       </c>
       <c r="B502" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -7872,7 +7875,7 @@
         <v>196</v>
       </c>
       <c r="B503" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="C503">
         <v>0</v>
@@ -7883,7 +7886,7 @@
         <v>196</v>
       </c>
       <c r="B504" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C504">
         <v>0</v>
@@ -7894,7 +7897,7 @@
         <v>196</v>
       </c>
       <c r="B505" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C505">
         <v>0</v>
@@ -7905,7 +7908,7 @@
         <v>196</v>
       </c>
       <c r="B506" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -7916,7 +7919,7 @@
         <v>196</v>
       </c>
       <c r="B507" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -7927,13 +7930,10 @@
         <v>196</v>
       </c>
       <c r="B508" t="s">
-        <v>388</v>
+        <v>192</v>
       </c>
       <c r="C508">
         <v>0</v>
-      </c>
-      <c r="D508">
-        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7941,10 +7941,13 @@
         <v>196</v>
       </c>
       <c r="B509" t="s">
-        <v>33</v>
+        <v>388</v>
       </c>
       <c r="C509">
         <v>0</v>
+      </c>
+      <c r="D509">
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7952,7 +7955,7 @@
         <v>196</v>
       </c>
       <c r="B510" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="C510">
         <v>0</v>
@@ -7963,10 +7966,10 @@
         <v>196</v>
       </c>
       <c r="B511" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="C511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7974,10 +7977,10 @@
         <v>196</v>
       </c>
       <c r="B512" t="s">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="C512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -7985,7 +7988,7 @@
         <v>196</v>
       </c>
       <c r="B513" t="s">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -7993,21 +7996,21 @@
     </row>
     <row r="514" spans="1:4">
       <c r="A514" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B514" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="C514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B515" t="s">
-        <v>6</v>
+        <v>415</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -8018,12 +8021,9 @@
         <v>201</v>
       </c>
       <c r="B516" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C516">
-        <v>0</v>
-      </c>
-      <c r="D516">
         <v>1</v>
       </c>
     </row>
@@ -8032,13 +8032,10 @@
         <v>201</v>
       </c>
       <c r="B517" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C517">
         <v>0</v>
-      </c>
-      <c r="D517">
-        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -8046,9 +8043,12 @@
         <v>201</v>
       </c>
       <c r="B518" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C518">
+        <v>0</v>
+      </c>
+      <c r="D518">
         <v>1</v>
       </c>
     </row>
@@ -8057,10 +8057,13 @@
         <v>201</v>
       </c>
       <c r="B519" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C519">
         <v>0</v>
+      </c>
+      <c r="D519">
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -8068,10 +8071,10 @@
         <v>201</v>
       </c>
       <c r="B520" t="s">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="C520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -8079,7 +8082,7 @@
         <v>201</v>
       </c>
       <c r="B521" t="s">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="C521">
         <v>0</v>
@@ -8090,7 +8093,7 @@
         <v>201</v>
       </c>
       <c r="B522" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="C522">
         <v>0</v>
@@ -8101,7 +8104,7 @@
         <v>201</v>
       </c>
       <c r="B523" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="C523">
         <v>0</v>
@@ -8112,7 +8115,7 @@
         <v>201</v>
       </c>
       <c r="B524" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="C524">
         <v>0</v>
@@ -8123,7 +8126,7 @@
         <v>201</v>
       </c>
       <c r="B525" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C525">
         <v>0</v>
@@ -8134,7 +8137,7 @@
         <v>201</v>
       </c>
       <c r="B526" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="C526">
         <v>0</v>
@@ -8145,7 +8148,7 @@
         <v>201</v>
       </c>
       <c r="B527" t="s">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="C527">
         <v>0</v>
@@ -8156,7 +8159,7 @@
         <v>201</v>
       </c>
       <c r="B528" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C528">
         <v>0</v>
@@ -8167,7 +8170,7 @@
         <v>201</v>
       </c>
       <c r="B529" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="C529">
         <v>0</v>
@@ -8178,7 +8181,7 @@
         <v>201</v>
       </c>
       <c r="B530" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C530">
         <v>0</v>
@@ -8189,7 +8192,7 @@
         <v>201</v>
       </c>
       <c r="B531" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="C531">
         <v>0</v>
@@ -8200,13 +8203,10 @@
         <v>201</v>
       </c>
       <c r="B532" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="C532">
         <v>0</v>
-      </c>
-      <c r="D532">
-        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -8214,7 +8214,7 @@
         <v>201</v>
       </c>
       <c r="B533" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C533">
         <v>0</v>
@@ -8225,10 +8225,13 @@
         <v>201</v>
       </c>
       <c r="B534" t="s">
-        <v>90</v>
+        <v>204</v>
       </c>
       <c r="C534">
         <v>0</v>
+      </c>
+      <c r="D534">
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -8236,7 +8239,7 @@
         <v>201</v>
       </c>
       <c r="B535" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C535">
         <v>0</v>
@@ -8247,7 +8250,7 @@
         <v>201</v>
       </c>
       <c r="B536" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C536">
         <v>0</v>
@@ -8258,7 +8261,7 @@
         <v>201</v>
       </c>
       <c r="B537" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C537">
         <v>0</v>
@@ -8269,7 +8272,7 @@
         <v>201</v>
       </c>
       <c r="B538" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C538">
         <v>0</v>
@@ -8280,7 +8283,7 @@
         <v>201</v>
       </c>
       <c r="B539" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C539">
         <v>0</v>
@@ -8291,7 +8294,7 @@
         <v>201</v>
       </c>
       <c r="B540" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C540">
         <v>0</v>
@@ -8302,7 +8305,7 @@
         <v>201</v>
       </c>
       <c r="B541" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C541">
         <v>0</v>
@@ -8313,7 +8316,7 @@
         <v>201</v>
       </c>
       <c r="B542" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C542">
         <v>0</v>
@@ -8324,7 +8327,7 @@
         <v>201</v>
       </c>
       <c r="B543" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C543">
         <v>0</v>
@@ -8335,7 +8338,7 @@
         <v>201</v>
       </c>
       <c r="B544" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C544">
         <v>0</v>
@@ -8346,7 +8349,7 @@
         <v>201</v>
       </c>
       <c r="B545" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C545">
         <v>0</v>
@@ -8357,7 +8360,7 @@
         <v>201</v>
       </c>
       <c r="B546" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C546">
         <v>0</v>
@@ -8368,7 +8371,7 @@
         <v>201</v>
       </c>
       <c r="B547" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C547">
         <v>0</v>
@@ -8379,7 +8382,7 @@
         <v>201</v>
       </c>
       <c r="B548" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C548">
         <v>0</v>
@@ -8390,7 +8393,7 @@
         <v>201</v>
       </c>
       <c r="B549" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C549">
         <v>0</v>
@@ -8401,10 +8404,10 @@
         <v>201</v>
       </c>
       <c r="B550" t="s">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="C550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -8412,7 +8415,7 @@
         <v>201</v>
       </c>
       <c r="B551" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="C551">
         <v>0</v>
@@ -8423,10 +8426,10 @@
         <v>201</v>
       </c>
       <c r="B552" t="s">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="C552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -8434,7 +8437,7 @@
         <v>201</v>
       </c>
       <c r="B553" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="C553">
         <v>0</v>
@@ -8445,7 +8448,7 @@
         <v>201</v>
       </c>
       <c r="B554" t="s">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="C554">
         <v>0</v>
@@ -8456,7 +8459,7 @@
         <v>201</v>
       </c>
       <c r="B555" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C555">
         <v>0</v>
@@ -8467,7 +8470,7 @@
         <v>201</v>
       </c>
       <c r="B556" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C556">
         <v>0</v>
@@ -8478,7 +8481,7 @@
         <v>201</v>
       </c>
       <c r="B557" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="C557">
         <v>0</v>
@@ -8489,13 +8492,10 @@
         <v>201</v>
       </c>
       <c r="B558" t="s">
-        <v>388</v>
+        <v>158</v>
       </c>
       <c r="C558">
         <v>0</v>
-      </c>
-      <c r="D558">
-        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -8503,7 +8503,7 @@
         <v>201</v>
       </c>
       <c r="B559" t="s">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="C559">
         <v>0</v>
@@ -8514,9 +8514,12 @@
         <v>201</v>
       </c>
       <c r="B560" t="s">
-        <v>34</v>
+        <v>388</v>
       </c>
       <c r="C560">
+        <v>0</v>
+      </c>
+      <c r="D560">
         <v>1</v>
       </c>
     </row>
@@ -8525,7 +8528,7 @@
         <v>201</v>
       </c>
       <c r="B561" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="C561">
         <v>0</v>
@@ -8536,10 +8539,10 @@
         <v>201</v>
       </c>
       <c r="B562" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -8547,13 +8550,10 @@
         <v>201</v>
       </c>
       <c r="B563" t="s">
-        <v>364</v>
+        <v>116</v>
       </c>
       <c r="C563">
         <v>0</v>
-      </c>
-      <c r="D563">
-        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -8561,13 +8561,10 @@
         <v>201</v>
       </c>
       <c r="B564" t="s">
-        <v>365</v>
+        <v>117</v>
       </c>
       <c r="C564">
         <v>0</v>
-      </c>
-      <c r="D564">
-        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -8575,7 +8572,7 @@
         <v>201</v>
       </c>
       <c r="B565" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="C565">
         <v>0</v>
@@ -8589,7 +8586,7 @@
         <v>201</v>
       </c>
       <c r="B566" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="C566">
         <v>0</v>
@@ -8600,24 +8597,30 @@
     </row>
     <row r="567" spans="1:4">
       <c r="A567" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B567" t="s">
-        <v>5</v>
+        <v>386</v>
       </c>
       <c r="C567">
+        <v>0</v>
+      </c>
+      <c r="D567">
         <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:4">
       <c r="A568" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B568" t="s">
-        <v>6</v>
+        <v>387</v>
       </c>
       <c r="C568">
         <v>0</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -8625,12 +8628,9 @@
         <v>206</v>
       </c>
       <c r="B569" t="s">
-        <v>207</v>
+        <v>5</v>
       </c>
       <c r="C569">
-        <v>0</v>
-      </c>
-      <c r="D569">
         <v>1</v>
       </c>
     </row>
@@ -8639,13 +8639,10 @@
         <v>206</v>
       </c>
       <c r="B570" t="s">
-        <v>208</v>
+        <v>6</v>
       </c>
       <c r="C570">
         <v>0</v>
-      </c>
-      <c r="D570">
-        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -8653,7 +8650,7 @@
         <v>206</v>
       </c>
       <c r="B571" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="C571">
         <v>0</v>
@@ -8667,7 +8664,7 @@
         <v>206</v>
       </c>
       <c r="B572" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C572">
         <v>0</v>
@@ -8681,7 +8678,7 @@
         <v>206</v>
       </c>
       <c r="B573" t="s">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="C573">
         <v>0</v>
@@ -8695,7 +8692,7 @@
         <v>206</v>
       </c>
       <c r="B574" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="C574">
         <v>0</v>
@@ -8709,7 +8706,7 @@
         <v>206</v>
       </c>
       <c r="B575" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C575">
         <v>0</v>
@@ -8723,7 +8720,7 @@
         <v>206</v>
       </c>
       <c r="B576" t="s">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="C576">
         <v>0</v>
@@ -8737,10 +8734,13 @@
         <v>206</v>
       </c>
       <c r="B577" t="s">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="C577">
         <v>0</v>
+      </c>
+      <c r="D577">
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -8748,32 +8748,35 @@
         <v>206</v>
       </c>
       <c r="B578" t="s">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="C578">
+        <v>0</v>
+      </c>
+      <c r="D578">
         <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:4">
       <c r="A579" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B579" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:4">
       <c r="A580" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B580" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -8781,7 +8784,7 @@
         <v>213</v>
       </c>
       <c r="B581" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C581">
         <v>1</v>
@@ -8792,7 +8795,7 @@
         <v>213</v>
       </c>
       <c r="B582" t="s">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="C582">
         <v>0</v>
@@ -8803,12 +8806,9 @@
         <v>213</v>
       </c>
       <c r="B583" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C583">
-        <v>0</v>
-      </c>
-      <c r="D583">
         <v>1</v>
       </c>
     </row>
@@ -8817,13 +8817,10 @@
         <v>213</v>
       </c>
       <c r="B584" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C584">
         <v>0</v>
-      </c>
-      <c r="D584">
-        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -8831,7 +8828,7 @@
         <v>213</v>
       </c>
       <c r="B585" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
       <c r="C585">
         <v>0</v>
@@ -8845,7 +8842,7 @@
         <v>213</v>
       </c>
       <c r="B586" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C586">
         <v>0</v>
@@ -8859,10 +8856,13 @@
         <v>213</v>
       </c>
       <c r="B587" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C587">
         <v>0</v>
+      </c>
+      <c r="D587">
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -8870,7 +8870,7 @@
         <v>213</v>
       </c>
       <c r="B588" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="C588">
         <v>0</v>
@@ -8884,7 +8884,7 @@
         <v>213</v>
       </c>
       <c r="B589" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C589">
         <v>0</v>
@@ -8895,7 +8895,7 @@
         <v>213</v>
       </c>
       <c r="B590" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C590">
         <v>0</v>
@@ -8909,13 +8909,10 @@
         <v>213</v>
       </c>
       <c r="B591" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C591">
         <v>0</v>
-      </c>
-      <c r="D591">
-        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -8923,7 +8920,7 @@
         <v>213</v>
       </c>
       <c r="B592" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C592">
         <v>0</v>
@@ -8937,7 +8934,7 @@
         <v>213</v>
       </c>
       <c r="B593" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C593">
         <v>0</v>
@@ -8951,7 +8948,7 @@
         <v>213</v>
       </c>
       <c r="B594" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C594">
         <v>0</v>
@@ -8965,7 +8962,7 @@
         <v>213</v>
       </c>
       <c r="B595" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C595">
         <v>0</v>
@@ -8979,7 +8976,7 @@
         <v>213</v>
       </c>
       <c r="B596" t="s">
-        <v>388</v>
+        <v>222</v>
       </c>
       <c r="C596">
         <v>0</v>
@@ -8993,7 +8990,7 @@
         <v>213</v>
       </c>
       <c r="B597" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C597">
         <v>0</v>
@@ -9007,10 +9004,13 @@
         <v>213</v>
       </c>
       <c r="B598" t="s">
-        <v>226</v>
+        <v>388</v>
       </c>
       <c r="C598">
         <v>0</v>
+      </c>
+      <c r="D598">
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -9018,7 +9018,7 @@
         <v>213</v>
       </c>
       <c r="B599" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="C599">
         <v>0</v>
@@ -9032,13 +9032,10 @@
         <v>213</v>
       </c>
       <c r="B600" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C600">
         <v>0</v>
-      </c>
-      <c r="D600">
-        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -9046,7 +9043,7 @@
         <v>213</v>
       </c>
       <c r="B601" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="C601">
         <v>0</v>
@@ -9060,10 +9057,13 @@
         <v>213</v>
       </c>
       <c r="B602" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C602">
         <v>0</v>
+      </c>
+      <c r="D602">
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -9071,10 +9071,13 @@
         <v>213</v>
       </c>
       <c r="B603" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="C603">
         <v>0</v>
+      </c>
+      <c r="D603">
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -9082,13 +9085,10 @@
         <v>213</v>
       </c>
       <c r="B604" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C604">
         <v>0</v>
-      </c>
-      <c r="D604">
-        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -9096,13 +9096,10 @@
         <v>213</v>
       </c>
       <c r="B605" t="s">
-        <v>230</v>
+        <v>33</v>
       </c>
       <c r="C605">
         <v>0</v>
-      </c>
-      <c r="D605">
-        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -9110,10 +9107,13 @@
         <v>213</v>
       </c>
       <c r="B606" t="s">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="C606">
         <v>0</v>
+      </c>
+      <c r="D606">
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -9121,10 +9121,13 @@
         <v>213</v>
       </c>
       <c r="B607" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C607">
         <v>0</v>
+      </c>
+      <c r="D607">
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -9132,34 +9135,34 @@
         <v>213</v>
       </c>
       <c r="B608" t="s">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="C608">
         <v>0</v>
-      </c>
-      <c r="D608">
-        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:4">
       <c r="A609" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B609" t="s">
-        <v>5</v>
+        <v>231</v>
       </c>
       <c r="C609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:4">
       <c r="A610" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B610" t="s">
-        <v>25</v>
+        <v>232</v>
       </c>
       <c r="C610">
+        <v>0</v>
+      </c>
+      <c r="D610">
         <v>1</v>
       </c>
     </row>
@@ -9168,10 +9171,10 @@
         <v>233</v>
       </c>
       <c r="B611" t="s">
-        <v>178</v>
+        <v>5</v>
       </c>
       <c r="C611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -9179,7 +9182,7 @@
         <v>233</v>
       </c>
       <c r="B612" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="C612">
         <v>1</v>
@@ -9190,7 +9193,7 @@
         <v>233</v>
       </c>
       <c r="B613" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C613">
         <v>0</v>
@@ -9201,12 +9204,9 @@
         <v>233</v>
       </c>
       <c r="B614" t="s">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="C614">
-        <v>0</v>
-      </c>
-      <c r="D614">
         <v>1</v>
       </c>
     </row>
@@ -9215,13 +9215,10 @@
         <v>233</v>
       </c>
       <c r="B615" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C615">
         <v>0</v>
-      </c>
-      <c r="D615">
-        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -9229,7 +9226,7 @@
         <v>233</v>
       </c>
       <c r="B616" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C616">
         <v>0</v>
@@ -9243,7 +9240,7 @@
         <v>233</v>
       </c>
       <c r="B617" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C617">
         <v>0</v>
@@ -9257,7 +9254,7 @@
         <v>233</v>
       </c>
       <c r="B618" t="s">
-        <v>119</v>
+        <v>237</v>
       </c>
       <c r="C618">
         <v>0</v>
@@ -9271,7 +9268,7 @@
         <v>233</v>
       </c>
       <c r="B619" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C619">
         <v>0</v>
@@ -9285,7 +9282,7 @@
         <v>233</v>
       </c>
       <c r="B620" t="s">
-        <v>240</v>
+        <v>119</v>
       </c>
       <c r="C620">
         <v>0</v>
@@ -9299,7 +9296,7 @@
         <v>233</v>
       </c>
       <c r="B621" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C621">
         <v>0</v>
@@ -9313,7 +9310,7 @@
         <v>233</v>
       </c>
       <c r="B622" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C622">
         <v>0</v>
@@ -9327,7 +9324,7 @@
         <v>233</v>
       </c>
       <c r="B623" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C623">
         <v>0</v>
@@ -9341,7 +9338,7 @@
         <v>233</v>
       </c>
       <c r="B624" t="s">
-        <v>388</v>
+        <v>242</v>
       </c>
       <c r="C624">
         <v>0</v>
@@ -9355,7 +9352,7 @@
         <v>233</v>
       </c>
       <c r="B625" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C625">
         <v>0</v>
@@ -9369,7 +9366,7 @@
         <v>233</v>
       </c>
       <c r="B626" t="s">
-        <v>84</v>
+        <v>388</v>
       </c>
       <c r="C626">
         <v>0</v>
@@ -9383,7 +9380,7 @@
         <v>233</v>
       </c>
       <c r="B627" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="C627">
         <v>0</v>
@@ -9397,7 +9394,7 @@
         <v>233</v>
       </c>
       <c r="B628" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="C628">
         <v>0</v>
@@ -9411,10 +9408,13 @@
         <v>233</v>
       </c>
       <c r="B629" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="C629">
         <v>0</v>
+      </c>
+      <c r="D629">
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -9422,35 +9422,35 @@
         <v>233</v>
       </c>
       <c r="B630" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="C630">
         <v>0</v>
+      </c>
+      <c r="D630">
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:4">
       <c r="A631" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B631" t="s">
-        <v>388</v>
+        <v>191</v>
       </c>
       <c r="C631">
         <v>0</v>
-      </c>
-      <c r="D631">
-        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:4">
       <c r="A632" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B632" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -9458,9 +9458,12 @@
         <v>245</v>
       </c>
       <c r="B633" t="s">
-        <v>70</v>
+        <v>388</v>
       </c>
       <c r="C633">
+        <v>0</v>
+      </c>
+      <c r="D633">
         <v>1</v>
       </c>
     </row>
@@ -9469,10 +9472,10 @@
         <v>245</v>
       </c>
       <c r="B634" t="s">
-        <v>246</v>
+        <v>5</v>
       </c>
       <c r="C634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -9480,10 +9483,10 @@
         <v>245</v>
       </c>
       <c r="B635" t="s">
-        <v>247</v>
+        <v>70</v>
       </c>
       <c r="C635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -9491,7 +9494,7 @@
         <v>245</v>
       </c>
       <c r="B636" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C636">
         <v>0</v>
@@ -9502,7 +9505,7 @@
         <v>245</v>
       </c>
       <c r="B637" t="s">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c r="C637">
         <v>0</v>
@@ -9513,7 +9516,7 @@
         <v>245</v>
       </c>
       <c r="B638" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C638">
         <v>0</v>
@@ -9524,10 +9527,10 @@
         <v>245</v>
       </c>
       <c r="B639" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="C639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -9535,7 +9538,7 @@
         <v>245</v>
       </c>
       <c r="B640" t="s">
-        <v>115</v>
+        <v>249</v>
       </c>
       <c r="C640">
         <v>0</v>
@@ -9546,10 +9549,10 @@
         <v>245</v>
       </c>
       <c r="B641" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -9557,7 +9560,7 @@
         <v>245</v>
       </c>
       <c r="B642" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="C642">
         <v>0</v>
@@ -9568,7 +9571,7 @@
         <v>245</v>
       </c>
       <c r="B643" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C643">
         <v>0</v>
@@ -9579,7 +9582,7 @@
         <v>245</v>
       </c>
       <c r="B644" t="s">
-        <v>250</v>
+        <v>62</v>
       </c>
       <c r="C644">
         <v>0</v>
@@ -9590,13 +9593,10 @@
         <v>245</v>
       </c>
       <c r="B645" t="s">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="C645">
         <v>0</v>
-      </c>
-      <c r="D645">
-        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -9604,13 +9604,10 @@
         <v>245</v>
       </c>
       <c r="B646" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="C646">
         <v>0</v>
-      </c>
-      <c r="D646">
-        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:4">
@@ -9618,7 +9615,7 @@
         <v>245</v>
       </c>
       <c r="B647" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="C647">
         <v>0</v>
@@ -9632,7 +9629,7 @@
         <v>245</v>
       </c>
       <c r="B648" t="s">
-        <v>85</v>
+        <v>222</v>
       </c>
       <c r="C648">
         <v>0</v>
@@ -9646,10 +9643,13 @@
         <v>245</v>
       </c>
       <c r="B649" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C649">
         <v>0</v>
+      </c>
+      <c r="D649">
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -9657,10 +9657,13 @@
         <v>245</v>
       </c>
       <c r="B650" t="s">
-        <v>253</v>
+        <v>85</v>
       </c>
       <c r="C650">
         <v>0</v>
+      </c>
+      <c r="D650">
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -9668,7 +9671,7 @@
         <v>245</v>
       </c>
       <c r="B651" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C651">
         <v>0</v>
@@ -9679,13 +9682,10 @@
         <v>245</v>
       </c>
       <c r="B652" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C652">
         <v>0</v>
-      </c>
-      <c r="D652">
-        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -9693,13 +9693,10 @@
         <v>245</v>
       </c>
       <c r="B653" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C653">
         <v>0</v>
-      </c>
-      <c r="D653">
-        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -9707,10 +9704,13 @@
         <v>245</v>
       </c>
       <c r="B654" t="s">
-        <v>108</v>
+        <v>255</v>
       </c>
       <c r="C654">
         <v>0</v>
+      </c>
+      <c r="D654">
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -9718,10 +9718,13 @@
         <v>245</v>
       </c>
       <c r="B655" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C655">
         <v>0</v>
+      </c>
+      <c r="D655">
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -9729,7 +9732,7 @@
         <v>245</v>
       </c>
       <c r="B656" t="s">
-        <v>277</v>
+        <v>108</v>
       </c>
       <c r="C656">
         <v>0</v>
@@ -9740,7 +9743,7 @@
         <v>245</v>
       </c>
       <c r="B657" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C657">
         <v>0</v>
@@ -9751,52 +9754,52 @@
         <v>245</v>
       </c>
       <c r="B658" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="C658">
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A659" s="3" t="s">
+    <row r="659" spans="1:4">
+      <c r="A659" t="s">
         <v>245</v>
       </c>
-      <c r="B659" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C659" s="3">
-        <v>0</v>
-      </c>
-      <c r="D659" s="3"/>
-    </row>
-    <row r="660" spans="1:4" ht="15.75" thickTop="1">
+      <c r="B659" t="s">
+        <v>258</v>
+      </c>
+      <c r="C659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4">
       <c r="A660" t="s">
         <v>245</v>
       </c>
       <c r="B660" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C660">
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
-      <c r="A661" t="s">
+    <row r="661" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A661" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B661" t="s">
-        <v>261</v>
-      </c>
-      <c r="C661">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="662" spans="1:4">
+      <c r="B661" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C661" s="3">
+        <v>0</v>
+      </c>
+      <c r="D661" s="3"/>
+    </row>
+    <row r="662" spans="1:4" ht="15.75" thickTop="1">
       <c r="A662" t="s">
         <v>245</v>
       </c>
       <c r="B662" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C662">
         <v>0</v>
@@ -9807,7 +9810,7 @@
         <v>245</v>
       </c>
       <c r="B663" t="s">
-        <v>125</v>
+        <v>261</v>
       </c>
       <c r="C663">
         <v>0</v>
@@ -9818,7 +9821,7 @@
         <v>245</v>
       </c>
       <c r="B664" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C664">
         <v>0</v>
@@ -9829,7 +9832,7 @@
         <v>245</v>
       </c>
       <c r="B665" t="s">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="C665">
         <v>0</v>
@@ -9840,13 +9843,10 @@
         <v>245</v>
       </c>
       <c r="B666" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C666">
         <v>0</v>
-      </c>
-      <c r="D666">
-        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -9854,13 +9854,10 @@
         <v>245</v>
       </c>
       <c r="B667" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C667">
         <v>0</v>
-      </c>
-      <c r="D667">
-        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -9868,10 +9865,13 @@
         <v>245</v>
       </c>
       <c r="B668" t="s">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="C668">
         <v>0</v>
+      </c>
+      <c r="D668">
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -9879,10 +9879,13 @@
         <v>245</v>
       </c>
       <c r="B669" t="s">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="C669">
         <v>0</v>
+      </c>
+      <c r="D669">
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -9890,7 +9893,7 @@
         <v>245</v>
       </c>
       <c r="B670" t="s">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="C670">
         <v>0</v>
@@ -9901,13 +9904,10 @@
         <v>245</v>
       </c>
       <c r="B671" t="s">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="C671">
         <v>0</v>
-      </c>
-      <c r="D671">
-        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -9915,7 +9915,7 @@
         <v>245</v>
       </c>
       <c r="B672" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C672">
         <v>0</v>
@@ -9926,10 +9926,13 @@
         <v>245</v>
       </c>
       <c r="B673" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C673">
         <v>0</v>
+      </c>
+      <c r="D673">
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -9937,7 +9940,7 @@
         <v>245</v>
       </c>
       <c r="B674" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C674">
         <v>0</v>
@@ -9948,7 +9951,7 @@
         <v>245</v>
       </c>
       <c r="B675" t="s">
-        <v>123</v>
+        <v>270</v>
       </c>
       <c r="C675">
         <v>0</v>
@@ -9959,7 +9962,7 @@
         <v>245</v>
       </c>
       <c r="B676" t="s">
-        <v>124</v>
+        <v>271</v>
       </c>
       <c r="C676">
         <v>0</v>
@@ -9970,7 +9973,7 @@
         <v>245</v>
       </c>
       <c r="B677" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C677">
         <v>0</v>
@@ -9981,7 +9984,7 @@
         <v>245</v>
       </c>
       <c r="B678" t="s">
-        <v>272</v>
+        <v>124</v>
       </c>
       <c r="C678">
         <v>0</v>
@@ -9992,13 +9995,10 @@
         <v>245</v>
       </c>
       <c r="B679" t="s">
-        <v>273</v>
+        <v>118</v>
       </c>
       <c r="C679">
         <v>0</v>
-      </c>
-      <c r="D679">
-        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -10006,13 +10006,10 @@
         <v>245</v>
       </c>
       <c r="B680" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C680">
         <v>0</v>
-      </c>
-      <c r="D680">
-        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -10020,10 +10017,13 @@
         <v>245</v>
       </c>
       <c r="B681" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="C681">
         <v>0</v>
+      </c>
+      <c r="D681">
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -10031,40 +10031,43 @@
         <v>245</v>
       </c>
       <c r="B682" t="s">
-        <v>333</v>
+        <v>274</v>
       </c>
       <c r="C682">
         <v>0</v>
+      </c>
+      <c r="D682">
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:4">
       <c r="A683" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B683" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:4">
       <c r="A684" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B684" t="s">
-        <v>68</v>
+        <v>333</v>
       </c>
       <c r="C684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:4">
       <c r="A685" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B685" t="s">
-        <v>69</v>
+        <v>415</v>
       </c>
       <c r="C685">
         <v>0</v>
@@ -10075,10 +10078,10 @@
         <v>275</v>
       </c>
       <c r="B686" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -10086,10 +10089,10 @@
         <v>275</v>
       </c>
       <c r="B687" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -10097,7 +10100,7 @@
         <v>275</v>
       </c>
       <c r="B688" t="s">
-        <v>276</v>
+        <v>69</v>
       </c>
       <c r="C688">
         <v>0</v>
@@ -10108,7 +10111,7 @@
         <v>275</v>
       </c>
       <c r="B689" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C689">
         <v>0</v>
@@ -10119,7 +10122,7 @@
         <v>275</v>
       </c>
       <c r="B690" t="s">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="C690">
         <v>0</v>
@@ -10130,7 +10133,7 @@
         <v>275</v>
       </c>
       <c r="B691" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C691">
         <v>0</v>
@@ -10141,7 +10144,7 @@
         <v>275</v>
       </c>
       <c r="B692" t="s">
-        <v>258</v>
+        <v>108</v>
       </c>
       <c r="C692">
         <v>0</v>
@@ -10152,7 +10155,7 @@
         <v>275</v>
       </c>
       <c r="B693" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C693">
         <v>0</v>
@@ -10163,7 +10166,7 @@
         <v>275</v>
       </c>
       <c r="B694" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C694">
         <v>0</v>
@@ -10174,7 +10177,7 @@
         <v>275</v>
       </c>
       <c r="B695" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="C695">
         <v>0</v>
@@ -10185,7 +10188,7 @@
         <v>275</v>
       </c>
       <c r="B696" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C696">
         <v>0</v>
@@ -10196,7 +10199,7 @@
         <v>275</v>
       </c>
       <c r="B697" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C697">
         <v>0</v>
@@ -10207,7 +10210,7 @@
         <v>275</v>
       </c>
       <c r="B698" t="s">
-        <v>66</v>
+        <v>280</v>
       </c>
       <c r="C698">
         <v>0</v>
@@ -10218,7 +10221,7 @@
         <v>275</v>
       </c>
       <c r="B699" t="s">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="C699">
         <v>0</v>
@@ -10229,7 +10232,7 @@
         <v>275</v>
       </c>
       <c r="B700" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="C700">
         <v>0</v>
@@ -10240,7 +10243,7 @@
         <v>275</v>
       </c>
       <c r="B701" t="s">
-        <v>261</v>
+        <v>66</v>
       </c>
       <c r="C701">
         <v>0</v>
@@ -10251,7 +10254,7 @@
         <v>275</v>
       </c>
       <c r="B702" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="C702">
         <v>0</v>
@@ -10262,7 +10265,7 @@
         <v>275</v>
       </c>
       <c r="B703" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="C703">
         <v>0</v>
@@ -10273,7 +10276,7 @@
         <v>275</v>
       </c>
       <c r="B704" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="C704">
         <v>0</v>
@@ -10284,7 +10287,7 @@
         <v>275</v>
       </c>
       <c r="B705" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C705">
         <v>0</v>
@@ -10295,7 +10298,7 @@
         <v>275</v>
       </c>
       <c r="B706" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C706">
         <v>0</v>
@@ -10306,7 +10309,7 @@
         <v>275</v>
       </c>
       <c r="B707" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C707">
         <v>0</v>
@@ -10317,7 +10320,7 @@
         <v>275</v>
       </c>
       <c r="B708" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C708">
         <v>0</v>
@@ -10328,13 +10331,10 @@
         <v>275</v>
       </c>
       <c r="B709" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C709">
         <v>0</v>
-      </c>
-      <c r="D709">
-        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -10342,13 +10342,10 @@
         <v>275</v>
       </c>
       <c r="B710" t="s">
-        <v>388</v>
+        <v>287</v>
       </c>
       <c r="C710">
         <v>0</v>
-      </c>
-      <c r="D710">
-        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -10356,7 +10353,7 @@
         <v>275</v>
       </c>
       <c r="B711" t="s">
-        <v>125</v>
+        <v>288</v>
       </c>
       <c r="C711">
         <v>0</v>
@@ -10364,10 +10361,10 @@
     </row>
     <row r="712" spans="1:4">
       <c r="A712" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B712" t="s">
-        <v>388</v>
+        <v>289</v>
       </c>
       <c r="C712">
         <v>0</v>
@@ -10378,21 +10375,24 @@
     </row>
     <row r="713" spans="1:4">
       <c r="A713" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B713" t="s">
-        <v>5</v>
+        <v>388</v>
       </c>
       <c r="C713">
+        <v>0</v>
+      </c>
+      <c r="D713">
         <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:4">
       <c r="A714" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B714" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C714">
         <v>0</v>
@@ -10403,9 +10403,12 @@
         <v>290</v>
       </c>
       <c r="B715" t="s">
-        <v>70</v>
+        <v>388</v>
       </c>
       <c r="C715">
+        <v>0</v>
+      </c>
+      <c r="D715">
         <v>1</v>
       </c>
     </row>
@@ -10414,10 +10417,10 @@
         <v>290</v>
       </c>
       <c r="B716" t="s">
-        <v>247</v>
+        <v>5</v>
       </c>
       <c r="C716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -10425,13 +10428,10 @@
         <v>290</v>
       </c>
       <c r="B717" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C717">
         <v>0</v>
-      </c>
-      <c r="D717">
-        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -10439,12 +10439,9 @@
         <v>290</v>
       </c>
       <c r="B718" t="s">
-        <v>221</v>
+        <v>70</v>
       </c>
       <c r="C718">
-        <v>0</v>
-      </c>
-      <c r="D718">
         <v>1</v>
       </c>
     </row>
@@ -10453,7 +10450,7 @@
         <v>290</v>
       </c>
       <c r="B719" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C719">
         <v>0</v>
@@ -10464,9 +10461,12 @@
         <v>290</v>
       </c>
       <c r="B720" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="C720">
+        <v>0</v>
+      </c>
+      <c r="D720">
         <v>1</v>
       </c>
     </row>
@@ -10475,7 +10475,7 @@
         <v>290</v>
       </c>
       <c r="B721" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="C721">
         <v>0</v>
@@ -10489,13 +10489,10 @@
         <v>290</v>
       </c>
       <c r="B722" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="C722">
         <v>0</v>
-      </c>
-      <c r="D722">
-        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -10503,12 +10500,9 @@
         <v>290</v>
       </c>
       <c r="B723" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C723">
-        <v>0</v>
-      </c>
-      <c r="D723">
         <v>1</v>
       </c>
     </row>
@@ -10517,7 +10511,7 @@
         <v>290</v>
       </c>
       <c r="B724" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="C724">
         <v>0</v>
@@ -10531,7 +10525,7 @@
         <v>290</v>
       </c>
       <c r="B725" t="s">
-        <v>85</v>
+        <v>292</v>
       </c>
       <c r="C725">
         <v>0</v>
@@ -10545,10 +10539,13 @@
         <v>290</v>
       </c>
       <c r="B726" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C726">
         <v>0</v>
+      </c>
+      <c r="D726">
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -10556,10 +10553,13 @@
         <v>290</v>
       </c>
       <c r="B727" t="s">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="C727">
         <v>0</v>
+      </c>
+      <c r="D727">
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -10567,10 +10567,13 @@
         <v>290</v>
       </c>
       <c r="B728" t="s">
-        <v>293</v>
+        <v>85</v>
       </c>
       <c r="C728">
         <v>0</v>
+      </c>
+      <c r="D728">
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -10578,7 +10581,7 @@
         <v>290</v>
       </c>
       <c r="B729" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="C729">
         <v>0</v>
@@ -10589,7 +10592,7 @@
         <v>290</v>
       </c>
       <c r="B730" t="s">
-        <v>294</v>
+        <v>125</v>
       </c>
       <c r="C730">
         <v>0</v>
@@ -10600,7 +10603,7 @@
         <v>290</v>
       </c>
       <c r="B731" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C731">
         <v>0</v>
@@ -10611,7 +10614,7 @@
         <v>290</v>
       </c>
       <c r="B732" t="s">
-        <v>296</v>
+        <v>53</v>
       </c>
       <c r="C732">
         <v>0</v>
@@ -10622,13 +10625,10 @@
         <v>290</v>
       </c>
       <c r="B733" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C733">
         <v>0</v>
-      </c>
-      <c r="D733">
-        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -10636,13 +10636,10 @@
         <v>290</v>
       </c>
       <c r="B734" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C734">
         <v>0</v>
-      </c>
-      <c r="D734">
-        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -10650,13 +10647,10 @@
         <v>290</v>
       </c>
       <c r="B735" t="s">
-        <v>88</v>
+        <v>296</v>
       </c>
       <c r="C735">
         <v>0</v>
-      </c>
-      <c r="D735">
-        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -10664,7 +10658,7 @@
         <v>290</v>
       </c>
       <c r="B736" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C736">
         <v>0</v>
@@ -10678,10 +10672,13 @@
         <v>290</v>
       </c>
       <c r="B737" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="C737">
         <v>0</v>
+      </c>
+      <c r="D737">
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -10689,10 +10686,13 @@
         <v>290</v>
       </c>
       <c r="B738" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C738">
         <v>0</v>
+      </c>
+      <c r="D738">
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -10700,10 +10700,13 @@
         <v>290</v>
       </c>
       <c r="B739" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C739">
         <v>0</v>
+      </c>
+      <c r="D739">
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -10711,7 +10714,7 @@
         <v>290</v>
       </c>
       <c r="B740" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C740">
         <v>0</v>
@@ -10722,10 +10725,10 @@
         <v>290</v>
       </c>
       <c r="B741" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -10733,7 +10736,7 @@
         <v>290</v>
       </c>
       <c r="B742" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C742">
         <v>0</v>
@@ -10744,7 +10747,7 @@
         <v>290</v>
       </c>
       <c r="B743" t="s">
-        <v>302</v>
+        <v>68</v>
       </c>
       <c r="C743">
         <v>0</v>
@@ -10755,10 +10758,10 @@
         <v>290</v>
       </c>
       <c r="B744" t="s">
-        <v>253</v>
+        <v>69</v>
       </c>
       <c r="C744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -10766,13 +10769,10 @@
         <v>290</v>
       </c>
       <c r="B745" t="s">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="C745">
         <v>0</v>
-      </c>
-      <c r="D745">
-        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -10780,7 +10780,7 @@
         <v>290</v>
       </c>
       <c r="B746" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C746">
         <v>0</v>
@@ -10791,18 +10791,18 @@
         <v>290</v>
       </c>
       <c r="B747" t="s">
-        <v>330</v>
+        <v>253</v>
       </c>
       <c r="C747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:4">
       <c r="A748" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B748" t="s">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="C748">
         <v>0</v>
@@ -10813,21 +10813,21 @@
     </row>
     <row r="749" spans="1:4">
       <c r="A749" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B749" t="s">
-        <v>5</v>
+        <v>328</v>
       </c>
       <c r="C749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:4">
       <c r="A750" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B750" t="s">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="C750">
         <v>1</v>
@@ -10835,10 +10835,10 @@
     </row>
     <row r="751" spans="1:4">
       <c r="A751" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B751" t="s">
-        <v>68</v>
+        <v>415</v>
       </c>
       <c r="C751">
         <v>0</v>
@@ -10849,9 +10849,12 @@
         <v>303</v>
       </c>
       <c r="B752" t="s">
-        <v>69</v>
+        <v>388</v>
       </c>
       <c r="C752">
+        <v>0</v>
+      </c>
+      <c r="D752">
         <v>1</v>
       </c>
     </row>
@@ -10860,7 +10863,7 @@
         <v>303</v>
       </c>
       <c r="B753" t="s">
-        <v>304</v>
+        <v>5</v>
       </c>
       <c r="C753">
         <v>1</v>
@@ -10871,7 +10874,7 @@
         <v>303</v>
       </c>
       <c r="B754" t="s">
-        <v>305</v>
+        <v>70</v>
       </c>
       <c r="C754">
         <v>1</v>
@@ -10882,7 +10885,7 @@
         <v>303</v>
       </c>
       <c r="B755" t="s">
-        <v>306</v>
+        <v>68</v>
       </c>
       <c r="C755">
         <v>0</v>
@@ -10893,10 +10896,10 @@
         <v>303</v>
       </c>
       <c r="B756" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -10904,10 +10907,10 @@
         <v>303</v>
       </c>
       <c r="B757" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -10915,12 +10918,9 @@
         <v>303</v>
       </c>
       <c r="B758" t="s">
-        <v>54</v>
+        <v>305</v>
       </c>
       <c r="C758">
-        <v>0</v>
-      </c>
-      <c r="D758">
         <v>1</v>
       </c>
     </row>
@@ -10929,13 +10929,10 @@
         <v>303</v>
       </c>
       <c r="B759" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C759">
         <v>0</v>
-      </c>
-      <c r="D759">
-        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -10943,7 +10940,7 @@
         <v>303</v>
       </c>
       <c r="B760" t="s">
-        <v>309</v>
+        <v>49</v>
       </c>
       <c r="C760">
         <v>0</v>
@@ -10954,13 +10951,10 @@
         <v>303</v>
       </c>
       <c r="B761" t="s">
-        <v>217</v>
+        <v>307</v>
       </c>
       <c r="C761">
         <v>0</v>
-      </c>
-      <c r="D761">
-        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -10968,10 +10962,13 @@
         <v>303</v>
       </c>
       <c r="B762" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="C762">
         <v>0</v>
+      </c>
+      <c r="D762">
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -10979,7 +10976,7 @@
         <v>303</v>
       </c>
       <c r="B763" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C763">
         <v>0</v>
@@ -10993,13 +10990,10 @@
         <v>303</v>
       </c>
       <c r="B764" t="s">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="C764">
         <v>0</v>
-      </c>
-      <c r="D764">
-        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -11007,7 +11001,7 @@
         <v>303</v>
       </c>
       <c r="B765" t="s">
-        <v>311</v>
+        <v>217</v>
       </c>
       <c r="C765">
         <v>0</v>
@@ -11021,13 +11015,10 @@
         <v>303</v>
       </c>
       <c r="B766" t="s">
-        <v>312</v>
+        <v>111</v>
       </c>
       <c r="C766">
         <v>0</v>
-      </c>
-      <c r="D766">
-        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -11035,10 +11026,13 @@
         <v>303</v>
       </c>
       <c r="B767" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C767">
         <v>0</v>
+      </c>
+      <c r="D767">
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -11046,7 +11040,7 @@
         <v>303</v>
       </c>
       <c r="B768" t="s">
-        <v>298</v>
+        <v>18</v>
       </c>
       <c r="C768">
         <v>0</v>
@@ -11060,10 +11054,13 @@
         <v>303</v>
       </c>
       <c r="B769" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C769">
         <v>0</v>
+      </c>
+      <c r="D769">
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:4">
@@ -11071,10 +11068,13 @@
         <v>303</v>
       </c>
       <c r="B770" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C770">
         <v>0</v>
+      </c>
+      <c r="D770">
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -11082,7 +11082,7 @@
         <v>303</v>
       </c>
       <c r="B771" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C771">
         <v>0</v>
@@ -11093,10 +11093,13 @@
         <v>303</v>
       </c>
       <c r="B772" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="C772">
         <v>0</v>
+      </c>
+      <c r="D772">
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -11104,7 +11107,7 @@
         <v>303</v>
       </c>
       <c r="B773" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C773">
         <v>0</v>
@@ -11115,7 +11118,7 @@
         <v>303</v>
       </c>
       <c r="B774" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C774">
         <v>0</v>
@@ -11126,7 +11129,7 @@
         <v>303</v>
       </c>
       <c r="B775" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C775">
         <v>0</v>
@@ -11137,7 +11140,7 @@
         <v>303</v>
       </c>
       <c r="B776" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C776">
         <v>0</v>
@@ -11148,7 +11151,7 @@
         <v>303</v>
       </c>
       <c r="B777" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C777">
         <v>0</v>
@@ -11159,7 +11162,7 @@
         <v>303</v>
       </c>
       <c r="B778" t="s">
-        <v>50</v>
+        <v>319</v>
       </c>
       <c r="C778">
         <v>0</v>
@@ -11170,7 +11173,7 @@
         <v>303</v>
       </c>
       <c r="B779" t="s">
-        <v>51</v>
+        <v>320</v>
       </c>
       <c r="C779">
         <v>0</v>
@@ -11181,7 +11184,7 @@
         <v>303</v>
       </c>
       <c r="B780" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C780">
         <v>0</v>
@@ -11192,110 +11195,154 @@
         <v>303</v>
       </c>
       <c r="B781" t="s">
+        <v>322</v>
+      </c>
+      <c r="C781">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4">
+      <c r="A782" t="s">
+        <v>303</v>
+      </c>
+      <c r="B782" t="s">
+        <v>50</v>
+      </c>
+      <c r="C782">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4">
+      <c r="A783" t="s">
+        <v>303</v>
+      </c>
+      <c r="B783" t="s">
+        <v>51</v>
+      </c>
+      <c r="C783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4">
+      <c r="A784" t="s">
+        <v>303</v>
+      </c>
+      <c r="B784" t="s">
+        <v>323</v>
+      </c>
+      <c r="C784">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4">
+      <c r="A785" t="s">
+        <v>303</v>
+      </c>
+      <c r="B785" t="s">
         <v>324</v>
       </c>
-      <c r="C781">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="782" spans="1:4">
-      <c r="A782" s="1" t="s">
+      <c r="C785">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4">
+      <c r="A786" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B782" s="1" t="s">
+      <c r="B786" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C782" s="1">
-        <v>0</v>
-      </c>
-      <c r="D782" s="1"/>
-    </row>
-    <row r="783" spans="1:4">
-      <c r="A783" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B783" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C783" s="1">
-        <v>0</v>
-      </c>
-      <c r="D783" s="2"/>
-    </row>
-    <row r="784" spans="1:4">
-      <c r="A784" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B784" t="s">
-        <v>140</v>
-      </c>
-      <c r="C784" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="785" spans="1:3">
-      <c r="A785" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B785" t="s">
-        <v>405</v>
-      </c>
-      <c r="C785" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="786" spans="1:3">
-      <c r="A786" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B786" t="s">
-        <v>406</v>
-      </c>
       <c r="C786" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="787" spans="1:3">
+      <c r="D786" s="1"/>
+    </row>
+    <row r="787" spans="1:4">
       <c r="A787" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B787" t="s">
-        <v>5</v>
+      <c r="B787" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="C787" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="788" spans="1:3">
+      <c r="D787" s="2"/>
+    </row>
+    <row r="788" spans="1:4">
       <c r="A788" s="2" t="s">
         <v>404</v>
       </c>
       <c r="B788" t="s">
-        <v>407</v>
+        <v>140</v>
       </c>
       <c r="C788" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:3">
+    <row r="789" spans="1:4">
       <c r="A789" s="2" t="s">
         <v>404</v>
       </c>
       <c r="B789" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="C789" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:3">
+    <row r="790" spans="1:4">
       <c r="A790" s="2" t="s">
         <v>404</v>
       </c>
       <c r="B790" t="s">
+        <v>406</v>
+      </c>
+      <c r="C790" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4">
+      <c r="A791" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B791" t="s">
+        <v>5</v>
+      </c>
+      <c r="C791" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4">
+      <c r="A792" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B792" t="s">
+        <v>407</v>
+      </c>
+      <c r="C792" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4">
+      <c r="A793" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B793" t="s">
+        <v>388</v>
+      </c>
+      <c r="C793" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4">
+      <c r="A794" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B794" t="s">
         <v>9</v>
       </c>
-      <c r="C790" s="1">
+      <c r="C794" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="416">
   <si>
     <t>TABELA</t>
   </si>
@@ -1328,8 +1328,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D794" totalsRowShown="0">
-  <autoFilter ref="A1:D794">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D795" totalsRowShown="0">
+  <autoFilter ref="A1:D795">
     <filterColumn colId="0"/>
   </autoFilter>
   <sortState ref="A2:D734">
@@ -1630,11 +1630,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D794"/>
+  <dimension ref="A1:D795"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F511" sqref="F511"/>
+      <pane ySplit="1" topLeftCell="A596" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H578" sqref="H578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8781,12 +8781,15 @@
     </row>
     <row r="581" spans="1:4">
       <c r="A581" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B581" t="s">
-        <v>5</v>
+        <v>388</v>
       </c>
       <c r="C581">
+        <v>0</v>
+      </c>
+      <c r="D581">
         <v>1</v>
       </c>
     </row>
@@ -8795,10 +8798,10 @@
         <v>213</v>
       </c>
       <c r="B582" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -8806,10 +8809,10 @@
         <v>213</v>
       </c>
       <c r="B583" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -8817,10 +8820,10 @@
         <v>213</v>
       </c>
       <c r="B584" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="C584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -8828,13 +8831,10 @@
         <v>213</v>
       </c>
       <c r="B585" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="C585">
         <v>0</v>
-      </c>
-      <c r="D585">
-        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -8842,7 +8842,7 @@
         <v>213</v>
       </c>
       <c r="B586" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C586">
         <v>0</v>
@@ -8856,7 +8856,7 @@
         <v>213</v>
       </c>
       <c r="B587" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="C587">
         <v>0</v>
@@ -8870,7 +8870,7 @@
         <v>213</v>
       </c>
       <c r="B588" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="C588">
         <v>0</v>
@@ -8884,10 +8884,13 @@
         <v>213</v>
       </c>
       <c r="B589" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="C589">
         <v>0</v>
+      </c>
+      <c r="D589">
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -8895,13 +8898,10 @@
         <v>213</v>
       </c>
       <c r="B590" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C590">
         <v>0</v>
-      </c>
-      <c r="D590">
-        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -8909,10 +8909,13 @@
         <v>213</v>
       </c>
       <c r="B591" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C591">
         <v>0</v>
+      </c>
+      <c r="D591">
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -8920,13 +8923,10 @@
         <v>213</v>
       </c>
       <c r="B592" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C592">
         <v>0</v>
-      </c>
-      <c r="D592">
-        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -8934,7 +8934,7 @@
         <v>213</v>
       </c>
       <c r="B593" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C593">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>213</v>
       </c>
       <c r="B594" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C594">
         <v>0</v>
@@ -8962,7 +8962,7 @@
         <v>213</v>
       </c>
       <c r="B595" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C595">
         <v>0</v>
@@ -8976,7 +8976,7 @@
         <v>213</v>
       </c>
       <c r="B596" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C596">
         <v>0</v>
@@ -8990,7 +8990,7 @@
         <v>213</v>
       </c>
       <c r="B597" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C597">
         <v>0</v>
@@ -9004,7 +9004,7 @@
         <v>213</v>
       </c>
       <c r="B598" t="s">
-        <v>388</v>
+        <v>223</v>
       </c>
       <c r="C598">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>213</v>
       </c>
       <c r="B599" t="s">
-        <v>224</v>
+        <v>388</v>
       </c>
       <c r="C599">
         <v>0</v>
@@ -9032,10 +9032,13 @@
         <v>213</v>
       </c>
       <c r="B600" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C600">
         <v>0</v>
+      </c>
+      <c r="D600">
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -9043,13 +9046,10 @@
         <v>213</v>
       </c>
       <c r="B601" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="C601">
         <v>0</v>
-      </c>
-      <c r="D601">
-        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -9057,7 +9057,7 @@
         <v>213</v>
       </c>
       <c r="B602" t="s">
-        <v>227</v>
+        <v>84</v>
       </c>
       <c r="C602">
         <v>0</v>
@@ -9071,7 +9071,7 @@
         <v>213</v>
       </c>
       <c r="B603" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="C603">
         <v>0</v>
@@ -9085,10 +9085,13 @@
         <v>213</v>
       </c>
       <c r="B604" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="C604">
         <v>0</v>
+      </c>
+      <c r="D604">
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -9096,7 +9099,7 @@
         <v>213</v>
       </c>
       <c r="B605" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="C605">
         <v>0</v>
@@ -9107,13 +9110,10 @@
         <v>213</v>
       </c>
       <c r="B606" t="s">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="C606">
         <v>0</v>
-      </c>
-      <c r="D606">
-        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -9121,7 +9121,7 @@
         <v>213</v>
       </c>
       <c r="B607" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C607">
         <v>0</v>
@@ -9135,10 +9135,13 @@
         <v>213</v>
       </c>
       <c r="B608" t="s">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="C608">
         <v>0</v>
+      </c>
+      <c r="D608">
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -9146,7 +9149,7 @@
         <v>213</v>
       </c>
       <c r="B609" t="s">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="C609">
         <v>0</v>
@@ -9157,23 +9160,23 @@
         <v>213</v>
       </c>
       <c r="B610" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C610">
         <v>0</v>
-      </c>
-      <c r="D610">
-        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:4">
       <c r="A611" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B611" t="s">
-        <v>5</v>
+        <v>232</v>
       </c>
       <c r="C611">
+        <v>0</v>
+      </c>
+      <c r="D611">
         <v>1</v>
       </c>
     </row>
@@ -9182,7 +9185,7 @@
         <v>233</v>
       </c>
       <c r="B612" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C612">
         <v>1</v>
@@ -9193,10 +9196,10 @@
         <v>233</v>
       </c>
       <c r="B613" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="C613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -9204,10 +9207,10 @@
         <v>233</v>
       </c>
       <c r="B614" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="C614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -9215,10 +9218,10 @@
         <v>233</v>
       </c>
       <c r="B615" t="s">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="C615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -9226,13 +9229,10 @@
         <v>233</v>
       </c>
       <c r="B616" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C616">
         <v>0</v>
-      </c>
-      <c r="D616">
-        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -9240,7 +9240,7 @@
         <v>233</v>
       </c>
       <c r="B617" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C617">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>233</v>
       </c>
       <c r="B618" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C618">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>233</v>
       </c>
       <c r="B619" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C619">
         <v>0</v>
@@ -9282,7 +9282,7 @@
         <v>233</v>
       </c>
       <c r="B620" t="s">
-        <v>119</v>
+        <v>238</v>
       </c>
       <c r="C620">
         <v>0</v>
@@ -9296,7 +9296,7 @@
         <v>233</v>
       </c>
       <c r="B621" t="s">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="C621">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>233</v>
       </c>
       <c r="B622" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C622">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>233</v>
       </c>
       <c r="B623" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C623">
         <v>0</v>
@@ -9338,7 +9338,7 @@
         <v>233</v>
       </c>
       <c r="B624" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C624">
         <v>0</v>
@@ -9352,7 +9352,7 @@
         <v>233</v>
       </c>
       <c r="B625" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C625">
         <v>0</v>
@@ -9366,7 +9366,7 @@
         <v>233</v>
       </c>
       <c r="B626" t="s">
-        <v>388</v>
+        <v>243</v>
       </c>
       <c r="C626">
         <v>0</v>
@@ -9380,7 +9380,7 @@
         <v>233</v>
       </c>
       <c r="B627" t="s">
-        <v>244</v>
+        <v>388</v>
       </c>
       <c r="C627">
         <v>0</v>
@@ -9394,7 +9394,7 @@
         <v>233</v>
       </c>
       <c r="B628" t="s">
-        <v>84</v>
+        <v>244</v>
       </c>
       <c r="C628">
         <v>0</v>
@@ -9408,7 +9408,7 @@
         <v>233</v>
       </c>
       <c r="B629" t="s">
-        <v>227</v>
+        <v>84</v>
       </c>
       <c r="C629">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>233</v>
       </c>
       <c r="B630" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="C630">
         <v>0</v>
@@ -9436,10 +9436,13 @@
         <v>233</v>
       </c>
       <c r="B631" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C631">
         <v>0</v>
+      </c>
+      <c r="D631">
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -9447,7 +9450,7 @@
         <v>233</v>
       </c>
       <c r="B632" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="C632">
         <v>0</v>
@@ -9455,16 +9458,13 @@
     </row>
     <row r="633" spans="1:4">
       <c r="A633" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B633" t="s">
-        <v>388</v>
+        <v>62</v>
       </c>
       <c r="C633">
         <v>0</v>
-      </c>
-      <c r="D633">
-        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -9472,9 +9472,12 @@
         <v>245</v>
       </c>
       <c r="B634" t="s">
-        <v>5</v>
+        <v>388</v>
       </c>
       <c r="C634">
+        <v>0</v>
+      </c>
+      <c r="D634">
         <v>1</v>
       </c>
     </row>
@@ -9483,7 +9486,7 @@
         <v>245</v>
       </c>
       <c r="B635" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C635">
         <v>1</v>
@@ -9494,10 +9497,10 @@
         <v>245</v>
       </c>
       <c r="B636" t="s">
-        <v>246</v>
+        <v>70</v>
       </c>
       <c r="C636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -9505,7 +9508,7 @@
         <v>245</v>
       </c>
       <c r="B637" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C637">
         <v>0</v>
@@ -9516,7 +9519,7 @@
         <v>245</v>
       </c>
       <c r="B638" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C638">
         <v>0</v>
@@ -9527,7 +9530,7 @@
         <v>245</v>
       </c>
       <c r="B639" t="s">
-        <v>111</v>
+        <v>248</v>
       </c>
       <c r="C639">
         <v>0</v>
@@ -9538,7 +9541,7 @@
         <v>245</v>
       </c>
       <c r="B640" t="s">
-        <v>249</v>
+        <v>111</v>
       </c>
       <c r="C640">
         <v>0</v>
@@ -9549,10 +9552,10 @@
         <v>245</v>
       </c>
       <c r="B641" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="C641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -9560,10 +9563,10 @@
         <v>245</v>
       </c>
       <c r="B642" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="C642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -9571,7 +9574,7 @@
         <v>245</v>
       </c>
       <c r="B643" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C643">
         <v>0</v>
@@ -9582,7 +9585,7 @@
         <v>245</v>
       </c>
       <c r="B644" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="C644">
         <v>0</v>
@@ -9593,7 +9596,7 @@
         <v>245</v>
       </c>
       <c r="B645" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C645">
         <v>0</v>
@@ -9604,7 +9607,7 @@
         <v>245</v>
       </c>
       <c r="B646" t="s">
-        <v>250</v>
+        <v>63</v>
       </c>
       <c r="C646">
         <v>0</v>
@@ -9615,13 +9618,10 @@
         <v>245</v>
       </c>
       <c r="B647" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="C647">
         <v>0</v>
-      </c>
-      <c r="D647">
-        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -9629,7 +9629,7 @@
         <v>245</v>
       </c>
       <c r="B648" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C648">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>245</v>
       </c>
       <c r="B649" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C649">
         <v>0</v>
@@ -9657,7 +9657,7 @@
         <v>245</v>
       </c>
       <c r="B650" t="s">
-        <v>85</v>
+        <v>251</v>
       </c>
       <c r="C650">
         <v>0</v>
@@ -9671,10 +9671,13 @@
         <v>245</v>
       </c>
       <c r="B651" t="s">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="C651">
         <v>0</v>
+      </c>
+      <c r="D651">
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -9682,7 +9685,7 @@
         <v>245</v>
       </c>
       <c r="B652" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C652">
         <v>0</v>
@@ -9693,7 +9696,7 @@
         <v>245</v>
       </c>
       <c r="B653" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C653">
         <v>0</v>
@@ -9704,13 +9707,10 @@
         <v>245</v>
       </c>
       <c r="B654" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C654">
         <v>0</v>
-      </c>
-      <c r="D654">
-        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -9718,7 +9718,7 @@
         <v>245</v>
       </c>
       <c r="B655" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C655">
         <v>0</v>
@@ -9732,10 +9732,13 @@
         <v>245</v>
       </c>
       <c r="B656" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="C656">
         <v>0</v>
+      </c>
+      <c r="D656">
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:4">
@@ -9743,7 +9746,7 @@
         <v>245</v>
       </c>
       <c r="B657" t="s">
-        <v>257</v>
+        <v>108</v>
       </c>
       <c r="C657">
         <v>0</v>
@@ -9754,7 +9757,7 @@
         <v>245</v>
       </c>
       <c r="B658" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C658">
         <v>0</v>
@@ -9765,7 +9768,7 @@
         <v>245</v>
       </c>
       <c r="B659" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="C659">
         <v>0</v>
@@ -9776,41 +9779,41 @@
         <v>245</v>
       </c>
       <c r="B660" t="s">
+        <v>258</v>
+      </c>
+      <c r="C660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4">
+      <c r="A661" t="s">
+        <v>245</v>
+      </c>
+      <c r="B661" t="s">
         <v>259</v>
       </c>
-      <c r="C660">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="661" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A661" s="3" t="s">
+      <c r="C661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A662" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B661" s="3" t="s">
+      <c r="B662" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C661" s="3">
-        <v>0</v>
-      </c>
-      <c r="D661" s="3"/>
-    </row>
-    <row r="662" spans="1:4" ht="15.75" thickTop="1">
-      <c r="A662" t="s">
-        <v>245</v>
-      </c>
-      <c r="B662" t="s">
-        <v>260</v>
-      </c>
-      <c r="C662">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="663" spans="1:4">
+      <c r="C662" s="3">
+        <v>0</v>
+      </c>
+      <c r="D662" s="3"/>
+    </row>
+    <row r="663" spans="1:4" ht="15.75" thickTop="1">
       <c r="A663" t="s">
         <v>245</v>
       </c>
       <c r="B663" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C663">
         <v>0</v>
@@ -9821,7 +9824,7 @@
         <v>245</v>
       </c>
       <c r="B664" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C664">
         <v>0</v>
@@ -9832,7 +9835,7 @@
         <v>245</v>
       </c>
       <c r="B665" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="C665">
         <v>0</v>
@@ -9843,7 +9846,7 @@
         <v>245</v>
       </c>
       <c r="B666" t="s">
-        <v>263</v>
+        <v>125</v>
       </c>
       <c r="C666">
         <v>0</v>
@@ -9854,7 +9857,7 @@
         <v>245</v>
       </c>
       <c r="B667" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C667">
         <v>0</v>
@@ -9865,13 +9868,10 @@
         <v>245</v>
       </c>
       <c r="B668" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C668">
         <v>0</v>
-      </c>
-      <c r="D668">
-        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -9879,7 +9879,7 @@
         <v>245</v>
       </c>
       <c r="B669" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C669">
         <v>0</v>
@@ -9893,10 +9893,13 @@
         <v>245</v>
       </c>
       <c r="B670" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="C670">
         <v>0</v>
+      </c>
+      <c r="D670">
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -9904,7 +9907,7 @@
         <v>245</v>
       </c>
       <c r="B671" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C671">
         <v>0</v>
@@ -9915,7 +9918,7 @@
         <v>245</v>
       </c>
       <c r="B672" t="s">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="C672">
         <v>0</v>
@@ -9926,13 +9929,10 @@
         <v>245</v>
       </c>
       <c r="B673" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C673">
         <v>0</v>
-      </c>
-      <c r="D673">
-        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -9940,10 +9940,13 @@
         <v>245</v>
       </c>
       <c r="B674" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C674">
         <v>0</v>
+      </c>
+      <c r="D674">
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -9951,7 +9954,7 @@
         <v>245</v>
       </c>
       <c r="B675" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C675">
         <v>0</v>
@@ -9962,7 +9965,7 @@
         <v>245</v>
       </c>
       <c r="B676" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C676">
         <v>0</v>
@@ -9973,7 +9976,7 @@
         <v>245</v>
       </c>
       <c r="B677" t="s">
-        <v>123</v>
+        <v>271</v>
       </c>
       <c r="C677">
         <v>0</v>
@@ -9984,7 +9987,7 @@
         <v>245</v>
       </c>
       <c r="B678" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C678">
         <v>0</v>
@@ -9995,7 +9998,7 @@
         <v>245</v>
       </c>
       <c r="B679" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C679">
         <v>0</v>
@@ -10006,7 +10009,7 @@
         <v>245</v>
       </c>
       <c r="B680" t="s">
-        <v>272</v>
+        <v>118</v>
       </c>
       <c r="C680">
         <v>0</v>
@@ -10017,13 +10020,10 @@
         <v>245</v>
       </c>
       <c r="B681" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C681">
         <v>0</v>
-      </c>
-      <c r="D681">
-        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -10031,7 +10031,7 @@
         <v>245</v>
       </c>
       <c r="B682" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C682">
         <v>0</v>
@@ -10045,10 +10045,13 @@
         <v>245</v>
       </c>
       <c r="B683" t="s">
-        <v>33</v>
+        <v>274</v>
       </c>
       <c r="C683">
         <v>0</v>
+      </c>
+      <c r="D683">
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -10056,7 +10059,7 @@
         <v>245</v>
       </c>
       <c r="B684" t="s">
-        <v>333</v>
+        <v>33</v>
       </c>
       <c r="C684">
         <v>0</v>
@@ -10067,7 +10070,7 @@
         <v>245</v>
       </c>
       <c r="B685" t="s">
-        <v>415</v>
+        <v>333</v>
       </c>
       <c r="C685">
         <v>0</v>
@@ -10075,13 +10078,13 @@
     </row>
     <row r="686" spans="1:4">
       <c r="A686" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B686" t="s">
-        <v>5</v>
+        <v>415</v>
       </c>
       <c r="C686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -10089,7 +10092,7 @@
         <v>275</v>
       </c>
       <c r="B687" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C687">
         <v>1</v>
@@ -10100,10 +10103,10 @@
         <v>275</v>
       </c>
       <c r="B688" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -10111,7 +10114,7 @@
         <v>275</v>
       </c>
       <c r="B689" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C689">
         <v>0</v>
@@ -10122,7 +10125,7 @@
         <v>275</v>
       </c>
       <c r="B690" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C690">
         <v>0</v>
@@ -10133,7 +10136,7 @@
         <v>275</v>
       </c>
       <c r="B691" t="s">
-        <v>276</v>
+        <v>65</v>
       </c>
       <c r="C691">
         <v>0</v>
@@ -10144,7 +10147,7 @@
         <v>275</v>
       </c>
       <c r="B692" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="C692">
         <v>0</v>
@@ -10155,7 +10158,7 @@
         <v>275</v>
       </c>
       <c r="B693" t="s">
-        <v>257</v>
+        <v>108</v>
       </c>
       <c r="C693">
         <v>0</v>
@@ -10166,7 +10169,7 @@
         <v>275</v>
       </c>
       <c r="B694" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C694">
         <v>0</v>
@@ -10177,7 +10180,7 @@
         <v>275</v>
       </c>
       <c r="B695" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="C695">
         <v>0</v>
@@ -10188,7 +10191,7 @@
         <v>275</v>
       </c>
       <c r="B696" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="C696">
         <v>0</v>
@@ -10199,7 +10202,7 @@
         <v>275</v>
       </c>
       <c r="B697" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C697">
         <v>0</v>
@@ -10210,7 +10213,7 @@
         <v>275</v>
       </c>
       <c r="B698" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C698">
         <v>0</v>
@@ -10221,7 +10224,7 @@
         <v>275</v>
       </c>
       <c r="B699" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C699">
         <v>0</v>
@@ -10232,7 +10235,7 @@
         <v>275</v>
       </c>
       <c r="B700" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C700">
         <v>0</v>
@@ -10243,7 +10246,7 @@
         <v>275</v>
       </c>
       <c r="B701" t="s">
-        <v>66</v>
+        <v>282</v>
       </c>
       <c r="C701">
         <v>0</v>
@@ -10254,7 +10257,7 @@
         <v>275</v>
       </c>
       <c r="B702" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="C702">
         <v>0</v>
@@ -10265,7 +10268,7 @@
         <v>275</v>
       </c>
       <c r="B703" t="s">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c r="C703">
         <v>0</v>
@@ -10276,7 +10279,7 @@
         <v>275</v>
       </c>
       <c r="B704" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C704">
         <v>0</v>
@@ -10287,7 +10290,7 @@
         <v>275</v>
       </c>
       <c r="B705" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C705">
         <v>0</v>
@@ -10298,7 +10301,7 @@
         <v>275</v>
       </c>
       <c r="B706" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="C706">
         <v>0</v>
@@ -10309,7 +10312,7 @@
         <v>275</v>
       </c>
       <c r="B707" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C707">
         <v>0</v>
@@ -10320,7 +10323,7 @@
         <v>275</v>
       </c>
       <c r="B708" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C708">
         <v>0</v>
@@ -10331,7 +10334,7 @@
         <v>275</v>
       </c>
       <c r="B709" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C709">
         <v>0</v>
@@ -10342,7 +10345,7 @@
         <v>275</v>
       </c>
       <c r="B710" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C710">
         <v>0</v>
@@ -10353,7 +10356,7 @@
         <v>275</v>
       </c>
       <c r="B711" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C711">
         <v>0</v>
@@ -10364,13 +10367,10 @@
         <v>275</v>
       </c>
       <c r="B712" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C712">
         <v>0</v>
-      </c>
-      <c r="D712">
-        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -10378,7 +10378,7 @@
         <v>275</v>
       </c>
       <c r="B713" t="s">
-        <v>388</v>
+        <v>289</v>
       </c>
       <c r="C713">
         <v>0</v>
@@ -10392,24 +10392,24 @@
         <v>275</v>
       </c>
       <c r="B714" t="s">
-        <v>125</v>
+        <v>388</v>
       </c>
       <c r="C714">
         <v>0</v>
+      </c>
+      <c r="D714">
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:4">
       <c r="A715" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B715" t="s">
-        <v>388</v>
+        <v>125</v>
       </c>
       <c r="C715">
         <v>0</v>
-      </c>
-      <c r="D715">
-        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -10417,9 +10417,12 @@
         <v>290</v>
       </c>
       <c r="B716" t="s">
-        <v>5</v>
+        <v>388</v>
       </c>
       <c r="C716">
+        <v>0</v>
+      </c>
+      <c r="D716">
         <v>1</v>
       </c>
     </row>
@@ -10428,10 +10431,10 @@
         <v>290</v>
       </c>
       <c r="B717" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="C717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -10439,10 +10442,10 @@
         <v>290</v>
       </c>
       <c r="B718" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="C718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -10450,10 +10453,10 @@
         <v>290</v>
       </c>
       <c r="B719" t="s">
-        <v>247</v>
+        <v>70</v>
       </c>
       <c r="C719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -10461,13 +10464,10 @@
         <v>290</v>
       </c>
       <c r="B720" t="s">
-        <v>119</v>
+        <v>247</v>
       </c>
       <c r="C720">
         <v>0</v>
-      </c>
-      <c r="D720">
-        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -10475,7 +10475,7 @@
         <v>290</v>
       </c>
       <c r="B721" t="s">
-        <v>221</v>
+        <v>119</v>
       </c>
       <c r="C721">
         <v>0</v>
@@ -10489,10 +10489,13 @@
         <v>290</v>
       </c>
       <c r="B722" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="C722">
         <v>0</v>
+      </c>
+      <c r="D722">
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -10500,10 +10503,10 @@
         <v>290</v>
       </c>
       <c r="B723" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="C723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -10511,12 +10514,9 @@
         <v>290</v>
       </c>
       <c r="B724" t="s">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="C724">
-        <v>0</v>
-      </c>
-      <c r="D724">
         <v>1</v>
       </c>
     </row>
@@ -10525,7 +10525,7 @@
         <v>290</v>
       </c>
       <c r="B725" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C725">
         <v>0</v>
@@ -10539,7 +10539,7 @@
         <v>290</v>
       </c>
       <c r="B726" t="s">
-        <v>105</v>
+        <v>292</v>
       </c>
       <c r="C726">
         <v>0</v>
@@ -10553,7 +10553,7 @@
         <v>290</v>
       </c>
       <c r="B727" t="s">
-        <v>251</v>
+        <v>105</v>
       </c>
       <c r="C727">
         <v>0</v>
@@ -10567,7 +10567,7 @@
         <v>290</v>
       </c>
       <c r="B728" t="s">
-        <v>85</v>
+        <v>251</v>
       </c>
       <c r="C728">
         <v>0</v>
@@ -10581,10 +10581,13 @@
         <v>290</v>
       </c>
       <c r="B729" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C729">
         <v>0</v>
+      </c>
+      <c r="D729">
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -10592,7 +10595,7 @@
         <v>290</v>
       </c>
       <c r="B730" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C730">
         <v>0</v>
@@ -10603,7 +10606,7 @@
         <v>290</v>
       </c>
       <c r="B731" t="s">
-        <v>293</v>
+        <v>125</v>
       </c>
       <c r="C731">
         <v>0</v>
@@ -10614,7 +10617,7 @@
         <v>290</v>
       </c>
       <c r="B732" t="s">
-        <v>53</v>
+        <v>293</v>
       </c>
       <c r="C732">
         <v>0</v>
@@ -10625,7 +10628,7 @@
         <v>290</v>
       </c>
       <c r="B733" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="C733">
         <v>0</v>
@@ -10636,7 +10639,7 @@
         <v>290</v>
       </c>
       <c r="B734" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C734">
         <v>0</v>
@@ -10647,7 +10650,7 @@
         <v>290</v>
       </c>
       <c r="B735" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C735">
         <v>0</v>
@@ -10658,13 +10661,10 @@
         <v>290</v>
       </c>
       <c r="B736" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C736">
         <v>0</v>
-      </c>
-      <c r="D736">
-        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -10672,7 +10672,7 @@
         <v>290</v>
       </c>
       <c r="B737" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C737">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>290</v>
       </c>
       <c r="B738" t="s">
-        <v>88</v>
+        <v>298</v>
       </c>
       <c r="C738">
         <v>0</v>
@@ -10700,7 +10700,7 @@
         <v>290</v>
       </c>
       <c r="B739" t="s">
-        <v>299</v>
+        <v>88</v>
       </c>
       <c r="C739">
         <v>0</v>
@@ -10714,10 +10714,13 @@
         <v>290</v>
       </c>
       <c r="B740" t="s">
-        <v>6</v>
+        <v>299</v>
       </c>
       <c r="C740">
         <v>0</v>
+      </c>
+      <c r="D740">
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -10725,7 +10728,7 @@
         <v>290</v>
       </c>
       <c r="B741" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C741">
         <v>0</v>
@@ -10736,7 +10739,7 @@
         <v>290</v>
       </c>
       <c r="B742" t="s">
-        <v>300</v>
+        <v>33</v>
       </c>
       <c r="C742">
         <v>0</v>
@@ -10747,7 +10750,7 @@
         <v>290</v>
       </c>
       <c r="B743" t="s">
-        <v>68</v>
+        <v>300</v>
       </c>
       <c r="C743">
         <v>0</v>
@@ -10758,10 +10761,10 @@
         <v>290</v>
       </c>
       <c r="B744" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -10769,10 +10772,10 @@
         <v>290</v>
       </c>
       <c r="B745" t="s">
-        <v>301</v>
+        <v>69</v>
       </c>
       <c r="C745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -10780,7 +10783,7 @@
         <v>290</v>
       </c>
       <c r="B746" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C746">
         <v>0</v>
@@ -10791,7 +10794,7 @@
         <v>290</v>
       </c>
       <c r="B747" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="C747">
         <v>0</v>
@@ -10802,13 +10805,10 @@
         <v>290</v>
       </c>
       <c r="B748" t="s">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="C748">
         <v>0</v>
-      </c>
-      <c r="D748">
-        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -10816,10 +10816,13 @@
         <v>290</v>
       </c>
       <c r="B749" t="s">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="C749">
         <v>0</v>
+      </c>
+      <c r="D749">
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -10827,10 +10830,10 @@
         <v>290</v>
       </c>
       <c r="B750" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -10838,24 +10841,21 @@
         <v>290</v>
       </c>
       <c r="B751" t="s">
-        <v>415</v>
+        <v>330</v>
       </c>
       <c r="C751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:4">
       <c r="A752" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B752" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C752">
         <v>0</v>
-      </c>
-      <c r="D752">
-        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -10863,9 +10863,12 @@
         <v>303</v>
       </c>
       <c r="B753" t="s">
-        <v>5</v>
+        <v>388</v>
       </c>
       <c r="C753">
+        <v>0</v>
+      </c>
+      <c r="D753">
         <v>1</v>
       </c>
     </row>
@@ -10874,7 +10877,7 @@
         <v>303</v>
       </c>
       <c r="B754" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C754">
         <v>1</v>
@@ -10885,10 +10888,10 @@
         <v>303</v>
       </c>
       <c r="B755" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -10896,10 +10899,10 @@
         <v>303</v>
       </c>
       <c r="B756" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -10907,7 +10910,7 @@
         <v>303</v>
       </c>
       <c r="B757" t="s">
-        <v>304</v>
+        <v>69</v>
       </c>
       <c r="C757">
         <v>1</v>
@@ -10918,7 +10921,7 @@
         <v>303</v>
       </c>
       <c r="B758" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C758">
         <v>1</v>
@@ -10929,10 +10932,10 @@
         <v>303</v>
       </c>
       <c r="B759" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -10940,7 +10943,7 @@
         <v>303</v>
       </c>
       <c r="B760" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="C760">
         <v>0</v>
@@ -10951,7 +10954,7 @@
         <v>303</v>
       </c>
       <c r="B761" t="s">
-        <v>307</v>
+        <v>49</v>
       </c>
       <c r="C761">
         <v>0</v>
@@ -10962,13 +10965,10 @@
         <v>303</v>
       </c>
       <c r="B762" t="s">
-        <v>54</v>
+        <v>307</v>
       </c>
       <c r="C762">
         <v>0</v>
-      </c>
-      <c r="D762">
-        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -10976,7 +10976,7 @@
         <v>303</v>
       </c>
       <c r="B763" t="s">
-        <v>308</v>
+        <v>54</v>
       </c>
       <c r="C763">
         <v>0</v>
@@ -10990,10 +10990,13 @@
         <v>303</v>
       </c>
       <c r="B764" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C764">
         <v>0</v>
+      </c>
+      <c r="D764">
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -11001,13 +11004,10 @@
         <v>303</v>
       </c>
       <c r="B765" t="s">
-        <v>217</v>
+        <v>309</v>
       </c>
       <c r="C765">
         <v>0</v>
-      </c>
-      <c r="D765">
-        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -11015,10 +11015,13 @@
         <v>303</v>
       </c>
       <c r="B766" t="s">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="C766">
         <v>0</v>
+      </c>
+      <c r="D766">
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -11026,13 +11029,10 @@
         <v>303</v>
       </c>
       <c r="B767" t="s">
-        <v>310</v>
+        <v>111</v>
       </c>
       <c r="C767">
         <v>0</v>
-      </c>
-      <c r="D767">
-        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -11040,7 +11040,7 @@
         <v>303</v>
       </c>
       <c r="B768" t="s">
-        <v>18</v>
+        <v>310</v>
       </c>
       <c r="C768">
         <v>0</v>
@@ -11054,7 +11054,7 @@
         <v>303</v>
       </c>
       <c r="B769" t="s">
-        <v>311</v>
+        <v>18</v>
       </c>
       <c r="C769">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>303</v>
       </c>
       <c r="B770" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C770">
         <v>0</v>
@@ -11082,10 +11082,13 @@
         <v>303</v>
       </c>
       <c r="B771" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C771">
         <v>0</v>
+      </c>
+      <c r="D771">
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -11093,13 +11096,10 @@
         <v>303</v>
       </c>
       <c r="B772" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="C772">
         <v>0</v>
-      </c>
-      <c r="D772">
-        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -11107,10 +11107,13 @@
         <v>303</v>
       </c>
       <c r="B773" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="C773">
         <v>0</v>
+      </c>
+      <c r="D773">
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:4">
@@ -11118,7 +11121,7 @@
         <v>303</v>
       </c>
       <c r="B774" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C774">
         <v>0</v>
@@ -11129,7 +11132,7 @@
         <v>303</v>
       </c>
       <c r="B775" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C775">
         <v>0</v>
@@ -11140,7 +11143,7 @@
         <v>303</v>
       </c>
       <c r="B776" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C776">
         <v>0</v>
@@ -11151,7 +11154,7 @@
         <v>303</v>
       </c>
       <c r="B777" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C777">
         <v>0</v>
@@ -11162,7 +11165,7 @@
         <v>303</v>
       </c>
       <c r="B778" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C778">
         <v>0</v>
@@ -11173,7 +11176,7 @@
         <v>303</v>
       </c>
       <c r="B779" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C779">
         <v>0</v>
@@ -11184,7 +11187,7 @@
         <v>303</v>
       </c>
       <c r="B780" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C780">
         <v>0</v>
@@ -11195,7 +11198,7 @@
         <v>303</v>
       </c>
       <c r="B781" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C781">
         <v>0</v>
@@ -11206,7 +11209,7 @@
         <v>303</v>
       </c>
       <c r="B782" t="s">
-        <v>50</v>
+        <v>322</v>
       </c>
       <c r="C782">
         <v>0</v>
@@ -11217,7 +11220,7 @@
         <v>303</v>
       </c>
       <c r="B783" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C783">
         <v>0</v>
@@ -11228,7 +11231,7 @@
         <v>303</v>
       </c>
       <c r="B784" t="s">
-        <v>323</v>
+        <v>51</v>
       </c>
       <c r="C784">
         <v>0</v>
@@ -11239,53 +11242,53 @@
         <v>303</v>
       </c>
       <c r="B785" t="s">
+        <v>323</v>
+      </c>
+      <c r="C785">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4">
+      <c r="A786" t="s">
+        <v>303</v>
+      </c>
+      <c r="B786" t="s">
         <v>324</v>
       </c>
-      <c r="C785">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="786" spans="1:4">
-      <c r="A786" s="1" t="s">
+      <c r="C786">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4">
+      <c r="A787" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B786" s="1" t="s">
+      <c r="B787" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C786" s="1">
-        <v>0</v>
-      </c>
-      <c r="D786" s="1"/>
-    </row>
-    <row r="787" spans="1:4">
-      <c r="A787" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B787" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="C787" s="1">
         <v>0</v>
       </c>
-      <c r="D787" s="2"/>
+      <c r="D787" s="1"/>
     </row>
     <row r="788" spans="1:4">
       <c r="A788" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B788" t="s">
-        <v>140</v>
+      <c r="B788" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="C788" s="1">
         <v>0</v>
       </c>
+      <c r="D788" s="2"/>
     </row>
     <row r="789" spans="1:4">
       <c r="A789" s="2" t="s">
         <v>404</v>
       </c>
       <c r="B789" t="s">
-        <v>405</v>
+        <v>140</v>
       </c>
       <c r="C789" s="1">
         <v>0</v>
@@ -11296,7 +11299,7 @@
         <v>404</v>
       </c>
       <c r="B790" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C790" s="1">
         <v>0</v>
@@ -11307,7 +11310,7 @@
         <v>404</v>
       </c>
       <c r="B791" t="s">
-        <v>5</v>
+        <v>406</v>
       </c>
       <c r="C791" s="1">
         <v>0</v>
@@ -11318,7 +11321,7 @@
         <v>404</v>
       </c>
       <c r="B792" t="s">
-        <v>407</v>
+        <v>5</v>
       </c>
       <c r="C792" s="1">
         <v>0</v>
@@ -11329,7 +11332,7 @@
         <v>404</v>
       </c>
       <c r="B793" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="C793" s="1">
         <v>0</v>
@@ -11340,9 +11343,20 @@
         <v>404</v>
       </c>
       <c r="B794" t="s">
+        <v>388</v>
+      </c>
+      <c r="C794" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4">
+      <c r="A795" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B795" t="s">
         <v>9</v>
       </c>
-      <c r="C794" s="1">
+      <c r="C795" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="419">
   <si>
     <t>TABELA</t>
   </si>
@@ -1264,6 +1264,15 @@
   </si>
   <si>
     <t>CD_TIPO_ORDEM_VENDA</t>
+  </si>
+  <si>
+    <t>IN_CANCELADO</t>
+  </si>
+  <si>
+    <t>SQ_PEDIDO_CANCELADO</t>
+  </si>
+  <si>
+    <t>NR_ENTREGA_CANCELADO</t>
   </si>
 </sst>
 </file>
@@ -1328,8 +1337,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D795" totalsRowShown="0">
-  <autoFilter ref="A1:D795">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D799" totalsRowShown="0">
+  <autoFilter ref="A1:D799">
     <filterColumn colId="0"/>
   </autoFilter>
   <sortState ref="A2:D734">
@@ -1630,11 +1639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D795"/>
+  <dimension ref="A1:D799"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A596" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H578" sqref="H578"/>
+      <pane ySplit="1" topLeftCell="A620" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B634" sqref="B634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9455,6 +9464,9 @@
       <c r="C632">
         <v>0</v>
       </c>
+      <c r="D632">
+        <v>0</v>
+      </c>
     </row>
     <row r="633" spans="1:4">
       <c r="A633" t="s">
@@ -9466,6 +9478,9 @@
       <c r="C633">
         <v>0</v>
       </c>
+      <c r="D633">
+        <v>0</v>
+      </c>
     </row>
     <row r="634" spans="1:4">
       <c r="A634" t="s">
@@ -10089,197 +10104,206 @@
     </row>
     <row r="687" spans="1:4">
       <c r="A687" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B687" t="s">
-        <v>5</v>
+        <v>416</v>
       </c>
       <c r="C687">
+        <v>0</v>
+      </c>
+      <c r="D687">
         <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:4">
       <c r="A688" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B688" t="s">
-        <v>68</v>
+        <v>417</v>
       </c>
       <c r="C688">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="689" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4">
       <c r="A689" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B689" t="s">
-        <v>69</v>
+        <v>418</v>
       </c>
       <c r="C689">
         <v>0</v>
       </c>
-    </row>
-    <row r="690" spans="1:3">
+      <c r="D689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4">
       <c r="A690" t="s">
         <v>275</v>
       </c>
       <c r="B690" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C690">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="691" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4">
       <c r="A691" t="s">
         <v>275</v>
       </c>
       <c r="B691" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C691">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="692" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4">
       <c r="A692" t="s">
         <v>275</v>
       </c>
       <c r="B692" t="s">
-        <v>276</v>
+        <v>69</v>
       </c>
       <c r="C692">
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:3">
+    <row r="693" spans="1:4">
       <c r="A693" t="s">
         <v>275</v>
       </c>
       <c r="B693" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C693">
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:3">
+    <row r="694" spans="1:4">
       <c r="A694" t="s">
         <v>275</v>
       </c>
       <c r="B694" t="s">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="C694">
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:3">
+    <row r="695" spans="1:4">
       <c r="A695" t="s">
         <v>275</v>
       </c>
       <c r="B695" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C695">
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:3">
+    <row r="696" spans="1:4">
       <c r="A696" t="s">
         <v>275</v>
       </c>
       <c r="B696" t="s">
-        <v>258</v>
+        <v>108</v>
       </c>
       <c r="C696">
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:3">
+    <row r="697" spans="1:4">
       <c r="A697" t="s">
         <v>275</v>
       </c>
       <c r="B697" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C697">
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:3">
+    <row r="698" spans="1:4">
       <c r="A698" t="s">
         <v>275</v>
       </c>
       <c r="B698" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C698">
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:3">
+    <row r="699" spans="1:4">
       <c r="A699" t="s">
         <v>275</v>
       </c>
       <c r="B699" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="C699">
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:3">
+    <row r="700" spans="1:4">
       <c r="A700" t="s">
         <v>275</v>
       </c>
       <c r="B700" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C700">
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:3">
+    <row r="701" spans="1:4">
       <c r="A701" t="s">
         <v>275</v>
       </c>
       <c r="B701" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C701">
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:3">
+    <row r="702" spans="1:4">
       <c r="A702" t="s">
         <v>275</v>
       </c>
       <c r="B702" t="s">
-        <v>66</v>
+        <v>280</v>
       </c>
       <c r="C702">
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:3">
+    <row r="703" spans="1:4">
       <c r="A703" t="s">
         <v>275</v>
       </c>
       <c r="B703" t="s">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="C703">
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:3">
+    <row r="704" spans="1:4">
       <c r="A704" t="s">
         <v>275</v>
       </c>
       <c r="B704" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="C704">
         <v>0</v>
@@ -10290,7 +10314,7 @@
         <v>275</v>
       </c>
       <c r="B705" t="s">
-        <v>261</v>
+        <v>66</v>
       </c>
       <c r="C705">
         <v>0</v>
@@ -10301,7 +10325,7 @@
         <v>275</v>
       </c>
       <c r="B706" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="C706">
         <v>0</v>
@@ -10312,7 +10336,7 @@
         <v>275</v>
       </c>
       <c r="B707" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="C707">
         <v>0</v>
@@ -10323,7 +10347,7 @@
         <v>275</v>
       </c>
       <c r="B708" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="C708">
         <v>0</v>
@@ -10334,7 +10358,7 @@
         <v>275</v>
       </c>
       <c r="B709" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C709">
         <v>0</v>
@@ -10345,7 +10369,7 @@
         <v>275</v>
       </c>
       <c r="B710" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C710">
         <v>0</v>
@@ -10356,7 +10380,7 @@
         <v>275</v>
       </c>
       <c r="B711" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C711">
         <v>0</v>
@@ -10367,7 +10391,7 @@
         <v>275</v>
       </c>
       <c r="B712" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C712">
         <v>0</v>
@@ -10378,13 +10402,10 @@
         <v>275</v>
       </c>
       <c r="B713" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C713">
         <v>0</v>
-      </c>
-      <c r="D713">
-        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -10392,13 +10413,10 @@
         <v>275</v>
       </c>
       <c r="B714" t="s">
-        <v>388</v>
+        <v>287</v>
       </c>
       <c r="C714">
         <v>0</v>
-      </c>
-      <c r="D714">
-        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -10406,7 +10424,7 @@
         <v>275</v>
       </c>
       <c r="B715" t="s">
-        <v>125</v>
+        <v>288</v>
       </c>
       <c r="C715">
         <v>0</v>
@@ -10414,10 +10432,10 @@
     </row>
     <row r="716" spans="1:4">
       <c r="A716" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B716" t="s">
-        <v>388</v>
+        <v>289</v>
       </c>
       <c r="C716">
         <v>0</v>
@@ -10428,21 +10446,24 @@
     </row>
     <row r="717" spans="1:4">
       <c r="A717" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B717" t="s">
-        <v>5</v>
+        <v>388</v>
       </c>
       <c r="C717">
+        <v>0</v>
+      </c>
+      <c r="D717">
         <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:4">
       <c r="A718" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B718" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C718">
         <v>0</v>
@@ -10453,9 +10474,12 @@
         <v>290</v>
       </c>
       <c r="B719" t="s">
-        <v>70</v>
+        <v>388</v>
       </c>
       <c r="C719">
+        <v>0</v>
+      </c>
+      <c r="D719">
         <v>1</v>
       </c>
     </row>
@@ -10464,10 +10488,10 @@
         <v>290</v>
       </c>
       <c r="B720" t="s">
-        <v>247</v>
+        <v>5</v>
       </c>
       <c r="C720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -10475,13 +10499,10 @@
         <v>290</v>
       </c>
       <c r="B721" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C721">
         <v>0</v>
-      </c>
-      <c r="D721">
-        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -10489,12 +10510,9 @@
         <v>290</v>
       </c>
       <c r="B722" t="s">
-        <v>221</v>
+        <v>70</v>
       </c>
       <c r="C722">
-        <v>0</v>
-      </c>
-      <c r="D722">
         <v>1</v>
       </c>
     </row>
@@ -10503,7 +10521,7 @@
         <v>290</v>
       </c>
       <c r="B723" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C723">
         <v>0</v>
@@ -10514,9 +10532,12 @@
         <v>290</v>
       </c>
       <c r="B724" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="C724">
+        <v>0</v>
+      </c>
+      <c r="D724">
         <v>1</v>
       </c>
     </row>
@@ -10525,7 +10546,7 @@
         <v>290</v>
       </c>
       <c r="B725" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="C725">
         <v>0</v>
@@ -10539,13 +10560,10 @@
         <v>290</v>
       </c>
       <c r="B726" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="C726">
         <v>0</v>
-      </c>
-      <c r="D726">
-        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -10553,12 +10571,9 @@
         <v>290</v>
       </c>
       <c r="B727" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C727">
-        <v>0</v>
-      </c>
-      <c r="D727">
         <v>1</v>
       </c>
     </row>
@@ -10567,7 +10582,7 @@
         <v>290</v>
       </c>
       <c r="B728" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="C728">
         <v>0</v>
@@ -10581,7 +10596,7 @@
         <v>290</v>
       </c>
       <c r="B729" t="s">
-        <v>85</v>
+        <v>292</v>
       </c>
       <c r="C729">
         <v>0</v>
@@ -10595,10 +10610,13 @@
         <v>290</v>
       </c>
       <c r="B730" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C730">
         <v>0</v>
+      </c>
+      <c r="D730">
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -10606,10 +10624,13 @@
         <v>290</v>
       </c>
       <c r="B731" t="s">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="C731">
         <v>0</v>
+      </c>
+      <c r="D731">
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -10617,10 +10638,13 @@
         <v>290</v>
       </c>
       <c r="B732" t="s">
-        <v>293</v>
+        <v>85</v>
       </c>
       <c r="C732">
         <v>0</v>
+      </c>
+      <c r="D732">
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -10628,7 +10652,7 @@
         <v>290</v>
       </c>
       <c r="B733" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="C733">
         <v>0</v>
@@ -10639,7 +10663,7 @@
         <v>290</v>
       </c>
       <c r="B734" t="s">
-        <v>294</v>
+        <v>125</v>
       </c>
       <c r="C734">
         <v>0</v>
@@ -10650,7 +10674,7 @@
         <v>290</v>
       </c>
       <c r="B735" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C735">
         <v>0</v>
@@ -10661,7 +10685,7 @@
         <v>290</v>
       </c>
       <c r="B736" t="s">
-        <v>296</v>
+        <v>53</v>
       </c>
       <c r="C736">
         <v>0</v>
@@ -10672,13 +10696,10 @@
         <v>290</v>
       </c>
       <c r="B737" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C737">
         <v>0</v>
-      </c>
-      <c r="D737">
-        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -10686,13 +10707,10 @@
         <v>290</v>
       </c>
       <c r="B738" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C738">
         <v>0</v>
-      </c>
-      <c r="D738">
-        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -10700,13 +10718,10 @@
         <v>290</v>
       </c>
       <c r="B739" t="s">
-        <v>88</v>
+        <v>296</v>
       </c>
       <c r="C739">
         <v>0</v>
-      </c>
-      <c r="D739">
-        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -10714,7 +10729,7 @@
         <v>290</v>
       </c>
       <c r="B740" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C740">
         <v>0</v>
@@ -10728,10 +10743,13 @@
         <v>290</v>
       </c>
       <c r="B741" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="C741">
         <v>0</v>
+      </c>
+      <c r="D741">
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -10739,10 +10757,13 @@
         <v>290</v>
       </c>
       <c r="B742" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C742">
         <v>0</v>
+      </c>
+      <c r="D742">
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -10750,10 +10771,13 @@
         <v>290</v>
       </c>
       <c r="B743" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C743">
         <v>0</v>
+      </c>
+      <c r="D743">
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -10761,7 +10785,7 @@
         <v>290</v>
       </c>
       <c r="B744" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C744">
         <v>0</v>
@@ -10772,10 +10796,10 @@
         <v>290</v>
       </c>
       <c r="B745" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -10783,7 +10807,7 @@
         <v>290</v>
       </c>
       <c r="B746" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C746">
         <v>0</v>
@@ -10794,7 +10818,7 @@
         <v>290</v>
       </c>
       <c r="B747" t="s">
-        <v>302</v>
+        <v>68</v>
       </c>
       <c r="C747">
         <v>0</v>
@@ -10805,10 +10829,10 @@
         <v>290</v>
       </c>
       <c r="B748" t="s">
-        <v>253</v>
+        <v>69</v>
       </c>
       <c r="C748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -10816,13 +10840,10 @@
         <v>290</v>
       </c>
       <c r="B749" t="s">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="C749">
         <v>0</v>
-      </c>
-      <c r="D749">
-        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -10830,7 +10851,7 @@
         <v>290</v>
       </c>
       <c r="B750" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C750">
         <v>0</v>
@@ -10841,10 +10862,10 @@
         <v>290</v>
       </c>
       <c r="B751" t="s">
-        <v>330</v>
+        <v>253</v>
       </c>
       <c r="C751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -10852,32 +10873,32 @@
         <v>290</v>
       </c>
       <c r="B752" t="s">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="C752">
         <v>0</v>
+      </c>
+      <c r="D752">
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:4">
       <c r="A753" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B753" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="C753">
         <v>0</v>
-      </c>
-      <c r="D753">
-        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:4">
       <c r="A754" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B754" t="s">
-        <v>5</v>
+        <v>330</v>
       </c>
       <c r="C754">
         <v>1</v>
@@ -10885,24 +10906,27 @@
     </row>
     <row r="755" spans="1:4">
       <c r="A755" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B755" t="s">
-        <v>70</v>
+        <v>415</v>
       </c>
       <c r="C755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:4">
       <c r="A756" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B756" t="s">
-        <v>68</v>
+        <v>416</v>
       </c>
       <c r="C756">
         <v>0</v>
+      </c>
+      <c r="D756">
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -10910,9 +10934,12 @@
         <v>303</v>
       </c>
       <c r="B757" t="s">
-        <v>69</v>
+        <v>388</v>
       </c>
       <c r="C757">
+        <v>0</v>
+      </c>
+      <c r="D757">
         <v>1</v>
       </c>
     </row>
@@ -10921,7 +10948,7 @@
         <v>303</v>
       </c>
       <c r="B758" t="s">
-        <v>304</v>
+        <v>5</v>
       </c>
       <c r="C758">
         <v>1</v>
@@ -10932,7 +10959,7 @@
         <v>303</v>
       </c>
       <c r="B759" t="s">
-        <v>305</v>
+        <v>70</v>
       </c>
       <c r="C759">
         <v>1</v>
@@ -10943,7 +10970,7 @@
         <v>303</v>
       </c>
       <c r="B760" t="s">
-        <v>306</v>
+        <v>68</v>
       </c>
       <c r="C760">
         <v>0</v>
@@ -10954,10 +10981,10 @@
         <v>303</v>
       </c>
       <c r="B761" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -10965,10 +10992,10 @@
         <v>303</v>
       </c>
       <c r="B762" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -10976,12 +11003,9 @@
         <v>303</v>
       </c>
       <c r="B763" t="s">
-        <v>54</v>
+        <v>305</v>
       </c>
       <c r="C763">
-        <v>0</v>
-      </c>
-      <c r="D763">
         <v>1</v>
       </c>
     </row>
@@ -10990,13 +11014,10 @@
         <v>303</v>
       </c>
       <c r="B764" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C764">
         <v>0</v>
-      </c>
-      <c r="D764">
-        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -11004,7 +11025,7 @@
         <v>303</v>
       </c>
       <c r="B765" t="s">
-        <v>309</v>
+        <v>49</v>
       </c>
       <c r="C765">
         <v>0</v>
@@ -11015,13 +11036,10 @@
         <v>303</v>
       </c>
       <c r="B766" t="s">
-        <v>217</v>
+        <v>307</v>
       </c>
       <c r="C766">
         <v>0</v>
-      </c>
-      <c r="D766">
-        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -11029,10 +11047,13 @@
         <v>303</v>
       </c>
       <c r="B767" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="C767">
         <v>0</v>
+      </c>
+      <c r="D767">
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -11040,7 +11061,7 @@
         <v>303</v>
       </c>
       <c r="B768" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C768">
         <v>0</v>
@@ -11054,13 +11075,10 @@
         <v>303</v>
       </c>
       <c r="B769" t="s">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="C769">
         <v>0</v>
-      </c>
-      <c r="D769">
-        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:4">
@@ -11068,7 +11086,7 @@
         <v>303</v>
       </c>
       <c r="B770" t="s">
-        <v>311</v>
+        <v>217</v>
       </c>
       <c r="C770">
         <v>0</v>
@@ -11082,13 +11100,10 @@
         <v>303</v>
       </c>
       <c r="B771" t="s">
-        <v>312</v>
+        <v>111</v>
       </c>
       <c r="C771">
         <v>0</v>
-      </c>
-      <c r="D771">
-        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -11096,10 +11111,13 @@
         <v>303</v>
       </c>
       <c r="B772" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C772">
         <v>0</v>
+      </c>
+      <c r="D772">
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -11107,7 +11125,7 @@
         <v>303</v>
       </c>
       <c r="B773" t="s">
-        <v>298</v>
+        <v>18</v>
       </c>
       <c r="C773">
         <v>0</v>
@@ -11121,10 +11139,13 @@
         <v>303</v>
       </c>
       <c r="B774" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C774">
         <v>0</v>
+      </c>
+      <c r="D774">
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -11132,10 +11153,13 @@
         <v>303</v>
       </c>
       <c r="B775" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C775">
         <v>0</v>
+      </c>
+      <c r="D775">
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -11143,7 +11167,7 @@
         <v>303</v>
       </c>
       <c r="B776" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C776">
         <v>0</v>
@@ -11154,10 +11178,13 @@
         <v>303</v>
       </c>
       <c r="B777" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="C777">
         <v>0</v>
+      </c>
+      <c r="D777">
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:4">
@@ -11165,7 +11192,7 @@
         <v>303</v>
       </c>
       <c r="B778" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C778">
         <v>0</v>
@@ -11176,7 +11203,7 @@
         <v>303</v>
       </c>
       <c r="B779" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C779">
         <v>0</v>
@@ -11187,7 +11214,7 @@
         <v>303</v>
       </c>
       <c r="B780" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C780">
         <v>0</v>
@@ -11198,7 +11225,7 @@
         <v>303</v>
       </c>
       <c r="B781" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C781">
         <v>0</v>
@@ -11209,7 +11236,7 @@
         <v>303</v>
       </c>
       <c r="B782" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C782">
         <v>0</v>
@@ -11220,7 +11247,7 @@
         <v>303</v>
       </c>
       <c r="B783" t="s">
-        <v>50</v>
+        <v>319</v>
       </c>
       <c r="C783">
         <v>0</v>
@@ -11231,7 +11258,7 @@
         <v>303</v>
       </c>
       <c r="B784" t="s">
-        <v>51</v>
+        <v>320</v>
       </c>
       <c r="C784">
         <v>0</v>
@@ -11242,7 +11269,7 @@
         <v>303</v>
       </c>
       <c r="B785" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C785">
         <v>0</v>
@@ -11253,86 +11280,86 @@
         <v>303</v>
       </c>
       <c r="B786" t="s">
+        <v>322</v>
+      </c>
+      <c r="C786">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4">
+      <c r="A787" t="s">
+        <v>303</v>
+      </c>
+      <c r="B787" t="s">
+        <v>50</v>
+      </c>
+      <c r="C787">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4">
+      <c r="A788" t="s">
+        <v>303</v>
+      </c>
+      <c r="B788" t="s">
+        <v>51</v>
+      </c>
+      <c r="C788">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4">
+      <c r="A789" t="s">
+        <v>303</v>
+      </c>
+      <c r="B789" t="s">
+        <v>323</v>
+      </c>
+      <c r="C789">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4">
+      <c r="A790" t="s">
+        <v>303</v>
+      </c>
+      <c r="B790" t="s">
         <v>324</v>
       </c>
-      <c r="C786">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="787" spans="1:4">
-      <c r="A787" s="1" t="s">
+      <c r="C790">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4">
+      <c r="A791" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B787" s="1" t="s">
+      <c r="B791" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C787" s="1">
-        <v>0</v>
-      </c>
-      <c r="D787" s="1"/>
-    </row>
-    <row r="788" spans="1:4">
-      <c r="A788" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B788" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C788" s="1">
-        <v>0</v>
-      </c>
-      <c r="D788" s="2"/>
-    </row>
-    <row r="789" spans="1:4">
-      <c r="A789" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B789" t="s">
-        <v>140</v>
-      </c>
-      <c r="C789" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="790" spans="1:4">
-      <c r="A790" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B790" t="s">
-        <v>405</v>
-      </c>
-      <c r="C790" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="791" spans="1:4">
-      <c r="A791" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B791" t="s">
-        <v>406</v>
-      </c>
       <c r="C791" s="1">
         <v>0</v>
       </c>
+      <c r="D791" s="1"/>
     </row>
     <row r="792" spans="1:4">
       <c r="A792" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B792" t="s">
-        <v>5</v>
+      <c r="B792" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="C792" s="1">
         <v>0</v>
       </c>
+      <c r="D792" s="2"/>
     </row>
     <row r="793" spans="1:4">
       <c r="A793" s="2" t="s">
         <v>404</v>
       </c>
       <c r="B793" t="s">
-        <v>407</v>
+        <v>140</v>
       </c>
       <c r="C793" s="1">
         <v>0</v>
@@ -11343,7 +11370,7 @@
         <v>404</v>
       </c>
       <c r="B794" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="C794" s="1">
         <v>0</v>
@@ -11354,9 +11381,53 @@
         <v>404</v>
       </c>
       <c r="B795" t="s">
+        <v>406</v>
+      </c>
+      <c r="C795" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4">
+      <c r="A796" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B796" t="s">
+        <v>5</v>
+      </c>
+      <c r="C796" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4">
+      <c r="A797" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B797" t="s">
+        <v>407</v>
+      </c>
+      <c r="C797" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4">
+      <c r="A798" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B798" t="s">
+        <v>388</v>
+      </c>
+      <c r="C798" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4">
+      <c r="A799" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B799" t="s">
         <v>9</v>
       </c>
-      <c r="C795" s="1">
+      <c r="C799" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento ODS_LN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="419">
   <si>
     <t>TABELA</t>
   </si>
@@ -1337,8 +1337,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D799" totalsRowShown="0">
-  <autoFilter ref="A1:D799">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D802" totalsRowShown="0">
+  <autoFilter ref="A1:D802">
     <filterColumn colId="0"/>
   </autoFilter>
   <sortState ref="A2:D734">
@@ -1639,11 +1639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D799"/>
+  <dimension ref="A1:D802"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A620" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B634" sqref="B634"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C209" sqref="C209:C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4225,47 +4225,50 @@
       </c>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" t="s">
-        <v>383</v>
+      <c r="A210" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C210">
-        <v>1</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="C210" s="2">
+        <v>0</v>
+      </c>
+      <c r="D210" s="2"/>
     </row>
     <row r="211" spans="1:4">
-      <c r="A211" t="s">
-        <v>383</v>
+      <c r="A211" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C211">
-        <v>0</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="C211" s="2">
+        <v>0</v>
+      </c>
+      <c r="D211" s="2"/>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" t="s">
-        <v>383</v>
+      <c r="A212" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C212">
-        <v>0</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="C212" s="2">
+        <v>0</v>
+      </c>
+      <c r="D212" s="2"/>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>383</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>9</v>
+        <v>369</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4273,7 +4276,7 @@
         <v>383</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -4284,13 +4287,10 @@
         <v>383</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>273</v>
+        <v>371</v>
       </c>
       <c r="C215">
         <v>0</v>
-      </c>
-      <c r="D215">
-        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4298,7 +4298,7 @@
         <v>383</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -4309,7 +4309,7 @@
         <v>383</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>35</v>
+        <v>372</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>383</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -4334,13 +4334,10 @@
         <v>383</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>374</v>
+        <v>34</v>
       </c>
       <c r="C219">
         <v>0</v>
-      </c>
-      <c r="D219">
-        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4348,7 +4345,7 @@
         <v>383</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>375</v>
+        <v>35</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -4359,7 +4356,7 @@
         <v>383</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -4373,7 +4370,7 @@
         <v>383</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -4387,13 +4384,10 @@
         <v>383</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>14</v>
+        <v>375</v>
       </c>
       <c r="C223">
         <v>0</v>
-      </c>
-      <c r="D223">
-        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4401,7 +4395,7 @@
         <v>383</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>58</v>
+        <v>376</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -4415,10 +4409,13 @@
         <v>383</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>225</v>
+        <v>377</v>
       </c>
       <c r="C225">
         <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4426,10 +4423,13 @@
         <v>383</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>378</v>
+        <v>14</v>
       </c>
       <c r="C226">
         <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4437,10 +4437,13 @@
         <v>383</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>379</v>
+        <v>58</v>
       </c>
       <c r="C227">
         <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4448,7 +4451,7 @@
         <v>383</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>380</v>
+        <v>225</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -4459,7 +4462,7 @@
         <v>383</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -4470,13 +4473,10 @@
         <v>383</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C230">
         <v>0</v>
-      </c>
-      <c r="D230">
-        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4484,49 +4484,49 @@
         <v>383</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C231">
         <v>0</v>
-      </c>
-      <c r="D231" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>59</v>
-      </c>
-      <c r="B232" t="s">
-        <v>388</v>
+        <v>383</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="C232">
         <v>0</v>
-      </c>
-      <c r="D232">
-        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>59</v>
-      </c>
-      <c r="B233" t="s">
-        <v>5</v>
+        <v>383</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="C233">
         <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>59</v>
-      </c>
-      <c r="B234" t="s">
-        <v>6</v>
+        <v>383</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="C234">
         <v>0</v>
+      </c>
+      <c r="D234" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4534,9 +4534,12 @@
         <v>59</v>
       </c>
       <c r="B235" t="s">
-        <v>60</v>
+        <v>388</v>
       </c>
       <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
         <v>1</v>
       </c>
     </row>
@@ -4545,10 +4548,10 @@
         <v>59</v>
       </c>
       <c r="B236" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4556,7 +4559,7 @@
         <v>59</v>
       </c>
       <c r="B237" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -4567,10 +4570,10 @@
         <v>59</v>
       </c>
       <c r="B238" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4578,10 +4581,10 @@
         <v>59</v>
       </c>
       <c r="B239" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4589,7 +4592,7 @@
         <v>59</v>
       </c>
       <c r="B240" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -4600,7 +4603,7 @@
         <v>59</v>
       </c>
       <c r="B241" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -4611,7 +4614,7 @@
         <v>59</v>
       </c>
       <c r="B242" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -4622,7 +4625,7 @@
         <v>59</v>
       </c>
       <c r="B243" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4633,7 +4636,7 @@
         <v>59</v>
       </c>
       <c r="B244" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -4644,10 +4647,10 @@
         <v>59</v>
       </c>
       <c r="B245" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4655,7 +4658,7 @@
         <v>59</v>
       </c>
       <c r="B246" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -4666,7 +4669,7 @@
         <v>59</v>
       </c>
       <c r="B247" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -4677,10 +4680,10 @@
         <v>59</v>
       </c>
       <c r="B248" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4688,7 +4691,7 @@
         <v>59</v>
       </c>
       <c r="B249" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -4699,7 +4702,7 @@
         <v>59</v>
       </c>
       <c r="B250" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -4710,7 +4713,7 @@
         <v>59</v>
       </c>
       <c r="B251" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -4721,13 +4724,10 @@
         <v>59</v>
       </c>
       <c r="B252" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C252">
         <v>0</v>
-      </c>
-      <c r="D252">
-        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4735,13 +4735,10 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C253">
         <v>0</v>
-      </c>
-      <c r="D253">
-        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4749,7 +4746,7 @@
         <v>59</v>
       </c>
       <c r="B254" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -4760,9 +4757,12 @@
         <v>59</v>
       </c>
       <c r="B255" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
         <v>1</v>
       </c>
     </row>
@@ -4771,10 +4771,13 @@
         <v>59</v>
       </c>
       <c r="B256" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C256">
         <v>0</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4782,7 +4785,7 @@
         <v>59</v>
       </c>
       <c r="B257" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -4793,10 +4796,10 @@
         <v>59</v>
       </c>
       <c r="B258" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4804,7 +4807,7 @@
         <v>59</v>
       </c>
       <c r="B259" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -4815,7 +4818,7 @@
         <v>59</v>
       </c>
       <c r="B260" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -4826,7 +4829,7 @@
         <v>59</v>
       </c>
       <c r="B261" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -4837,7 +4840,7 @@
         <v>59</v>
       </c>
       <c r="B262" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -4848,7 +4851,7 @@
         <v>59</v>
       </c>
       <c r="B263" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -4859,7 +4862,7 @@
         <v>59</v>
       </c>
       <c r="B264" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -4870,7 +4873,7 @@
         <v>59</v>
       </c>
       <c r="B265" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -4881,7 +4884,7 @@
         <v>59</v>
       </c>
       <c r="B266" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -4892,7 +4895,7 @@
         <v>59</v>
       </c>
       <c r="B267" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -4903,7 +4906,7 @@
         <v>59</v>
       </c>
       <c r="B268" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -4914,7 +4917,7 @@
         <v>59</v>
       </c>
       <c r="B269" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -4925,7 +4928,7 @@
         <v>59</v>
       </c>
       <c r="B270" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -4936,7 +4939,7 @@
         <v>59</v>
       </c>
       <c r="B271" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -4947,7 +4950,7 @@
         <v>59</v>
       </c>
       <c r="B272" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -4958,7 +4961,7 @@
         <v>59</v>
       </c>
       <c r="B273" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -4969,7 +4972,7 @@
         <v>59</v>
       </c>
       <c r="B274" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -4980,7 +4983,7 @@
         <v>59</v>
       </c>
       <c r="B275" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -4991,7 +4994,7 @@
         <v>59</v>
       </c>
       <c r="B276" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -5002,7 +5005,7 @@
         <v>59</v>
       </c>
       <c r="B277" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -5013,7 +5016,7 @@
         <v>59</v>
       </c>
       <c r="B278" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -5024,7 +5027,7 @@
         <v>59</v>
       </c>
       <c r="B279" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -5035,7 +5038,7 @@
         <v>59</v>
       </c>
       <c r="B280" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -5046,7 +5049,7 @@
         <v>59</v>
       </c>
       <c r="B281" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -5057,7 +5060,7 @@
         <v>59</v>
       </c>
       <c r="B282" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -5068,7 +5071,7 @@
         <v>59</v>
       </c>
       <c r="B283" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -5079,7 +5082,7 @@
         <v>59</v>
       </c>
       <c r="B284" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -5090,7 +5093,7 @@
         <v>59</v>
       </c>
       <c r="B285" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -5101,7 +5104,7 @@
         <v>59</v>
       </c>
       <c r="B286" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -5112,7 +5115,7 @@
         <v>59</v>
       </c>
       <c r="B287" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -5123,7 +5126,7 @@
         <v>59</v>
       </c>
       <c r="B288" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -5134,7 +5137,7 @@
         <v>59</v>
       </c>
       <c r="B289" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -5145,7 +5148,7 @@
         <v>59</v>
       </c>
       <c r="B290" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -5156,7 +5159,7 @@
         <v>59</v>
       </c>
       <c r="B291" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -5167,7 +5170,7 @@
         <v>59</v>
       </c>
       <c r="B292" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -5178,7 +5181,7 @@
         <v>59</v>
       </c>
       <c r="B293" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -5189,7 +5192,7 @@
         <v>59</v>
       </c>
       <c r="B294" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -5200,13 +5203,10 @@
         <v>59</v>
       </c>
       <c r="B295" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C295">
         <v>0</v>
-      </c>
-      <c r="D295">
-        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5214,7 +5214,7 @@
         <v>59</v>
       </c>
       <c r="B296" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -5225,7 +5225,7 @@
         <v>59</v>
       </c>
       <c r="B297" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -5236,10 +5236,13 @@
         <v>59</v>
       </c>
       <c r="B298" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C298">
         <v>0</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5247,7 +5250,7 @@
         <v>59</v>
       </c>
       <c r="B299" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -5258,7 +5261,7 @@
         <v>59</v>
       </c>
       <c r="B300" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -5269,7 +5272,7 @@
         <v>59</v>
       </c>
       <c r="B301" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -5280,7 +5283,7 @@
         <v>59</v>
       </c>
       <c r="B302" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -5291,7 +5294,7 @@
         <v>59</v>
       </c>
       <c r="B303" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -5302,7 +5305,7 @@
         <v>59</v>
       </c>
       <c r="B304" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -5313,7 +5316,7 @@
         <v>59</v>
       </c>
       <c r="B305" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -5324,7 +5327,7 @@
         <v>59</v>
       </c>
       <c r="B306" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -5335,10 +5338,10 @@
         <v>59</v>
       </c>
       <c r="B307" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="C307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5346,13 +5349,10 @@
         <v>59</v>
       </c>
       <c r="B308" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C308">
         <v>0</v>
-      </c>
-      <c r="D308">
-        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -5360,7 +5360,7 @@
         <v>59</v>
       </c>
       <c r="B309" t="s">
-        <v>298</v>
+        <v>129</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -5371,10 +5371,10 @@
         <v>59</v>
       </c>
       <c r="B310" t="s">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="C310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -5382,10 +5382,13 @@
         <v>59</v>
       </c>
       <c r="B311" t="s">
-        <v>328</v>
+        <v>130</v>
       </c>
       <c r="C311">
         <v>0</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -5393,13 +5396,10 @@
         <v>59</v>
       </c>
       <c r="B312" t="s">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="C312">
         <v>0</v>
-      </c>
-      <c r="D312">
-        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -5407,13 +5407,10 @@
         <v>59</v>
       </c>
       <c r="B313" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="C313">
         <v>0</v>
-      </c>
-      <c r="D313">
-        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -5421,7 +5418,7 @@
         <v>59</v>
       </c>
       <c r="B314" t="s">
-        <v>415</v>
+        <v>328</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -5429,43 +5426,40 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B315" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="C315">
         <v>0</v>
       </c>
       <c r="D315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B316" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="C316">
         <v>0</v>
       </c>
       <c r="D316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B317" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="C317">
-        <v>0</v>
-      </c>
-      <c r="D317">
         <v>0</v>
       </c>
     </row>
@@ -5474,7 +5468,7 @@
         <v>403</v>
       </c>
       <c r="B318" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -5488,10 +5482,10 @@
         <v>403</v>
       </c>
       <c r="B319" t="s">
-        <v>79</v>
+        <v>390</v>
       </c>
       <c r="C319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -5502,10 +5496,10 @@
         <v>403</v>
       </c>
       <c r="B320" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -5516,7 +5510,7 @@
         <v>403</v>
       </c>
       <c r="B321" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -5530,10 +5524,10 @@
         <v>403</v>
       </c>
       <c r="B322" t="s">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="C322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -5544,10 +5538,10 @@
         <v>403</v>
       </c>
       <c r="B323" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -5558,7 +5552,7 @@
         <v>403</v>
       </c>
       <c r="B324" t="s">
-        <v>90</v>
+        <v>394</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -5572,7 +5566,7 @@
         <v>403</v>
       </c>
       <c r="B325" t="s">
-        <v>94</v>
+        <v>395</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -5586,7 +5580,7 @@
         <v>403</v>
       </c>
       <c r="B326" t="s">
-        <v>101</v>
+        <v>396</v>
       </c>
       <c r="C326">
         <v>0</v>
@@ -5600,7 +5594,7 @@
         <v>403</v>
       </c>
       <c r="B327" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -5614,10 +5608,10 @@
         <v>403</v>
       </c>
       <c r="B328" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="C328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D328">
         <v>0</v>
@@ -5628,7 +5622,7 @@
         <v>403</v>
       </c>
       <c r="B329" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -5642,7 +5636,7 @@
         <v>403</v>
       </c>
       <c r="B330" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -5656,10 +5650,10 @@
         <v>403</v>
       </c>
       <c r="B331" t="s">
-        <v>397</v>
+        <v>68</v>
       </c>
       <c r="C331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D331">
         <v>0</v>
@@ -5670,7 +5664,7 @@
         <v>403</v>
       </c>
       <c r="B332" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -5684,7 +5678,7 @@
         <v>403</v>
       </c>
       <c r="B333" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -5698,7 +5692,7 @@
         <v>403</v>
       </c>
       <c r="B334" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -5712,7 +5706,7 @@
         <v>403</v>
       </c>
       <c r="B335" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -5726,7 +5720,7 @@
         <v>403</v>
       </c>
       <c r="B336" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -5740,13 +5734,13 @@
         <v>403</v>
       </c>
       <c r="B337" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C337">
         <v>0</v>
       </c>
       <c r="D337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5754,13 +5748,13 @@
         <v>403</v>
       </c>
       <c r="B338" t="s">
-        <v>388</v>
+        <v>125</v>
       </c>
       <c r="C338">
         <v>0</v>
       </c>
       <c r="D338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5768,7 +5762,7 @@
         <v>403</v>
       </c>
       <c r="B339" t="s">
-        <v>400</v>
+        <v>129</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -5782,13 +5776,13 @@
         <v>403</v>
       </c>
       <c r="B340" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C340">
         <v>0</v>
       </c>
       <c r="D340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5796,24 +5790,24 @@
         <v>403</v>
       </c>
       <c r="B341" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="C341">
         <v>0</v>
       </c>
       <c r="D341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="B342" t="s">
-        <v>5</v>
+        <v>400</v>
       </c>
       <c r="C342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D342">
         <v>0</v>
@@ -5821,23 +5815,29 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="B343" t="s">
-        <v>6</v>
+        <v>401</v>
       </c>
       <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
         <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="B344" t="s">
-        <v>132</v>
+        <v>402</v>
       </c>
       <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
         <v>0</v>
       </c>
     </row>
@@ -5846,9 +5846,12 @@
         <v>131</v>
       </c>
       <c r="B345" t="s">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
         <v>0</v>
       </c>
     </row>
@@ -5857,7 +5860,7 @@
         <v>131</v>
       </c>
       <c r="B346" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -5868,7 +5871,7 @@
         <v>131</v>
       </c>
       <c r="B347" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -5879,13 +5882,10 @@
         <v>131</v>
       </c>
       <c r="B348" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="C348">
         <v>0</v>
-      </c>
-      <c r="D348">
-        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5893,13 +5893,10 @@
         <v>131</v>
       </c>
       <c r="B349" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="C349">
         <v>0</v>
-      </c>
-      <c r="D349">
-        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5907,13 +5904,10 @@
         <v>131</v>
       </c>
       <c r="B350" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="C350">
         <v>0</v>
-      </c>
-      <c r="D350">
-        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5921,7 +5915,7 @@
         <v>131</v>
       </c>
       <c r="B351" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -5935,7 +5929,7 @@
         <v>131</v>
       </c>
       <c r="B352" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -5949,10 +5943,13 @@
         <v>131</v>
       </c>
       <c r="B353" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="C353">
         <v>0</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5960,10 +5957,13 @@
         <v>131</v>
       </c>
       <c r="B354" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="C354">
         <v>0</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5971,10 +5971,13 @@
         <v>131</v>
       </c>
       <c r="B355" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C355">
         <v>0</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5982,7 +5985,7 @@
         <v>131</v>
       </c>
       <c r="B356" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -5993,7 +5996,7 @@
         <v>131</v>
       </c>
       <c r="B357" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -6004,13 +6007,10 @@
         <v>131</v>
       </c>
       <c r="B358" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C358">
         <v>0</v>
-      </c>
-      <c r="D358">
-        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6018,13 +6018,10 @@
         <v>131</v>
       </c>
       <c r="B359" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="C359">
         <v>0</v>
-      </c>
-      <c r="D359">
-        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6032,13 +6029,10 @@
         <v>131</v>
       </c>
       <c r="B360" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C360">
         <v>0</v>
-      </c>
-      <c r="D360">
-        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6046,7 +6040,7 @@
         <v>131</v>
       </c>
       <c r="B361" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="C361">
         <v>0</v>
@@ -6060,7 +6054,7 @@
         <v>131</v>
       </c>
       <c r="B362" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -6074,7 +6068,7 @@
         <v>131</v>
       </c>
       <c r="B363" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -6088,7 +6082,7 @@
         <v>131</v>
       </c>
       <c r="B364" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -6102,7 +6096,7 @@
         <v>131</v>
       </c>
       <c r="B365" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -6116,7 +6110,7 @@
         <v>131</v>
       </c>
       <c r="B366" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -6130,7 +6124,7 @@
         <v>131</v>
       </c>
       <c r="B367" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -6144,7 +6138,7 @@
         <v>131</v>
       </c>
       <c r="B368" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -6158,7 +6152,7 @@
         <v>131</v>
       </c>
       <c r="B369" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -6172,7 +6166,7 @@
         <v>131</v>
       </c>
       <c r="B370" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -6186,7 +6180,7 @@
         <v>131</v>
       </c>
       <c r="B371" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -6200,10 +6194,13 @@
         <v>131</v>
       </c>
       <c r="B372" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C372">
         <v>0</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -6211,7 +6208,7 @@
         <v>131</v>
       </c>
       <c r="B373" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="C373">
         <v>0</v>
@@ -6225,7 +6222,7 @@
         <v>131</v>
       </c>
       <c r="B374" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -6239,13 +6236,10 @@
         <v>131</v>
       </c>
       <c r="B375" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="C375">
         <v>0</v>
-      </c>
-      <c r="D375">
-        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6253,7 +6247,7 @@
         <v>131</v>
       </c>
       <c r="B376" t="s">
-        <v>388</v>
+        <v>149</v>
       </c>
       <c r="C376">
         <v>0</v>
@@ -6267,10 +6261,13 @@
         <v>131</v>
       </c>
       <c r="B377" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C377">
         <v>0</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -6278,10 +6275,13 @@
         <v>131</v>
       </c>
       <c r="B378" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="C378">
         <v>0</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6289,7 +6289,7 @@
         <v>131</v>
       </c>
       <c r="B379" t="s">
-        <v>90</v>
+        <v>388</v>
       </c>
       <c r="C379">
         <v>0</v>
@@ -6303,13 +6303,10 @@
         <v>131</v>
       </c>
       <c r="B380" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="C380">
         <v>0</v>
-      </c>
-      <c r="D380">
-        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -6317,13 +6314,10 @@
         <v>131</v>
       </c>
       <c r="B381" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="C381">
         <v>0</v>
-      </c>
-      <c r="D381">
-        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -6331,7 +6325,7 @@
         <v>131</v>
       </c>
       <c r="B382" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -6345,7 +6339,7 @@
         <v>131</v>
       </c>
       <c r="B383" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -6359,7 +6353,7 @@
         <v>131</v>
       </c>
       <c r="B384" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -6373,7 +6367,7 @@
         <v>131</v>
       </c>
       <c r="B385" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -6387,7 +6381,7 @@
         <v>131</v>
       </c>
       <c r="B386" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -6401,7 +6395,7 @@
         <v>131</v>
       </c>
       <c r="B387" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C387">
         <v>0</v>
@@ -6415,7 +6409,7 @@
         <v>131</v>
       </c>
       <c r="B388" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C388">
         <v>0</v>
@@ -6429,7 +6423,7 @@
         <v>131</v>
       </c>
       <c r="B389" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C389">
         <v>0</v>
@@ -6443,10 +6437,13 @@
         <v>131</v>
       </c>
       <c r="B390" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C390">
         <v>0</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -6454,10 +6451,13 @@
         <v>131</v>
       </c>
       <c r="B391" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C391">
         <v>0</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -6465,10 +6465,13 @@
         <v>131</v>
       </c>
       <c r="B392" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="C392">
         <v>0</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -6476,10 +6479,10 @@
         <v>131</v>
       </c>
       <c r="B393" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="C393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -6487,7 +6490,7 @@
         <v>131</v>
       </c>
       <c r="B394" t="s">
-        <v>329</v>
+        <v>162</v>
       </c>
       <c r="C394">
         <v>0</v>
@@ -6495,52 +6498,46 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B395" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B396" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" t="s">
+        <v>131</v>
+      </c>
+      <c r="B397" t="s">
+        <v>329</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" t="s">
         <v>163</v>
       </c>
-      <c r="B397" t="s">
-        <v>10</v>
-      </c>
-      <c r="C397">
-        <v>0</v>
-      </c>
-      <c r="D397">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4">
-      <c r="A398" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C398" s="1">
-        <v>1</v>
-      </c>
-      <c r="D398" s="1">
-        <v>0</v>
+      <c r="B398" t="s">
+        <v>5</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -6548,10 +6545,10 @@
         <v>163</v>
       </c>
       <c r="B399" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -6559,20 +6556,26 @@
         <v>163</v>
       </c>
       <c r="B400" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="C400">
         <v>0</v>
       </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" t="s">
+      <c r="A401" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B401" t="s">
-        <v>166</v>
-      </c>
-      <c r="C401">
+      <c r="B401" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C401" s="1">
+        <v>1</v>
+      </c>
+      <c r="D401" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6581,12 +6584,9 @@
         <v>163</v>
       </c>
       <c r="B402" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="C402">
-        <v>0</v>
-      </c>
-      <c r="D402">
         <v>1</v>
       </c>
     </row>
@@ -6595,13 +6595,10 @@
         <v>163</v>
       </c>
       <c r="B403" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C403">
         <v>0</v>
-      </c>
-      <c r="D403">
-        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6609,13 +6606,10 @@
         <v>163</v>
       </c>
       <c r="B404" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C404">
         <v>0</v>
-      </c>
-      <c r="D404">
-        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6623,7 +6617,7 @@
         <v>163</v>
       </c>
       <c r="B405" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -6637,7 +6631,7 @@
         <v>163</v>
       </c>
       <c r="B406" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -6651,7 +6645,7 @@
         <v>163</v>
       </c>
       <c r="B407" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -6665,7 +6659,7 @@
         <v>163</v>
       </c>
       <c r="B408" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="C408">
         <v>0</v>
@@ -6679,7 +6673,7 @@
         <v>163</v>
       </c>
       <c r="B409" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -6693,7 +6687,7 @@
         <v>163</v>
       </c>
       <c r="B410" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -6707,7 +6701,7 @@
         <v>163</v>
       </c>
       <c r="B411" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -6721,7 +6715,7 @@
         <v>163</v>
       </c>
       <c r="B412" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -6735,7 +6729,7 @@
         <v>163</v>
       </c>
       <c r="B413" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -6749,7 +6743,7 @@
         <v>163</v>
       </c>
       <c r="B414" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="C414">
         <v>0</v>
@@ -6763,7 +6757,7 @@
         <v>163</v>
       </c>
       <c r="B415" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="C415">
         <v>0</v>
@@ -6777,7 +6771,7 @@
         <v>163</v>
       </c>
       <c r="B416" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="C416">
         <v>0</v>
@@ -6791,7 +6785,7 @@
         <v>163</v>
       </c>
       <c r="B417" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="C417">
         <v>0</v>
@@ -6805,7 +6799,7 @@
         <v>163</v>
       </c>
       <c r="B418" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="C418">
         <v>0</v>
@@ -6819,7 +6813,7 @@
         <v>163</v>
       </c>
       <c r="B419" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -6833,7 +6827,7 @@
         <v>163</v>
       </c>
       <c r="B420" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -6847,7 +6841,7 @@
         <v>163</v>
       </c>
       <c r="B421" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -6861,7 +6855,7 @@
         <v>163</v>
       </c>
       <c r="B422" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="C422">
         <v>0</v>
@@ -6875,7 +6869,7 @@
         <v>163</v>
       </c>
       <c r="B423" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -6889,10 +6883,13 @@
         <v>163</v>
       </c>
       <c r="B424" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C424">
         <v>0</v>
+      </c>
+      <c r="D424">
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6900,10 +6897,13 @@
         <v>163</v>
       </c>
       <c r="B425" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C425">
         <v>0</v>
+      </c>
+      <c r="D425">
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6911,7 +6911,7 @@
         <v>163</v>
       </c>
       <c r="B426" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="C426">
         <v>0</v>
@@ -6925,13 +6925,10 @@
         <v>163</v>
       </c>
       <c r="B427" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C427">
         <v>0</v>
-      </c>
-      <c r="D427">
-        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6939,13 +6936,10 @@
         <v>163</v>
       </c>
       <c r="B428" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C428">
         <v>0</v>
-      </c>
-      <c r="D428">
-        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6953,7 +6947,7 @@
         <v>163</v>
       </c>
       <c r="B429" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C429">
         <v>0</v>
@@ -6967,7 +6961,7 @@
         <v>163</v>
       </c>
       <c r="B430" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -6981,7 +6975,7 @@
         <v>163</v>
       </c>
       <c r="B431" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -6995,7 +6989,7 @@
         <v>163</v>
       </c>
       <c r="B432" t="s">
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="C432">
         <v>0</v>
@@ -7009,7 +7003,7 @@
         <v>163</v>
       </c>
       <c r="B433" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -7023,7 +7017,7 @@
         <v>163</v>
       </c>
       <c r="B434" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -7037,7 +7031,7 @@
         <v>163</v>
       </c>
       <c r="B435" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -7051,7 +7045,7 @@
         <v>163</v>
       </c>
       <c r="B436" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C436">
         <v>0</v>
@@ -7065,7 +7059,7 @@
         <v>163</v>
       </c>
       <c r="B437" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -7079,7 +7073,7 @@
         <v>163</v>
       </c>
       <c r="B438" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C438">
         <v>0</v>
@@ -7093,7 +7087,7 @@
         <v>163</v>
       </c>
       <c r="B439" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="C439">
         <v>0</v>
@@ -7107,7 +7101,7 @@
         <v>163</v>
       </c>
       <c r="B440" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="C440">
         <v>0</v>
@@ -7121,7 +7115,7 @@
         <v>163</v>
       </c>
       <c r="B441" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="C441">
         <v>0</v>
@@ -7135,7 +7129,7 @@
         <v>163</v>
       </c>
       <c r="B442" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C442">
         <v>0</v>
@@ -7149,7 +7143,7 @@
         <v>163</v>
       </c>
       <c r="B443" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="C443">
         <v>0</v>
@@ -7163,7 +7157,7 @@
         <v>163</v>
       </c>
       <c r="B444" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -7177,7 +7171,7 @@
         <v>163</v>
       </c>
       <c r="B445" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C445">
         <v>0</v>
@@ -7191,7 +7185,7 @@
         <v>163</v>
       </c>
       <c r="B446" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C446">
         <v>0</v>
@@ -7205,7 +7199,7 @@
         <v>163</v>
       </c>
       <c r="B447" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -7219,7 +7213,7 @@
         <v>163</v>
       </c>
       <c r="B448" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C448">
         <v>0</v>
@@ -7233,10 +7227,13 @@
         <v>163</v>
       </c>
       <c r="B449" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="C449">
         <v>0</v>
+      </c>
+      <c r="D449">
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -7244,10 +7241,13 @@
         <v>163</v>
       </c>
       <c r="B450" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="C450">
         <v>0</v>
+      </c>
+      <c r="D450">
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -7255,10 +7255,13 @@
         <v>163</v>
       </c>
       <c r="B451" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="C451">
         <v>0</v>
+      </c>
+      <c r="D451">
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -7266,13 +7269,10 @@
         <v>163</v>
       </c>
       <c r="B452" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="C452">
         <v>0</v>
-      </c>
-      <c r="D452">
-        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -7280,13 +7280,10 @@
         <v>163</v>
       </c>
       <c r="B453" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="C453">
         <v>0</v>
-      </c>
-      <c r="D453">
-        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -7294,13 +7291,10 @@
         <v>163</v>
       </c>
       <c r="B454" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="C454">
         <v>0</v>
-      </c>
-      <c r="D454">
-        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -7308,7 +7302,7 @@
         <v>163</v>
       </c>
       <c r="B455" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C455">
         <v>0</v>
@@ -7322,7 +7316,7 @@
         <v>163</v>
       </c>
       <c r="B456" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -7336,7 +7330,7 @@
         <v>163</v>
       </c>
       <c r="B457" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -7350,7 +7344,7 @@
         <v>163</v>
       </c>
       <c r="B458" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -7364,7 +7358,7 @@
         <v>163</v>
       </c>
       <c r="B459" t="s">
-        <v>388</v>
+        <v>157</v>
       </c>
       <c r="C459">
         <v>0</v>
@@ -7378,7 +7372,7 @@
         <v>163</v>
       </c>
       <c r="B460" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C460">
         <v>0</v>
@@ -7392,7 +7386,7 @@
         <v>163</v>
       </c>
       <c r="B461" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="C461">
         <v>0</v>
@@ -7406,7 +7400,7 @@
         <v>163</v>
       </c>
       <c r="B462" t="s">
-        <v>194</v>
+        <v>388</v>
       </c>
       <c r="C462">
         <v>0</v>
@@ -7420,10 +7414,13 @@
         <v>163</v>
       </c>
       <c r="B463" t="s">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="C463">
         <v>0</v>
+      </c>
+      <c r="D463">
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -7431,10 +7428,13 @@
         <v>163</v>
       </c>
       <c r="B464" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="C464">
         <v>0</v>
+      </c>
+      <c r="D464">
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -7442,9 +7442,12 @@
         <v>163</v>
       </c>
       <c r="B465" t="s">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="C465">
+        <v>0</v>
+      </c>
+      <c r="D465">
         <v>1</v>
       </c>
     </row>
@@ -7453,7 +7456,7 @@
         <v>163</v>
       </c>
       <c r="B466" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="C466">
         <v>0</v>
@@ -7464,7 +7467,7 @@
         <v>163</v>
       </c>
       <c r="B467" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -7475,32 +7478,29 @@
         <v>163</v>
       </c>
       <c r="B468" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="C468">
-        <v>0</v>
-      </c>
-      <c r="D468">
         <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B469" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="C469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B470" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C470">
         <v>0</v>
@@ -7508,10 +7508,10 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B471" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -7525,12 +7525,9 @@
         <v>196</v>
       </c>
       <c r="B472" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C472">
-        <v>0</v>
-      </c>
-      <c r="D472">
         <v>1</v>
       </c>
     </row>
@@ -7539,7 +7536,7 @@
         <v>196</v>
       </c>
       <c r="B473" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="C473">
         <v>0</v>
@@ -7550,10 +7547,13 @@
         <v>196</v>
       </c>
       <c r="B474" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C474">
         <v>0</v>
+      </c>
+      <c r="D474">
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7561,10 +7561,13 @@
         <v>196</v>
       </c>
       <c r="B475" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C475">
         <v>0</v>
+      </c>
+      <c r="D475">
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7572,7 +7575,7 @@
         <v>196</v>
       </c>
       <c r="B476" t="s">
-        <v>197</v>
+        <v>62</v>
       </c>
       <c r="C476">
         <v>0</v>
@@ -7583,7 +7586,7 @@
         <v>196</v>
       </c>
       <c r="B477" t="s">
-        <v>198</v>
+        <v>63</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -7594,7 +7597,7 @@
         <v>196</v>
       </c>
       <c r="B478" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C478">
         <v>0</v>
@@ -7605,7 +7608,7 @@
         <v>196</v>
       </c>
       <c r="B479" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="C479">
         <v>0</v>
@@ -7616,13 +7619,10 @@
         <v>196</v>
       </c>
       <c r="B480" t="s">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="C480">
         <v>0</v>
-      </c>
-      <c r="D480">
-        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7630,13 +7630,10 @@
         <v>196</v>
       </c>
       <c r="B481" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C481">
         <v>0</v>
-      </c>
-      <c r="D481">
-        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7644,13 +7641,10 @@
         <v>196</v>
       </c>
       <c r="B482" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C482">
         <v>0</v>
-      </c>
-      <c r="D482">
-        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7658,10 +7652,13 @@
         <v>196</v>
       </c>
       <c r="B483" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C483">
         <v>0</v>
+      </c>
+      <c r="D483">
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7669,10 +7666,13 @@
         <v>196</v>
       </c>
       <c r="B484" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C484">
         <v>0</v>
+      </c>
+      <c r="D484">
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7680,10 +7680,13 @@
         <v>196</v>
       </c>
       <c r="B485" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="C485">
         <v>0</v>
+      </c>
+      <c r="D485">
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7691,7 +7694,7 @@
         <v>196</v>
       </c>
       <c r="B486" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C486">
         <v>0</v>
@@ -7702,7 +7705,7 @@
         <v>196</v>
       </c>
       <c r="B487" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C487">
         <v>0</v>
@@ -7713,7 +7716,7 @@
         <v>196</v>
       </c>
       <c r="B488" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="C488">
         <v>0</v>
@@ -7724,7 +7727,7 @@
         <v>196</v>
       </c>
       <c r="B489" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -7735,7 +7738,7 @@
         <v>196</v>
       </c>
       <c r="B490" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="C490">
         <v>0</v>
@@ -7746,7 +7749,7 @@
         <v>196</v>
       </c>
       <c r="B491" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="C491">
         <v>0</v>
@@ -7757,7 +7760,7 @@
         <v>196</v>
       </c>
       <c r="B492" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="C492">
         <v>0</v>
@@ -7768,7 +7771,7 @@
         <v>196</v>
       </c>
       <c r="B493" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="C493">
         <v>0</v>
@@ -7779,7 +7782,7 @@
         <v>196</v>
       </c>
       <c r="B494" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C494">
         <v>0</v>
@@ -7790,7 +7793,7 @@
         <v>196</v>
       </c>
       <c r="B495" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="C495">
         <v>0</v>
@@ -7801,7 +7804,7 @@
         <v>196</v>
       </c>
       <c r="B496" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C496">
         <v>0</v>
@@ -7812,13 +7815,10 @@
         <v>196</v>
       </c>
       <c r="B497" t="s">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="C497">
         <v>0</v>
-      </c>
-      <c r="D497">
-        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7826,13 +7826,10 @@
         <v>196</v>
       </c>
       <c r="B498" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C498">
         <v>0</v>
-      </c>
-      <c r="D498">
-        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -7840,7 +7837,7 @@
         <v>196</v>
       </c>
       <c r="B499" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C499">
         <v>0</v>
@@ -7851,10 +7848,13 @@
         <v>196</v>
       </c>
       <c r="B500" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="C500">
         <v>0</v>
+      </c>
+      <c r="D500">
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7862,10 +7862,13 @@
         <v>196</v>
       </c>
       <c r="B501" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C501">
         <v>0</v>
+      </c>
+      <c r="D501">
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7873,7 +7876,7 @@
         <v>196</v>
       </c>
       <c r="B502" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -7884,7 +7887,7 @@
         <v>196</v>
       </c>
       <c r="B503" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C503">
         <v>0</v>
@@ -7895,7 +7898,7 @@
         <v>196</v>
       </c>
       <c r="B504" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="C504">
         <v>0</v>
@@ -7906,7 +7909,7 @@
         <v>196</v>
       </c>
       <c r="B505" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="C505">
         <v>0</v>
@@ -7917,7 +7920,7 @@
         <v>196</v>
       </c>
       <c r="B506" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -7928,7 +7931,7 @@
         <v>196</v>
       </c>
       <c r="B507" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -7939,7 +7942,7 @@
         <v>196</v>
       </c>
       <c r="B508" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="C508">
         <v>0</v>
@@ -7950,13 +7953,10 @@
         <v>196</v>
       </c>
       <c r="B509" t="s">
-        <v>388</v>
+        <v>157</v>
       </c>
       <c r="C509">
         <v>0</v>
-      </c>
-      <c r="D509">
-        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7964,7 +7964,7 @@
         <v>196</v>
       </c>
       <c r="B510" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="C510">
         <v>0</v>
@@ -7975,7 +7975,7 @@
         <v>196</v>
       </c>
       <c r="B511" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="C511">
         <v>0</v>
@@ -7986,9 +7986,12 @@
         <v>196</v>
       </c>
       <c r="B512" t="s">
-        <v>34</v>
+        <v>388</v>
       </c>
       <c r="C512">
+        <v>0</v>
+      </c>
+      <c r="D512">
         <v>1</v>
       </c>
     </row>
@@ -7997,7 +8000,7 @@
         <v>196</v>
       </c>
       <c r="B513" t="s">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -8008,7 +8011,7 @@
         <v>196</v>
       </c>
       <c r="B514" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C514">
         <v>0</v>
@@ -8019,29 +8022,29 @@
         <v>196</v>
       </c>
       <c r="B515" t="s">
-        <v>415</v>
+        <v>34</v>
       </c>
       <c r="C515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:4">
       <c r="A516" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B516" t="s">
-        <v>5</v>
+        <v>231</v>
       </c>
       <c r="C516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:4">
       <c r="A517" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B517" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -8049,16 +8052,13 @@
     </row>
     <row r="518" spans="1:4">
       <c r="A518" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B518" t="s">
-        <v>60</v>
+        <v>415</v>
       </c>
       <c r="C518">
         <v>0</v>
-      </c>
-      <c r="D518">
-        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -8066,12 +8066,9 @@
         <v>201</v>
       </c>
       <c r="B519" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C519">
-        <v>0</v>
-      </c>
-      <c r="D519">
         <v>1</v>
       </c>
     </row>
@@ -8080,10 +8077,10 @@
         <v>201</v>
       </c>
       <c r="B520" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -8091,10 +8088,13 @@
         <v>201</v>
       </c>
       <c r="B521" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C521">
         <v>0</v>
+      </c>
+      <c r="D521">
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -8102,10 +8102,13 @@
         <v>201</v>
       </c>
       <c r="B522" t="s">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="C522">
         <v>0</v>
+      </c>
+      <c r="D522">
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -8113,10 +8116,10 @@
         <v>201</v>
       </c>
       <c r="B523" t="s">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="C523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -8124,7 +8127,7 @@
         <v>201</v>
       </c>
       <c r="B524" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C524">
         <v>0</v>
@@ -8135,7 +8138,7 @@
         <v>201</v>
       </c>
       <c r="B525" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="C525">
         <v>0</v>
@@ -8146,7 +8149,7 @@
         <v>201</v>
       </c>
       <c r="B526" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="C526">
         <v>0</v>
@@ -8157,7 +8160,7 @@
         <v>201</v>
       </c>
       <c r="B527" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C527">
         <v>0</v>
@@ -8168,7 +8171,7 @@
         <v>201</v>
       </c>
       <c r="B528" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C528">
         <v>0</v>
@@ -8179,7 +8182,7 @@
         <v>201</v>
       </c>
       <c r="B529" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="C529">
         <v>0</v>
@@ -8190,7 +8193,7 @@
         <v>201</v>
       </c>
       <c r="B530" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C530">
         <v>0</v>
@@ -8201,7 +8204,7 @@
         <v>201</v>
       </c>
       <c r="B531" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="C531">
         <v>0</v>
@@ -8212,7 +8215,7 @@
         <v>201</v>
       </c>
       <c r="B532" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="C532">
         <v>0</v>
@@ -8223,7 +8226,7 @@
         <v>201</v>
       </c>
       <c r="B533" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C533">
         <v>0</v>
@@ -8234,13 +8237,10 @@
         <v>201</v>
       </c>
       <c r="B534" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="C534">
         <v>0</v>
-      </c>
-      <c r="D534">
-        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -8248,7 +8248,7 @@
         <v>201</v>
       </c>
       <c r="B535" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C535">
         <v>0</v>
@@ -8259,7 +8259,7 @@
         <v>201</v>
       </c>
       <c r="B536" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C536">
         <v>0</v>
@@ -8270,10 +8270,13 @@
         <v>201</v>
       </c>
       <c r="B537" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="C537">
         <v>0</v>
+      </c>
+      <c r="D537">
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -8281,7 +8284,7 @@
         <v>201</v>
       </c>
       <c r="B538" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C538">
         <v>0</v>
@@ -8292,7 +8295,7 @@
         <v>201</v>
       </c>
       <c r="B539" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C539">
         <v>0</v>
@@ -8303,7 +8306,7 @@
         <v>201</v>
       </c>
       <c r="B540" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C540">
         <v>0</v>
@@ -8314,7 +8317,7 @@
         <v>201</v>
       </c>
       <c r="B541" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C541">
         <v>0</v>
@@ -8325,7 +8328,7 @@
         <v>201</v>
       </c>
       <c r="B542" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C542">
         <v>0</v>
@@ -8336,7 +8339,7 @@
         <v>201</v>
       </c>
       <c r="B543" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C543">
         <v>0</v>
@@ -8347,189 +8350,186 @@
         <v>201</v>
       </c>
       <c r="B544" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C544">
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:3">
       <c r="A545" t="s">
         <v>201</v>
       </c>
       <c r="B545" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C545">
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:3">
       <c r="A546" t="s">
         <v>201</v>
       </c>
       <c r="B546" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C546">
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:3">
       <c r="A547" t="s">
         <v>201</v>
       </c>
       <c r="B547" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C547">
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:3">
       <c r="A548" t="s">
         <v>201</v>
       </c>
       <c r="B548" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C548">
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:3">
       <c r="A549" t="s">
         <v>201</v>
       </c>
       <c r="B549" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C549">
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:3">
       <c r="A550" t="s">
         <v>201</v>
       </c>
       <c r="B550" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C550">
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:3">
       <c r="A551" t="s">
         <v>201</v>
       </c>
       <c r="B551" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C551">
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:3">
       <c r="A552" t="s">
         <v>201</v>
       </c>
       <c r="B552" t="s">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c r="C552">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="553" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
       <c r="A553" t="s">
         <v>201</v>
       </c>
       <c r="B553" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="C553">
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:3">
       <c r="A554" t="s">
         <v>201</v>
       </c>
       <c r="B554" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C554">
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:3">
       <c r="A555" t="s">
         <v>201</v>
       </c>
       <c r="B555" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="C555">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
       <c r="A556" t="s">
         <v>201</v>
       </c>
       <c r="B556" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="C556">
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:3">
       <c r="A557" t="s">
         <v>201</v>
       </c>
       <c r="B557" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="C557">
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:3">
       <c r="A558" t="s">
         <v>201</v>
       </c>
       <c r="B558" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C558">
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:3">
       <c r="A559" t="s">
         <v>201</v>
       </c>
       <c r="B559" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="C559">
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:3">
       <c r="A560" t="s">
         <v>201</v>
       </c>
       <c r="B560" t="s">
-        <v>388</v>
+        <v>157</v>
       </c>
       <c r="C560">
         <v>0</v>
-      </c>
-      <c r="D560">
-        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -8537,7 +8537,7 @@
         <v>201</v>
       </c>
       <c r="B561" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="C561">
         <v>0</v>
@@ -8548,10 +8548,10 @@
         <v>201</v>
       </c>
       <c r="B562" t="s">
-        <v>34</v>
+        <v>192</v>
       </c>
       <c r="C562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -8559,10 +8559,13 @@
         <v>201</v>
       </c>
       <c r="B563" t="s">
-        <v>116</v>
+        <v>388</v>
       </c>
       <c r="C563">
         <v>0</v>
+      </c>
+      <c r="D563">
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -8570,7 +8573,7 @@
         <v>201</v>
       </c>
       <c r="B564" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="C564">
         <v>0</v>
@@ -8581,12 +8584,9 @@
         <v>201</v>
       </c>
       <c r="B565" t="s">
-        <v>364</v>
+        <v>34</v>
       </c>
       <c r="C565">
-        <v>0</v>
-      </c>
-      <c r="D565">
         <v>1</v>
       </c>
     </row>
@@ -8595,13 +8595,10 @@
         <v>201</v>
       </c>
       <c r="B566" t="s">
-        <v>365</v>
+        <v>116</v>
       </c>
       <c r="C566">
         <v>0</v>
-      </c>
-      <c r="D566">
-        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -8609,13 +8606,10 @@
         <v>201</v>
       </c>
       <c r="B567" t="s">
-        <v>386</v>
+        <v>117</v>
       </c>
       <c r="C567">
         <v>0</v>
-      </c>
-      <c r="D567">
-        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -8623,7 +8617,7 @@
         <v>201</v>
       </c>
       <c r="B568" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="C568">
         <v>0</v>
@@ -8634,32 +8628,38 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B569" t="s">
-        <v>5</v>
+        <v>365</v>
       </c>
       <c r="C569">
+        <v>0</v>
+      </c>
+      <c r="D569">
         <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:4">
       <c r="A570" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B570" t="s">
-        <v>6</v>
+        <v>386</v>
       </c>
       <c r="C570">
         <v>0</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:4">
       <c r="A571" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B571" t="s">
-        <v>207</v>
+        <v>387</v>
       </c>
       <c r="C571">
         <v>0</v>
@@ -8